--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9A337-286F-4027-848C-3ECD11836F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D9068-9073-44E0-8DD9-B332F42CB512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -439,9 +439,6 @@
     <t>Future feature (EFR32 as transceiver)</t>
   </si>
   <si>
-    <t>XTAL</t>
-  </si>
-  <si>
     <t>PD00</t>
   </si>
   <si>
@@ -1286,9 +1283,6 @@
   </si>
   <si>
     <t>3)</t>
-  </si>
-  <si>
-    <t>HF/LF (mounted LF 32.768kHz)</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1345,6 +1339,12 @@
       </rPr>
       <t>EFR32xG22 (BRD4183A - QFN 32 pin)</t>
     </r>
+  </si>
+  <si>
+    <t>LFXTAL</t>
+  </si>
+  <si>
+    <t>LF 32.768kHz</t>
   </si>
 </sst>
 </file>
@@ -2188,16 +2188,20 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,79 +2210,19 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,43 +2231,25 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2368,6 +2294,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2386,33 +2321,98 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3493,7 +3493,7 @@
   <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M39" sqref="M39:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,14 +3518,14 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N1" s="5"/>
       <c r="AA1" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -3588,14 +3588,14 @@
         <v>54</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AD3" s="3" t="str">
         <f>Q3</f>
         <v>CPU Port</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>46</v>
@@ -3624,10 +3624,10 @@
         <v>62</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K4" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>59</v>
@@ -3645,7 +3645,7 @@
         <v>60</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>46</v>
@@ -3654,30 +3654,30 @@
         <v>62</v>
       </c>
       <c r="U4" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="V4" s="96" t="s">
         <v>410</v>
       </c>
-      <c r="V4" s="96" t="s">
-        <v>411</v>
-      </c>
       <c r="W4" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X4" s="97" t="s">
         <v>60</v>
       </c>
       <c r="Y4" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA4" t="str">
-        <f>M4</f>
+        <f t="shared" ref="AA4:AC5" si="0">M4</f>
         <v>A/D</v>
       </c>
       <c r="AB4">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC4" t="str">
-        <f>O4</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="AD4" t="str">
@@ -3685,7 +3685,7 @@
         <v>PC04</v>
       </c>
       <c r="AE4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>46</v>
@@ -3714,10 +3714,10 @@
         <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K5" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>59</v>
@@ -3735,7 +3735,7 @@
         <v>61</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>46</v>
@@ -3744,30 +3744,30 @@
         <v>62</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V5" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W5" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X5" s="97" t="s">
         <v>61</v>
       </c>
       <c r="Y5" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA5" t="str">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>A/D</v>
       </c>
       <c r="AB5">
-        <f>N5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC5" t="str">
-        <f>O5</f>
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="AD5" t="str">
@@ -3775,7 +3775,7 @@
         <v>PC05</v>
       </c>
       <c r="AE5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>62</v>
@@ -3810,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>67</v>
@@ -3828,7 +3828,7 @@
         <v>71</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>62</v>
@@ -3840,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="Y7" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA7" s="9" t="str">
         <f>M7</f>
@@ -3876,10 +3876,10 @@
         <v>74</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>62</v>
@@ -3891,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M8" s="91" t="s">
         <v>67</v>
@@ -3906,7 +3906,7 @@
         <v>74</v>
       </c>
       <c r="Q8" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R8" s="91"/>
       <c r="S8" s="91" t="s">
@@ -3920,10 +3920,10 @@
       </c>
       <c r="V8" s="96"/>
       <c r="W8" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y8" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>62</v>
@@ -3952,10 +3952,10 @@
         <v>62</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K9" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M9" s="91" t="s">
         <v>67</v>
@@ -3980,13 +3980,13 @@
         <v>62</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="W9" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y9" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -3994,22 +3994,22 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>62</v>
@@ -4018,28 +4018,28 @@
         <v>62</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K11" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>62</v>
@@ -4048,49 +4048,49 @@
         <v>62</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Y11" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA11" t="str">
-        <f t="shared" ref="AA11:AA13" si="0">M11</f>
+        <f t="shared" ref="AA11:AA13" si="1">M11</f>
         <v>DEBUG</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" ref="AB11:AB13" si="1">N11</f>
+        <f t="shared" ref="AB11:AB13" si="2">N11</f>
         <v>TCK_SWCLK</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" ref="AC11:AC13" si="2">O11</f>
+        <f t="shared" ref="AC11:AC13" si="3">O11</f>
         <v>-</v>
       </c>
       <c r="AD11" t="str">
-        <f t="shared" ref="AD11:AD13" si="3">Q11</f>
+        <f t="shared" ref="AD11:AD13" si="4">Q11</f>
         <v>PA01</v>
       </c>
       <c r="AE11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>62</v>
@@ -4099,28 +4099,28 @@
         <v>62</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>62</v>
@@ -4129,49 +4129,49 @@
         <v>62</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Y12" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DEBUG</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TMS_SWDIO</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="AD12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PA02</v>
       </c>
       <c r="AE12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>62</v>
@@ -4180,28 +4180,28 @@
         <v>62</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K13" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S13" s="9" t="s">
         <v>62</v>
@@ -4210,29 +4210,29 @@
         <v>62</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Y13" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DEBUG</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TDO_SWO</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="AD13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PA03</v>
       </c>
       <c r="AE13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>62</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="I15" s="9"/>
       <c r="K15" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>77</v>
@@ -4283,7 +4283,7 @@
         <v>80</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S15" s="9" t="s">
         <v>62</v>
@@ -4293,26 +4293,26 @@
       </c>
       <c r="U15" s="9"/>
       <c r="Y15" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" ref="AA15:AA16" si="4">M15</f>
+        <f t="shared" ref="AA15:AA16" si="5">M15</f>
         <v>DIN</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" ref="AB15:AB16" si="5">N15</f>
+        <f t="shared" ref="AB15:AB16" si="6">N15</f>
         <v>BTN0</v>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" ref="AC15:AC16" si="6">O15</f>
+        <f t="shared" ref="AC15:AC16" si="7">O15</f>
         <v>H7</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" ref="AD15:AD16" si="7">Q15</f>
+        <f t="shared" ref="AD15:AD16" si="8">Q15</f>
         <v>PB00</v>
       </c>
       <c r="AE15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>109</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>46</v>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="K16" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>77</v>
@@ -4360,7 +4360,7 @@
         <v>109</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S16" s="9" t="s">
         <v>46</v>
@@ -4370,26 +4370,26 @@
       </c>
       <c r="U16" s="9"/>
       <c r="Y16" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DIN</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ERR_TEMP</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="AD16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>PA04</v>
       </c>
       <c r="AE16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>46</v>
@@ -4424,7 +4424,7 @@
         <v>119</v>
       </c>
       <c r="K18" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>114</v>
@@ -4442,7 +4442,7 @@
         <v>116</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S18" s="9" t="s">
         <v>46</v>
@@ -4454,29 +4454,29 @@
         <v>119</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Y18" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" ref="AA18:AA19" si="8">M18</f>
+        <f t="shared" ref="AA18" si="9">M18</f>
         <v>PWM</v>
       </c>
       <c r="AB18">
-        <f t="shared" ref="AB18:AB19" si="9">N18</f>
+        <f t="shared" ref="AB18" si="10">N18</f>
         <v>0</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" ref="AC18:AC19" si="10">O18</f>
+        <f t="shared" ref="AC18" si="11">O18</f>
         <v>-</v>
       </c>
       <c r="AD18" t="str">
-        <f t="shared" ref="AD18:AD19" si="11">Q18</f>
+        <f t="shared" ref="AD18" si="12">Q18</f>
         <v>PA00</v>
       </c>
       <c r="AE18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>46</v>
@@ -4508,7 +4508,7 @@
         <v>119</v>
       </c>
       <c r="K19" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M19" s="91" t="s">
         <v>114</v>
@@ -4537,10 +4537,10 @@
       </c>
       <c r="V19" s="96"/>
       <c r="W19" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y19" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
         <v>85</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>62</v>
@@ -4575,7 +4575,7 @@
         <v>87</v>
       </c>
       <c r="K21" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>82</v>
@@ -4593,7 +4593,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S21" s="9" t="s">
         <v>62</v>
@@ -4605,22 +4605,22 @@
         <v>87</v>
       </c>
       <c r="Y21" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA21" s="9" t="str">
-        <f t="shared" ref="AA21:AA23" si="12">M21</f>
+        <f t="shared" ref="AA21:AA23" si="13">M21</f>
         <v>UART/US1</v>
       </c>
       <c r="AB21" s="9" t="str">
-        <f t="shared" ref="AB21:AB23" si="13">N21</f>
+        <f t="shared" ref="AB21:AB23" si="14">N21</f>
         <v>TxD</v>
       </c>
       <c r="AC21" s="9" t="str">
-        <f t="shared" ref="AC21:AC23" si="14">O21</f>
+        <f t="shared" ref="AC21:AC23" si="15">O21</f>
         <v>H12</v>
       </c>
       <c r="AD21" s="9" t="str">
-        <f t="shared" ref="AD21:AD23" si="15">Q21</f>
+        <f t="shared" ref="AD21:AD23" si="16">Q21</f>
         <v>PA05</v>
       </c>
       <c r="AE21" s="9" t="s">
@@ -4644,7 +4644,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>62</v>
@@ -4656,7 +4656,7 @@
         <v>87</v>
       </c>
       <c r="K22" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>82</v>
@@ -4674,7 +4674,7 @@
         <v>86</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S22" s="9" t="s">
         <v>62</v>
@@ -4686,22 +4686,22 @@
         <v>87</v>
       </c>
       <c r="Y22" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA22" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>UART/US1</v>
       </c>
       <c r="AB22" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>RxD</v>
       </c>
       <c r="AC22" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>H14</v>
       </c>
       <c r="AD22" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PA06</v>
       </c>
       <c r="AE22" s="9" t="s">
@@ -4713,19 +4713,19 @@
         <v>82</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>62</v>
@@ -4735,22 +4735,22 @@
       </c>
       <c r="I23" s="9"/>
       <c r="K23" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M23" s="91" t="s">
         <v>82</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O23" s="91" t="s">
         <v>46</v>
       </c>
       <c r="P23" s="91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R23" s="91"/>
       <c r="S23" s="91" t="s">
@@ -4761,35 +4761,35 @@
       </c>
       <c r="U23" s="91"/>
       <c r="V23" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="W23" s="99" t="s">
         <v>392</v>
-      </c>
-      <c r="W23" s="99" t="s">
-        <v>393</v>
       </c>
       <c r="X23" s="97" t="s">
         <v>72</v>
       </c>
       <c r="Y23" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>UART/US1</v>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ENABLE</v>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>PB04</v>
       </c>
       <c r="AE23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>46</v>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="I25" s="9"/>
       <c r="K25" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>88</v>
@@ -4840,7 +4840,7 @@
         <v>72</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>46</v>
@@ -4850,13 +4850,13 @@
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="96" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X25" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y25" s="98" t="s">
         <v>395</v>
-      </c>
-      <c r="Y25" s="98" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>96</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>46</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="I26" s="9"/>
       <c r="K26" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M26" s="91" t="s">
         <v>88</v>
@@ -4912,10 +4912,10 @@
       </c>
       <c r="U26" s="91"/>
       <c r="W26" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y26" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -4923,19 +4923,19 @@
         <v>88</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>46</v>
@@ -4944,25 +4944,25 @@
         <v>62</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K27" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M27" s="91" t="s">
         <v>88</v>
       </c>
       <c r="N27" s="92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O27" s="91" t="s">
         <v>46</v>
       </c>
       <c r="P27" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R27" s="91"/>
       <c r="S27" s="91" t="s">
@@ -4972,13 +4972,13 @@
         <v>62</v>
       </c>
       <c r="U27" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W27" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y27" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>62</v>
@@ -5010,10 +5010,10 @@
         <v>62</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K29" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>99</v>
@@ -5031,7 +5031,7 @@
         <v>106</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>62</v>
@@ -5040,29 +5040,29 @@
         <v>62</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y29" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" ref="AA29:AA31" si="16">M29</f>
+        <f t="shared" ref="AA29:AA31" si="17">M29</f>
         <v>SPI/US0</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" ref="AB29:AB31" si="17">N29</f>
+        <f t="shared" ref="AB29:AB31" si="18">N29</f>
         <v>MOSI</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" ref="AC29:AC31" si="18">O29</f>
+        <f t="shared" ref="AC29:AC31" si="19">O29</f>
         <v>H4</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" ref="AD29:AD31" si="19">Q29</f>
+        <f t="shared" ref="AD29:AD31" si="20">Q29</f>
         <v>PC00</v>
       </c>
       <c r="AE29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -5073,7 +5073,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>111</v>
@@ -5082,7 +5082,7 @@
         <v>107</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>62</v>
@@ -5091,10 +5091,10 @@
         <v>62</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K30" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>99</v>
@@ -5103,7 +5103,7 @@
         <v>101</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>111</v>
@@ -5112,7 +5112,7 @@
         <v>107</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>62</v>
@@ -5121,29 +5121,29 @@
         <v>62</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y30" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>SPI/US0</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MISO</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>H6</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>PC01</v>
       </c>
       <c r="AE30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
         <v>108</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>62</v>
@@ -5172,10 +5172,10 @@
         <v>62</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K31" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>99</v>
@@ -5193,7 +5193,7 @@
         <v>108</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>62</v>
@@ -5202,88 +5202,88 @@
         <v>62</v>
       </c>
       <c r="U31" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y31" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="17"/>
+        <v>SPI/US0</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="18"/>
+        <v>SCLK</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="19"/>
+        <v>H8</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="20"/>
+        <v>PC02</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="118" t="s">
         <v>406</v>
       </c>
-      <c r="Y31" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA31" t="str">
-        <f t="shared" si="16"/>
-        <v>SPI/US0</v>
-      </c>
-      <c r="AB31" t="str">
-        <f t="shared" si="17"/>
-        <v>SCLK</v>
-      </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="18"/>
-        <v>H8</v>
-      </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="19"/>
-        <v>PC02</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="192" t="s">
+      <c r="K32" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M32" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="193" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="192" t="s">
+      <c r="N32" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="O32" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="192" t="s">
+      <c r="P32" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="192" t="s">
+      <c r="Q32" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192" t="s">
+      <c r="R32" s="118"/>
+      <c r="S32" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="192" t="s">
+      <c r="T32" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="192" t="s">
-        <v>407</v>
-      </c>
-      <c r="K32" s="89" t="s">
-        <v>389</v>
-      </c>
-      <c r="M32" s="192" t="s">
-        <v>103</v>
-      </c>
-      <c r="N32" s="193" t="s">
-        <v>405</v>
-      </c>
-      <c r="O32" s="192" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="192" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q32" s="192" t="s">
-        <v>109</v>
-      </c>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192" t="s">
-        <v>62</v>
-      </c>
-      <c r="T32" s="192" t="s">
-        <v>62</v>
-      </c>
-      <c r="U32" s="192" t="s">
-        <v>407</v>
+      <c r="U32" s="118" t="s">
+        <v>406</v>
       </c>
       <c r="V32" s="96"/>
       <c r="Y32" s="98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>121</v>
@@ -5303,7 +5303,7 @@
         <v>122</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>46</v>
@@ -5312,16 +5312,16 @@
         <v>62</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K33" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>103</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>121</v>
@@ -5333,7 +5333,7 @@
         <v>122</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>46</v>
@@ -5342,31 +5342,31 @@
         <v>62</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V33" s="96"/>
       <c r="W33" s="96"/>
       <c r="Y33" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" ref="AA33" si="20">M33</f>
+        <f t="shared" ref="AA33" si="21">M33</f>
         <v>SPI</v>
       </c>
       <c r="AB33" t="str">
-        <f t="shared" ref="AB33" si="21">N33</f>
+        <f t="shared" ref="AB33" si="22">N33</f>
         <v>CS_HTP</v>
       </c>
       <c r="AC33" t="str">
-        <f t="shared" ref="AC33" si="22">O33</f>
+        <f t="shared" ref="AC33" si="23">O33</f>
         <v>H10</v>
       </c>
       <c r="AD33" t="str">
-        <f t="shared" ref="AD33" si="23">Q33</f>
+        <f t="shared" ref="AD33" si="24">Q33</f>
         <v>PC03</v>
       </c>
       <c r="AE33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>115</v>
       </c>
       <c r="F35" s="93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>62</v>
@@ -5401,7 +5401,7 @@
         <v>128</v>
       </c>
       <c r="K35" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M35" s="93" t="s">
         <v>124</v>
@@ -5429,13 +5429,13 @@
         <v>128</v>
       </c>
       <c r="W35" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X35" s="99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y35" s="98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -5455,7 +5455,7 @@
         <v>61</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>62</v>
@@ -5467,7 +5467,7 @@
         <v>128</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>124</v>
@@ -5485,7 +5485,7 @@
         <v>61</v>
       </c>
       <c r="R36" s="93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>62</v>
@@ -5497,10 +5497,10 @@
         <v>128</v>
       </c>
       <c r="V36" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y36" s="98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>62</v>
@@ -5532,7 +5532,7 @@
         <v>128</v>
       </c>
       <c r="K37" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>124</v>
@@ -5550,7 +5550,7 @@
         <v>60</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>62</v>
@@ -5562,10 +5562,10 @@
         <v>128</v>
       </c>
       <c r="V37" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y37" s="98" t="s">
         <v>411</v>
-      </c>
-      <c r="Y37" s="98" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>129</v>
+        <v>421</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>46</v>
@@ -5585,25 +5585,25 @@
         <v>46</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K39" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>129</v>
+        <v>421</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>46</v>
@@ -5615,27 +5615,27 @@
         <v>46</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Y39" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>129</v>
+        <v>421</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>46</v>
@@ -5647,25 +5647,25 @@
         <v>46</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K40" s="89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>129</v>
+        <v>421</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>46</v>
@@ -5677,22 +5677,22 @@
         <v>46</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Y40" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5720,7 +5720,7 @@
   <sheetData>
     <row r="1" spans="1:59" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5844,26 +5844,26 @@
     </row>
     <row r="3" spans="1:59" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -5971,45 +5971,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="131" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="135" t="s">
+      <c r="E5" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="172" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="172" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="135" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="140" t="s">
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="175"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="131" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="133"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="181" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="183"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6044,45 +6044,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="121" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
+      <c r="E6" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="188" t="s">
+        <v>271</v>
+      </c>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6123,29 +6123,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138" t="s">
-        <v>279</v>
-      </c>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y7" s="138"/>
+      <c r="K7" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180" t="s">
+        <v>278</v>
+      </c>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y7" s="180"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6308,13 +6308,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="37"/>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6322,7 +6322,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="101"/>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -6335,7 +6335,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="39"/>
       <c r="W10" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -6346,14 +6346,14 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -6385,7 +6385,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6393,7 +6393,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -6406,7 +6406,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="12" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6571,17 +6571,17 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="147" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="187"/>
+      <c r="E14" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="128"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6606,10 +6606,10 @@
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
-      <c r="AE14" s="147" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF14" s="187"/>
+      <c r="AE14" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF14" s="128"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
@@ -6650,74 +6650,74 @@
       <c r="E15" s="105"/>
       <c r="F15" s="105"/>
       <c r="G15" s="107" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="185" t="s">
-        <v>280</v>
-      </c>
-      <c r="I15" s="186"/>
-      <c r="J15" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="150"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="120"/>
+        <v>274</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="192"/>
       <c r="AG15" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH15" s="185" t="s">
-        <v>280</v>
-      </c>
-      <c r="AI15" s="186"/>
-      <c r="AJ15" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AK15" s="150"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="119"/>
-      <c r="BC15" s="119"/>
-      <c r="BD15" s="119"/>
-      <c r="BE15" s="119"/>
-      <c r="BF15" s="119"/>
+        <v>274</v>
+      </c>
+      <c r="AH15" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK15" s="132"/>
+      <c r="AL15" s="190"/>
+      <c r="AM15" s="191"/>
+      <c r="AN15" s="191"/>
+      <c r="AO15" s="191"/>
+      <c r="AP15" s="191"/>
+      <c r="AQ15" s="191"/>
+      <c r="AR15" s="191"/>
+      <c r="AS15" s="191"/>
+      <c r="AT15" s="191"/>
+      <c r="AU15" s="191"/>
+      <c r="AV15" s="191"/>
+      <c r="AW15" s="191"/>
+      <c r="AX15" s="191"/>
+      <c r="AY15" s="191"/>
+      <c r="AZ15" s="191"/>
+      <c r="BA15" s="191"/>
+      <c r="BB15" s="191"/>
+      <c r="BC15" s="191"/>
+      <c r="BD15" s="191"/>
+      <c r="BE15" s="191"/>
+      <c r="BF15" s="191"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -6727,78 +6727,78 @@
       <c r="E16" s="108"/>
       <c r="F16" s="108"/>
       <c r="G16" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H16" s="100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="185" t="s">
-        <v>281</v>
-      </c>
-      <c r="K16" s="186"/>
-      <c r="L16" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="M16" s="150"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="120"/>
+      <c r="J16" s="129" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="130"/>
+      <c r="L16" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="M16" s="132"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="191"/>
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="191"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="191"/>
+      <c r="AF16" s="192"/>
       <c r="AG16" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH16" s="100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="185" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK16" s="186"/>
-      <c r="AL16" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="119"/>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
-      <c r="BA16" s="119"/>
-      <c r="BB16" s="119"/>
-      <c r="BC16" s="119"/>
-      <c r="BD16" s="119"/>
-      <c r="BE16" s="119"/>
-      <c r="BF16" s="119"/>
+      <c r="AJ16" s="129" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM16" s="132"/>
+      <c r="AN16" s="190"/>
+      <c r="AO16" s="191"/>
+      <c r="AP16" s="191"/>
+      <c r="AQ16" s="191"/>
+      <c r="AR16" s="191"/>
+      <c r="AS16" s="191"/>
+      <c r="AT16" s="191"/>
+      <c r="AU16" s="191"/>
+      <c r="AV16" s="191"/>
+      <c r="AW16" s="191"/>
+      <c r="AX16" s="191"/>
+      <c r="AY16" s="191"/>
+      <c r="AZ16" s="191"/>
+      <c r="BA16" s="191"/>
+      <c r="BB16" s="191"/>
+      <c r="BC16" s="191"/>
+      <c r="BD16" s="191"/>
+      <c r="BE16" s="191"/>
+      <c r="BF16" s="191"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>1</v>
@@ -6808,78 +6808,78 @@
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
       <c r="G17" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H17" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="185" t="s">
-        <v>282</v>
-      </c>
-      <c r="M17" s="186"/>
-      <c r="N17" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="O17" s="150"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="119"/>
-      <c r="X17" s="119"/>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="120"/>
+      <c r="L17" s="129" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="130"/>
+      <c r="N17" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="132"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="191"/>
+      <c r="AA17" s="191"/>
+      <c r="AB17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="191"/>
+      <c r="AF17" s="192"/>
       <c r="AG17" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH17" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="185" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM17" s="186"/>
-      <c r="AN17" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO17" s="150"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
-      <c r="BA17" s="119"/>
-      <c r="BB17" s="119"/>
-      <c r="BC17" s="119"/>
-      <c r="BD17" s="119"/>
-      <c r="BE17" s="119"/>
-      <c r="BF17" s="119"/>
+      <c r="AL17" s="129" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO17" s="132"/>
+      <c r="AP17" s="190"/>
+      <c r="AQ17" s="191"/>
+      <c r="AR17" s="191"/>
+      <c r="AS17" s="191"/>
+      <c r="AT17" s="191"/>
+      <c r="AU17" s="191"/>
+      <c r="AV17" s="191"/>
+      <c r="AW17" s="191"/>
+      <c r="AX17" s="191"/>
+      <c r="AY17" s="191"/>
+      <c r="AZ17" s="191"/>
+      <c r="BA17" s="191"/>
+      <c r="BB17" s="191"/>
+      <c r="BC17" s="191"/>
+      <c r="BD17" s="191"/>
+      <c r="BE17" s="191"/>
+      <c r="BF17" s="191"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>1</v>
@@ -6889,69 +6889,69 @@
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I18" s="111"/>
       <c r="J18" s="111"/>
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="O18" s="148"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="119"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="120"/>
+      <c r="N18" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="O18" s="136"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
+      <c r="Y18" s="191"/>
+      <c r="Z18" s="191"/>
+      <c r="AA18" s="191"/>
+      <c r="AB18" s="191"/>
+      <c r="AC18" s="191"/>
+      <c r="AD18" s="191"/>
+      <c r="AE18" s="191"/>
+      <c r="AF18" s="192"/>
       <c r="AG18" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH18" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI18" s="111"/>
       <c r="AJ18" s="111"/>
       <c r="AK18" s="111"/>
       <c r="AL18" s="111"/>
       <c r="AM18" s="110"/>
-      <c r="AN18" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="119"/>
-      <c r="AU18" s="119"/>
-      <c r="AV18" s="119"/>
-      <c r="AW18" s="119"/>
-      <c r="AX18" s="119"/>
-      <c r="AY18" s="119"/>
-      <c r="AZ18" s="119"/>
-      <c r="BA18" s="119"/>
-      <c r="BB18" s="119"/>
-      <c r="BC18" s="119"/>
-      <c r="BD18" s="119"/>
-      <c r="BE18" s="119"/>
-      <c r="BF18" s="119"/>
+      <c r="AN18" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="AO18" s="136"/>
+      <c r="AP18" s="190"/>
+      <c r="AQ18" s="191"/>
+      <c r="AR18" s="191"/>
+      <c r="AS18" s="191"/>
+      <c r="AT18" s="191"/>
+      <c r="AU18" s="191"/>
+      <c r="AV18" s="191"/>
+      <c r="AW18" s="191"/>
+      <c r="AX18" s="191"/>
+      <c r="AY18" s="191"/>
+      <c r="AZ18" s="191"/>
+      <c r="BA18" s="191"/>
+      <c r="BB18" s="191"/>
+      <c r="BC18" s="191"/>
+      <c r="BD18" s="191"/>
+      <c r="BE18" s="191"/>
+      <c r="BF18" s="191"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -6972,7 +6972,7 @@
       <c r="O19" s="108"/>
       <c r="P19" s="108"/>
       <c r="Q19" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="108"/>
@@ -7000,7 +7000,7 @@
       <c r="AO19" s="103"/>
       <c r="AP19" s="103"/>
       <c r="AQ19" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR19" s="103"/>
       <c r="AS19" s="103"/>
@@ -7027,7 +7027,7 @@
       <c r="E20" s="108"/>
       <c r="F20" s="109"/>
       <c r="G20" s="105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20" s="103"/>
       <c r="I20" s="103"/>
@@ -7040,7 +7040,7 @@
       <c r="P20" s="108"/>
       <c r="Q20" s="108"/>
       <c r="R20" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S20" s="108"/>
       <c r="T20" s="108"/>
@@ -7057,7 +7057,7 @@
       <c r="AE20" s="108"/>
       <c r="AF20" s="109"/>
       <c r="AG20" s="105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH20" s="103"/>
       <c r="AI20" s="103"/>
@@ -7070,7 +7070,7 @@
       <c r="AP20" s="103"/>
       <c r="AQ20" s="103"/>
       <c r="AR20" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS20" s="103"/>
       <c r="AT20" s="103"/>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>1</v>
@@ -7161,10 +7161,10 @@
       <c r="E22" s="108"/>
       <c r="F22" s="108"/>
       <c r="G22" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I22" s="111"/>
       <c r="J22" s="111"/>
@@ -7177,28 +7177,28 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="185" t="s">
-        <v>284</v>
-      </c>
-      <c r="U22" s="186"/>
-      <c r="V22" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="W22" s="150"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="119"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="119"/>
-      <c r="AF22" s="120"/>
+      <c r="T22" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="W22" s="132"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="191"/>
+      <c r="Z22" s="191"/>
+      <c r="AA22" s="191"/>
+      <c r="AB22" s="191"/>
+      <c r="AC22" s="191"/>
+      <c r="AD22" s="191"/>
+      <c r="AE22" s="191"/>
+      <c r="AF22" s="192"/>
       <c r="AG22" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH22" s="100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI22" s="111"/>
       <c r="AJ22" s="111"/>
@@ -7211,28 +7211,28 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="185" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU22" s="186"/>
-      <c r="AV22" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW22" s="150"/>
-      <c r="AX22" s="118"/>
-      <c r="AY22" s="119"/>
-      <c r="AZ22" s="119"/>
-      <c r="BA22" s="119"/>
-      <c r="BB22" s="119"/>
-      <c r="BC22" s="119"/>
-      <c r="BD22" s="119"/>
-      <c r="BE22" s="119"/>
-      <c r="BF22" s="119"/>
+      <c r="AT22" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU22" s="130"/>
+      <c r="AV22" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW22" s="132"/>
+      <c r="AX22" s="190"/>
+      <c r="AY22" s="191"/>
+      <c r="AZ22" s="191"/>
+      <c r="BA22" s="191"/>
+      <c r="BB22" s="191"/>
+      <c r="BC22" s="191"/>
+      <c r="BD22" s="191"/>
+      <c r="BE22" s="191"/>
+      <c r="BF22" s="191"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>1</v>
@@ -7242,10 +7242,10 @@
       <c r="E23" s="108"/>
       <c r="F23" s="108"/>
       <c r="G23" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I23" s="111"/>
       <c r="J23" s="111"/>
@@ -7260,26 +7260,26 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="185" t="s">
-        <v>285</v>
-      </c>
-      <c r="W23" s="186"/>
-      <c r="X23" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="119"/>
-      <c r="AC23" s="119"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="119"/>
-      <c r="AF23" s="120"/>
+      <c r="V23" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="W23" s="130"/>
+      <c r="X23" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="191"/>
+      <c r="AC23" s="191"/>
+      <c r="AD23" s="191"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="192"/>
       <c r="AG23" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH23" s="100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI23" s="111"/>
       <c r="AJ23" s="111"/>
@@ -7294,26 +7294,26 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="185" t="s">
-        <v>285</v>
-      </c>
-      <c r="AW23" s="186"/>
-      <c r="AX23" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AY23" s="150"/>
-      <c r="AZ23" s="118"/>
-      <c r="BA23" s="119"/>
-      <c r="BB23" s="119"/>
-      <c r="BC23" s="119"/>
-      <c r="BD23" s="119"/>
-      <c r="BE23" s="119"/>
-      <c r="BF23" s="119"/>
+      <c r="AV23" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW23" s="130"/>
+      <c r="AX23" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY23" s="132"/>
+      <c r="AZ23" s="190"/>
+      <c r="BA23" s="191"/>
+      <c r="BB23" s="191"/>
+      <c r="BC23" s="191"/>
+      <c r="BD23" s="191"/>
+      <c r="BE23" s="191"/>
+      <c r="BF23" s="191"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>1</v>
@@ -7323,10 +7323,10 @@
       <c r="E24" s="108"/>
       <c r="F24" s="108"/>
       <c r="G24" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I24" s="111"/>
       <c r="J24" s="111"/>
@@ -7343,24 +7343,24 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="185" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA24" s="150"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="120"/>
+      <c r="X24" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="191"/>
+      <c r="AD24" s="191"/>
+      <c r="AE24" s="191"/>
+      <c r="AF24" s="192"/>
       <c r="AG24" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH24" s="100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI24" s="111"/>
       <c r="AJ24" s="111"/>
@@ -7377,24 +7377,24 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="185" t="s">
-        <v>286</v>
-      </c>
-      <c r="AY24" s="186"/>
-      <c r="AZ24" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="BA24" s="150"/>
-      <c r="BB24" s="118"/>
-      <c r="BC24" s="119"/>
-      <c r="BD24" s="119"/>
-      <c r="BE24" s="119"/>
-      <c r="BF24" s="119"/>
+      <c r="AX24" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY24" s="130"/>
+      <c r="AZ24" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="BA24" s="132"/>
+      <c r="BB24" s="190"/>
+      <c r="BC24" s="191"/>
+      <c r="BD24" s="191"/>
+      <c r="BE24" s="191"/>
+      <c r="BF24" s="191"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>1</v>
@@ -7404,10 +7404,10 @@
       <c r="E25" s="108"/>
       <c r="F25" s="108"/>
       <c r="G25" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H25" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" s="111"/>
       <c r="J25" s="111"/>
@@ -7426,22 +7426,22 @@
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC25" s="150"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="120"/>
+      <c r="Z25" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="190"/>
+      <c r="AE25" s="191"/>
+      <c r="AF25" s="192"/>
       <c r="AG25" s="106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH25" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI25" s="111"/>
       <c r="AJ25" s="111"/>
@@ -7460,17 +7460,17 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="110"/>
-      <c r="AZ25" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA25" s="148"/>
-      <c r="BB25" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="BC25" s="150"/>
-      <c r="BD25" s="118"/>
-      <c r="BE25" s="119"/>
-      <c r="BF25" s="119"/>
+      <c r="AZ25" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA25" s="136"/>
+      <c r="BB25" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC25" s="132"/>
+      <c r="BD25" s="190"/>
+      <c r="BE25" s="191"/>
+      <c r="BF25" s="191"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7597,7 +7597,7 @@
     </row>
     <row r="28" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -7725,113 +7725,113 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="133" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="134"/>
+      <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="159" t="s">
-        <v>274</v>
-      </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="H30" s="159" t="s">
+      <c r="H30" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="134"/>
+      <c r="J30" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="I30" s="160"/>
-      <c r="J30" s="159" t="s">
+      <c r="K30" s="134"/>
+      <c r="L30" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="K30" s="160"/>
-      <c r="L30" s="159" t="s">
+      <c r="M30" s="134"/>
+      <c r="N30" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="M30" s="160"/>
-      <c r="N30" s="159" t="s">
-        <v>283</v>
-      </c>
-      <c r="O30" s="160"/>
+      <c r="O30" s="134"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="159" t="s">
+      <c r="T30" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="U30" s="134"/>
+      <c r="V30" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="U30" s="160"/>
-      <c r="V30" s="159" t="s">
+      <c r="W30" s="134"/>
+      <c r="X30" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="W30" s="160"/>
-      <c r="X30" s="159" t="s">
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="159" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="161" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="159" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF30" s="160"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="133" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF30" s="134"/>
       <c r="AG30" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH30" s="159" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH30" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="159" t="s">
+      <c r="AK30" s="134"/>
+      <c r="AL30" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="159" t="s">
+      <c r="AM30" s="134"/>
+      <c r="AN30" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AM30" s="160"/>
-      <c r="AN30" s="159" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO30" s="160"/>
+      <c r="AO30" s="134"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="159" t="s">
+      <c r="AT30" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU30" s="134"/>
+      <c r="AV30" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="AU30" s="160"/>
-      <c r="AV30" s="159" t="s">
+      <c r="AW30" s="134"/>
+      <c r="AX30" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AW30" s="160"/>
-      <c r="AX30" s="159" t="s">
+      <c r="AY30" s="134"/>
+      <c r="AZ30" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AY30" s="160"/>
-      <c r="AZ30" s="159" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA30" s="160"/>
-      <c r="BB30" s="161" t="s">
-        <v>298</v>
-      </c>
-      <c r="BC30" s="184"/>
-      <c r="BD30" s="162"/>
+      <c r="BA30" s="134"/>
+      <c r="BB30" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC30" s="138"/>
+      <c r="BD30" s="139"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -7840,15 +7840,15 @@
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="163" t="s">
+      <c r="E31" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" s="135"/>
+      <c r="G31" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="F31" s="163"/>
-      <c r="G31" s="22" t="s">
-        <v>325</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -7873,12 +7873,12 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="163" t="s">
+      <c r="AE31" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="AF31" s="163"/>
-      <c r="AG31" s="22" t="s">
-        <v>325</v>
       </c>
       <c r="AH31" s="22"/>
       <c r="AI31" s="22"/>
@@ -7974,87 +7974,87 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="H33" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="156" t="s">
-        <v>320</v>
-      </c>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="159" t="s">
-        <v>276</v>
-      </c>
-      <c r="U33" s="160"/>
-      <c r="V33" s="161" t="s">
-        <v>298</v>
-      </c>
-      <c r="W33" s="162"/>
-      <c r="X33" s="156" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="158"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="W33" s="139"/>
+      <c r="X33" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="165"/>
       <c r="AF33" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AG33" s="102" t="s">
+      <c r="AH33" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
+      <c r="AM33" s="164"/>
+      <c r="AN33" s="164"/>
+      <c r="AO33" s="164"/>
+      <c r="AP33" s="164"/>
+      <c r="AQ33" s="164"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="165"/>
+      <c r="AT33" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="AH33" s="156" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="157"/>
-      <c r="AP33" s="157"/>
-      <c r="AQ33" s="157"/>
-      <c r="AR33" s="157"/>
-      <c r="AS33" s="158"/>
-      <c r="AT33" s="159" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU33" s="160"/>
-      <c r="AV33" s="161" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW33" s="162"/>
-      <c r="AX33" s="156" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY33" s="157"/>
-      <c r="AZ33" s="157"/>
-      <c r="BA33" s="157"/>
-      <c r="BB33" s="157"/>
-      <c r="BC33" s="157"/>
-      <c r="BD33" s="158"/>
+      <c r="AU33" s="134"/>
+      <c r="AV33" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW33" s="139"/>
+      <c r="AX33" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY33" s="164"/>
+      <c r="AZ33" s="164"/>
+      <c r="BA33" s="164"/>
+      <c r="BB33" s="164"/>
+      <c r="BC33" s="164"/>
+      <c r="BD33" s="165"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8063,15 +8063,15 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="163" t="s">
-        <v>323</v>
-      </c>
-      <c r="F34" s="163"/>
+      <c r="E34" s="135" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" s="135"/>
       <c r="G34" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="21"/>
@@ -8085,12 +8085,12 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="U34" s="163"/>
+      <c r="T34" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="U34" s="135"/>
       <c r="V34" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W34" s="22"/>
       <c r="X34" s="21"/>
@@ -8103,7 +8103,7 @@
       <c r="AE34" s="22"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH34" s="23"/>
       <c r="AI34" s="21"/>
@@ -8117,12 +8117,12 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU34" s="163"/>
+      <c r="AT34" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU34" s="135"/>
       <c r="AV34" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AW34" s="22"/>
       <c r="AX34" s="21"/>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="37" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -8388,94 +8388,94 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="151" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="152"/>
-      <c r="G39" s="154" t="s">
-        <v>274</v>
-      </c>
-      <c r="H39" s="155"/>
+      <c r="E39" s="166" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="167"/>
+      <c r="G39" s="168" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="169"/>
       <c r="I39" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="J39" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" s="136"/>
+      <c r="L39" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="K39" s="148"/>
-      <c r="L39" s="147" t="s">
+      <c r="M39" s="136"/>
+      <c r="N39" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="148"/>
-      <c r="N39" s="147" t="s">
+      <c r="O39" s="136"/>
+      <c r="P39" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="O39" s="148"/>
-      <c r="P39" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q39" s="148"/>
+      <c r="Q39" s="136"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T39" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U39" s="103"/>
-      <c r="V39" s="147" t="s">
+      <c r="V39" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="W39" s="136"/>
+      <c r="X39" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="W39" s="148"/>
-      <c r="X39" s="147" t="s">
+      <c r="Y39" s="136"/>
+      <c r="Z39" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="147" t="s">
+      <c r="AA39" s="136"/>
+      <c r="AB39" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC39" s="148"/>
-      <c r="AD39" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE39" s="153"/>
-      <c r="AF39" s="150"/>
-      <c r="AG39" s="147" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH39" s="148"/>
+      <c r="AC39" s="136"/>
+      <c r="AD39" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE39" s="171"/>
+      <c r="AF39" s="132"/>
+      <c r="AG39" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH39" s="136"/>
       <c r="AI39" s="112" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ39" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ39" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK39" s="136"/>
+      <c r="AL39" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="AK39" s="148"/>
-      <c r="AL39" s="147" t="s">
+      <c r="AM39" s="136"/>
+      <c r="AN39" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="AM39" s="148"/>
-      <c r="AN39" s="147" t="s">
+      <c r="AO39" s="136"/>
+      <c r="AP39" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="AO39" s="148"/>
-      <c r="AP39" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ39" s="148"/>
+      <c r="AQ39" s="136"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AT39" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU39" s="103"/>
       <c r="AV39" s="103"/>
@@ -8495,19 +8495,19 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="146" t="s">
+      <c r="E40" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="H40" s="170"/>
+      <c r="I40" s="113" t="s">
         <v>324</v>
-      </c>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="H40" s="146"/>
-      <c r="I40" s="113" t="s">
-        <v>325</v>
       </c>
       <c r="J40" s="113"/>
       <c r="K40" s="113"/>
@@ -8532,12 +8532,12 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH40" s="146"/>
+      <c r="AG40" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH40" s="170"/>
       <c r="AI40" s="113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ40" s="113"/>
       <c r="AK40" s="113"/>
@@ -8568,111 +8568,111 @@
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="147" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="148"/>
+      <c r="E41" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="136"/>
       <c r="G41" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="H41" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="136"/>
+      <c r="J41" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="I41" s="148"/>
-      <c r="J41" s="147" t="s">
-        <v>281</v>
-      </c>
-      <c r="K41" s="148"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="152"/>
-      <c r="N41" s="154" t="s">
-        <v>283</v>
-      </c>
-      <c r="O41" s="155"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="O41" s="169"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R41" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S41" s="103"/>
-      <c r="T41" s="147" t="s">
+      <c r="T41" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="U41" s="136"/>
+      <c r="V41" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="U41" s="148"/>
-      <c r="V41" s="147" t="s">
+      <c r="W41" s="136"/>
+      <c r="X41" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="W41" s="148"/>
-      <c r="X41" s="147" t="s">
+      <c r="Y41" s="136"/>
+      <c r="Z41" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA41" s="148"/>
-      <c r="AB41" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="150"/>
-      <c r="AE41" s="147" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF41" s="148"/>
+      <c r="AA41" s="136"/>
+      <c r="AB41" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC41" s="171"/>
+      <c r="AD41" s="132"/>
+      <c r="AE41" s="127" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF41" s="136"/>
       <c r="AG41" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH41" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH41" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="AI41" s="148"/>
-      <c r="AJ41" s="147" t="s">
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="AK41" s="148"/>
-      <c r="AL41" s="147" t="s">
+      <c r="AM41" s="136"/>
+      <c r="AN41" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="AM41" s="148"/>
-      <c r="AN41" s="147" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO41" s="148"/>
+      <c r="AO41" s="136"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR41" s="103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS41" s="103"/>
-      <c r="AT41" s="147" t="s">
+      <c r="AT41" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU41" s="136"/>
+      <c r="AV41" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="AU41" s="148"/>
-      <c r="AV41" s="147" t="s">
+      <c r="AW41" s="136"/>
+      <c r="AX41" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AW41" s="148"/>
-      <c r="AX41" s="147" t="s">
+      <c r="AY41" s="136"/>
+      <c r="AZ41" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="AY41" s="148"/>
-      <c r="AZ41" s="147" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA41" s="148"/>
-      <c r="BB41" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="BC41" s="153"/>
-      <c r="BD41" s="150"/>
+      <c r="BA41" s="136"/>
+      <c r="BB41" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC41" s="171"/>
+      <c r="BD41" s="132"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8681,15 +8681,15 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="146" t="s">
+      <c r="E42" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" s="170"/>
+      <c r="G42" s="113" t="s">
         <v>324</v>
-      </c>
-      <c r="F42" s="146"/>
-      <c r="G42" s="113" t="s">
-        <v>325</v>
       </c>
       <c r="H42" s="113"/>
       <c r="I42" s="113"/>
@@ -8714,12 +8714,12 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="146" t="s">
+      <c r="AE42" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF42" s="170"/>
+      <c r="AG42" s="113" t="s">
         <v>324</v>
-      </c>
-      <c r="AF42" s="146"/>
-      <c r="AG42" s="113" t="s">
-        <v>325</v>
       </c>
       <c r="AH42" s="113"/>
       <c r="AI42" s="113"/>
@@ -8815,87 +8815,87 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="107" t="s">
+      <c r="H44" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="178"/>
+      <c r="N44" s="178"/>
+      <c r="O44" s="178"/>
+      <c r="P44" s="178"/>
+      <c r="Q44" s="178"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="H44" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="144"/>
-      <c r="R44" s="144"/>
-      <c r="S44" s="145"/>
-      <c r="T44" s="151" t="s">
-        <v>276</v>
-      </c>
-      <c r="U44" s="152"/>
-      <c r="V44" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="W44" s="150"/>
-      <c r="X44" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y44" s="144"/>
-      <c r="Z44" s="144"/>
-      <c r="AA44" s="144"/>
-      <c r="AB44" s="144"/>
-      <c r="AC44" s="144"/>
-      <c r="AD44" s="144"/>
-      <c r="AE44" s="145"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="W44" s="132"/>
+      <c r="X44" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y44" s="178"/>
+      <c r="Z44" s="178"/>
+      <c r="AA44" s="178"/>
+      <c r="AB44" s="178"/>
+      <c r="AC44" s="178"/>
+      <c r="AD44" s="178"/>
+      <c r="AE44" s="179"/>
       <c r="AF44" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AG44" s="107" t="s">
+      <c r="AH44" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI44" s="178"/>
+      <c r="AJ44" s="178"/>
+      <c r="AK44" s="178"/>
+      <c r="AL44" s="178"/>
+      <c r="AM44" s="178"/>
+      <c r="AN44" s="178"/>
+      <c r="AO44" s="178"/>
+      <c r="AP44" s="178"/>
+      <c r="AQ44" s="178"/>
+      <c r="AR44" s="178"/>
+      <c r="AS44" s="179"/>
+      <c r="AT44" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="AH44" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI44" s="144"/>
-      <c r="AJ44" s="144"/>
-      <c r="AK44" s="144"/>
-      <c r="AL44" s="144"/>
-      <c r="AM44" s="144"/>
-      <c r="AN44" s="144"/>
-      <c r="AO44" s="144"/>
-      <c r="AP44" s="144"/>
-      <c r="AQ44" s="144"/>
-      <c r="AR44" s="144"/>
-      <c r="AS44" s="145"/>
-      <c r="AT44" s="147" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU44" s="148"/>
-      <c r="AV44" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW44" s="150"/>
-      <c r="AX44" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY44" s="144"/>
-      <c r="AZ44" s="144"/>
-      <c r="BA44" s="144"/>
-      <c r="BB44" s="144"/>
-      <c r="BC44" s="144"/>
-      <c r="BD44" s="145"/>
+      <c r="AU44" s="136"/>
+      <c r="AV44" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW44" s="132"/>
+      <c r="AX44" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY44" s="178"/>
+      <c r="AZ44" s="178"/>
+      <c r="BA44" s="178"/>
+      <c r="BB44" s="178"/>
+      <c r="BC44" s="178"/>
+      <c r="BD44" s="179"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -8904,15 +8904,15 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="F45" s="146"/>
+      <c r="E45" s="170" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" s="170"/>
       <c r="G45" s="113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H45" s="114"/>
       <c r="I45" s="116"/>
@@ -8926,12 +8926,12 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="U45" s="146"/>
+      <c r="T45" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="U45" s="170"/>
       <c r="V45" s="113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W45" s="113"/>
       <c r="X45" s="116"/>
@@ -8944,7 +8944,7 @@
       <c r="AE45" s="113"/>
       <c r="AF45" s="113"/>
       <c r="AG45" s="113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH45" s="114"/>
       <c r="AI45" s="116"/>
@@ -8958,12 +8958,12 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU45" s="146"/>
+      <c r="AT45" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU45" s="170"/>
       <c r="AV45" s="113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AW45" s="113"/>
       <c r="AX45" s="116"/>
@@ -8981,79 +8981,79 @@
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F46" s="117" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="178"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="178"/>
+      <c r="N46" s="178"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="178"/>
+      <c r="Q46" s="178"/>
+      <c r="R46" s="178"/>
+      <c r="S46" s="178"/>
+      <c r="T46" s="178"/>
+      <c r="U46" s="178"/>
+      <c r="V46" s="178"/>
+      <c r="W46" s="178"/>
+      <c r="X46" s="178"/>
+      <c r="Y46" s="178"/>
+      <c r="Z46" s="178"/>
+      <c r="AA46" s="178"/>
+      <c r="AB46" s="178"/>
+      <c r="AC46" s="178"/>
+      <c r="AD46" s="178"/>
+      <c r="AE46" s="179"/>
+      <c r="AF46" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="G46" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="144"/>
-      <c r="T46" s="144"/>
-      <c r="U46" s="144"/>
-      <c r="V46" s="144"/>
-      <c r="W46" s="144"/>
-      <c r="X46" s="144"/>
-      <c r="Y46" s="144"/>
-      <c r="Z46" s="144"/>
-      <c r="AA46" s="144"/>
-      <c r="AB46" s="144"/>
-      <c r="AC46" s="144"/>
-      <c r="AD46" s="144"/>
-      <c r="AE46" s="145"/>
-      <c r="AF46" s="115" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG46" s="107" t="s">
+      <c r="AH46" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI46" s="178"/>
+      <c r="AJ46" s="178"/>
+      <c r="AK46" s="178"/>
+      <c r="AL46" s="178"/>
+      <c r="AM46" s="178"/>
+      <c r="AN46" s="178"/>
+      <c r="AO46" s="178"/>
+      <c r="AP46" s="178"/>
+      <c r="AQ46" s="178"/>
+      <c r="AR46" s="178"/>
+      <c r="AS46" s="179"/>
+      <c r="AT46" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="AH46" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI46" s="144"/>
-      <c r="AJ46" s="144"/>
-      <c r="AK46" s="144"/>
-      <c r="AL46" s="144"/>
-      <c r="AM46" s="144"/>
-      <c r="AN46" s="144"/>
-      <c r="AO46" s="144"/>
-      <c r="AP46" s="144"/>
-      <c r="AQ46" s="144"/>
-      <c r="AR46" s="144"/>
-      <c r="AS46" s="145"/>
-      <c r="AT46" s="147" t="s">
-        <v>276</v>
-      </c>
-      <c r="AU46" s="148"/>
-      <c r="AV46" s="149" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW46" s="150"/>
-      <c r="AX46" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY46" s="144"/>
-      <c r="AZ46" s="144"/>
-      <c r="BA46" s="144"/>
-      <c r="BB46" s="144"/>
-      <c r="BC46" s="144"/>
-      <c r="BD46" s="145"/>
+      <c r="AU46" s="136"/>
+      <c r="AV46" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW46" s="132"/>
+      <c r="AX46" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY46" s="178"/>
+      <c r="AZ46" s="178"/>
+      <c r="BA46" s="178"/>
+      <c r="BB46" s="178"/>
+      <c r="BC46" s="178"/>
+      <c r="BD46" s="179"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9062,11 +9062,11 @@
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F47" s="113"/>
       <c r="G47" s="113"/>
@@ -9096,7 +9096,7 @@
       <c r="AE47" s="113"/>
       <c r="AF47" s="113"/>
       <c r="AG47" s="113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH47" s="114"/>
       <c r="AI47" s="116"/>
@@ -9110,12 +9110,12 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU47" s="146"/>
+      <c r="AT47" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU47" s="170"/>
       <c r="AV47" s="113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AW47" s="113"/>
       <c r="AX47" s="116"/>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="50" spans="1:59" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="52" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -9504,20 +9504,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="122" t="s">
+      <c r="E54" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="122" t="s">
-        <v>224</v>
-      </c>
-      <c r="M54" s="123"/>
-      <c r="N54" s="124"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="193"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9638,20 +9638,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="125" t="s">
+      <c r="E56" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="186"/>
+      <c r="J56" s="186"/>
+      <c r="K56" s="185"/>
+      <c r="L56" s="184" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="M56" s="126"/>
-      <c r="N56" s="127"/>
+      <c r="M56" s="186"/>
+      <c r="N56" s="185"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -9765,22 +9765,22 @@
       <c r="C58" s="42"/>
       <c r="D58" s="42"/>
       <c r="E58" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" s="50"/>
       <c r="I58" s="50"/>
       <c r="J58" s="50"/>
       <c r="K58" s="50"/>
       <c r="L58" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M58" s="50"/>
       <c r="N58" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O58" s="50"/>
       <c r="P58" s="42"/>
@@ -9834,22 +9834,22 @@
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
       <c r="E59" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
       <c r="K59" s="50"/>
       <c r="L59" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M59" s="50"/>
       <c r="N59" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O59" s="50"/>
       <c r="P59" s="42"/>
@@ -9903,7 +9903,7 @@
       <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
@@ -9912,11 +9912,11 @@
       <c r="J60" s="50"/>
       <c r="K60" s="50"/>
       <c r="L60" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M60" s="50"/>
       <c r="N60" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O60" s="50"/>
       <c r="P60" s="42"/>
@@ -9970,22 +9970,22 @@
       <c r="C61" s="42"/>
       <c r="D61" s="42"/>
       <c r="E61" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" s="50"/>
       <c r="G61" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
       <c r="J61" s="50"/>
       <c r="K61" s="50"/>
       <c r="L61" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M61" s="62"/>
       <c r="N61" s="62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O61" s="62"/>
       <c r="P61" s="42"/>
@@ -10039,22 +10039,22 @@
       <c r="C62" s="42"/>
       <c r="D62" s="42"/>
       <c r="E62" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H62" s="50"/>
       <c r="I62" s="50"/>
       <c r="J62" s="50"/>
       <c r="K62" s="50"/>
       <c r="L62" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M62" s="50"/>
       <c r="N62" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O62" s="50"/>
       <c r="P62" s="42"/>
@@ -10108,7 +10108,7 @@
       <c r="C63" s="42"/>
       <c r="D63" s="42"/>
       <c r="E63" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="50"/>
       <c r="G63" s="50"/>
@@ -10117,11 +10117,11 @@
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
       <c r="L63" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M63" s="50"/>
       <c r="N63" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O63" s="50"/>
       <c r="P63" s="42"/>
@@ -10175,22 +10175,22 @@
       <c r="C64" s="42"/>
       <c r="D64" s="42"/>
       <c r="E64" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F64" s="50"/>
       <c r="G64" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H64" s="50"/>
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
       <c r="L64" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M64" s="50"/>
       <c r="N64" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O64" s="50"/>
       <c r="P64" s="42"/>
@@ -10244,7 +10244,7 @@
       <c r="C65" s="42"/>
       <c r="D65" s="42"/>
       <c r="E65" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F65" s="50"/>
       <c r="G65" s="50" t="s">
@@ -10255,11 +10255,11 @@
       <c r="J65" s="50"/>
       <c r="K65" s="50"/>
       <c r="L65" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M65" s="50"/>
       <c r="N65" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O65" s="50"/>
       <c r="P65" s="42"/>
@@ -10370,13 +10370,13 @@
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="65" t="s">
-        <v>268</v>
-      </c>
       <c r="C67" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D67" s="44"/>
       <c r="E67" s="42"/>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="69" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
@@ -10622,13 +10622,13 @@
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B71" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="42"/>
@@ -10872,13 +10872,13 @@
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B75" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="42"/>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="81" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B81" s="64"/>
       <c r="C81" s="64"/>
@@ -11368,13 +11368,13 @@
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="42"/>
@@ -11618,13 +11618,13 @@
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B87" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D87" s="42"/>
       <c r="E87" s="42"/>
@@ -11990,7 +11990,7 @@
     </row>
     <row r="93" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B93" s="64"/>
       <c r="C93" s="64"/>
@@ -12114,77 +12114,77 @@
     </row>
     <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B95" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="122" t="s">
+      <c r="E95" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
+      <c r="K95" s="126"/>
+      <c r="L95" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="134"/>
-      <c r="L95" s="122" t="s">
-        <v>224</v>
-      </c>
-      <c r="M95" s="123"/>
-      <c r="N95" s="134"/>
-      <c r="O95" s="181" t="s">
-        <v>261</v>
-      </c>
-      <c r="P95" s="182"/>
-      <c r="Q95" s="182"/>
-      <c r="R95" s="182"/>
-      <c r="S95" s="182"/>
-      <c r="T95" s="183"/>
-      <c r="U95" s="181" t="s">
-        <v>261</v>
-      </c>
-      <c r="V95" s="182"/>
-      <c r="W95" s="182"/>
-      <c r="X95" s="182"/>
-      <c r="Y95" s="182"/>
-      <c r="Z95" s="182"/>
-      <c r="AA95" s="182"/>
-      <c r="AB95" s="183"/>
-      <c r="AC95" s="181" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD95" s="182"/>
-      <c r="AE95" s="182"/>
-      <c r="AF95" s="182"/>
-      <c r="AG95" s="182"/>
-      <c r="AH95" s="182"/>
-      <c r="AI95" s="182"/>
-      <c r="AJ95" s="183"/>
-      <c r="AK95" s="181" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL95" s="182"/>
-      <c r="AM95" s="182"/>
-      <c r="AN95" s="182"/>
-      <c r="AO95" s="182"/>
-      <c r="AP95" s="182"/>
-      <c r="AQ95" s="182"/>
-      <c r="AR95" s="183"/>
-      <c r="AS95" s="178" t="s">
-        <v>357</v>
-      </c>
-      <c r="AT95" s="179"/>
-      <c r="AU95" s="179"/>
-      <c r="AV95" s="179"/>
-      <c r="AW95" s="179"/>
-      <c r="AX95" s="179"/>
-      <c r="AY95" s="179"/>
-      <c r="AZ95" s="180"/>
+      <c r="M95" s="125"/>
+      <c r="N95" s="126"/>
+      <c r="O95" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
+      <c r="R95" s="161"/>
+      <c r="S95" s="161"/>
+      <c r="T95" s="162"/>
+      <c r="U95" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="V95" s="161"/>
+      <c r="W95" s="161"/>
+      <c r="X95" s="161"/>
+      <c r="Y95" s="161"/>
+      <c r="Z95" s="161"/>
+      <c r="AA95" s="161"/>
+      <c r="AB95" s="162"/>
+      <c r="AC95" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD95" s="161"/>
+      <c r="AE95" s="161"/>
+      <c r="AF95" s="161"/>
+      <c r="AG95" s="161"/>
+      <c r="AH95" s="161"/>
+      <c r="AI95" s="161"/>
+      <c r="AJ95" s="162"/>
+      <c r="AK95" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL95" s="161"/>
+      <c r="AM95" s="161"/>
+      <c r="AN95" s="161"/>
+      <c r="AO95" s="161"/>
+      <c r="AP95" s="161"/>
+      <c r="AQ95" s="161"/>
+      <c r="AR95" s="162"/>
+      <c r="AS95" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT95" s="158"/>
+      <c r="AU95" s="158"/>
+      <c r="AV95" s="158"/>
+      <c r="AW95" s="158"/>
+      <c r="AX95" s="158"/>
+      <c r="AY95" s="158"/>
+      <c r="AZ95" s="159"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12197,7 +12197,7 @@
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="45">
@@ -12289,68 +12289,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="125" t="s">
+      <c r="E97" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" s="186"/>
+      <c r="G97" s="186"/>
+      <c r="H97" s="186"/>
+      <c r="I97" s="186"/>
+      <c r="J97" s="186"/>
+      <c r="K97" s="185"/>
+      <c r="L97" s="184" t="s">
         <v>226</v>
       </c>
-      <c r="F97" s="126"/>
-      <c r="G97" s="126"/>
-      <c r="H97" s="126"/>
-      <c r="I97" s="126"/>
-      <c r="J97" s="126"/>
-      <c r="K97" s="127"/>
-      <c r="L97" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="M97" s="126"/>
-      <c r="N97" s="126"/>
-      <c r="O97" s="125" t="s">
-        <v>273</v>
-      </c>
-      <c r="P97" s="126"/>
-      <c r="Q97" s="126"/>
-      <c r="R97" s="126"/>
-      <c r="S97" s="126"/>
-      <c r="T97" s="127"/>
-      <c r="U97" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="V97" s="126"/>
-      <c r="W97" s="126"/>
-      <c r="X97" s="126"/>
-      <c r="Y97" s="126"/>
-      <c r="Z97" s="126"/>
-      <c r="AA97" s="126"/>
-      <c r="AB97" s="127"/>
-      <c r="AC97" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD97" s="126"/>
-      <c r="AE97" s="126"/>
-      <c r="AF97" s="126"/>
-      <c r="AG97" s="126"/>
-      <c r="AH97" s="126"/>
-      <c r="AI97" s="126"/>
-      <c r="AJ97" s="127"/>
-      <c r="AK97" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL97" s="126"/>
-      <c r="AM97" s="126"/>
-      <c r="AN97" s="126"/>
-      <c r="AO97" s="126"/>
-      <c r="AP97" s="126"/>
-      <c r="AQ97" s="126"/>
-      <c r="AR97" s="127"/>
-      <c r="AS97" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT97" s="126"/>
-      <c r="AU97" s="126"/>
-      <c r="AV97" s="126"/>
-      <c r="AW97" s="126"/>
-      <c r="AX97" s="126"/>
-      <c r="AY97" s="126"/>
-      <c r="AZ97" s="127"/>
+      <c r="M97" s="186"/>
+      <c r="N97" s="186"/>
+      <c r="O97" s="184" t="s">
+        <v>272</v>
+      </c>
+      <c r="P97" s="186"/>
+      <c r="Q97" s="186"/>
+      <c r="R97" s="186"/>
+      <c r="S97" s="186"/>
+      <c r="T97" s="185"/>
+      <c r="U97" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="V97" s="186"/>
+      <c r="W97" s="186"/>
+      <c r="X97" s="186"/>
+      <c r="Y97" s="186"/>
+      <c r="Z97" s="186"/>
+      <c r="AA97" s="186"/>
+      <c r="AB97" s="185"/>
+      <c r="AC97" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD97" s="186"/>
+      <c r="AE97" s="186"/>
+      <c r="AF97" s="186"/>
+      <c r="AG97" s="186"/>
+      <c r="AH97" s="186"/>
+      <c r="AI97" s="186"/>
+      <c r="AJ97" s="185"/>
+      <c r="AK97" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL97" s="186"/>
+      <c r="AM97" s="186"/>
+      <c r="AN97" s="186"/>
+      <c r="AO97" s="186"/>
+      <c r="AP97" s="186"/>
+      <c r="AQ97" s="186"/>
+      <c r="AR97" s="185"/>
+      <c r="AS97" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT97" s="186"/>
+      <c r="AU97" s="186"/>
+      <c r="AV97" s="186"/>
+      <c r="AW97" s="186"/>
+      <c r="AX97" s="186"/>
+      <c r="AY97" s="186"/>
+      <c r="AZ97" s="185"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12425,68 +12425,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="175" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="176"/>
-      <c r="G99" s="176"/>
-      <c r="H99" s="176"/>
-      <c r="I99" s="176"/>
-      <c r="J99" s="176"/>
-      <c r="K99" s="177"/>
-      <c r="L99" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="M99" s="129"/>
-      <c r="N99" s="130"/>
-      <c r="O99" s="172" t="s">
-        <v>236</v>
-      </c>
-      <c r="P99" s="173"/>
-      <c r="Q99" s="173"/>
-      <c r="R99" s="173"/>
-      <c r="S99" s="173"/>
-      <c r="T99" s="174"/>
-      <c r="U99" s="172" t="s">
-        <v>236</v>
-      </c>
-      <c r="V99" s="173"/>
-      <c r="W99" s="173"/>
-      <c r="X99" s="173"/>
-      <c r="Y99" s="173"/>
-      <c r="Z99" s="173"/>
-      <c r="AA99" s="173"/>
-      <c r="AB99" s="174"/>
-      <c r="AC99" s="172" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD99" s="173"/>
-      <c r="AE99" s="173"/>
-      <c r="AF99" s="173"/>
-      <c r="AG99" s="173"/>
-      <c r="AH99" s="173"/>
-      <c r="AI99" s="173"/>
-      <c r="AJ99" s="174"/>
-      <c r="AK99" s="172" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL99" s="173"/>
-      <c r="AM99" s="173"/>
-      <c r="AN99" s="173"/>
-      <c r="AO99" s="173"/>
-      <c r="AP99" s="173"/>
-      <c r="AQ99" s="173"/>
-      <c r="AR99" s="174"/>
-      <c r="AS99" s="172" t="s">
-        <v>302</v>
-      </c>
-      <c r="AT99" s="173"/>
-      <c r="AU99" s="173"/>
-      <c r="AV99" s="173"/>
-      <c r="AW99" s="173"/>
-      <c r="AX99" s="173"/>
-      <c r="AY99" s="173"/>
-      <c r="AZ99" s="174"/>
+      <c r="E99" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F99" s="152"/>
+      <c r="G99" s="152"/>
+      <c r="H99" s="152"/>
+      <c r="I99" s="152"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="153"/>
+      <c r="L99" s="154" t="s">
+        <v>246</v>
+      </c>
+      <c r="M99" s="155"/>
+      <c r="N99" s="156"/>
+      <c r="O99" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="P99" s="149"/>
+      <c r="Q99" s="149"/>
+      <c r="R99" s="149"/>
+      <c r="S99" s="149"/>
+      <c r="T99" s="150"/>
+      <c r="U99" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="V99" s="149"/>
+      <c r="W99" s="149"/>
+      <c r="X99" s="149"/>
+      <c r="Y99" s="149"/>
+      <c r="Z99" s="149"/>
+      <c r="AA99" s="149"/>
+      <c r="AB99" s="150"/>
+      <c r="AC99" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD99" s="149"/>
+      <c r="AE99" s="149"/>
+      <c r="AF99" s="149"/>
+      <c r="AG99" s="149"/>
+      <c r="AH99" s="149"/>
+      <c r="AI99" s="149"/>
+      <c r="AJ99" s="150"/>
+      <c r="AK99" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL99" s="149"/>
+      <c r="AM99" s="149"/>
+      <c r="AN99" s="149"/>
+      <c r="AO99" s="149"/>
+      <c r="AP99" s="149"/>
+      <c r="AQ99" s="149"/>
+      <c r="AR99" s="150"/>
+      <c r="AS99" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT99" s="149"/>
+      <c r="AU99" s="149"/>
+      <c r="AV99" s="149"/>
+      <c r="AW99" s="149"/>
+      <c r="AX99" s="149"/>
+      <c r="AY99" s="149"/>
+      <c r="AZ99" s="150"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12619,77 +12619,77 @@
     </row>
     <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B102" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="122" t="s">
+      <c r="E102" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" s="125"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="125"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="125"/>
+      <c r="K102" s="126"/>
+      <c r="L102" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123"/>
-      <c r="I102" s="123"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="134"/>
-      <c r="L102" s="122" t="s">
+      <c r="M102" s="125"/>
+      <c r="N102" s="126"/>
+      <c r="O102" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="P102" s="125"/>
+      <c r="Q102" s="125"/>
+      <c r="R102" s="126"/>
+      <c r="S102" s="124" t="s">
+        <v>306</v>
+      </c>
+      <c r="T102" s="125"/>
+      <c r="U102" s="125"/>
+      <c r="V102" s="125"/>
+      <c r="W102" s="125"/>
+      <c r="X102" s="125"/>
+      <c r="Y102" s="125"/>
+      <c r="Z102" s="125"/>
+      <c r="AA102" s="125"/>
+      <c r="AB102" s="125"/>
+      <c r="AC102" s="125"/>
+      <c r="AD102" s="126"/>
+      <c r="AE102" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF102" s="125"/>
+      <c r="AG102" s="125"/>
+      <c r="AH102" s="125"/>
+      <c r="AI102" s="125"/>
+      <c r="AJ102" s="125"/>
+      <c r="AK102" s="125"/>
+      <c r="AL102" s="125"/>
+      <c r="AM102" s="125"/>
+      <c r="AN102" s="125"/>
+      <c r="AO102" s="125"/>
+      <c r="AP102" s="126"/>
+      <c r="AQ102" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="M102" s="123"/>
-      <c r="N102" s="134"/>
-      <c r="O102" s="122" t="s">
-        <v>233</v>
-      </c>
-      <c r="P102" s="123"/>
-      <c r="Q102" s="123"/>
-      <c r="R102" s="134"/>
-      <c r="S102" s="122" t="s">
-        <v>307</v>
-      </c>
-      <c r="T102" s="123"/>
-      <c r="U102" s="123"/>
-      <c r="V102" s="123"/>
-      <c r="W102" s="123"/>
-      <c r="X102" s="123"/>
-      <c r="Y102" s="123"/>
-      <c r="Z102" s="123"/>
-      <c r="AA102" s="123"/>
-      <c r="AB102" s="123"/>
-      <c r="AC102" s="123"/>
-      <c r="AD102" s="134"/>
-      <c r="AE102" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF102" s="123"/>
-      <c r="AG102" s="123"/>
-      <c r="AH102" s="123"/>
-      <c r="AI102" s="123"/>
-      <c r="AJ102" s="123"/>
-      <c r="AK102" s="123"/>
-      <c r="AL102" s="123"/>
-      <c r="AM102" s="123"/>
-      <c r="AN102" s="123"/>
-      <c r="AO102" s="123"/>
-      <c r="AP102" s="134"/>
-      <c r="AQ102" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR102" s="134"/>
-      <c r="AS102" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT102" s="123"/>
-      <c r="AU102" s="123"/>
-      <c r="AV102" s="123"/>
-      <c r="AW102" s="123"/>
-      <c r="AX102" s="123"/>
-      <c r="AY102" s="123"/>
-      <c r="AZ102" s="134"/>
+      <c r="AR102" s="126"/>
+      <c r="AS102" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT102" s="125"/>
+      <c r="AU102" s="125"/>
+      <c r="AV102" s="125"/>
+      <c r="AW102" s="125"/>
+      <c r="AX102" s="125"/>
+      <c r="AY102" s="125"/>
+      <c r="AZ102" s="126"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12792,68 +12792,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="125" t="s">
+      <c r="E104" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="186"/>
+      <c r="I104" s="186"/>
+      <c r="J104" s="186"/>
+      <c r="K104" s="185"/>
+      <c r="L104" s="184" t="s">
         <v>226</v>
       </c>
-      <c r="F104" s="126"/>
-      <c r="G104" s="126"/>
-      <c r="H104" s="126"/>
-      <c r="I104" s="126"/>
-      <c r="J104" s="126"/>
-      <c r="K104" s="127"/>
-      <c r="L104" s="125" t="s">
+      <c r="M104" s="186"/>
+      <c r="N104" s="185"/>
+      <c r="O104" s="184" t="s">
         <v>227</v>
       </c>
-      <c r="M104" s="126"/>
-      <c r="N104" s="127"/>
-      <c r="O104" s="125" t="s">
+      <c r="P104" s="186"/>
+      <c r="Q104" s="186"/>
+      <c r="R104" s="185"/>
+      <c r="S104" s="184" t="s">
         <v>228</v>
       </c>
-      <c r="P104" s="126"/>
-      <c r="Q104" s="126"/>
-      <c r="R104" s="127"/>
-      <c r="S104" s="125" t="s">
+      <c r="T104" s="186"/>
+      <c r="U104" s="186"/>
+      <c r="V104" s="186"/>
+      <c r="W104" s="186"/>
+      <c r="X104" s="186"/>
+      <c r="Y104" s="186"/>
+      <c r="Z104" s="186"/>
+      <c r="AA104" s="186"/>
+      <c r="AB104" s="186"/>
+      <c r="AC104" s="186"/>
+      <c r="AD104" s="185"/>
+      <c r="AE104" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF104" s="186"/>
+      <c r="AG104" s="186"/>
+      <c r="AH104" s="186"/>
+      <c r="AI104" s="186"/>
+      <c r="AJ104" s="186"/>
+      <c r="AK104" s="186"/>
+      <c r="AL104" s="186"/>
+      <c r="AM104" s="186"/>
+      <c r="AN104" s="186"/>
+      <c r="AO104" s="186"/>
+      <c r="AP104" s="185"/>
+      <c r="AQ104" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR104" s="185"/>
+      <c r="AS104" s="184" t="s">
         <v>229</v>
       </c>
-      <c r="T104" s="126"/>
-      <c r="U104" s="126"/>
-      <c r="V104" s="126"/>
-      <c r="W104" s="126"/>
-      <c r="X104" s="126"/>
-      <c r="Y104" s="126"/>
-      <c r="Z104" s="126"/>
-      <c r="AA104" s="126"/>
-      <c r="AB104" s="126"/>
-      <c r="AC104" s="126"/>
-      <c r="AD104" s="127"/>
-      <c r="AE104" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF104" s="126"/>
-      <c r="AG104" s="126"/>
-      <c r="AH104" s="126"/>
-      <c r="AI104" s="126"/>
-      <c r="AJ104" s="126"/>
-      <c r="AK104" s="126"/>
-      <c r="AL104" s="126"/>
-      <c r="AM104" s="126"/>
-      <c r="AN104" s="126"/>
-      <c r="AO104" s="126"/>
-      <c r="AP104" s="127"/>
-      <c r="AQ104" s="125" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR104" s="127"/>
-      <c r="AS104" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT104" s="126"/>
-      <c r="AU104" s="126"/>
-      <c r="AV104" s="126"/>
-      <c r="AW104" s="126"/>
-      <c r="AX104" s="126"/>
-      <c r="AY104" s="126"/>
-      <c r="AZ104" s="127"/>
+      <c r="AT104" s="186"/>
+      <c r="AU104" s="186"/>
+      <c r="AV104" s="186"/>
+      <c r="AW104" s="186"/>
+      <c r="AX104" s="186"/>
+      <c r="AY104" s="186"/>
+      <c r="AZ104" s="185"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -12929,27 +12929,27 @@
       <c r="C106" s="42"/>
       <c r="D106" s="42"/>
       <c r="E106" s="75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F106" s="76"/>
       <c r="G106" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="128" t="s">
-        <v>247</v>
-      </c>
-      <c r="M106" s="129"/>
-      <c r="N106" s="130"/>
+      <c r="L106" s="154" t="s">
+        <v>246</v>
+      </c>
+      <c r="M106" s="155"/>
+      <c r="N106" s="156"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
       <c r="R106" s="50"/>
       <c r="S106" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T106" s="69"/>
       <c r="U106" s="69"/>
@@ -12963,7 +12963,7 @@
       <c r="AC106" s="69"/>
       <c r="AD106" s="69"/>
       <c r="AE106" s="68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF106" s="69"/>
       <c r="AG106" s="69"/>
@@ -12982,18 +12982,18 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="189" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT106" s="190"/>
-      <c r="AU106" s="190"/>
-      <c r="AV106" s="190"/>
-      <c r="AW106" s="190"/>
-      <c r="AX106" s="190"/>
-      <c r="AY106" s="190"/>
-      <c r="AZ106" s="191"/>
+      <c r="AS106" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT106" s="121"/>
+      <c r="AU106" s="121"/>
+      <c r="AV106" s="121"/>
+      <c r="AW106" s="121"/>
+      <c r="AX106" s="121"/>
+      <c r="AY106" s="121"/>
+      <c r="AZ106" s="122"/>
       <c r="BA106" s="50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BB106" s="50"/>
       <c r="BC106" s="42"/>
@@ -13008,7 +13008,7 @@
       <c r="C107" s="42"/>
       <c r="D107" s="42"/>
       <c r="E107" s="75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F107" s="76"/>
       <c r="G107" s="76"/>
@@ -13024,7 +13024,7 @@
       <c r="Q107" s="50"/>
       <c r="R107" s="50"/>
       <c r="S107" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T107" s="69"/>
       <c r="U107" s="69"/>
@@ -13038,7 +13038,7 @@
       <c r="AC107" s="69"/>
       <c r="AD107" s="69"/>
       <c r="AE107" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF107" s="69"/>
       <c r="AG107" s="69"/>
@@ -13057,18 +13057,18 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="189" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT107" s="190"/>
-      <c r="AU107" s="190"/>
-      <c r="AV107" s="190"/>
-      <c r="AW107" s="190"/>
-      <c r="AX107" s="190"/>
-      <c r="AY107" s="190"/>
-      <c r="AZ107" s="191"/>
+      <c r="AS107" s="120" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT107" s="121"/>
+      <c r="AU107" s="121"/>
+      <c r="AV107" s="121"/>
+      <c r="AW107" s="121"/>
+      <c r="AX107" s="121"/>
+      <c r="AY107" s="121"/>
+      <c r="AZ107" s="122"/>
       <c r="BA107" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB107" s="50"/>
       <c r="BC107" s="42"/>
@@ -13083,11 +13083,11 @@
       <c r="C108" s="42"/>
       <c r="D108" s="42"/>
       <c r="E108" s="75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F108" s="76"/>
       <c r="G108" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H108" s="76"/>
       <c r="I108" s="76"/>
@@ -13101,7 +13101,7 @@
       <c r="Q108" s="50"/>
       <c r="R108" s="50"/>
       <c r="S108" s="68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T108" s="69"/>
       <c r="U108" s="69"/>
@@ -13115,7 +13115,7 @@
       <c r="AC108" s="69"/>
       <c r="AD108" s="69"/>
       <c r="AE108" s="68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF108" s="69"/>
       <c r="AG108" s="69"/>
@@ -13134,18 +13134,18 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="189" t="s">
-        <v>354</v>
-      </c>
-      <c r="AT108" s="190"/>
-      <c r="AU108" s="190"/>
-      <c r="AV108" s="190"/>
-      <c r="AW108" s="190"/>
-      <c r="AX108" s="190"/>
-      <c r="AY108" s="190"/>
-      <c r="AZ108" s="191"/>
+      <c r="AS108" s="120" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT108" s="121"/>
+      <c r="AU108" s="121"/>
+      <c r="AV108" s="121"/>
+      <c r="AW108" s="121"/>
+      <c r="AX108" s="121"/>
+      <c r="AY108" s="121"/>
+      <c r="AZ108" s="122"/>
       <c r="BA108" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BB108" s="50"/>
       <c r="BC108" s="42"/>
@@ -13174,7 +13174,7 @@
       <c r="Q109" s="50"/>
       <c r="R109" s="50"/>
       <c r="S109" s="68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T109" s="69"/>
       <c r="U109" s="69"/>
@@ -13188,7 +13188,7 @@
       <c r="AC109" s="69"/>
       <c r="AD109" s="69"/>
       <c r="AE109" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF109" s="69"/>
       <c r="AG109" s="69"/>
@@ -13207,18 +13207,18 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="189" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT109" s="190"/>
-      <c r="AU109" s="190"/>
-      <c r="AV109" s="190"/>
-      <c r="AW109" s="190"/>
-      <c r="AX109" s="190"/>
-      <c r="AY109" s="190"/>
-      <c r="AZ109" s="191"/>
+      <c r="AS109" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT109" s="121"/>
+      <c r="AU109" s="121"/>
+      <c r="AV109" s="121"/>
+      <c r="AW109" s="121"/>
+      <c r="AX109" s="121"/>
+      <c r="AY109" s="121"/>
+      <c r="AZ109" s="122"/>
       <c r="BA109" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB109" s="50"/>
       <c r="BC109" s="42"/>
@@ -13372,12 +13372,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="169" t="s">
-        <v>233</v>
-      </c>
-      <c r="P112" s="170"/>
-      <c r="Q112" s="170"/>
-      <c r="R112" s="171"/>
+      <c r="O112" s="145" t="s">
+        <v>232</v>
+      </c>
+      <c r="P112" s="146"/>
+      <c r="Q112" s="146"/>
+      <c r="R112" s="147"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13402,20 +13402,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="164" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR112" s="165"/>
-      <c r="AS112" s="166" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT112" s="167"/>
-      <c r="AU112" s="167"/>
-      <c r="AV112" s="167"/>
-      <c r="AW112" s="167"/>
-      <c r="AX112" s="167"/>
-      <c r="AY112" s="167"/>
-      <c r="AZ112" s="168"/>
+      <c r="AQ112" s="140" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR112" s="141"/>
+      <c r="AS112" s="142" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT112" s="143"/>
+      <c r="AU112" s="143"/>
+      <c r="AV112" s="143"/>
+      <c r="AW112" s="143"/>
+      <c r="AX112" s="143"/>
+      <c r="AY112" s="143"/>
+      <c r="AZ112" s="144"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -13446,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T113" s="71"/>
       <c r="U113" s="72"/>
@@ -13484,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="BA113" s="85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BB113" s="71"/>
       <c r="BC113" s="71"/>
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="S114" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T114" s="71"/>
       <c r="U114" s="72"/>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="AZ114" s="81"/>
       <c r="BA114" s="85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BB114" s="71"/>
       <c r="BC114" s="71"/>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="R115" s="79"/>
       <c r="S115" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T115" s="71"/>
       <c r="U115" s="72"/>
@@ -13622,7 +13622,7 @@
       <c r="AY115" s="80"/>
       <c r="AZ115" s="82"/>
       <c r="BA115" s="85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BB115" s="71"/>
       <c r="BC115" s="71"/>
@@ -13653,7 +13653,7 @@
       <c r="Q116" s="80"/>
       <c r="R116" s="79"/>
       <c r="S116" s="68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T116" s="71"/>
       <c r="U116" s="72"/>
@@ -13691,7 +13691,7 @@
       <c r="AY116" s="80"/>
       <c r="AZ116" s="82"/>
       <c r="BA116" s="85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BB116" s="71"/>
       <c r="BC116" s="71"/>
@@ -13722,7 +13722,7 @@
       <c r="Q117" s="79"/>
       <c r="R117" s="79"/>
       <c r="S117" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T117" s="71"/>
       <c r="U117" s="72"/>
@@ -13760,7 +13760,7 @@
       <c r="AY117" s="79"/>
       <c r="AZ117" s="82"/>
       <c r="BA117" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BB117" s="71"/>
       <c r="BC117" s="71"/>
@@ -13815,13 +13815,13 @@
       <c r="AQ118" s="42"/>
       <c r="AR118" s="42"/>
       <c r="AS118" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AT118" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU118" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AV118" s="79"/>
       <c r="AW118" s="79"/>
@@ -13829,7 +13829,7 @@
       <c r="AY118" s="79"/>
       <c r="AZ118" s="82"/>
       <c r="BA118" s="85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BB118" s="71"/>
       <c r="BC118" s="71"/>
@@ -13883,7 +13883,7 @@
       <c r="AP119" s="71"/>
       <c r="AQ119" s="71"/>
       <c r="AR119" s="86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AS119" s="83">
         <v>0</v>
@@ -13952,7 +13952,7 @@
       <c r="AP120" s="71"/>
       <c r="AQ120" s="71"/>
       <c r="AR120" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AS120" s="83">
         <v>0</v>
@@ -14021,7 +14021,7 @@
       <c r="AP121" s="71"/>
       <c r="AQ121" s="71"/>
       <c r="AR121" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS121" s="83">
         <v>0</v>
@@ -14090,7 +14090,7 @@
       <c r="AP122" s="71"/>
       <c r="AQ122" s="71"/>
       <c r="AR122" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AS122" s="84">
         <v>0</v>
@@ -14159,7 +14159,7 @@
       <c r="AP123" s="71"/>
       <c r="AQ123" s="71"/>
       <c r="AR123" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AS123" s="83">
         <v>1</v>
@@ -14228,7 +14228,7 @@
       <c r="AP124" s="71"/>
       <c r="AQ124" s="71"/>
       <c r="AR124" s="86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS124" s="83">
         <v>1</v>
@@ -14297,7 +14297,7 @@
       <c r="AP125" s="71"/>
       <c r="AQ125" s="71"/>
       <c r="AR125" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AS125" s="83">
         <v>1</v>
@@ -14366,7 +14366,7 @@
       <c r="AP126" s="71"/>
       <c r="AQ126" s="71"/>
       <c r="AR126" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS126" s="83">
         <v>1</v>
@@ -14616,20 +14616,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="164" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR130" s="165"/>
-      <c r="AS130" s="166" t="s">
-        <v>356</v>
-      </c>
-      <c r="AT130" s="167"/>
-      <c r="AU130" s="167"/>
-      <c r="AV130" s="167"/>
-      <c r="AW130" s="167"/>
-      <c r="AX130" s="167"/>
-      <c r="AY130" s="167"/>
-      <c r="AZ130" s="168"/>
+      <c r="AQ130" s="140" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR130" s="141"/>
+      <c r="AS130" s="142" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT130" s="143"/>
+      <c r="AU130" s="143"/>
+      <c r="AV130" s="143"/>
+      <c r="AW130" s="143"/>
+      <c r="AX130" s="143"/>
+      <c r="AY130" s="143"/>
+      <c r="AZ130" s="144"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14683,16 +14683,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="172" t="s">
-        <v>302</v>
-      </c>
-      <c r="AT131" s="173"/>
-      <c r="AU131" s="173"/>
-      <c r="AV131" s="173"/>
-      <c r="AW131" s="173"/>
-      <c r="AX131" s="173"/>
-      <c r="AY131" s="173"/>
-      <c r="AZ131" s="174"/>
+      <c r="AS131" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT131" s="149"/>
+      <c r="AU131" s="149"/>
+      <c r="AV131" s="149"/>
+      <c r="AW131" s="149"/>
+      <c r="AX131" s="149"/>
+      <c r="AY131" s="149"/>
+      <c r="AZ131" s="150"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14805,20 +14805,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="164" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR133" s="165"/>
-      <c r="AS133" s="166" t="s">
-        <v>306</v>
-      </c>
-      <c r="AT133" s="167"/>
-      <c r="AU133" s="167"/>
-      <c r="AV133" s="167"/>
-      <c r="AW133" s="167"/>
-      <c r="AX133" s="167"/>
-      <c r="AY133" s="167"/>
-      <c r="AZ133" s="168"/>
+      <c r="AQ133" s="140" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR133" s="141"/>
+      <c r="AS133" s="142" t="s">
+        <v>305</v>
+      </c>
+      <c r="AT133" s="143"/>
+      <c r="AU133" s="143"/>
+      <c r="AV133" s="143"/>
+      <c r="AW133" s="143"/>
+      <c r="AX133" s="143"/>
+      <c r="AY133" s="143"/>
+      <c r="AZ133" s="144"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -14873,7 +14873,7 @@
       <c r="AQ134" s="42"/>
       <c r="AR134" s="42"/>
       <c r="AS134" s="68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AT134" s="71"/>
       <c r="AU134" s="71"/>
@@ -14936,7 +14936,7 @@
       <c r="AQ135" s="42"/>
       <c r="AR135" s="42"/>
       <c r="AS135" s="68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AT135" s="71"/>
       <c r="AU135" s="71"/>
@@ -14999,7 +14999,7 @@
       <c r="AQ136" s="42"/>
       <c r="AR136" s="42"/>
       <c r="AS136" s="68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AT136" s="71"/>
       <c r="AU136" s="71"/>
@@ -15062,7 +15062,7 @@
       <c r="AQ137" s="42"/>
       <c r="AR137" s="42"/>
       <c r="AS137" s="68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AT137" s="73"/>
       <c r="AU137" s="73"/>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="140" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B140" s="64"/>
       <c r="C140" s="64"/>
@@ -15327,13 +15327,13 @@
     </row>
     <row r="142" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A142" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B142" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D142" s="42"/>
       <c r="E142" s="42"/>
@@ -15577,13 +15577,13 @@
     </row>
     <row r="146" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A146" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B146" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D146" s="42"/>
       <c r="E146" s="42"/>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="152" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B152" s="64"/>
       <c r="C152" s="64"/>
@@ -16073,13 +16073,13 @@
     </row>
     <row r="154" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A154" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B154" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D154" s="42"/>
       <c r="E154" s="42"/>
@@ -16323,13 +16323,13 @@
     </row>
     <row r="158" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A158" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B158" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D158" s="42"/>
       <c r="E158" s="42"/>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="164" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B164" s="64"/>
       <c r="C164" s="64"/>
@@ -16819,13 +16819,13 @@
     </row>
     <row r="166" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A166" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D166" s="42"/>
       <c r="E166" s="42"/>
@@ -17069,13 +17069,13 @@
     </row>
     <row r="170" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A170" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D170" s="42"/>
       <c r="E170" s="42"/>
@@ -17441,6 +17441,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="AS109:AZ109"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="S102:AD102"/>
@@ -17465,193 +17652,6 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18277,211 +18277,211 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
         <v>149</v>
-      </c>
-      <c r="O1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="D2">
         <v>178081</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1">
         <f>D2-D17</f>
         <v>-1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>178079</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="1">
         <f>K2-K17</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
         <v>156</v>
-      </c>
-      <c r="P2" t="s">
-        <v>157</v>
       </c>
       <c r="Q2">
         <f>D2-K3</f>
         <v>5</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="D3">
         <v>178063</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="15">
         <f>D16-D12-D3</f>
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3">
         <v>178076</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M3" s="1">
         <f>K16-K12-K3</f>
         <v>0</v>
       </c>
       <c r="O3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" t="s">
         <v>164</v>
-      </c>
-      <c r="P3" t="s">
-        <v>165</v>
       </c>
       <c r="Q3">
         <f>K2-D3</f>
         <v>16</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="Q4" s="1">
         <f>D2-D3</f>
         <v>18</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
         <v>172</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="Q5" s="1">
         <f>K2-K3</f>
         <v>3</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -18489,19 +18489,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -18509,19 +18509,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -18529,38 +18529,38 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
         <v>184</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="15">
         <f>D9-D18</f>
         <v>10</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s">
         <v>184</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" s="1">
         <f>K9-K18</f>
@@ -18569,19 +18569,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -18589,19 +18589,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -18609,82 +18609,82 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" s="15">
         <f>D16-D3-D12</f>
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" t="s">
         <v>192</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1">
         <f>K16-K3-K12</f>
         <v>0</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="1">
         <f>D13-D19</f>
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" t="s">
         <v>197</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M13" s="1">
         <f>K13-K19</f>
@@ -18693,19 +18693,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -18713,123 +18713,123 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
         <v>203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>204</v>
       </c>
       <c r="D16">
         <v>178072</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="15">
         <f>D3+D12-D16</f>
         <v>-2</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" t="s">
         <v>203</v>
-      </c>
-      <c r="I16" t="s">
-        <v>204</v>
       </c>
       <c r="K16">
         <v>178079</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M16" s="1">
         <f>K3+K12-K16</f>
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="1">
         <f>D17-K16</f>
         <v>3</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
         <v>207</v>
-      </c>
-      <c r="B17" t="s">
-        <v>208</v>
       </c>
       <c r="D17">
         <v>178082</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1">
         <f>D17-D2</f>
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
         <v>207</v>
-      </c>
-      <c r="I17" t="s">
-        <v>208</v>
       </c>
       <c r="K17">
         <v>178079</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M17" s="1">
         <f>K17-K2</f>
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="1">
         <f>K17-D16</f>
         <v>7</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
         <v>212</v>
-      </c>
-      <c r="B18" t="s">
-        <v>213</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="15">
         <f>D18-D9</f>
         <v>-10</v>
       </c>
       <c r="H18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" t="s">
         <v>212</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="M18" s="1">
         <f>K18-K9</f>
@@ -18838,32 +18838,32 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
         <v>215</v>
-      </c>
-      <c r="B19" t="s">
-        <v>216</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="1">
         <f>D19-D13</f>
         <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" t="s">
         <v>215</v>
-      </c>
-      <c r="I19" t="s">
-        <v>216</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M19" s="1">
         <f>K19-K13</f>
@@ -18872,19 +18872,19 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" t="s">
         <v>218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" t="s">
         <v>218</v>
-      </c>
-      <c r="I20" t="s">
-        <v>219</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -18892,13 +18892,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -18906,13 +18906,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -18920,13 +18920,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K23">
         <v>0</v>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D9068-9073-44E0-8DD9-B332F42CB512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE1393-3DBE-4346-8FA1-C96FC09D4315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="427">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>2)</t>
-  </si>
-  <si>
     <t>1)</t>
   </si>
   <si>
@@ -1280,12 +1277,6 @@
   </si>
   <si>
     <t>Single A/D</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Debug/Download</t>
@@ -1344,7 +1335,28 @@
     <t>LFXTAL</t>
   </si>
   <si>
-    <t>LF 32.768kHz</t>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>P19/F9</t>
+  </si>
+  <si>
+    <t>P21/F8</t>
+  </si>
+  <si>
+    <t>VCOM RTS</t>
+  </si>
+  <si>
+    <t>VCOM CTS</t>
+  </si>
+  <si>
+    <t>Button 0</t>
+  </si>
+  <si>
+    <t>N/A (Slave)</t>
+  </si>
+  <si>
+    <t>LF 32.768kHz Is used?</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2192,16 +2204,34 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,38 +2240,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2250,6 +2283,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2294,15 +2402,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2312,107 +2411,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2442,13 +2462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2079167</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>2247255</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2486,13 +2506,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>2009910</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>2200409</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2530,13 +2550,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2596,13 +2616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2662,13 +2682,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2728,13 +2748,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2794,13 +2814,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249530</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>173313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589442</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>116163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2860,13 +2880,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>281280</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>166963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621192</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>109813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3490,10 +3510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39:U40"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,13 +3521,14 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="5"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="33.7109375" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" style="87" customWidth="1"/>
     <col min="11" max="11" width="5.140625" customWidth="1"/>
     <col min="12" max="12" width="1.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.140625" customWidth="1"/>
@@ -3518,14 +3539,14 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N1" s="5"/>
       <c r="AA1" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -3588,14 +3609,14 @@
         <v>54</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AD3" s="3" t="str">
         <f>Q3</f>
         <v>CPU Port</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -3611,8 +3632,8 @@
       <c r="D4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>63</v>
+      <c r="E4" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>379</v>
@@ -3620,14 +3641,14 @@
       <c r="G4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="91" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K4" s="90" t="s">
-        <v>387</v>
+        <v>408</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>388</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>59</v>
@@ -3654,17 +3675,9 @@
         <v>62</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="V4" s="96" t="s">
-        <v>410</v>
-      </c>
-      <c r="W4" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="X4" s="97" t="s">
-        <v>60</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="V4" s="96"/>
       <c r="Y4" s="95" t="s">
         <v>389</v>
       </c>
@@ -3685,7 +3698,7 @@
         <v>PC04</v>
       </c>
       <c r="AE4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -3701,8 +3714,8 @@
       <c r="D5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>64</v>
+      <c r="E5" s="91" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>379</v>
@@ -3710,14 +3723,14 @@
       <c r="G5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="91" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K5" s="90" t="s">
-        <v>387</v>
+        <v>408</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>388</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>59</v>
@@ -3744,17 +3757,9 @@
         <v>62</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="V5" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="W5" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="X5" s="97" t="s">
-        <v>61</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="V5" s="96"/>
       <c r="Y5" s="95" t="s">
         <v>389</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>PC05</v>
       </c>
       <c r="AE5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -3920,10 +3925,10 @@
       </c>
       <c r="V8" s="96"/>
       <c r="W8" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y8" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3952,7 +3957,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K9" s="90" t="s">
         <v>387</v>
@@ -3980,13 +3985,13 @@
         <v>62</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="W9" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y9" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -4018,7 +4023,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K11" s="89" t="s">
         <v>388</v>
@@ -4048,7 +4053,7 @@
         <v>62</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Y11" s="95" t="s">
         <v>389</v>
@@ -4070,7 +4075,7 @@
         <v>PA01</v>
       </c>
       <c r="AE11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4099,7 +4104,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K12" s="89" t="s">
         <v>388</v>
@@ -4129,7 +4134,7 @@
         <v>62</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Y12" s="95" t="s">
         <v>389</v>
@@ -4151,7 +4156,7 @@
         <v>PA02</v>
       </c>
       <c r="AE12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -4180,7 +4185,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K13" s="89" t="s">
         <v>388</v>
@@ -4210,7 +4215,7 @@
         <v>62</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Y13" s="95" t="s">
         <v>389</v>
@@ -4232,7 +4237,7 @@
         <v>PA03</v>
       </c>
       <c r="AE13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -4263,7 +4268,9 @@
       <c r="H15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="K15" s="89" t="s">
         <v>388</v>
       </c>
@@ -4291,7 +4298,9 @@
       <c r="T15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U15" s="9"/>
+      <c r="U15" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="Y15" s="95" t="s">
         <v>389</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>PB00</v>
       </c>
       <c r="AE15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4389,7 +4398,7 @@
         <v>PA04</v>
       </c>
       <c r="AE16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4454,7 +4463,7 @@
         <v>119</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y18" s="95" t="s">
         <v>389</v>
@@ -4476,7 +4485,7 @@
         <v>PA00</v>
       </c>
       <c r="AE18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -4492,7 +4501,7 @@
       <c r="D19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="91" t="s">
         <v>115</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4501,7 +4510,7 @@
       <c r="G19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="91" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="9" t="s">
@@ -4537,10 +4546,10 @@
       </c>
       <c r="V19" s="96"/>
       <c r="W19" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y19" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4761,10 +4770,10 @@
       </c>
       <c r="U23" s="91"/>
       <c r="V23" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="W23" s="99" t="s">
         <v>391</v>
-      </c>
-      <c r="W23" s="99" t="s">
-        <v>392</v>
       </c>
       <c r="X23" s="97" t="s">
         <v>72</v>
@@ -4789,7 +4798,7 @@
         <v>PB04</v>
       </c>
       <c r="AE23" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4850,13 +4859,13 @@
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X25" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y25" s="98" t="s">
         <v>394</v>
-      </c>
-      <c r="Y25" s="98" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -4912,10 +4921,10 @@
       </c>
       <c r="U26" s="91"/>
       <c r="W26" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y26" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -4975,10 +4984,10 @@
         <v>146</v>
       </c>
       <c r="W27" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y27" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -5010,7 +5019,7 @@
         <v>62</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K29" s="89" t="s">
         <v>388</v>
@@ -5040,7 +5049,7 @@
         <v>62</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y29" s="95" t="s">
         <v>389</v>
@@ -5062,7 +5071,7 @@
         <v>PC00</v>
       </c>
       <c r="AE29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -5073,7 +5082,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>111</v>
@@ -5091,7 +5100,7 @@
         <v>62</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K30" s="89" t="s">
         <v>388</v>
@@ -5103,7 +5112,7 @@
         <v>101</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>111</v>
@@ -5121,7 +5130,7 @@
         <v>62</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y30" s="95" t="s">
         <v>389</v>
@@ -5143,7 +5152,7 @@
         <v>PC01</v>
       </c>
       <c r="AE30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -5172,7 +5181,7 @@
         <v>62</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K31" s="89" t="s">
         <v>388</v>
@@ -5202,7 +5211,7 @@
         <v>62</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y31" s="95" t="s">
         <v>389</v>
@@ -5224,7 +5233,7 @@
         <v>PC02</v>
       </c>
       <c r="AE31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -5232,7 +5241,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C32" s="118" t="s">
         <v>46</v>
@@ -5251,7 +5260,7 @@
         <v>62</v>
       </c>
       <c r="I32" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K32" s="89" t="s">
         <v>388</v>
@@ -5260,7 +5269,7 @@
         <v>103</v>
       </c>
       <c r="N32" s="119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O32" s="118" t="s">
         <v>46</v>
@@ -5279,11 +5288,11 @@
         <v>62</v>
       </c>
       <c r="U32" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V32" s="96"/>
       <c r="Y32" s="98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -5291,7 +5300,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>121</v>
@@ -5312,7 +5321,7 @@
         <v>62</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K33" s="89" t="s">
         <v>388</v>
@@ -5321,7 +5330,7 @@
         <v>103</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>121</v>
@@ -5342,7 +5351,7 @@
         <v>62</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V33" s="96"/>
       <c r="W33" s="96"/>
@@ -5366,7 +5375,7 @@
         <v>PC03</v>
       </c>
       <c r="AE33" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -5388,10 +5397,10 @@
       <c r="E35" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="194" t="s">
         <v>379</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="93" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -5429,13 +5438,13 @@
         <v>128</v>
       </c>
       <c r="W35" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X35" s="99" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y35" s="98" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -5451,13 +5460,13 @@
       <c r="D36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="93" t="s">
         <v>62</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -5496,11 +5505,9 @@
       <c r="U36" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="V36" s="96" t="s">
-        <v>390</v>
-      </c>
+      <c r="V36" s="96"/>
       <c r="Y36" s="98" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5516,13 +5523,13 @@
       <c r="D37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="93" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="93" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -5561,138 +5568,192 @@
       <c r="U37" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="V37" s="96" t="s">
-        <v>410</v>
-      </c>
+      <c r="V37" s="96"/>
       <c r="Y37" s="98" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="195" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>422</v>
+      <c r="G39" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="H39" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="I39" s="195" t="s">
+        <v>426</v>
       </c>
       <c r="K39" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="N39" s="10" t="s">
+      <c r="M39" s="195" t="s">
+        <v>418</v>
+      </c>
+      <c r="N39" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="S39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="T39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="U39" s="9" t="s">
-        <v>422</v>
+      <c r="S39" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="T39" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="U39" s="195" t="s">
+        <v>426</v>
       </c>
       <c r="Y39" s="95" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="195" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>422</v>
+      <c r="G40" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="H40" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="I40" s="195" t="s">
+        <v>426</v>
       </c>
       <c r="K40" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="N40" s="10" t="s">
+      <c r="M40" s="195" t="s">
+        <v>418</v>
+      </c>
+      <c r="N40" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="S40" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>422</v>
+      <c r="S40" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="T40" s="195" t="s">
+        <v>391</v>
+      </c>
+      <c r="U40" s="195" t="s">
+        <v>426</v>
       </c>
       <c r="Y40" s="95" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B42" s="197"/>
+      <c r="C42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="K42" s="90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="197"/>
+      <c r="C43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" s="90" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5849,21 +5910,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -5971,45 +6032,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="148" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="172" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="172" t="s">
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="174" t="s">
+      <c r="Q5" s="153"/>
+      <c r="R5" s="156" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="172" t="s">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="152" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="181" t="s">
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="148" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="182"/>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="183"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="150"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6044,45 +6105,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="187" t="s">
+      <c r="E6" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187" t="s">
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="188" t="s">
+      <c r="Q6" s="139"/>
+      <c r="R6" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188" t="s">
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6123,29 +6184,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="180" t="s">
+      <c r="K7" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180" t="s">
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180" t="s">
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180" t="s">
+      <c r="S7" s="154"/>
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="180"/>
+      <c r="Y7" s="154"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6581,7 +6642,7 @@
       <c r="E14" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="128"/>
+      <c r="F14" s="193"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6609,7 +6670,7 @@
       <c r="AE14" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="128"/>
+      <c r="AF14" s="193"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6652,67 +6713,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="131" t="s">
+      <c r="I15" s="126"/>
+      <c r="J15" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="192"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="122"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="129" t="s">
+      <c r="AH15" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="130"/>
-      <c r="AJ15" s="131" t="s">
+      <c r="AI15" s="126"/>
+      <c r="AJ15" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="132"/>
-      <c r="AL15" s="190"/>
-      <c r="AM15" s="191"/>
-      <c r="AN15" s="191"/>
-      <c r="AO15" s="191"/>
-      <c r="AP15" s="191"/>
-      <c r="AQ15" s="191"/>
-      <c r="AR15" s="191"/>
-      <c r="AS15" s="191"/>
-      <c r="AT15" s="191"/>
-      <c r="AU15" s="191"/>
-      <c r="AV15" s="191"/>
-      <c r="AW15" s="191"/>
-      <c r="AX15" s="191"/>
-      <c r="AY15" s="191"/>
-      <c r="AZ15" s="191"/>
-      <c r="BA15" s="191"/>
-      <c r="BB15" s="191"/>
-      <c r="BC15" s="191"/>
-      <c r="BD15" s="191"/>
-      <c r="BE15" s="191"/>
-      <c r="BF15" s="191"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
+      <c r="AX15" s="121"/>
+      <c r="AY15" s="121"/>
+      <c r="AZ15" s="121"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="121"/>
+      <c r="BF15" s="121"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6733,33 +6794,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="125" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="131" t="s">
+      <c r="K16" s="126"/>
+      <c r="L16" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="132"/>
-      <c r="N16" s="190"/>
-      <c r="O16" s="191"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="192"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="122"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -6767,33 +6828,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="129" t="s">
+      <c r="AJ16" s="125" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="130"/>
-      <c r="AL16" s="131" t="s">
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="190"/>
-      <c r="AO16" s="191"/>
-      <c r="AP16" s="191"/>
-      <c r="AQ16" s="191"/>
-      <c r="AR16" s="191"/>
-      <c r="AS16" s="191"/>
-      <c r="AT16" s="191"/>
-      <c r="AU16" s="191"/>
-      <c r="AV16" s="191"/>
-      <c r="AW16" s="191"/>
-      <c r="AX16" s="191"/>
-      <c r="AY16" s="191"/>
-      <c r="AZ16" s="191"/>
-      <c r="BA16" s="191"/>
-      <c r="BB16" s="191"/>
-      <c r="BC16" s="191"/>
-      <c r="BD16" s="191"/>
-      <c r="BE16" s="191"/>
-      <c r="BF16" s="191"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
+      <c r="AX16" s="121"/>
+      <c r="AY16" s="121"/>
+      <c r="AZ16" s="121"/>
+      <c r="BA16" s="121"/>
+      <c r="BB16" s="121"/>
+      <c r="BC16" s="121"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="121"/>
+      <c r="BF16" s="121"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6811,70 +6872,70 @@
         <v>274</v>
       </c>
       <c r="H17" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="129" t="s">
+      <c r="L17" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="130"/>
-      <c r="N17" s="131" t="s">
+      <c r="M17" s="126"/>
+      <c r="N17" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="132"/>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="191"/>
-      <c r="AF17" s="192"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="122"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH17" s="100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="129" t="s">
+      <c r="AL17" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="131" t="s">
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="132"/>
-      <c r="AP17" s="190"/>
-      <c r="AQ17" s="191"/>
-      <c r="AR17" s="191"/>
-      <c r="AS17" s="191"/>
-      <c r="AT17" s="191"/>
-      <c r="AU17" s="191"/>
-      <c r="AV17" s="191"/>
-      <c r="AW17" s="191"/>
-      <c r="AX17" s="191"/>
-      <c r="AY17" s="191"/>
-      <c r="AZ17" s="191"/>
-      <c r="BA17" s="191"/>
-      <c r="BB17" s="191"/>
-      <c r="BC17" s="191"/>
-      <c r="BD17" s="191"/>
-      <c r="BE17" s="191"/>
-      <c r="BF17" s="191"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
+      <c r="AX17" s="121"/>
+      <c r="AY17" s="121"/>
+      <c r="AZ17" s="121"/>
+      <c r="BA17" s="121"/>
+      <c r="BB17" s="121"/>
+      <c r="BC17" s="121"/>
+      <c r="BD17" s="121"/>
+      <c r="BE17" s="121"/>
+      <c r="BF17" s="121"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6892,7 +6953,7 @@
         <v>274</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I18" s="111"/>
       <c r="J18" s="111"/>
@@ -6902,29 +6963,29 @@
       <c r="N18" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="136"/>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="191"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="191"/>
-      <c r="AF18" s="192"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="122"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH18" s="100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI18" s="111"/>
       <c r="AJ18" s="111"/>
@@ -6934,24 +6995,24 @@
       <c r="AN18" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="136"/>
-      <c r="AP18" s="190"/>
-      <c r="AQ18" s="191"/>
-      <c r="AR18" s="191"/>
-      <c r="AS18" s="191"/>
-      <c r="AT18" s="191"/>
-      <c r="AU18" s="191"/>
-      <c r="AV18" s="191"/>
-      <c r="AW18" s="191"/>
-      <c r="AX18" s="191"/>
-      <c r="AY18" s="191"/>
-      <c r="AZ18" s="191"/>
-      <c r="BA18" s="191"/>
-      <c r="BB18" s="191"/>
-      <c r="BC18" s="191"/>
-      <c r="BD18" s="191"/>
-      <c r="BE18" s="191"/>
-      <c r="BF18" s="191"/>
+      <c r="AO18" s="128"/>
+      <c r="AP18" s="120"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="121"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="121"/>
+      <c r="AV18" s="121"/>
+      <c r="AW18" s="121"/>
+      <c r="AX18" s="121"/>
+      <c r="AY18" s="121"/>
+      <c r="AZ18" s="121"/>
+      <c r="BA18" s="121"/>
+      <c r="BB18" s="121"/>
+      <c r="BC18" s="121"/>
+      <c r="BD18" s="121"/>
+      <c r="BE18" s="121"/>
+      <c r="BF18" s="121"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -7164,7 +7225,7 @@
         <v>274</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I22" s="111"/>
       <c r="J22" s="111"/>
@@ -7177,28 +7238,28 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="129" t="s">
+      <c r="T22" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="130"/>
-      <c r="V22" s="131" t="s">
+      <c r="U22" s="126"/>
+      <c r="V22" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="132"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="191"/>
-      <c r="AB22" s="191"/>
-      <c r="AC22" s="191"/>
-      <c r="AD22" s="191"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="192"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="122"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH22" s="100" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AI22" s="111"/>
       <c r="AJ22" s="111"/>
@@ -7211,23 +7272,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="129" t="s">
+      <c r="AT22" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="130"/>
-      <c r="AV22" s="131" t="s">
+      <c r="AU22" s="126"/>
+      <c r="AV22" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="132"/>
-      <c r="AX22" s="190"/>
-      <c r="AY22" s="191"/>
-      <c r="AZ22" s="191"/>
-      <c r="BA22" s="191"/>
-      <c r="BB22" s="191"/>
-      <c r="BC22" s="191"/>
-      <c r="BD22" s="191"/>
-      <c r="BE22" s="191"/>
-      <c r="BF22" s="191"/>
+      <c r="AW22" s="124"/>
+      <c r="AX22" s="120"/>
+      <c r="AY22" s="121"/>
+      <c r="AZ22" s="121"/>
+      <c r="BA22" s="121"/>
+      <c r="BB22" s="121"/>
+      <c r="BC22" s="121"/>
+      <c r="BD22" s="121"/>
+      <c r="BE22" s="121"/>
+      <c r="BF22" s="121"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -7245,7 +7306,7 @@
         <v>274</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I23" s="111"/>
       <c r="J23" s="111"/>
@@ -7260,26 +7321,26 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="129" t="s">
+      <c r="V23" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="130"/>
-      <c r="X23" s="131" t="s">
+      <c r="W23" s="126"/>
+      <c r="X23" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="190"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="191"/>
-      <c r="AC23" s="191"/>
-      <c r="AD23" s="191"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="192"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="121"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="122"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH23" s="100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI23" s="111"/>
       <c r="AJ23" s="111"/>
@@ -7294,21 +7355,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="129" t="s">
+      <c r="AV23" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="130"/>
-      <c r="AX23" s="131" t="s">
+      <c r="AW23" s="126"/>
+      <c r="AX23" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="132"/>
-      <c r="AZ23" s="190"/>
-      <c r="BA23" s="191"/>
-      <c r="BB23" s="191"/>
-      <c r="BC23" s="191"/>
-      <c r="BD23" s="191"/>
-      <c r="BE23" s="191"/>
-      <c r="BF23" s="191"/>
+      <c r="AY23" s="124"/>
+      <c r="AZ23" s="120"/>
+      <c r="BA23" s="121"/>
+      <c r="BB23" s="121"/>
+      <c r="BC23" s="121"/>
+      <c r="BD23" s="121"/>
+      <c r="BE23" s="121"/>
+      <c r="BF23" s="121"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -7326,7 +7387,7 @@
         <v>274</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I24" s="111"/>
       <c r="J24" s="111"/>
@@ -7343,24 +7404,24 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="129" t="s">
+      <c r="X24" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="131" t="s">
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="191"/>
-      <c r="AD24" s="191"/>
-      <c r="AE24" s="191"/>
-      <c r="AF24" s="192"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="120"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="122"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH24" s="100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI24" s="111"/>
       <c r="AJ24" s="111"/>
@@ -7377,19 +7438,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="129" t="s">
+      <c r="AX24" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="130"/>
-      <c r="AZ24" s="131" t="s">
+      <c r="AY24" s="126"/>
+      <c r="AZ24" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="132"/>
-      <c r="BB24" s="190"/>
-      <c r="BC24" s="191"/>
-      <c r="BD24" s="191"/>
-      <c r="BE24" s="191"/>
-      <c r="BF24" s="191"/>
+      <c r="BA24" s="124"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="121"/>
+      <c r="BD24" s="121"/>
+      <c r="BE24" s="121"/>
+      <c r="BF24" s="121"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -7407,7 +7468,7 @@
         <v>274</v>
       </c>
       <c r="H25" s="100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I25" s="111"/>
       <c r="J25" s="111"/>
@@ -7429,19 +7490,19 @@
       <c r="Z25" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="131" t="s">
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="190"/>
-      <c r="AE25" s="191"/>
-      <c r="AF25" s="192"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="122"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
       <c r="AH25" s="100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI25" s="111"/>
       <c r="AJ25" s="111"/>
@@ -7463,14 +7524,14 @@
       <c r="AZ25" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="136"/>
-      <c r="BB25" s="131" t="s">
+      <c r="BA25" s="128"/>
+      <c r="BB25" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="132"/>
-      <c r="BD25" s="190"/>
-      <c r="BE25" s="191"/>
-      <c r="BF25" s="191"/>
+      <c r="BC25" s="124"/>
+      <c r="BD25" s="120"/>
+      <c r="BE25" s="121"/>
+      <c r="BF25" s="121"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7728,29 +7789,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="133" t="s">
+      <c r="E30" s="170" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="134"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="133" t="s">
+      <c r="H30" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="133" t="s">
+      <c r="I30" s="171"/>
+      <c r="J30" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="134"/>
-      <c r="L30" s="133" t="s">
+      <c r="K30" s="171"/>
+      <c r="L30" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="134"/>
-      <c r="N30" s="133" t="s">
+      <c r="M30" s="171"/>
+      <c r="N30" s="170" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="134"/>
+      <c r="O30" s="171"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -7759,50 +7820,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="133" t="s">
+      <c r="T30" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="134"/>
-      <c r="V30" s="133" t="s">
+      <c r="U30" s="171"/>
+      <c r="V30" s="170" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="134"/>
-      <c r="X30" s="133" t="s">
+      <c r="W30" s="171"/>
+      <c r="X30" s="170" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="133" t="s">
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="170" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="137" t="s">
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="133" t="s">
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="170" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="134"/>
+      <c r="AF30" s="171"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="133" t="s">
+      <c r="AH30" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="133" t="s">
+      <c r="AI30" s="171"/>
+      <c r="AJ30" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="133" t="s">
+      <c r="AK30" s="171"/>
+      <c r="AL30" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="134"/>
-      <c r="AN30" s="133" t="s">
+      <c r="AM30" s="171"/>
+      <c r="AN30" s="170" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="134"/>
+      <c r="AO30" s="171"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -7811,27 +7872,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="133" t="s">
+      <c r="AT30" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="134"/>
-      <c r="AV30" s="133" t="s">
+      <c r="AU30" s="171"/>
+      <c r="AV30" s="170" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="134"/>
-      <c r="AX30" s="133" t="s">
+      <c r="AW30" s="171"/>
+      <c r="AX30" s="170" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="134"/>
-      <c r="AZ30" s="133" t="s">
+      <c r="AY30" s="171"/>
+      <c r="AZ30" s="170" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="134"/>
-      <c r="BB30" s="137" t="s">
+      <c r="BA30" s="171"/>
+      <c r="BB30" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="138"/>
-      <c r="BD30" s="139"/>
+      <c r="BC30" s="145"/>
+      <c r="BD30" s="146"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -7843,10 +7904,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="135" t="s">
+      <c r="E31" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="135"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -7873,10 +7934,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="135" t="s">
+      <c r="AE31" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="135"/>
+      <c r="AF31" s="147"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -7986,75 +8047,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="163" t="s">
+      <c r="H33" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="133" t="s">
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="168"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="170" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="134"/>
-      <c r="V33" s="137" t="s">
+      <c r="U33" s="171"/>
+      <c r="V33" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="139"/>
-      <c r="X33" s="163" t="s">
+      <c r="W33" s="146"/>
+      <c r="X33" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="163" t="s">
+      <c r="AH33" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="164"/>
-      <c r="AJ33" s="164"/>
-      <c r="AK33" s="164"/>
-      <c r="AL33" s="164"/>
-      <c r="AM33" s="164"/>
-      <c r="AN33" s="164"/>
-      <c r="AO33" s="164"/>
-      <c r="AP33" s="164"/>
-      <c r="AQ33" s="164"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="165"/>
-      <c r="AT33" s="133" t="s">
+      <c r="AI33" s="168"/>
+      <c r="AJ33" s="168"/>
+      <c r="AK33" s="168"/>
+      <c r="AL33" s="168"/>
+      <c r="AM33" s="168"/>
+      <c r="AN33" s="168"/>
+      <c r="AO33" s="168"/>
+      <c r="AP33" s="168"/>
+      <c r="AQ33" s="168"/>
+      <c r="AR33" s="168"/>
+      <c r="AS33" s="169"/>
+      <c r="AT33" s="170" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="134"/>
-      <c r="AV33" s="137" t="s">
+      <c r="AU33" s="171"/>
+      <c r="AV33" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="139"/>
-      <c r="AX33" s="163" t="s">
+      <c r="AW33" s="146"/>
+      <c r="AX33" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="164"/>
-      <c r="AZ33" s="164"/>
-      <c r="BA33" s="164"/>
-      <c r="BB33" s="164"/>
-      <c r="BC33" s="164"/>
-      <c r="BD33" s="165"/>
+      <c r="AY33" s="168"/>
+      <c r="AZ33" s="168"/>
+      <c r="BA33" s="168"/>
+      <c r="BB33" s="168"/>
+      <c r="BC33" s="168"/>
+      <c r="BD33" s="169"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8066,10 +8127,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="147" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="135"/>
+      <c r="F34" s="147"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -8085,10 +8146,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="135" t="s">
+      <c r="T34" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="135"/>
+      <c r="U34" s="147"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -8117,10 +8178,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="135" t="s">
+      <c r="AT34" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="135"/>
+      <c r="AU34" s="147"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -8391,33 +8452,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="167"/>
-      <c r="G39" s="168" t="s">
+      <c r="F39" s="163"/>
+      <c r="G39" s="165" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="169"/>
+      <c r="H39" s="166"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="127" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="136"/>
+      <c r="K39" s="128"/>
       <c r="L39" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="136"/>
+      <c r="M39" s="128"/>
       <c r="N39" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="136"/>
+      <c r="O39" s="128"/>
       <c r="P39" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="136"/>
+      <c r="Q39" s="128"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -8429,47 +8490,47 @@
       <c r="V39" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="136"/>
+      <c r="W39" s="128"/>
       <c r="X39" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="136"/>
+      <c r="Y39" s="128"/>
       <c r="Z39" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="136"/>
+      <c r="AA39" s="128"/>
       <c r="AB39" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="136"/>
-      <c r="AD39" s="131" t="s">
+      <c r="AC39" s="128"/>
+      <c r="AD39" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="171"/>
-      <c r="AF39" s="132"/>
+      <c r="AE39" s="164"/>
+      <c r="AF39" s="124"/>
       <c r="AG39" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="136"/>
+      <c r="AH39" s="128"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="127" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="136"/>
+      <c r="AK39" s="128"/>
       <c r="AL39" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="136"/>
+      <c r="AM39" s="128"/>
       <c r="AN39" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="136"/>
+      <c r="AO39" s="128"/>
       <c r="AP39" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="136"/>
+      <c r="AQ39" s="128"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -8498,14 +8559,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="170" t="s">
+      <c r="E40" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170" t="s">
+      <c r="F40" s="140"/>
+      <c r="G40" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="170"/>
+      <c r="H40" s="140"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -8532,10 +8593,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="170" t="s">
+      <c r="AG40" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="170"/>
+      <c r="AH40" s="140"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -8574,24 +8635,24 @@
       <c r="E41" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="136"/>
+      <c r="F41" s="128"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="127" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="136"/>
+      <c r="I41" s="128"/>
       <c r="J41" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="168" t="s">
+      <c r="K41" s="128"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="163"/>
+      <c r="N41" s="165" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="169"/>
+      <c r="O41" s="166"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -8603,47 +8664,47 @@
       <c r="T41" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="136"/>
+      <c r="U41" s="128"/>
       <c r="V41" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="136"/>
+      <c r="W41" s="128"/>
       <c r="X41" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="136"/>
+      <c r="Y41" s="128"/>
       <c r="Z41" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="131" t="s">
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="171"/>
-      <c r="AD41" s="132"/>
+      <c r="AC41" s="164"/>
+      <c r="AD41" s="124"/>
       <c r="AE41" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="136"/>
+      <c r="AF41" s="128"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="127" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="136"/>
+      <c r="AI41" s="128"/>
       <c r="AJ41" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="136"/>
+      <c r="AK41" s="128"/>
       <c r="AL41" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="136"/>
+      <c r="AM41" s="128"/>
       <c r="AN41" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="136"/>
+      <c r="AO41" s="128"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -8655,24 +8716,24 @@
       <c r="AT41" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="136"/>
+      <c r="AU41" s="128"/>
       <c r="AV41" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="136"/>
+      <c r="AW41" s="128"/>
       <c r="AX41" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="136"/>
+      <c r="AY41" s="128"/>
       <c r="AZ41" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="136"/>
-      <c r="BB41" s="131" t="s">
+      <c r="BA41" s="128"/>
+      <c r="BB41" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="171"/>
-      <c r="BD41" s="132"/>
+      <c r="BC41" s="164"/>
+      <c r="BD41" s="124"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8684,10 +8745,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="170" t="s">
+      <c r="E42" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="170"/>
+      <c r="F42" s="140"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8714,10 +8775,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="170" t="s">
+      <c r="AE42" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="170"/>
+      <c r="AF42" s="140"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8827,75 +8888,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="178"/>
-      <c r="J44" s="178"/>
-      <c r="K44" s="178"/>
-      <c r="L44" s="178"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="178"/>
-      <c r="O44" s="178"/>
-      <c r="P44" s="178"/>
-      <c r="Q44" s="178"/>
-      <c r="R44" s="178"/>
-      <c r="S44" s="179"/>
-      <c r="T44" s="166" t="s">
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="160"/>
+      <c r="R44" s="160"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="167"/>
-      <c r="V44" s="131" t="s">
+      <c r="U44" s="163"/>
+      <c r="V44" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="132"/>
-      <c r="X44" s="177" t="s">
+      <c r="W44" s="124"/>
+      <c r="X44" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="178"/>
-      <c r="Z44" s="178"/>
-      <c r="AA44" s="178"/>
-      <c r="AB44" s="178"/>
-      <c r="AC44" s="178"/>
-      <c r="AD44" s="178"/>
-      <c r="AE44" s="179"/>
+      <c r="Y44" s="160"/>
+      <c r="Z44" s="160"/>
+      <c r="AA44" s="160"/>
+      <c r="AB44" s="160"/>
+      <c r="AC44" s="160"/>
+      <c r="AD44" s="160"/>
+      <c r="AE44" s="161"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="177" t="s">
+      <c r="AH44" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="178"/>
-      <c r="AJ44" s="178"/>
-      <c r="AK44" s="178"/>
-      <c r="AL44" s="178"/>
-      <c r="AM44" s="178"/>
-      <c r="AN44" s="178"/>
-      <c r="AO44" s="178"/>
-      <c r="AP44" s="178"/>
-      <c r="AQ44" s="178"/>
-      <c r="AR44" s="178"/>
-      <c r="AS44" s="179"/>
+      <c r="AI44" s="160"/>
+      <c r="AJ44" s="160"/>
+      <c r="AK44" s="160"/>
+      <c r="AL44" s="160"/>
+      <c r="AM44" s="160"/>
+      <c r="AN44" s="160"/>
+      <c r="AO44" s="160"/>
+      <c r="AP44" s="160"/>
+      <c r="AQ44" s="160"/>
+      <c r="AR44" s="160"/>
+      <c r="AS44" s="161"/>
       <c r="AT44" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="136"/>
-      <c r="AV44" s="131" t="s">
+      <c r="AU44" s="128"/>
+      <c r="AV44" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="132"/>
-      <c r="AX44" s="177" t="s">
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="178"/>
-      <c r="AZ44" s="178"/>
-      <c r="BA44" s="178"/>
-      <c r="BB44" s="178"/>
-      <c r="BC44" s="178"/>
-      <c r="BD44" s="179"/>
+      <c r="AY44" s="160"/>
+      <c r="AZ44" s="160"/>
+      <c r="BA44" s="160"/>
+      <c r="BB44" s="160"/>
+      <c r="BC44" s="160"/>
+      <c r="BD44" s="161"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -8907,10 +8968,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="170"/>
+      <c r="F45" s="140"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -8926,10 +8987,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="170" t="s">
+      <c r="T45" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="170"/>
+      <c r="U45" s="140"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -8958,10 +9019,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="170" t="s">
+      <c r="AT45" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="170"/>
+      <c r="AU45" s="140"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -8990,70 +9051,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="177" t="s">
+      <c r="G46" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
-      <c r="S46" s="178"/>
-      <c r="T46" s="178"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="178"/>
-      <c r="W46" s="178"/>
-      <c r="X46" s="178"/>
-      <c r="Y46" s="178"/>
-      <c r="Z46" s="178"/>
-      <c r="AA46" s="178"/>
-      <c r="AB46" s="178"/>
-      <c r="AC46" s="178"/>
-      <c r="AD46" s="178"/>
-      <c r="AE46" s="179"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="160"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="160"/>
+      <c r="P46" s="160"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="160"/>
+      <c r="S46" s="160"/>
+      <c r="T46" s="160"/>
+      <c r="U46" s="160"/>
+      <c r="V46" s="160"/>
+      <c r="W46" s="160"/>
+      <c r="X46" s="160"/>
+      <c r="Y46" s="160"/>
+      <c r="Z46" s="160"/>
+      <c r="AA46" s="160"/>
+      <c r="AB46" s="160"/>
+      <c r="AC46" s="160"/>
+      <c r="AD46" s="160"/>
+      <c r="AE46" s="161"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="177" t="s">
+      <c r="AH46" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="178"/>
-      <c r="AJ46" s="178"/>
-      <c r="AK46" s="178"/>
-      <c r="AL46" s="178"/>
-      <c r="AM46" s="178"/>
-      <c r="AN46" s="178"/>
-      <c r="AO46" s="178"/>
-      <c r="AP46" s="178"/>
-      <c r="AQ46" s="178"/>
-      <c r="AR46" s="178"/>
-      <c r="AS46" s="179"/>
+      <c r="AI46" s="160"/>
+      <c r="AJ46" s="160"/>
+      <c r="AK46" s="160"/>
+      <c r="AL46" s="160"/>
+      <c r="AM46" s="160"/>
+      <c r="AN46" s="160"/>
+      <c r="AO46" s="160"/>
+      <c r="AP46" s="160"/>
+      <c r="AQ46" s="160"/>
+      <c r="AR46" s="160"/>
+      <c r="AS46" s="161"/>
       <c r="AT46" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="136"/>
-      <c r="AV46" s="131" t="s">
+      <c r="AU46" s="128"/>
+      <c r="AV46" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="132"/>
-      <c r="AX46" s="177" t="s">
+      <c r="AW46" s="124"/>
+      <c r="AX46" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="178"/>
-      <c r="AZ46" s="178"/>
-      <c r="BA46" s="178"/>
-      <c r="BB46" s="178"/>
-      <c r="BC46" s="178"/>
-      <c r="BD46" s="179"/>
+      <c r="AY46" s="160"/>
+      <c r="AZ46" s="160"/>
+      <c r="BA46" s="160"/>
+      <c r="BB46" s="160"/>
+      <c r="BC46" s="160"/>
+      <c r="BD46" s="161"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9110,10 +9171,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="170" t="s">
+      <c r="AT47" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="170"/>
+      <c r="AU47" s="140"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -9504,20 +9565,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="124" t="s">
+      <c r="E54" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="124" t="s">
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="125"/>
-      <c r="N54" s="193"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="132"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9638,20 +9699,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="184" t="s">
+      <c r="E56" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="185"/>
-      <c r="L56" s="184" t="s">
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="186"/>
-      <c r="N56" s="185"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="135"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -12123,68 +12184,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="124" t="s">
+      <c r="E95" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="125"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="125"/>
-      <c r="J95" s="125"/>
-      <c r="K95" s="126"/>
-      <c r="L95" s="124" t="s">
+      <c r="F95" s="131"/>
+      <c r="G95" s="131"/>
+      <c r="H95" s="131"/>
+      <c r="I95" s="131"/>
+      <c r="J95" s="131"/>
+      <c r="K95" s="151"/>
+      <c r="L95" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="125"/>
-      <c r="N95" s="126"/>
-      <c r="O95" s="160" t="s">
+      <c r="M95" s="131"/>
+      <c r="N95" s="151"/>
+      <c r="O95" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="161"/>
-      <c r="Q95" s="161"/>
-      <c r="R95" s="161"/>
-      <c r="S95" s="161"/>
-      <c r="T95" s="162"/>
-      <c r="U95" s="160" t="s">
+      <c r="P95" s="142"/>
+      <c r="Q95" s="142"/>
+      <c r="R95" s="142"/>
+      <c r="S95" s="142"/>
+      <c r="T95" s="143"/>
+      <c r="U95" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="161"/>
-      <c r="W95" s="161"/>
-      <c r="X95" s="161"/>
-      <c r="Y95" s="161"/>
-      <c r="Z95" s="161"/>
-      <c r="AA95" s="161"/>
-      <c r="AB95" s="162"/>
-      <c r="AC95" s="160" t="s">
+      <c r="V95" s="142"/>
+      <c r="W95" s="142"/>
+      <c r="X95" s="142"/>
+      <c r="Y95" s="142"/>
+      <c r="Z95" s="142"/>
+      <c r="AA95" s="142"/>
+      <c r="AB95" s="143"/>
+      <c r="AC95" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="161"/>
-      <c r="AE95" s="161"/>
-      <c r="AF95" s="161"/>
-      <c r="AG95" s="161"/>
-      <c r="AH95" s="161"/>
-      <c r="AI95" s="161"/>
-      <c r="AJ95" s="162"/>
-      <c r="AK95" s="160" t="s">
+      <c r="AD95" s="142"/>
+      <c r="AE95" s="142"/>
+      <c r="AF95" s="142"/>
+      <c r="AG95" s="142"/>
+      <c r="AH95" s="142"/>
+      <c r="AI95" s="142"/>
+      <c r="AJ95" s="143"/>
+      <c r="AK95" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="161"/>
-      <c r="AM95" s="161"/>
-      <c r="AN95" s="161"/>
-      <c r="AO95" s="161"/>
-      <c r="AP95" s="161"/>
-      <c r="AQ95" s="161"/>
-      <c r="AR95" s="162"/>
-      <c r="AS95" s="157" t="s">
+      <c r="AL95" s="142"/>
+      <c r="AM95" s="142"/>
+      <c r="AN95" s="142"/>
+      <c r="AO95" s="142"/>
+      <c r="AP95" s="142"/>
+      <c r="AQ95" s="142"/>
+      <c r="AR95" s="143"/>
+      <c r="AS95" s="186" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="158"/>
-      <c r="AU95" s="158"/>
-      <c r="AV95" s="158"/>
-      <c r="AW95" s="158"/>
-      <c r="AX95" s="158"/>
-      <c r="AY95" s="158"/>
-      <c r="AZ95" s="159"/>
+      <c r="AT95" s="187"/>
+      <c r="AU95" s="187"/>
+      <c r="AV95" s="187"/>
+      <c r="AW95" s="187"/>
+      <c r="AX95" s="187"/>
+      <c r="AY95" s="187"/>
+      <c r="AZ95" s="188"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12289,68 +12350,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="184" t="s">
+      <c r="E97" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="186"/>
-      <c r="G97" s="186"/>
-      <c r="H97" s="186"/>
-      <c r="I97" s="186"/>
-      <c r="J97" s="186"/>
-      <c r="K97" s="185"/>
-      <c r="L97" s="184" t="s">
+      <c r="F97" s="134"/>
+      <c r="G97" s="134"/>
+      <c r="H97" s="134"/>
+      <c r="I97" s="134"/>
+      <c r="J97" s="134"/>
+      <c r="K97" s="135"/>
+      <c r="L97" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="186"/>
-      <c r="N97" s="186"/>
-      <c r="O97" s="184" t="s">
+      <c r="M97" s="134"/>
+      <c r="N97" s="134"/>
+      <c r="O97" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="186"/>
-      <c r="Q97" s="186"/>
-      <c r="R97" s="186"/>
-      <c r="S97" s="186"/>
-      <c r="T97" s="185"/>
-      <c r="U97" s="184" t="s">
+      <c r="P97" s="134"/>
+      <c r="Q97" s="134"/>
+      <c r="R97" s="134"/>
+      <c r="S97" s="134"/>
+      <c r="T97" s="135"/>
+      <c r="U97" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="186"/>
-      <c r="W97" s="186"/>
-      <c r="X97" s="186"/>
-      <c r="Y97" s="186"/>
-      <c r="Z97" s="186"/>
-      <c r="AA97" s="186"/>
-      <c r="AB97" s="185"/>
-      <c r="AC97" s="184" t="s">
+      <c r="V97" s="134"/>
+      <c r="W97" s="134"/>
+      <c r="X97" s="134"/>
+      <c r="Y97" s="134"/>
+      <c r="Z97" s="134"/>
+      <c r="AA97" s="134"/>
+      <c r="AB97" s="135"/>
+      <c r="AC97" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="186"/>
-      <c r="AE97" s="186"/>
-      <c r="AF97" s="186"/>
-      <c r="AG97" s="186"/>
-      <c r="AH97" s="186"/>
-      <c r="AI97" s="186"/>
-      <c r="AJ97" s="185"/>
-      <c r="AK97" s="184" t="s">
+      <c r="AD97" s="134"/>
+      <c r="AE97" s="134"/>
+      <c r="AF97" s="134"/>
+      <c r="AG97" s="134"/>
+      <c r="AH97" s="134"/>
+      <c r="AI97" s="134"/>
+      <c r="AJ97" s="135"/>
+      <c r="AK97" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="186"/>
-      <c r="AM97" s="186"/>
-      <c r="AN97" s="186"/>
-      <c r="AO97" s="186"/>
-      <c r="AP97" s="186"/>
-      <c r="AQ97" s="186"/>
-      <c r="AR97" s="185"/>
-      <c r="AS97" s="186" t="s">
+      <c r="AL97" s="134"/>
+      <c r="AM97" s="134"/>
+      <c r="AN97" s="134"/>
+      <c r="AO97" s="134"/>
+      <c r="AP97" s="134"/>
+      <c r="AQ97" s="134"/>
+      <c r="AR97" s="135"/>
+      <c r="AS97" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="186"/>
-      <c r="AU97" s="186"/>
-      <c r="AV97" s="186"/>
-      <c r="AW97" s="186"/>
-      <c r="AX97" s="186"/>
-      <c r="AY97" s="186"/>
-      <c r="AZ97" s="185"/>
+      <c r="AT97" s="134"/>
+      <c r="AU97" s="134"/>
+      <c r="AV97" s="134"/>
+      <c r="AW97" s="134"/>
+      <c r="AX97" s="134"/>
+      <c r="AY97" s="134"/>
+      <c r="AZ97" s="135"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12425,68 +12486,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="151" t="s">
-        <v>403</v>
-      </c>
-      <c r="F99" s="152"/>
-      <c r="G99" s="152"/>
-      <c r="H99" s="152"/>
-      <c r="I99" s="152"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="153"/>
-      <c r="L99" s="154" t="s">
+      <c r="E99" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" s="184"/>
+      <c r="G99" s="184"/>
+      <c r="H99" s="184"/>
+      <c r="I99" s="184"/>
+      <c r="J99" s="184"/>
+      <c r="K99" s="185"/>
+      <c r="L99" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="155"/>
-      <c r="N99" s="156"/>
-      <c r="O99" s="148" t="s">
+      <c r="M99" s="137"/>
+      <c r="N99" s="138"/>
+      <c r="O99" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="149"/>
-      <c r="Q99" s="149"/>
-      <c r="R99" s="149"/>
-      <c r="S99" s="149"/>
-      <c r="T99" s="150"/>
-      <c r="U99" s="148" t="s">
+      <c r="P99" s="181"/>
+      <c r="Q99" s="181"/>
+      <c r="R99" s="181"/>
+      <c r="S99" s="181"/>
+      <c r="T99" s="182"/>
+      <c r="U99" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="149"/>
-      <c r="W99" s="149"/>
-      <c r="X99" s="149"/>
-      <c r="Y99" s="149"/>
-      <c r="Z99" s="149"/>
-      <c r="AA99" s="149"/>
-      <c r="AB99" s="150"/>
-      <c r="AC99" s="148" t="s">
+      <c r="V99" s="181"/>
+      <c r="W99" s="181"/>
+      <c r="X99" s="181"/>
+      <c r="Y99" s="181"/>
+      <c r="Z99" s="181"/>
+      <c r="AA99" s="181"/>
+      <c r="AB99" s="182"/>
+      <c r="AC99" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="149"/>
-      <c r="AE99" s="149"/>
-      <c r="AF99" s="149"/>
-      <c r="AG99" s="149"/>
-      <c r="AH99" s="149"/>
-      <c r="AI99" s="149"/>
-      <c r="AJ99" s="150"/>
-      <c r="AK99" s="148" t="s">
+      <c r="AD99" s="181"/>
+      <c r="AE99" s="181"/>
+      <c r="AF99" s="181"/>
+      <c r="AG99" s="181"/>
+      <c r="AH99" s="181"/>
+      <c r="AI99" s="181"/>
+      <c r="AJ99" s="182"/>
+      <c r="AK99" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="149"/>
-      <c r="AM99" s="149"/>
-      <c r="AN99" s="149"/>
-      <c r="AO99" s="149"/>
-      <c r="AP99" s="149"/>
-      <c r="AQ99" s="149"/>
-      <c r="AR99" s="150"/>
-      <c r="AS99" s="148" t="s">
+      <c r="AL99" s="181"/>
+      <c r="AM99" s="181"/>
+      <c r="AN99" s="181"/>
+      <c r="AO99" s="181"/>
+      <c r="AP99" s="181"/>
+      <c r="AQ99" s="181"/>
+      <c r="AR99" s="182"/>
+      <c r="AS99" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="149"/>
-      <c r="AU99" s="149"/>
-      <c r="AV99" s="149"/>
-      <c r="AW99" s="149"/>
-      <c r="AX99" s="149"/>
-      <c r="AY99" s="149"/>
-      <c r="AZ99" s="150"/>
+      <c r="AT99" s="181"/>
+      <c r="AU99" s="181"/>
+      <c r="AV99" s="181"/>
+      <c r="AW99" s="181"/>
+      <c r="AX99" s="181"/>
+      <c r="AY99" s="181"/>
+      <c r="AZ99" s="182"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12628,68 +12689,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="124" t="s">
+      <c r="E102" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="125"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="125"/>
-      <c r="J102" s="125"/>
-      <c r="K102" s="126"/>
-      <c r="L102" s="124" t="s">
+      <c r="F102" s="131"/>
+      <c r="G102" s="131"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="131"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="151"/>
+      <c r="L102" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="125"/>
-      <c r="N102" s="126"/>
-      <c r="O102" s="124" t="s">
+      <c r="M102" s="131"/>
+      <c r="N102" s="151"/>
+      <c r="O102" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="125"/>
-      <c r="Q102" s="125"/>
-      <c r="R102" s="126"/>
-      <c r="S102" s="124" t="s">
+      <c r="P102" s="131"/>
+      <c r="Q102" s="131"/>
+      <c r="R102" s="151"/>
+      <c r="S102" s="130" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="125"/>
-      <c r="U102" s="125"/>
-      <c r="V102" s="125"/>
-      <c r="W102" s="125"/>
-      <c r="X102" s="125"/>
-      <c r="Y102" s="125"/>
-      <c r="Z102" s="125"/>
-      <c r="AA102" s="125"/>
-      <c r="AB102" s="125"/>
-      <c r="AC102" s="125"/>
-      <c r="AD102" s="126"/>
-      <c r="AE102" s="124" t="s">
+      <c r="T102" s="131"/>
+      <c r="U102" s="131"/>
+      <c r="V102" s="131"/>
+      <c r="W102" s="131"/>
+      <c r="X102" s="131"/>
+      <c r="Y102" s="131"/>
+      <c r="Z102" s="131"/>
+      <c r="AA102" s="131"/>
+      <c r="AB102" s="131"/>
+      <c r="AC102" s="131"/>
+      <c r="AD102" s="151"/>
+      <c r="AE102" s="130" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="125"/>
-      <c r="AG102" s="125"/>
-      <c r="AH102" s="125"/>
-      <c r="AI102" s="125"/>
-      <c r="AJ102" s="125"/>
-      <c r="AK102" s="125"/>
-      <c r="AL102" s="125"/>
-      <c r="AM102" s="125"/>
-      <c r="AN102" s="125"/>
-      <c r="AO102" s="125"/>
-      <c r="AP102" s="126"/>
-      <c r="AQ102" s="124" t="s">
+      <c r="AF102" s="131"/>
+      <c r="AG102" s="131"/>
+      <c r="AH102" s="131"/>
+      <c r="AI102" s="131"/>
+      <c r="AJ102" s="131"/>
+      <c r="AK102" s="131"/>
+      <c r="AL102" s="131"/>
+      <c r="AM102" s="131"/>
+      <c r="AN102" s="131"/>
+      <c r="AO102" s="131"/>
+      <c r="AP102" s="151"/>
+      <c r="AQ102" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="126"/>
-      <c r="AS102" s="124" t="s">
+      <c r="AR102" s="151"/>
+      <c r="AS102" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="125"/>
-      <c r="AU102" s="125"/>
-      <c r="AV102" s="125"/>
-      <c r="AW102" s="125"/>
-      <c r="AX102" s="125"/>
-      <c r="AY102" s="125"/>
-      <c r="AZ102" s="126"/>
+      <c r="AT102" s="131"/>
+      <c r="AU102" s="131"/>
+      <c r="AV102" s="131"/>
+      <c r="AW102" s="131"/>
+      <c r="AX102" s="131"/>
+      <c r="AY102" s="131"/>
+      <c r="AZ102" s="151"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12792,68 +12853,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="184" t="s">
+      <c r="E104" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="186"/>
-      <c r="G104" s="186"/>
-      <c r="H104" s="186"/>
-      <c r="I104" s="186"/>
-      <c r="J104" s="186"/>
-      <c r="K104" s="185"/>
-      <c r="L104" s="184" t="s">
+      <c r="F104" s="134"/>
+      <c r="G104" s="134"/>
+      <c r="H104" s="134"/>
+      <c r="I104" s="134"/>
+      <c r="J104" s="134"/>
+      <c r="K104" s="135"/>
+      <c r="L104" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="186"/>
-      <c r="N104" s="185"/>
-      <c r="O104" s="184" t="s">
+      <c r="M104" s="134"/>
+      <c r="N104" s="135"/>
+      <c r="O104" s="133" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="186"/>
-      <c r="Q104" s="186"/>
-      <c r="R104" s="185"/>
-      <c r="S104" s="184" t="s">
+      <c r="P104" s="134"/>
+      <c r="Q104" s="134"/>
+      <c r="R104" s="135"/>
+      <c r="S104" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="186"/>
-      <c r="U104" s="186"/>
-      <c r="V104" s="186"/>
-      <c r="W104" s="186"/>
-      <c r="X104" s="186"/>
-      <c r="Y104" s="186"/>
-      <c r="Z104" s="186"/>
-      <c r="AA104" s="186"/>
-      <c r="AB104" s="186"/>
-      <c r="AC104" s="186"/>
-      <c r="AD104" s="185"/>
-      <c r="AE104" s="184" t="s">
+      <c r="T104" s="134"/>
+      <c r="U104" s="134"/>
+      <c r="V104" s="134"/>
+      <c r="W104" s="134"/>
+      <c r="X104" s="134"/>
+      <c r="Y104" s="134"/>
+      <c r="Z104" s="134"/>
+      <c r="AA104" s="134"/>
+      <c r="AB104" s="134"/>
+      <c r="AC104" s="134"/>
+      <c r="AD104" s="135"/>
+      <c r="AE104" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="186"/>
-      <c r="AG104" s="186"/>
-      <c r="AH104" s="186"/>
-      <c r="AI104" s="186"/>
-      <c r="AJ104" s="186"/>
-      <c r="AK104" s="186"/>
-      <c r="AL104" s="186"/>
-      <c r="AM104" s="186"/>
-      <c r="AN104" s="186"/>
-      <c r="AO104" s="186"/>
-      <c r="AP104" s="185"/>
-      <c r="AQ104" s="184" t="s">
+      <c r="AF104" s="134"/>
+      <c r="AG104" s="134"/>
+      <c r="AH104" s="134"/>
+      <c r="AI104" s="134"/>
+      <c r="AJ104" s="134"/>
+      <c r="AK104" s="134"/>
+      <c r="AL104" s="134"/>
+      <c r="AM104" s="134"/>
+      <c r="AN104" s="134"/>
+      <c r="AO104" s="134"/>
+      <c r="AP104" s="135"/>
+      <c r="AQ104" s="133" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="185"/>
-      <c r="AS104" s="184" t="s">
+      <c r="AR104" s="135"/>
+      <c r="AS104" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="186"/>
-      <c r="AU104" s="186"/>
-      <c r="AV104" s="186"/>
-      <c r="AW104" s="186"/>
-      <c r="AX104" s="186"/>
-      <c r="AY104" s="186"/>
-      <c r="AZ104" s="185"/>
+      <c r="AT104" s="134"/>
+      <c r="AU104" s="134"/>
+      <c r="AV104" s="134"/>
+      <c r="AW104" s="134"/>
+      <c r="AX104" s="134"/>
+      <c r="AY104" s="134"/>
+      <c r="AZ104" s="135"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -12939,11 +13000,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="154" t="s">
+      <c r="L106" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="155"/>
-      <c r="N106" s="156"/>
+      <c r="M106" s="137"/>
+      <c r="N106" s="138"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -12982,16 +13043,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="120" t="s">
+      <c r="AS106" s="189" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="121"/>
-      <c r="AU106" s="121"/>
-      <c r="AV106" s="121"/>
-      <c r="AW106" s="121"/>
-      <c r="AX106" s="121"/>
-      <c r="AY106" s="121"/>
-      <c r="AZ106" s="122"/>
+      <c r="AT106" s="190"/>
+      <c r="AU106" s="190"/>
+      <c r="AV106" s="190"/>
+      <c r="AW106" s="190"/>
+      <c r="AX106" s="190"/>
+      <c r="AY106" s="190"/>
+      <c r="AZ106" s="191"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -13057,16 +13118,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="120" t="s">
+      <c r="AS107" s="189" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="121"/>
-      <c r="AU107" s="121"/>
-      <c r="AV107" s="121"/>
-      <c r="AW107" s="121"/>
-      <c r="AX107" s="121"/>
-      <c r="AY107" s="121"/>
-      <c r="AZ107" s="122"/>
+      <c r="AT107" s="190"/>
+      <c r="AU107" s="190"/>
+      <c r="AV107" s="190"/>
+      <c r="AW107" s="190"/>
+      <c r="AX107" s="190"/>
+      <c r="AY107" s="190"/>
+      <c r="AZ107" s="191"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -13134,16 +13195,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="120" t="s">
+      <c r="AS108" s="189" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="121"/>
-      <c r="AU108" s="121"/>
-      <c r="AV108" s="121"/>
-      <c r="AW108" s="121"/>
-      <c r="AX108" s="121"/>
-      <c r="AY108" s="121"/>
-      <c r="AZ108" s="122"/>
+      <c r="AT108" s="190"/>
+      <c r="AU108" s="190"/>
+      <c r="AV108" s="190"/>
+      <c r="AW108" s="190"/>
+      <c r="AX108" s="190"/>
+      <c r="AY108" s="190"/>
+      <c r="AZ108" s="191"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -13207,16 +13268,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="120" t="s">
+      <c r="AS109" s="189" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="121"/>
-      <c r="AU109" s="121"/>
-      <c r="AV109" s="121"/>
-      <c r="AW109" s="121"/>
-      <c r="AX109" s="121"/>
-      <c r="AY109" s="121"/>
-      <c r="AZ109" s="122"/>
+      <c r="AT109" s="190"/>
+      <c r="AU109" s="190"/>
+      <c r="AV109" s="190"/>
+      <c r="AW109" s="190"/>
+      <c r="AX109" s="190"/>
+      <c r="AY109" s="190"/>
+      <c r="AZ109" s="191"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -13372,12 +13433,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="145" t="s">
+      <c r="O112" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="146"/>
-      <c r="Q112" s="146"/>
-      <c r="R112" s="147"/>
+      <c r="P112" s="178"/>
+      <c r="Q112" s="178"/>
+      <c r="R112" s="179"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13402,20 +13463,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="140" t="s">
+      <c r="AQ112" s="172" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="141"/>
-      <c r="AS112" s="142" t="s">
+      <c r="AR112" s="173"/>
+      <c r="AS112" s="174" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="143"/>
-      <c r="AU112" s="143"/>
-      <c r="AV112" s="143"/>
-      <c r="AW112" s="143"/>
-      <c r="AX112" s="143"/>
-      <c r="AY112" s="143"/>
-      <c r="AZ112" s="144"/>
+      <c r="AT112" s="175"/>
+      <c r="AU112" s="175"/>
+      <c r="AV112" s="175"/>
+      <c r="AW112" s="175"/>
+      <c r="AX112" s="175"/>
+      <c r="AY112" s="175"/>
+      <c r="AZ112" s="176"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -14616,20 +14677,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="140" t="s">
+      <c r="AQ130" s="172" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="141"/>
-      <c r="AS130" s="142" t="s">
+      <c r="AR130" s="173"/>
+      <c r="AS130" s="174" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="143"/>
-      <c r="AU130" s="143"/>
-      <c r="AV130" s="143"/>
-      <c r="AW130" s="143"/>
-      <c r="AX130" s="143"/>
-      <c r="AY130" s="143"/>
-      <c r="AZ130" s="144"/>
+      <c r="AT130" s="175"/>
+      <c r="AU130" s="175"/>
+      <c r="AV130" s="175"/>
+      <c r="AW130" s="175"/>
+      <c r="AX130" s="175"/>
+      <c r="AY130" s="175"/>
+      <c r="AZ130" s="176"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14683,16 +14744,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="148" t="s">
+      <c r="AS131" s="180" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="149"/>
-      <c r="AU131" s="149"/>
-      <c r="AV131" s="149"/>
-      <c r="AW131" s="149"/>
-      <c r="AX131" s="149"/>
-      <c r="AY131" s="149"/>
-      <c r="AZ131" s="150"/>
+      <c r="AT131" s="181"/>
+      <c r="AU131" s="181"/>
+      <c r="AV131" s="181"/>
+      <c r="AW131" s="181"/>
+      <c r="AX131" s="181"/>
+      <c r="AY131" s="181"/>
+      <c r="AZ131" s="182"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14805,20 +14866,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="140" t="s">
+      <c r="AQ133" s="172" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="141"/>
-      <c r="AS133" s="142" t="s">
+      <c r="AR133" s="173"/>
+      <c r="AS133" s="174" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="143"/>
-      <c r="AU133" s="143"/>
-      <c r="AV133" s="143"/>
-      <c r="AW133" s="143"/>
-      <c r="AX133" s="143"/>
-      <c r="AY133" s="143"/>
-      <c r="AZ133" s="144"/>
+      <c r="AT133" s="175"/>
+      <c r="AU133" s="175"/>
+      <c r="AV133" s="175"/>
+      <c r="AW133" s="175"/>
+      <c r="AX133" s="175"/>
+      <c r="AY133" s="175"/>
+      <c r="AZ133" s="176"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -17441,6 +17502,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -17465,193 +17713,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE1393-3DBE-4346-8FA1-C96FC09D4315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D189130-2490-4081-996C-B779A4CFDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin mapping" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="427">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -2204,13 +2204,45 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2219,62 +2251,17 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2283,81 +2270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2402,6 +2314,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2411,28 +2332,107 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,13 +2462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2247255</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2506,13 +2506,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>2200409</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2550,13 +2550,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2616,13 +2616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2682,13 +2682,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2748,13 +2748,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2814,13 +2814,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249530</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>173313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589442</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>116163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2880,13 +2880,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>281280</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>166963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621192</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>109813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3510,10 +3510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,7 +5397,7 @@
       <c r="E35" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="194" t="s">
+      <c r="F35" s="120" t="s">
         <v>379</v>
       </c>
       <c r="G35" s="93" t="s">
@@ -5577,61 +5577,61 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="195" t="s">
+      <c r="A39" s="121" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="195" t="s">
+      <c r="C39" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="195" t="s">
+      <c r="D39" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="195" t="s">
+      <c r="E39" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="195" t="s">
+      <c r="F39" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="G39" s="195" t="s">
+      <c r="G39" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="H39" s="195" t="s">
+      <c r="H39" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="I39" s="195" t="s">
+      <c r="I39" s="121" t="s">
         <v>426</v>
       </c>
       <c r="K39" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M39" s="195" t="s">
+      <c r="M39" s="121" t="s">
         <v>418</v>
       </c>
-      <c r="N39" s="196" t="s">
+      <c r="N39" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="195" t="s">
+      <c r="O39" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="P39" s="195" t="s">
+      <c r="P39" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="195" t="s">
+      <c r="Q39" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="R39" s="195" t="s">
+      <c r="R39" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="S39" s="195" t="s">
+      <c r="S39" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="T39" s="195" t="s">
+      <c r="T39" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="U39" s="195" t="s">
+      <c r="U39" s="121" t="s">
         <v>426</v>
       </c>
       <c r="Y39" s="95" t="s">
@@ -5639,61 +5639,61 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="121" t="s">
         <v>418</v>
       </c>
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="195" t="s">
+      <c r="C40" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="195" t="s">
+      <c r="D40" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="195" t="s">
+      <c r="E40" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="195" t="s">
+      <c r="F40" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="195" t="s">
+      <c r="G40" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="H40" s="195" t="s">
+      <c r="H40" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="I40" s="195" t="s">
+      <c r="I40" s="121" t="s">
         <v>426</v>
       </c>
       <c r="K40" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M40" s="195" t="s">
+      <c r="M40" s="121" t="s">
         <v>418</v>
       </c>
-      <c r="N40" s="196" t="s">
+      <c r="N40" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="195" t="s">
+      <c r="O40" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="195" t="s">
+      <c r="P40" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="195" t="s">
+      <c r="Q40" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="R40" s="195" t="s">
+      <c r="R40" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="S40" s="195" t="s">
+      <c r="S40" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="T40" s="195" t="s">
+      <c r="T40" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="U40" s="195" t="s">
+      <c r="U40" s="121" t="s">
         <v>426</v>
       </c>
       <c r="Y40" s="95" t="s">
@@ -5704,7 +5704,7 @@
       <c r="A42" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B42" s="197"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="14" t="s">
         <v>46</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="A43" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B43" s="197"/>
+      <c r="B43" s="123"/>
       <c r="C43" s="14" t="s">
         <v>46</v>
       </c>
@@ -5753,6 +5753,127 @@
         <v>423</v>
       </c>
       <c r="K43" s="90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="123"/>
+      <c r="C44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="123"/>
+      <c r="C45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" s="123"/>
+      <c r="C46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="123"/>
+      <c r="C47" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="K47" s="90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="123"/>
+      <c r="C48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="K48" s="90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5910,21 +6031,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -6032,45 +6153,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="185" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="152" t="s">
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="152" t="s">
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="176" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="156" t="s">
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="152" t="s">
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="176" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="148" t="s">
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="185" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="149"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="150"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="187"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6105,45 +6226,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="192" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="139" t="s">
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="191" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139" t="s">
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="129" t="s">
+      <c r="Q6" s="191"/>
+      <c r="R6" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129" t="s">
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129" t="s">
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="192"/>
+      <c r="AE6" s="192"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6184,29 +6305,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="154" t="s">
+      <c r="K7" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154" t="s">
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154" t="s">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154" t="s">
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="154"/>
+      <c r="Y7" s="184"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6639,10 +6760,10 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="193"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6667,10 +6788,10 @@
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
-      <c r="AE14" s="127" t="s">
+      <c r="AE14" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="193"/>
+      <c r="AF14" s="132"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6713,67 +6834,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="125" t="s">
+      <c r="H15" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="123" t="s">
+      <c r="I15" s="134"/>
+      <c r="J15" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="124"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="122"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="195"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195"/>
+      <c r="Y15" s="195"/>
+      <c r="Z15" s="195"/>
+      <c r="AA15" s="195"/>
+      <c r="AB15" s="195"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="195"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="196"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="125" t="s">
+      <c r="AH15" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="126"/>
-      <c r="AJ15" s="123" t="s">
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="121"/>
-      <c r="AY15" s="121"/>
-      <c r="AZ15" s="121"/>
-      <c r="BA15" s="121"/>
-      <c r="BB15" s="121"/>
-      <c r="BC15" s="121"/>
-      <c r="BD15" s="121"/>
-      <c r="BE15" s="121"/>
-      <c r="BF15" s="121"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="194"/>
+      <c r="AM15" s="195"/>
+      <c r="AN15" s="195"/>
+      <c r="AO15" s="195"/>
+      <c r="AP15" s="195"/>
+      <c r="AQ15" s="195"/>
+      <c r="AR15" s="195"/>
+      <c r="AS15" s="195"/>
+      <c r="AT15" s="195"/>
+      <c r="AU15" s="195"/>
+      <c r="AV15" s="195"/>
+      <c r="AW15" s="195"/>
+      <c r="AX15" s="195"/>
+      <c r="AY15" s="195"/>
+      <c r="AZ15" s="195"/>
+      <c r="BA15" s="195"/>
+      <c r="BB15" s="195"/>
+      <c r="BC15" s="195"/>
+      <c r="BD15" s="195"/>
+      <c r="BE15" s="195"/>
+      <c r="BF15" s="195"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6794,33 +6915,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="125" t="s">
+      <c r="J16" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="123" t="s">
+      <c r="K16" s="134"/>
+      <c r="L16" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="124"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="122"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="195"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="196"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -6828,33 +6949,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="125" t="s">
+      <c r="AJ16" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="123" t="s">
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="121"/>
-      <c r="BB16" s="121"/>
-      <c r="BC16" s="121"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="194"/>
+      <c r="AO16" s="195"/>
+      <c r="AP16" s="195"/>
+      <c r="AQ16" s="195"/>
+      <c r="AR16" s="195"/>
+      <c r="AS16" s="195"/>
+      <c r="AT16" s="195"/>
+      <c r="AU16" s="195"/>
+      <c r="AV16" s="195"/>
+      <c r="AW16" s="195"/>
+      <c r="AX16" s="195"/>
+      <c r="AY16" s="195"/>
+      <c r="AZ16" s="195"/>
+      <c r="BA16" s="195"/>
+      <c r="BB16" s="195"/>
+      <c r="BC16" s="195"/>
+      <c r="BD16" s="195"/>
+      <c r="BE16" s="195"/>
+      <c r="BF16" s="195"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6877,31 +6998,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="125" t="s">
+      <c r="L17" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="126"/>
-      <c r="N17" s="123" t="s">
+      <c r="M17" s="134"/>
+      <c r="N17" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="124"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="122"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="195"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
+      <c r="V17" s="195"/>
+      <c r="W17" s="195"/>
+      <c r="X17" s="195"/>
+      <c r="Y17" s="195"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="195"/>
+      <c r="AB17" s="195"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="195"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="196"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -6911,31 +7032,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="125" t="s">
+      <c r="AL17" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="126"/>
-      <c r="AN17" s="123" t="s">
+      <c r="AM17" s="134"/>
+      <c r="AN17" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="124"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="121"/>
-      <c r="BA17" s="121"/>
-      <c r="BB17" s="121"/>
-      <c r="BC17" s="121"/>
-      <c r="BD17" s="121"/>
-      <c r="BE17" s="121"/>
-      <c r="BF17" s="121"/>
+      <c r="AO17" s="136"/>
+      <c r="AP17" s="194"/>
+      <c r="AQ17" s="195"/>
+      <c r="AR17" s="195"/>
+      <c r="AS17" s="195"/>
+      <c r="AT17" s="195"/>
+      <c r="AU17" s="195"/>
+      <c r="AV17" s="195"/>
+      <c r="AW17" s="195"/>
+      <c r="AX17" s="195"/>
+      <c r="AY17" s="195"/>
+      <c r="AZ17" s="195"/>
+      <c r="BA17" s="195"/>
+      <c r="BB17" s="195"/>
+      <c r="BC17" s="195"/>
+      <c r="BD17" s="195"/>
+      <c r="BE17" s="195"/>
+      <c r="BF17" s="195"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6960,27 +7081,27 @@
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="127" t="s">
+      <c r="N18" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="128"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="122"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="195"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="195"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
+      <c r="V18" s="195"/>
+      <c r="W18" s="195"/>
+      <c r="X18" s="195"/>
+      <c r="Y18" s="195"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="196"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -6992,27 +7113,27 @@
       <c r="AK18" s="111"/>
       <c r="AL18" s="111"/>
       <c r="AM18" s="110"/>
-      <c r="AN18" s="127" t="s">
+      <c r="AN18" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="128"/>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
-      <c r="AX18" s="121"/>
-      <c r="AY18" s="121"/>
-      <c r="AZ18" s="121"/>
-      <c r="BA18" s="121"/>
-      <c r="BB18" s="121"/>
-      <c r="BC18" s="121"/>
-      <c r="BD18" s="121"/>
-      <c r="BE18" s="121"/>
-      <c r="BF18" s="121"/>
+      <c r="AO18" s="140"/>
+      <c r="AP18" s="194"/>
+      <c r="AQ18" s="195"/>
+      <c r="AR18" s="195"/>
+      <c r="AS18" s="195"/>
+      <c r="AT18" s="195"/>
+      <c r="AU18" s="195"/>
+      <c r="AV18" s="195"/>
+      <c r="AW18" s="195"/>
+      <c r="AX18" s="195"/>
+      <c r="AY18" s="195"/>
+      <c r="AZ18" s="195"/>
+      <c r="BA18" s="195"/>
+      <c r="BB18" s="195"/>
+      <c r="BC18" s="195"/>
+      <c r="BD18" s="195"/>
+      <c r="BE18" s="195"/>
+      <c r="BF18" s="195"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -7238,23 +7359,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="125" t="s">
+      <c r="T22" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="126"/>
-      <c r="V22" s="123" t="s">
+      <c r="U22" s="134"/>
+      <c r="V22" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="124"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="122"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="195"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="195"/>
+      <c r="AB22" s="195"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="195"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="196"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -7272,23 +7393,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="125" t="s">
+      <c r="AT22" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="126"/>
-      <c r="AV22" s="123" t="s">
+      <c r="AU22" s="134"/>
+      <c r="AV22" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="120"/>
-      <c r="AY22" s="121"/>
-      <c r="AZ22" s="121"/>
-      <c r="BA22" s="121"/>
-      <c r="BB22" s="121"/>
-      <c r="BC22" s="121"/>
-      <c r="BD22" s="121"/>
-      <c r="BE22" s="121"/>
-      <c r="BF22" s="121"/>
+      <c r="AW22" s="136"/>
+      <c r="AX22" s="194"/>
+      <c r="AY22" s="195"/>
+      <c r="AZ22" s="195"/>
+      <c r="BA22" s="195"/>
+      <c r="BB22" s="195"/>
+      <c r="BC22" s="195"/>
+      <c r="BD22" s="195"/>
+      <c r="BE22" s="195"/>
+      <c r="BF22" s="195"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -7321,21 +7442,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="125" t="s">
+      <c r="V23" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="126"/>
-      <c r="X23" s="123" t="s">
+      <c r="W23" s="134"/>
+      <c r="X23" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="122"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="196"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -7355,21 +7476,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="125" t="s">
+      <c r="AV23" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="126"/>
-      <c r="AX23" s="123" t="s">
+      <c r="AW23" s="134"/>
+      <c r="AX23" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="124"/>
-      <c r="AZ23" s="120"/>
-      <c r="BA23" s="121"/>
-      <c r="BB23" s="121"/>
-      <c r="BC23" s="121"/>
-      <c r="BD23" s="121"/>
-      <c r="BE23" s="121"/>
-      <c r="BF23" s="121"/>
+      <c r="AY23" s="136"/>
+      <c r="AZ23" s="194"/>
+      <c r="BA23" s="195"/>
+      <c r="BB23" s="195"/>
+      <c r="BC23" s="195"/>
+      <c r="BD23" s="195"/>
+      <c r="BE23" s="195"/>
+      <c r="BF23" s="195"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -7404,19 +7525,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="125" t="s">
+      <c r="X24" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="123" t="s">
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="122"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="195"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="196"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -7438,19 +7559,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="125" t="s">
+      <c r="AX24" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="126"/>
-      <c r="AZ24" s="123" t="s">
+      <c r="AY24" s="134"/>
+      <c r="AZ24" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="124"/>
-      <c r="BB24" s="120"/>
-      <c r="BC24" s="121"/>
-      <c r="BD24" s="121"/>
-      <c r="BE24" s="121"/>
-      <c r="BF24" s="121"/>
+      <c r="BA24" s="136"/>
+      <c r="BB24" s="194"/>
+      <c r="BC24" s="195"/>
+      <c r="BD24" s="195"/>
+      <c r="BE24" s="195"/>
+      <c r="BF24" s="195"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -7487,17 +7608,17 @@
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="127" t="s">
+      <c r="Z25" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="123" t="s">
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="122"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="196"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -7521,17 +7642,17 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="110"/>
-      <c r="AZ25" s="127" t="s">
+      <c r="AZ25" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="128"/>
-      <c r="BB25" s="123" t="s">
+      <c r="BA25" s="140"/>
+      <c r="BB25" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="124"/>
-      <c r="BD25" s="120"/>
-      <c r="BE25" s="121"/>
-      <c r="BF25" s="121"/>
+      <c r="BC25" s="136"/>
+      <c r="BD25" s="194"/>
+      <c r="BE25" s="195"/>
+      <c r="BF25" s="195"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7789,29 +7910,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="170" t="s">
+      <c r="E30" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="171"/>
+      <c r="F30" s="138"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="170" t="s">
+      <c r="H30" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="171"/>
-      <c r="J30" s="170" t="s">
+      <c r="I30" s="138"/>
+      <c r="J30" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="171"/>
-      <c r="L30" s="170" t="s">
+      <c r="K30" s="138"/>
+      <c r="L30" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="171"/>
-      <c r="N30" s="170" t="s">
+      <c r="M30" s="138"/>
+      <c r="N30" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="171"/>
+      <c r="O30" s="138"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -7820,50 +7941,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="170" t="s">
+      <c r="T30" s="137" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="171"/>
-      <c r="V30" s="170" t="s">
+      <c r="U30" s="138"/>
+      <c r="V30" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="171"/>
-      <c r="X30" s="170" t="s">
+      <c r="W30" s="138"/>
+      <c r="X30" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="170" t="s">
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="144" t="s">
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="170" t="s">
+      <c r="AC30" s="142"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="171"/>
+      <c r="AF30" s="138"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="170" t="s">
+      <c r="AH30" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="171"/>
-      <c r="AJ30" s="170" t="s">
+      <c r="AI30" s="138"/>
+      <c r="AJ30" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="171"/>
-      <c r="AL30" s="170" t="s">
+      <c r="AK30" s="138"/>
+      <c r="AL30" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="171"/>
-      <c r="AN30" s="170" t="s">
+      <c r="AM30" s="138"/>
+      <c r="AN30" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="171"/>
+      <c r="AO30" s="138"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -7872,27 +7993,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="170" t="s">
+      <c r="AT30" s="137" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="171"/>
-      <c r="AV30" s="170" t="s">
+      <c r="AU30" s="138"/>
+      <c r="AV30" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="171"/>
-      <c r="AX30" s="170" t="s">
+      <c r="AW30" s="138"/>
+      <c r="AX30" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="171"/>
-      <c r="AZ30" s="170" t="s">
+      <c r="AY30" s="138"/>
+      <c r="AZ30" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="171"/>
-      <c r="BB30" s="144" t="s">
+      <c r="BA30" s="138"/>
+      <c r="BB30" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="145"/>
-      <c r="BD30" s="146"/>
+      <c r="BC30" s="142"/>
+      <c r="BD30" s="143"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -7904,10 +8025,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="147" t="s">
+      <c r="E31" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -7934,10 +8055,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="147" t="s">
+      <c r="AE31" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="147"/>
+      <c r="AF31" s="139"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8061,14 +8182,14 @@
       <c r="Q33" s="168"/>
       <c r="R33" s="168"/>
       <c r="S33" s="169"/>
-      <c r="T33" s="170" t="s">
+      <c r="T33" s="137" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="171"/>
-      <c r="V33" s="144" t="s">
+      <c r="U33" s="138"/>
+      <c r="V33" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="146"/>
+      <c r="W33" s="143"/>
       <c r="X33" s="167" t="s">
         <v>319</v>
       </c>
@@ -8099,14 +8220,14 @@
       <c r="AQ33" s="168"/>
       <c r="AR33" s="168"/>
       <c r="AS33" s="169"/>
-      <c r="AT33" s="170" t="s">
+      <c r="AT33" s="137" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="171"/>
-      <c r="AV33" s="144" t="s">
+      <c r="AU33" s="138"/>
+      <c r="AV33" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="146"/>
+      <c r="AW33" s="143"/>
       <c r="AX33" s="167" t="s">
         <v>319</v>
       </c>
@@ -8127,10 +8248,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="139" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="147"/>
+      <c r="F34" s="139"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -8146,10 +8267,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="147" t="s">
+      <c r="T34" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="147"/>
+      <c r="U34" s="139"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -8178,10 +8299,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="147" t="s">
+      <c r="AT34" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="147"/>
+      <c r="AU34" s="139"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -8452,33 +8573,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="162" t="s">
+      <c r="E39" s="170" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="163"/>
-      <c r="G39" s="165" t="s">
+      <c r="F39" s="171"/>
+      <c r="G39" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="166"/>
+      <c r="H39" s="173"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="127" t="s">
+      <c r="J39" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="128"/>
-      <c r="L39" s="127" t="s">
+      <c r="K39" s="140"/>
+      <c r="L39" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="128"/>
-      <c r="N39" s="127" t="s">
+      <c r="M39" s="140"/>
+      <c r="N39" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="128"/>
-      <c r="P39" s="127" t="s">
+      <c r="O39" s="140"/>
+      <c r="P39" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="128"/>
+      <c r="Q39" s="140"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -8487,50 +8608,50 @@
         <v>239</v>
       </c>
       <c r="U39" s="103"/>
-      <c r="V39" s="127" t="s">
+      <c r="V39" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="128"/>
-      <c r="X39" s="127" t="s">
+      <c r="W39" s="140"/>
+      <c r="X39" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="127" t="s">
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="127" t="s">
+      <c r="AA39" s="140"/>
+      <c r="AB39" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="123" t="s">
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="164"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="127" t="s">
+      <c r="AE39" s="175"/>
+      <c r="AF39" s="136"/>
+      <c r="AG39" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="128"/>
+      <c r="AH39" s="140"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="AJ39" s="127" t="s">
+      <c r="AJ39" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="128"/>
-      <c r="AL39" s="127" t="s">
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="127" t="s">
+      <c r="AM39" s="140"/>
+      <c r="AN39" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="127" t="s">
+      <c r="AO39" s="140"/>
+      <c r="AP39" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="128"/>
+      <c r="AQ39" s="140"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -8559,14 +8680,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="140" t="s">
+      <c r="E40" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140" t="s">
+      <c r="F40" s="174"/>
+      <c r="G40" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="140"/>
+      <c r="H40" s="174"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -8593,10 +8714,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="140" t="s">
+      <c r="AG40" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="140"/>
+      <c r="AH40" s="174"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -8632,27 +8753,27 @@
         <v>327</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="127" t="s">
+      <c r="E41" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="128"/>
+      <c r="F41" s="140"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="127" t="s">
+      <c r="H41" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="127" t="s">
+      <c r="I41" s="140"/>
+      <c r="J41" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="128"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="165" t="s">
+      <c r="K41" s="140"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="166"/>
+      <c r="O41" s="173"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -8661,50 +8782,50 @@
         <v>239</v>
       </c>
       <c r="S41" s="103"/>
-      <c r="T41" s="127" t="s">
+      <c r="T41" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="128"/>
-      <c r="V41" s="127" t="s">
+      <c r="U41" s="140"/>
+      <c r="V41" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="128"/>
-      <c r="X41" s="127" t="s">
+      <c r="W41" s="140"/>
+      <c r="X41" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="127" t="s">
+      <c r="Y41" s="140"/>
+      <c r="Z41" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="123" t="s">
+      <c r="AA41" s="140"/>
+      <c r="AB41" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="164"/>
-      <c r="AD41" s="124"/>
-      <c r="AE41" s="127" t="s">
+      <c r="AC41" s="175"/>
+      <c r="AD41" s="136"/>
+      <c r="AE41" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="128"/>
+      <c r="AF41" s="140"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="AH41" s="127" t="s">
+      <c r="AH41" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="127" t="s">
+      <c r="AI41" s="140"/>
+      <c r="AJ41" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="128"/>
-      <c r="AL41" s="127" t="s">
+      <c r="AK41" s="140"/>
+      <c r="AL41" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="127" t="s">
+      <c r="AM41" s="140"/>
+      <c r="AN41" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="128"/>
+      <c r="AO41" s="140"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -8713,27 +8834,27 @@
         <v>239</v>
       </c>
       <c r="AS41" s="103"/>
-      <c r="AT41" s="127" t="s">
+      <c r="AT41" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="128"/>
-      <c r="AV41" s="127" t="s">
+      <c r="AU41" s="140"/>
+      <c r="AV41" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="128"/>
-      <c r="AX41" s="127" t="s">
+      <c r="AW41" s="140"/>
+      <c r="AX41" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="128"/>
-      <c r="AZ41" s="127" t="s">
+      <c r="AY41" s="140"/>
+      <c r="AZ41" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="128"/>
-      <c r="BB41" s="123" t="s">
+      <c r="BA41" s="140"/>
+      <c r="BB41" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="164"/>
-      <c r="BD41" s="124"/>
+      <c r="BC41" s="175"/>
+      <c r="BD41" s="136"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8745,10 +8866,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="140" t="s">
+      <c r="E42" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="140"/>
+      <c r="F42" s="174"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8775,10 +8896,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="140" t="s">
+      <c r="AE42" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="140"/>
+      <c r="AF42" s="174"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8888,75 +9009,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="159" t="s">
+      <c r="H44" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
-      <c r="K44" s="160"/>
-      <c r="L44" s="160"/>
-      <c r="M44" s="160"/>
-      <c r="N44" s="160"/>
-      <c r="O44" s="160"/>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="160"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="162" t="s">
+      <c r="I44" s="182"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="183"/>
+      <c r="T44" s="170" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="163"/>
-      <c r="V44" s="123" t="s">
+      <c r="U44" s="171"/>
+      <c r="V44" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="124"/>
-      <c r="X44" s="159" t="s">
+      <c r="W44" s="136"/>
+      <c r="X44" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="160"/>
-      <c r="Z44" s="160"/>
-      <c r="AA44" s="160"/>
-      <c r="AB44" s="160"/>
-      <c r="AC44" s="160"/>
-      <c r="AD44" s="160"/>
-      <c r="AE44" s="161"/>
+      <c r="Y44" s="182"/>
+      <c r="Z44" s="182"/>
+      <c r="AA44" s="182"/>
+      <c r="AB44" s="182"/>
+      <c r="AC44" s="182"/>
+      <c r="AD44" s="182"/>
+      <c r="AE44" s="183"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="159" t="s">
+      <c r="AH44" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="160"/>
-      <c r="AJ44" s="160"/>
-      <c r="AK44" s="160"/>
-      <c r="AL44" s="160"/>
-      <c r="AM44" s="160"/>
-      <c r="AN44" s="160"/>
-      <c r="AO44" s="160"/>
-      <c r="AP44" s="160"/>
-      <c r="AQ44" s="160"/>
-      <c r="AR44" s="160"/>
-      <c r="AS44" s="161"/>
-      <c r="AT44" s="127" t="s">
+      <c r="AI44" s="182"/>
+      <c r="AJ44" s="182"/>
+      <c r="AK44" s="182"/>
+      <c r="AL44" s="182"/>
+      <c r="AM44" s="182"/>
+      <c r="AN44" s="182"/>
+      <c r="AO44" s="182"/>
+      <c r="AP44" s="182"/>
+      <c r="AQ44" s="182"/>
+      <c r="AR44" s="182"/>
+      <c r="AS44" s="183"/>
+      <c r="AT44" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="128"/>
-      <c r="AV44" s="123" t="s">
+      <c r="AU44" s="140"/>
+      <c r="AV44" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="159" t="s">
+      <c r="AW44" s="136"/>
+      <c r="AX44" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="160"/>
-      <c r="AZ44" s="160"/>
-      <c r="BA44" s="160"/>
-      <c r="BB44" s="160"/>
-      <c r="BC44" s="160"/>
-      <c r="BD44" s="161"/>
+      <c r="AY44" s="182"/>
+      <c r="AZ44" s="182"/>
+      <c r="BA44" s="182"/>
+      <c r="BB44" s="182"/>
+      <c r="BC44" s="182"/>
+      <c r="BD44" s="183"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -8968,10 +9089,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="140" t="s">
+      <c r="E45" s="174" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="140"/>
+      <c r="F45" s="174"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -8987,10 +9108,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="140" t="s">
+      <c r="T45" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="140"/>
+      <c r="U45" s="174"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -9019,10 +9140,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="140" t="s">
+      <c r="AT45" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="140"/>
+      <c r="AU45" s="174"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -9051,70 +9172,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="159" t="s">
+      <c r="G46" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="160"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="160"/>
-      <c r="O46" s="160"/>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="160"/>
-      <c r="S46" s="160"/>
-      <c r="T46" s="160"/>
-      <c r="U46" s="160"/>
-      <c r="V46" s="160"/>
-      <c r="W46" s="160"/>
-      <c r="X46" s="160"/>
-      <c r="Y46" s="160"/>
-      <c r="Z46" s="160"/>
-      <c r="AA46" s="160"/>
-      <c r="AB46" s="160"/>
-      <c r="AC46" s="160"/>
-      <c r="AD46" s="160"/>
-      <c r="AE46" s="161"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="182"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="182"/>
+      <c r="U46" s="182"/>
+      <c r="V46" s="182"/>
+      <c r="W46" s="182"/>
+      <c r="X46" s="182"/>
+      <c r="Y46" s="182"/>
+      <c r="Z46" s="182"/>
+      <c r="AA46" s="182"/>
+      <c r="AB46" s="182"/>
+      <c r="AC46" s="182"/>
+      <c r="AD46" s="182"/>
+      <c r="AE46" s="183"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="159" t="s">
+      <c r="AH46" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="160"/>
-      <c r="AJ46" s="160"/>
-      <c r="AK46" s="160"/>
-      <c r="AL46" s="160"/>
-      <c r="AM46" s="160"/>
-      <c r="AN46" s="160"/>
-      <c r="AO46" s="160"/>
-      <c r="AP46" s="160"/>
-      <c r="AQ46" s="160"/>
-      <c r="AR46" s="160"/>
-      <c r="AS46" s="161"/>
-      <c r="AT46" s="127" t="s">
+      <c r="AI46" s="182"/>
+      <c r="AJ46" s="182"/>
+      <c r="AK46" s="182"/>
+      <c r="AL46" s="182"/>
+      <c r="AM46" s="182"/>
+      <c r="AN46" s="182"/>
+      <c r="AO46" s="182"/>
+      <c r="AP46" s="182"/>
+      <c r="AQ46" s="182"/>
+      <c r="AR46" s="182"/>
+      <c r="AS46" s="183"/>
+      <c r="AT46" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="128"/>
-      <c r="AV46" s="123" t="s">
+      <c r="AU46" s="140"/>
+      <c r="AV46" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="124"/>
-      <c r="AX46" s="159" t="s">
+      <c r="AW46" s="136"/>
+      <c r="AX46" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="160"/>
-      <c r="AZ46" s="160"/>
-      <c r="BA46" s="160"/>
-      <c r="BB46" s="160"/>
-      <c r="BC46" s="160"/>
-      <c r="BD46" s="161"/>
+      <c r="AY46" s="182"/>
+      <c r="AZ46" s="182"/>
+      <c r="BA46" s="182"/>
+      <c r="BB46" s="182"/>
+      <c r="BC46" s="182"/>
+      <c r="BD46" s="183"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9171,10 +9292,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="140" t="s">
+      <c r="AT47" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="140"/>
+      <c r="AU47" s="174"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -9565,20 +9686,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="130" t="s">
+      <c r="E54" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="151"/>
-      <c r="L54" s="130" t="s">
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="131"/>
-      <c r="N54" s="132"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="197"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9699,20 +9820,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="133" t="s">
+      <c r="E56" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="133" t="s">
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
+      <c r="I56" s="190"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="189"/>
+      <c r="L56" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="134"/>
-      <c r="N56" s="135"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="189"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -12184,68 +12305,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="130" t="s">
+      <c r="E95" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="131"/>
-      <c r="G95" s="131"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="131"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="151"/>
-      <c r="L95" s="130" t="s">
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="130"/>
+      <c r="L95" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="131"/>
-      <c r="N95" s="151"/>
-      <c r="O95" s="141" t="s">
+      <c r="M95" s="129"/>
+      <c r="N95" s="130"/>
+      <c r="O95" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="142"/>
-      <c r="Q95" s="142"/>
-      <c r="R95" s="142"/>
-      <c r="S95" s="142"/>
-      <c r="T95" s="143"/>
-      <c r="U95" s="141" t="s">
+      <c r="P95" s="165"/>
+      <c r="Q95" s="165"/>
+      <c r="R95" s="165"/>
+      <c r="S95" s="165"/>
+      <c r="T95" s="166"/>
+      <c r="U95" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="142"/>
-      <c r="W95" s="142"/>
-      <c r="X95" s="142"/>
-      <c r="Y95" s="142"/>
-      <c r="Z95" s="142"/>
-      <c r="AA95" s="142"/>
-      <c r="AB95" s="143"/>
-      <c r="AC95" s="141" t="s">
+      <c r="V95" s="165"/>
+      <c r="W95" s="165"/>
+      <c r="X95" s="165"/>
+      <c r="Y95" s="165"/>
+      <c r="Z95" s="165"/>
+      <c r="AA95" s="165"/>
+      <c r="AB95" s="166"/>
+      <c r="AC95" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="142"/>
-      <c r="AE95" s="142"/>
-      <c r="AF95" s="142"/>
-      <c r="AG95" s="142"/>
-      <c r="AH95" s="142"/>
-      <c r="AI95" s="142"/>
-      <c r="AJ95" s="143"/>
-      <c r="AK95" s="141" t="s">
+      <c r="AD95" s="165"/>
+      <c r="AE95" s="165"/>
+      <c r="AF95" s="165"/>
+      <c r="AG95" s="165"/>
+      <c r="AH95" s="165"/>
+      <c r="AI95" s="165"/>
+      <c r="AJ95" s="166"/>
+      <c r="AK95" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="142"/>
-      <c r="AM95" s="142"/>
-      <c r="AN95" s="142"/>
-      <c r="AO95" s="142"/>
-      <c r="AP95" s="142"/>
-      <c r="AQ95" s="142"/>
-      <c r="AR95" s="143"/>
-      <c r="AS95" s="186" t="s">
+      <c r="AL95" s="165"/>
+      <c r="AM95" s="165"/>
+      <c r="AN95" s="165"/>
+      <c r="AO95" s="165"/>
+      <c r="AP95" s="165"/>
+      <c r="AQ95" s="165"/>
+      <c r="AR95" s="166"/>
+      <c r="AS95" s="161" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="187"/>
-      <c r="AU95" s="187"/>
-      <c r="AV95" s="187"/>
-      <c r="AW95" s="187"/>
-      <c r="AX95" s="187"/>
-      <c r="AY95" s="187"/>
-      <c r="AZ95" s="188"/>
+      <c r="AT95" s="162"/>
+      <c r="AU95" s="162"/>
+      <c r="AV95" s="162"/>
+      <c r="AW95" s="162"/>
+      <c r="AX95" s="162"/>
+      <c r="AY95" s="162"/>
+      <c r="AZ95" s="163"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12350,68 +12471,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="133" t="s">
+      <c r="E97" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="134"/>
-      <c r="J97" s="134"/>
-      <c r="K97" s="135"/>
-      <c r="L97" s="133" t="s">
+      <c r="F97" s="190"/>
+      <c r="G97" s="190"/>
+      <c r="H97" s="190"/>
+      <c r="I97" s="190"/>
+      <c r="J97" s="190"/>
+      <c r="K97" s="189"/>
+      <c r="L97" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="134"/>
-      <c r="N97" s="134"/>
-      <c r="O97" s="133" t="s">
+      <c r="M97" s="190"/>
+      <c r="N97" s="190"/>
+      <c r="O97" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="134"/>
-      <c r="Q97" s="134"/>
-      <c r="R97" s="134"/>
-      <c r="S97" s="134"/>
-      <c r="T97" s="135"/>
-      <c r="U97" s="133" t="s">
+      <c r="P97" s="190"/>
+      <c r="Q97" s="190"/>
+      <c r="R97" s="190"/>
+      <c r="S97" s="190"/>
+      <c r="T97" s="189"/>
+      <c r="U97" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="134"/>
-      <c r="W97" s="134"/>
-      <c r="X97" s="134"/>
-      <c r="Y97" s="134"/>
-      <c r="Z97" s="134"/>
-      <c r="AA97" s="134"/>
-      <c r="AB97" s="135"/>
-      <c r="AC97" s="133" t="s">
+      <c r="V97" s="190"/>
+      <c r="W97" s="190"/>
+      <c r="X97" s="190"/>
+      <c r="Y97" s="190"/>
+      <c r="Z97" s="190"/>
+      <c r="AA97" s="190"/>
+      <c r="AB97" s="189"/>
+      <c r="AC97" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="134"/>
-      <c r="AE97" s="134"/>
-      <c r="AF97" s="134"/>
-      <c r="AG97" s="134"/>
-      <c r="AH97" s="134"/>
-      <c r="AI97" s="134"/>
-      <c r="AJ97" s="135"/>
-      <c r="AK97" s="133" t="s">
+      <c r="AD97" s="190"/>
+      <c r="AE97" s="190"/>
+      <c r="AF97" s="190"/>
+      <c r="AG97" s="190"/>
+      <c r="AH97" s="190"/>
+      <c r="AI97" s="190"/>
+      <c r="AJ97" s="189"/>
+      <c r="AK97" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="134"/>
-      <c r="AM97" s="134"/>
-      <c r="AN97" s="134"/>
-      <c r="AO97" s="134"/>
-      <c r="AP97" s="134"/>
-      <c r="AQ97" s="134"/>
-      <c r="AR97" s="135"/>
-      <c r="AS97" s="134" t="s">
+      <c r="AL97" s="190"/>
+      <c r="AM97" s="190"/>
+      <c r="AN97" s="190"/>
+      <c r="AO97" s="190"/>
+      <c r="AP97" s="190"/>
+      <c r="AQ97" s="190"/>
+      <c r="AR97" s="189"/>
+      <c r="AS97" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="134"/>
-      <c r="AU97" s="134"/>
-      <c r="AV97" s="134"/>
-      <c r="AW97" s="134"/>
-      <c r="AX97" s="134"/>
-      <c r="AY97" s="134"/>
-      <c r="AZ97" s="135"/>
+      <c r="AT97" s="190"/>
+      <c r="AU97" s="190"/>
+      <c r="AV97" s="190"/>
+      <c r="AW97" s="190"/>
+      <c r="AX97" s="190"/>
+      <c r="AY97" s="190"/>
+      <c r="AZ97" s="189"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12486,68 +12607,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="183" t="s">
+      <c r="E99" s="155" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="184"/>
-      <c r="G99" s="184"/>
-      <c r="H99" s="184"/>
-      <c r="I99" s="184"/>
-      <c r="J99" s="184"/>
-      <c r="K99" s="185"/>
-      <c r="L99" s="136" t="s">
+      <c r="F99" s="156"/>
+      <c r="G99" s="156"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="157"/>
+      <c r="L99" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="137"/>
-      <c r="N99" s="138"/>
-      <c r="O99" s="180" t="s">
+      <c r="M99" s="159"/>
+      <c r="N99" s="160"/>
+      <c r="O99" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="181"/>
-      <c r="Q99" s="181"/>
-      <c r="R99" s="181"/>
-      <c r="S99" s="181"/>
-      <c r="T99" s="182"/>
-      <c r="U99" s="180" t="s">
+      <c r="P99" s="153"/>
+      <c r="Q99" s="153"/>
+      <c r="R99" s="153"/>
+      <c r="S99" s="153"/>
+      <c r="T99" s="154"/>
+      <c r="U99" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="181"/>
-      <c r="W99" s="181"/>
-      <c r="X99" s="181"/>
-      <c r="Y99" s="181"/>
-      <c r="Z99" s="181"/>
-      <c r="AA99" s="181"/>
-      <c r="AB99" s="182"/>
-      <c r="AC99" s="180" t="s">
+      <c r="V99" s="153"/>
+      <c r="W99" s="153"/>
+      <c r="X99" s="153"/>
+      <c r="Y99" s="153"/>
+      <c r="Z99" s="153"/>
+      <c r="AA99" s="153"/>
+      <c r="AB99" s="154"/>
+      <c r="AC99" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="181"/>
-      <c r="AE99" s="181"/>
-      <c r="AF99" s="181"/>
-      <c r="AG99" s="181"/>
-      <c r="AH99" s="181"/>
-      <c r="AI99" s="181"/>
-      <c r="AJ99" s="182"/>
-      <c r="AK99" s="180" t="s">
+      <c r="AD99" s="153"/>
+      <c r="AE99" s="153"/>
+      <c r="AF99" s="153"/>
+      <c r="AG99" s="153"/>
+      <c r="AH99" s="153"/>
+      <c r="AI99" s="153"/>
+      <c r="AJ99" s="154"/>
+      <c r="AK99" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="181"/>
-      <c r="AM99" s="181"/>
-      <c r="AN99" s="181"/>
-      <c r="AO99" s="181"/>
-      <c r="AP99" s="181"/>
-      <c r="AQ99" s="181"/>
-      <c r="AR99" s="182"/>
-      <c r="AS99" s="180" t="s">
+      <c r="AL99" s="153"/>
+      <c r="AM99" s="153"/>
+      <c r="AN99" s="153"/>
+      <c r="AO99" s="153"/>
+      <c r="AP99" s="153"/>
+      <c r="AQ99" s="153"/>
+      <c r="AR99" s="154"/>
+      <c r="AS99" s="152" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="181"/>
-      <c r="AU99" s="181"/>
-      <c r="AV99" s="181"/>
-      <c r="AW99" s="181"/>
-      <c r="AX99" s="181"/>
-      <c r="AY99" s="181"/>
-      <c r="AZ99" s="182"/>
+      <c r="AT99" s="153"/>
+      <c r="AU99" s="153"/>
+      <c r="AV99" s="153"/>
+      <c r="AW99" s="153"/>
+      <c r="AX99" s="153"/>
+      <c r="AY99" s="153"/>
+      <c r="AZ99" s="154"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12689,68 +12810,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="130" t="s">
+      <c r="E102" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="131"/>
-      <c r="G102" s="131"/>
-      <c r="H102" s="131"/>
-      <c r="I102" s="131"/>
-      <c r="J102" s="131"/>
-      <c r="K102" s="151"/>
-      <c r="L102" s="130" t="s">
+      <c r="F102" s="129"/>
+      <c r="G102" s="129"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="130"/>
+      <c r="L102" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="131"/>
-      <c r="N102" s="151"/>
-      <c r="O102" s="130" t="s">
+      <c r="M102" s="129"/>
+      <c r="N102" s="130"/>
+      <c r="O102" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="131"/>
-      <c r="Q102" s="131"/>
-      <c r="R102" s="151"/>
-      <c r="S102" s="130" t="s">
+      <c r="P102" s="129"/>
+      <c r="Q102" s="129"/>
+      <c r="R102" s="130"/>
+      <c r="S102" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="131"/>
-      <c r="U102" s="131"/>
-      <c r="V102" s="131"/>
-      <c r="W102" s="131"/>
-      <c r="X102" s="131"/>
-      <c r="Y102" s="131"/>
-      <c r="Z102" s="131"/>
-      <c r="AA102" s="131"/>
-      <c r="AB102" s="131"/>
-      <c r="AC102" s="131"/>
-      <c r="AD102" s="151"/>
-      <c r="AE102" s="130" t="s">
+      <c r="T102" s="129"/>
+      <c r="U102" s="129"/>
+      <c r="V102" s="129"/>
+      <c r="W102" s="129"/>
+      <c r="X102" s="129"/>
+      <c r="Y102" s="129"/>
+      <c r="Z102" s="129"/>
+      <c r="AA102" s="129"/>
+      <c r="AB102" s="129"/>
+      <c r="AC102" s="129"/>
+      <c r="AD102" s="130"/>
+      <c r="AE102" s="128" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="131"/>
-      <c r="AG102" s="131"/>
-      <c r="AH102" s="131"/>
-      <c r="AI102" s="131"/>
-      <c r="AJ102" s="131"/>
-      <c r="AK102" s="131"/>
-      <c r="AL102" s="131"/>
-      <c r="AM102" s="131"/>
-      <c r="AN102" s="131"/>
-      <c r="AO102" s="131"/>
-      <c r="AP102" s="151"/>
-      <c r="AQ102" s="130" t="s">
+      <c r="AF102" s="129"/>
+      <c r="AG102" s="129"/>
+      <c r="AH102" s="129"/>
+      <c r="AI102" s="129"/>
+      <c r="AJ102" s="129"/>
+      <c r="AK102" s="129"/>
+      <c r="AL102" s="129"/>
+      <c r="AM102" s="129"/>
+      <c r="AN102" s="129"/>
+      <c r="AO102" s="129"/>
+      <c r="AP102" s="130"/>
+      <c r="AQ102" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="151"/>
-      <c r="AS102" s="130" t="s">
+      <c r="AR102" s="130"/>
+      <c r="AS102" s="128" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="131"/>
-      <c r="AU102" s="131"/>
-      <c r="AV102" s="131"/>
-      <c r="AW102" s="131"/>
-      <c r="AX102" s="131"/>
-      <c r="AY102" s="131"/>
-      <c r="AZ102" s="151"/>
+      <c r="AT102" s="129"/>
+      <c r="AU102" s="129"/>
+      <c r="AV102" s="129"/>
+      <c r="AW102" s="129"/>
+      <c r="AX102" s="129"/>
+      <c r="AY102" s="129"/>
+      <c r="AZ102" s="130"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12853,68 +12974,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="133" t="s">
+      <c r="E104" s="188" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="134"/>
-      <c r="G104" s="134"/>
-      <c r="H104" s="134"/>
-      <c r="I104" s="134"/>
-      <c r="J104" s="134"/>
-      <c r="K104" s="135"/>
-      <c r="L104" s="133" t="s">
+      <c r="F104" s="190"/>
+      <c r="G104" s="190"/>
+      <c r="H104" s="190"/>
+      <c r="I104" s="190"/>
+      <c r="J104" s="190"/>
+      <c r="K104" s="189"/>
+      <c r="L104" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="134"/>
-      <c r="N104" s="135"/>
-      <c r="O104" s="133" t="s">
+      <c r="M104" s="190"/>
+      <c r="N104" s="189"/>
+      <c r="O104" s="188" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="134"/>
-      <c r="Q104" s="134"/>
-      <c r="R104" s="135"/>
-      <c r="S104" s="133" t="s">
+      <c r="P104" s="190"/>
+      <c r="Q104" s="190"/>
+      <c r="R104" s="189"/>
+      <c r="S104" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="134"/>
-      <c r="U104" s="134"/>
-      <c r="V104" s="134"/>
-      <c r="W104" s="134"/>
-      <c r="X104" s="134"/>
-      <c r="Y104" s="134"/>
-      <c r="Z104" s="134"/>
-      <c r="AA104" s="134"/>
-      <c r="AB104" s="134"/>
-      <c r="AC104" s="134"/>
-      <c r="AD104" s="135"/>
-      <c r="AE104" s="133" t="s">
+      <c r="T104" s="190"/>
+      <c r="U104" s="190"/>
+      <c r="V104" s="190"/>
+      <c r="W104" s="190"/>
+      <c r="X104" s="190"/>
+      <c r="Y104" s="190"/>
+      <c r="Z104" s="190"/>
+      <c r="AA104" s="190"/>
+      <c r="AB104" s="190"/>
+      <c r="AC104" s="190"/>
+      <c r="AD104" s="189"/>
+      <c r="AE104" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="134"/>
-      <c r="AG104" s="134"/>
-      <c r="AH104" s="134"/>
-      <c r="AI104" s="134"/>
-      <c r="AJ104" s="134"/>
-      <c r="AK104" s="134"/>
-      <c r="AL104" s="134"/>
-      <c r="AM104" s="134"/>
-      <c r="AN104" s="134"/>
-      <c r="AO104" s="134"/>
-      <c r="AP104" s="135"/>
-      <c r="AQ104" s="133" t="s">
+      <c r="AF104" s="190"/>
+      <c r="AG104" s="190"/>
+      <c r="AH104" s="190"/>
+      <c r="AI104" s="190"/>
+      <c r="AJ104" s="190"/>
+      <c r="AK104" s="190"/>
+      <c r="AL104" s="190"/>
+      <c r="AM104" s="190"/>
+      <c r="AN104" s="190"/>
+      <c r="AO104" s="190"/>
+      <c r="AP104" s="189"/>
+      <c r="AQ104" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="135"/>
-      <c r="AS104" s="133" t="s">
+      <c r="AR104" s="189"/>
+      <c r="AS104" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="134"/>
-      <c r="AU104" s="134"/>
-      <c r="AV104" s="134"/>
-      <c r="AW104" s="134"/>
-      <c r="AX104" s="134"/>
-      <c r="AY104" s="134"/>
-      <c r="AZ104" s="135"/>
+      <c r="AT104" s="190"/>
+      <c r="AU104" s="190"/>
+      <c r="AV104" s="190"/>
+      <c r="AW104" s="190"/>
+      <c r="AX104" s="190"/>
+      <c r="AY104" s="190"/>
+      <c r="AZ104" s="189"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -13000,11 +13121,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="136" t="s">
+      <c r="L106" s="158" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="137"/>
-      <c r="N106" s="138"/>
+      <c r="M106" s="159"/>
+      <c r="N106" s="160"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -13043,16 +13164,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="189" t="s">
+      <c r="AS106" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="190"/>
-      <c r="AU106" s="190"/>
-      <c r="AV106" s="190"/>
-      <c r="AW106" s="190"/>
-      <c r="AX106" s="190"/>
-      <c r="AY106" s="190"/>
-      <c r="AZ106" s="191"/>
+      <c r="AT106" s="125"/>
+      <c r="AU106" s="125"/>
+      <c r="AV106" s="125"/>
+      <c r="AW106" s="125"/>
+      <c r="AX106" s="125"/>
+      <c r="AY106" s="125"/>
+      <c r="AZ106" s="126"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -13118,16 +13239,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="189" t="s">
+      <c r="AS107" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="190"/>
-      <c r="AU107" s="190"/>
-      <c r="AV107" s="190"/>
-      <c r="AW107" s="190"/>
-      <c r="AX107" s="190"/>
-      <c r="AY107" s="190"/>
-      <c r="AZ107" s="191"/>
+      <c r="AT107" s="125"/>
+      <c r="AU107" s="125"/>
+      <c r="AV107" s="125"/>
+      <c r="AW107" s="125"/>
+      <c r="AX107" s="125"/>
+      <c r="AY107" s="125"/>
+      <c r="AZ107" s="126"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -13195,16 +13316,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="189" t="s">
+      <c r="AS108" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="190"/>
-      <c r="AU108" s="190"/>
-      <c r="AV108" s="190"/>
-      <c r="AW108" s="190"/>
-      <c r="AX108" s="190"/>
-      <c r="AY108" s="190"/>
-      <c r="AZ108" s="191"/>
+      <c r="AT108" s="125"/>
+      <c r="AU108" s="125"/>
+      <c r="AV108" s="125"/>
+      <c r="AW108" s="125"/>
+      <c r="AX108" s="125"/>
+      <c r="AY108" s="125"/>
+      <c r="AZ108" s="126"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -13268,16 +13389,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="189" t="s">
+      <c r="AS109" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="190"/>
-      <c r="AU109" s="190"/>
-      <c r="AV109" s="190"/>
-      <c r="AW109" s="190"/>
-      <c r="AX109" s="190"/>
-      <c r="AY109" s="190"/>
-      <c r="AZ109" s="191"/>
+      <c r="AT109" s="125"/>
+      <c r="AU109" s="125"/>
+      <c r="AV109" s="125"/>
+      <c r="AW109" s="125"/>
+      <c r="AX109" s="125"/>
+      <c r="AY109" s="125"/>
+      <c r="AZ109" s="126"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -13433,12 +13554,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="177" t="s">
+      <c r="O112" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="178"/>
-      <c r="Q112" s="178"/>
-      <c r="R112" s="179"/>
+      <c r="P112" s="150"/>
+      <c r="Q112" s="150"/>
+      <c r="R112" s="151"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13463,20 +13584,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="172" t="s">
+      <c r="AQ112" s="144" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="173"/>
-      <c r="AS112" s="174" t="s">
+      <c r="AR112" s="145"/>
+      <c r="AS112" s="146" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="175"/>
-      <c r="AU112" s="175"/>
-      <c r="AV112" s="175"/>
-      <c r="AW112" s="175"/>
-      <c r="AX112" s="175"/>
-      <c r="AY112" s="175"/>
-      <c r="AZ112" s="176"/>
+      <c r="AT112" s="147"/>
+      <c r="AU112" s="147"/>
+      <c r="AV112" s="147"/>
+      <c r="AW112" s="147"/>
+      <c r="AX112" s="147"/>
+      <c r="AY112" s="147"/>
+      <c r="AZ112" s="148"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -14677,20 +14798,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="172" t="s">
+      <c r="AQ130" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="173"/>
-      <c r="AS130" s="174" t="s">
+      <c r="AR130" s="145"/>
+      <c r="AS130" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="175"/>
-      <c r="AU130" s="175"/>
-      <c r="AV130" s="175"/>
-      <c r="AW130" s="175"/>
-      <c r="AX130" s="175"/>
-      <c r="AY130" s="175"/>
-      <c r="AZ130" s="176"/>
+      <c r="AT130" s="147"/>
+      <c r="AU130" s="147"/>
+      <c r="AV130" s="147"/>
+      <c r="AW130" s="147"/>
+      <c r="AX130" s="147"/>
+      <c r="AY130" s="147"/>
+      <c r="AZ130" s="148"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14744,16 +14865,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="180" t="s">
+      <c r="AS131" s="152" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="181"/>
-      <c r="AU131" s="181"/>
-      <c r="AV131" s="181"/>
-      <c r="AW131" s="181"/>
-      <c r="AX131" s="181"/>
-      <c r="AY131" s="181"/>
-      <c r="AZ131" s="182"/>
+      <c r="AT131" s="153"/>
+      <c r="AU131" s="153"/>
+      <c r="AV131" s="153"/>
+      <c r="AW131" s="153"/>
+      <c r="AX131" s="153"/>
+      <c r="AY131" s="153"/>
+      <c r="AZ131" s="154"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14866,20 +14987,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="172" t="s">
+      <c r="AQ133" s="144" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="173"/>
-      <c r="AS133" s="174" t="s">
+      <c r="AR133" s="145"/>
+      <c r="AS133" s="146" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="175"/>
-      <c r="AU133" s="175"/>
-      <c r="AV133" s="175"/>
-      <c r="AW133" s="175"/>
-      <c r="AX133" s="175"/>
-      <c r="AY133" s="175"/>
-      <c r="AZ133" s="176"/>
+      <c r="AT133" s="147"/>
+      <c r="AU133" s="147"/>
+      <c r="AV133" s="147"/>
+      <c r="AW133" s="147"/>
+      <c r="AX133" s="147"/>
+      <c r="AY133" s="147"/>
+      <c r="AZ133" s="148"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -17502,6 +17623,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="AS109:AZ109"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="S102:AD102"/>
@@ -17526,193 +17834,6 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D189130-2490-4081-996C-B779A4CFDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751CAEB-8A01-4864-9692-FF1280975DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="426">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1342,9 +1342,6 @@
   </si>
   <si>
     <t>P21/F8</t>
-  </si>
-  <si>
-    <t>VCOM RTS</t>
   </si>
   <si>
     <t>VCOM CTS</t>
@@ -1969,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2212,16 +2209,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,38 +2245,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2270,6 +2288,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2314,15 +2407,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,107 +2416,24 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2462,13 +2463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2506,13 +2507,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>2200409</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2550,13 +2551,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2616,13 +2617,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2682,13 +2683,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2748,13 +2749,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2814,13 +2815,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249530</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>173313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589442</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>116163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2880,13 +2881,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>281280</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>166963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621192</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>109813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3510,10 +3511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,7 +4270,7 @@
         <v>62</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K15" s="89" t="s">
         <v>388</v>
@@ -4299,7 +4300,7 @@
         <v>62</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y15" s="95" t="s">
         <v>389</v>
@@ -5237,33 +5238,33 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="A32" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="199" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118" t="s">
+      <c r="D32" s="198" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="198" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="118" t="s">
+      <c r="H32" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="118" t="s">
+      <c r="I32" s="198" t="s">
         <v>405</v>
       </c>
-      <c r="K32" s="89" t="s">
-        <v>388</v>
+      <c r="K32" s="90" t="s">
+        <v>387</v>
       </c>
       <c r="M32" s="118" t="s">
         <v>103</v>
@@ -5444,7 +5445,7 @@
         <v>391</v>
       </c>
       <c r="Y35" s="98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
@@ -5507,7 +5508,7 @@
       </c>
       <c r="V36" s="96"/>
       <c r="Y36" s="98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5570,7 +5571,7 @@
       </c>
       <c r="V37" s="96"/>
       <c r="Y37" s="98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5602,7 +5603,7 @@
         <v>391</v>
       </c>
       <c r="I39" s="121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K39" s="89" t="s">
         <v>388</v>
@@ -5632,7 +5633,7 @@
         <v>391</v>
       </c>
       <c r="U39" s="121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y39" s="95" t="s">
         <v>389</v>
@@ -5664,7 +5665,7 @@
         <v>391</v>
       </c>
       <c r="I40" s="121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K40" s="89" t="s">
         <v>388</v>
@@ -5694,7 +5695,7 @@
         <v>391</v>
       </c>
       <c r="U40" s="121" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y40" s="95" t="s">
         <v>389</v>
@@ -5709,10 +5710,10 @@
         <v>46</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14" t="s">
@@ -5737,24 +5738,19 @@
         <v>46</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>421</v>
+        <v>118</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="K43" s="90" t="s">
-        <v>387</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -5765,10 +5761,10 @@
         <v>46</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14" t="s">
@@ -5785,13 +5781,13 @@
       </c>
       <c r="B45" s="123"/>
       <c r="C45" s="14" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14" t="s">
@@ -5808,13 +5804,13 @@
       </c>
       <c r="B46" s="123"/>
       <c r="C46" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14" t="s">
@@ -5824,6 +5820,9 @@
         <v>46</v>
       </c>
       <c r="I46" s="14"/>
+      <c r="K46" s="90" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -5831,13 +5830,13 @@
       </c>
       <c r="B47" s="123"/>
       <c r="C47" s="14" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14" t="s">
@@ -5848,32 +5847,6 @@
       </c>
       <c r="I47" s="14"/>
       <c r="K47" s="90" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="14"/>
-      <c r="K48" s="90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6031,21 +6004,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="196"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -6153,45 +6126,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="176" t="s">
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="156" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="176" t="s">
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="156" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="178" t="s">
+      <c r="Q5" s="157"/>
+      <c r="R5" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="176" t="s">
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="156" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="185" t="s">
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="152" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="187"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6226,45 +6199,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="192" t="s">
+      <c r="E6" s="133" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="191" t="s">
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="143" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191" t="s">
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="192" t="s">
+      <c r="Q6" s="143"/>
+      <c r="R6" s="133" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
-      <c r="X6" s="192" t="s">
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="133" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="192"/>
-      <c r="Z6" s="192" t="s">
+      <c r="Y6" s="133"/>
+      <c r="Z6" s="133" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="192"/>
-      <c r="AB6" s="192"/>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="192"/>
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6305,29 +6278,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="184" t="s">
+      <c r="K7" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184" t="s">
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184" t="s">
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184" t="s">
+      <c r="S7" s="158"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="184"/>
+      <c r="Y7" s="158"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6763,7 +6736,7 @@
       <c r="E14" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="132"/>
+      <c r="F14" s="197"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6791,7 +6764,7 @@
       <c r="AE14" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="132"/>
+      <c r="AF14" s="197"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6834,67 +6807,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="129" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135" t="s">
+      <c r="I15" s="130"/>
+      <c r="J15" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="195"/>
-      <c r="O15" s="195"/>
-      <c r="P15" s="195"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
-      <c r="AA15" s="195"/>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="195"/>
-      <c r="AF15" s="196"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="126"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="133" t="s">
+      <c r="AH15" s="129" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="134"/>
-      <c r="AJ15" s="135" t="s">
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="194"/>
-      <c r="AM15" s="195"/>
-      <c r="AN15" s="195"/>
-      <c r="AO15" s="195"/>
-      <c r="AP15" s="195"/>
-      <c r="AQ15" s="195"/>
-      <c r="AR15" s="195"/>
-      <c r="AS15" s="195"/>
-      <c r="AT15" s="195"/>
-      <c r="AU15" s="195"/>
-      <c r="AV15" s="195"/>
-      <c r="AW15" s="195"/>
-      <c r="AX15" s="195"/>
-      <c r="AY15" s="195"/>
-      <c r="AZ15" s="195"/>
-      <c r="BA15" s="195"/>
-      <c r="BB15" s="195"/>
-      <c r="BC15" s="195"/>
-      <c r="BD15" s="195"/>
-      <c r="BE15" s="195"/>
-      <c r="BF15" s="195"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="125"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
+      <c r="AX15" s="125"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="125"/>
+      <c r="BA15" s="125"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
+      <c r="BE15" s="125"/>
+      <c r="BF15" s="125"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6915,33 +6888,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135" t="s">
+      <c r="K16" s="130"/>
+      <c r="L16" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="136"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="195"/>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="195"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="195"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="195"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="195"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="195"/>
-      <c r="AE16" s="195"/>
-      <c r="AF16" s="196"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="126"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -6949,33 +6922,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="133" t="s">
+      <c r="AJ16" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="134"/>
-      <c r="AL16" s="135" t="s">
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="136"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="195"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="195"/>
-      <c r="AR16" s="195"/>
-      <c r="AS16" s="195"/>
-      <c r="AT16" s="195"/>
-      <c r="AU16" s="195"/>
-      <c r="AV16" s="195"/>
-      <c r="AW16" s="195"/>
-      <c r="AX16" s="195"/>
-      <c r="AY16" s="195"/>
-      <c r="AZ16" s="195"/>
-      <c r="BA16" s="195"/>
-      <c r="BB16" s="195"/>
-      <c r="BC16" s="195"/>
-      <c r="BD16" s="195"/>
-      <c r="BE16" s="195"/>
-      <c r="BF16" s="195"/>
+      <c r="AM16" s="128"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125"/>
+      <c r="AQ16" s="125"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
+      <c r="AX16" s="125"/>
+      <c r="AY16" s="125"/>
+      <c r="AZ16" s="125"/>
+      <c r="BA16" s="125"/>
+      <c r="BB16" s="125"/>
+      <c r="BC16" s="125"/>
+      <c r="BD16" s="125"/>
+      <c r="BE16" s="125"/>
+      <c r="BF16" s="125"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6998,31 +6971,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="133" t="s">
+      <c r="L17" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135" t="s">
+      <c r="M17" s="130"/>
+      <c r="N17" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="136"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="195"/>
-      <c r="S17" s="195"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
-      <c r="W17" s="195"/>
-      <c r="X17" s="195"/>
-      <c r="Y17" s="195"/>
-      <c r="Z17" s="195"/>
-      <c r="AA17" s="195"/>
-      <c r="AB17" s="195"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="195"/>
-      <c r="AE17" s="195"/>
-      <c r="AF17" s="196"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="126"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -7032,31 +7005,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="133" t="s">
+      <c r="AL17" s="129" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="134"/>
-      <c r="AN17" s="135" t="s">
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="136"/>
-      <c r="AP17" s="194"/>
-      <c r="AQ17" s="195"/>
-      <c r="AR17" s="195"/>
-      <c r="AS17" s="195"/>
-      <c r="AT17" s="195"/>
-      <c r="AU17" s="195"/>
-      <c r="AV17" s="195"/>
-      <c r="AW17" s="195"/>
-      <c r="AX17" s="195"/>
-      <c r="AY17" s="195"/>
-      <c r="AZ17" s="195"/>
-      <c r="BA17" s="195"/>
-      <c r="BB17" s="195"/>
-      <c r="BC17" s="195"/>
-      <c r="BD17" s="195"/>
-      <c r="BE17" s="195"/>
-      <c r="BF17" s="195"/>
+      <c r="AO17" s="128"/>
+      <c r="AP17" s="124"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="125"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="125"/>
+      <c r="BA17" s="125"/>
+      <c r="BB17" s="125"/>
+      <c r="BC17" s="125"/>
+      <c r="BD17" s="125"/>
+      <c r="BE17" s="125"/>
+      <c r="BF17" s="125"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -7084,24 +7057,24 @@
       <c r="N18" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="195"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="195"/>
-      <c r="W18" s="195"/>
-      <c r="X18" s="195"/>
-      <c r="Y18" s="195"/>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="195"/>
-      <c r="AF18" s="196"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="126"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -7116,24 +7089,24 @@
       <c r="AN18" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="140"/>
-      <c r="AP18" s="194"/>
-      <c r="AQ18" s="195"/>
-      <c r="AR18" s="195"/>
-      <c r="AS18" s="195"/>
-      <c r="AT18" s="195"/>
-      <c r="AU18" s="195"/>
-      <c r="AV18" s="195"/>
-      <c r="AW18" s="195"/>
-      <c r="AX18" s="195"/>
-      <c r="AY18" s="195"/>
-      <c r="AZ18" s="195"/>
-      <c r="BA18" s="195"/>
-      <c r="BB18" s="195"/>
-      <c r="BC18" s="195"/>
-      <c r="BD18" s="195"/>
-      <c r="BE18" s="195"/>
-      <c r="BF18" s="195"/>
+      <c r="AO18" s="132"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="125"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="125"/>
+      <c r="AU18" s="125"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="125"/>
+      <c r="AX18" s="125"/>
+      <c r="AY18" s="125"/>
+      <c r="AZ18" s="125"/>
+      <c r="BA18" s="125"/>
+      <c r="BB18" s="125"/>
+      <c r="BC18" s="125"/>
+      <c r="BD18" s="125"/>
+      <c r="BE18" s="125"/>
+      <c r="BF18" s="125"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -7359,23 +7332,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="133" t="s">
+      <c r="T22" s="129" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="134"/>
-      <c r="V22" s="135" t="s">
+      <c r="U22" s="130"/>
+      <c r="V22" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="136"/>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="195"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="195"/>
-      <c r="AB22" s="195"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="195"/>
-      <c r="AE22" s="195"/>
-      <c r="AF22" s="196"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="126"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -7393,23 +7366,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="133" t="s">
+      <c r="AT22" s="129" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="134"/>
-      <c r="AV22" s="135" t="s">
+      <c r="AU22" s="130"/>
+      <c r="AV22" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="136"/>
-      <c r="AX22" s="194"/>
-      <c r="AY22" s="195"/>
-      <c r="AZ22" s="195"/>
-      <c r="BA22" s="195"/>
-      <c r="BB22" s="195"/>
-      <c r="BC22" s="195"/>
-      <c r="BD22" s="195"/>
-      <c r="BE22" s="195"/>
-      <c r="BF22" s="195"/>
+      <c r="AW22" s="128"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="125"/>
+      <c r="AZ22" s="125"/>
+      <c r="BA22" s="125"/>
+      <c r="BB22" s="125"/>
+      <c r="BC22" s="125"/>
+      <c r="BD22" s="125"/>
+      <c r="BE22" s="125"/>
+      <c r="BF22" s="125"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -7442,21 +7415,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="133" t="s">
+      <c r="V23" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="134"/>
-      <c r="X23" s="135" t="s">
+      <c r="W23" s="130"/>
+      <c r="X23" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="195"/>
-      <c r="AF23" s="196"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="126"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -7476,21 +7449,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="133" t="s">
+      <c r="AV23" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="134"/>
-      <c r="AX23" s="135" t="s">
+      <c r="AW23" s="130"/>
+      <c r="AX23" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="136"/>
-      <c r="AZ23" s="194"/>
-      <c r="BA23" s="195"/>
-      <c r="BB23" s="195"/>
-      <c r="BC23" s="195"/>
-      <c r="BD23" s="195"/>
-      <c r="BE23" s="195"/>
-      <c r="BF23" s="195"/>
+      <c r="AY23" s="128"/>
+      <c r="AZ23" s="124"/>
+      <c r="BA23" s="125"/>
+      <c r="BB23" s="125"/>
+      <c r="BC23" s="125"/>
+      <c r="BD23" s="125"/>
+      <c r="BE23" s="125"/>
+      <c r="BF23" s="125"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -7525,19 +7498,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="133" t="s">
+      <c r="X24" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="135" t="s">
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="194"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="195"/>
-      <c r="AE24" s="195"/>
-      <c r="AF24" s="196"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="126"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -7559,19 +7532,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="133" t="s">
+      <c r="AX24" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="134"/>
-      <c r="AZ24" s="135" t="s">
+      <c r="AY24" s="130"/>
+      <c r="AZ24" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="136"/>
-      <c r="BB24" s="194"/>
-      <c r="BC24" s="195"/>
-      <c r="BD24" s="195"/>
-      <c r="BE24" s="195"/>
-      <c r="BF24" s="195"/>
+      <c r="BA24" s="128"/>
+      <c r="BB24" s="124"/>
+      <c r="BC24" s="125"/>
+      <c r="BD24" s="125"/>
+      <c r="BE24" s="125"/>
+      <c r="BF24" s="125"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -7611,14 +7584,14 @@
       <c r="Z25" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="135" t="s">
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="194"/>
-      <c r="AE25" s="195"/>
-      <c r="AF25" s="196"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="126"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -7645,14 +7618,14 @@
       <c r="AZ25" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="140"/>
-      <c r="BB25" s="135" t="s">
+      <c r="BA25" s="132"/>
+      <c r="BB25" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="136"/>
-      <c r="BD25" s="194"/>
-      <c r="BE25" s="195"/>
-      <c r="BF25" s="195"/>
+      <c r="BC25" s="128"/>
+      <c r="BD25" s="124"/>
+      <c r="BE25" s="125"/>
+      <c r="BF25" s="125"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7910,29 +7883,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="138"/>
+      <c r="F30" s="175"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="137" t="s">
+      <c r="H30" s="174" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="138"/>
-      <c r="J30" s="137" t="s">
+      <c r="I30" s="175"/>
+      <c r="J30" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="138"/>
-      <c r="L30" s="137" t="s">
+      <c r="K30" s="175"/>
+      <c r="L30" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="138"/>
-      <c r="N30" s="137" t="s">
+      <c r="M30" s="175"/>
+      <c r="N30" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="138"/>
+      <c r="O30" s="175"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -7941,50 +7914,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="137" t="s">
+      <c r="T30" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="138"/>
-      <c r="V30" s="137" t="s">
+      <c r="U30" s="175"/>
+      <c r="V30" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="138"/>
-      <c r="X30" s="137" t="s">
+      <c r="W30" s="175"/>
+      <c r="X30" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="137" t="s">
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="141" t="s">
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="142"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="137" t="s">
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="138"/>
+      <c r="AF30" s="175"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="137" t="s">
+      <c r="AH30" s="174" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="137" t="s">
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="174" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="137" t="s">
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="138"/>
-      <c r="AN30" s="137" t="s">
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="138"/>
+      <c r="AO30" s="175"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -7993,27 +7966,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="137" t="s">
+      <c r="AT30" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="138"/>
-      <c r="AV30" s="137" t="s">
+      <c r="AU30" s="175"/>
+      <c r="AV30" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="138"/>
-      <c r="AX30" s="137" t="s">
+      <c r="AW30" s="175"/>
+      <c r="AX30" s="174" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="138"/>
-      <c r="AZ30" s="137" t="s">
+      <c r="AY30" s="175"/>
+      <c r="AZ30" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="138"/>
-      <c r="BB30" s="141" t="s">
+      <c r="BA30" s="175"/>
+      <c r="BB30" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="142"/>
-      <c r="BD30" s="143"/>
+      <c r="BC30" s="149"/>
+      <c r="BD30" s="150"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -8025,10 +7998,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="139" t="s">
+      <c r="E31" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="139"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8055,10 +8028,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="139" t="s">
+      <c r="AE31" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="139"/>
+      <c r="AF31" s="151"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8168,75 +8141,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="167" t="s">
+      <c r="H33" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="137" t="s">
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="174" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="138"/>
-      <c r="V33" s="141" t="s">
+      <c r="U33" s="175"/>
+      <c r="V33" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="143"/>
-      <c r="X33" s="167" t="s">
+      <c r="W33" s="150"/>
+      <c r="X33" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="172"/>
+      <c r="AA33" s="172"/>
+      <c r="AB33" s="172"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="173"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="167" t="s">
+      <c r="AH33" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="168"/>
-      <c r="AK33" s="168"/>
-      <c r="AL33" s="168"/>
-      <c r="AM33" s="168"/>
-      <c r="AN33" s="168"/>
-      <c r="AO33" s="168"/>
-      <c r="AP33" s="168"/>
-      <c r="AQ33" s="168"/>
-      <c r="AR33" s="168"/>
-      <c r="AS33" s="169"/>
-      <c r="AT33" s="137" t="s">
+      <c r="AI33" s="172"/>
+      <c r="AJ33" s="172"/>
+      <c r="AK33" s="172"/>
+      <c r="AL33" s="172"/>
+      <c r="AM33" s="172"/>
+      <c r="AN33" s="172"/>
+      <c r="AO33" s="172"/>
+      <c r="AP33" s="172"/>
+      <c r="AQ33" s="172"/>
+      <c r="AR33" s="172"/>
+      <c r="AS33" s="173"/>
+      <c r="AT33" s="174" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="138"/>
-      <c r="AV33" s="141" t="s">
+      <c r="AU33" s="175"/>
+      <c r="AV33" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="143"/>
-      <c r="AX33" s="167" t="s">
+      <c r="AW33" s="150"/>
+      <c r="AX33" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="168"/>
-      <c r="AZ33" s="168"/>
-      <c r="BA33" s="168"/>
-      <c r="BB33" s="168"/>
-      <c r="BC33" s="168"/>
-      <c r="BD33" s="169"/>
+      <c r="AY33" s="172"/>
+      <c r="AZ33" s="172"/>
+      <c r="BA33" s="172"/>
+      <c r="BB33" s="172"/>
+      <c r="BC33" s="172"/>
+      <c r="BD33" s="173"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8248,10 +8221,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="139" t="s">
+      <c r="E34" s="151" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="139"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -8267,10 +8240,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="139" t="s">
+      <c r="T34" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="139"/>
+      <c r="U34" s="151"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -8299,10 +8272,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="139" t="s">
+      <c r="AT34" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="139"/>
+      <c r="AU34" s="151"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -8573,33 +8546,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="170" t="s">
+      <c r="E39" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="171"/>
-      <c r="G39" s="172" t="s">
+      <c r="F39" s="167"/>
+      <c r="G39" s="169" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="173"/>
+      <c r="H39" s="170"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="140"/>
+      <c r="K39" s="132"/>
       <c r="L39" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="140"/>
+      <c r="M39" s="132"/>
       <c r="N39" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="140"/>
+      <c r="O39" s="132"/>
       <c r="P39" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="140"/>
+      <c r="Q39" s="132"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -8611,47 +8584,47 @@
       <c r="V39" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="140"/>
+      <c r="W39" s="132"/>
       <c r="X39" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="140"/>
+      <c r="Y39" s="132"/>
       <c r="Z39" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="140"/>
+      <c r="AA39" s="132"/>
       <c r="AB39" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="135" t="s">
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="175"/>
-      <c r="AF39" s="136"/>
+      <c r="AE39" s="168"/>
+      <c r="AF39" s="128"/>
       <c r="AG39" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="140"/>
+      <c r="AH39" s="132"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="140"/>
+      <c r="AK39" s="132"/>
       <c r="AL39" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="140"/>
+      <c r="AM39" s="132"/>
       <c r="AN39" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="140"/>
+      <c r="AO39" s="132"/>
       <c r="AP39" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="140"/>
+      <c r="AQ39" s="132"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -8680,14 +8653,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="174" t="s">
+      <c r="E40" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174" t="s">
+      <c r="F40" s="144"/>
+      <c r="G40" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="174"/>
+      <c r="H40" s="144"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -8714,10 +8687,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="174" t="s">
+      <c r="AG40" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="174"/>
+      <c r="AH40" s="144"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -8756,24 +8729,24 @@
       <c r="E41" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="140"/>
+      <c r="F41" s="132"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="140"/>
+      <c r="I41" s="132"/>
       <c r="J41" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="140"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="172" t="s">
+      <c r="K41" s="132"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="169" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="173"/>
+      <c r="O41" s="170"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -8785,47 +8758,47 @@
       <c r="T41" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="140"/>
+      <c r="U41" s="132"/>
       <c r="V41" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="140"/>
+      <c r="W41" s="132"/>
       <c r="X41" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="140"/>
+      <c r="Y41" s="132"/>
       <c r="Z41" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="140"/>
-      <c r="AB41" s="135" t="s">
+      <c r="AA41" s="132"/>
+      <c r="AB41" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="175"/>
-      <c r="AD41" s="136"/>
+      <c r="AC41" s="168"/>
+      <c r="AD41" s="128"/>
       <c r="AE41" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="140"/>
+      <c r="AF41" s="132"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="140"/>
+      <c r="AI41" s="132"/>
       <c r="AJ41" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="140"/>
+      <c r="AK41" s="132"/>
       <c r="AL41" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="140"/>
+      <c r="AM41" s="132"/>
       <c r="AN41" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="140"/>
+      <c r="AO41" s="132"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -8837,24 +8810,24 @@
       <c r="AT41" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="140"/>
+      <c r="AU41" s="132"/>
       <c r="AV41" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="140"/>
+      <c r="AW41" s="132"/>
       <c r="AX41" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="140"/>
+      <c r="AY41" s="132"/>
       <c r="AZ41" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="140"/>
-      <c r="BB41" s="135" t="s">
+      <c r="BA41" s="132"/>
+      <c r="BB41" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="175"/>
-      <c r="BD41" s="136"/>
+      <c r="BC41" s="168"/>
+      <c r="BD41" s="128"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8866,10 +8839,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="174" t="s">
+      <c r="E42" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="174"/>
+      <c r="F42" s="144"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8896,10 +8869,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="174" t="s">
+      <c r="AE42" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="174"/>
+      <c r="AF42" s="144"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -9009,75 +8982,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="181" t="s">
+      <c r="H44" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="182"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="182"/>
-      <c r="O44" s="182"/>
-      <c r="P44" s="182"/>
-      <c r="Q44" s="182"/>
-      <c r="R44" s="182"/>
-      <c r="S44" s="183"/>
-      <c r="T44" s="170" t="s">
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="165"/>
+      <c r="T44" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="171"/>
-      <c r="V44" s="135" t="s">
+      <c r="U44" s="167"/>
+      <c r="V44" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="136"/>
-      <c r="X44" s="181" t="s">
+      <c r="W44" s="128"/>
+      <c r="X44" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="182"/>
-      <c r="Z44" s="182"/>
-      <c r="AA44" s="182"/>
-      <c r="AB44" s="182"/>
-      <c r="AC44" s="182"/>
-      <c r="AD44" s="182"/>
-      <c r="AE44" s="183"/>
+      <c r="Y44" s="164"/>
+      <c r="Z44" s="164"/>
+      <c r="AA44" s="164"/>
+      <c r="AB44" s="164"/>
+      <c r="AC44" s="164"/>
+      <c r="AD44" s="164"/>
+      <c r="AE44" s="165"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="181" t="s">
+      <c r="AH44" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="182"/>
-      <c r="AJ44" s="182"/>
-      <c r="AK44" s="182"/>
-      <c r="AL44" s="182"/>
-      <c r="AM44" s="182"/>
-      <c r="AN44" s="182"/>
-      <c r="AO44" s="182"/>
-      <c r="AP44" s="182"/>
-      <c r="AQ44" s="182"/>
-      <c r="AR44" s="182"/>
-      <c r="AS44" s="183"/>
+      <c r="AI44" s="164"/>
+      <c r="AJ44" s="164"/>
+      <c r="AK44" s="164"/>
+      <c r="AL44" s="164"/>
+      <c r="AM44" s="164"/>
+      <c r="AN44" s="164"/>
+      <c r="AO44" s="164"/>
+      <c r="AP44" s="164"/>
+      <c r="AQ44" s="164"/>
+      <c r="AR44" s="164"/>
+      <c r="AS44" s="165"/>
       <c r="AT44" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="140"/>
-      <c r="AV44" s="135" t="s">
+      <c r="AU44" s="132"/>
+      <c r="AV44" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="136"/>
-      <c r="AX44" s="181" t="s">
+      <c r="AW44" s="128"/>
+      <c r="AX44" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="182"/>
-      <c r="AZ44" s="182"/>
-      <c r="BA44" s="182"/>
-      <c r="BB44" s="182"/>
-      <c r="BC44" s="182"/>
-      <c r="BD44" s="183"/>
+      <c r="AY44" s="164"/>
+      <c r="AZ44" s="164"/>
+      <c r="BA44" s="164"/>
+      <c r="BB44" s="164"/>
+      <c r="BC44" s="164"/>
+      <c r="BD44" s="165"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -9089,10 +9062,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="174" t="s">
+      <c r="E45" s="144" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="174"/>
+      <c r="F45" s="144"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -9108,10 +9081,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="174" t="s">
+      <c r="T45" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="174"/>
+      <c r="U45" s="144"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -9140,10 +9113,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="174" t="s">
+      <c r="AT45" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="174"/>
+      <c r="AU45" s="144"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -9172,70 +9145,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="181" t="s">
+      <c r="G46" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="182"/>
-      <c r="L46" s="182"/>
-      <c r="M46" s="182"/>
-      <c r="N46" s="182"/>
-      <c r="O46" s="182"/>
-      <c r="P46" s="182"/>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="182"/>
-      <c r="U46" s="182"/>
-      <c r="V46" s="182"/>
-      <c r="W46" s="182"/>
-      <c r="X46" s="182"/>
-      <c r="Y46" s="182"/>
-      <c r="Z46" s="182"/>
-      <c r="AA46" s="182"/>
-      <c r="AB46" s="182"/>
-      <c r="AC46" s="182"/>
-      <c r="AD46" s="182"/>
-      <c r="AE46" s="183"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="164"/>
+      <c r="M46" s="164"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="164"/>
+      <c r="Q46" s="164"/>
+      <c r="R46" s="164"/>
+      <c r="S46" s="164"/>
+      <c r="T46" s="164"/>
+      <c r="U46" s="164"/>
+      <c r="V46" s="164"/>
+      <c r="W46" s="164"/>
+      <c r="X46" s="164"/>
+      <c r="Y46" s="164"/>
+      <c r="Z46" s="164"/>
+      <c r="AA46" s="164"/>
+      <c r="AB46" s="164"/>
+      <c r="AC46" s="164"/>
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="165"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="181" t="s">
+      <c r="AH46" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="182"/>
-      <c r="AJ46" s="182"/>
-      <c r="AK46" s="182"/>
-      <c r="AL46" s="182"/>
-      <c r="AM46" s="182"/>
-      <c r="AN46" s="182"/>
-      <c r="AO46" s="182"/>
-      <c r="AP46" s="182"/>
-      <c r="AQ46" s="182"/>
-      <c r="AR46" s="182"/>
-      <c r="AS46" s="183"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="164"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="164"/>
+      <c r="AN46" s="164"/>
+      <c r="AO46" s="164"/>
+      <c r="AP46" s="164"/>
+      <c r="AQ46" s="164"/>
+      <c r="AR46" s="164"/>
+      <c r="AS46" s="165"/>
       <c r="AT46" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="140"/>
-      <c r="AV46" s="135" t="s">
+      <c r="AU46" s="132"/>
+      <c r="AV46" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="136"/>
-      <c r="AX46" s="181" t="s">
+      <c r="AW46" s="128"/>
+      <c r="AX46" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="182"/>
-      <c r="AZ46" s="182"/>
-      <c r="BA46" s="182"/>
-      <c r="BB46" s="182"/>
-      <c r="BC46" s="182"/>
-      <c r="BD46" s="183"/>
+      <c r="AY46" s="164"/>
+      <c r="AZ46" s="164"/>
+      <c r="BA46" s="164"/>
+      <c r="BB46" s="164"/>
+      <c r="BC46" s="164"/>
+      <c r="BD46" s="165"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9292,10 +9265,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="174" t="s">
+      <c r="AT47" s="144" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="174"/>
+      <c r="AU47" s="144"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -9686,20 +9659,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="128" t="s">
+      <c r="E54" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="128" t="s">
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="129"/>
-      <c r="N54" s="197"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="136"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9820,20 +9793,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="188" t="s">
+      <c r="E56" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="190"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="188" t="s">
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="190"/>
-      <c r="N56" s="189"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="139"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -12305,68 +12278,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="128" t="s">
+      <c r="E95" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="129"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="129"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="130"/>
-      <c r="L95" s="128" t="s">
+      <c r="F95" s="135"/>
+      <c r="G95" s="135"/>
+      <c r="H95" s="135"/>
+      <c r="I95" s="135"/>
+      <c r="J95" s="135"/>
+      <c r="K95" s="155"/>
+      <c r="L95" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="129"/>
-      <c r="N95" s="130"/>
-      <c r="O95" s="164" t="s">
+      <c r="M95" s="135"/>
+      <c r="N95" s="155"/>
+      <c r="O95" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="165"/>
-      <c r="Q95" s="165"/>
-      <c r="R95" s="165"/>
-      <c r="S95" s="165"/>
-      <c r="T95" s="166"/>
-      <c r="U95" s="164" t="s">
+      <c r="P95" s="146"/>
+      <c r="Q95" s="146"/>
+      <c r="R95" s="146"/>
+      <c r="S95" s="146"/>
+      <c r="T95" s="147"/>
+      <c r="U95" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="165"/>
-      <c r="W95" s="165"/>
-      <c r="X95" s="165"/>
-      <c r="Y95" s="165"/>
-      <c r="Z95" s="165"/>
-      <c r="AA95" s="165"/>
-      <c r="AB95" s="166"/>
-      <c r="AC95" s="164" t="s">
+      <c r="V95" s="146"/>
+      <c r="W95" s="146"/>
+      <c r="X95" s="146"/>
+      <c r="Y95" s="146"/>
+      <c r="Z95" s="146"/>
+      <c r="AA95" s="146"/>
+      <c r="AB95" s="147"/>
+      <c r="AC95" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="165"/>
-      <c r="AE95" s="165"/>
-      <c r="AF95" s="165"/>
-      <c r="AG95" s="165"/>
-      <c r="AH95" s="165"/>
-      <c r="AI95" s="165"/>
-      <c r="AJ95" s="166"/>
-      <c r="AK95" s="164" t="s">
+      <c r="AD95" s="146"/>
+      <c r="AE95" s="146"/>
+      <c r="AF95" s="146"/>
+      <c r="AG95" s="146"/>
+      <c r="AH95" s="146"/>
+      <c r="AI95" s="146"/>
+      <c r="AJ95" s="147"/>
+      <c r="AK95" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="165"/>
-      <c r="AM95" s="165"/>
-      <c r="AN95" s="165"/>
-      <c r="AO95" s="165"/>
-      <c r="AP95" s="165"/>
-      <c r="AQ95" s="165"/>
-      <c r="AR95" s="166"/>
-      <c r="AS95" s="161" t="s">
+      <c r="AL95" s="146"/>
+      <c r="AM95" s="146"/>
+      <c r="AN95" s="146"/>
+      <c r="AO95" s="146"/>
+      <c r="AP95" s="146"/>
+      <c r="AQ95" s="146"/>
+      <c r="AR95" s="147"/>
+      <c r="AS95" s="190" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="162"/>
-      <c r="AU95" s="162"/>
-      <c r="AV95" s="162"/>
-      <c r="AW95" s="162"/>
-      <c r="AX95" s="162"/>
-      <c r="AY95" s="162"/>
-      <c r="AZ95" s="163"/>
+      <c r="AT95" s="191"/>
+      <c r="AU95" s="191"/>
+      <c r="AV95" s="191"/>
+      <c r="AW95" s="191"/>
+      <c r="AX95" s="191"/>
+      <c r="AY95" s="191"/>
+      <c r="AZ95" s="192"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12471,68 +12444,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="188" t="s">
+      <c r="E97" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="190"/>
-      <c r="G97" s="190"/>
-      <c r="H97" s="190"/>
-      <c r="I97" s="190"/>
-      <c r="J97" s="190"/>
-      <c r="K97" s="189"/>
-      <c r="L97" s="188" t="s">
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="138"/>
+      <c r="I97" s="138"/>
+      <c r="J97" s="138"/>
+      <c r="K97" s="139"/>
+      <c r="L97" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="190"/>
-      <c r="N97" s="190"/>
-      <c r="O97" s="188" t="s">
+      <c r="M97" s="138"/>
+      <c r="N97" s="138"/>
+      <c r="O97" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="190"/>
-      <c r="Q97" s="190"/>
-      <c r="R97" s="190"/>
-      <c r="S97" s="190"/>
-      <c r="T97" s="189"/>
-      <c r="U97" s="188" t="s">
+      <c r="P97" s="138"/>
+      <c r="Q97" s="138"/>
+      <c r="R97" s="138"/>
+      <c r="S97" s="138"/>
+      <c r="T97" s="139"/>
+      <c r="U97" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="190"/>
-      <c r="W97" s="190"/>
-      <c r="X97" s="190"/>
-      <c r="Y97" s="190"/>
-      <c r="Z97" s="190"/>
-      <c r="AA97" s="190"/>
-      <c r="AB97" s="189"/>
-      <c r="AC97" s="188" t="s">
+      <c r="V97" s="138"/>
+      <c r="W97" s="138"/>
+      <c r="X97" s="138"/>
+      <c r="Y97" s="138"/>
+      <c r="Z97" s="138"/>
+      <c r="AA97" s="138"/>
+      <c r="AB97" s="139"/>
+      <c r="AC97" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="190"/>
-      <c r="AE97" s="190"/>
-      <c r="AF97" s="190"/>
-      <c r="AG97" s="190"/>
-      <c r="AH97" s="190"/>
-      <c r="AI97" s="190"/>
-      <c r="AJ97" s="189"/>
-      <c r="AK97" s="188" t="s">
+      <c r="AD97" s="138"/>
+      <c r="AE97" s="138"/>
+      <c r="AF97" s="138"/>
+      <c r="AG97" s="138"/>
+      <c r="AH97" s="138"/>
+      <c r="AI97" s="138"/>
+      <c r="AJ97" s="139"/>
+      <c r="AK97" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="190"/>
-      <c r="AM97" s="190"/>
-      <c r="AN97" s="190"/>
-      <c r="AO97" s="190"/>
-      <c r="AP97" s="190"/>
-      <c r="AQ97" s="190"/>
-      <c r="AR97" s="189"/>
-      <c r="AS97" s="190" t="s">
+      <c r="AL97" s="138"/>
+      <c r="AM97" s="138"/>
+      <c r="AN97" s="138"/>
+      <c r="AO97" s="138"/>
+      <c r="AP97" s="138"/>
+      <c r="AQ97" s="138"/>
+      <c r="AR97" s="139"/>
+      <c r="AS97" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="190"/>
-      <c r="AU97" s="190"/>
-      <c r="AV97" s="190"/>
-      <c r="AW97" s="190"/>
-      <c r="AX97" s="190"/>
-      <c r="AY97" s="190"/>
-      <c r="AZ97" s="189"/>
+      <c r="AT97" s="138"/>
+      <c r="AU97" s="138"/>
+      <c r="AV97" s="138"/>
+      <c r="AW97" s="138"/>
+      <c r="AX97" s="138"/>
+      <c r="AY97" s="138"/>
+      <c r="AZ97" s="139"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12607,68 +12580,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="155" t="s">
+      <c r="E99" s="187" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="156"/>
-      <c r="I99" s="156"/>
-      <c r="J99" s="156"/>
-      <c r="K99" s="157"/>
-      <c r="L99" s="158" t="s">
+      <c r="F99" s="188"/>
+      <c r="G99" s="188"/>
+      <c r="H99" s="188"/>
+      <c r="I99" s="188"/>
+      <c r="J99" s="188"/>
+      <c r="K99" s="189"/>
+      <c r="L99" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="159"/>
-      <c r="N99" s="160"/>
-      <c r="O99" s="152" t="s">
+      <c r="M99" s="141"/>
+      <c r="N99" s="142"/>
+      <c r="O99" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="153"/>
-      <c r="Q99" s="153"/>
-      <c r="R99" s="153"/>
-      <c r="S99" s="153"/>
-      <c r="T99" s="154"/>
-      <c r="U99" s="152" t="s">
+      <c r="P99" s="185"/>
+      <c r="Q99" s="185"/>
+      <c r="R99" s="185"/>
+      <c r="S99" s="185"/>
+      <c r="T99" s="186"/>
+      <c r="U99" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="153"/>
-      <c r="W99" s="153"/>
-      <c r="X99" s="153"/>
-      <c r="Y99" s="153"/>
-      <c r="Z99" s="153"/>
-      <c r="AA99" s="153"/>
-      <c r="AB99" s="154"/>
-      <c r="AC99" s="152" t="s">
+      <c r="V99" s="185"/>
+      <c r="W99" s="185"/>
+      <c r="X99" s="185"/>
+      <c r="Y99" s="185"/>
+      <c r="Z99" s="185"/>
+      <c r="AA99" s="185"/>
+      <c r="AB99" s="186"/>
+      <c r="AC99" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="153"/>
-      <c r="AE99" s="153"/>
-      <c r="AF99" s="153"/>
-      <c r="AG99" s="153"/>
-      <c r="AH99" s="153"/>
-      <c r="AI99" s="153"/>
-      <c r="AJ99" s="154"/>
-      <c r="AK99" s="152" t="s">
+      <c r="AD99" s="185"/>
+      <c r="AE99" s="185"/>
+      <c r="AF99" s="185"/>
+      <c r="AG99" s="185"/>
+      <c r="AH99" s="185"/>
+      <c r="AI99" s="185"/>
+      <c r="AJ99" s="186"/>
+      <c r="AK99" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="153"/>
-      <c r="AM99" s="153"/>
-      <c r="AN99" s="153"/>
-      <c r="AO99" s="153"/>
-      <c r="AP99" s="153"/>
-      <c r="AQ99" s="153"/>
-      <c r="AR99" s="154"/>
-      <c r="AS99" s="152" t="s">
+      <c r="AL99" s="185"/>
+      <c r="AM99" s="185"/>
+      <c r="AN99" s="185"/>
+      <c r="AO99" s="185"/>
+      <c r="AP99" s="185"/>
+      <c r="AQ99" s="185"/>
+      <c r="AR99" s="186"/>
+      <c r="AS99" s="184" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="153"/>
-      <c r="AU99" s="153"/>
-      <c r="AV99" s="153"/>
-      <c r="AW99" s="153"/>
-      <c r="AX99" s="153"/>
-      <c r="AY99" s="153"/>
-      <c r="AZ99" s="154"/>
+      <c r="AT99" s="185"/>
+      <c r="AU99" s="185"/>
+      <c r="AV99" s="185"/>
+      <c r="AW99" s="185"/>
+      <c r="AX99" s="185"/>
+      <c r="AY99" s="185"/>
+      <c r="AZ99" s="186"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12810,68 +12783,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="128" t="s">
+      <c r="E102" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="129"/>
-      <c r="G102" s="129"/>
-      <c r="H102" s="129"/>
-      <c r="I102" s="129"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="130"/>
-      <c r="L102" s="128" t="s">
+      <c r="F102" s="135"/>
+      <c r="G102" s="135"/>
+      <c r="H102" s="135"/>
+      <c r="I102" s="135"/>
+      <c r="J102" s="135"/>
+      <c r="K102" s="155"/>
+      <c r="L102" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="129"/>
-      <c r="N102" s="130"/>
-      <c r="O102" s="128" t="s">
+      <c r="M102" s="135"/>
+      <c r="N102" s="155"/>
+      <c r="O102" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="129"/>
-      <c r="Q102" s="129"/>
-      <c r="R102" s="130"/>
-      <c r="S102" s="128" t="s">
+      <c r="P102" s="135"/>
+      <c r="Q102" s="135"/>
+      <c r="R102" s="155"/>
+      <c r="S102" s="134" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="129"/>
-      <c r="U102" s="129"/>
-      <c r="V102" s="129"/>
-      <c r="W102" s="129"/>
-      <c r="X102" s="129"/>
-      <c r="Y102" s="129"/>
-      <c r="Z102" s="129"/>
-      <c r="AA102" s="129"/>
-      <c r="AB102" s="129"/>
-      <c r="AC102" s="129"/>
-      <c r="AD102" s="130"/>
-      <c r="AE102" s="128" t="s">
+      <c r="T102" s="135"/>
+      <c r="U102" s="135"/>
+      <c r="V102" s="135"/>
+      <c r="W102" s="135"/>
+      <c r="X102" s="135"/>
+      <c r="Y102" s="135"/>
+      <c r="Z102" s="135"/>
+      <c r="AA102" s="135"/>
+      <c r="AB102" s="135"/>
+      <c r="AC102" s="135"/>
+      <c r="AD102" s="155"/>
+      <c r="AE102" s="134" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="129"/>
-      <c r="AG102" s="129"/>
-      <c r="AH102" s="129"/>
-      <c r="AI102" s="129"/>
-      <c r="AJ102" s="129"/>
-      <c r="AK102" s="129"/>
-      <c r="AL102" s="129"/>
-      <c r="AM102" s="129"/>
-      <c r="AN102" s="129"/>
-      <c r="AO102" s="129"/>
-      <c r="AP102" s="130"/>
-      <c r="AQ102" s="128" t="s">
+      <c r="AF102" s="135"/>
+      <c r="AG102" s="135"/>
+      <c r="AH102" s="135"/>
+      <c r="AI102" s="135"/>
+      <c r="AJ102" s="135"/>
+      <c r="AK102" s="135"/>
+      <c r="AL102" s="135"/>
+      <c r="AM102" s="135"/>
+      <c r="AN102" s="135"/>
+      <c r="AO102" s="135"/>
+      <c r="AP102" s="155"/>
+      <c r="AQ102" s="134" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="130"/>
-      <c r="AS102" s="128" t="s">
+      <c r="AR102" s="155"/>
+      <c r="AS102" s="134" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="129"/>
-      <c r="AU102" s="129"/>
-      <c r="AV102" s="129"/>
-      <c r="AW102" s="129"/>
-      <c r="AX102" s="129"/>
-      <c r="AY102" s="129"/>
-      <c r="AZ102" s="130"/>
+      <c r="AT102" s="135"/>
+      <c r="AU102" s="135"/>
+      <c r="AV102" s="135"/>
+      <c r="AW102" s="135"/>
+      <c r="AX102" s="135"/>
+      <c r="AY102" s="135"/>
+      <c r="AZ102" s="155"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12974,68 +12947,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="188" t="s">
+      <c r="E104" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="190"/>
-      <c r="G104" s="190"/>
-      <c r="H104" s="190"/>
-      <c r="I104" s="190"/>
-      <c r="J104" s="190"/>
-      <c r="K104" s="189"/>
-      <c r="L104" s="188" t="s">
+      <c r="F104" s="138"/>
+      <c r="G104" s="138"/>
+      <c r="H104" s="138"/>
+      <c r="I104" s="138"/>
+      <c r="J104" s="138"/>
+      <c r="K104" s="139"/>
+      <c r="L104" s="137" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="190"/>
-      <c r="N104" s="189"/>
-      <c r="O104" s="188" t="s">
+      <c r="M104" s="138"/>
+      <c r="N104" s="139"/>
+      <c r="O104" s="137" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="190"/>
-      <c r="Q104" s="190"/>
-      <c r="R104" s="189"/>
-      <c r="S104" s="188" t="s">
+      <c r="P104" s="138"/>
+      <c r="Q104" s="138"/>
+      <c r="R104" s="139"/>
+      <c r="S104" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="190"/>
-      <c r="U104" s="190"/>
-      <c r="V104" s="190"/>
-      <c r="W104" s="190"/>
-      <c r="X104" s="190"/>
-      <c r="Y104" s="190"/>
-      <c r="Z104" s="190"/>
-      <c r="AA104" s="190"/>
-      <c r="AB104" s="190"/>
-      <c r="AC104" s="190"/>
-      <c r="AD104" s="189"/>
-      <c r="AE104" s="188" t="s">
+      <c r="T104" s="138"/>
+      <c r="U104" s="138"/>
+      <c r="V104" s="138"/>
+      <c r="W104" s="138"/>
+      <c r="X104" s="138"/>
+      <c r="Y104" s="138"/>
+      <c r="Z104" s="138"/>
+      <c r="AA104" s="138"/>
+      <c r="AB104" s="138"/>
+      <c r="AC104" s="138"/>
+      <c r="AD104" s="139"/>
+      <c r="AE104" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="190"/>
-      <c r="AG104" s="190"/>
-      <c r="AH104" s="190"/>
-      <c r="AI104" s="190"/>
-      <c r="AJ104" s="190"/>
-      <c r="AK104" s="190"/>
-      <c r="AL104" s="190"/>
-      <c r="AM104" s="190"/>
-      <c r="AN104" s="190"/>
-      <c r="AO104" s="190"/>
-      <c r="AP104" s="189"/>
-      <c r="AQ104" s="188" t="s">
+      <c r="AF104" s="138"/>
+      <c r="AG104" s="138"/>
+      <c r="AH104" s="138"/>
+      <c r="AI104" s="138"/>
+      <c r="AJ104" s="138"/>
+      <c r="AK104" s="138"/>
+      <c r="AL104" s="138"/>
+      <c r="AM104" s="138"/>
+      <c r="AN104" s="138"/>
+      <c r="AO104" s="138"/>
+      <c r="AP104" s="139"/>
+      <c r="AQ104" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="189"/>
-      <c r="AS104" s="188" t="s">
+      <c r="AR104" s="139"/>
+      <c r="AS104" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="190"/>
-      <c r="AU104" s="190"/>
-      <c r="AV104" s="190"/>
-      <c r="AW104" s="190"/>
-      <c r="AX104" s="190"/>
-      <c r="AY104" s="190"/>
-      <c r="AZ104" s="189"/>
+      <c r="AT104" s="138"/>
+      <c r="AU104" s="138"/>
+      <c r="AV104" s="138"/>
+      <c r="AW104" s="138"/>
+      <c r="AX104" s="138"/>
+      <c r="AY104" s="138"/>
+      <c r="AZ104" s="139"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -13121,11 +13094,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="158" t="s">
+      <c r="L106" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="159"/>
-      <c r="N106" s="160"/>
+      <c r="M106" s="141"/>
+      <c r="N106" s="142"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -13164,16 +13137,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="124" t="s">
+      <c r="AS106" s="193" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="125"/>
-      <c r="AU106" s="125"/>
-      <c r="AV106" s="125"/>
-      <c r="AW106" s="125"/>
-      <c r="AX106" s="125"/>
-      <c r="AY106" s="125"/>
-      <c r="AZ106" s="126"/>
+      <c r="AT106" s="194"/>
+      <c r="AU106" s="194"/>
+      <c r="AV106" s="194"/>
+      <c r="AW106" s="194"/>
+      <c r="AX106" s="194"/>
+      <c r="AY106" s="194"/>
+      <c r="AZ106" s="195"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -13239,16 +13212,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="124" t="s">
+      <c r="AS107" s="193" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="125"/>
-      <c r="AU107" s="125"/>
-      <c r="AV107" s="125"/>
-      <c r="AW107" s="125"/>
-      <c r="AX107" s="125"/>
-      <c r="AY107" s="125"/>
-      <c r="AZ107" s="126"/>
+      <c r="AT107" s="194"/>
+      <c r="AU107" s="194"/>
+      <c r="AV107" s="194"/>
+      <c r="AW107" s="194"/>
+      <c r="AX107" s="194"/>
+      <c r="AY107" s="194"/>
+      <c r="AZ107" s="195"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -13316,16 +13289,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="124" t="s">
+      <c r="AS108" s="193" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="125"/>
-      <c r="AU108" s="125"/>
-      <c r="AV108" s="125"/>
-      <c r="AW108" s="125"/>
-      <c r="AX108" s="125"/>
-      <c r="AY108" s="125"/>
-      <c r="AZ108" s="126"/>
+      <c r="AT108" s="194"/>
+      <c r="AU108" s="194"/>
+      <c r="AV108" s="194"/>
+      <c r="AW108" s="194"/>
+      <c r="AX108" s="194"/>
+      <c r="AY108" s="194"/>
+      <c r="AZ108" s="195"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -13389,16 +13362,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="124" t="s">
+      <c r="AS109" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="125"/>
-      <c r="AU109" s="125"/>
-      <c r="AV109" s="125"/>
-      <c r="AW109" s="125"/>
-      <c r="AX109" s="125"/>
-      <c r="AY109" s="125"/>
-      <c r="AZ109" s="126"/>
+      <c r="AT109" s="194"/>
+      <c r="AU109" s="194"/>
+      <c r="AV109" s="194"/>
+      <c r="AW109" s="194"/>
+      <c r="AX109" s="194"/>
+      <c r="AY109" s="194"/>
+      <c r="AZ109" s="195"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -13554,12 +13527,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="149" t="s">
+      <c r="O112" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="150"/>
-      <c r="Q112" s="150"/>
-      <c r="R112" s="151"/>
+      <c r="P112" s="182"/>
+      <c r="Q112" s="182"/>
+      <c r="R112" s="183"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13584,20 +13557,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="144" t="s">
+      <c r="AQ112" s="176" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="145"/>
-      <c r="AS112" s="146" t="s">
+      <c r="AR112" s="177"/>
+      <c r="AS112" s="178" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="147"/>
-      <c r="AU112" s="147"/>
-      <c r="AV112" s="147"/>
-      <c r="AW112" s="147"/>
-      <c r="AX112" s="147"/>
-      <c r="AY112" s="147"/>
-      <c r="AZ112" s="148"/>
+      <c r="AT112" s="179"/>
+      <c r="AU112" s="179"/>
+      <c r="AV112" s="179"/>
+      <c r="AW112" s="179"/>
+      <c r="AX112" s="179"/>
+      <c r="AY112" s="179"/>
+      <c r="AZ112" s="180"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -14798,20 +14771,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="144" t="s">
+      <c r="AQ130" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="145"/>
-      <c r="AS130" s="146" t="s">
+      <c r="AR130" s="177"/>
+      <c r="AS130" s="178" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="147"/>
-      <c r="AU130" s="147"/>
-      <c r="AV130" s="147"/>
-      <c r="AW130" s="147"/>
-      <c r="AX130" s="147"/>
-      <c r="AY130" s="147"/>
-      <c r="AZ130" s="148"/>
+      <c r="AT130" s="179"/>
+      <c r="AU130" s="179"/>
+      <c r="AV130" s="179"/>
+      <c r="AW130" s="179"/>
+      <c r="AX130" s="179"/>
+      <c r="AY130" s="179"/>
+      <c r="AZ130" s="180"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14865,16 +14838,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="152" t="s">
+      <c r="AS131" s="184" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="153"/>
-      <c r="AU131" s="153"/>
-      <c r="AV131" s="153"/>
-      <c r="AW131" s="153"/>
-      <c r="AX131" s="153"/>
-      <c r="AY131" s="153"/>
-      <c r="AZ131" s="154"/>
+      <c r="AT131" s="185"/>
+      <c r="AU131" s="185"/>
+      <c r="AV131" s="185"/>
+      <c r="AW131" s="185"/>
+      <c r="AX131" s="185"/>
+      <c r="AY131" s="185"/>
+      <c r="AZ131" s="186"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14987,20 +14960,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="144" t="s">
+      <c r="AQ133" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="145"/>
-      <c r="AS133" s="146" t="s">
+      <c r="AR133" s="177"/>
+      <c r="AS133" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="147"/>
-      <c r="AU133" s="147"/>
-      <c r="AV133" s="147"/>
-      <c r="AW133" s="147"/>
-      <c r="AX133" s="147"/>
-      <c r="AY133" s="147"/>
-      <c r="AZ133" s="148"/>
+      <c r="AT133" s="179"/>
+      <c r="AU133" s="179"/>
+      <c r="AV133" s="179"/>
+      <c r="AW133" s="179"/>
+      <c r="AX133" s="179"/>
+      <c r="AY133" s="179"/>
+      <c r="AZ133" s="180"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -17623,6 +17596,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -17647,193 +17807,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751CAEB-8A01-4864-9692-FF1280975DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FBC9E-B247-4CA3-ADA4-208A965559BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="426">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -2209,13 +2209,41 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,62 +2252,17 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2288,81 +2271,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2407,6 +2315,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2416,24 +2333,107 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2463,13 +2463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2507,13 +2507,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>2200409</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2551,13 +2551,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2617,13 +2617,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2683,13 +2683,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2749,13 +2749,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2815,13 +2815,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249530</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>173313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589442</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>116163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2881,13 +2881,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>281280</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>166963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621192</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>109813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3511,10 +3511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,29 +5238,29 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="198" t="s">
+      <c r="A32" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="125" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="198" t="s">
+      <c r="D32" s="124" t="s">
         <v>420</v>
       </c>
-      <c r="E32" s="198" t="s">
+      <c r="E32" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198" t="s">
+      <c r="F32" s="124"/>
+      <c r="G32" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="198" t="s">
+      <c r="H32" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="198" t="s">
+      <c r="I32" s="124" t="s">
         <v>405</v>
       </c>
       <c r="K32" s="90" t="s">
@@ -5830,15 +5830,17 @@
       </c>
       <c r="B47" s="123"/>
       <c r="C47" s="14" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="G47" s="14" t="s">
         <v>62</v>
       </c>
@@ -5846,7 +5848,30 @@
         <v>46</v>
       </c>
       <c r="I47" s="14"/>
-      <c r="K47" s="90" t="s">
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="123"/>
+      <c r="C48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="K48" s="90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6004,21 +6029,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="196"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -6126,45 +6151,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="187" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="156" t="s">
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="156" t="s">
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="160" t="s">
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="156" t="s">
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="178" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="152" t="s">
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="187" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="154"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="189"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6199,45 +6224,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="194" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="143" t="s">
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143" t="s">
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="133" t="s">
+      <c r="Q6" s="193"/>
+      <c r="R6" s="194" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133" t="s">
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133" t="s">
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6278,29 +6303,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="158" t="s">
+      <c r="K7" s="186" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158" t="s">
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="158" t="s">
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158" t="s">
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="158"/>
+      <c r="Y7" s="186"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6733,10 +6758,10 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="197"/>
+      <c r="F14" s="134"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6761,10 +6786,10 @@
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
-      <c r="AE14" s="131" t="s">
+      <c r="AE14" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="197"/>
+      <c r="AF14" s="134"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6807,67 +6832,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="127" t="s">
+      <c r="I15" s="136"/>
+      <c r="J15" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="126"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="198"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="129" t="s">
+      <c r="AH15" s="135" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="130"/>
-      <c r="AJ15" s="127" t="s">
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
-      <c r="BE15" s="125"/>
-      <c r="BF15" s="125"/>
+      <c r="AK15" s="138"/>
+      <c r="AL15" s="196"/>
+      <c r="AM15" s="197"/>
+      <c r="AN15" s="197"/>
+      <c r="AO15" s="197"/>
+      <c r="AP15" s="197"/>
+      <c r="AQ15" s="197"/>
+      <c r="AR15" s="197"/>
+      <c r="AS15" s="197"/>
+      <c r="AT15" s="197"/>
+      <c r="AU15" s="197"/>
+      <c r="AV15" s="197"/>
+      <c r="AW15" s="197"/>
+      <c r="AX15" s="197"/>
+      <c r="AY15" s="197"/>
+      <c r="AZ15" s="197"/>
+      <c r="BA15" s="197"/>
+      <c r="BB15" s="197"/>
+      <c r="BC15" s="197"/>
+      <c r="BD15" s="197"/>
+      <c r="BE15" s="197"/>
+      <c r="BF15" s="197"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6888,33 +6913,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="127" t="s">
+      <c r="K16" s="136"/>
+      <c r="L16" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="128"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="126"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="196"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="198"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -6922,33 +6947,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="129" t="s">
+      <c r="AJ16" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="130"/>
-      <c r="AL16" s="127" t="s">
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="125"/>
-      <c r="BA16" s="125"/>
-      <c r="BB16" s="125"/>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
-      <c r="BE16" s="125"/>
-      <c r="BF16" s="125"/>
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="196"/>
+      <c r="AO16" s="197"/>
+      <c r="AP16" s="197"/>
+      <c r="AQ16" s="197"/>
+      <c r="AR16" s="197"/>
+      <c r="AS16" s="197"/>
+      <c r="AT16" s="197"/>
+      <c r="AU16" s="197"/>
+      <c r="AV16" s="197"/>
+      <c r="AW16" s="197"/>
+      <c r="AX16" s="197"/>
+      <c r="AY16" s="197"/>
+      <c r="AZ16" s="197"/>
+      <c r="BA16" s="197"/>
+      <c r="BB16" s="197"/>
+      <c r="BC16" s="197"/>
+      <c r="BD16" s="197"/>
+      <c r="BE16" s="197"/>
+      <c r="BF16" s="197"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6971,31 +6996,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="129" t="s">
+      <c r="L17" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="130"/>
-      <c r="N17" s="127" t="s">
+      <c r="M17" s="136"/>
+      <c r="N17" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="128"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="126"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="197"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="197"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="198"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -7005,31 +7030,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="129" t="s">
+      <c r="AL17" s="135" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="127" t="s">
+      <c r="AM17" s="136"/>
+      <c r="AN17" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="124"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="125"/>
-      <c r="BD17" s="125"/>
-      <c r="BE17" s="125"/>
-      <c r="BF17" s="125"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="196"/>
+      <c r="AQ17" s="197"/>
+      <c r="AR17" s="197"/>
+      <c r="AS17" s="197"/>
+      <c r="AT17" s="197"/>
+      <c r="AU17" s="197"/>
+      <c r="AV17" s="197"/>
+      <c r="AW17" s="197"/>
+      <c r="AX17" s="197"/>
+      <c r="AY17" s="197"/>
+      <c r="AZ17" s="197"/>
+      <c r="BA17" s="197"/>
+      <c r="BB17" s="197"/>
+      <c r="BC17" s="197"/>
+      <c r="BD17" s="197"/>
+      <c r="BE17" s="197"/>
+      <c r="BF17" s="197"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -7054,27 +7079,27 @@
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="131" t="s">
+      <c r="N18" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="132"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="125"/>
-      <c r="AC18" s="125"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="126"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="198"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -7086,27 +7111,27 @@
       <c r="AK18" s="111"/>
       <c r="AL18" s="111"/>
       <c r="AM18" s="110"/>
-      <c r="AN18" s="131" t="s">
+      <c r="AN18" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="132"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125"/>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="125"/>
-      <c r="BE18" s="125"/>
-      <c r="BF18" s="125"/>
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="196"/>
+      <c r="AQ18" s="197"/>
+      <c r="AR18" s="197"/>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
+      <c r="AW18" s="197"/>
+      <c r="AX18" s="197"/>
+      <c r="AY18" s="197"/>
+      <c r="AZ18" s="197"/>
+      <c r="BA18" s="197"/>
+      <c r="BB18" s="197"/>
+      <c r="BC18" s="197"/>
+      <c r="BD18" s="197"/>
+      <c r="BE18" s="197"/>
+      <c r="BF18" s="197"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -7332,23 +7357,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="129" t="s">
+      <c r="T22" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="130"/>
-      <c r="V22" s="127" t="s">
+      <c r="U22" s="136"/>
+      <c r="V22" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="128"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="125"/>
-      <c r="AD22" s="125"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="126"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="197"/>
+      <c r="AB22" s="197"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="197"/>
+      <c r="AE22" s="197"/>
+      <c r="AF22" s="198"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -7366,23 +7391,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="129" t="s">
+      <c r="AT22" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="130"/>
-      <c r="AV22" s="127" t="s">
+      <c r="AU22" s="136"/>
+      <c r="AV22" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="128"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="125"/>
-      <c r="AZ22" s="125"/>
-      <c r="BA22" s="125"/>
-      <c r="BB22" s="125"/>
-      <c r="BC22" s="125"/>
-      <c r="BD22" s="125"/>
-      <c r="BE22" s="125"/>
-      <c r="BF22" s="125"/>
+      <c r="AW22" s="138"/>
+      <c r="AX22" s="196"/>
+      <c r="AY22" s="197"/>
+      <c r="AZ22" s="197"/>
+      <c r="BA22" s="197"/>
+      <c r="BB22" s="197"/>
+      <c r="BC22" s="197"/>
+      <c r="BD22" s="197"/>
+      <c r="BE22" s="197"/>
+      <c r="BF22" s="197"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -7415,21 +7440,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="129" t="s">
+      <c r="V23" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="130"/>
-      <c r="X23" s="127" t="s">
+      <c r="W23" s="136"/>
+      <c r="X23" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="126"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="196"/>
+      <c r="AA23" s="197"/>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="197"/>
+      <c r="AD23" s="197"/>
+      <c r="AE23" s="197"/>
+      <c r="AF23" s="198"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -7449,21 +7474,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="129" t="s">
+      <c r="AV23" s="135" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="130"/>
-      <c r="AX23" s="127" t="s">
+      <c r="AW23" s="136"/>
+      <c r="AX23" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="128"/>
-      <c r="AZ23" s="124"/>
-      <c r="BA23" s="125"/>
-      <c r="BB23" s="125"/>
-      <c r="BC23" s="125"/>
-      <c r="BD23" s="125"/>
-      <c r="BE23" s="125"/>
-      <c r="BF23" s="125"/>
+      <c r="AY23" s="138"/>
+      <c r="AZ23" s="196"/>
+      <c r="BA23" s="197"/>
+      <c r="BB23" s="197"/>
+      <c r="BC23" s="197"/>
+      <c r="BD23" s="197"/>
+      <c r="BE23" s="197"/>
+      <c r="BF23" s="197"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -7498,19 +7523,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="129" t="s">
+      <c r="X24" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="127" t="s">
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="126"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="196"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="197"/>
+      <c r="AF24" s="198"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -7532,19 +7557,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="129" t="s">
+      <c r="AX24" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="130"/>
-      <c r="AZ24" s="127" t="s">
+      <c r="AY24" s="136"/>
+      <c r="AZ24" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="128"/>
-      <c r="BB24" s="124"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="125"/>
-      <c r="BE24" s="125"/>
-      <c r="BF24" s="125"/>
+      <c r="BA24" s="138"/>
+      <c r="BB24" s="196"/>
+      <c r="BC24" s="197"/>
+      <c r="BD24" s="197"/>
+      <c r="BE24" s="197"/>
+      <c r="BF24" s="197"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -7581,17 +7606,17 @@
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="131" t="s">
+      <c r="Z25" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="127" t="s">
+      <c r="AA25" s="142"/>
+      <c r="AB25" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="125"/>
-      <c r="AF25" s="126"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="196"/>
+      <c r="AE25" s="197"/>
+      <c r="AF25" s="198"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -7615,17 +7640,17 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="110"/>
-      <c r="AZ25" s="131" t="s">
+      <c r="AZ25" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="132"/>
-      <c r="BB25" s="127" t="s">
+      <c r="BA25" s="142"/>
+      <c r="BB25" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="128"/>
-      <c r="BD25" s="124"/>
-      <c r="BE25" s="125"/>
-      <c r="BF25" s="125"/>
+      <c r="BC25" s="138"/>
+      <c r="BD25" s="196"/>
+      <c r="BE25" s="197"/>
+      <c r="BF25" s="197"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7883,29 +7908,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="174" t="s">
+      <c r="E30" s="139" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="175"/>
+      <c r="F30" s="140"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="174" t="s">
+      <c r="H30" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="175"/>
-      <c r="J30" s="174" t="s">
+      <c r="I30" s="140"/>
+      <c r="J30" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="175"/>
-      <c r="L30" s="174" t="s">
+      <c r="K30" s="140"/>
+      <c r="L30" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="175"/>
-      <c r="N30" s="174" t="s">
+      <c r="M30" s="140"/>
+      <c r="N30" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="175"/>
+      <c r="O30" s="140"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -7914,50 +7939,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="174" t="s">
+      <c r="T30" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="175"/>
-      <c r="V30" s="174" t="s">
+      <c r="U30" s="140"/>
+      <c r="V30" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="175"/>
-      <c r="X30" s="174" t="s">
+      <c r="W30" s="140"/>
+      <c r="X30" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="175"/>
-      <c r="Z30" s="174" t="s">
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="139" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="175"/>
-      <c r="AB30" s="148" t="s">
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="143" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="174" t="s">
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="139" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="175"/>
+      <c r="AF30" s="140"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="174" t="s">
+      <c r="AH30" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="175"/>
-      <c r="AJ30" s="174" t="s">
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="175"/>
-      <c r="AL30" s="174" t="s">
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="175"/>
-      <c r="AN30" s="174" t="s">
+      <c r="AM30" s="140"/>
+      <c r="AN30" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="175"/>
+      <c r="AO30" s="140"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -7966,27 +7991,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="174" t="s">
+      <c r="AT30" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="175"/>
-      <c r="AV30" s="174" t="s">
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="175"/>
-      <c r="AX30" s="174" t="s">
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="175"/>
-      <c r="AZ30" s="174" t="s">
+      <c r="AY30" s="140"/>
+      <c r="AZ30" s="139" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="175"/>
-      <c r="BB30" s="148" t="s">
+      <c r="BA30" s="140"/>
+      <c r="BB30" s="143" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="149"/>
-      <c r="BD30" s="150"/>
+      <c r="BC30" s="144"/>
+      <c r="BD30" s="145"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -7998,10 +8023,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="151" t="s">
+      <c r="E31" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="151"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8028,10 +8053,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="151" t="s">
+      <c r="AE31" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="151"/>
+      <c r="AF31" s="141"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8141,75 +8166,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="171" t="s">
+      <c r="H33" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="174" t="s">
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="175"/>
-      <c r="V33" s="148" t="s">
+      <c r="U33" s="140"/>
+      <c r="V33" s="143" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="150"/>
-      <c r="X33" s="171" t="s">
+      <c r="W33" s="145"/>
+      <c r="X33" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="173"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="170"/>
+      <c r="AC33" s="170"/>
+      <c r="AD33" s="170"/>
+      <c r="AE33" s="171"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="171" t="s">
+      <c r="AH33" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="172"/>
-      <c r="AJ33" s="172"/>
-      <c r="AK33" s="172"/>
-      <c r="AL33" s="172"/>
-      <c r="AM33" s="172"/>
-      <c r="AN33" s="172"/>
-      <c r="AO33" s="172"/>
-      <c r="AP33" s="172"/>
-      <c r="AQ33" s="172"/>
-      <c r="AR33" s="172"/>
-      <c r="AS33" s="173"/>
-      <c r="AT33" s="174" t="s">
+      <c r="AI33" s="170"/>
+      <c r="AJ33" s="170"/>
+      <c r="AK33" s="170"/>
+      <c r="AL33" s="170"/>
+      <c r="AM33" s="170"/>
+      <c r="AN33" s="170"/>
+      <c r="AO33" s="170"/>
+      <c r="AP33" s="170"/>
+      <c r="AQ33" s="170"/>
+      <c r="AR33" s="170"/>
+      <c r="AS33" s="171"/>
+      <c r="AT33" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="175"/>
-      <c r="AV33" s="148" t="s">
+      <c r="AU33" s="140"/>
+      <c r="AV33" s="143" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="150"/>
-      <c r="AX33" s="171" t="s">
+      <c r="AW33" s="145"/>
+      <c r="AX33" s="169" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="172"/>
-      <c r="AZ33" s="172"/>
-      <c r="BA33" s="172"/>
-      <c r="BB33" s="172"/>
-      <c r="BC33" s="172"/>
-      <c r="BD33" s="173"/>
+      <c r="AY33" s="170"/>
+      <c r="AZ33" s="170"/>
+      <c r="BA33" s="170"/>
+      <c r="BB33" s="170"/>
+      <c r="BC33" s="170"/>
+      <c r="BD33" s="171"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8221,10 +8246,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="151" t="s">
+      <c r="E34" s="141" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="141"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -8240,10 +8265,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="151" t="s">
+      <c r="T34" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="151"/>
+      <c r="U34" s="141"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -8272,10 +8297,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="151" t="s">
+      <c r="AT34" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="151"/>
+      <c r="AU34" s="141"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -8546,33 +8571,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="167"/>
-      <c r="G39" s="169" t="s">
+      <c r="F39" s="173"/>
+      <c r="G39" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="170"/>
+      <c r="H39" s="175"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="131" t="s">
+      <c r="J39" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="132"/>
-      <c r="L39" s="131" t="s">
+      <c r="K39" s="142"/>
+      <c r="L39" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="132"/>
-      <c r="N39" s="131" t="s">
+      <c r="M39" s="142"/>
+      <c r="N39" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="132"/>
-      <c r="P39" s="131" t="s">
+      <c r="O39" s="142"/>
+      <c r="P39" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="132"/>
+      <c r="Q39" s="142"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -8581,50 +8606,50 @@
         <v>239</v>
       </c>
       <c r="U39" s="103"/>
-      <c r="V39" s="131" t="s">
+      <c r="V39" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="132"/>
-      <c r="X39" s="131" t="s">
+      <c r="W39" s="142"/>
+      <c r="X39" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="131" t="s">
+      <c r="Y39" s="142"/>
+      <c r="Z39" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="132"/>
-      <c r="AB39" s="131" t="s">
+      <c r="AA39" s="142"/>
+      <c r="AB39" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="132"/>
-      <c r="AD39" s="127" t="s">
+      <c r="AC39" s="142"/>
+      <c r="AD39" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="168"/>
-      <c r="AF39" s="128"/>
-      <c r="AG39" s="131" t="s">
+      <c r="AE39" s="177"/>
+      <c r="AF39" s="138"/>
+      <c r="AG39" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="132"/>
+      <c r="AH39" s="142"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="AJ39" s="131" t="s">
+      <c r="AJ39" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="132"/>
-      <c r="AL39" s="131" t="s">
+      <c r="AK39" s="142"/>
+      <c r="AL39" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="132"/>
-      <c r="AN39" s="131" t="s">
+      <c r="AM39" s="142"/>
+      <c r="AN39" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="132"/>
-      <c r="AP39" s="131" t="s">
+      <c r="AO39" s="142"/>
+      <c r="AP39" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="132"/>
+      <c r="AQ39" s="142"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -8653,14 +8678,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="144" t="s">
+      <c r="E40" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144" t="s">
+      <c r="F40" s="176"/>
+      <c r="G40" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="144"/>
+      <c r="H40" s="176"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -8687,10 +8712,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="144" t="s">
+      <c r="AG40" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="144"/>
+      <c r="AH40" s="176"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -8726,27 +8751,27 @@
         <v>327</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="132"/>
+      <c r="F41" s="142"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="131" t="s">
+      <c r="H41" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="132"/>
-      <c r="J41" s="131" t="s">
+      <c r="I41" s="142"/>
+      <c r="J41" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="132"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="169" t="s">
+      <c r="K41" s="142"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="170"/>
+      <c r="O41" s="175"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -8755,50 +8780,50 @@
         <v>239</v>
       </c>
       <c r="S41" s="103"/>
-      <c r="T41" s="131" t="s">
+      <c r="T41" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="131" t="s">
+      <c r="U41" s="142"/>
+      <c r="V41" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="132"/>
-      <c r="X41" s="131" t="s">
+      <c r="W41" s="142"/>
+      <c r="X41" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="132"/>
-      <c r="Z41" s="131" t="s">
+      <c r="Y41" s="142"/>
+      <c r="Z41" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="132"/>
-      <c r="AB41" s="127" t="s">
+      <c r="AA41" s="142"/>
+      <c r="AB41" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="168"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="131" t="s">
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="138"/>
+      <c r="AE41" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="132"/>
+      <c r="AF41" s="142"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="AH41" s="131" t="s">
+      <c r="AH41" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="132"/>
-      <c r="AJ41" s="131" t="s">
+      <c r="AI41" s="142"/>
+      <c r="AJ41" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="132"/>
-      <c r="AL41" s="131" t="s">
+      <c r="AK41" s="142"/>
+      <c r="AL41" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="132"/>
-      <c r="AN41" s="131" t="s">
+      <c r="AM41" s="142"/>
+      <c r="AN41" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="132"/>
+      <c r="AO41" s="142"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -8807,27 +8832,27 @@
         <v>239</v>
       </c>
       <c r="AS41" s="103"/>
-      <c r="AT41" s="131" t="s">
+      <c r="AT41" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="132"/>
-      <c r="AV41" s="131" t="s">
+      <c r="AU41" s="142"/>
+      <c r="AV41" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="132"/>
-      <c r="AX41" s="131" t="s">
+      <c r="AW41" s="142"/>
+      <c r="AX41" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="132"/>
-      <c r="AZ41" s="131" t="s">
+      <c r="AY41" s="142"/>
+      <c r="AZ41" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="132"/>
-      <c r="BB41" s="127" t="s">
+      <c r="BA41" s="142"/>
+      <c r="BB41" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="168"/>
-      <c r="BD41" s="128"/>
+      <c r="BC41" s="177"/>
+      <c r="BD41" s="138"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8839,10 +8864,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="144" t="s">
+      <c r="E42" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="144"/>
+      <c r="F42" s="176"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8869,10 +8894,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="144" t="s">
+      <c r="AE42" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="144"/>
+      <c r="AF42" s="176"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8982,75 +9007,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="163" t="s">
+      <c r="H44" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="165"/>
-      <c r="T44" s="166" t="s">
+      <c r="I44" s="184"/>
+      <c r="J44" s="184"/>
+      <c r="K44" s="184"/>
+      <c r="L44" s="184"/>
+      <c r="M44" s="184"/>
+      <c r="N44" s="184"/>
+      <c r="O44" s="184"/>
+      <c r="P44" s="184"/>
+      <c r="Q44" s="184"/>
+      <c r="R44" s="184"/>
+      <c r="S44" s="185"/>
+      <c r="T44" s="172" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="167"/>
-      <c r="V44" s="127" t="s">
+      <c r="U44" s="173"/>
+      <c r="V44" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="128"/>
-      <c r="X44" s="163" t="s">
+      <c r="W44" s="138"/>
+      <c r="X44" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="164"/>
-      <c r="Z44" s="164"/>
-      <c r="AA44" s="164"/>
-      <c r="AB44" s="164"/>
-      <c r="AC44" s="164"/>
-      <c r="AD44" s="164"/>
-      <c r="AE44" s="165"/>
+      <c r="Y44" s="184"/>
+      <c r="Z44" s="184"/>
+      <c r="AA44" s="184"/>
+      <c r="AB44" s="184"/>
+      <c r="AC44" s="184"/>
+      <c r="AD44" s="184"/>
+      <c r="AE44" s="185"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="163" t="s">
+      <c r="AH44" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="164"/>
-      <c r="AJ44" s="164"/>
-      <c r="AK44" s="164"/>
-      <c r="AL44" s="164"/>
-      <c r="AM44" s="164"/>
-      <c r="AN44" s="164"/>
-      <c r="AO44" s="164"/>
-      <c r="AP44" s="164"/>
-      <c r="AQ44" s="164"/>
-      <c r="AR44" s="164"/>
-      <c r="AS44" s="165"/>
-      <c r="AT44" s="131" t="s">
+      <c r="AI44" s="184"/>
+      <c r="AJ44" s="184"/>
+      <c r="AK44" s="184"/>
+      <c r="AL44" s="184"/>
+      <c r="AM44" s="184"/>
+      <c r="AN44" s="184"/>
+      <c r="AO44" s="184"/>
+      <c r="AP44" s="184"/>
+      <c r="AQ44" s="184"/>
+      <c r="AR44" s="184"/>
+      <c r="AS44" s="185"/>
+      <c r="AT44" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="132"/>
-      <c r="AV44" s="127" t="s">
+      <c r="AU44" s="142"/>
+      <c r="AV44" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="128"/>
-      <c r="AX44" s="163" t="s">
+      <c r="AW44" s="138"/>
+      <c r="AX44" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="164"/>
-      <c r="AZ44" s="164"/>
-      <c r="BA44" s="164"/>
-      <c r="BB44" s="164"/>
-      <c r="BC44" s="164"/>
-      <c r="BD44" s="165"/>
+      <c r="AY44" s="184"/>
+      <c r="AZ44" s="184"/>
+      <c r="BA44" s="184"/>
+      <c r="BB44" s="184"/>
+      <c r="BC44" s="184"/>
+      <c r="BD44" s="185"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -9062,10 +9087,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="144" t="s">
+      <c r="E45" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="144"/>
+      <c r="F45" s="176"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -9081,10 +9106,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="144" t="s">
+      <c r="T45" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="144"/>
+      <c r="U45" s="176"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -9113,10 +9138,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="144" t="s">
+      <c r="AT45" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="144"/>
+      <c r="AU45" s="176"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -9145,70 +9170,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="163" t="s">
+      <c r="G46" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="164"/>
-      <c r="U46" s="164"/>
-      <c r="V46" s="164"/>
-      <c r="W46" s="164"/>
-      <c r="X46" s="164"/>
-      <c r="Y46" s="164"/>
-      <c r="Z46" s="164"/>
-      <c r="AA46" s="164"/>
-      <c r="AB46" s="164"/>
-      <c r="AC46" s="164"/>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="165"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="184"/>
+      <c r="J46" s="184"/>
+      <c r="K46" s="184"/>
+      <c r="L46" s="184"/>
+      <c r="M46" s="184"/>
+      <c r="N46" s="184"/>
+      <c r="O46" s="184"/>
+      <c r="P46" s="184"/>
+      <c r="Q46" s="184"/>
+      <c r="R46" s="184"/>
+      <c r="S46" s="184"/>
+      <c r="T46" s="184"/>
+      <c r="U46" s="184"/>
+      <c r="V46" s="184"/>
+      <c r="W46" s="184"/>
+      <c r="X46" s="184"/>
+      <c r="Y46" s="184"/>
+      <c r="Z46" s="184"/>
+      <c r="AA46" s="184"/>
+      <c r="AB46" s="184"/>
+      <c r="AC46" s="184"/>
+      <c r="AD46" s="184"/>
+      <c r="AE46" s="185"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="163" t="s">
+      <c r="AH46" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="164"/>
-      <c r="AJ46" s="164"/>
-      <c r="AK46" s="164"/>
-      <c r="AL46" s="164"/>
-      <c r="AM46" s="164"/>
-      <c r="AN46" s="164"/>
-      <c r="AO46" s="164"/>
-      <c r="AP46" s="164"/>
-      <c r="AQ46" s="164"/>
-      <c r="AR46" s="164"/>
-      <c r="AS46" s="165"/>
-      <c r="AT46" s="131" t="s">
+      <c r="AI46" s="184"/>
+      <c r="AJ46" s="184"/>
+      <c r="AK46" s="184"/>
+      <c r="AL46" s="184"/>
+      <c r="AM46" s="184"/>
+      <c r="AN46" s="184"/>
+      <c r="AO46" s="184"/>
+      <c r="AP46" s="184"/>
+      <c r="AQ46" s="184"/>
+      <c r="AR46" s="184"/>
+      <c r="AS46" s="185"/>
+      <c r="AT46" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="132"/>
-      <c r="AV46" s="127" t="s">
+      <c r="AU46" s="142"/>
+      <c r="AV46" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="128"/>
-      <c r="AX46" s="163" t="s">
+      <c r="AW46" s="138"/>
+      <c r="AX46" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="164"/>
-      <c r="AZ46" s="164"/>
-      <c r="BA46" s="164"/>
-      <c r="BB46" s="164"/>
-      <c r="BC46" s="164"/>
-      <c r="BD46" s="165"/>
+      <c r="AY46" s="184"/>
+      <c r="AZ46" s="184"/>
+      <c r="BA46" s="184"/>
+      <c r="BB46" s="184"/>
+      <c r="BC46" s="184"/>
+      <c r="BD46" s="185"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9265,10 +9290,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="144" t="s">
+      <c r="AT47" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="144"/>
+      <c r="AU47" s="176"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -9659,20 +9684,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="134" t="s">
+      <c r="E54" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="135"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="134" t="s">
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="135"/>
-      <c r="N54" s="136"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="199"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9793,20 +9818,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="137" t="s">
+      <c r="F56" s="192"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="138"/>
-      <c r="N56" s="139"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="191"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -12278,68 +12303,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="134" t="s">
+      <c r="E95" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="135"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="135"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="134" t="s">
+      <c r="F95" s="131"/>
+      <c r="G95" s="131"/>
+      <c r="H95" s="131"/>
+      <c r="I95" s="131"/>
+      <c r="J95" s="131"/>
+      <c r="K95" s="132"/>
+      <c r="L95" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="135"/>
-      <c r="N95" s="155"/>
-      <c r="O95" s="145" t="s">
+      <c r="M95" s="131"/>
+      <c r="N95" s="132"/>
+      <c r="O95" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="146"/>
-      <c r="Q95" s="146"/>
-      <c r="R95" s="146"/>
-      <c r="S95" s="146"/>
-      <c r="T95" s="147"/>
-      <c r="U95" s="145" t="s">
+      <c r="P95" s="167"/>
+      <c r="Q95" s="167"/>
+      <c r="R95" s="167"/>
+      <c r="S95" s="167"/>
+      <c r="T95" s="168"/>
+      <c r="U95" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="146"/>
-      <c r="W95" s="146"/>
-      <c r="X95" s="146"/>
-      <c r="Y95" s="146"/>
-      <c r="Z95" s="146"/>
-      <c r="AA95" s="146"/>
-      <c r="AB95" s="147"/>
-      <c r="AC95" s="145" t="s">
+      <c r="V95" s="167"/>
+      <c r="W95" s="167"/>
+      <c r="X95" s="167"/>
+      <c r="Y95" s="167"/>
+      <c r="Z95" s="167"/>
+      <c r="AA95" s="167"/>
+      <c r="AB95" s="168"/>
+      <c r="AC95" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="146"/>
-      <c r="AE95" s="146"/>
-      <c r="AF95" s="146"/>
-      <c r="AG95" s="146"/>
-      <c r="AH95" s="146"/>
-      <c r="AI95" s="146"/>
-      <c r="AJ95" s="147"/>
-      <c r="AK95" s="145" t="s">
+      <c r="AD95" s="167"/>
+      <c r="AE95" s="167"/>
+      <c r="AF95" s="167"/>
+      <c r="AG95" s="167"/>
+      <c r="AH95" s="167"/>
+      <c r="AI95" s="167"/>
+      <c r="AJ95" s="168"/>
+      <c r="AK95" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="146"/>
-      <c r="AM95" s="146"/>
-      <c r="AN95" s="146"/>
-      <c r="AO95" s="146"/>
-      <c r="AP95" s="146"/>
-      <c r="AQ95" s="146"/>
-      <c r="AR95" s="147"/>
-      <c r="AS95" s="190" t="s">
+      <c r="AL95" s="167"/>
+      <c r="AM95" s="167"/>
+      <c r="AN95" s="167"/>
+      <c r="AO95" s="167"/>
+      <c r="AP95" s="167"/>
+      <c r="AQ95" s="167"/>
+      <c r="AR95" s="168"/>
+      <c r="AS95" s="163" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="191"/>
-      <c r="AU95" s="191"/>
-      <c r="AV95" s="191"/>
-      <c r="AW95" s="191"/>
-      <c r="AX95" s="191"/>
-      <c r="AY95" s="191"/>
-      <c r="AZ95" s="192"/>
+      <c r="AT95" s="164"/>
+      <c r="AU95" s="164"/>
+      <c r="AV95" s="164"/>
+      <c r="AW95" s="164"/>
+      <c r="AX95" s="164"/>
+      <c r="AY95" s="164"/>
+      <c r="AZ95" s="165"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12444,68 +12469,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="137" t="s">
+      <c r="E97" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="138"/>
-      <c r="J97" s="138"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="137" t="s">
+      <c r="F97" s="192"/>
+      <c r="G97" s="192"/>
+      <c r="H97" s="192"/>
+      <c r="I97" s="192"/>
+      <c r="J97" s="192"/>
+      <c r="K97" s="191"/>
+      <c r="L97" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="138"/>
-      <c r="N97" s="138"/>
-      <c r="O97" s="137" t="s">
+      <c r="M97" s="192"/>
+      <c r="N97" s="192"/>
+      <c r="O97" s="190" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="138"/>
-      <c r="Q97" s="138"/>
-      <c r="R97" s="138"/>
-      <c r="S97" s="138"/>
-      <c r="T97" s="139"/>
-      <c r="U97" s="137" t="s">
+      <c r="P97" s="192"/>
+      <c r="Q97" s="192"/>
+      <c r="R97" s="192"/>
+      <c r="S97" s="192"/>
+      <c r="T97" s="191"/>
+      <c r="U97" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="138"/>
-      <c r="W97" s="138"/>
-      <c r="X97" s="138"/>
-      <c r="Y97" s="138"/>
-      <c r="Z97" s="138"/>
-      <c r="AA97" s="138"/>
-      <c r="AB97" s="139"/>
-      <c r="AC97" s="137" t="s">
+      <c r="V97" s="192"/>
+      <c r="W97" s="192"/>
+      <c r="X97" s="192"/>
+      <c r="Y97" s="192"/>
+      <c r="Z97" s="192"/>
+      <c r="AA97" s="192"/>
+      <c r="AB97" s="191"/>
+      <c r="AC97" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="138"/>
-      <c r="AE97" s="138"/>
-      <c r="AF97" s="138"/>
-      <c r="AG97" s="138"/>
-      <c r="AH97" s="138"/>
-      <c r="AI97" s="138"/>
-      <c r="AJ97" s="139"/>
-      <c r="AK97" s="137" t="s">
+      <c r="AD97" s="192"/>
+      <c r="AE97" s="192"/>
+      <c r="AF97" s="192"/>
+      <c r="AG97" s="192"/>
+      <c r="AH97" s="192"/>
+      <c r="AI97" s="192"/>
+      <c r="AJ97" s="191"/>
+      <c r="AK97" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="138"/>
-      <c r="AM97" s="138"/>
-      <c r="AN97" s="138"/>
-      <c r="AO97" s="138"/>
-      <c r="AP97" s="138"/>
-      <c r="AQ97" s="138"/>
-      <c r="AR97" s="139"/>
-      <c r="AS97" s="138" t="s">
+      <c r="AL97" s="192"/>
+      <c r="AM97" s="192"/>
+      <c r="AN97" s="192"/>
+      <c r="AO97" s="192"/>
+      <c r="AP97" s="192"/>
+      <c r="AQ97" s="192"/>
+      <c r="AR97" s="191"/>
+      <c r="AS97" s="192" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="138"/>
-      <c r="AU97" s="138"/>
-      <c r="AV97" s="138"/>
-      <c r="AW97" s="138"/>
-      <c r="AX97" s="138"/>
-      <c r="AY97" s="138"/>
-      <c r="AZ97" s="139"/>
+      <c r="AT97" s="192"/>
+      <c r="AU97" s="192"/>
+      <c r="AV97" s="192"/>
+      <c r="AW97" s="192"/>
+      <c r="AX97" s="192"/>
+      <c r="AY97" s="192"/>
+      <c r="AZ97" s="191"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12580,68 +12605,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="187" t="s">
+      <c r="E99" s="157" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="188"/>
-      <c r="G99" s="188"/>
-      <c r="H99" s="188"/>
-      <c r="I99" s="188"/>
-      <c r="J99" s="188"/>
-      <c r="K99" s="189"/>
-      <c r="L99" s="140" t="s">
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="141"/>
-      <c r="N99" s="142"/>
-      <c r="O99" s="184" t="s">
+      <c r="M99" s="161"/>
+      <c r="N99" s="162"/>
+      <c r="O99" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="185"/>
-      <c r="Q99" s="185"/>
-      <c r="R99" s="185"/>
-      <c r="S99" s="185"/>
-      <c r="T99" s="186"/>
-      <c r="U99" s="184" t="s">
+      <c r="P99" s="155"/>
+      <c r="Q99" s="155"/>
+      <c r="R99" s="155"/>
+      <c r="S99" s="155"/>
+      <c r="T99" s="156"/>
+      <c r="U99" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="185"/>
-      <c r="W99" s="185"/>
-      <c r="X99" s="185"/>
-      <c r="Y99" s="185"/>
-      <c r="Z99" s="185"/>
-      <c r="AA99" s="185"/>
-      <c r="AB99" s="186"/>
-      <c r="AC99" s="184" t="s">
+      <c r="V99" s="155"/>
+      <c r="W99" s="155"/>
+      <c r="X99" s="155"/>
+      <c r="Y99" s="155"/>
+      <c r="Z99" s="155"/>
+      <c r="AA99" s="155"/>
+      <c r="AB99" s="156"/>
+      <c r="AC99" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="185"/>
-      <c r="AE99" s="185"/>
-      <c r="AF99" s="185"/>
-      <c r="AG99" s="185"/>
-      <c r="AH99" s="185"/>
-      <c r="AI99" s="185"/>
-      <c r="AJ99" s="186"/>
-      <c r="AK99" s="184" t="s">
+      <c r="AD99" s="155"/>
+      <c r="AE99" s="155"/>
+      <c r="AF99" s="155"/>
+      <c r="AG99" s="155"/>
+      <c r="AH99" s="155"/>
+      <c r="AI99" s="155"/>
+      <c r="AJ99" s="156"/>
+      <c r="AK99" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="185"/>
-      <c r="AM99" s="185"/>
-      <c r="AN99" s="185"/>
-      <c r="AO99" s="185"/>
-      <c r="AP99" s="185"/>
-      <c r="AQ99" s="185"/>
-      <c r="AR99" s="186"/>
-      <c r="AS99" s="184" t="s">
+      <c r="AL99" s="155"/>
+      <c r="AM99" s="155"/>
+      <c r="AN99" s="155"/>
+      <c r="AO99" s="155"/>
+      <c r="AP99" s="155"/>
+      <c r="AQ99" s="155"/>
+      <c r="AR99" s="156"/>
+      <c r="AS99" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="185"/>
-      <c r="AU99" s="185"/>
-      <c r="AV99" s="185"/>
-      <c r="AW99" s="185"/>
-      <c r="AX99" s="185"/>
-      <c r="AY99" s="185"/>
-      <c r="AZ99" s="186"/>
+      <c r="AT99" s="155"/>
+      <c r="AU99" s="155"/>
+      <c r="AV99" s="155"/>
+      <c r="AW99" s="155"/>
+      <c r="AX99" s="155"/>
+      <c r="AY99" s="155"/>
+      <c r="AZ99" s="156"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12783,68 +12808,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="134" t="s">
+      <c r="E102" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="135"/>
-      <c r="G102" s="135"/>
-      <c r="H102" s="135"/>
-      <c r="I102" s="135"/>
-      <c r="J102" s="135"/>
-      <c r="K102" s="155"/>
-      <c r="L102" s="134" t="s">
+      <c r="F102" s="131"/>
+      <c r="G102" s="131"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="131"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="132"/>
+      <c r="L102" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="135"/>
-      <c r="N102" s="155"/>
-      <c r="O102" s="134" t="s">
+      <c r="M102" s="131"/>
+      <c r="N102" s="132"/>
+      <c r="O102" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="135"/>
-      <c r="Q102" s="135"/>
-      <c r="R102" s="155"/>
-      <c r="S102" s="134" t="s">
+      <c r="P102" s="131"/>
+      <c r="Q102" s="131"/>
+      <c r="R102" s="132"/>
+      <c r="S102" s="130" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="135"/>
-      <c r="U102" s="135"/>
-      <c r="V102" s="135"/>
-      <c r="W102" s="135"/>
-      <c r="X102" s="135"/>
-      <c r="Y102" s="135"/>
-      <c r="Z102" s="135"/>
-      <c r="AA102" s="135"/>
-      <c r="AB102" s="135"/>
-      <c r="AC102" s="135"/>
-      <c r="AD102" s="155"/>
-      <c r="AE102" s="134" t="s">
+      <c r="T102" s="131"/>
+      <c r="U102" s="131"/>
+      <c r="V102" s="131"/>
+      <c r="W102" s="131"/>
+      <c r="X102" s="131"/>
+      <c r="Y102" s="131"/>
+      <c r="Z102" s="131"/>
+      <c r="AA102" s="131"/>
+      <c r="AB102" s="131"/>
+      <c r="AC102" s="131"/>
+      <c r="AD102" s="132"/>
+      <c r="AE102" s="130" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="135"/>
-      <c r="AG102" s="135"/>
-      <c r="AH102" s="135"/>
-      <c r="AI102" s="135"/>
-      <c r="AJ102" s="135"/>
-      <c r="AK102" s="135"/>
-      <c r="AL102" s="135"/>
-      <c r="AM102" s="135"/>
-      <c r="AN102" s="135"/>
-      <c r="AO102" s="135"/>
-      <c r="AP102" s="155"/>
-      <c r="AQ102" s="134" t="s">
+      <c r="AF102" s="131"/>
+      <c r="AG102" s="131"/>
+      <c r="AH102" s="131"/>
+      <c r="AI102" s="131"/>
+      <c r="AJ102" s="131"/>
+      <c r="AK102" s="131"/>
+      <c r="AL102" s="131"/>
+      <c r="AM102" s="131"/>
+      <c r="AN102" s="131"/>
+      <c r="AO102" s="131"/>
+      <c r="AP102" s="132"/>
+      <c r="AQ102" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="155"/>
-      <c r="AS102" s="134" t="s">
+      <c r="AR102" s="132"/>
+      <c r="AS102" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="135"/>
-      <c r="AU102" s="135"/>
-      <c r="AV102" s="135"/>
-      <c r="AW102" s="135"/>
-      <c r="AX102" s="135"/>
-      <c r="AY102" s="135"/>
-      <c r="AZ102" s="155"/>
+      <c r="AT102" s="131"/>
+      <c r="AU102" s="131"/>
+      <c r="AV102" s="131"/>
+      <c r="AW102" s="131"/>
+      <c r="AX102" s="131"/>
+      <c r="AY102" s="131"/>
+      <c r="AZ102" s="132"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12947,68 +12972,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="137" t="s">
+      <c r="E104" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="138"/>
-      <c r="G104" s="138"/>
-      <c r="H104" s="138"/>
-      <c r="I104" s="138"/>
-      <c r="J104" s="138"/>
-      <c r="K104" s="139"/>
-      <c r="L104" s="137" t="s">
+      <c r="F104" s="192"/>
+      <c r="G104" s="192"/>
+      <c r="H104" s="192"/>
+      <c r="I104" s="192"/>
+      <c r="J104" s="192"/>
+      <c r="K104" s="191"/>
+      <c r="L104" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="138"/>
-      <c r="N104" s="139"/>
-      <c r="O104" s="137" t="s">
+      <c r="M104" s="192"/>
+      <c r="N104" s="191"/>
+      <c r="O104" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="138"/>
-      <c r="Q104" s="138"/>
-      <c r="R104" s="139"/>
-      <c r="S104" s="137" t="s">
+      <c r="P104" s="192"/>
+      <c r="Q104" s="192"/>
+      <c r="R104" s="191"/>
+      <c r="S104" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="138"/>
-      <c r="U104" s="138"/>
-      <c r="V104" s="138"/>
-      <c r="W104" s="138"/>
-      <c r="X104" s="138"/>
-      <c r="Y104" s="138"/>
-      <c r="Z104" s="138"/>
-      <c r="AA104" s="138"/>
-      <c r="AB104" s="138"/>
-      <c r="AC104" s="138"/>
-      <c r="AD104" s="139"/>
-      <c r="AE104" s="137" t="s">
+      <c r="T104" s="192"/>
+      <c r="U104" s="192"/>
+      <c r="V104" s="192"/>
+      <c r="W104" s="192"/>
+      <c r="X104" s="192"/>
+      <c r="Y104" s="192"/>
+      <c r="Z104" s="192"/>
+      <c r="AA104" s="192"/>
+      <c r="AB104" s="192"/>
+      <c r="AC104" s="192"/>
+      <c r="AD104" s="191"/>
+      <c r="AE104" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="138"/>
-      <c r="AG104" s="138"/>
-      <c r="AH104" s="138"/>
-      <c r="AI104" s="138"/>
-      <c r="AJ104" s="138"/>
-      <c r="AK104" s="138"/>
-      <c r="AL104" s="138"/>
-      <c r="AM104" s="138"/>
-      <c r="AN104" s="138"/>
-      <c r="AO104" s="138"/>
-      <c r="AP104" s="139"/>
-      <c r="AQ104" s="137" t="s">
+      <c r="AF104" s="192"/>
+      <c r="AG104" s="192"/>
+      <c r="AH104" s="192"/>
+      <c r="AI104" s="192"/>
+      <c r="AJ104" s="192"/>
+      <c r="AK104" s="192"/>
+      <c r="AL104" s="192"/>
+      <c r="AM104" s="192"/>
+      <c r="AN104" s="192"/>
+      <c r="AO104" s="192"/>
+      <c r="AP104" s="191"/>
+      <c r="AQ104" s="190" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="139"/>
-      <c r="AS104" s="137" t="s">
+      <c r="AR104" s="191"/>
+      <c r="AS104" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="138"/>
-      <c r="AU104" s="138"/>
-      <c r="AV104" s="138"/>
-      <c r="AW104" s="138"/>
-      <c r="AX104" s="138"/>
-      <c r="AY104" s="138"/>
-      <c r="AZ104" s="139"/>
+      <c r="AT104" s="192"/>
+      <c r="AU104" s="192"/>
+      <c r="AV104" s="192"/>
+      <c r="AW104" s="192"/>
+      <c r="AX104" s="192"/>
+      <c r="AY104" s="192"/>
+      <c r="AZ104" s="191"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -13094,11 +13119,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="140" t="s">
+      <c r="L106" s="160" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="141"/>
-      <c r="N106" s="142"/>
+      <c r="M106" s="161"/>
+      <c r="N106" s="162"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -13137,16 +13162,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="193" t="s">
+      <c r="AS106" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="194"/>
-      <c r="AU106" s="194"/>
-      <c r="AV106" s="194"/>
-      <c r="AW106" s="194"/>
-      <c r="AX106" s="194"/>
-      <c r="AY106" s="194"/>
-      <c r="AZ106" s="195"/>
+      <c r="AT106" s="127"/>
+      <c r="AU106" s="127"/>
+      <c r="AV106" s="127"/>
+      <c r="AW106" s="127"/>
+      <c r="AX106" s="127"/>
+      <c r="AY106" s="127"/>
+      <c r="AZ106" s="128"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -13212,16 +13237,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="193" t="s">
+      <c r="AS107" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="194"/>
-      <c r="AU107" s="194"/>
-      <c r="AV107" s="194"/>
-      <c r="AW107" s="194"/>
-      <c r="AX107" s="194"/>
-      <c r="AY107" s="194"/>
-      <c r="AZ107" s="195"/>
+      <c r="AT107" s="127"/>
+      <c r="AU107" s="127"/>
+      <c r="AV107" s="127"/>
+      <c r="AW107" s="127"/>
+      <c r="AX107" s="127"/>
+      <c r="AY107" s="127"/>
+      <c r="AZ107" s="128"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -13289,16 +13314,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="193" t="s">
+      <c r="AS108" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="194"/>
-      <c r="AU108" s="194"/>
-      <c r="AV108" s="194"/>
-      <c r="AW108" s="194"/>
-      <c r="AX108" s="194"/>
-      <c r="AY108" s="194"/>
-      <c r="AZ108" s="195"/>
+      <c r="AT108" s="127"/>
+      <c r="AU108" s="127"/>
+      <c r="AV108" s="127"/>
+      <c r="AW108" s="127"/>
+      <c r="AX108" s="127"/>
+      <c r="AY108" s="127"/>
+      <c r="AZ108" s="128"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -13362,16 +13387,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="193" t="s">
+      <c r="AS109" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="194"/>
-      <c r="AU109" s="194"/>
-      <c r="AV109" s="194"/>
-      <c r="AW109" s="194"/>
-      <c r="AX109" s="194"/>
-      <c r="AY109" s="194"/>
-      <c r="AZ109" s="195"/>
+      <c r="AT109" s="127"/>
+      <c r="AU109" s="127"/>
+      <c r="AV109" s="127"/>
+      <c r="AW109" s="127"/>
+      <c r="AX109" s="127"/>
+      <c r="AY109" s="127"/>
+      <c r="AZ109" s="128"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -13527,12 +13552,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="181" t="s">
+      <c r="O112" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="182"/>
-      <c r="Q112" s="182"/>
-      <c r="R112" s="183"/>
+      <c r="P112" s="152"/>
+      <c r="Q112" s="152"/>
+      <c r="R112" s="153"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13557,20 +13582,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="176" t="s">
+      <c r="AQ112" s="146" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="177"/>
-      <c r="AS112" s="178" t="s">
+      <c r="AR112" s="147"/>
+      <c r="AS112" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="179"/>
-      <c r="AU112" s="179"/>
-      <c r="AV112" s="179"/>
-      <c r="AW112" s="179"/>
-      <c r="AX112" s="179"/>
-      <c r="AY112" s="179"/>
-      <c r="AZ112" s="180"/>
+      <c r="AT112" s="149"/>
+      <c r="AU112" s="149"/>
+      <c r="AV112" s="149"/>
+      <c r="AW112" s="149"/>
+      <c r="AX112" s="149"/>
+      <c r="AY112" s="149"/>
+      <c r="AZ112" s="150"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -14771,20 +14796,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="176" t="s">
+      <c r="AQ130" s="146" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="177"/>
-      <c r="AS130" s="178" t="s">
+      <c r="AR130" s="147"/>
+      <c r="AS130" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="179"/>
-      <c r="AU130" s="179"/>
-      <c r="AV130" s="179"/>
-      <c r="AW130" s="179"/>
-      <c r="AX130" s="179"/>
-      <c r="AY130" s="179"/>
-      <c r="AZ130" s="180"/>
+      <c r="AT130" s="149"/>
+      <c r="AU130" s="149"/>
+      <c r="AV130" s="149"/>
+      <c r="AW130" s="149"/>
+      <c r="AX130" s="149"/>
+      <c r="AY130" s="149"/>
+      <c r="AZ130" s="150"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14838,16 +14863,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="184" t="s">
+      <c r="AS131" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="185"/>
-      <c r="AU131" s="185"/>
-      <c r="AV131" s="185"/>
-      <c r="AW131" s="185"/>
-      <c r="AX131" s="185"/>
-      <c r="AY131" s="185"/>
-      <c r="AZ131" s="186"/>
+      <c r="AT131" s="155"/>
+      <c r="AU131" s="155"/>
+      <c r="AV131" s="155"/>
+      <c r="AW131" s="155"/>
+      <c r="AX131" s="155"/>
+      <c r="AY131" s="155"/>
+      <c r="AZ131" s="156"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14960,20 +14985,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="176" t="s">
+      <c r="AQ133" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="177"/>
-      <c r="AS133" s="178" t="s">
+      <c r="AR133" s="147"/>
+      <c r="AS133" s="148" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="179"/>
-      <c r="AU133" s="179"/>
-      <c r="AV133" s="179"/>
-      <c r="AW133" s="179"/>
-      <c r="AX133" s="179"/>
-      <c r="AY133" s="179"/>
-      <c r="AZ133" s="180"/>
+      <c r="AT133" s="149"/>
+      <c r="AU133" s="149"/>
+      <c r="AV133" s="149"/>
+      <c r="AW133" s="149"/>
+      <c r="AX133" s="149"/>
+      <c r="AY133" s="149"/>
+      <c r="AZ133" s="150"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -17596,6 +17621,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="AS109:AZ109"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="S102:AD102"/>
@@ -17620,193 +17832,6 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2FBC9E-B247-4CA3-ADA4-208A965559BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40003728-477F-4164-9446-2FDFF334A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pin mapping" sheetId="3" r:id="rId1"/>
-    <sheet name="Messages concept" sheetId="4" r:id="rId2"/>
-    <sheet name="MES" sheetId="1" r:id="rId3"/>
-    <sheet name="CFG" sheetId="2" r:id="rId4"/>
-    <sheet name="Check" sheetId="5" r:id="rId5"/>
+    <sheet name="Pin mapping EVAL" sheetId="3" r:id="rId1"/>
+    <sheet name="Pin mapping PROJ" sheetId="6" r:id="rId2"/>
+    <sheet name="Messages concept" sheetId="4" r:id="rId3"/>
+    <sheet name="MES" sheetId="1" r:id="rId4"/>
+    <sheet name="CFG" sheetId="2" r:id="rId5"/>
+    <sheet name="Check" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Messages concept'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Messages concept'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="451">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1280,12 +1281,6 @@
   </si>
   <si>
     <t>Debug/Download</t>
-  </si>
-  <si>
-    <t>Pin Mapping Slot EFR32xG22 (BRD4182A - QFN 40 pin)</t>
-  </si>
-  <si>
-    <t>Pin Mapping Slot EFR32xG22 (BRD4183A - QFN 32 pin)</t>
   </si>
   <si>
     <t>Implemented</t>
@@ -1355,12 +1350,93 @@
   <si>
     <t>LF 32.768kHz Is used?</t>
   </si>
+  <si>
+    <t>CS_DAC</t>
+  </si>
+  <si>
+    <t>AD3</t>
+  </si>
+  <si>
+    <t>Ucell</t>
+  </si>
+  <si>
+    <t>Iderive</t>
+  </si>
+  <si>
+    <t>VRefExt</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Enable SPI DAC</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>PTI</t>
+  </si>
+  <si>
+    <t>Internal: Temp, VDD, Vref</t>
+  </si>
+  <si>
+    <t>Internal: Temp, VDD</t>
+  </si>
+  <si>
+    <t>Enable SPI COM CPU</t>
+  </si>
+  <si>
+    <t>CS_CPU</t>
+  </si>
+  <si>
+    <t>Pin Mapping SLAVE (QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>No Dinp</t>
+  </si>
+  <si>
+    <t>No PWM</t>
+  </si>
+  <si>
+    <t>LED/Debug Dout</t>
+  </si>
+  <si>
+    <t>No PTI</t>
+  </si>
+  <si>
+    <t>LED#1/Debug Dout#1</t>
+  </si>
+  <si>
+    <t>LED#3/Debug Dout#3</t>
+  </si>
+  <si>
+    <t>Debug/Download/LED#2-Debug Dout#2</t>
+  </si>
+  <si>
+    <t>No LED#3/Debug Dout#3</t>
+  </si>
+  <si>
+    <t>Pin Mapping MASTER (QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping MASTER/SLAVE EFR32xG22 (BRD4182A - QFN 40 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping MASTER/SLAVE EFR32xG22 (BRD4183A - QFN 32 pin)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,6 +1606,14 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1966,7 +2050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2213,16 +2297,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,38 +2333,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2271,6 +2376,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2315,15 +2495,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2333,108 +2504,41 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2463,13 +2567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2507,13 +2611,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>2200409</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2551,13 +2655,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2617,13 +2721,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2683,13 +2787,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2749,13 +2853,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2815,13 +2919,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>249530</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>173313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589442</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>116163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2881,13 +2985,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>281280</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>166963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621192</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>109813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3511,10 +3615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,14 +3644,14 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="N1" s="5"/>
       <c r="AA1" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -3610,14 +3714,14 @@
         <v>54</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AD3" s="3" t="str">
         <f>Q3</f>
         <v>CPU Port</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -3699,7 +3803,7 @@
         <v>PC04</v>
       </c>
       <c r="AE4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -3781,108 +3885,108 @@
         <v>PC05</v>
       </c>
       <c r="AE5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N6" s="5"/>
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="89"/>
+      <c r="M6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="10">
+        <v>3</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="V6" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="X6" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6" si="1">M6</f>
+        <v>A/D</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6" si="2">N6</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" ref="AC6" si="3">O6</f>
+        <v>H15</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>Q6</f>
+        <v>PB02</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA7" s="9" t="str">
-        <f>M7</f>
-        <v>DEBUG DOUT</v>
-      </c>
-      <c r="AB7" s="9">
-        <f>N7</f>
-        <v>1</v>
-      </c>
-      <c r="AC7" s="9" t="str">
-        <f>O7</f>
-        <v>H9</v>
-      </c>
-      <c r="AD7" s="9" t="str">
-        <f>Q7</f>
-        <v>PB01</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>379</v>
@@ -3894,42 +3998,59 @@
         <v>62</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="90" t="s">
-        <v>387</v>
-      </c>
-      <c r="M8" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="92">
-        <v>2</v>
-      </c>
-      <c r="O8" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91" t="s">
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="91" t="s">
+      <c r="T8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="96"/>
-      <c r="W8" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y8" s="98" t="s">
-        <v>394</v>
+        <v>9</v>
+      </c>
+      <c r="Y8" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA8" s="9" t="str">
+        <f>M8</f>
+        <v>DEBUG DOUT</v>
+      </c>
+      <c r="AB8" s="9">
+        <f>N8</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="9" t="str">
+        <f>O8</f>
+        <v>H9</v>
+      </c>
+      <c r="AD8" s="9" t="str">
+        <f>Q8</f>
+        <v>PB01</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -3937,16 +4058,16 @@
         <v>67</v>
       </c>
       <c r="B9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>379</v>
@@ -3958,7 +4079,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="K9" s="90" t="s">
         <v>387</v>
@@ -3967,16 +4088,16 @@
         <v>67</v>
       </c>
       <c r="N9" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P9" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="91" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="R9" s="91"/>
       <c r="S9" s="91" t="s">
@@ -3986,8 +4107,9 @@
         <v>62</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>416</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="V9" s="96"/>
       <c r="W9" s="99" t="s">
         <v>391</v>
       </c>
@@ -3996,104 +4118,86 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N10" s="5"/>
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K10" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="92">
+        <v>3</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="W10" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y10" s="98" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="K11" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y11" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" ref="AA11:AA13" si="1">M11</f>
-        <v>DEBUG</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" ref="AB11:AB13" si="2">N11</f>
-        <v>TCK_SWCLK</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" ref="AC11:AC13" si="3">O11</f>
-        <v>-</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" ref="AD11:AD13" si="4">Q11</f>
-        <v>PA01</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>414</v>
-      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>379</v>
@@ -4114,16 +4218,16 @@
         <v>131</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>379</v>
@@ -4141,23 +4245,23 @@
         <v>389</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA12:AA14" si="4">M12</f>
         <v>DEBUG</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="2"/>
-        <v>TMS_SWDIO</v>
+        <f t="shared" ref="AB12:AB14" si="5">N12</f>
+        <v>TCK_SWCLK</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AC12:AC14" si="6">O12</f>
         <v>-</v>
       </c>
       <c r="AD12" t="str">
-        <f t="shared" si="4"/>
-        <v>PA02</v>
+        <f t="shared" ref="AD12:AD14" si="7">Q12</f>
+        <v>PA01</v>
       </c>
       <c r="AE12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -4165,16 +4269,16 @@
         <v>131</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>379</v>
@@ -4195,16 +4299,16 @@
         <v>131</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>46</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>379</v>
@@ -4222,135 +4326,137 @@
         <v>389</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DEBUG</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>TMS_SWDIO</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="7"/>
+        <v>PA02</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y14" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="4"/>
+        <v>DEBUG</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="5"/>
         <v>TDO_SWO</v>
       </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="3"/>
+      <c r="AC14" t="str">
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="4"/>
+      <c r="AD14" t="str">
+        <f t="shared" si="7"/>
         <v>PA03</v>
       </c>
-      <c r="AE13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N14" s="5"/>
+      <c r="AE14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="K15" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y15" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA15" t="str">
-        <f t="shared" ref="AA15:AA16" si="5">M15</f>
-        <v>DIN</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" ref="AB15:AB16" si="6">N15</f>
-        <v>BTN0</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" ref="AC15:AC16" si="7">O15</f>
-        <v>H7</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" ref="AD15:AD16" si="8">Q15</f>
-        <v>PB00</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>414</v>
-      </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>379</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="K16" s="89" t="s">
         <v>388</v>
       </c>
@@ -4358,152 +4464,147 @@
         <v>77</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>379</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="9"/>
+      <c r="U16" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="Y16" s="95" t="s">
         <v>389</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA16:AA17" si="8">M16</f>
         <v>DIN</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AB16:AB17" si="9">N16</f>
+        <v>BTN0</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" ref="AC16:AC17" si="10">O16</f>
+        <v>H7</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" ref="AD16:AD17" si="11">Q16</f>
+        <v>PB00</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="K17" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="Y17" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="8"/>
+        <v>DIN</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="9"/>
         <v>ERR_TEMP</v>
       </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="7"/>
+      <c r="AC17" t="str">
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD17" t="str">
+        <f t="shared" si="11"/>
         <v>PA04</v>
       </c>
-      <c r="AE16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N17" s="5"/>
+      <c r="AE17" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y18" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA18" t="str">
-        <f t="shared" ref="AA18" si="9">M18</f>
-        <v>PWM</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ref="AB18" si="10">N18</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" ref="AC18" si="11">O18</f>
-        <v>-</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" ref="AD18" si="12">Q18</f>
-        <v>PA00</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>414</v>
-      </c>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>379</v>
@@ -4511,147 +4612,150 @@
       <c r="G19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="91" t="s">
+      <c r="H19" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y19" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ref="AA19" si="12">M19</f>
+        <v>PWM</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ref="AB19" si="13">N19</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" ref="AC19" si="14">O19</f>
+        <v>-</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" ref="AD19" si="15">Q19</f>
+        <v>PA00</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="201">
+        <v>1</v>
+      </c>
+      <c r="C20" s="200" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="202" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="200" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="200" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="202" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M20" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N20" s="203">
         <v>1</v>
       </c>
-      <c r="O19" s="91" t="s">
+      <c r="O20" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P20" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="Q19" s="91" t="s">
+      <c r="Q20" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91" t="s">
+      <c r="R20" s="202"/>
+      <c r="S20" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="91" t="s">
+      <c r="T20" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="91" t="s">
+      <c r="U20" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="V19" s="96"/>
-      <c r="W19" s="99" t="s">
+      <c r="V20" s="96"/>
+      <c r="W20" s="99" t="s">
         <v>391</v>
       </c>
-      <c r="Y19" s="98" t="s">
+      <c r="Y20" s="98" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N20" s="5"/>
-    </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y21" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA21" s="9" t="str">
-        <f t="shared" ref="AA21:AA23" si="13">M21</f>
-        <v>UART/US1</v>
-      </c>
-      <c r="AB21" s="9" t="str">
-        <f t="shared" ref="AB21:AB23" si="14">N21</f>
-        <v>TxD</v>
-      </c>
-      <c r="AC21" s="9" t="str">
-        <f t="shared" ref="AC21:AC23" si="15">O21</f>
-        <v>H12</v>
-      </c>
-      <c r="AD21" s="9" t="str">
-        <f t="shared" ref="AD21:AD23" si="16">Q21</f>
-        <v>PA05</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>379</v>
@@ -4672,16 +4776,16 @@
         <v>82</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>379</v>
@@ -4699,20 +4803,20 @@
         <v>389</v>
       </c>
       <c r="AA22" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AA22:AA24" si="16">M22</f>
         <v>UART/US1</v>
       </c>
       <c r="AB22" s="9" t="str">
-        <f t="shared" si="14"/>
-        <v>RxD</v>
+        <f t="shared" ref="AB22:AB24" si="17">N22</f>
+        <v>TxD</v>
       </c>
       <c r="AC22" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>H14</v>
+        <f t="shared" ref="AC22:AC24" si="18">O22</f>
+        <v>H12</v>
       </c>
       <c r="AD22" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v>PA06</v>
+        <f t="shared" ref="AD22:AD24" si="19">Q22</f>
+        <v>PA05</v>
       </c>
       <c r="AE22" s="9" t="s">
         <v>62</v>
@@ -4723,16 +4827,16 @@
         <v>82</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>379</v>
@@ -4743,147 +4847,164 @@
       <c r="H23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="K23" s="90" t="s">
-        <v>387</v>
-      </c>
-      <c r="M23" s="91" t="s">
+      <c r="I23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="O23" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91" t="s">
+      <c r="N23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="91" t="s">
+      <c r="T23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U23" s="91"/>
-      <c r="V23" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="W23" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="X23" s="97" t="s">
-        <v>72</v>
+      <c r="U23" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="Y23" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="AA23" t="str">
-        <f t="shared" si="13"/>
+      <c r="AA23" s="9" t="str">
+        <f t="shared" si="16"/>
         <v>UART/US1</v>
       </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="14"/>
+      <c r="AB23" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>RxD</v>
+      </c>
+      <c r="AC23" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>H14</v>
+      </c>
+      <c r="AD23" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>PA06</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="K24" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M24" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="O24" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="91"/>
+      <c r="V24" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="W24" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="X24" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="16"/>
+        <v>UART/US1</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="17"/>
         <v>ENABLE</v>
       </c>
-      <c r="AC23" t="str">
-        <f t="shared" si="15"/>
+      <c r="AC24" t="str">
+        <f t="shared" si="18"/>
         <v>-</v>
       </c>
-      <c r="AD23" t="str">
-        <f t="shared" si="16"/>
+      <c r="AD24" t="str">
+        <f t="shared" si="19"/>
         <v>PB04</v>
       </c>
-      <c r="AE23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N24" s="5"/>
+      <c r="AE24" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="K25" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y25" s="98" t="s">
-        <v>394</v>
-      </c>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>379</v>
@@ -4895,34 +5016,39 @@
         <v>62</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="K26" s="90" t="s">
-        <v>387</v>
-      </c>
-      <c r="M26" s="91" t="s">
+      <c r="K26" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q26" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91" t="s">
+      <c r="N26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="91" t="s">
+      <c r="T26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U26" s="91"/>
-      <c r="W26" s="99" t="s">
-        <v>391</v>
+      <c r="U26" s="9"/>
+      <c r="V26" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="Y26" s="98" t="s">
         <v>394</v>
@@ -4933,16 +5059,16 @@
         <v>88</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>379</v>
@@ -4953,9 +5079,7 @@
       <c r="H27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="I27" s="9"/>
       <c r="K27" s="90" t="s">
         <v>387</v>
       </c>
@@ -4963,16 +5087,16 @@
         <v>88</v>
       </c>
       <c r="N27" s="92" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="O27" s="91" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="P27" s="91" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="91" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="R27" s="91"/>
       <c r="S27" s="91" t="s">
@@ -4981,9 +5105,7 @@
       <c r="T27" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="U27" s="91" t="s">
-        <v>146</v>
-      </c>
+      <c r="U27" s="91"/>
       <c r="W27" s="99" t="s">
         <v>391</v>
       </c>
@@ -4992,104 +5114,86 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N28" s="5"/>
+      <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M28" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="U28" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="W28" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y28" s="98" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K29" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y29" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA29" t="str">
-        <f t="shared" ref="AA29:AA31" si="17">M29</f>
-        <v>SPI/US0</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" ref="AB29:AB31" si="18">N29</f>
-        <v>MOSI</v>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" ref="AC29:AC31" si="19">O29</f>
-        <v>H4</v>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" ref="AD29:AD31" si="20">Q29</f>
-        <v>PC00</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>414</v>
-      </c>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>379</v>
@@ -5110,16 +5214,16 @@
         <v>99</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R30" s="7" t="s">
         <v>379</v>
@@ -5137,23 +5241,23 @@
         <v>389</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AA30:AA32" si="20">M30</f>
         <v>SPI/US0</v>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="18"/>
-        <v>MISO</v>
+        <f t="shared" ref="AB30:AB32" si="21">N30</f>
+        <v>MOSI</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="19"/>
-        <v>H6</v>
+        <f t="shared" ref="AC30:AC32" si="22">O30</f>
+        <v>H4</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="20"/>
-        <v>PC01</v>
+        <f t="shared" ref="AD30:AD32" si="23">Q30</f>
+        <v>PC00</v>
       </c>
       <c r="AE30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -5161,16 +5265,16 @@
         <v>99</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>105</v>
+        <v>413</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>379</v>
@@ -5191,16 +5295,16 @@
         <v>99</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>105</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>379</v>
@@ -5218,253 +5322,268 @@
         <v>389</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>SPI/US0</v>
       </c>
       <c r="AB31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
+        <v>MISO</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="22"/>
+        <v>H6</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="23"/>
+        <v>PC01</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K32" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y32" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="20"/>
+        <v>SPI/US0</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="21"/>
         <v>SCLK</v>
       </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="19"/>
+      <c r="AC32" t="str">
+        <f t="shared" si="22"/>
         <v>H8</v>
       </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="20"/>
+      <c r="AD32" t="str">
+        <f t="shared" si="23"/>
         <v>PC02</v>
       </c>
-      <c r="AE31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="124" t="s">
+      <c r="AE32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B33" s="125" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="124" t="s">
+      <c r="C33" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="124" t="s">
-        <v>420</v>
-      </c>
-      <c r="E32" s="124" t="s">
+      <c r="D33" s="124" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124" t="s">
+      <c r="F33" s="124"/>
+      <c r="G33" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="124" t="s">
+      <c r="H33" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="I33" s="124" t="s">
         <v>405</v>
       </c>
-      <c r="K32" s="90" t="s">
+      <c r="K33" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M32" s="118" t="s">
+      <c r="M33" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="119" t="s">
+      <c r="N33" s="119" t="s">
         <v>403</v>
       </c>
-      <c r="O32" s="118" t="s">
+      <c r="O33" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="P32" s="118" t="s">
+      <c r="P33" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="Q32" s="118" t="s">
+      <c r="Q33" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118" t="s">
+      <c r="R33" s="118"/>
+      <c r="S33" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="118" t="s">
+      <c r="T33" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="U32" s="118" t="s">
+      <c r="U33" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="V32" s="96"/>
-      <c r="Y32" s="98" t="s">
+      <c r="V33" s="96"/>
+      <c r="Y33" s="98" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K33" s="89" t="s">
+      <c r="K34" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N34" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R34" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="T34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U34" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="Y33" s="95" t="s">
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="Y34" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="AA33" t="str">
-        <f t="shared" ref="AA33" si="21">M33</f>
+      <c r="AA34" t="str">
+        <f t="shared" ref="AA34" si="24">M34</f>
         <v>SPI</v>
       </c>
-      <c r="AB33" t="str">
-        <f t="shared" ref="AB33" si="22">N33</f>
+      <c r="AB34" t="str">
+        <f t="shared" ref="AB34" si="25">N34</f>
         <v>CS_HTP</v>
       </c>
-      <c r="AC33" t="str">
-        <f t="shared" ref="AC33" si="23">O33</f>
+      <c r="AC34" t="str">
+        <f t="shared" ref="AC34" si="26">O34</f>
         <v>H10</v>
       </c>
-      <c r="AD33" t="str">
-        <f t="shared" ref="AD33" si="24">Q33</f>
+      <c r="AD34" t="str">
+        <f t="shared" ref="AD34" si="27">Q34</f>
         <v>PC03</v>
       </c>
-      <c r="AE33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N34" s="5"/>
+      <c r="AE34" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="120" t="s">
-        <v>379</v>
-      </c>
-      <c r="G35" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K35" s="90" t="s">
-        <v>387</v>
-      </c>
-      <c r="M35" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="N35" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="O35" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="P35" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q35" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="T35" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="U35" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="W35" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="X35" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y35" s="98" t="s">
-        <v>424</v>
-      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="120" t="s">
         <v>379</v>
       </c>
       <c r="G36" s="93" t="s">
@@ -5476,39 +5595,42 @@
       <c r="I36" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K36" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M36" s="7" t="s">
+      <c r="K36" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M36" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="N36" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>66</v>
+      <c r="P36" s="93" t="s">
+        <v>117</v>
       </c>
       <c r="Q36" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="R36" s="93" t="s">
-        <v>379</v>
-      </c>
-      <c r="S36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="T36" s="7" t="s">
+      <c r="T36" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="U36" s="7" t="s">
+      <c r="U36" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="V36" s="96"/>
+      <c r="W36" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="X36" s="99" t="s">
+        <v>391</v>
+      </c>
       <c r="Y36" s="98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -5516,16 +5638,16 @@
         <v>124</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>379</v>
@@ -5546,16 +5668,16 @@
         <v>124</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R37" s="93" t="s">
         <v>379</v>
@@ -5571,77 +5693,78 @@
       </c>
       <c r="V37" s="96"/>
       <c r="Y37" s="98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N38" s="5"/>
+      <c r="A38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K38" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="R38" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="V38" s="96"/>
+      <c r="Y38" s="98" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
-        <v>418</v>
-      </c>
-      <c r="B39" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>391</v>
-      </c>
-      <c r="H39" s="121" t="s">
-        <v>391</v>
-      </c>
-      <c r="I39" s="121" t="s">
-        <v>425</v>
-      </c>
-      <c r="K39" s="89" t="s">
-        <v>388</v>
-      </c>
-      <c r="M39" s="121" t="s">
-        <v>418</v>
-      </c>
-      <c r="N39" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="P39" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q39" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="R39" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="S39" s="121" t="s">
-        <v>391</v>
-      </c>
-      <c r="T39" s="121" t="s">
-        <v>391</v>
-      </c>
-      <c r="U39" s="121" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y39" s="95" t="s">
-        <v>389</v>
-      </c>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="121" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="122" t="s">
         <v>46</v>
@@ -5653,7 +5776,7 @@
         <v>46</v>
       </c>
       <c r="E40" s="121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="121" t="s">
         <v>379</v>
@@ -5665,13 +5788,13 @@
         <v>391</v>
       </c>
       <c r="I40" s="121" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K40" s="89" t="s">
         <v>388</v>
       </c>
       <c r="M40" s="121" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N40" s="122" t="s">
         <v>46</v>
@@ -5683,7 +5806,7 @@
         <v>46</v>
       </c>
       <c r="Q40" s="121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R40" s="121" t="s">
         <v>379</v>
@@ -5695,76 +5818,118 @@
         <v>391</v>
       </c>
       <c r="U40" s="121" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Y40" s="95" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="14" t="s">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="B41" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="K42" s="90" t="s">
-        <v>387</v>
+      <c r="C41" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41" s="121" t="s">
+        <v>423</v>
+      </c>
+      <c r="K41" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="M41" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="N41" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="R41" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="S41" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="T41" s="121" t="s">
+        <v>391</v>
+      </c>
+      <c r="U41" s="121" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y41" s="95" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" s="123"/>
       <c r="C43" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>118</v>
+        <v>419</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="K43" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="N43" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="123"/>
       <c r="C44" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14" t="s">
@@ -5774,20 +5939,23 @@
         <v>46</v>
       </c>
       <c r="I44" s="14"/>
+      <c r="N44" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B45" s="123"/>
       <c r="C45" s="14" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14" t="s">
@@ -5800,17 +5968,17 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B46" s="123"/>
       <c r="C46" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14" t="s">
@@ -5820,27 +5988,22 @@
         <v>46</v>
       </c>
       <c r="I46" s="14"/>
-      <c r="K46" s="90" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B47" s="123"/>
       <c r="C47" s="14" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>379</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F47" s="14"/>
       <c r="G47" s="14" t="s">
         <v>62</v>
       </c>
@@ -5848,22 +6011,27 @@
         <v>46</v>
       </c>
       <c r="I47" s="14"/>
+      <c r="K47" s="90" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B48" s="123"/>
       <c r="C48" s="14" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="G48" s="14" t="s">
         <v>62</v>
       </c>
@@ -5871,7 +6039,30 @@
         <v>46</v>
       </c>
       <c r="I48" s="14"/>
-      <c r="K48" s="90" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="123"/>
+      <c r="C49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="K49" s="90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5883,6 +6074,816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AB112D-8FAF-4C8A-908E-EC2337794973}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G4" s="206"/>
+      <c r="I4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" s="96"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="G5" s="206"/>
+      <c r="I5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="N5" s="96"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="G6" s="206"/>
+      <c r="I6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
+      <c r="K6" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="N6" s="96"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="G7" s="206"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="N7" s="96"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G9" s="206"/>
+      <c r="I9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="206"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="N10" s="96"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="206"/>
+      <c r="I12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="206"/>
+      <c r="I13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="206"/>
+      <c r="I14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="206"/>
+      <c r="I16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="206"/>
+      <c r="I18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="206"/>
+      <c r="I20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="206"/>
+      <c r="I21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="206"/>
+      <c r="I23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" s="206"/>
+      <c r="I24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" s="206"/>
+      <c r="I25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="206"/>
+      <c r="I26" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="125" t="s">
+        <v>424</v>
+      </c>
+      <c r="K26" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="M26" s="124" t="s">
+        <v>430</v>
+      </c>
+      <c r="N26" s="96"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="G27" s="206"/>
+      <c r="I27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="N27" s="96"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="206"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="209" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="206"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="96"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>379</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="206"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="96"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" s="206"/>
+      <c r="I33" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="L33" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="M33" s="121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>423</v>
+      </c>
+      <c r="G34" s="206"/>
+      <c r="I34" s="121" t="s">
+        <v>416</v>
+      </c>
+      <c r="J34" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="M34" s="121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I36" t="s">
+        <v>429</v>
+      </c>
+      <c r="J36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="J37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B40" s="123"/>
+      <c r="C40" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91D2EB-48AA-4DA3-86CE-09F8F13536E8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6029,21 +7030,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -6151,45 +7152,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="154" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="178" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="158" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="178" t="s">
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180" t="s">
+      <c r="Q5" s="159"/>
+      <c r="R5" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="178" t="s">
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="187" t="s">
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="189"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="156"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -6224,45 +7225,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="135" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="193" t="s">
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="145" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193" t="s">
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="194" t="s">
+      <c r="Q6" s="145"/>
+      <c r="R6" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194" t="s">
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194" t="s">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -6303,29 +7304,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="186" t="s">
+      <c r="K7" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186" t="s">
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186" t="s">
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186" t="s">
+      <c r="S7" s="160"/>
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="186"/>
+      <c r="Y7" s="160"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -6761,7 +7762,7 @@
       <c r="E14" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="134"/>
+      <c r="F14" s="199"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -6789,7 +7790,7 @@
       <c r="AE14" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="134"/>
+      <c r="AF14" s="199"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -6832,67 +7833,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137" t="s">
+      <c r="I15" s="132"/>
+      <c r="J15" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="138"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197"/>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="198"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="128"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="135" t="s">
+      <c r="AH15" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="137" t="s">
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="196"/>
-      <c r="AM15" s="197"/>
-      <c r="AN15" s="197"/>
-      <c r="AO15" s="197"/>
-      <c r="AP15" s="197"/>
-      <c r="AQ15" s="197"/>
-      <c r="AR15" s="197"/>
-      <c r="AS15" s="197"/>
-      <c r="AT15" s="197"/>
-      <c r="AU15" s="197"/>
-      <c r="AV15" s="197"/>
-      <c r="AW15" s="197"/>
-      <c r="AX15" s="197"/>
-      <c r="AY15" s="197"/>
-      <c r="AZ15" s="197"/>
-      <c r="BA15" s="197"/>
-      <c r="BB15" s="197"/>
-      <c r="BC15" s="197"/>
-      <c r="BD15" s="197"/>
-      <c r="BE15" s="197"/>
-      <c r="BF15" s="197"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="127"/>
+      <c r="AN15" s="127"/>
+      <c r="AO15" s="127"/>
+      <c r="AP15" s="127"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="127"/>
+      <c r="AS15" s="127"/>
+      <c r="AT15" s="127"/>
+      <c r="AU15" s="127"/>
+      <c r="AV15" s="127"/>
+      <c r="AW15" s="127"/>
+      <c r="AX15" s="127"/>
+      <c r="AY15" s="127"/>
+      <c r="AZ15" s="127"/>
+      <c r="BA15" s="127"/>
+      <c r="BB15" s="127"/>
+      <c r="BC15" s="127"/>
+      <c r="BD15" s="127"/>
+      <c r="BE15" s="127"/>
+      <c r="BF15" s="127"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6913,33 +7914,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137" t="s">
+      <c r="K16" s="132"/>
+      <c r="L16" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="138"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="198"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="128"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -6947,33 +7948,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="135" t="s">
+      <c r="AJ16" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="137" t="s">
+      <c r="AK16" s="132"/>
+      <c r="AL16" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="196"/>
-      <c r="AO16" s="197"/>
-      <c r="AP16" s="197"/>
-      <c r="AQ16" s="197"/>
-      <c r="AR16" s="197"/>
-      <c r="AS16" s="197"/>
-      <c r="AT16" s="197"/>
-      <c r="AU16" s="197"/>
-      <c r="AV16" s="197"/>
-      <c r="AW16" s="197"/>
-      <c r="AX16" s="197"/>
-      <c r="AY16" s="197"/>
-      <c r="AZ16" s="197"/>
-      <c r="BA16" s="197"/>
-      <c r="BB16" s="197"/>
-      <c r="BC16" s="197"/>
-      <c r="BD16" s="197"/>
-      <c r="BE16" s="197"/>
-      <c r="BF16" s="197"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="127"/>
+      <c r="AP16" s="127"/>
+      <c r="AQ16" s="127"/>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="127"/>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="127"/>
+      <c r="BB16" s="127"/>
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6996,31 +7997,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="135" t="s">
+      <c r="L17" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="136"/>
-      <c r="N17" s="137" t="s">
+      <c r="M17" s="132"/>
+      <c r="N17" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="138"/>
-      <c r="P17" s="196"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="197"/>
-      <c r="S17" s="197"/>
-      <c r="T17" s="197"/>
-      <c r="U17" s="197"/>
-      <c r="V17" s="197"/>
-      <c r="W17" s="197"/>
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="198"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="128"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -7030,31 +8031,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="135" t="s">
+      <c r="AL17" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="136"/>
-      <c r="AN17" s="137" t="s">
+      <c r="AM17" s="132"/>
+      <c r="AN17" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="138"/>
-      <c r="AP17" s="196"/>
-      <c r="AQ17" s="197"/>
-      <c r="AR17" s="197"/>
-      <c r="AS17" s="197"/>
-      <c r="AT17" s="197"/>
-      <c r="AU17" s="197"/>
-      <c r="AV17" s="197"/>
-      <c r="AW17" s="197"/>
-      <c r="AX17" s="197"/>
-      <c r="AY17" s="197"/>
-      <c r="AZ17" s="197"/>
-      <c r="BA17" s="197"/>
-      <c r="BB17" s="197"/>
-      <c r="BC17" s="197"/>
-      <c r="BD17" s="197"/>
-      <c r="BE17" s="197"/>
-      <c r="BF17" s="197"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="126"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -7082,24 +8083,24 @@
       <c r="N18" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="142"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="197"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="197"/>
-      <c r="AB18" s="197"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="197"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="198"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="128"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -7114,24 +8115,24 @@
       <c r="AN18" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="142"/>
-      <c r="AP18" s="196"/>
-      <c r="AQ18" s="197"/>
-      <c r="AR18" s="197"/>
-      <c r="AS18" s="197"/>
-      <c r="AT18" s="197"/>
-      <c r="AU18" s="197"/>
-      <c r="AV18" s="197"/>
-      <c r="AW18" s="197"/>
-      <c r="AX18" s="197"/>
-      <c r="AY18" s="197"/>
-      <c r="AZ18" s="197"/>
-      <c r="BA18" s="197"/>
-      <c r="BB18" s="197"/>
-      <c r="BC18" s="197"/>
-      <c r="BD18" s="197"/>
-      <c r="BE18" s="197"/>
-      <c r="BF18" s="197"/>
+      <c r="AO18" s="134"/>
+      <c r="AP18" s="126"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="127"/>
+      <c r="AS18" s="127"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="127"/>
+      <c r="AV18" s="127"/>
+      <c r="AW18" s="127"/>
+      <c r="AX18" s="127"/>
+      <c r="AY18" s="127"/>
+      <c r="AZ18" s="127"/>
+      <c r="BA18" s="127"/>
+      <c r="BB18" s="127"/>
+      <c r="BC18" s="127"/>
+      <c r="BD18" s="127"/>
+      <c r="BE18" s="127"/>
+      <c r="BF18" s="127"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -7357,23 +8358,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="135" t="s">
+      <c r="T22" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="136"/>
-      <c r="V22" s="137" t="s">
+      <c r="U22" s="132"/>
+      <c r="V22" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="138"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="197"/>
-      <c r="AB22" s="197"/>
-      <c r="AC22" s="197"/>
-      <c r="AD22" s="197"/>
-      <c r="AE22" s="197"/>
-      <c r="AF22" s="198"/>
+      <c r="W22" s="130"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="128"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -7391,23 +8392,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="135" t="s">
+      <c r="AT22" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="136"/>
-      <c r="AV22" s="137" t="s">
+      <c r="AU22" s="132"/>
+      <c r="AV22" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="138"/>
-      <c r="AX22" s="196"/>
-      <c r="AY22" s="197"/>
-      <c r="AZ22" s="197"/>
-      <c r="BA22" s="197"/>
-      <c r="BB22" s="197"/>
-      <c r="BC22" s="197"/>
-      <c r="BD22" s="197"/>
-      <c r="BE22" s="197"/>
-      <c r="BF22" s="197"/>
+      <c r="AW22" s="130"/>
+      <c r="AX22" s="126"/>
+      <c r="AY22" s="127"/>
+      <c r="AZ22" s="127"/>
+      <c r="BA22" s="127"/>
+      <c r="BB22" s="127"/>
+      <c r="BC22" s="127"/>
+      <c r="BD22" s="127"/>
+      <c r="BE22" s="127"/>
+      <c r="BF22" s="127"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -7440,21 +8441,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="135" t="s">
+      <c r="V23" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="136"/>
-      <c r="X23" s="137" t="s">
+      <c r="W23" s="132"/>
+      <c r="X23" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="197"/>
-      <c r="AB23" s="197"/>
-      <c r="AC23" s="197"/>
-      <c r="AD23" s="197"/>
-      <c r="AE23" s="197"/>
-      <c r="AF23" s="198"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="128"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -7474,21 +8475,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="135" t="s">
+      <c r="AV23" s="131" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="136"/>
-      <c r="AX23" s="137" t="s">
+      <c r="AW23" s="132"/>
+      <c r="AX23" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="138"/>
-      <c r="AZ23" s="196"/>
-      <c r="BA23" s="197"/>
-      <c r="BB23" s="197"/>
-      <c r="BC23" s="197"/>
-      <c r="BD23" s="197"/>
-      <c r="BE23" s="197"/>
-      <c r="BF23" s="197"/>
+      <c r="AY23" s="130"/>
+      <c r="AZ23" s="126"/>
+      <c r="BA23" s="127"/>
+      <c r="BB23" s="127"/>
+      <c r="BC23" s="127"/>
+      <c r="BD23" s="127"/>
+      <c r="BE23" s="127"/>
+      <c r="BF23" s="127"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -7523,19 +8524,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="135" t="s">
+      <c r="X24" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="137" t="s">
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="197"/>
-      <c r="AD24" s="197"/>
-      <c r="AE24" s="197"/>
-      <c r="AF24" s="198"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="128"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -7557,19 +8558,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="135" t="s">
+      <c r="AX24" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="136"/>
-      <c r="AZ24" s="137" t="s">
+      <c r="AY24" s="132"/>
+      <c r="AZ24" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="138"/>
-      <c r="BB24" s="196"/>
-      <c r="BC24" s="197"/>
-      <c r="BD24" s="197"/>
-      <c r="BE24" s="197"/>
-      <c r="BF24" s="197"/>
+      <c r="BA24" s="130"/>
+      <c r="BB24" s="126"/>
+      <c r="BC24" s="127"/>
+      <c r="BD24" s="127"/>
+      <c r="BE24" s="127"/>
+      <c r="BF24" s="127"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -7609,14 +8610,14 @@
       <c r="Z25" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="142"/>
-      <c r="AB25" s="137" t="s">
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="197"/>
-      <c r="AF25" s="198"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="128"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -7643,14 +8644,14 @@
       <c r="AZ25" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="142"/>
-      <c r="BB25" s="137" t="s">
+      <c r="BA25" s="134"/>
+      <c r="BB25" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="138"/>
-      <c r="BD25" s="196"/>
-      <c r="BE25" s="197"/>
-      <c r="BF25" s="197"/>
+      <c r="BC25" s="130"/>
+      <c r="BD25" s="126"/>
+      <c r="BE25" s="127"/>
+      <c r="BF25" s="127"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -7908,29 +8909,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="139" t="s">
+      <c r="E30" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="140"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="140"/>
-      <c r="J30" s="139" t="s">
+      <c r="I30" s="177"/>
+      <c r="J30" s="176" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="140"/>
-      <c r="L30" s="139" t="s">
+      <c r="K30" s="177"/>
+      <c r="L30" s="176" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="140"/>
-      <c r="N30" s="139" t="s">
+      <c r="M30" s="177"/>
+      <c r="N30" s="176" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="140"/>
+      <c r="O30" s="177"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -7939,50 +8940,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="139" t="s">
+      <c r="T30" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="140"/>
-      <c r="V30" s="139" t="s">
+      <c r="U30" s="177"/>
+      <c r="V30" s="176" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="140"/>
-      <c r="X30" s="139" t="s">
+      <c r="W30" s="177"/>
+      <c r="X30" s="176" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="140"/>
-      <c r="Z30" s="139" t="s">
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="140"/>
-      <c r="AB30" s="143" t="s">
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="139" t="s">
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="140"/>
+      <c r="AF30" s="177"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="139" t="s">
+      <c r="AH30" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="139" t="s">
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="176" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="140"/>
-      <c r="AL30" s="139" t="s">
+      <c r="AK30" s="177"/>
+      <c r="AL30" s="176" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="140"/>
-      <c r="AN30" s="139" t="s">
+      <c r="AM30" s="177"/>
+      <c r="AN30" s="176" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="140"/>
+      <c r="AO30" s="177"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -7991,27 +8992,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="139" t="s">
+      <c r="AT30" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="140"/>
-      <c r="AV30" s="139" t="s">
+      <c r="AU30" s="177"/>
+      <c r="AV30" s="176" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="139" t="s">
+      <c r="AW30" s="177"/>
+      <c r="AX30" s="176" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="140"/>
-      <c r="AZ30" s="139" t="s">
+      <c r="AY30" s="177"/>
+      <c r="AZ30" s="176" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="140"/>
-      <c r="BB30" s="143" t="s">
+      <c r="BA30" s="177"/>
+      <c r="BB30" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="144"/>
-      <c r="BD30" s="145"/>
+      <c r="BC30" s="151"/>
+      <c r="BD30" s="152"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -8023,10 +9024,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="141" t="s">
+      <c r="E31" s="153" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="141"/>
+      <c r="F31" s="153"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8053,10 +9054,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="141" t="s">
+      <c r="AE31" s="153" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="141"/>
+      <c r="AF31" s="153"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -8166,75 +9167,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="169" t="s">
+      <c r="H33" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="139" t="s">
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="176" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="140"/>
-      <c r="V33" s="143" t="s">
+      <c r="U33" s="177"/>
+      <c r="V33" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="145"/>
-      <c r="X33" s="169" t="s">
+      <c r="W33" s="152"/>
+      <c r="X33" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="170"/>
-      <c r="AC33" s="170"/>
-      <c r="AD33" s="170"/>
-      <c r="AE33" s="171"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="175"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="169" t="s">
+      <c r="AH33" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="170"/>
-      <c r="AJ33" s="170"/>
-      <c r="AK33" s="170"/>
-      <c r="AL33" s="170"/>
-      <c r="AM33" s="170"/>
-      <c r="AN33" s="170"/>
-      <c r="AO33" s="170"/>
-      <c r="AP33" s="170"/>
-      <c r="AQ33" s="170"/>
-      <c r="AR33" s="170"/>
-      <c r="AS33" s="171"/>
-      <c r="AT33" s="139" t="s">
+      <c r="AI33" s="174"/>
+      <c r="AJ33" s="174"/>
+      <c r="AK33" s="174"/>
+      <c r="AL33" s="174"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="174"/>
+      <c r="AO33" s="174"/>
+      <c r="AP33" s="174"/>
+      <c r="AQ33" s="174"/>
+      <c r="AR33" s="174"/>
+      <c r="AS33" s="175"/>
+      <c r="AT33" s="176" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="140"/>
-      <c r="AV33" s="143" t="s">
+      <c r="AU33" s="177"/>
+      <c r="AV33" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="145"/>
-      <c r="AX33" s="169" t="s">
+      <c r="AW33" s="152"/>
+      <c r="AX33" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="170"/>
-      <c r="AZ33" s="170"/>
-      <c r="BA33" s="170"/>
-      <c r="BB33" s="170"/>
-      <c r="BC33" s="170"/>
-      <c r="BD33" s="171"/>
+      <c r="AY33" s="174"/>
+      <c r="AZ33" s="174"/>
+      <c r="BA33" s="174"/>
+      <c r="BB33" s="174"/>
+      <c r="BC33" s="174"/>
+      <c r="BD33" s="175"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -8246,10 +9247,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="141" t="s">
+      <c r="E34" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="141"/>
+      <c r="F34" s="153"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -8265,10 +9266,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="141" t="s">
+      <c r="T34" s="153" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="141"/>
+      <c r="U34" s="153"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -8297,10 +9298,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="141" t="s">
+      <c r="AT34" s="153" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="141"/>
+      <c r="AU34" s="153"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -8571,33 +9572,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="172" t="s">
+      <c r="E39" s="168" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="173"/>
-      <c r="G39" s="174" t="s">
+      <c r="F39" s="169"/>
+      <c r="G39" s="171" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="175"/>
+      <c r="H39" s="172"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="142"/>
+      <c r="K39" s="134"/>
       <c r="L39" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="142"/>
+      <c r="M39" s="134"/>
       <c r="N39" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="142"/>
+      <c r="O39" s="134"/>
       <c r="P39" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="142"/>
+      <c r="Q39" s="134"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -8609,47 +9610,47 @@
       <c r="V39" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="142"/>
+      <c r="W39" s="134"/>
       <c r="X39" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="142"/>
+      <c r="Y39" s="134"/>
       <c r="Z39" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="142"/>
+      <c r="AA39" s="134"/>
       <c r="AB39" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="142"/>
-      <c r="AD39" s="137" t="s">
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="177"/>
-      <c r="AF39" s="138"/>
+      <c r="AE39" s="170"/>
+      <c r="AF39" s="130"/>
       <c r="AG39" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="142"/>
+      <c r="AH39" s="134"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="142"/>
+      <c r="AK39" s="134"/>
       <c r="AL39" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="142"/>
+      <c r="AM39" s="134"/>
       <c r="AN39" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="142"/>
+      <c r="AO39" s="134"/>
       <c r="AP39" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="142"/>
+      <c r="AQ39" s="134"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -8678,14 +9679,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="176" t="s">
+      <c r="E40" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176" t="s">
+      <c r="F40" s="146"/>
+      <c r="G40" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="176"/>
+      <c r="H40" s="146"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -8712,10 +9713,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="176" t="s">
+      <c r="AG40" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="176"/>
+      <c r="AH40" s="146"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -8754,24 +9755,24 @@
       <c r="E41" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="142"/>
+      <c r="F41" s="134"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="142"/>
+      <c r="I41" s="134"/>
       <c r="J41" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="142"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="174" t="s">
+      <c r="K41" s="134"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="169"/>
+      <c r="N41" s="171" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="175"/>
+      <c r="O41" s="172"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -8783,47 +9784,47 @@
       <c r="T41" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="142"/>
+      <c r="U41" s="134"/>
       <c r="V41" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="142"/>
+      <c r="W41" s="134"/>
       <c r="X41" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="142"/>
+      <c r="Y41" s="134"/>
       <c r="Z41" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="142"/>
-      <c r="AB41" s="137" t="s">
+      <c r="AA41" s="134"/>
+      <c r="AB41" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="177"/>
-      <c r="AD41" s="138"/>
+      <c r="AC41" s="170"/>
+      <c r="AD41" s="130"/>
       <c r="AE41" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="142"/>
+      <c r="AF41" s="134"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="142"/>
+      <c r="AI41" s="134"/>
       <c r="AJ41" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="142"/>
+      <c r="AK41" s="134"/>
       <c r="AL41" s="133" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="142"/>
+      <c r="AM41" s="134"/>
       <c r="AN41" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="142"/>
+      <c r="AO41" s="134"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -8835,24 +9836,24 @@
       <c r="AT41" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="142"/>
+      <c r="AU41" s="134"/>
       <c r="AV41" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="142"/>
+      <c r="AW41" s="134"/>
       <c r="AX41" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="142"/>
+      <c r="AY41" s="134"/>
       <c r="AZ41" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="142"/>
-      <c r="BB41" s="137" t="s">
+      <c r="BA41" s="134"/>
+      <c r="BB41" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="177"/>
-      <c r="BD41" s="138"/>
+      <c r="BC41" s="170"/>
+      <c r="BD41" s="130"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -8864,10 +9865,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="176" t="s">
+      <c r="E42" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="176"/>
+      <c r="F42" s="146"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -8894,10 +9895,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="176" t="s">
+      <c r="AE42" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="176"/>
+      <c r="AF42" s="146"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -9007,75 +10008,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="183" t="s">
+      <c r="H44" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="184"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="184"/>
-      <c r="M44" s="184"/>
-      <c r="N44" s="184"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="184"/>
-      <c r="S44" s="185"/>
-      <c r="T44" s="172" t="s">
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="173"/>
-      <c r="V44" s="137" t="s">
+      <c r="U44" s="169"/>
+      <c r="V44" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="138"/>
-      <c r="X44" s="183" t="s">
+      <c r="W44" s="130"/>
+      <c r="X44" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="184"/>
-      <c r="Z44" s="184"/>
-      <c r="AA44" s="184"/>
-      <c r="AB44" s="184"/>
-      <c r="AC44" s="184"/>
-      <c r="AD44" s="184"/>
-      <c r="AE44" s="185"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="166"/>
+      <c r="AD44" s="166"/>
+      <c r="AE44" s="167"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="183" t="s">
+      <c r="AH44" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="184"/>
-      <c r="AJ44" s="184"/>
-      <c r="AK44" s="184"/>
-      <c r="AL44" s="184"/>
-      <c r="AM44" s="184"/>
-      <c r="AN44" s="184"/>
-      <c r="AO44" s="184"/>
-      <c r="AP44" s="184"/>
-      <c r="AQ44" s="184"/>
-      <c r="AR44" s="184"/>
-      <c r="AS44" s="185"/>
+      <c r="AI44" s="166"/>
+      <c r="AJ44" s="166"/>
+      <c r="AK44" s="166"/>
+      <c r="AL44" s="166"/>
+      <c r="AM44" s="166"/>
+      <c r="AN44" s="166"/>
+      <c r="AO44" s="166"/>
+      <c r="AP44" s="166"/>
+      <c r="AQ44" s="166"/>
+      <c r="AR44" s="166"/>
+      <c r="AS44" s="167"/>
       <c r="AT44" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="142"/>
-      <c r="AV44" s="137" t="s">
+      <c r="AU44" s="134"/>
+      <c r="AV44" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="138"/>
-      <c r="AX44" s="183" t="s">
+      <c r="AW44" s="130"/>
+      <c r="AX44" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="184"/>
-      <c r="AZ44" s="184"/>
-      <c r="BA44" s="184"/>
-      <c r="BB44" s="184"/>
-      <c r="BC44" s="184"/>
-      <c r="BD44" s="185"/>
+      <c r="AY44" s="166"/>
+      <c r="AZ44" s="166"/>
+      <c r="BA44" s="166"/>
+      <c r="BB44" s="166"/>
+      <c r="BC44" s="166"/>
+      <c r="BD44" s="167"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -9087,10 +10088,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="176" t="s">
+      <c r="E45" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="176"/>
+      <c r="F45" s="146"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -9106,10 +10107,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="176" t="s">
+      <c r="T45" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="176"/>
+      <c r="U45" s="146"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -9138,10 +10139,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="176" t="s">
+      <c r="AT45" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="176"/>
+      <c r="AU45" s="146"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -9170,70 +10171,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="183" t="s">
+      <c r="G46" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="184"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
-      <c r="N46" s="184"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="184"/>
-      <c r="Q46" s="184"/>
-      <c r="R46" s="184"/>
-      <c r="S46" s="184"/>
-      <c r="T46" s="184"/>
-      <c r="U46" s="184"/>
-      <c r="V46" s="184"/>
-      <c r="W46" s="184"/>
-      <c r="X46" s="184"/>
-      <c r="Y46" s="184"/>
-      <c r="Z46" s="184"/>
-      <c r="AA46" s="184"/>
-      <c r="AB46" s="184"/>
-      <c r="AC46" s="184"/>
-      <c r="AD46" s="184"/>
-      <c r="AE46" s="185"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
+      <c r="S46" s="166"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="166"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="166"/>
+      <c r="AA46" s="166"/>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
+      <c r="AE46" s="167"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="183" t="s">
+      <c r="AH46" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="184"/>
-      <c r="AJ46" s="184"/>
-      <c r="AK46" s="184"/>
-      <c r="AL46" s="184"/>
-      <c r="AM46" s="184"/>
-      <c r="AN46" s="184"/>
-      <c r="AO46" s="184"/>
-      <c r="AP46" s="184"/>
-      <c r="AQ46" s="184"/>
-      <c r="AR46" s="184"/>
-      <c r="AS46" s="185"/>
+      <c r="AI46" s="166"/>
+      <c r="AJ46" s="166"/>
+      <c r="AK46" s="166"/>
+      <c r="AL46" s="166"/>
+      <c r="AM46" s="166"/>
+      <c r="AN46" s="166"/>
+      <c r="AO46" s="166"/>
+      <c r="AP46" s="166"/>
+      <c r="AQ46" s="166"/>
+      <c r="AR46" s="166"/>
+      <c r="AS46" s="167"/>
       <c r="AT46" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="142"/>
-      <c r="AV46" s="137" t="s">
+      <c r="AU46" s="134"/>
+      <c r="AV46" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="138"/>
-      <c r="AX46" s="183" t="s">
+      <c r="AW46" s="130"/>
+      <c r="AX46" s="165" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="184"/>
-      <c r="AZ46" s="184"/>
-      <c r="BA46" s="184"/>
-      <c r="BB46" s="184"/>
-      <c r="BC46" s="184"/>
-      <c r="BD46" s="185"/>
+      <c r="AY46" s="166"/>
+      <c r="AZ46" s="166"/>
+      <c r="BA46" s="166"/>
+      <c r="BB46" s="166"/>
+      <c r="BC46" s="166"/>
+      <c r="BD46" s="167"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -9290,10 +10291,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="176" t="s">
+      <c r="AT47" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="176"/>
+      <c r="AU47" s="146"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -9684,20 +10685,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="130" t="s">
+      <c r="E54" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="130" t="s">
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="131"/>
-      <c r="N54" s="199"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="138"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -9818,20 +10819,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="190" t="s">
+      <c r="E56" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="192"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="190" t="s">
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="141"/>
+      <c r="L56" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="192"/>
-      <c r="N56" s="191"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="141"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -12303,68 +13304,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="130" t="s">
+      <c r="E95" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="131"/>
-      <c r="G95" s="131"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="131"/>
-      <c r="J95" s="131"/>
-      <c r="K95" s="132"/>
-      <c r="L95" s="130" t="s">
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="157"/>
+      <c r="L95" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="131"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="166" t="s">
+      <c r="M95" s="137"/>
+      <c r="N95" s="157"/>
+      <c r="O95" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="167"/>
-      <c r="Q95" s="167"/>
-      <c r="R95" s="167"/>
-      <c r="S95" s="167"/>
-      <c r="T95" s="168"/>
-      <c r="U95" s="166" t="s">
+      <c r="P95" s="148"/>
+      <c r="Q95" s="148"/>
+      <c r="R95" s="148"/>
+      <c r="S95" s="148"/>
+      <c r="T95" s="149"/>
+      <c r="U95" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="167"/>
-      <c r="W95" s="167"/>
-      <c r="X95" s="167"/>
-      <c r="Y95" s="167"/>
-      <c r="Z95" s="167"/>
-      <c r="AA95" s="167"/>
-      <c r="AB95" s="168"/>
-      <c r="AC95" s="166" t="s">
+      <c r="V95" s="148"/>
+      <c r="W95" s="148"/>
+      <c r="X95" s="148"/>
+      <c r="Y95" s="148"/>
+      <c r="Z95" s="148"/>
+      <c r="AA95" s="148"/>
+      <c r="AB95" s="149"/>
+      <c r="AC95" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="167"/>
-      <c r="AE95" s="167"/>
-      <c r="AF95" s="167"/>
-      <c r="AG95" s="167"/>
-      <c r="AH95" s="167"/>
-      <c r="AI95" s="167"/>
-      <c r="AJ95" s="168"/>
-      <c r="AK95" s="166" t="s">
+      <c r="AD95" s="148"/>
+      <c r="AE95" s="148"/>
+      <c r="AF95" s="148"/>
+      <c r="AG95" s="148"/>
+      <c r="AH95" s="148"/>
+      <c r="AI95" s="148"/>
+      <c r="AJ95" s="149"/>
+      <c r="AK95" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="167"/>
-      <c r="AM95" s="167"/>
-      <c r="AN95" s="167"/>
-      <c r="AO95" s="167"/>
-      <c r="AP95" s="167"/>
-      <c r="AQ95" s="167"/>
-      <c r="AR95" s="168"/>
-      <c r="AS95" s="163" t="s">
+      <c r="AL95" s="148"/>
+      <c r="AM95" s="148"/>
+      <c r="AN95" s="148"/>
+      <c r="AO95" s="148"/>
+      <c r="AP95" s="148"/>
+      <c r="AQ95" s="148"/>
+      <c r="AR95" s="149"/>
+      <c r="AS95" s="192" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="164"/>
-      <c r="AU95" s="164"/>
-      <c r="AV95" s="164"/>
-      <c r="AW95" s="164"/>
-      <c r="AX95" s="164"/>
-      <c r="AY95" s="164"/>
-      <c r="AZ95" s="165"/>
+      <c r="AT95" s="193"/>
+      <c r="AU95" s="193"/>
+      <c r="AV95" s="193"/>
+      <c r="AW95" s="193"/>
+      <c r="AX95" s="193"/>
+      <c r="AY95" s="193"/>
+      <c r="AZ95" s="194"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -12469,68 +13470,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="190" t="s">
+      <c r="E97" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="192"/>
-      <c r="G97" s="192"/>
-      <c r="H97" s="192"/>
-      <c r="I97" s="192"/>
-      <c r="J97" s="192"/>
-      <c r="K97" s="191"/>
-      <c r="L97" s="190" t="s">
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="140"/>
+      <c r="J97" s="140"/>
+      <c r="K97" s="141"/>
+      <c r="L97" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="192"/>
-      <c r="N97" s="192"/>
-      <c r="O97" s="190" t="s">
+      <c r="M97" s="140"/>
+      <c r="N97" s="140"/>
+      <c r="O97" s="139" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="192"/>
-      <c r="Q97" s="192"/>
-      <c r="R97" s="192"/>
-      <c r="S97" s="192"/>
-      <c r="T97" s="191"/>
-      <c r="U97" s="190" t="s">
+      <c r="P97" s="140"/>
+      <c r="Q97" s="140"/>
+      <c r="R97" s="140"/>
+      <c r="S97" s="140"/>
+      <c r="T97" s="141"/>
+      <c r="U97" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="192"/>
-      <c r="W97" s="192"/>
-      <c r="X97" s="192"/>
-      <c r="Y97" s="192"/>
-      <c r="Z97" s="192"/>
-      <c r="AA97" s="192"/>
-      <c r="AB97" s="191"/>
-      <c r="AC97" s="190" t="s">
+      <c r="V97" s="140"/>
+      <c r="W97" s="140"/>
+      <c r="X97" s="140"/>
+      <c r="Y97" s="140"/>
+      <c r="Z97" s="140"/>
+      <c r="AA97" s="140"/>
+      <c r="AB97" s="141"/>
+      <c r="AC97" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="192"/>
-      <c r="AE97" s="192"/>
-      <c r="AF97" s="192"/>
-      <c r="AG97" s="192"/>
-      <c r="AH97" s="192"/>
-      <c r="AI97" s="192"/>
-      <c r="AJ97" s="191"/>
-      <c r="AK97" s="190" t="s">
+      <c r="AD97" s="140"/>
+      <c r="AE97" s="140"/>
+      <c r="AF97" s="140"/>
+      <c r="AG97" s="140"/>
+      <c r="AH97" s="140"/>
+      <c r="AI97" s="140"/>
+      <c r="AJ97" s="141"/>
+      <c r="AK97" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="192"/>
-      <c r="AM97" s="192"/>
-      <c r="AN97" s="192"/>
-      <c r="AO97" s="192"/>
-      <c r="AP97" s="192"/>
-      <c r="AQ97" s="192"/>
-      <c r="AR97" s="191"/>
-      <c r="AS97" s="192" t="s">
+      <c r="AL97" s="140"/>
+      <c r="AM97" s="140"/>
+      <c r="AN97" s="140"/>
+      <c r="AO97" s="140"/>
+      <c r="AP97" s="140"/>
+      <c r="AQ97" s="140"/>
+      <c r="AR97" s="141"/>
+      <c r="AS97" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="192"/>
-      <c r="AU97" s="192"/>
-      <c r="AV97" s="192"/>
-      <c r="AW97" s="192"/>
-      <c r="AX97" s="192"/>
-      <c r="AY97" s="192"/>
-      <c r="AZ97" s="191"/>
+      <c r="AT97" s="140"/>
+      <c r="AU97" s="140"/>
+      <c r="AV97" s="140"/>
+      <c r="AW97" s="140"/>
+      <c r="AX97" s="140"/>
+      <c r="AY97" s="140"/>
+      <c r="AZ97" s="141"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -12605,68 +13606,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="157" t="s">
+      <c r="E99" s="189" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="158"/>
-      <c r="I99" s="158"/>
-      <c r="J99" s="158"/>
-      <c r="K99" s="159"/>
-      <c r="L99" s="160" t="s">
+      <c r="F99" s="190"/>
+      <c r="G99" s="190"/>
+      <c r="H99" s="190"/>
+      <c r="I99" s="190"/>
+      <c r="J99" s="190"/>
+      <c r="K99" s="191"/>
+      <c r="L99" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="161"/>
-      <c r="N99" s="162"/>
-      <c r="O99" s="154" t="s">
+      <c r="M99" s="143"/>
+      <c r="N99" s="144"/>
+      <c r="O99" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="155"/>
-      <c r="Q99" s="155"/>
-      <c r="R99" s="155"/>
-      <c r="S99" s="155"/>
-      <c r="T99" s="156"/>
-      <c r="U99" s="154" t="s">
+      <c r="P99" s="187"/>
+      <c r="Q99" s="187"/>
+      <c r="R99" s="187"/>
+      <c r="S99" s="187"/>
+      <c r="T99" s="188"/>
+      <c r="U99" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="155"/>
-      <c r="W99" s="155"/>
-      <c r="X99" s="155"/>
-      <c r="Y99" s="155"/>
-      <c r="Z99" s="155"/>
-      <c r="AA99" s="155"/>
-      <c r="AB99" s="156"/>
-      <c r="AC99" s="154" t="s">
+      <c r="V99" s="187"/>
+      <c r="W99" s="187"/>
+      <c r="X99" s="187"/>
+      <c r="Y99" s="187"/>
+      <c r="Z99" s="187"/>
+      <c r="AA99" s="187"/>
+      <c r="AB99" s="188"/>
+      <c r="AC99" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="155"/>
-      <c r="AE99" s="155"/>
-      <c r="AF99" s="155"/>
-      <c r="AG99" s="155"/>
-      <c r="AH99" s="155"/>
-      <c r="AI99" s="155"/>
-      <c r="AJ99" s="156"/>
-      <c r="AK99" s="154" t="s">
+      <c r="AD99" s="187"/>
+      <c r="AE99" s="187"/>
+      <c r="AF99" s="187"/>
+      <c r="AG99" s="187"/>
+      <c r="AH99" s="187"/>
+      <c r="AI99" s="187"/>
+      <c r="AJ99" s="188"/>
+      <c r="AK99" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="155"/>
-      <c r="AM99" s="155"/>
-      <c r="AN99" s="155"/>
-      <c r="AO99" s="155"/>
-      <c r="AP99" s="155"/>
-      <c r="AQ99" s="155"/>
-      <c r="AR99" s="156"/>
-      <c r="AS99" s="154" t="s">
+      <c r="AL99" s="187"/>
+      <c r="AM99" s="187"/>
+      <c r="AN99" s="187"/>
+      <c r="AO99" s="187"/>
+      <c r="AP99" s="187"/>
+      <c r="AQ99" s="187"/>
+      <c r="AR99" s="188"/>
+      <c r="AS99" s="186" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="155"/>
-      <c r="AU99" s="155"/>
-      <c r="AV99" s="155"/>
-      <c r="AW99" s="155"/>
-      <c r="AX99" s="155"/>
-      <c r="AY99" s="155"/>
-      <c r="AZ99" s="156"/>
+      <c r="AT99" s="187"/>
+      <c r="AU99" s="187"/>
+      <c r="AV99" s="187"/>
+      <c r="AW99" s="187"/>
+      <c r="AX99" s="187"/>
+      <c r="AY99" s="187"/>
+      <c r="AZ99" s="188"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -12808,68 +13809,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="130" t="s">
+      <c r="E102" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="131"/>
-      <c r="G102" s="131"/>
-      <c r="H102" s="131"/>
-      <c r="I102" s="131"/>
-      <c r="J102" s="131"/>
-      <c r="K102" s="132"/>
-      <c r="L102" s="130" t="s">
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="137"/>
+      <c r="K102" s="157"/>
+      <c r="L102" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="131"/>
-      <c r="N102" s="132"/>
-      <c r="O102" s="130" t="s">
+      <c r="M102" s="137"/>
+      <c r="N102" s="157"/>
+      <c r="O102" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="131"/>
-      <c r="Q102" s="131"/>
-      <c r="R102" s="132"/>
-      <c r="S102" s="130" t="s">
+      <c r="P102" s="137"/>
+      <c r="Q102" s="137"/>
+      <c r="R102" s="157"/>
+      <c r="S102" s="136" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="131"/>
-      <c r="U102" s="131"/>
-      <c r="V102" s="131"/>
-      <c r="W102" s="131"/>
-      <c r="X102" s="131"/>
-      <c r="Y102" s="131"/>
-      <c r="Z102" s="131"/>
-      <c r="AA102" s="131"/>
-      <c r="AB102" s="131"/>
-      <c r="AC102" s="131"/>
-      <c r="AD102" s="132"/>
-      <c r="AE102" s="130" t="s">
+      <c r="T102" s="137"/>
+      <c r="U102" s="137"/>
+      <c r="V102" s="137"/>
+      <c r="W102" s="137"/>
+      <c r="X102" s="137"/>
+      <c r="Y102" s="137"/>
+      <c r="Z102" s="137"/>
+      <c r="AA102" s="137"/>
+      <c r="AB102" s="137"/>
+      <c r="AC102" s="137"/>
+      <c r="AD102" s="157"/>
+      <c r="AE102" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="131"/>
-      <c r="AG102" s="131"/>
-      <c r="AH102" s="131"/>
-      <c r="AI102" s="131"/>
-      <c r="AJ102" s="131"/>
-      <c r="AK102" s="131"/>
-      <c r="AL102" s="131"/>
-      <c r="AM102" s="131"/>
-      <c r="AN102" s="131"/>
-      <c r="AO102" s="131"/>
-      <c r="AP102" s="132"/>
-      <c r="AQ102" s="130" t="s">
+      <c r="AF102" s="137"/>
+      <c r="AG102" s="137"/>
+      <c r="AH102" s="137"/>
+      <c r="AI102" s="137"/>
+      <c r="AJ102" s="137"/>
+      <c r="AK102" s="137"/>
+      <c r="AL102" s="137"/>
+      <c r="AM102" s="137"/>
+      <c r="AN102" s="137"/>
+      <c r="AO102" s="137"/>
+      <c r="AP102" s="157"/>
+      <c r="AQ102" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="132"/>
-      <c r="AS102" s="130" t="s">
+      <c r="AR102" s="157"/>
+      <c r="AS102" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="131"/>
-      <c r="AU102" s="131"/>
-      <c r="AV102" s="131"/>
-      <c r="AW102" s="131"/>
-      <c r="AX102" s="131"/>
-      <c r="AY102" s="131"/>
-      <c r="AZ102" s="132"/>
+      <c r="AT102" s="137"/>
+      <c r="AU102" s="137"/>
+      <c r="AV102" s="137"/>
+      <c r="AW102" s="137"/>
+      <c r="AX102" s="137"/>
+      <c r="AY102" s="137"/>
+      <c r="AZ102" s="157"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -12972,68 +13973,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="190" t="s">
+      <c r="E104" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="192"/>
-      <c r="G104" s="192"/>
-      <c r="H104" s="192"/>
-      <c r="I104" s="192"/>
-      <c r="J104" s="192"/>
-      <c r="K104" s="191"/>
-      <c r="L104" s="190" t="s">
+      <c r="F104" s="140"/>
+      <c r="G104" s="140"/>
+      <c r="H104" s="140"/>
+      <c r="I104" s="140"/>
+      <c r="J104" s="140"/>
+      <c r="K104" s="141"/>
+      <c r="L104" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="192"/>
-      <c r="N104" s="191"/>
-      <c r="O104" s="190" t="s">
+      <c r="M104" s="140"/>
+      <c r="N104" s="141"/>
+      <c r="O104" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="192"/>
-      <c r="Q104" s="192"/>
-      <c r="R104" s="191"/>
-      <c r="S104" s="190" t="s">
+      <c r="P104" s="140"/>
+      <c r="Q104" s="140"/>
+      <c r="R104" s="141"/>
+      <c r="S104" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="192"/>
-      <c r="U104" s="192"/>
-      <c r="V104" s="192"/>
-      <c r="W104" s="192"/>
-      <c r="X104" s="192"/>
-      <c r="Y104" s="192"/>
-      <c r="Z104" s="192"/>
-      <c r="AA104" s="192"/>
-      <c r="AB104" s="192"/>
-      <c r="AC104" s="192"/>
-      <c r="AD104" s="191"/>
-      <c r="AE104" s="190" t="s">
+      <c r="T104" s="140"/>
+      <c r="U104" s="140"/>
+      <c r="V104" s="140"/>
+      <c r="W104" s="140"/>
+      <c r="X104" s="140"/>
+      <c r="Y104" s="140"/>
+      <c r="Z104" s="140"/>
+      <c r="AA104" s="140"/>
+      <c r="AB104" s="140"/>
+      <c r="AC104" s="140"/>
+      <c r="AD104" s="141"/>
+      <c r="AE104" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="192"/>
-      <c r="AG104" s="192"/>
-      <c r="AH104" s="192"/>
-      <c r="AI104" s="192"/>
-      <c r="AJ104" s="192"/>
-      <c r="AK104" s="192"/>
-      <c r="AL104" s="192"/>
-      <c r="AM104" s="192"/>
-      <c r="AN104" s="192"/>
-      <c r="AO104" s="192"/>
-      <c r="AP104" s="191"/>
-      <c r="AQ104" s="190" t="s">
+      <c r="AF104" s="140"/>
+      <c r="AG104" s="140"/>
+      <c r="AH104" s="140"/>
+      <c r="AI104" s="140"/>
+      <c r="AJ104" s="140"/>
+      <c r="AK104" s="140"/>
+      <c r="AL104" s="140"/>
+      <c r="AM104" s="140"/>
+      <c r="AN104" s="140"/>
+      <c r="AO104" s="140"/>
+      <c r="AP104" s="141"/>
+      <c r="AQ104" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="191"/>
-      <c r="AS104" s="190" t="s">
+      <c r="AR104" s="141"/>
+      <c r="AS104" s="139" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="192"/>
-      <c r="AU104" s="192"/>
-      <c r="AV104" s="192"/>
-      <c r="AW104" s="192"/>
-      <c r="AX104" s="192"/>
-      <c r="AY104" s="192"/>
-      <c r="AZ104" s="191"/>
+      <c r="AT104" s="140"/>
+      <c r="AU104" s="140"/>
+      <c r="AV104" s="140"/>
+      <c r="AW104" s="140"/>
+      <c r="AX104" s="140"/>
+      <c r="AY104" s="140"/>
+      <c r="AZ104" s="141"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -13119,11 +14120,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="160" t="s">
+      <c r="L106" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="161"/>
-      <c r="N106" s="162"/>
+      <c r="M106" s="143"/>
+      <c r="N106" s="144"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -13162,16 +14163,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="126" t="s">
+      <c r="AS106" s="195" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="127"/>
-      <c r="AU106" s="127"/>
-      <c r="AV106" s="127"/>
-      <c r="AW106" s="127"/>
-      <c r="AX106" s="127"/>
-      <c r="AY106" s="127"/>
-      <c r="AZ106" s="128"/>
+      <c r="AT106" s="196"/>
+      <c r="AU106" s="196"/>
+      <c r="AV106" s="196"/>
+      <c r="AW106" s="196"/>
+      <c r="AX106" s="196"/>
+      <c r="AY106" s="196"/>
+      <c r="AZ106" s="197"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -13237,16 +14238,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="126" t="s">
+      <c r="AS107" s="195" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="127"/>
-      <c r="AU107" s="127"/>
-      <c r="AV107" s="127"/>
-      <c r="AW107" s="127"/>
-      <c r="AX107" s="127"/>
-      <c r="AY107" s="127"/>
-      <c r="AZ107" s="128"/>
+      <c r="AT107" s="196"/>
+      <c r="AU107" s="196"/>
+      <c r="AV107" s="196"/>
+      <c r="AW107" s="196"/>
+      <c r="AX107" s="196"/>
+      <c r="AY107" s="196"/>
+      <c r="AZ107" s="197"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -13314,16 +14315,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="126" t="s">
+      <c r="AS108" s="195" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="127"/>
-      <c r="AU108" s="127"/>
-      <c r="AV108" s="127"/>
-      <c r="AW108" s="127"/>
-      <c r="AX108" s="127"/>
-      <c r="AY108" s="127"/>
-      <c r="AZ108" s="128"/>
+      <c r="AT108" s="196"/>
+      <c r="AU108" s="196"/>
+      <c r="AV108" s="196"/>
+      <c r="AW108" s="196"/>
+      <c r="AX108" s="196"/>
+      <c r="AY108" s="196"/>
+      <c r="AZ108" s="197"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -13387,16 +14388,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="126" t="s">
+      <c r="AS109" s="195" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="127"/>
-      <c r="AU109" s="127"/>
-      <c r="AV109" s="127"/>
-      <c r="AW109" s="127"/>
-      <c r="AX109" s="127"/>
-      <c r="AY109" s="127"/>
-      <c r="AZ109" s="128"/>
+      <c r="AT109" s="196"/>
+      <c r="AU109" s="196"/>
+      <c r="AV109" s="196"/>
+      <c r="AW109" s="196"/>
+      <c r="AX109" s="196"/>
+      <c r="AY109" s="196"/>
+      <c r="AZ109" s="197"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -13552,12 +14553,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="151" t="s">
+      <c r="O112" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="152"/>
-      <c r="Q112" s="152"/>
-      <c r="R112" s="153"/>
+      <c r="P112" s="184"/>
+      <c r="Q112" s="184"/>
+      <c r="R112" s="185"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -13582,20 +14583,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="146" t="s">
+      <c r="AQ112" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="147"/>
-      <c r="AS112" s="148" t="s">
+      <c r="AR112" s="179"/>
+      <c r="AS112" s="180" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="149"/>
-      <c r="AU112" s="149"/>
-      <c r="AV112" s="149"/>
-      <c r="AW112" s="149"/>
-      <c r="AX112" s="149"/>
-      <c r="AY112" s="149"/>
-      <c r="AZ112" s="150"/>
+      <c r="AT112" s="181"/>
+      <c r="AU112" s="181"/>
+      <c r="AV112" s="181"/>
+      <c r="AW112" s="181"/>
+      <c r="AX112" s="181"/>
+      <c r="AY112" s="181"/>
+      <c r="AZ112" s="182"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -14796,20 +15797,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="146" t="s">
+      <c r="AQ130" s="178" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="147"/>
-      <c r="AS130" s="148" t="s">
+      <c r="AR130" s="179"/>
+      <c r="AS130" s="180" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="149"/>
-      <c r="AU130" s="149"/>
-      <c r="AV130" s="149"/>
-      <c r="AW130" s="149"/>
-      <c r="AX130" s="149"/>
-      <c r="AY130" s="149"/>
-      <c r="AZ130" s="150"/>
+      <c r="AT130" s="181"/>
+      <c r="AU130" s="181"/>
+      <c r="AV130" s="181"/>
+      <c r="AW130" s="181"/>
+      <c r="AX130" s="181"/>
+      <c r="AY130" s="181"/>
+      <c r="AZ130" s="182"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -14863,16 +15864,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="154" t="s">
+      <c r="AS131" s="186" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="155"/>
-      <c r="AU131" s="155"/>
-      <c r="AV131" s="155"/>
-      <c r="AW131" s="155"/>
-      <c r="AX131" s="155"/>
-      <c r="AY131" s="155"/>
-      <c r="AZ131" s="156"/>
+      <c r="AT131" s="187"/>
+      <c r="AU131" s="187"/>
+      <c r="AV131" s="187"/>
+      <c r="AW131" s="187"/>
+      <c r="AX131" s="187"/>
+      <c r="AY131" s="187"/>
+      <c r="AZ131" s="188"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -14985,20 +15986,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="146" t="s">
+      <c r="AQ133" s="178" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="147"/>
-      <c r="AS133" s="148" t="s">
+      <c r="AR133" s="179"/>
+      <c r="AS133" s="180" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="149"/>
-      <c r="AU133" s="149"/>
-      <c r="AV133" s="149"/>
-      <c r="AW133" s="149"/>
-      <c r="AX133" s="149"/>
-      <c r="AY133" s="149"/>
-      <c r="AZ133" s="150"/>
+      <c r="AT133" s="181"/>
+      <c r="AU133" s="181"/>
+      <c r="AV133" s="181"/>
+      <c r="AW133" s="181"/>
+      <c r="AX133" s="181"/>
+      <c r="AY133" s="181"/>
+      <c r="AZ133" s="182"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -17621,6 +18622,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -17645,193 +18833,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17848,7 +18849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14463499-C2F6-4F35-8355-20CFF31BC49F}">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -18152,7 +19153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28795C8F-2D32-4879-B71D-39E9D70C0FC4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -18425,7 +19426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C43DA7-BB52-4F7F-9BD3-5FF952C8B7D1}">
   <dimension ref="A1:R23"/>
   <sheetViews>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40003728-477F-4164-9446-2FDFF334A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BB6B0-E119-4281-8180-EEE24AE2E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -1390,9 +1390,6 @@
     <t>CS_CPU</t>
   </si>
   <si>
-    <t>Pin Mapping SLAVE (QFN 32 pin)</t>
-  </si>
-  <si>
     <t>4,5,6</t>
   </si>
   <si>
@@ -1423,13 +1420,16 @@
     <t>No LED#3/Debug Dout#3</t>
   </si>
   <si>
-    <t>Pin Mapping MASTER (QFN 32 pin)</t>
-  </si>
-  <si>
     <t>Pin Mapping MASTER/SLAVE EFR32xG22 (BRD4182A - QFN 40 pin)</t>
   </si>
   <si>
-    <t>Pin Mapping MASTER/SLAVE EFR32xG22 (BRD4183A - QFN 32 pin)</t>
+    <t>Pin Mapping MASTER (EFR32MG22C224F512IM40 - QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping SLAVE (EFR32MG22C224F512IM40 - QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping SLAVE EFR32xG22 (BRD4183A - QFN 32 pin)</t>
   </si>
 </sst>
 </file>
@@ -2297,13 +2297,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2312,62 +2356,17 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2376,81 +2375,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2495,6 +2419,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2504,41 +2437,108 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3617,7 +3617,7 @@
   </sheetPr>
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3644,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>450</v>
@@ -4675,59 +4675,59 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="200" t="s">
+      <c r="A20" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="201">
+      <c r="B20" s="127">
         <v>1</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="202" t="s">
+      <c r="E20" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="200" t="s">
+      <c r="F20" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="200" t="s">
+      <c r="G20" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="202" t="s">
+      <c r="H20" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="200" t="s">
+      <c r="I20" s="126" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M20" s="202" t="s">
+      <c r="M20" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="203">
+      <c r="N20" s="129">
         <v>1</v>
       </c>
-      <c r="O20" s="202" t="s">
+      <c r="O20" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="202" t="s">
+      <c r="P20" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="202" t="s">
+      <c r="Q20" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="R20" s="202"/>
-      <c r="S20" s="202" t="s">
+      <c r="R20" s="128"/>
+      <c r="S20" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="202" t="s">
+      <c r="T20" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="U20" s="202" t="s">
+      <c r="U20" s="128" t="s">
         <v>119</v>
       </c>
       <c r="V20" s="96"/>
@@ -6081,7 +6081,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,7 +6106,7 @@
         <v>448</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="J1" s="5"/>
     </row>
@@ -6146,7 +6146,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" s="97" t="s">
         <v>46</v>
@@ -6155,7 +6155,7 @@
       <c r="E4" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G4" s="206"/>
+      <c r="G4" s="132"/>
       <c r="I4" s="9" t="s">
         <v>59</v>
       </c>
@@ -6175,11 +6175,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
-      <c r="B5" s="204"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="96"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="G5" s="206"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="9" t="s">
         <v>59</v>
       </c>
@@ -6199,11 +6199,11 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="87"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="205"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
-      <c r="G6" s="206"/>
+      <c r="G6" s="132"/>
       <c r="I6" s="9" t="s">
         <v>59</v>
       </c>
@@ -6223,14 +6223,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="87"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="205"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="87"/>
       <c r="E7" s="87"/>
-      <c r="G7" s="206"/>
+      <c r="G7" s="132"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K7" s="97"/>
       <c r="L7" s="9"/>
@@ -6256,9 +6256,9 @@
         <v>379</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G9" s="206"/>
+        <v>443</v>
+      </c>
+      <c r="G9" s="132"/>
       <c r="I9" s="9" t="s">
         <v>67</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>379</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6289,15 +6289,15 @@
         <v>379</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="G10" s="206"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="207"/>
+        <v>444</v>
+      </c>
+      <c r="G10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
       <c r="M10" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N10" s="96"/>
     </row>
@@ -6320,7 +6320,7 @@
       <c r="E12" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G12" s="206"/>
+      <c r="G12" s="132"/>
       <c r="I12" s="9" t="s">
         <v>131</v>
       </c>
@@ -6353,7 +6353,7 @@
       <c r="E13" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G13" s="206"/>
+      <c r="G13" s="132"/>
       <c r="I13" s="9" t="s">
         <v>131</v>
       </c>
@@ -6384,9 +6384,9 @@
         <v>379</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="206"/>
+        <v>445</v>
+      </c>
+      <c r="G14" s="132"/>
       <c r="I14" s="9" t="s">
         <v>131</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>379</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6412,9 +6412,9 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="G16" s="206"/>
+        <v>439</v>
+      </c>
+      <c r="G16" s="132"/>
       <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
@@ -6438,9 +6438,9 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="206"/>
+        <v>440</v>
+      </c>
+      <c r="G18" s="132"/>
       <c r="I18" s="9" t="s">
         <v>114</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="E20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="206"/>
+      <c r="G20" s="132"/>
       <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="E21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="206"/>
+      <c r="G21" s="132"/>
       <c r="I21" s="9" t="s">
         <v>82</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="E23" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G23" s="206"/>
+      <c r="G23" s="132"/>
       <c r="I23" s="7" t="s">
         <v>99</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="E24" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G24" s="206"/>
+      <c r="G24" s="132"/>
       <c r="I24" s="7" t="s">
         <v>99</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="E25" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G25" s="206"/>
+      <c r="G25" s="132"/>
       <c r="I25" s="7" t="s">
         <v>99</v>
       </c>
@@ -6644,7 +6644,7 @@
       <c r="E26" s="124" t="s">
         <v>435</v>
       </c>
-      <c r="G26" s="206"/>
+      <c r="G26" s="132"/>
       <c r="I26" s="124" t="s">
         <v>103</v>
       </c>
@@ -6664,11 +6664,11 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
-      <c r="B27" s="204"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="87"/>
       <c r="D27" s="87"/>
       <c r="E27" s="87"/>
-      <c r="G27" s="206"/>
+      <c r="G27" s="132"/>
       <c r="I27" s="7" t="s">
         <v>103</v>
       </c>
@@ -6705,13 +6705,13 @@
       <c r="E29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="206"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="207"/>
-      <c r="M29" s="209" t="s">
-        <v>443</v>
+      <c r="G29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="135" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6730,11 +6730,11 @@
       <c r="E30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="206"/>
+      <c r="G30" s="132"/>
       <c r="I30" s="14"/>
       <c r="J30" s="123"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
       <c r="M30" s="14"/>
       <c r="N30" s="96"/>
     </row>
@@ -6754,11 +6754,11 @@
       <c r="E31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="206"/>
+      <c r="G31" s="132"/>
       <c r="I31" s="14"/>
       <c r="J31" s="123"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
       <c r="M31" s="14"/>
       <c r="N31" s="96"/>
     </row>
@@ -6781,7 +6781,7 @@
       <c r="E33" s="121" t="s">
         <v>423</v>
       </c>
-      <c r="G33" s="206"/>
+      <c r="G33" s="132"/>
       <c r="I33" s="121" t="s">
         <v>416</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="E34" s="121" t="s">
         <v>423</v>
       </c>
-      <c r="G34" s="206"/>
+      <c r="G34" s="132"/>
       <c r="I34" s="121" t="s">
         <v>416</v>
       </c>
@@ -7030,21 +7030,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -7152,45 +7152,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="197" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="158" t="s">
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="188" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="158" t="s">
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="162" t="s">
+      <c r="Q5" s="189"/>
+      <c r="R5" s="190" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="158" t="s">
+      <c r="S5" s="191"/>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="191"/>
+      <c r="W5" s="192"/>
+      <c r="X5" s="188" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="154" t="s">
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="156"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="199"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -7225,45 +7225,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="204" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="145" t="s">
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="203" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145" t="s">
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="135" t="s">
+      <c r="Q6" s="203"/>
+      <c r="R6" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135" t="s">
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135" t="s">
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -7304,29 +7304,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="160" t="s">
+      <c r="K7" s="196" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160" t="s">
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="160" t="s">
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160" t="s">
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="196"/>
+      <c r="X7" s="196" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="160"/>
+      <c r="Y7" s="196"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -7759,10 +7759,10 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="199"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -7787,10 +7787,10 @@
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
-      <c r="AE14" s="133" t="s">
+      <c r="AE14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="199"/>
+      <c r="AF14" s="144"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -7833,67 +7833,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="129" t="s">
+      <c r="I15" s="146"/>
+      <c r="J15" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="127"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="128"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="207"/>
+      <c r="T15" s="207"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="207"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="207"/>
+      <c r="AB15" s="207"/>
+      <c r="AC15" s="207"/>
+      <c r="AD15" s="207"/>
+      <c r="AE15" s="207"/>
+      <c r="AF15" s="208"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="131" t="s">
+      <c r="AH15" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="129" t="s">
+      <c r="AI15" s="146"/>
+      <c r="AJ15" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="130"/>
-      <c r="AL15" s="126"/>
-      <c r="AM15" s="127"/>
-      <c r="AN15" s="127"/>
-      <c r="AO15" s="127"/>
-      <c r="AP15" s="127"/>
-      <c r="AQ15" s="127"/>
-      <c r="AR15" s="127"/>
-      <c r="AS15" s="127"/>
-      <c r="AT15" s="127"/>
-      <c r="AU15" s="127"/>
-      <c r="AV15" s="127"/>
-      <c r="AW15" s="127"/>
-      <c r="AX15" s="127"/>
-      <c r="AY15" s="127"/>
-      <c r="AZ15" s="127"/>
-      <c r="BA15" s="127"/>
-      <c r="BB15" s="127"/>
-      <c r="BC15" s="127"/>
-      <c r="BD15" s="127"/>
-      <c r="BE15" s="127"/>
-      <c r="BF15" s="127"/>
+      <c r="AK15" s="148"/>
+      <c r="AL15" s="206"/>
+      <c r="AM15" s="207"/>
+      <c r="AN15" s="207"/>
+      <c r="AO15" s="207"/>
+      <c r="AP15" s="207"/>
+      <c r="AQ15" s="207"/>
+      <c r="AR15" s="207"/>
+      <c r="AS15" s="207"/>
+      <c r="AT15" s="207"/>
+      <c r="AU15" s="207"/>
+      <c r="AV15" s="207"/>
+      <c r="AW15" s="207"/>
+      <c r="AX15" s="207"/>
+      <c r="AY15" s="207"/>
+      <c r="AZ15" s="207"/>
+      <c r="BA15" s="207"/>
+      <c r="BB15" s="207"/>
+      <c r="BC15" s="207"/>
+      <c r="BD15" s="207"/>
+      <c r="BE15" s="207"/>
+      <c r="BF15" s="207"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -7914,33 +7914,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="131" t="s">
+      <c r="J16" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="129" t="s">
+      <c r="K16" s="146"/>
+      <c r="L16" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="130"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="128"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="206"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="207"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="207"/>
+      <c r="T16" s="207"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="207"/>
+      <c r="W16" s="207"/>
+      <c r="X16" s="207"/>
+      <c r="Y16" s="207"/>
+      <c r="Z16" s="207"/>
+      <c r="AA16" s="207"/>
+      <c r="AB16" s="207"/>
+      <c r="AC16" s="207"/>
+      <c r="AD16" s="207"/>
+      <c r="AE16" s="207"/>
+      <c r="AF16" s="208"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -7948,33 +7948,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="131" t="s">
+      <c r="AJ16" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="132"/>
-      <c r="AL16" s="129" t="s">
+      <c r="AK16" s="146"/>
+      <c r="AL16" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="130"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="127"/>
-      <c r="AP16" s="127"/>
-      <c r="AQ16" s="127"/>
-      <c r="AR16" s="127"/>
-      <c r="AS16" s="127"/>
-      <c r="AT16" s="127"/>
-      <c r="AU16" s="127"/>
-      <c r="AV16" s="127"/>
-      <c r="AW16" s="127"/>
-      <c r="AX16" s="127"/>
-      <c r="AY16" s="127"/>
-      <c r="AZ16" s="127"/>
-      <c r="BA16" s="127"/>
-      <c r="BB16" s="127"/>
-      <c r="BC16" s="127"/>
-      <c r="BD16" s="127"/>
-      <c r="BE16" s="127"/>
-      <c r="BF16" s="127"/>
+      <c r="AM16" s="148"/>
+      <c r="AN16" s="206"/>
+      <c r="AO16" s="207"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="207"/>
+      <c r="AR16" s="207"/>
+      <c r="AS16" s="207"/>
+      <c r="AT16" s="207"/>
+      <c r="AU16" s="207"/>
+      <c r="AV16" s="207"/>
+      <c r="AW16" s="207"/>
+      <c r="AX16" s="207"/>
+      <c r="AY16" s="207"/>
+      <c r="AZ16" s="207"/>
+      <c r="BA16" s="207"/>
+      <c r="BB16" s="207"/>
+      <c r="BC16" s="207"/>
+      <c r="BD16" s="207"/>
+      <c r="BE16" s="207"/>
+      <c r="BF16" s="207"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -7997,31 +7997,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="131" t="s">
+      <c r="L17" s="145" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="129" t="s">
+      <c r="M17" s="146"/>
+      <c r="N17" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="130"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="128"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="206"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="207"/>
+      <c r="S17" s="207"/>
+      <c r="T17" s="207"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="207"/>
+      <c r="AE17" s="207"/>
+      <c r="AF17" s="208"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -8031,31 +8031,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="131" t="s">
+      <c r="AL17" s="145" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="132"/>
-      <c r="AN17" s="129" t="s">
+      <c r="AM17" s="146"/>
+      <c r="AN17" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="126"/>
-      <c r="AQ17" s="127"/>
-      <c r="AR17" s="127"/>
-      <c r="AS17" s="127"/>
-      <c r="AT17" s="127"/>
-      <c r="AU17" s="127"/>
-      <c r="AV17" s="127"/>
-      <c r="AW17" s="127"/>
-      <c r="AX17" s="127"/>
-      <c r="AY17" s="127"/>
-      <c r="AZ17" s="127"/>
-      <c r="BA17" s="127"/>
-      <c r="BB17" s="127"/>
-      <c r="BC17" s="127"/>
-      <c r="BD17" s="127"/>
-      <c r="BE17" s="127"/>
-      <c r="BF17" s="127"/>
+      <c r="AO17" s="148"/>
+      <c r="AP17" s="206"/>
+      <c r="AQ17" s="207"/>
+      <c r="AR17" s="207"/>
+      <c r="AS17" s="207"/>
+      <c r="AT17" s="207"/>
+      <c r="AU17" s="207"/>
+      <c r="AV17" s="207"/>
+      <c r="AW17" s="207"/>
+      <c r="AX17" s="207"/>
+      <c r="AY17" s="207"/>
+      <c r="AZ17" s="207"/>
+      <c r="BA17" s="207"/>
+      <c r="BB17" s="207"/>
+      <c r="BC17" s="207"/>
+      <c r="BD17" s="207"/>
+      <c r="BE17" s="207"/>
+      <c r="BF17" s="207"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -8080,27 +8080,27 @@
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="133" t="s">
+      <c r="N18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="134"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="128"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="207"/>
+      <c r="X18" s="207"/>
+      <c r="Y18" s="207"/>
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="207"/>
+      <c r="AC18" s="207"/>
+      <c r="AD18" s="207"/>
+      <c r="AE18" s="207"/>
+      <c r="AF18" s="208"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -8112,27 +8112,27 @@
       <c r="AK18" s="111"/>
       <c r="AL18" s="111"/>
       <c r="AM18" s="110"/>
-      <c r="AN18" s="133" t="s">
+      <c r="AN18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="134"/>
-      <c r="AP18" s="126"/>
-      <c r="AQ18" s="127"/>
-      <c r="AR18" s="127"/>
-      <c r="AS18" s="127"/>
-      <c r="AT18" s="127"/>
-      <c r="AU18" s="127"/>
-      <c r="AV18" s="127"/>
-      <c r="AW18" s="127"/>
-      <c r="AX18" s="127"/>
-      <c r="AY18" s="127"/>
-      <c r="AZ18" s="127"/>
-      <c r="BA18" s="127"/>
-      <c r="BB18" s="127"/>
-      <c r="BC18" s="127"/>
-      <c r="BD18" s="127"/>
-      <c r="BE18" s="127"/>
-      <c r="BF18" s="127"/>
+      <c r="AO18" s="152"/>
+      <c r="AP18" s="206"/>
+      <c r="AQ18" s="207"/>
+      <c r="AR18" s="207"/>
+      <c r="AS18" s="207"/>
+      <c r="AT18" s="207"/>
+      <c r="AU18" s="207"/>
+      <c r="AV18" s="207"/>
+      <c r="AW18" s="207"/>
+      <c r="AX18" s="207"/>
+      <c r="AY18" s="207"/>
+      <c r="AZ18" s="207"/>
+      <c r="BA18" s="207"/>
+      <c r="BB18" s="207"/>
+      <c r="BC18" s="207"/>
+      <c r="BD18" s="207"/>
+      <c r="BE18" s="207"/>
+      <c r="BF18" s="207"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -8358,23 +8358,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="131" t="s">
+      <c r="T22" s="145" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="132"/>
-      <c r="V22" s="129" t="s">
+      <c r="U22" s="146"/>
+      <c r="V22" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="130"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="128"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="206"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="207"/>
+      <c r="AD22" s="207"/>
+      <c r="AE22" s="207"/>
+      <c r="AF22" s="208"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -8392,23 +8392,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="131" t="s">
+      <c r="AT22" s="145" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="132"/>
-      <c r="AV22" s="129" t="s">
+      <c r="AU22" s="146"/>
+      <c r="AV22" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="130"/>
-      <c r="AX22" s="126"/>
-      <c r="AY22" s="127"/>
-      <c r="AZ22" s="127"/>
-      <c r="BA22" s="127"/>
-      <c r="BB22" s="127"/>
-      <c r="BC22" s="127"/>
-      <c r="BD22" s="127"/>
-      <c r="BE22" s="127"/>
-      <c r="BF22" s="127"/>
+      <c r="AW22" s="148"/>
+      <c r="AX22" s="206"/>
+      <c r="AY22" s="207"/>
+      <c r="AZ22" s="207"/>
+      <c r="BA22" s="207"/>
+      <c r="BB22" s="207"/>
+      <c r="BC22" s="207"/>
+      <c r="BD22" s="207"/>
+      <c r="BE22" s="207"/>
+      <c r="BF22" s="207"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -8441,21 +8441,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="131" t="s">
+      <c r="V23" s="145" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="132"/>
-      <c r="X23" s="129" t="s">
+      <c r="W23" s="146"/>
+      <c r="X23" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="128"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="206"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="207"/>
+      <c r="AE23" s="207"/>
+      <c r="AF23" s="208"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -8475,21 +8475,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="131" t="s">
+      <c r="AV23" s="145" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="132"/>
-      <c r="AX23" s="129" t="s">
+      <c r="AW23" s="146"/>
+      <c r="AX23" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="130"/>
-      <c r="AZ23" s="126"/>
-      <c r="BA23" s="127"/>
-      <c r="BB23" s="127"/>
-      <c r="BC23" s="127"/>
-      <c r="BD23" s="127"/>
-      <c r="BE23" s="127"/>
-      <c r="BF23" s="127"/>
+      <c r="AY23" s="148"/>
+      <c r="AZ23" s="206"/>
+      <c r="BA23" s="207"/>
+      <c r="BB23" s="207"/>
+      <c r="BC23" s="207"/>
+      <c r="BD23" s="207"/>
+      <c r="BE23" s="207"/>
+      <c r="BF23" s="207"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -8524,19 +8524,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="131" t="s">
+      <c r="X24" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="129" t="s">
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="128"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="206"/>
+      <c r="AC24" s="207"/>
+      <c r="AD24" s="207"/>
+      <c r="AE24" s="207"/>
+      <c r="AF24" s="208"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -8558,19 +8558,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="131" t="s">
+      <c r="AX24" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="132"/>
-      <c r="AZ24" s="129" t="s">
+      <c r="AY24" s="146"/>
+      <c r="AZ24" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="130"/>
-      <c r="BB24" s="126"/>
-      <c r="BC24" s="127"/>
-      <c r="BD24" s="127"/>
-      <c r="BE24" s="127"/>
-      <c r="BF24" s="127"/>
+      <c r="BA24" s="148"/>
+      <c r="BB24" s="206"/>
+      <c r="BC24" s="207"/>
+      <c r="BD24" s="207"/>
+      <c r="BE24" s="207"/>
+      <c r="BF24" s="207"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -8607,17 +8607,17 @@
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="133" t="s">
+      <c r="Z25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="129" t="s">
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="128"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="206"/>
+      <c r="AE25" s="207"/>
+      <c r="AF25" s="208"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -8641,17 +8641,17 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="110"/>
-      <c r="AZ25" s="133" t="s">
+      <c r="AZ25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="134"/>
-      <c r="BB25" s="129" t="s">
+      <c r="BA25" s="152"/>
+      <c r="BB25" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="130"/>
-      <c r="BD25" s="126"/>
-      <c r="BE25" s="127"/>
-      <c r="BF25" s="127"/>
+      <c r="BC25" s="148"/>
+      <c r="BD25" s="206"/>
+      <c r="BE25" s="207"/>
+      <c r="BF25" s="207"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -8909,29 +8909,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="177"/>
+      <c r="F30" s="150"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="176" t="s">
+      <c r="H30" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="177"/>
-      <c r="J30" s="176" t="s">
+      <c r="I30" s="150"/>
+      <c r="J30" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="177"/>
-      <c r="L30" s="176" t="s">
+      <c r="K30" s="150"/>
+      <c r="L30" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="177"/>
-      <c r="N30" s="176" t="s">
+      <c r="M30" s="150"/>
+      <c r="N30" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="177"/>
+      <c r="O30" s="150"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -8940,50 +8940,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="176" t="s">
+      <c r="T30" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="177"/>
-      <c r="V30" s="176" t="s">
+      <c r="U30" s="150"/>
+      <c r="V30" s="149" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="177"/>
-      <c r="X30" s="176" t="s">
+      <c r="W30" s="150"/>
+      <c r="X30" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="177"/>
-      <c r="Z30" s="176" t="s">
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="177"/>
-      <c r="AB30" s="150" t="s">
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="152"/>
-      <c r="AE30" s="176" t="s">
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="177"/>
+      <c r="AF30" s="150"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="176" t="s">
+      <c r="AH30" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="177"/>
-      <c r="AJ30" s="176" t="s">
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="177"/>
-      <c r="AL30" s="176" t="s">
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="177"/>
-      <c r="AN30" s="176" t="s">
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="177"/>
+      <c r="AO30" s="150"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -8992,27 +8992,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="176" t="s">
+      <c r="AT30" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="177"/>
-      <c r="AV30" s="176" t="s">
+      <c r="AU30" s="150"/>
+      <c r="AV30" s="149" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="177"/>
-      <c r="AX30" s="176" t="s">
+      <c r="AW30" s="150"/>
+      <c r="AX30" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="177"/>
-      <c r="AZ30" s="176" t="s">
+      <c r="AY30" s="150"/>
+      <c r="AZ30" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="177"/>
-      <c r="BB30" s="150" t="s">
+      <c r="BA30" s="150"/>
+      <c r="BB30" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="151"/>
-      <c r="BD30" s="152"/>
+      <c r="BC30" s="154"/>
+      <c r="BD30" s="155"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -9024,10 +9024,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="153" t="s">
+      <c r="E31" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="153"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -9054,10 +9054,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="153" t="s">
+      <c r="AE31" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="153"/>
+      <c r="AF31" s="151"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -9167,75 +9167,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="173" t="s">
+      <c r="H33" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="176" t="s">
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="149" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="177"/>
-      <c r="V33" s="150" t="s">
+      <c r="U33" s="150"/>
+      <c r="V33" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="152"/>
-      <c r="X33" s="173" t="s">
+      <c r="W33" s="155"/>
+      <c r="X33" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="180"/>
+      <c r="AA33" s="180"/>
+      <c r="AB33" s="180"/>
+      <c r="AC33" s="180"/>
+      <c r="AD33" s="180"/>
+      <c r="AE33" s="181"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="173" t="s">
+      <c r="AH33" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="174"/>
-      <c r="AJ33" s="174"/>
-      <c r="AK33" s="174"/>
-      <c r="AL33" s="174"/>
-      <c r="AM33" s="174"/>
-      <c r="AN33" s="174"/>
-      <c r="AO33" s="174"/>
-      <c r="AP33" s="174"/>
-      <c r="AQ33" s="174"/>
-      <c r="AR33" s="174"/>
-      <c r="AS33" s="175"/>
-      <c r="AT33" s="176" t="s">
+      <c r="AI33" s="180"/>
+      <c r="AJ33" s="180"/>
+      <c r="AK33" s="180"/>
+      <c r="AL33" s="180"/>
+      <c r="AM33" s="180"/>
+      <c r="AN33" s="180"/>
+      <c r="AO33" s="180"/>
+      <c r="AP33" s="180"/>
+      <c r="AQ33" s="180"/>
+      <c r="AR33" s="180"/>
+      <c r="AS33" s="181"/>
+      <c r="AT33" s="149" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="177"/>
-      <c r="AV33" s="150" t="s">
+      <c r="AU33" s="150"/>
+      <c r="AV33" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="152"/>
-      <c r="AX33" s="173" t="s">
+      <c r="AW33" s="155"/>
+      <c r="AX33" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="174"/>
-      <c r="AZ33" s="174"/>
-      <c r="BA33" s="174"/>
-      <c r="BB33" s="174"/>
-      <c r="BC33" s="174"/>
-      <c r="BD33" s="175"/>
+      <c r="AY33" s="180"/>
+      <c r="AZ33" s="180"/>
+      <c r="BA33" s="180"/>
+      <c r="BB33" s="180"/>
+      <c r="BC33" s="180"/>
+      <c r="BD33" s="181"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -9247,10 +9247,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="153" t="s">
+      <c r="E34" s="151" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="153"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -9266,10 +9266,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="153" t="s">
+      <c r="T34" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="153"/>
+      <c r="U34" s="151"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -9298,10 +9298,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="153" t="s">
+      <c r="AT34" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="153"/>
+      <c r="AU34" s="151"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -9572,33 +9572,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="168" t="s">
+      <c r="E39" s="182" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="169"/>
-      <c r="G39" s="171" t="s">
+      <c r="F39" s="183"/>
+      <c r="G39" s="184" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="172"/>
+      <c r="H39" s="185"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="133" t="s">
+      <c r="J39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="134"/>
-      <c r="L39" s="133" t="s">
+      <c r="K39" s="152"/>
+      <c r="L39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="134"/>
-      <c r="N39" s="133" t="s">
+      <c r="M39" s="152"/>
+      <c r="N39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="134"/>
-      <c r="P39" s="133" t="s">
+      <c r="O39" s="152"/>
+      <c r="P39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="134"/>
+      <c r="Q39" s="152"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -9607,50 +9607,50 @@
         <v>239</v>
       </c>
       <c r="U39" s="103"/>
-      <c r="V39" s="133" t="s">
+      <c r="V39" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="134"/>
-      <c r="X39" s="133" t="s">
+      <c r="W39" s="152"/>
+      <c r="X39" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="133" t="s">
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="133" t="s">
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="129" t="s">
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="170"/>
-      <c r="AF39" s="130"/>
-      <c r="AG39" s="133" t="s">
+      <c r="AE39" s="187"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="134"/>
+      <c r="AH39" s="152"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="AJ39" s="133" t="s">
+      <c r="AJ39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="134"/>
-      <c r="AL39" s="133" t="s">
+      <c r="AK39" s="152"/>
+      <c r="AL39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="134"/>
-      <c r="AN39" s="133" t="s">
+      <c r="AM39" s="152"/>
+      <c r="AN39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="134"/>
-      <c r="AP39" s="133" t="s">
+      <c r="AO39" s="152"/>
+      <c r="AP39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="134"/>
+      <c r="AQ39" s="152"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -9679,14 +9679,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="146" t="s">
+      <c r="E40" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146" t="s">
+      <c r="F40" s="186"/>
+      <c r="G40" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="146"/>
+      <c r="H40" s="186"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -9713,10 +9713,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="146" t="s">
+      <c r="AG40" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="146"/>
+      <c r="AH40" s="186"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -9752,27 +9752,27 @@
         <v>327</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="133" t="s">
+      <c r="E41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="134"/>
+      <c r="F41" s="152"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="133" t="s">
+      <c r="H41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="134"/>
-      <c r="J41" s="133" t="s">
+      <c r="I41" s="152"/>
+      <c r="J41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="134"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="171" t="s">
+      <c r="K41" s="152"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="184" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="172"/>
+      <c r="O41" s="185"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -9781,50 +9781,50 @@
         <v>239</v>
       </c>
       <c r="S41" s="103"/>
-      <c r="T41" s="133" t="s">
+      <c r="T41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="134"/>
-      <c r="V41" s="133" t="s">
+      <c r="U41" s="152"/>
+      <c r="V41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="134"/>
-      <c r="X41" s="133" t="s">
+      <c r="W41" s="152"/>
+      <c r="X41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="134"/>
-      <c r="Z41" s="133" t="s">
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="134"/>
-      <c r="AB41" s="129" t="s">
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="170"/>
-      <c r="AD41" s="130"/>
-      <c r="AE41" s="133" t="s">
+      <c r="AC41" s="187"/>
+      <c r="AD41" s="148"/>
+      <c r="AE41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="134"/>
+      <c r="AF41" s="152"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="AH41" s="133" t="s">
+      <c r="AH41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="134"/>
-      <c r="AJ41" s="133" t="s">
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="134"/>
-      <c r="AL41" s="133" t="s">
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="134"/>
-      <c r="AN41" s="133" t="s">
+      <c r="AM41" s="152"/>
+      <c r="AN41" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="134"/>
+      <c r="AO41" s="152"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -9833,27 +9833,27 @@
         <v>239</v>
       </c>
       <c r="AS41" s="103"/>
-      <c r="AT41" s="133" t="s">
+      <c r="AT41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="134"/>
-      <c r="AV41" s="133" t="s">
+      <c r="AU41" s="152"/>
+      <c r="AV41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="134"/>
-      <c r="AX41" s="133" t="s">
+      <c r="AW41" s="152"/>
+      <c r="AX41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="134"/>
-      <c r="AZ41" s="133" t="s">
+      <c r="AY41" s="152"/>
+      <c r="AZ41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="134"/>
-      <c r="BB41" s="129" t="s">
+      <c r="BA41" s="152"/>
+      <c r="BB41" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="170"/>
-      <c r="BD41" s="130"/>
+      <c r="BC41" s="187"/>
+      <c r="BD41" s="148"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -9865,10 +9865,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="146" t="s">
+      <c r="E42" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="186"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -9895,10 +9895,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="146" t="s">
+      <c r="AE42" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="146"/>
+      <c r="AF42" s="186"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -10008,75 +10008,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="165" t="s">
+      <c r="H44" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="168" t="s">
+      <c r="I44" s="194"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="194"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="194"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="195"/>
+      <c r="T44" s="182" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="169"/>
-      <c r="V44" s="129" t="s">
+      <c r="U44" s="183"/>
+      <c r="V44" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="130"/>
-      <c r="X44" s="165" t="s">
+      <c r="W44" s="148"/>
+      <c r="X44" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="166"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
-      <c r="AD44" s="166"/>
-      <c r="AE44" s="167"/>
+      <c r="Y44" s="194"/>
+      <c r="Z44" s="194"/>
+      <c r="AA44" s="194"/>
+      <c r="AB44" s="194"/>
+      <c r="AC44" s="194"/>
+      <c r="AD44" s="194"/>
+      <c r="AE44" s="195"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="165" t="s">
+      <c r="AH44" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="166"/>
-      <c r="AJ44" s="166"/>
-      <c r="AK44" s="166"/>
-      <c r="AL44" s="166"/>
-      <c r="AM44" s="166"/>
-      <c r="AN44" s="166"/>
-      <c r="AO44" s="166"/>
-      <c r="AP44" s="166"/>
-      <c r="AQ44" s="166"/>
-      <c r="AR44" s="166"/>
-      <c r="AS44" s="167"/>
-      <c r="AT44" s="133" t="s">
+      <c r="AI44" s="194"/>
+      <c r="AJ44" s="194"/>
+      <c r="AK44" s="194"/>
+      <c r="AL44" s="194"/>
+      <c r="AM44" s="194"/>
+      <c r="AN44" s="194"/>
+      <c r="AO44" s="194"/>
+      <c r="AP44" s="194"/>
+      <c r="AQ44" s="194"/>
+      <c r="AR44" s="194"/>
+      <c r="AS44" s="195"/>
+      <c r="AT44" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="134"/>
-      <c r="AV44" s="129" t="s">
+      <c r="AU44" s="152"/>
+      <c r="AV44" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="130"/>
-      <c r="AX44" s="165" t="s">
+      <c r="AW44" s="148"/>
+      <c r="AX44" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="166"/>
-      <c r="AZ44" s="166"/>
-      <c r="BA44" s="166"/>
-      <c r="BB44" s="166"/>
-      <c r="BC44" s="166"/>
-      <c r="BD44" s="167"/>
+      <c r="AY44" s="194"/>
+      <c r="AZ44" s="194"/>
+      <c r="BA44" s="194"/>
+      <c r="BB44" s="194"/>
+      <c r="BC44" s="194"/>
+      <c r="BD44" s="195"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -10088,10 +10088,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="146" t="s">
+      <c r="E45" s="186" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="146"/>
+      <c r="F45" s="186"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -10107,10 +10107,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="146" t="s">
+      <c r="T45" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="146"/>
+      <c r="U45" s="186"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -10139,10 +10139,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="146" t="s">
+      <c r="AT45" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="146"/>
+      <c r="AU45" s="186"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -10171,70 +10171,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="165" t="s">
+      <c r="G46" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="166"/>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
-      <c r="W46" s="166"/>
-      <c r="X46" s="166"/>
-      <c r="Y46" s="166"/>
-      <c r="Z46" s="166"/>
-      <c r="AA46" s="166"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
-      <c r="AE46" s="167"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="194"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="194"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="194"/>
+      <c r="S46" s="194"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="194"/>
+      <c r="V46" s="194"/>
+      <c r="W46" s="194"/>
+      <c r="X46" s="194"/>
+      <c r="Y46" s="194"/>
+      <c r="Z46" s="194"/>
+      <c r="AA46" s="194"/>
+      <c r="AB46" s="194"/>
+      <c r="AC46" s="194"/>
+      <c r="AD46" s="194"/>
+      <c r="AE46" s="195"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="165" t="s">
+      <c r="AH46" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="166"/>
-      <c r="AJ46" s="166"/>
-      <c r="AK46" s="166"/>
-      <c r="AL46" s="166"/>
-      <c r="AM46" s="166"/>
-      <c r="AN46" s="166"/>
-      <c r="AO46" s="166"/>
-      <c r="AP46" s="166"/>
-      <c r="AQ46" s="166"/>
-      <c r="AR46" s="166"/>
-      <c r="AS46" s="167"/>
-      <c r="AT46" s="133" t="s">
+      <c r="AI46" s="194"/>
+      <c r="AJ46" s="194"/>
+      <c r="AK46" s="194"/>
+      <c r="AL46" s="194"/>
+      <c r="AM46" s="194"/>
+      <c r="AN46" s="194"/>
+      <c r="AO46" s="194"/>
+      <c r="AP46" s="194"/>
+      <c r="AQ46" s="194"/>
+      <c r="AR46" s="194"/>
+      <c r="AS46" s="195"/>
+      <c r="AT46" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="134"/>
-      <c r="AV46" s="129" t="s">
+      <c r="AU46" s="152"/>
+      <c r="AV46" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="130"/>
-      <c r="AX46" s="165" t="s">
+      <c r="AW46" s="148"/>
+      <c r="AX46" s="193" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="166"/>
-      <c r="AZ46" s="166"/>
-      <c r="BA46" s="166"/>
-      <c r="BB46" s="166"/>
-      <c r="BC46" s="166"/>
-      <c r="BD46" s="167"/>
+      <c r="AY46" s="194"/>
+      <c r="AZ46" s="194"/>
+      <c r="BA46" s="194"/>
+      <c r="BB46" s="194"/>
+      <c r="BC46" s="194"/>
+      <c r="BD46" s="195"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -10291,10 +10291,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="146" t="s">
+      <c r="AT47" s="186" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="146"/>
+      <c r="AU47" s="186"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -10685,20 +10685,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="136" t="s">
+      <c r="E54" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="136" t="s">
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="137"/>
-      <c r="N54" s="138"/>
+      <c r="M54" s="141"/>
+      <c r="N54" s="209"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -10819,20 +10819,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="139" t="s">
+      <c r="E56" s="200" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="141"/>
-      <c r="L56" s="139" t="s">
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="202"/>
+      <c r="K56" s="201"/>
+      <c r="L56" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="140"/>
-      <c r="N56" s="141"/>
+      <c r="M56" s="202"/>
+      <c r="N56" s="201"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -13304,68 +13304,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="136" t="s">
+      <c r="E95" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="137"/>
-      <c r="I95" s="137"/>
-      <c r="J95" s="137"/>
-      <c r="K95" s="157"/>
-      <c r="L95" s="136" t="s">
+      <c r="F95" s="141"/>
+      <c r="G95" s="141"/>
+      <c r="H95" s="141"/>
+      <c r="I95" s="141"/>
+      <c r="J95" s="141"/>
+      <c r="K95" s="142"/>
+      <c r="L95" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="137"/>
-      <c r="N95" s="157"/>
-      <c r="O95" s="147" t="s">
+      <c r="M95" s="141"/>
+      <c r="N95" s="142"/>
+      <c r="O95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="148"/>
-      <c r="Q95" s="148"/>
-      <c r="R95" s="148"/>
-      <c r="S95" s="148"/>
-      <c r="T95" s="149"/>
-      <c r="U95" s="147" t="s">
+      <c r="P95" s="177"/>
+      <c r="Q95" s="177"/>
+      <c r="R95" s="177"/>
+      <c r="S95" s="177"/>
+      <c r="T95" s="178"/>
+      <c r="U95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="148"/>
-      <c r="W95" s="148"/>
-      <c r="X95" s="148"/>
-      <c r="Y95" s="148"/>
-      <c r="Z95" s="148"/>
-      <c r="AA95" s="148"/>
-      <c r="AB95" s="149"/>
-      <c r="AC95" s="147" t="s">
+      <c r="V95" s="177"/>
+      <c r="W95" s="177"/>
+      <c r="X95" s="177"/>
+      <c r="Y95" s="177"/>
+      <c r="Z95" s="177"/>
+      <c r="AA95" s="177"/>
+      <c r="AB95" s="178"/>
+      <c r="AC95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="148"/>
-      <c r="AE95" s="148"/>
-      <c r="AF95" s="148"/>
-      <c r="AG95" s="148"/>
-      <c r="AH95" s="148"/>
-      <c r="AI95" s="148"/>
-      <c r="AJ95" s="149"/>
-      <c r="AK95" s="147" t="s">
+      <c r="AD95" s="177"/>
+      <c r="AE95" s="177"/>
+      <c r="AF95" s="177"/>
+      <c r="AG95" s="177"/>
+      <c r="AH95" s="177"/>
+      <c r="AI95" s="177"/>
+      <c r="AJ95" s="178"/>
+      <c r="AK95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="148"/>
-      <c r="AM95" s="148"/>
-      <c r="AN95" s="148"/>
-      <c r="AO95" s="148"/>
-      <c r="AP95" s="148"/>
-      <c r="AQ95" s="148"/>
-      <c r="AR95" s="149"/>
-      <c r="AS95" s="192" t="s">
+      <c r="AL95" s="177"/>
+      <c r="AM95" s="177"/>
+      <c r="AN95" s="177"/>
+      <c r="AO95" s="177"/>
+      <c r="AP95" s="177"/>
+      <c r="AQ95" s="177"/>
+      <c r="AR95" s="178"/>
+      <c r="AS95" s="173" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="193"/>
-      <c r="AU95" s="193"/>
-      <c r="AV95" s="193"/>
-      <c r="AW95" s="193"/>
-      <c r="AX95" s="193"/>
-      <c r="AY95" s="193"/>
-      <c r="AZ95" s="194"/>
+      <c r="AT95" s="174"/>
+      <c r="AU95" s="174"/>
+      <c r="AV95" s="174"/>
+      <c r="AW95" s="174"/>
+      <c r="AX95" s="174"/>
+      <c r="AY95" s="174"/>
+      <c r="AZ95" s="175"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -13470,68 +13470,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="139" t="s">
+      <c r="E97" s="200" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="140"/>
-      <c r="G97" s="140"/>
-      <c r="H97" s="140"/>
-      <c r="I97" s="140"/>
-      <c r="J97" s="140"/>
-      <c r="K97" s="141"/>
-      <c r="L97" s="139" t="s">
+      <c r="F97" s="202"/>
+      <c r="G97" s="202"/>
+      <c r="H97" s="202"/>
+      <c r="I97" s="202"/>
+      <c r="J97" s="202"/>
+      <c r="K97" s="201"/>
+      <c r="L97" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="140"/>
-      <c r="N97" s="140"/>
-      <c r="O97" s="139" t="s">
+      <c r="M97" s="202"/>
+      <c r="N97" s="202"/>
+      <c r="O97" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="140"/>
-      <c r="Q97" s="140"/>
-      <c r="R97" s="140"/>
-      <c r="S97" s="140"/>
-      <c r="T97" s="141"/>
-      <c r="U97" s="139" t="s">
+      <c r="P97" s="202"/>
+      <c r="Q97" s="202"/>
+      <c r="R97" s="202"/>
+      <c r="S97" s="202"/>
+      <c r="T97" s="201"/>
+      <c r="U97" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="140"/>
-      <c r="W97" s="140"/>
-      <c r="X97" s="140"/>
-      <c r="Y97" s="140"/>
-      <c r="Z97" s="140"/>
-      <c r="AA97" s="140"/>
-      <c r="AB97" s="141"/>
-      <c r="AC97" s="139" t="s">
+      <c r="V97" s="202"/>
+      <c r="W97" s="202"/>
+      <c r="X97" s="202"/>
+      <c r="Y97" s="202"/>
+      <c r="Z97" s="202"/>
+      <c r="AA97" s="202"/>
+      <c r="AB97" s="201"/>
+      <c r="AC97" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="140"/>
-      <c r="AE97" s="140"/>
-      <c r="AF97" s="140"/>
-      <c r="AG97" s="140"/>
-      <c r="AH97" s="140"/>
-      <c r="AI97" s="140"/>
-      <c r="AJ97" s="141"/>
-      <c r="AK97" s="139" t="s">
+      <c r="AD97" s="202"/>
+      <c r="AE97" s="202"/>
+      <c r="AF97" s="202"/>
+      <c r="AG97" s="202"/>
+      <c r="AH97" s="202"/>
+      <c r="AI97" s="202"/>
+      <c r="AJ97" s="201"/>
+      <c r="AK97" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="140"/>
-      <c r="AM97" s="140"/>
-      <c r="AN97" s="140"/>
-      <c r="AO97" s="140"/>
-      <c r="AP97" s="140"/>
-      <c r="AQ97" s="140"/>
-      <c r="AR97" s="141"/>
-      <c r="AS97" s="140" t="s">
+      <c r="AL97" s="202"/>
+      <c r="AM97" s="202"/>
+      <c r="AN97" s="202"/>
+      <c r="AO97" s="202"/>
+      <c r="AP97" s="202"/>
+      <c r="AQ97" s="202"/>
+      <c r="AR97" s="201"/>
+      <c r="AS97" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="140"/>
-      <c r="AU97" s="140"/>
-      <c r="AV97" s="140"/>
-      <c r="AW97" s="140"/>
-      <c r="AX97" s="140"/>
-      <c r="AY97" s="140"/>
-      <c r="AZ97" s="141"/>
+      <c r="AT97" s="202"/>
+      <c r="AU97" s="202"/>
+      <c r="AV97" s="202"/>
+      <c r="AW97" s="202"/>
+      <c r="AX97" s="202"/>
+      <c r="AY97" s="202"/>
+      <c r="AZ97" s="201"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -13606,68 +13606,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="189" t="s">
+      <c r="E99" s="167" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="190"/>
-      <c r="G99" s="190"/>
-      <c r="H99" s="190"/>
-      <c r="I99" s="190"/>
-      <c r="J99" s="190"/>
-      <c r="K99" s="191"/>
-      <c r="L99" s="142" t="s">
+      <c r="F99" s="168"/>
+      <c r="G99" s="168"/>
+      <c r="H99" s="168"/>
+      <c r="I99" s="168"/>
+      <c r="J99" s="168"/>
+      <c r="K99" s="169"/>
+      <c r="L99" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="143"/>
-      <c r="N99" s="144"/>
-      <c r="O99" s="186" t="s">
+      <c r="M99" s="171"/>
+      <c r="N99" s="172"/>
+      <c r="O99" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="187"/>
-      <c r="Q99" s="187"/>
-      <c r="R99" s="187"/>
-      <c r="S99" s="187"/>
-      <c r="T99" s="188"/>
-      <c r="U99" s="186" t="s">
+      <c r="P99" s="165"/>
+      <c r="Q99" s="165"/>
+      <c r="R99" s="165"/>
+      <c r="S99" s="165"/>
+      <c r="T99" s="166"/>
+      <c r="U99" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="187"/>
-      <c r="W99" s="187"/>
-      <c r="X99" s="187"/>
-      <c r="Y99" s="187"/>
-      <c r="Z99" s="187"/>
-      <c r="AA99" s="187"/>
-      <c r="AB99" s="188"/>
-      <c r="AC99" s="186" t="s">
+      <c r="V99" s="165"/>
+      <c r="W99" s="165"/>
+      <c r="X99" s="165"/>
+      <c r="Y99" s="165"/>
+      <c r="Z99" s="165"/>
+      <c r="AA99" s="165"/>
+      <c r="AB99" s="166"/>
+      <c r="AC99" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="187"/>
-      <c r="AE99" s="187"/>
-      <c r="AF99" s="187"/>
-      <c r="AG99" s="187"/>
-      <c r="AH99" s="187"/>
-      <c r="AI99" s="187"/>
-      <c r="AJ99" s="188"/>
-      <c r="AK99" s="186" t="s">
+      <c r="AD99" s="165"/>
+      <c r="AE99" s="165"/>
+      <c r="AF99" s="165"/>
+      <c r="AG99" s="165"/>
+      <c r="AH99" s="165"/>
+      <c r="AI99" s="165"/>
+      <c r="AJ99" s="166"/>
+      <c r="AK99" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="187"/>
-      <c r="AM99" s="187"/>
-      <c r="AN99" s="187"/>
-      <c r="AO99" s="187"/>
-      <c r="AP99" s="187"/>
-      <c r="AQ99" s="187"/>
-      <c r="AR99" s="188"/>
-      <c r="AS99" s="186" t="s">
+      <c r="AL99" s="165"/>
+      <c r="AM99" s="165"/>
+      <c r="AN99" s="165"/>
+      <c r="AO99" s="165"/>
+      <c r="AP99" s="165"/>
+      <c r="AQ99" s="165"/>
+      <c r="AR99" s="166"/>
+      <c r="AS99" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="187"/>
-      <c r="AU99" s="187"/>
-      <c r="AV99" s="187"/>
-      <c r="AW99" s="187"/>
-      <c r="AX99" s="187"/>
-      <c r="AY99" s="187"/>
-      <c r="AZ99" s="188"/>
+      <c r="AT99" s="165"/>
+      <c r="AU99" s="165"/>
+      <c r="AV99" s="165"/>
+      <c r="AW99" s="165"/>
+      <c r="AX99" s="165"/>
+      <c r="AY99" s="165"/>
+      <c r="AZ99" s="166"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -13809,68 +13809,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="136" t="s">
+      <c r="E102" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="137"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="137"/>
-      <c r="I102" s="137"/>
-      <c r="J102" s="137"/>
-      <c r="K102" s="157"/>
-      <c r="L102" s="136" t="s">
+      <c r="F102" s="141"/>
+      <c r="G102" s="141"/>
+      <c r="H102" s="141"/>
+      <c r="I102" s="141"/>
+      <c r="J102" s="141"/>
+      <c r="K102" s="142"/>
+      <c r="L102" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="137"/>
-      <c r="N102" s="157"/>
-      <c r="O102" s="136" t="s">
+      <c r="M102" s="141"/>
+      <c r="N102" s="142"/>
+      <c r="O102" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="137"/>
-      <c r="Q102" s="137"/>
-      <c r="R102" s="157"/>
-      <c r="S102" s="136" t="s">
+      <c r="P102" s="141"/>
+      <c r="Q102" s="141"/>
+      <c r="R102" s="142"/>
+      <c r="S102" s="140" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="137"/>
-      <c r="U102" s="137"/>
-      <c r="V102" s="137"/>
-      <c r="W102" s="137"/>
-      <c r="X102" s="137"/>
-      <c r="Y102" s="137"/>
-      <c r="Z102" s="137"/>
-      <c r="AA102" s="137"/>
-      <c r="AB102" s="137"/>
-      <c r="AC102" s="137"/>
-      <c r="AD102" s="157"/>
-      <c r="AE102" s="136" t="s">
+      <c r="T102" s="141"/>
+      <c r="U102" s="141"/>
+      <c r="V102" s="141"/>
+      <c r="W102" s="141"/>
+      <c r="X102" s="141"/>
+      <c r="Y102" s="141"/>
+      <c r="Z102" s="141"/>
+      <c r="AA102" s="141"/>
+      <c r="AB102" s="141"/>
+      <c r="AC102" s="141"/>
+      <c r="AD102" s="142"/>
+      <c r="AE102" s="140" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="137"/>
-      <c r="AG102" s="137"/>
-      <c r="AH102" s="137"/>
-      <c r="AI102" s="137"/>
-      <c r="AJ102" s="137"/>
-      <c r="AK102" s="137"/>
-      <c r="AL102" s="137"/>
-      <c r="AM102" s="137"/>
-      <c r="AN102" s="137"/>
-      <c r="AO102" s="137"/>
-      <c r="AP102" s="157"/>
-      <c r="AQ102" s="136" t="s">
+      <c r="AF102" s="141"/>
+      <c r="AG102" s="141"/>
+      <c r="AH102" s="141"/>
+      <c r="AI102" s="141"/>
+      <c r="AJ102" s="141"/>
+      <c r="AK102" s="141"/>
+      <c r="AL102" s="141"/>
+      <c r="AM102" s="141"/>
+      <c r="AN102" s="141"/>
+      <c r="AO102" s="141"/>
+      <c r="AP102" s="142"/>
+      <c r="AQ102" s="140" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="157"/>
-      <c r="AS102" s="136" t="s">
+      <c r="AR102" s="142"/>
+      <c r="AS102" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="137"/>
-      <c r="AU102" s="137"/>
-      <c r="AV102" s="137"/>
-      <c r="AW102" s="137"/>
-      <c r="AX102" s="137"/>
-      <c r="AY102" s="137"/>
-      <c r="AZ102" s="157"/>
+      <c r="AT102" s="141"/>
+      <c r="AU102" s="141"/>
+      <c r="AV102" s="141"/>
+      <c r="AW102" s="141"/>
+      <c r="AX102" s="141"/>
+      <c r="AY102" s="141"/>
+      <c r="AZ102" s="142"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -13973,68 +13973,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="139" t="s">
+      <c r="E104" s="200" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="140"/>
-      <c r="G104" s="140"/>
-      <c r="H104" s="140"/>
-      <c r="I104" s="140"/>
-      <c r="J104" s="140"/>
-      <c r="K104" s="141"/>
-      <c r="L104" s="139" t="s">
+      <c r="F104" s="202"/>
+      <c r="G104" s="202"/>
+      <c r="H104" s="202"/>
+      <c r="I104" s="202"/>
+      <c r="J104" s="202"/>
+      <c r="K104" s="201"/>
+      <c r="L104" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="140"/>
-      <c r="N104" s="141"/>
-      <c r="O104" s="139" t="s">
+      <c r="M104" s="202"/>
+      <c r="N104" s="201"/>
+      <c r="O104" s="200" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="140"/>
-      <c r="Q104" s="140"/>
-      <c r="R104" s="141"/>
-      <c r="S104" s="139" t="s">
+      <c r="P104" s="202"/>
+      <c r="Q104" s="202"/>
+      <c r="R104" s="201"/>
+      <c r="S104" s="200" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="140"/>
-      <c r="U104" s="140"/>
-      <c r="V104" s="140"/>
-      <c r="W104" s="140"/>
-      <c r="X104" s="140"/>
-      <c r="Y104" s="140"/>
-      <c r="Z104" s="140"/>
-      <c r="AA104" s="140"/>
-      <c r="AB104" s="140"/>
-      <c r="AC104" s="140"/>
-      <c r="AD104" s="141"/>
-      <c r="AE104" s="139" t="s">
+      <c r="T104" s="202"/>
+      <c r="U104" s="202"/>
+      <c r="V104" s="202"/>
+      <c r="W104" s="202"/>
+      <c r="X104" s="202"/>
+      <c r="Y104" s="202"/>
+      <c r="Z104" s="202"/>
+      <c r="AA104" s="202"/>
+      <c r="AB104" s="202"/>
+      <c r="AC104" s="202"/>
+      <c r="AD104" s="201"/>
+      <c r="AE104" s="200" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="140"/>
-      <c r="AG104" s="140"/>
-      <c r="AH104" s="140"/>
-      <c r="AI104" s="140"/>
-      <c r="AJ104" s="140"/>
-      <c r="AK104" s="140"/>
-      <c r="AL104" s="140"/>
-      <c r="AM104" s="140"/>
-      <c r="AN104" s="140"/>
-      <c r="AO104" s="140"/>
-      <c r="AP104" s="141"/>
-      <c r="AQ104" s="139" t="s">
+      <c r="AF104" s="202"/>
+      <c r="AG104" s="202"/>
+      <c r="AH104" s="202"/>
+      <c r="AI104" s="202"/>
+      <c r="AJ104" s="202"/>
+      <c r="AK104" s="202"/>
+      <c r="AL104" s="202"/>
+      <c r="AM104" s="202"/>
+      <c r="AN104" s="202"/>
+      <c r="AO104" s="202"/>
+      <c r="AP104" s="201"/>
+      <c r="AQ104" s="200" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="141"/>
-      <c r="AS104" s="139" t="s">
+      <c r="AR104" s="201"/>
+      <c r="AS104" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="140"/>
-      <c r="AU104" s="140"/>
-      <c r="AV104" s="140"/>
-      <c r="AW104" s="140"/>
-      <c r="AX104" s="140"/>
-      <c r="AY104" s="140"/>
-      <c r="AZ104" s="141"/>
+      <c r="AT104" s="202"/>
+      <c r="AU104" s="202"/>
+      <c r="AV104" s="202"/>
+      <c r="AW104" s="202"/>
+      <c r="AX104" s="202"/>
+      <c r="AY104" s="202"/>
+      <c r="AZ104" s="201"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -14120,11 +14120,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="142" t="s">
+      <c r="L106" s="170" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="143"/>
-      <c r="N106" s="144"/>
+      <c r="M106" s="171"/>
+      <c r="N106" s="172"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -14163,16 +14163,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="195" t="s">
+      <c r="AS106" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="196"/>
-      <c r="AU106" s="196"/>
-      <c r="AV106" s="196"/>
-      <c r="AW106" s="196"/>
-      <c r="AX106" s="196"/>
-      <c r="AY106" s="196"/>
-      <c r="AZ106" s="197"/>
+      <c r="AT106" s="137"/>
+      <c r="AU106" s="137"/>
+      <c r="AV106" s="137"/>
+      <c r="AW106" s="137"/>
+      <c r="AX106" s="137"/>
+      <c r="AY106" s="137"/>
+      <c r="AZ106" s="138"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -14238,16 +14238,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="195" t="s">
+      <c r="AS107" s="136" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="196"/>
-      <c r="AU107" s="196"/>
-      <c r="AV107" s="196"/>
-      <c r="AW107" s="196"/>
-      <c r="AX107" s="196"/>
-      <c r="AY107" s="196"/>
-      <c r="AZ107" s="197"/>
+      <c r="AT107" s="137"/>
+      <c r="AU107" s="137"/>
+      <c r="AV107" s="137"/>
+      <c r="AW107" s="137"/>
+      <c r="AX107" s="137"/>
+      <c r="AY107" s="137"/>
+      <c r="AZ107" s="138"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -14315,16 +14315,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="195" t="s">
+      <c r="AS108" s="136" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="196"/>
-      <c r="AU108" s="196"/>
-      <c r="AV108" s="196"/>
-      <c r="AW108" s="196"/>
-      <c r="AX108" s="196"/>
-      <c r="AY108" s="196"/>
-      <c r="AZ108" s="197"/>
+      <c r="AT108" s="137"/>
+      <c r="AU108" s="137"/>
+      <c r="AV108" s="137"/>
+      <c r="AW108" s="137"/>
+      <c r="AX108" s="137"/>
+      <c r="AY108" s="137"/>
+      <c r="AZ108" s="138"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -14388,16 +14388,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="195" t="s">
+      <c r="AS109" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="196"/>
-      <c r="AU109" s="196"/>
-      <c r="AV109" s="196"/>
-      <c r="AW109" s="196"/>
-      <c r="AX109" s="196"/>
-      <c r="AY109" s="196"/>
-      <c r="AZ109" s="197"/>
+      <c r="AT109" s="137"/>
+      <c r="AU109" s="137"/>
+      <c r="AV109" s="137"/>
+      <c r="AW109" s="137"/>
+      <c r="AX109" s="137"/>
+      <c r="AY109" s="137"/>
+      <c r="AZ109" s="138"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -14553,12 +14553,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="183" t="s">
+      <c r="O112" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="184"/>
-      <c r="Q112" s="184"/>
-      <c r="R112" s="185"/>
+      <c r="P112" s="162"/>
+      <c r="Q112" s="162"/>
+      <c r="R112" s="163"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -14583,20 +14583,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="178" t="s">
+      <c r="AQ112" s="156" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="179"/>
-      <c r="AS112" s="180" t="s">
+      <c r="AR112" s="157"/>
+      <c r="AS112" s="158" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="181"/>
-      <c r="AU112" s="181"/>
-      <c r="AV112" s="181"/>
-      <c r="AW112" s="181"/>
-      <c r="AX112" s="181"/>
-      <c r="AY112" s="181"/>
-      <c r="AZ112" s="182"/>
+      <c r="AT112" s="159"/>
+      <c r="AU112" s="159"/>
+      <c r="AV112" s="159"/>
+      <c r="AW112" s="159"/>
+      <c r="AX112" s="159"/>
+      <c r="AY112" s="159"/>
+      <c r="AZ112" s="160"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -15797,20 +15797,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="178" t="s">
+      <c r="AQ130" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="179"/>
-      <c r="AS130" s="180" t="s">
+      <c r="AR130" s="157"/>
+      <c r="AS130" s="158" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="181"/>
-      <c r="AU130" s="181"/>
-      <c r="AV130" s="181"/>
-      <c r="AW130" s="181"/>
-      <c r="AX130" s="181"/>
-      <c r="AY130" s="181"/>
-      <c r="AZ130" s="182"/>
+      <c r="AT130" s="159"/>
+      <c r="AU130" s="159"/>
+      <c r="AV130" s="159"/>
+      <c r="AW130" s="159"/>
+      <c r="AX130" s="159"/>
+      <c r="AY130" s="159"/>
+      <c r="AZ130" s="160"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -15864,16 +15864,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="186" t="s">
+      <c r="AS131" s="164" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="187"/>
-      <c r="AU131" s="187"/>
-      <c r="AV131" s="187"/>
-      <c r="AW131" s="187"/>
-      <c r="AX131" s="187"/>
-      <c r="AY131" s="187"/>
-      <c r="AZ131" s="188"/>
+      <c r="AT131" s="165"/>
+      <c r="AU131" s="165"/>
+      <c r="AV131" s="165"/>
+      <c r="AW131" s="165"/>
+      <c r="AX131" s="165"/>
+      <c r="AY131" s="165"/>
+      <c r="AZ131" s="166"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -15986,20 +15986,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="178" t="s">
+      <c r="AQ133" s="156" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="179"/>
-      <c r="AS133" s="180" t="s">
+      <c r="AR133" s="157"/>
+      <c r="AS133" s="158" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="181"/>
-      <c r="AU133" s="181"/>
-      <c r="AV133" s="181"/>
-      <c r="AW133" s="181"/>
-      <c r="AX133" s="181"/>
-      <c r="AY133" s="181"/>
-      <c r="AZ133" s="182"/>
+      <c r="AT133" s="159"/>
+      <c r="AU133" s="159"/>
+      <c r="AV133" s="159"/>
+      <c r="AW133" s="159"/>
+      <c r="AX133" s="159"/>
+      <c r="AY133" s="159"/>
+      <c r="AZ133" s="160"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -18622,6 +18622,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="AS109:AZ109"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="S102:AD102"/>
@@ -18646,193 +18833,6 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BB6B0-E119-4281-8180-EEE24AE2E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E651AA9-28BC-4261-A42A-36B377B718A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin mapping EVAL" sheetId="3" r:id="rId1"/>
@@ -1423,13 +1423,13 @@
     <t>Pin Mapping MASTER/SLAVE EFR32xG22 (BRD4182A - QFN 40 pin)</t>
   </si>
   <si>
-    <t>Pin Mapping MASTER (EFR32MG22C224F512IM40 - QFN 32 pin)</t>
-  </si>
-  <si>
-    <t>Pin Mapping SLAVE (EFR32MG22C224F512IM40 - QFN 32 pin)</t>
-  </si>
-  <si>
     <t>Pin Mapping SLAVE EFR32xG22 (BRD4183A - QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping SLAVE (EFR32MG22C224F512IM32 - QFN 32 pin)</t>
+  </si>
+  <si>
+    <t>Pin Mapping MASTER (EFR32MG22C224F512IM32 - QFN 32 pin)</t>
   </si>
 </sst>
 </file>
@@ -2317,16 +2317,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,38 +2353,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2375,6 +2396,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2419,15 +2515,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2437,107 +2524,20 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3617,7 +3617,7 @@
   </sheetPr>
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3647,7 +3647,7 @@
         <v>447</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N1" s="5"/>
       <c r="AA1" s="17" t="s">
@@ -6080,8 +6080,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,7 +6103,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>449</v>
@@ -7030,21 +7030,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -7152,45 +7152,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="188" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="188" t="s">
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="168" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="190" t="s">
+      <c r="Q5" s="169"/>
+      <c r="R5" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="188" t="s">
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="168" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="189"/>
-      <c r="Z5" s="197" t="s">
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="199"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="166"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -7225,45 +7225,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="203" t="s">
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203" t="s">
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="204" t="s">
+      <c r="Q6" s="155"/>
+      <c r="R6" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204" t="s">
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204" t="s">
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -7304,29 +7304,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196" t="s">
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196" t="s">
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196" t="s">
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="196"/>
+      <c r="Y7" s="170"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -7762,7 +7762,7 @@
       <c r="E14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="144"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -7790,7 +7790,7 @@
       <c r="AE14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="144"/>
+      <c r="AF14" s="209"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -7833,67 +7833,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="145" t="s">
+      <c r="H15" s="141" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147" t="s">
+      <c r="I15" s="142"/>
+      <c r="J15" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
-      <c r="S15" s="207"/>
-      <c r="T15" s="207"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="207"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
-      <c r="AC15" s="207"/>
-      <c r="AD15" s="207"/>
-      <c r="AE15" s="207"/>
-      <c r="AF15" s="208"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="138"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="145" t="s">
+      <c r="AH15" s="141" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="147" t="s">
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="206"/>
-      <c r="AM15" s="207"/>
-      <c r="AN15" s="207"/>
-      <c r="AO15" s="207"/>
-      <c r="AP15" s="207"/>
-      <c r="AQ15" s="207"/>
-      <c r="AR15" s="207"/>
-      <c r="AS15" s="207"/>
-      <c r="AT15" s="207"/>
-      <c r="AU15" s="207"/>
-      <c r="AV15" s="207"/>
-      <c r="AW15" s="207"/>
-      <c r="AX15" s="207"/>
-      <c r="AY15" s="207"/>
-      <c r="AZ15" s="207"/>
-      <c r="BA15" s="207"/>
-      <c r="BB15" s="207"/>
-      <c r="BC15" s="207"/>
-      <c r="BD15" s="207"/>
-      <c r="BE15" s="207"/>
-      <c r="BF15" s="207"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="137"/>
+      <c r="AR15" s="137"/>
+      <c r="AS15" s="137"/>
+      <c r="AT15" s="137"/>
+      <c r="AU15" s="137"/>
+      <c r="AV15" s="137"/>
+      <c r="AW15" s="137"/>
+      <c r="AX15" s="137"/>
+      <c r="AY15" s="137"/>
+      <c r="AZ15" s="137"/>
+      <c r="BA15" s="137"/>
+      <c r="BB15" s="137"/>
+      <c r="BC15" s="137"/>
+      <c r="BD15" s="137"/>
+      <c r="BE15" s="137"/>
+      <c r="BF15" s="137"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -7914,33 +7914,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="145" t="s">
+      <c r="J16" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147" t="s">
+      <c r="K16" s="142"/>
+      <c r="L16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="148"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207"/>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
-      <c r="W16" s="207"/>
-      <c r="X16" s="207"/>
-      <c r="Y16" s="207"/>
-      <c r="Z16" s="207"/>
-      <c r="AA16" s="207"/>
-      <c r="AB16" s="207"/>
-      <c r="AC16" s="207"/>
-      <c r="AD16" s="207"/>
-      <c r="AE16" s="207"/>
-      <c r="AF16" s="208"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="138"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -7948,33 +7948,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="145" t="s">
+      <c r="AJ16" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="146"/>
-      <c r="AL16" s="147" t="s">
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="148"/>
-      <c r="AN16" s="206"/>
-      <c r="AO16" s="207"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="207"/>
-      <c r="AR16" s="207"/>
-      <c r="AS16" s="207"/>
-      <c r="AT16" s="207"/>
-      <c r="AU16" s="207"/>
-      <c r="AV16" s="207"/>
-      <c r="AW16" s="207"/>
-      <c r="AX16" s="207"/>
-      <c r="AY16" s="207"/>
-      <c r="AZ16" s="207"/>
-      <c r="BA16" s="207"/>
-      <c r="BB16" s="207"/>
-      <c r="BC16" s="207"/>
-      <c r="BD16" s="207"/>
-      <c r="BE16" s="207"/>
-      <c r="BF16" s="207"/>
+      <c r="AM16" s="140"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="137"/>
+      <c r="AR16" s="137"/>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="137"/>
+      <c r="AU16" s="137"/>
+      <c r="AV16" s="137"/>
+      <c r="AW16" s="137"/>
+      <c r="AX16" s="137"/>
+      <c r="AY16" s="137"/>
+      <c r="AZ16" s="137"/>
+      <c r="BA16" s="137"/>
+      <c r="BB16" s="137"/>
+      <c r="BC16" s="137"/>
+      <c r="BD16" s="137"/>
+      <c r="BE16" s="137"/>
+      <c r="BF16" s="137"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -7997,31 +7997,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="145" t="s">
+      <c r="L17" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147" t="s">
+      <c r="M17" s="142"/>
+      <c r="N17" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="148"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="207"/>
-      <c r="S17" s="207"/>
-      <c r="T17" s="207"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
-      <c r="AF17" s="208"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="138"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -8031,31 +8031,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="145" t="s">
+      <c r="AL17" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="147" t="s">
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="206"/>
-      <c r="AQ17" s="207"/>
-      <c r="AR17" s="207"/>
-      <c r="AS17" s="207"/>
-      <c r="AT17" s="207"/>
-      <c r="AU17" s="207"/>
-      <c r="AV17" s="207"/>
-      <c r="AW17" s="207"/>
-      <c r="AX17" s="207"/>
-      <c r="AY17" s="207"/>
-      <c r="AZ17" s="207"/>
-      <c r="BA17" s="207"/>
-      <c r="BB17" s="207"/>
-      <c r="BC17" s="207"/>
-      <c r="BD17" s="207"/>
-      <c r="BE17" s="207"/>
-      <c r="BF17" s="207"/>
+      <c r="AO17" s="140"/>
+      <c r="AP17" s="136"/>
+      <c r="AQ17" s="137"/>
+      <c r="AR17" s="137"/>
+      <c r="AS17" s="137"/>
+      <c r="AT17" s="137"/>
+      <c r="AU17" s="137"/>
+      <c r="AV17" s="137"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="137"/>
+      <c r="AY17" s="137"/>
+      <c r="AZ17" s="137"/>
+      <c r="BA17" s="137"/>
+      <c r="BB17" s="137"/>
+      <c r="BC17" s="137"/>
+      <c r="BD17" s="137"/>
+      <c r="BE17" s="137"/>
+      <c r="BF17" s="137"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -8083,24 +8083,24 @@
       <c r="N18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="152"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
-      <c r="Y18" s="207"/>
-      <c r="Z18" s="207"/>
-      <c r="AA18" s="207"/>
-      <c r="AB18" s="207"/>
-      <c r="AC18" s="207"/>
-      <c r="AD18" s="207"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="208"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="138"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -8115,24 +8115,24 @@
       <c r="AN18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="207"/>
-      <c r="AR18" s="207"/>
-      <c r="AS18" s="207"/>
-      <c r="AT18" s="207"/>
-      <c r="AU18" s="207"/>
-      <c r="AV18" s="207"/>
-      <c r="AW18" s="207"/>
-      <c r="AX18" s="207"/>
-      <c r="AY18" s="207"/>
-      <c r="AZ18" s="207"/>
-      <c r="BA18" s="207"/>
-      <c r="BB18" s="207"/>
-      <c r="BC18" s="207"/>
-      <c r="BD18" s="207"/>
-      <c r="BE18" s="207"/>
-      <c r="BF18" s="207"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="136"/>
+      <c r="AQ18" s="137"/>
+      <c r="AR18" s="137"/>
+      <c r="AS18" s="137"/>
+      <c r="AT18" s="137"/>
+      <c r="AU18" s="137"/>
+      <c r="AV18" s="137"/>
+      <c r="AW18" s="137"/>
+      <c r="AX18" s="137"/>
+      <c r="AY18" s="137"/>
+      <c r="AZ18" s="137"/>
+      <c r="BA18" s="137"/>
+      <c r="BB18" s="137"/>
+      <c r="BC18" s="137"/>
+      <c r="BD18" s="137"/>
+      <c r="BE18" s="137"/>
+      <c r="BF18" s="137"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -8358,23 +8358,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="145" t="s">
+      <c r="T22" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="146"/>
-      <c r="V22" s="147" t="s">
+      <c r="U22" s="142"/>
+      <c r="V22" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="208"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="138"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -8392,23 +8392,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="145" t="s">
+      <c r="AT22" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="146"/>
-      <c r="AV22" s="147" t="s">
+      <c r="AU22" s="142"/>
+      <c r="AV22" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="206"/>
-      <c r="AY22" s="207"/>
-      <c r="AZ22" s="207"/>
-      <c r="BA22" s="207"/>
-      <c r="BB22" s="207"/>
-      <c r="BC22" s="207"/>
-      <c r="BD22" s="207"/>
-      <c r="BE22" s="207"/>
-      <c r="BF22" s="207"/>
+      <c r="AW22" s="140"/>
+      <c r="AX22" s="136"/>
+      <c r="AY22" s="137"/>
+      <c r="AZ22" s="137"/>
+      <c r="BA22" s="137"/>
+      <c r="BB22" s="137"/>
+      <c r="BC22" s="137"/>
+      <c r="BD22" s="137"/>
+      <c r="BE22" s="137"/>
+      <c r="BF22" s="137"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -8441,21 +8441,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="145" t="s">
+      <c r="V23" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="146"/>
-      <c r="X23" s="147" t="s">
+      <c r="W23" s="142"/>
+      <c r="X23" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="206"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="207"/>
-      <c r="AD23" s="207"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="208"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="138"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -8475,21 +8475,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="145" t="s">
+      <c r="AV23" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="146"/>
-      <c r="AX23" s="147" t="s">
+      <c r="AW23" s="142"/>
+      <c r="AX23" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="148"/>
-      <c r="AZ23" s="206"/>
-      <c r="BA23" s="207"/>
-      <c r="BB23" s="207"/>
-      <c r="BC23" s="207"/>
-      <c r="BD23" s="207"/>
-      <c r="BE23" s="207"/>
-      <c r="BF23" s="207"/>
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="137"/>
+      <c r="BB23" s="137"/>
+      <c r="BC23" s="137"/>
+      <c r="BD23" s="137"/>
+      <c r="BE23" s="137"/>
+      <c r="BF23" s="137"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -8524,19 +8524,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="145" t="s">
+      <c r="X24" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="146"/>
-      <c r="Z24" s="147" t="s">
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="207"/>
-      <c r="AD24" s="207"/>
-      <c r="AE24" s="207"/>
-      <c r="AF24" s="208"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="138"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -8558,19 +8558,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="145" t="s">
+      <c r="AX24" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="146"/>
-      <c r="AZ24" s="147" t="s">
+      <c r="AY24" s="142"/>
+      <c r="AZ24" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="148"/>
-      <c r="BB24" s="206"/>
-      <c r="BC24" s="207"/>
-      <c r="BD24" s="207"/>
-      <c r="BE24" s="207"/>
-      <c r="BF24" s="207"/>
+      <c r="BA24" s="140"/>
+      <c r="BB24" s="136"/>
+      <c r="BC24" s="137"/>
+      <c r="BD24" s="137"/>
+      <c r="BE24" s="137"/>
+      <c r="BF24" s="137"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -8610,14 +8610,14 @@
       <c r="Z25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="147" t="s">
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="206"/>
-      <c r="AE25" s="207"/>
-      <c r="AF25" s="208"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="138"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -8644,14 +8644,14 @@
       <c r="AZ25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="152"/>
-      <c r="BB25" s="147" t="s">
+      <c r="BA25" s="144"/>
+      <c r="BB25" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="148"/>
-      <c r="BD25" s="206"/>
-      <c r="BE25" s="207"/>
-      <c r="BF25" s="207"/>
+      <c r="BC25" s="140"/>
+      <c r="BD25" s="136"/>
+      <c r="BE25" s="137"/>
+      <c r="BF25" s="137"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -8909,29 +8909,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="150"/>
+      <c r="F30" s="187"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="149" t="s">
+      <c r="H30" s="186" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="149" t="s">
+      <c r="I30" s="187"/>
+      <c r="J30" s="186" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="150"/>
-      <c r="L30" s="149" t="s">
+      <c r="K30" s="187"/>
+      <c r="L30" s="186" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="150"/>
-      <c r="N30" s="149" t="s">
+      <c r="M30" s="187"/>
+      <c r="N30" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="150"/>
+      <c r="O30" s="187"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -8940,50 +8940,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="149" t="s">
+      <c r="T30" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="150"/>
-      <c r="V30" s="149" t="s">
+      <c r="U30" s="187"/>
+      <c r="V30" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="150"/>
-      <c r="X30" s="149" t="s">
+      <c r="W30" s="187"/>
+      <c r="X30" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="149" t="s">
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="153" t="s">
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="149" t="s">
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="150"/>
+      <c r="AF30" s="187"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="149" t="s">
+      <c r="AH30" s="186" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="149" t="s">
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="186" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="149" t="s">
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="186" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="149" t="s">
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="150"/>
+      <c r="AO30" s="187"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -8992,27 +8992,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="149" t="s">
+      <c r="AT30" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="149" t="s">
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="150"/>
-      <c r="AX30" s="149" t="s">
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="150"/>
-      <c r="AZ30" s="149" t="s">
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="150"/>
-      <c r="BB30" s="153" t="s">
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="154"/>
-      <c r="BD30" s="155"/>
+      <c r="BC30" s="161"/>
+      <c r="BD30" s="162"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -9024,10 +9024,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="151" t="s">
+      <c r="E31" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="151"/>
+      <c r="F31" s="163"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -9054,10 +9054,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="151" t="s">
+      <c r="AE31" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="151"/>
+      <c r="AF31" s="163"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -9167,75 +9167,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="179" t="s">
+      <c r="H33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="149" t="s">
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="150"/>
-      <c r="V33" s="153" t="s">
+      <c r="U33" s="187"/>
+      <c r="V33" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="155"/>
-      <c r="X33" s="179" t="s">
+      <c r="W33" s="162"/>
+      <c r="X33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="180"/>
-      <c r="AA33" s="180"/>
-      <c r="AB33" s="180"/>
-      <c r="AC33" s="180"/>
-      <c r="AD33" s="180"/>
-      <c r="AE33" s="181"/>
+      <c r="Y33" s="184"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="185"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="179" t="s">
+      <c r="AH33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="180"/>
-      <c r="AJ33" s="180"/>
-      <c r="AK33" s="180"/>
-      <c r="AL33" s="180"/>
-      <c r="AM33" s="180"/>
-      <c r="AN33" s="180"/>
-      <c r="AO33" s="180"/>
-      <c r="AP33" s="180"/>
-      <c r="AQ33" s="180"/>
-      <c r="AR33" s="180"/>
-      <c r="AS33" s="181"/>
-      <c r="AT33" s="149" t="s">
+      <c r="AI33" s="184"/>
+      <c r="AJ33" s="184"/>
+      <c r="AK33" s="184"/>
+      <c r="AL33" s="184"/>
+      <c r="AM33" s="184"/>
+      <c r="AN33" s="184"/>
+      <c r="AO33" s="184"/>
+      <c r="AP33" s="184"/>
+      <c r="AQ33" s="184"/>
+      <c r="AR33" s="184"/>
+      <c r="AS33" s="185"/>
+      <c r="AT33" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="150"/>
-      <c r="AV33" s="153" t="s">
+      <c r="AU33" s="187"/>
+      <c r="AV33" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="155"/>
-      <c r="AX33" s="179" t="s">
+      <c r="AW33" s="162"/>
+      <c r="AX33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="180"/>
-      <c r="AZ33" s="180"/>
-      <c r="BA33" s="180"/>
-      <c r="BB33" s="180"/>
-      <c r="BC33" s="180"/>
-      <c r="BD33" s="181"/>
+      <c r="AY33" s="184"/>
+      <c r="AZ33" s="184"/>
+      <c r="BA33" s="184"/>
+      <c r="BB33" s="184"/>
+      <c r="BC33" s="184"/>
+      <c r="BD33" s="185"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -9247,10 +9247,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="151" t="s">
+      <c r="E34" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="163"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -9266,10 +9266,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="151" t="s">
+      <c r="T34" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="151"/>
+      <c r="U34" s="163"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -9298,10 +9298,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="151" t="s">
+      <c r="AT34" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="151"/>
+      <c r="AU34" s="163"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -9572,33 +9572,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="182" t="s">
+      <c r="E39" s="178" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="183"/>
-      <c r="G39" s="184" t="s">
+      <c r="F39" s="179"/>
+      <c r="G39" s="181" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="185"/>
+      <c r="H39" s="182"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="152"/>
+      <c r="K39" s="144"/>
       <c r="L39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="152"/>
+      <c r="M39" s="144"/>
       <c r="N39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="152"/>
+      <c r="O39" s="144"/>
       <c r="P39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="152"/>
+      <c r="Q39" s="144"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -9610,47 +9610,47 @@
       <c r="V39" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="152"/>
+      <c r="W39" s="144"/>
       <c r="X39" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="152"/>
+      <c r="Y39" s="144"/>
       <c r="Z39" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="152"/>
+      <c r="AA39" s="144"/>
       <c r="AB39" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="152"/>
-      <c r="AD39" s="147" t="s">
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="187"/>
-      <c r="AF39" s="148"/>
+      <c r="AE39" s="180"/>
+      <c r="AF39" s="140"/>
       <c r="AG39" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="152"/>
+      <c r="AH39" s="144"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="152"/>
+      <c r="AK39" s="144"/>
       <c r="AL39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="152"/>
+      <c r="AM39" s="144"/>
       <c r="AN39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="152"/>
+      <c r="AO39" s="144"/>
       <c r="AP39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="152"/>
+      <c r="AQ39" s="144"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -9679,14 +9679,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="186" t="s">
+      <c r="E40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186" t="s">
+      <c r="F40" s="156"/>
+      <c r="G40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="186"/>
+      <c r="H40" s="156"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -9713,10 +9713,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="186" t="s">
+      <c r="AG40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="186"/>
+      <c r="AH40" s="156"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -9755,24 +9755,24 @@
       <c r="E41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="152"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="152"/>
+      <c r="I41" s="144"/>
       <c r="J41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="152"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="184" t="s">
+      <c r="K41" s="144"/>
+      <c r="L41" s="178"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="181" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="185"/>
+      <c r="O41" s="182"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -9784,47 +9784,47 @@
       <c r="T41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="152"/>
+      <c r="U41" s="144"/>
       <c r="V41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="152"/>
+      <c r="W41" s="144"/>
       <c r="X41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="152"/>
+      <c r="Y41" s="144"/>
       <c r="Z41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="152"/>
-      <c r="AB41" s="147" t="s">
+      <c r="AA41" s="144"/>
+      <c r="AB41" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="187"/>
-      <c r="AD41" s="148"/>
+      <c r="AC41" s="180"/>
+      <c r="AD41" s="140"/>
       <c r="AE41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="152"/>
+      <c r="AF41" s="144"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="152"/>
+      <c r="AI41" s="144"/>
       <c r="AJ41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="152"/>
+      <c r="AK41" s="144"/>
       <c r="AL41" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="152"/>
+      <c r="AM41" s="144"/>
       <c r="AN41" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="152"/>
+      <c r="AO41" s="144"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -9836,24 +9836,24 @@
       <c r="AT41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="152"/>
+      <c r="AU41" s="144"/>
       <c r="AV41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="152"/>
+      <c r="AW41" s="144"/>
       <c r="AX41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="152"/>
+      <c r="AY41" s="144"/>
       <c r="AZ41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="152"/>
-      <c r="BB41" s="147" t="s">
+      <c r="BA41" s="144"/>
+      <c r="BB41" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="187"/>
-      <c r="BD41" s="148"/>
+      <c r="BC41" s="180"/>
+      <c r="BD41" s="140"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -9865,10 +9865,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="186" t="s">
+      <c r="E42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="186"/>
+      <c r="F42" s="156"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -9895,10 +9895,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="186" t="s">
+      <c r="AE42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="186"/>
+      <c r="AF42" s="156"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -10008,75 +10008,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="193" t="s">
+      <c r="H44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="194"/>
-      <c r="S44" s="195"/>
-      <c r="T44" s="182" t="s">
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="176"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="176"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="178" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="183"/>
-      <c r="V44" s="147" t="s">
+      <c r="U44" s="179"/>
+      <c r="V44" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="148"/>
-      <c r="X44" s="193" t="s">
+      <c r="W44" s="140"/>
+      <c r="X44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="194"/>
-      <c r="Z44" s="194"/>
-      <c r="AA44" s="194"/>
-      <c r="AB44" s="194"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="194"/>
-      <c r="AE44" s="195"/>
+      <c r="Y44" s="176"/>
+      <c r="Z44" s="176"/>
+      <c r="AA44" s="176"/>
+      <c r="AB44" s="176"/>
+      <c r="AC44" s="176"/>
+      <c r="AD44" s="176"/>
+      <c r="AE44" s="177"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="193" t="s">
+      <c r="AH44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="194"/>
-      <c r="AJ44" s="194"/>
-      <c r="AK44" s="194"/>
-      <c r="AL44" s="194"/>
-      <c r="AM44" s="194"/>
-      <c r="AN44" s="194"/>
-      <c r="AO44" s="194"/>
-      <c r="AP44" s="194"/>
-      <c r="AQ44" s="194"/>
-      <c r="AR44" s="194"/>
-      <c r="AS44" s="195"/>
+      <c r="AI44" s="176"/>
+      <c r="AJ44" s="176"/>
+      <c r="AK44" s="176"/>
+      <c r="AL44" s="176"/>
+      <c r="AM44" s="176"/>
+      <c r="AN44" s="176"/>
+      <c r="AO44" s="176"/>
+      <c r="AP44" s="176"/>
+      <c r="AQ44" s="176"/>
+      <c r="AR44" s="176"/>
+      <c r="AS44" s="177"/>
       <c r="AT44" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="152"/>
-      <c r="AV44" s="147" t="s">
+      <c r="AU44" s="144"/>
+      <c r="AV44" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="148"/>
-      <c r="AX44" s="193" t="s">
+      <c r="AW44" s="140"/>
+      <c r="AX44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="194"/>
-      <c r="AZ44" s="194"/>
-      <c r="BA44" s="194"/>
-      <c r="BB44" s="194"/>
-      <c r="BC44" s="194"/>
-      <c r="BD44" s="195"/>
+      <c r="AY44" s="176"/>
+      <c r="AZ44" s="176"/>
+      <c r="BA44" s="176"/>
+      <c r="BB44" s="176"/>
+      <c r="BC44" s="176"/>
+      <c r="BD44" s="177"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -10088,10 +10088,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="186" t="s">
+      <c r="E45" s="156" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="186"/>
+      <c r="F45" s="156"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -10107,10 +10107,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="186" t="s">
+      <c r="T45" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="186"/>
+      <c r="U45" s="156"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -10139,10 +10139,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="186" t="s">
+      <c r="AT45" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="186"/>
+      <c r="AU45" s="156"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -10171,70 +10171,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="193" t="s">
+      <c r="G46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
-      <c r="N46" s="194"/>
-      <c r="O46" s="194"/>
-      <c r="P46" s="194"/>
-      <c r="Q46" s="194"/>
-      <c r="R46" s="194"/>
-      <c r="S46" s="194"/>
-      <c r="T46" s="194"/>
-      <c r="U46" s="194"/>
-      <c r="V46" s="194"/>
-      <c r="W46" s="194"/>
-      <c r="X46" s="194"/>
-      <c r="Y46" s="194"/>
-      <c r="Z46" s="194"/>
-      <c r="AA46" s="194"/>
-      <c r="AB46" s="194"/>
-      <c r="AC46" s="194"/>
-      <c r="AD46" s="194"/>
-      <c r="AE46" s="195"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="176"/>
+      <c r="L46" s="176"/>
+      <c r="M46" s="176"/>
+      <c r="N46" s="176"/>
+      <c r="O46" s="176"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="176"/>
+      <c r="X46" s="176"/>
+      <c r="Y46" s="176"/>
+      <c r="Z46" s="176"/>
+      <c r="AA46" s="176"/>
+      <c r="AB46" s="176"/>
+      <c r="AC46" s="176"/>
+      <c r="AD46" s="176"/>
+      <c r="AE46" s="177"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="193" t="s">
+      <c r="AH46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="194"/>
-      <c r="AJ46" s="194"/>
-      <c r="AK46" s="194"/>
-      <c r="AL46" s="194"/>
-      <c r="AM46" s="194"/>
-      <c r="AN46" s="194"/>
-      <c r="AO46" s="194"/>
-      <c r="AP46" s="194"/>
-      <c r="AQ46" s="194"/>
-      <c r="AR46" s="194"/>
-      <c r="AS46" s="195"/>
+      <c r="AI46" s="176"/>
+      <c r="AJ46" s="176"/>
+      <c r="AK46" s="176"/>
+      <c r="AL46" s="176"/>
+      <c r="AM46" s="176"/>
+      <c r="AN46" s="176"/>
+      <c r="AO46" s="176"/>
+      <c r="AP46" s="176"/>
+      <c r="AQ46" s="176"/>
+      <c r="AR46" s="176"/>
+      <c r="AS46" s="177"/>
       <c r="AT46" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="152"/>
-      <c r="AV46" s="147" t="s">
+      <c r="AU46" s="144"/>
+      <c r="AV46" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="148"/>
-      <c r="AX46" s="193" t="s">
+      <c r="AW46" s="140"/>
+      <c r="AX46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="194"/>
-      <c r="AZ46" s="194"/>
-      <c r="BA46" s="194"/>
-      <c r="BB46" s="194"/>
-      <c r="BC46" s="194"/>
-      <c r="BD46" s="195"/>
+      <c r="AY46" s="176"/>
+      <c r="AZ46" s="176"/>
+      <c r="BA46" s="176"/>
+      <c r="BB46" s="176"/>
+      <c r="BC46" s="176"/>
+      <c r="BD46" s="177"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -10291,10 +10291,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="186" t="s">
+      <c r="AT47" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="186"/>
+      <c r="AU47" s="156"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -10685,20 +10685,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="140" t="s">
+      <c r="E54" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="140" t="s">
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="141"/>
-      <c r="N54" s="209"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="148"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -10819,20 +10819,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="200" t="s">
+      <c r="E56" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="202"/>
-      <c r="G56" s="202"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="202"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="200" t="s">
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="202"/>
-      <c r="N56" s="201"/>
+      <c r="M56" s="150"/>
+      <c r="N56" s="151"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -13304,68 +13304,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="140" t="s">
+      <c r="E95" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
-      <c r="H95" s="141"/>
-      <c r="I95" s="141"/>
-      <c r="J95" s="141"/>
-      <c r="K95" s="142"/>
-      <c r="L95" s="140" t="s">
+      <c r="F95" s="147"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="147"/>
+      <c r="K95" s="167"/>
+      <c r="L95" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="141"/>
-      <c r="N95" s="142"/>
-      <c r="O95" s="176" t="s">
+      <c r="M95" s="147"/>
+      <c r="N95" s="167"/>
+      <c r="O95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="177"/>
-      <c r="Q95" s="177"/>
-      <c r="R95" s="177"/>
-      <c r="S95" s="177"/>
-      <c r="T95" s="178"/>
-      <c r="U95" s="176" t="s">
+      <c r="P95" s="158"/>
+      <c r="Q95" s="158"/>
+      <c r="R95" s="158"/>
+      <c r="S95" s="158"/>
+      <c r="T95" s="159"/>
+      <c r="U95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="177"/>
-      <c r="W95" s="177"/>
-      <c r="X95" s="177"/>
-      <c r="Y95" s="177"/>
-      <c r="Z95" s="177"/>
-      <c r="AA95" s="177"/>
-      <c r="AB95" s="178"/>
-      <c r="AC95" s="176" t="s">
+      <c r="V95" s="158"/>
+      <c r="W95" s="158"/>
+      <c r="X95" s="158"/>
+      <c r="Y95" s="158"/>
+      <c r="Z95" s="158"/>
+      <c r="AA95" s="158"/>
+      <c r="AB95" s="159"/>
+      <c r="AC95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="177"/>
-      <c r="AE95" s="177"/>
-      <c r="AF95" s="177"/>
-      <c r="AG95" s="177"/>
-      <c r="AH95" s="177"/>
-      <c r="AI95" s="177"/>
-      <c r="AJ95" s="178"/>
-      <c r="AK95" s="176" t="s">
+      <c r="AD95" s="158"/>
+      <c r="AE95" s="158"/>
+      <c r="AF95" s="158"/>
+      <c r="AG95" s="158"/>
+      <c r="AH95" s="158"/>
+      <c r="AI95" s="158"/>
+      <c r="AJ95" s="159"/>
+      <c r="AK95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="177"/>
-      <c r="AM95" s="177"/>
-      <c r="AN95" s="177"/>
-      <c r="AO95" s="177"/>
-      <c r="AP95" s="177"/>
-      <c r="AQ95" s="177"/>
-      <c r="AR95" s="178"/>
-      <c r="AS95" s="173" t="s">
+      <c r="AL95" s="158"/>
+      <c r="AM95" s="158"/>
+      <c r="AN95" s="158"/>
+      <c r="AO95" s="158"/>
+      <c r="AP95" s="158"/>
+      <c r="AQ95" s="158"/>
+      <c r="AR95" s="159"/>
+      <c r="AS95" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="174"/>
-      <c r="AU95" s="174"/>
-      <c r="AV95" s="174"/>
-      <c r="AW95" s="174"/>
-      <c r="AX95" s="174"/>
-      <c r="AY95" s="174"/>
-      <c r="AZ95" s="175"/>
+      <c r="AT95" s="203"/>
+      <c r="AU95" s="203"/>
+      <c r="AV95" s="203"/>
+      <c r="AW95" s="203"/>
+      <c r="AX95" s="203"/>
+      <c r="AY95" s="203"/>
+      <c r="AZ95" s="204"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -13470,68 +13470,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="200" t="s">
+      <c r="E97" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="202"/>
-      <c r="G97" s="202"/>
-      <c r="H97" s="202"/>
-      <c r="I97" s="202"/>
-      <c r="J97" s="202"/>
-      <c r="K97" s="201"/>
-      <c r="L97" s="200" t="s">
+      <c r="F97" s="150"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="151"/>
+      <c r="L97" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="202"/>
-      <c r="N97" s="202"/>
-      <c r="O97" s="200" t="s">
+      <c r="M97" s="150"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="202"/>
-      <c r="Q97" s="202"/>
-      <c r="R97" s="202"/>
-      <c r="S97" s="202"/>
-      <c r="T97" s="201"/>
-      <c r="U97" s="200" t="s">
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
+      <c r="T97" s="151"/>
+      <c r="U97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="202"/>
-      <c r="W97" s="202"/>
-      <c r="X97" s="202"/>
-      <c r="Y97" s="202"/>
-      <c r="Z97" s="202"/>
-      <c r="AA97" s="202"/>
-      <c r="AB97" s="201"/>
-      <c r="AC97" s="200" t="s">
+      <c r="V97" s="150"/>
+      <c r="W97" s="150"/>
+      <c r="X97" s="150"/>
+      <c r="Y97" s="150"/>
+      <c r="Z97" s="150"/>
+      <c r="AA97" s="150"/>
+      <c r="AB97" s="151"/>
+      <c r="AC97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="202"/>
-      <c r="AE97" s="202"/>
-      <c r="AF97" s="202"/>
-      <c r="AG97" s="202"/>
-      <c r="AH97" s="202"/>
-      <c r="AI97" s="202"/>
-      <c r="AJ97" s="201"/>
-      <c r="AK97" s="200" t="s">
+      <c r="AD97" s="150"/>
+      <c r="AE97" s="150"/>
+      <c r="AF97" s="150"/>
+      <c r="AG97" s="150"/>
+      <c r="AH97" s="150"/>
+      <c r="AI97" s="150"/>
+      <c r="AJ97" s="151"/>
+      <c r="AK97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="202"/>
-      <c r="AM97" s="202"/>
-      <c r="AN97" s="202"/>
-      <c r="AO97" s="202"/>
-      <c r="AP97" s="202"/>
-      <c r="AQ97" s="202"/>
-      <c r="AR97" s="201"/>
-      <c r="AS97" s="202" t="s">
+      <c r="AL97" s="150"/>
+      <c r="AM97" s="150"/>
+      <c r="AN97" s="150"/>
+      <c r="AO97" s="150"/>
+      <c r="AP97" s="150"/>
+      <c r="AQ97" s="150"/>
+      <c r="AR97" s="151"/>
+      <c r="AS97" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="202"/>
-      <c r="AU97" s="202"/>
-      <c r="AV97" s="202"/>
-      <c r="AW97" s="202"/>
-      <c r="AX97" s="202"/>
-      <c r="AY97" s="202"/>
-      <c r="AZ97" s="201"/>
+      <c r="AT97" s="150"/>
+      <c r="AU97" s="150"/>
+      <c r="AV97" s="150"/>
+      <c r="AW97" s="150"/>
+      <c r="AX97" s="150"/>
+      <c r="AY97" s="150"/>
+      <c r="AZ97" s="151"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -13606,68 +13606,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="167" t="s">
+      <c r="E99" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="168"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="168"/>
-      <c r="I99" s="168"/>
-      <c r="J99" s="168"/>
-      <c r="K99" s="169"/>
-      <c r="L99" s="170" t="s">
+      <c r="F99" s="200"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="200"/>
+      <c r="I99" s="200"/>
+      <c r="J99" s="200"/>
+      <c r="K99" s="201"/>
+      <c r="L99" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="171"/>
-      <c r="N99" s="172"/>
-      <c r="O99" s="164" t="s">
+      <c r="M99" s="153"/>
+      <c r="N99" s="154"/>
+      <c r="O99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="165"/>
-      <c r="Q99" s="165"/>
-      <c r="R99" s="165"/>
-      <c r="S99" s="165"/>
-      <c r="T99" s="166"/>
-      <c r="U99" s="164" t="s">
+      <c r="P99" s="197"/>
+      <c r="Q99" s="197"/>
+      <c r="R99" s="197"/>
+      <c r="S99" s="197"/>
+      <c r="T99" s="198"/>
+      <c r="U99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="165"/>
-      <c r="W99" s="165"/>
-      <c r="X99" s="165"/>
-      <c r="Y99" s="165"/>
-      <c r="Z99" s="165"/>
-      <c r="AA99" s="165"/>
-      <c r="AB99" s="166"/>
-      <c r="AC99" s="164" t="s">
+      <c r="V99" s="197"/>
+      <c r="W99" s="197"/>
+      <c r="X99" s="197"/>
+      <c r="Y99" s="197"/>
+      <c r="Z99" s="197"/>
+      <c r="AA99" s="197"/>
+      <c r="AB99" s="198"/>
+      <c r="AC99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="165"/>
-      <c r="AE99" s="165"/>
-      <c r="AF99" s="165"/>
-      <c r="AG99" s="165"/>
-      <c r="AH99" s="165"/>
-      <c r="AI99" s="165"/>
-      <c r="AJ99" s="166"/>
-      <c r="AK99" s="164" t="s">
+      <c r="AD99" s="197"/>
+      <c r="AE99" s="197"/>
+      <c r="AF99" s="197"/>
+      <c r="AG99" s="197"/>
+      <c r="AH99" s="197"/>
+      <c r="AI99" s="197"/>
+      <c r="AJ99" s="198"/>
+      <c r="AK99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="165"/>
-      <c r="AM99" s="165"/>
-      <c r="AN99" s="165"/>
-      <c r="AO99" s="165"/>
-      <c r="AP99" s="165"/>
-      <c r="AQ99" s="165"/>
-      <c r="AR99" s="166"/>
-      <c r="AS99" s="164" t="s">
+      <c r="AL99" s="197"/>
+      <c r="AM99" s="197"/>
+      <c r="AN99" s="197"/>
+      <c r="AO99" s="197"/>
+      <c r="AP99" s="197"/>
+      <c r="AQ99" s="197"/>
+      <c r="AR99" s="198"/>
+      <c r="AS99" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="165"/>
-      <c r="AU99" s="165"/>
-      <c r="AV99" s="165"/>
-      <c r="AW99" s="165"/>
-      <c r="AX99" s="165"/>
-      <c r="AY99" s="165"/>
-      <c r="AZ99" s="166"/>
+      <c r="AT99" s="197"/>
+      <c r="AU99" s="197"/>
+      <c r="AV99" s="197"/>
+      <c r="AW99" s="197"/>
+      <c r="AX99" s="197"/>
+      <c r="AY99" s="197"/>
+      <c r="AZ99" s="198"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -13809,68 +13809,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="140" t="s">
+      <c r="E102" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="141"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="141"/>
-      <c r="I102" s="141"/>
-      <c r="J102" s="141"/>
-      <c r="K102" s="142"/>
-      <c r="L102" s="140" t="s">
+      <c r="F102" s="147"/>
+      <c r="G102" s="147"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="147"/>
+      <c r="K102" s="167"/>
+      <c r="L102" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="141"/>
-      <c r="N102" s="142"/>
-      <c r="O102" s="140" t="s">
+      <c r="M102" s="147"/>
+      <c r="N102" s="167"/>
+      <c r="O102" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="141"/>
-      <c r="Q102" s="141"/>
-      <c r="R102" s="142"/>
-      <c r="S102" s="140" t="s">
+      <c r="P102" s="147"/>
+      <c r="Q102" s="147"/>
+      <c r="R102" s="167"/>
+      <c r="S102" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="141"/>
-      <c r="U102" s="141"/>
-      <c r="V102" s="141"/>
-      <c r="W102" s="141"/>
-      <c r="X102" s="141"/>
-      <c r="Y102" s="141"/>
-      <c r="Z102" s="141"/>
-      <c r="AA102" s="141"/>
-      <c r="AB102" s="141"/>
-      <c r="AC102" s="141"/>
-      <c r="AD102" s="142"/>
-      <c r="AE102" s="140" t="s">
+      <c r="T102" s="147"/>
+      <c r="U102" s="147"/>
+      <c r="V102" s="147"/>
+      <c r="W102" s="147"/>
+      <c r="X102" s="147"/>
+      <c r="Y102" s="147"/>
+      <c r="Z102" s="147"/>
+      <c r="AA102" s="147"/>
+      <c r="AB102" s="147"/>
+      <c r="AC102" s="147"/>
+      <c r="AD102" s="167"/>
+      <c r="AE102" s="146" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="141"/>
-      <c r="AG102" s="141"/>
-      <c r="AH102" s="141"/>
-      <c r="AI102" s="141"/>
-      <c r="AJ102" s="141"/>
-      <c r="AK102" s="141"/>
-      <c r="AL102" s="141"/>
-      <c r="AM102" s="141"/>
-      <c r="AN102" s="141"/>
-      <c r="AO102" s="141"/>
-      <c r="AP102" s="142"/>
-      <c r="AQ102" s="140" t="s">
+      <c r="AF102" s="147"/>
+      <c r="AG102" s="147"/>
+      <c r="AH102" s="147"/>
+      <c r="AI102" s="147"/>
+      <c r="AJ102" s="147"/>
+      <c r="AK102" s="147"/>
+      <c r="AL102" s="147"/>
+      <c r="AM102" s="147"/>
+      <c r="AN102" s="147"/>
+      <c r="AO102" s="147"/>
+      <c r="AP102" s="167"/>
+      <c r="AQ102" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="142"/>
-      <c r="AS102" s="140" t="s">
+      <c r="AR102" s="167"/>
+      <c r="AS102" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="141"/>
-      <c r="AU102" s="141"/>
-      <c r="AV102" s="141"/>
-      <c r="AW102" s="141"/>
-      <c r="AX102" s="141"/>
-      <c r="AY102" s="141"/>
-      <c r="AZ102" s="142"/>
+      <c r="AT102" s="147"/>
+      <c r="AU102" s="147"/>
+      <c r="AV102" s="147"/>
+      <c r="AW102" s="147"/>
+      <c r="AX102" s="147"/>
+      <c r="AY102" s="147"/>
+      <c r="AZ102" s="167"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -13973,68 +13973,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="200" t="s">
+      <c r="E104" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="202"/>
-      <c r="G104" s="202"/>
-      <c r="H104" s="202"/>
-      <c r="I104" s="202"/>
-      <c r="J104" s="202"/>
-      <c r="K104" s="201"/>
-      <c r="L104" s="200" t="s">
+      <c r="F104" s="150"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="150"/>
+      <c r="I104" s="150"/>
+      <c r="J104" s="150"/>
+      <c r="K104" s="151"/>
+      <c r="L104" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="202"/>
-      <c r="N104" s="201"/>
-      <c r="O104" s="200" t="s">
+      <c r="M104" s="150"/>
+      <c r="N104" s="151"/>
+      <c r="O104" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="202"/>
-      <c r="Q104" s="202"/>
-      <c r="R104" s="201"/>
-      <c r="S104" s="200" t="s">
+      <c r="P104" s="150"/>
+      <c r="Q104" s="150"/>
+      <c r="R104" s="151"/>
+      <c r="S104" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="202"/>
-      <c r="U104" s="202"/>
-      <c r="V104" s="202"/>
-      <c r="W104" s="202"/>
-      <c r="X104" s="202"/>
-      <c r="Y104" s="202"/>
-      <c r="Z104" s="202"/>
-      <c r="AA104" s="202"/>
-      <c r="AB104" s="202"/>
-      <c r="AC104" s="202"/>
-      <c r="AD104" s="201"/>
-      <c r="AE104" s="200" t="s">
+      <c r="T104" s="150"/>
+      <c r="U104" s="150"/>
+      <c r="V104" s="150"/>
+      <c r="W104" s="150"/>
+      <c r="X104" s="150"/>
+      <c r="Y104" s="150"/>
+      <c r="Z104" s="150"/>
+      <c r="AA104" s="150"/>
+      <c r="AB104" s="150"/>
+      <c r="AC104" s="150"/>
+      <c r="AD104" s="151"/>
+      <c r="AE104" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="202"/>
-      <c r="AG104" s="202"/>
-      <c r="AH104" s="202"/>
-      <c r="AI104" s="202"/>
-      <c r="AJ104" s="202"/>
-      <c r="AK104" s="202"/>
-      <c r="AL104" s="202"/>
-      <c r="AM104" s="202"/>
-      <c r="AN104" s="202"/>
-      <c r="AO104" s="202"/>
-      <c r="AP104" s="201"/>
-      <c r="AQ104" s="200" t="s">
+      <c r="AF104" s="150"/>
+      <c r="AG104" s="150"/>
+      <c r="AH104" s="150"/>
+      <c r="AI104" s="150"/>
+      <c r="AJ104" s="150"/>
+      <c r="AK104" s="150"/>
+      <c r="AL104" s="150"/>
+      <c r="AM104" s="150"/>
+      <c r="AN104" s="150"/>
+      <c r="AO104" s="150"/>
+      <c r="AP104" s="151"/>
+      <c r="AQ104" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="201"/>
-      <c r="AS104" s="200" t="s">
+      <c r="AR104" s="151"/>
+      <c r="AS104" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="202"/>
-      <c r="AU104" s="202"/>
-      <c r="AV104" s="202"/>
-      <c r="AW104" s="202"/>
-      <c r="AX104" s="202"/>
-      <c r="AY104" s="202"/>
-      <c r="AZ104" s="201"/>
+      <c r="AT104" s="150"/>
+      <c r="AU104" s="150"/>
+      <c r="AV104" s="150"/>
+      <c r="AW104" s="150"/>
+      <c r="AX104" s="150"/>
+      <c r="AY104" s="150"/>
+      <c r="AZ104" s="151"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -14120,11 +14120,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="170" t="s">
+      <c r="L106" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="171"/>
-      <c r="N106" s="172"/>
+      <c r="M106" s="153"/>
+      <c r="N106" s="154"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -14163,16 +14163,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="136" t="s">
+      <c r="AS106" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="137"/>
-      <c r="AU106" s="137"/>
-      <c r="AV106" s="137"/>
-      <c r="AW106" s="137"/>
-      <c r="AX106" s="137"/>
-      <c r="AY106" s="137"/>
-      <c r="AZ106" s="138"/>
+      <c r="AT106" s="206"/>
+      <c r="AU106" s="206"/>
+      <c r="AV106" s="206"/>
+      <c r="AW106" s="206"/>
+      <c r="AX106" s="206"/>
+      <c r="AY106" s="206"/>
+      <c r="AZ106" s="207"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -14238,16 +14238,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="136" t="s">
+      <c r="AS107" s="205" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="137"/>
-      <c r="AU107" s="137"/>
-      <c r="AV107" s="137"/>
-      <c r="AW107" s="137"/>
-      <c r="AX107" s="137"/>
-      <c r="AY107" s="137"/>
-      <c r="AZ107" s="138"/>
+      <c r="AT107" s="206"/>
+      <c r="AU107" s="206"/>
+      <c r="AV107" s="206"/>
+      <c r="AW107" s="206"/>
+      <c r="AX107" s="206"/>
+      <c r="AY107" s="206"/>
+      <c r="AZ107" s="207"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -14315,16 +14315,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="136" t="s">
+      <c r="AS108" s="205" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="137"/>
-      <c r="AU108" s="137"/>
-      <c r="AV108" s="137"/>
-      <c r="AW108" s="137"/>
-      <c r="AX108" s="137"/>
-      <c r="AY108" s="137"/>
-      <c r="AZ108" s="138"/>
+      <c r="AT108" s="206"/>
+      <c r="AU108" s="206"/>
+      <c r="AV108" s="206"/>
+      <c r="AW108" s="206"/>
+      <c r="AX108" s="206"/>
+      <c r="AY108" s="206"/>
+      <c r="AZ108" s="207"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -14388,16 +14388,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="136" t="s">
+      <c r="AS109" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="137"/>
-      <c r="AU109" s="137"/>
-      <c r="AV109" s="137"/>
-      <c r="AW109" s="137"/>
-      <c r="AX109" s="137"/>
-      <c r="AY109" s="137"/>
-      <c r="AZ109" s="138"/>
+      <c r="AT109" s="206"/>
+      <c r="AU109" s="206"/>
+      <c r="AV109" s="206"/>
+      <c r="AW109" s="206"/>
+      <c r="AX109" s="206"/>
+      <c r="AY109" s="206"/>
+      <c r="AZ109" s="207"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -14553,12 +14553,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="161" t="s">
+      <c r="O112" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="162"/>
-      <c r="Q112" s="162"/>
-      <c r="R112" s="163"/>
+      <c r="P112" s="194"/>
+      <c r="Q112" s="194"/>
+      <c r="R112" s="195"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -14583,20 +14583,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="156" t="s">
+      <c r="AQ112" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="157"/>
-      <c r="AS112" s="158" t="s">
+      <c r="AR112" s="189"/>
+      <c r="AS112" s="190" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="159"/>
-      <c r="AU112" s="159"/>
-      <c r="AV112" s="159"/>
-      <c r="AW112" s="159"/>
-      <c r="AX112" s="159"/>
-      <c r="AY112" s="159"/>
-      <c r="AZ112" s="160"/>
+      <c r="AT112" s="191"/>
+      <c r="AU112" s="191"/>
+      <c r="AV112" s="191"/>
+      <c r="AW112" s="191"/>
+      <c r="AX112" s="191"/>
+      <c r="AY112" s="191"/>
+      <c r="AZ112" s="192"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -15797,20 +15797,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="156" t="s">
+      <c r="AQ130" s="188" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="157"/>
-      <c r="AS130" s="158" t="s">
+      <c r="AR130" s="189"/>
+      <c r="AS130" s="190" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="159"/>
-      <c r="AU130" s="159"/>
-      <c r="AV130" s="159"/>
-      <c r="AW130" s="159"/>
-      <c r="AX130" s="159"/>
-      <c r="AY130" s="159"/>
-      <c r="AZ130" s="160"/>
+      <c r="AT130" s="191"/>
+      <c r="AU130" s="191"/>
+      <c r="AV130" s="191"/>
+      <c r="AW130" s="191"/>
+      <c r="AX130" s="191"/>
+      <c r="AY130" s="191"/>
+      <c r="AZ130" s="192"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -15864,16 +15864,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="164" t="s">
+      <c r="AS131" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="165"/>
-      <c r="AU131" s="165"/>
-      <c r="AV131" s="165"/>
-      <c r="AW131" s="165"/>
-      <c r="AX131" s="165"/>
-      <c r="AY131" s="165"/>
-      <c r="AZ131" s="166"/>
+      <c r="AT131" s="197"/>
+      <c r="AU131" s="197"/>
+      <c r="AV131" s="197"/>
+      <c r="AW131" s="197"/>
+      <c r="AX131" s="197"/>
+      <c r="AY131" s="197"/>
+      <c r="AZ131" s="198"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -15986,20 +15986,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="156" t="s">
+      <c r="AQ133" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="157"/>
-      <c r="AS133" s="158" t="s">
+      <c r="AR133" s="189"/>
+      <c r="AS133" s="190" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="159"/>
-      <c r="AU133" s="159"/>
-      <c r="AV133" s="159"/>
-      <c r="AW133" s="159"/>
-      <c r="AX133" s="159"/>
-      <c r="AY133" s="159"/>
-      <c r="AZ133" s="160"/>
+      <c r="AT133" s="191"/>
+      <c r="AU133" s="191"/>
+      <c r="AV133" s="191"/>
+      <c r="AW133" s="191"/>
+      <c r="AX133" s="191"/>
+      <c r="AY133" s="191"/>
+      <c r="AZ133" s="192"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -18622,6 +18622,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -18646,193 +18833,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6451B78-5377-4479-BEB8-B49BEB748472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F113CC-2B62-41FE-8223-0B40BB4C61DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15910" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="4" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="568">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1444,6 +1444,345 @@
   </si>
   <si>
     <t>Detail</t>
+  </si>
+  <si>
+    <t>Versions</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>VER</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>See C2S5</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>ObjectID</t>
+  </si>
+  <si>
+    <t>Struct</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Radio Network</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>CELL_U</t>
+  </si>
+  <si>
+    <t>UNIQUE_ID</t>
+  </si>
+  <si>
+    <t>POS_IN_TAB</t>
+  </si>
+  <si>
+    <t>SLOT_TIME</t>
+  </si>
+  <si>
+    <t>IS_MASTER</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t>uint32_t</t>
+  </si>
+  <si>
+    <t>uint64_t</t>
+  </si>
+  <si>
+    <t>char[10]</t>
+  </si>
+  <si>
+    <t>UPD_DATE_TIME</t>
+  </si>
+  <si>
+    <t>time_t</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>12 bytes</t>
+  </si>
+  <si>
+    <t>36 bytes</t>
+  </si>
+  <si>
+    <t>char[4]</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>Current Value</t>
+  </si>
+  <si>
+    <t>0x0fe00000</t>
+  </si>
+  <si>
+    <t>COMPILE</t>
+  </si>
+  <si>
+    <t>PRINT_TX</t>
+  </si>
+  <si>
+    <t>PRINT_RX</t>
+  </si>
+  <si>
+    <t>PRINT_EVENTS</t>
+  </si>
+  <si>
+    <t>PRINT_ERR_L1</t>
+  </si>
+  <si>
+    <t>PRINT_ERR_L2</t>
+  </si>
+  <si>
+    <t>PRINT_INFO</t>
+  </si>
+  <si>
+    <t>PRINT_STAT</t>
+  </si>
+  <si>
+    <t>TRANSITION_BEST</t>
+  </si>
+  <si>
+    <t>PRINT_RSSI_LQI</t>
+  </si>
+  <si>
+    <t>Counters</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>CHARGE</t>
+  </si>
+  <si>
+    <t>ERRORS</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>TOTAL_TIME</t>
+  </si>
+  <si>
+    <t>Measures</t>
+  </si>
+  <si>
+    <t>FIRST_TIME</t>
+  </si>
+  <si>
+    <t>LAST_TIME</t>
+  </si>
+  <si>
+    <t>DIAG</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>16 bytes</t>
+  </si>
+  <si>
+    <t>INT_RESISTOR</t>
+  </si>
+  <si>
+    <t>START_VAL</t>
+  </si>
+  <si>
+    <t>CURRENT_VAL</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>LOOP_TIME_MIN</t>
+  </si>
+  <si>
+    <t>LOOP_TIME_MAX</t>
+  </si>
+  <si>
+    <t>TX_ERR_RATE</t>
+  </si>
+  <si>
+    <t>RX_ERR_RATE</t>
+  </si>
+  <si>
+    <t>RSSI_MIN</t>
+  </si>
+  <si>
+    <t>RSSI_MAX</t>
+  </si>
+  <si>
+    <t>LQI_MIN</t>
+  </si>
+  <si>
+    <t>LQI_MAX</t>
+  </si>
+  <si>
+    <t>CAL_REQ</t>
+  </si>
+  <si>
+    <t>RX_MAX_TO</t>
+  </si>
+  <si>
+    <t>52 bytes</t>
+  </si>
+  <si>
+    <t>LOOP_TIME_AVG</t>
+  </si>
+  <si>
+    <t>AVG_VAL</t>
+  </si>
+  <si>
+    <t>RSSI_AVG</t>
+  </si>
+  <si>
+    <t>LQI_AVG</t>
+  </si>
+  <si>
+    <t>CELL</t>
+  </si>
+  <si>
+    <t>U_MIN</t>
+  </si>
+  <si>
+    <t>U_MAX</t>
+  </si>
+  <si>
+    <t>U_AVG</t>
+  </si>
+  <si>
+    <t>TEMP_MIN</t>
+  </si>
+  <si>
+    <t>TEMP_MAX</t>
+  </si>
+  <si>
+    <t>TEMP_AVG</t>
+  </si>
+  <si>
+    <t>24 bytes</t>
+  </si>
+  <si>
+    <t>88 bytes</t>
+  </si>
+  <si>
+    <t>ERR_RADIO</t>
+  </si>
+  <si>
+    <t>ERR_SPI</t>
+  </si>
+  <si>
+    <t>ERR_HAL</t>
+  </si>
+  <si>
+    <t>ERR_xxxx</t>
+  </si>
+  <si>
+    <t>32 bytes</t>
+  </si>
+  <si>
+    <t>96 bytes</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
+  </si>
+  <si>
+    <t>bitfiled uint32_t</t>
+  </si>
+  <si>
+    <t>0x0fe0000C</t>
+  </si>
+  <si>
+    <t>0x0fe00030</t>
+  </si>
+  <si>
+    <t>0x0fe0003C</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Page Size: 8 kB</t>
+  </si>
+  <si>
+    <t>Start Addr: 0x74000</t>
+  </si>
+  <si>
+    <t>End Addr: 0x7e000</t>
+  </si>
+  <si>
+    <t>Size: 40960 bytes</t>
+  </si>
+  <si>
+    <t>Usage: 220 bytes</t>
+  </si>
+  <si>
+    <t>Cache: 200 bytes</t>
+  </si>
+  <si>
+    <t>Max object size: 254 bytes</t>
+  </si>
+  <si>
+    <t>Page Size: 1 kB (?)</t>
+  </si>
+  <si>
+    <t>Start Addr: 0x0fe00000</t>
+  </si>
+  <si>
+    <t>End Addr: 0x0fe00400</t>
+  </si>
+  <si>
+    <t>Size: 1024 bytes</t>
+  </si>
+  <si>
+    <t>Usage: 68 bytes</t>
+  </si>
+  <si>
+    <t>UD Bank</t>
+  </si>
+  <si>
+    <t>NVM3 Region</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1767,8 +2106,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2060,11 +2417,91 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2331,16 +2768,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2349,38 +2804,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2389,6 +2847,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2433,15 +2966,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2451,108 +2975,58 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9927,7 +10401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1CD0F8-0454-4366-B423-07A83CAECE92}">
   <dimension ref="A2:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -13370,21 +13844,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -13492,45 +13966,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="188" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="188" t="s">
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="168" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="190" t="s">
+      <c r="Q5" s="169"/>
+      <c r="R5" s="172" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="192"/>
-      <c r="X5" s="188" t="s">
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="168" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="189"/>
-      <c r="Z5" s="197" t="s">
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="164" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="199"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="166"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -13565,45 +14039,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="204" t="s">
+      <c r="E6" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="203" t="s">
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203" t="s">
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="204" t="s">
+      <c r="Q6" s="155"/>
+      <c r="R6" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204" t="s">
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204" t="s">
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -13644,29 +14118,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196" t="s">
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196" t="s">
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196" t="s">
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
+      <c r="V7" s="170"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="196"/>
+      <c r="Y7" s="170"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -14102,7 +14576,7 @@
       <c r="E14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="144"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -14130,7 +14604,7 @@
       <c r="AE14" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="144"/>
+      <c r="AF14" s="209"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -14173,67 +14647,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="145" t="s">
+      <c r="H15" s="141" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147" t="s">
+      <c r="I15" s="142"/>
+      <c r="J15" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
-      <c r="S15" s="207"/>
-      <c r="T15" s="207"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="207"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
-      <c r="AC15" s="207"/>
-      <c r="AD15" s="207"/>
-      <c r="AE15" s="207"/>
-      <c r="AF15" s="208"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="138"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="145" t="s">
+      <c r="AH15" s="141" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="147" t="s">
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="148"/>
-      <c r="AL15" s="206"/>
-      <c r="AM15" s="207"/>
-      <c r="AN15" s="207"/>
-      <c r="AO15" s="207"/>
-      <c r="AP15" s="207"/>
-      <c r="AQ15" s="207"/>
-      <c r="AR15" s="207"/>
-      <c r="AS15" s="207"/>
-      <c r="AT15" s="207"/>
-      <c r="AU15" s="207"/>
-      <c r="AV15" s="207"/>
-      <c r="AW15" s="207"/>
-      <c r="AX15" s="207"/>
-      <c r="AY15" s="207"/>
-      <c r="AZ15" s="207"/>
-      <c r="BA15" s="207"/>
-      <c r="BB15" s="207"/>
-      <c r="BC15" s="207"/>
-      <c r="BD15" s="207"/>
-      <c r="BE15" s="207"/>
-      <c r="BF15" s="207"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="137"/>
+      <c r="AN15" s="137"/>
+      <c r="AO15" s="137"/>
+      <c r="AP15" s="137"/>
+      <c r="AQ15" s="137"/>
+      <c r="AR15" s="137"/>
+      <c r="AS15" s="137"/>
+      <c r="AT15" s="137"/>
+      <c r="AU15" s="137"/>
+      <c r="AV15" s="137"/>
+      <c r="AW15" s="137"/>
+      <c r="AX15" s="137"/>
+      <c r="AY15" s="137"/>
+      <c r="AZ15" s="137"/>
+      <c r="BA15" s="137"/>
+      <c r="BB15" s="137"/>
+      <c r="BC15" s="137"/>
+      <c r="BD15" s="137"/>
+      <c r="BE15" s="137"/>
+      <c r="BF15" s="137"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
@@ -14254,33 +14728,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="145" t="s">
+      <c r="J16" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="147" t="s">
+      <c r="K16" s="142"/>
+      <c r="L16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="148"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="207"/>
-      <c r="R16" s="207"/>
-      <c r="S16" s="207"/>
-      <c r="T16" s="207"/>
-      <c r="U16" s="207"/>
-      <c r="V16" s="207"/>
-      <c r="W16" s="207"/>
-      <c r="X16" s="207"/>
-      <c r="Y16" s="207"/>
-      <c r="Z16" s="207"/>
-      <c r="AA16" s="207"/>
-      <c r="AB16" s="207"/>
-      <c r="AC16" s="207"/>
-      <c r="AD16" s="207"/>
-      <c r="AE16" s="207"/>
-      <c r="AF16" s="208"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="138"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -14288,33 +14762,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="145" t="s">
+      <c r="AJ16" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="146"/>
-      <c r="AL16" s="147" t="s">
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="148"/>
-      <c r="AN16" s="206"/>
-      <c r="AO16" s="207"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="207"/>
-      <c r="AR16" s="207"/>
-      <c r="AS16" s="207"/>
-      <c r="AT16" s="207"/>
-      <c r="AU16" s="207"/>
-      <c r="AV16" s="207"/>
-      <c r="AW16" s="207"/>
-      <c r="AX16" s="207"/>
-      <c r="AY16" s="207"/>
-      <c r="AZ16" s="207"/>
-      <c r="BA16" s="207"/>
-      <c r="BB16" s="207"/>
-      <c r="BC16" s="207"/>
-      <c r="BD16" s="207"/>
-      <c r="BE16" s="207"/>
-      <c r="BF16" s="207"/>
+      <c r="AM16" s="140"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="137"/>
+      <c r="AR16" s="137"/>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="137"/>
+      <c r="AU16" s="137"/>
+      <c r="AV16" s="137"/>
+      <c r="AW16" s="137"/>
+      <c r="AX16" s="137"/>
+      <c r="AY16" s="137"/>
+      <c r="AZ16" s="137"/>
+      <c r="BA16" s="137"/>
+      <c r="BB16" s="137"/>
+      <c r="BC16" s="137"/>
+      <c r="BD16" s="137"/>
+      <c r="BE16" s="137"/>
+      <c r="BF16" s="137"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.35">
@@ -14337,31 +14811,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="145" t="s">
+      <c r="L17" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147" t="s">
+      <c r="M17" s="142"/>
+      <c r="N17" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="148"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="207"/>
-      <c r="S17" s="207"/>
-      <c r="T17" s="207"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
-      <c r="AF17" s="208"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="138"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -14371,31 +14845,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="145" t="s">
+      <c r="AL17" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="147" t="s">
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="206"/>
-      <c r="AQ17" s="207"/>
-      <c r="AR17" s="207"/>
-      <c r="AS17" s="207"/>
-      <c r="AT17" s="207"/>
-      <c r="AU17" s="207"/>
-      <c r="AV17" s="207"/>
-      <c r="AW17" s="207"/>
-      <c r="AX17" s="207"/>
-      <c r="AY17" s="207"/>
-      <c r="AZ17" s="207"/>
-      <c r="BA17" s="207"/>
-      <c r="BB17" s="207"/>
-      <c r="BC17" s="207"/>
-      <c r="BD17" s="207"/>
-      <c r="BE17" s="207"/>
-      <c r="BF17" s="207"/>
+      <c r="AO17" s="140"/>
+      <c r="AP17" s="136"/>
+      <c r="AQ17" s="137"/>
+      <c r="AR17" s="137"/>
+      <c r="AS17" s="137"/>
+      <c r="AT17" s="137"/>
+      <c r="AU17" s="137"/>
+      <c r="AV17" s="137"/>
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="137"/>
+      <c r="AY17" s="137"/>
+      <c r="AZ17" s="137"/>
+      <c r="BA17" s="137"/>
+      <c r="BB17" s="137"/>
+      <c r="BC17" s="137"/>
+      <c r="BD17" s="137"/>
+      <c r="BE17" s="137"/>
+      <c r="BF17" s="137"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.35">
@@ -14423,24 +14897,24 @@
       <c r="N18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="152"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="207"/>
-      <c r="W18" s="207"/>
-      <c r="X18" s="207"/>
-      <c r="Y18" s="207"/>
-      <c r="Z18" s="207"/>
-      <c r="AA18" s="207"/>
-      <c r="AB18" s="207"/>
-      <c r="AC18" s="207"/>
-      <c r="AD18" s="207"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="208"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="138"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -14455,24 +14929,24 @@
       <c r="AN18" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="207"/>
-      <c r="AR18" s="207"/>
-      <c r="AS18" s="207"/>
-      <c r="AT18" s="207"/>
-      <c r="AU18" s="207"/>
-      <c r="AV18" s="207"/>
-      <c r="AW18" s="207"/>
-      <c r="AX18" s="207"/>
-      <c r="AY18" s="207"/>
-      <c r="AZ18" s="207"/>
-      <c r="BA18" s="207"/>
-      <c r="BB18" s="207"/>
-      <c r="BC18" s="207"/>
-      <c r="BD18" s="207"/>
-      <c r="BE18" s="207"/>
-      <c r="BF18" s="207"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="136"/>
+      <c r="AQ18" s="137"/>
+      <c r="AR18" s="137"/>
+      <c r="AS18" s="137"/>
+      <c r="AT18" s="137"/>
+      <c r="AU18" s="137"/>
+      <c r="AV18" s="137"/>
+      <c r="AW18" s="137"/>
+      <c r="AX18" s="137"/>
+      <c r="AY18" s="137"/>
+      <c r="AZ18" s="137"/>
+      <c r="BA18" s="137"/>
+      <c r="BB18" s="137"/>
+      <c r="BC18" s="137"/>
+      <c r="BD18" s="137"/>
+      <c r="BE18" s="137"/>
+      <c r="BF18" s="137"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.35">
@@ -14698,23 +15172,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="145" t="s">
+      <c r="T22" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="146"/>
-      <c r="V22" s="147" t="s">
+      <c r="U22" s="142"/>
+      <c r="V22" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207"/>
-      <c r="AF22" s="208"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="138"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -14732,23 +15206,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="145" t="s">
+      <c r="AT22" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="146"/>
-      <c r="AV22" s="147" t="s">
+      <c r="AU22" s="142"/>
+      <c r="AV22" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="206"/>
-      <c r="AY22" s="207"/>
-      <c r="AZ22" s="207"/>
-      <c r="BA22" s="207"/>
-      <c r="BB22" s="207"/>
-      <c r="BC22" s="207"/>
-      <c r="BD22" s="207"/>
-      <c r="BE22" s="207"/>
-      <c r="BF22" s="207"/>
+      <c r="AW22" s="140"/>
+      <c r="AX22" s="136"/>
+      <c r="AY22" s="137"/>
+      <c r="AZ22" s="137"/>
+      <c r="BA22" s="137"/>
+      <c r="BB22" s="137"/>
+      <c r="BC22" s="137"/>
+      <c r="BD22" s="137"/>
+      <c r="BE22" s="137"/>
+      <c r="BF22" s="137"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.35">
@@ -14781,21 +15255,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="145" t="s">
+      <c r="V23" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="146"/>
-      <c r="X23" s="147" t="s">
+      <c r="W23" s="142"/>
+      <c r="X23" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="206"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="207"/>
-      <c r="AD23" s="207"/>
-      <c r="AE23" s="207"/>
-      <c r="AF23" s="208"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="138"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -14815,21 +15289,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="145" t="s">
+      <c r="AV23" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="146"/>
-      <c r="AX23" s="147" t="s">
+      <c r="AW23" s="142"/>
+      <c r="AX23" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="148"/>
-      <c r="AZ23" s="206"/>
-      <c r="BA23" s="207"/>
-      <c r="BB23" s="207"/>
-      <c r="BC23" s="207"/>
-      <c r="BD23" s="207"/>
-      <c r="BE23" s="207"/>
-      <c r="BF23" s="207"/>
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="137"/>
+      <c r="BB23" s="137"/>
+      <c r="BC23" s="137"/>
+      <c r="BD23" s="137"/>
+      <c r="BE23" s="137"/>
+      <c r="BF23" s="137"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.35">
@@ -14864,19 +15338,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="145" t="s">
+      <c r="X24" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="146"/>
-      <c r="Z24" s="147" t="s">
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="206"/>
-      <c r="AC24" s="207"/>
-      <c r="AD24" s="207"/>
-      <c r="AE24" s="207"/>
-      <c r="AF24" s="208"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="138"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -14898,19 +15372,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="145" t="s">
+      <c r="AX24" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="146"/>
-      <c r="AZ24" s="147" t="s">
+      <c r="AY24" s="142"/>
+      <c r="AZ24" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="148"/>
-      <c r="BB24" s="206"/>
-      <c r="BC24" s="207"/>
-      <c r="BD24" s="207"/>
-      <c r="BE24" s="207"/>
-      <c r="BF24" s="207"/>
+      <c r="BA24" s="140"/>
+      <c r="BB24" s="136"/>
+      <c r="BC24" s="137"/>
+      <c r="BD24" s="137"/>
+      <c r="BE24" s="137"/>
+      <c r="BF24" s="137"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.35">
@@ -14950,14 +15424,14 @@
       <c r="Z25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="147" t="s">
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="206"/>
-      <c r="AE25" s="207"/>
-      <c r="AF25" s="208"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="138"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -14984,14 +15458,14 @@
       <c r="AZ25" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="152"/>
-      <c r="BB25" s="147" t="s">
+      <c r="BA25" s="144"/>
+      <c r="BB25" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="148"/>
-      <c r="BD25" s="206"/>
-      <c r="BE25" s="207"/>
-      <c r="BF25" s="207"/>
+      <c r="BC25" s="140"/>
+      <c r="BD25" s="136"/>
+      <c r="BE25" s="137"/>
+      <c r="BF25" s="137"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.35">
@@ -15249,29 +15723,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="150"/>
+      <c r="F30" s="187"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="149" t="s">
+      <c r="H30" s="186" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="149" t="s">
+      <c r="I30" s="187"/>
+      <c r="J30" s="186" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="150"/>
-      <c r="L30" s="149" t="s">
+      <c r="K30" s="187"/>
+      <c r="L30" s="186" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="150"/>
-      <c r="N30" s="149" t="s">
+      <c r="M30" s="187"/>
+      <c r="N30" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="150"/>
+      <c r="O30" s="187"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -15280,50 +15754,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="149" t="s">
+      <c r="T30" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="150"/>
-      <c r="V30" s="149" t="s">
+      <c r="U30" s="187"/>
+      <c r="V30" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="150"/>
-      <c r="X30" s="149" t="s">
+      <c r="W30" s="187"/>
+      <c r="X30" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="149" t="s">
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="153" t="s">
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="149" t="s">
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="150"/>
+      <c r="AF30" s="187"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="149" t="s">
+      <c r="AH30" s="186" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="149" t="s">
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="186" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="149" t="s">
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="186" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="149" t="s">
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="186" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="150"/>
+      <c r="AO30" s="187"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -15332,27 +15806,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="149" t="s">
+      <c r="AT30" s="186" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="149" t="s">
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="150"/>
-      <c r="AX30" s="149" t="s">
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="150"/>
-      <c r="AZ30" s="149" t="s">
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="150"/>
-      <c r="BB30" s="153" t="s">
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="154"/>
-      <c r="BD30" s="155"/>
+      <c r="BC30" s="161"/>
+      <c r="BD30" s="162"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -15364,10 +15838,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="151" t="s">
+      <c r="E31" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="151"/>
+      <c r="F31" s="163"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15394,10 +15868,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="151" t="s">
+      <c r="AE31" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="151"/>
+      <c r="AF31" s="163"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15507,75 +15981,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="179" t="s">
+      <c r="H33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="149" t="s">
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="150"/>
-      <c r="V33" s="153" t="s">
+      <c r="U33" s="187"/>
+      <c r="V33" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="155"/>
-      <c r="X33" s="179" t="s">
+      <c r="W33" s="162"/>
+      <c r="X33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="180"/>
-      <c r="AA33" s="180"/>
-      <c r="AB33" s="180"/>
-      <c r="AC33" s="180"/>
-      <c r="AD33" s="180"/>
-      <c r="AE33" s="181"/>
+      <c r="Y33" s="184"/>
+      <c r="Z33" s="184"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+      <c r="AD33" s="184"/>
+      <c r="AE33" s="185"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="179" t="s">
+      <c r="AH33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="180"/>
-      <c r="AJ33" s="180"/>
-      <c r="AK33" s="180"/>
-      <c r="AL33" s="180"/>
-      <c r="AM33" s="180"/>
-      <c r="AN33" s="180"/>
-      <c r="AO33" s="180"/>
-      <c r="AP33" s="180"/>
-      <c r="AQ33" s="180"/>
-      <c r="AR33" s="180"/>
-      <c r="AS33" s="181"/>
-      <c r="AT33" s="149" t="s">
+      <c r="AI33" s="184"/>
+      <c r="AJ33" s="184"/>
+      <c r="AK33" s="184"/>
+      <c r="AL33" s="184"/>
+      <c r="AM33" s="184"/>
+      <c r="AN33" s="184"/>
+      <c r="AO33" s="184"/>
+      <c r="AP33" s="184"/>
+      <c r="AQ33" s="184"/>
+      <c r="AR33" s="184"/>
+      <c r="AS33" s="185"/>
+      <c r="AT33" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="150"/>
-      <c r="AV33" s="153" t="s">
+      <c r="AU33" s="187"/>
+      <c r="AV33" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="155"/>
-      <c r="AX33" s="179" t="s">
+      <c r="AW33" s="162"/>
+      <c r="AX33" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="180"/>
-      <c r="AZ33" s="180"/>
-      <c r="BA33" s="180"/>
-      <c r="BB33" s="180"/>
-      <c r="BC33" s="180"/>
-      <c r="BD33" s="181"/>
+      <c r="AY33" s="184"/>
+      <c r="AZ33" s="184"/>
+      <c r="BA33" s="184"/>
+      <c r="BB33" s="184"/>
+      <c r="BC33" s="184"/>
+      <c r="BD33" s="185"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -15587,10 +16061,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="151" t="s">
+      <c r="E34" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="151"/>
+      <c r="F34" s="163"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -15606,10 +16080,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="151" t="s">
+      <c r="T34" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="151"/>
+      <c r="U34" s="163"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -15638,10 +16112,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="151" t="s">
+      <c r="AT34" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="151"/>
+      <c r="AU34" s="163"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -15912,33 +16386,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="182" t="s">
+      <c r="E39" s="178" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="183"/>
-      <c r="G39" s="184" t="s">
+      <c r="F39" s="179"/>
+      <c r="G39" s="181" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="185"/>
+      <c r="H39" s="182"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="152"/>
+      <c r="K39" s="144"/>
       <c r="L39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="152"/>
+      <c r="M39" s="144"/>
       <c r="N39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="152"/>
+      <c r="O39" s="144"/>
       <c r="P39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="152"/>
+      <c r="Q39" s="144"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -15950,47 +16424,47 @@
       <c r="V39" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="152"/>
+      <c r="W39" s="144"/>
       <c r="X39" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="152"/>
+      <c r="Y39" s="144"/>
       <c r="Z39" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="152"/>
+      <c r="AA39" s="144"/>
       <c r="AB39" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="152"/>
-      <c r="AD39" s="147" t="s">
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="187"/>
-      <c r="AF39" s="148"/>
+      <c r="AE39" s="180"/>
+      <c r="AF39" s="140"/>
       <c r="AG39" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="152"/>
+      <c r="AH39" s="144"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="152"/>
+      <c r="AK39" s="144"/>
       <c r="AL39" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="152"/>
+      <c r="AM39" s="144"/>
       <c r="AN39" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="152"/>
+      <c r="AO39" s="144"/>
       <c r="AP39" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="152"/>
+      <c r="AQ39" s="144"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -16019,14 +16493,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="186" t="s">
+      <c r="E40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186" t="s">
+      <c r="F40" s="156"/>
+      <c r="G40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="186"/>
+      <c r="H40" s="156"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -16053,10 +16527,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="186" t="s">
+      <c r="AG40" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="186"/>
+      <c r="AH40" s="156"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -16095,24 +16569,24 @@
       <c r="E41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="152"/>
+      <c r="F41" s="144"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="152"/>
+      <c r="I41" s="144"/>
       <c r="J41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="152"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="184" t="s">
+      <c r="K41" s="144"/>
+      <c r="L41" s="178"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="181" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="185"/>
+      <c r="O41" s="182"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -16124,47 +16598,47 @@
       <c r="T41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="152"/>
+      <c r="U41" s="144"/>
       <c r="V41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="152"/>
+      <c r="W41" s="144"/>
       <c r="X41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="152"/>
+      <c r="Y41" s="144"/>
       <c r="Z41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="152"/>
-      <c r="AB41" s="147" t="s">
+      <c r="AA41" s="144"/>
+      <c r="AB41" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="187"/>
-      <c r="AD41" s="148"/>
+      <c r="AC41" s="180"/>
+      <c r="AD41" s="140"/>
       <c r="AE41" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="152"/>
+      <c r="AF41" s="144"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="152"/>
+      <c r="AI41" s="144"/>
       <c r="AJ41" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="152"/>
+      <c r="AK41" s="144"/>
       <c r="AL41" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="152"/>
+      <c r="AM41" s="144"/>
       <c r="AN41" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="152"/>
+      <c r="AO41" s="144"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -16176,24 +16650,24 @@
       <c r="AT41" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="152"/>
+      <c r="AU41" s="144"/>
       <c r="AV41" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="152"/>
+      <c r="AW41" s="144"/>
       <c r="AX41" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="152"/>
+      <c r="AY41" s="144"/>
       <c r="AZ41" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="152"/>
-      <c r="BB41" s="147" t="s">
+      <c r="BA41" s="144"/>
+      <c r="BB41" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="187"/>
-      <c r="BD41" s="148"/>
+      <c r="BC41" s="180"/>
+      <c r="BD41" s="140"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -16205,10 +16679,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="186" t="s">
+      <c r="E42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="186"/>
+      <c r="F42" s="156"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16235,10 +16709,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="186" t="s">
+      <c r="AE42" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="186"/>
+      <c r="AF42" s="156"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16348,75 +16822,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="193" t="s">
+      <c r="H44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="194"/>
-      <c r="N44" s="194"/>
-      <c r="O44" s="194"/>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="194"/>
-      <c r="R44" s="194"/>
-      <c r="S44" s="195"/>
-      <c r="T44" s="182" t="s">
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="176"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="176"/>
+      <c r="O44" s="176"/>
+      <c r="P44" s="176"/>
+      <c r="Q44" s="176"/>
+      <c r="R44" s="176"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="178" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="183"/>
-      <c r="V44" s="147" t="s">
+      <c r="U44" s="179"/>
+      <c r="V44" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="148"/>
-      <c r="X44" s="193" t="s">
+      <c r="W44" s="140"/>
+      <c r="X44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="194"/>
-      <c r="Z44" s="194"/>
-      <c r="AA44" s="194"/>
-      <c r="AB44" s="194"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="194"/>
-      <c r="AE44" s="195"/>
+      <c r="Y44" s="176"/>
+      <c r="Z44" s="176"/>
+      <c r="AA44" s="176"/>
+      <c r="AB44" s="176"/>
+      <c r="AC44" s="176"/>
+      <c r="AD44" s="176"/>
+      <c r="AE44" s="177"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="193" t="s">
+      <c r="AH44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="194"/>
-      <c r="AJ44" s="194"/>
-      <c r="AK44" s="194"/>
-      <c r="AL44" s="194"/>
-      <c r="AM44" s="194"/>
-      <c r="AN44" s="194"/>
-      <c r="AO44" s="194"/>
-      <c r="AP44" s="194"/>
-      <c r="AQ44" s="194"/>
-      <c r="AR44" s="194"/>
-      <c r="AS44" s="195"/>
+      <c r="AI44" s="176"/>
+      <c r="AJ44" s="176"/>
+      <c r="AK44" s="176"/>
+      <c r="AL44" s="176"/>
+      <c r="AM44" s="176"/>
+      <c r="AN44" s="176"/>
+      <c r="AO44" s="176"/>
+      <c r="AP44" s="176"/>
+      <c r="AQ44" s="176"/>
+      <c r="AR44" s="176"/>
+      <c r="AS44" s="177"/>
       <c r="AT44" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="152"/>
-      <c r="AV44" s="147" t="s">
+      <c r="AU44" s="144"/>
+      <c r="AV44" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="148"/>
-      <c r="AX44" s="193" t="s">
+      <c r="AW44" s="140"/>
+      <c r="AX44" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="194"/>
-      <c r="AZ44" s="194"/>
-      <c r="BA44" s="194"/>
-      <c r="BB44" s="194"/>
-      <c r="BC44" s="194"/>
-      <c r="BD44" s="195"/>
+      <c r="AY44" s="176"/>
+      <c r="AZ44" s="176"/>
+      <c r="BA44" s="176"/>
+      <c r="BB44" s="176"/>
+      <c r="BC44" s="176"/>
+      <c r="BD44" s="177"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -16428,10 +16902,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="186" t="s">
+      <c r="E45" s="156" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="186"/>
+      <c r="F45" s="156"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -16447,10 +16921,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="186" t="s">
+      <c r="T45" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="186"/>
+      <c r="U45" s="156"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -16479,10 +16953,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="186" t="s">
+      <c r="AT45" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="186"/>
+      <c r="AU45" s="156"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -16511,70 +16985,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="193" t="s">
+      <c r="G46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
-      <c r="N46" s="194"/>
-      <c r="O46" s="194"/>
-      <c r="P46" s="194"/>
-      <c r="Q46" s="194"/>
-      <c r="R46" s="194"/>
-      <c r="S46" s="194"/>
-      <c r="T46" s="194"/>
-      <c r="U46" s="194"/>
-      <c r="V46" s="194"/>
-      <c r="W46" s="194"/>
-      <c r="X46" s="194"/>
-      <c r="Y46" s="194"/>
-      <c r="Z46" s="194"/>
-      <c r="AA46" s="194"/>
-      <c r="AB46" s="194"/>
-      <c r="AC46" s="194"/>
-      <c r="AD46" s="194"/>
-      <c r="AE46" s="195"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="176"/>
+      <c r="L46" s="176"/>
+      <c r="M46" s="176"/>
+      <c r="N46" s="176"/>
+      <c r="O46" s="176"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="176"/>
+      <c r="R46" s="176"/>
+      <c r="S46" s="176"/>
+      <c r="T46" s="176"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="176"/>
+      <c r="W46" s="176"/>
+      <c r="X46" s="176"/>
+      <c r="Y46" s="176"/>
+      <c r="Z46" s="176"/>
+      <c r="AA46" s="176"/>
+      <c r="AB46" s="176"/>
+      <c r="AC46" s="176"/>
+      <c r="AD46" s="176"/>
+      <c r="AE46" s="177"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="193" t="s">
+      <c r="AH46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="194"/>
-      <c r="AJ46" s="194"/>
-      <c r="AK46" s="194"/>
-      <c r="AL46" s="194"/>
-      <c r="AM46" s="194"/>
-      <c r="AN46" s="194"/>
-      <c r="AO46" s="194"/>
-      <c r="AP46" s="194"/>
-      <c r="AQ46" s="194"/>
-      <c r="AR46" s="194"/>
-      <c r="AS46" s="195"/>
+      <c r="AI46" s="176"/>
+      <c r="AJ46" s="176"/>
+      <c r="AK46" s="176"/>
+      <c r="AL46" s="176"/>
+      <c r="AM46" s="176"/>
+      <c r="AN46" s="176"/>
+      <c r="AO46" s="176"/>
+      <c r="AP46" s="176"/>
+      <c r="AQ46" s="176"/>
+      <c r="AR46" s="176"/>
+      <c r="AS46" s="177"/>
       <c r="AT46" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="152"/>
-      <c r="AV46" s="147" t="s">
+      <c r="AU46" s="144"/>
+      <c r="AV46" s="139" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="148"/>
-      <c r="AX46" s="193" t="s">
+      <c r="AW46" s="140"/>
+      <c r="AX46" s="175" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="194"/>
-      <c r="AZ46" s="194"/>
-      <c r="BA46" s="194"/>
-      <c r="BB46" s="194"/>
-      <c r="BC46" s="194"/>
-      <c r="BD46" s="195"/>
+      <c r="AY46" s="176"/>
+      <c r="AZ46" s="176"/>
+      <c r="BA46" s="176"/>
+      <c r="BB46" s="176"/>
+      <c r="BC46" s="176"/>
+      <c r="BD46" s="177"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -16631,10 +17105,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="186" t="s">
+      <c r="AT47" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="186"/>
+      <c r="AU47" s="156"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -17025,20 +17499,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="140" t="s">
+      <c r="E54" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="140" t="s">
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="141"/>
-      <c r="N54" s="209"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="148"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -17159,20 +17633,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="200" t="s">
+      <c r="E56" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="202"/>
-      <c r="G56" s="202"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="202"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="200" t="s">
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="202"/>
-      <c r="N56" s="201"/>
+      <c r="M56" s="150"/>
+      <c r="N56" s="151"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -19644,68 +20118,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="140" t="s">
+      <c r="E95" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="141"/>
-      <c r="G95" s="141"/>
-      <c r="H95" s="141"/>
-      <c r="I95" s="141"/>
-      <c r="J95" s="141"/>
-      <c r="K95" s="142"/>
-      <c r="L95" s="140" t="s">
+      <c r="F95" s="147"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="147"/>
+      <c r="K95" s="167"/>
+      <c r="L95" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="141"/>
-      <c r="N95" s="142"/>
-      <c r="O95" s="176" t="s">
+      <c r="M95" s="147"/>
+      <c r="N95" s="167"/>
+      <c r="O95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="177"/>
-      <c r="Q95" s="177"/>
-      <c r="R95" s="177"/>
-      <c r="S95" s="177"/>
-      <c r="T95" s="178"/>
-      <c r="U95" s="176" t="s">
+      <c r="P95" s="158"/>
+      <c r="Q95" s="158"/>
+      <c r="R95" s="158"/>
+      <c r="S95" s="158"/>
+      <c r="T95" s="159"/>
+      <c r="U95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="177"/>
-      <c r="W95" s="177"/>
-      <c r="X95" s="177"/>
-      <c r="Y95" s="177"/>
-      <c r="Z95" s="177"/>
-      <c r="AA95" s="177"/>
-      <c r="AB95" s="178"/>
-      <c r="AC95" s="176" t="s">
+      <c r="V95" s="158"/>
+      <c r="W95" s="158"/>
+      <c r="X95" s="158"/>
+      <c r="Y95" s="158"/>
+      <c r="Z95" s="158"/>
+      <c r="AA95" s="158"/>
+      <c r="AB95" s="159"/>
+      <c r="AC95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="177"/>
-      <c r="AE95" s="177"/>
-      <c r="AF95" s="177"/>
-      <c r="AG95" s="177"/>
-      <c r="AH95" s="177"/>
-      <c r="AI95" s="177"/>
-      <c r="AJ95" s="178"/>
-      <c r="AK95" s="176" t="s">
+      <c r="AD95" s="158"/>
+      <c r="AE95" s="158"/>
+      <c r="AF95" s="158"/>
+      <c r="AG95" s="158"/>
+      <c r="AH95" s="158"/>
+      <c r="AI95" s="158"/>
+      <c r="AJ95" s="159"/>
+      <c r="AK95" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="177"/>
-      <c r="AM95" s="177"/>
-      <c r="AN95" s="177"/>
-      <c r="AO95" s="177"/>
-      <c r="AP95" s="177"/>
-      <c r="AQ95" s="177"/>
-      <c r="AR95" s="178"/>
-      <c r="AS95" s="173" t="s">
+      <c r="AL95" s="158"/>
+      <c r="AM95" s="158"/>
+      <c r="AN95" s="158"/>
+      <c r="AO95" s="158"/>
+      <c r="AP95" s="158"/>
+      <c r="AQ95" s="158"/>
+      <c r="AR95" s="159"/>
+      <c r="AS95" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="174"/>
-      <c r="AU95" s="174"/>
-      <c r="AV95" s="174"/>
-      <c r="AW95" s="174"/>
-      <c r="AX95" s="174"/>
-      <c r="AY95" s="174"/>
-      <c r="AZ95" s="175"/>
+      <c r="AT95" s="203"/>
+      <c r="AU95" s="203"/>
+      <c r="AV95" s="203"/>
+      <c r="AW95" s="203"/>
+      <c r="AX95" s="203"/>
+      <c r="AY95" s="203"/>
+      <c r="AZ95" s="204"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -19810,68 +20284,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="200" t="s">
+      <c r="E97" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="202"/>
-      <c r="G97" s="202"/>
-      <c r="H97" s="202"/>
-      <c r="I97" s="202"/>
-      <c r="J97" s="202"/>
-      <c r="K97" s="201"/>
-      <c r="L97" s="200" t="s">
+      <c r="F97" s="150"/>
+      <c r="G97" s="150"/>
+      <c r="H97" s="150"/>
+      <c r="I97" s="150"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="151"/>
+      <c r="L97" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="202"/>
-      <c r="N97" s="202"/>
-      <c r="O97" s="200" t="s">
+      <c r="M97" s="150"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="202"/>
-      <c r="Q97" s="202"/>
-      <c r="R97" s="202"/>
-      <c r="S97" s="202"/>
-      <c r="T97" s="201"/>
-      <c r="U97" s="200" t="s">
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
+      <c r="T97" s="151"/>
+      <c r="U97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="202"/>
-      <c r="W97" s="202"/>
-      <c r="X97" s="202"/>
-      <c r="Y97" s="202"/>
-      <c r="Z97" s="202"/>
-      <c r="AA97" s="202"/>
-      <c r="AB97" s="201"/>
-      <c r="AC97" s="200" t="s">
+      <c r="V97" s="150"/>
+      <c r="W97" s="150"/>
+      <c r="X97" s="150"/>
+      <c r="Y97" s="150"/>
+      <c r="Z97" s="150"/>
+      <c r="AA97" s="150"/>
+      <c r="AB97" s="151"/>
+      <c r="AC97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="202"/>
-      <c r="AE97" s="202"/>
-      <c r="AF97" s="202"/>
-      <c r="AG97" s="202"/>
-      <c r="AH97" s="202"/>
-      <c r="AI97" s="202"/>
-      <c r="AJ97" s="201"/>
-      <c r="AK97" s="200" t="s">
+      <c r="AD97" s="150"/>
+      <c r="AE97" s="150"/>
+      <c r="AF97" s="150"/>
+      <c r="AG97" s="150"/>
+      <c r="AH97" s="150"/>
+      <c r="AI97" s="150"/>
+      <c r="AJ97" s="151"/>
+      <c r="AK97" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="202"/>
-      <c r="AM97" s="202"/>
-      <c r="AN97" s="202"/>
-      <c r="AO97" s="202"/>
-      <c r="AP97" s="202"/>
-      <c r="AQ97" s="202"/>
-      <c r="AR97" s="201"/>
-      <c r="AS97" s="202" t="s">
+      <c r="AL97" s="150"/>
+      <c r="AM97" s="150"/>
+      <c r="AN97" s="150"/>
+      <c r="AO97" s="150"/>
+      <c r="AP97" s="150"/>
+      <c r="AQ97" s="150"/>
+      <c r="AR97" s="151"/>
+      <c r="AS97" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="202"/>
-      <c r="AU97" s="202"/>
-      <c r="AV97" s="202"/>
-      <c r="AW97" s="202"/>
-      <c r="AX97" s="202"/>
-      <c r="AY97" s="202"/>
-      <c r="AZ97" s="201"/>
+      <c r="AT97" s="150"/>
+      <c r="AU97" s="150"/>
+      <c r="AV97" s="150"/>
+      <c r="AW97" s="150"/>
+      <c r="AX97" s="150"/>
+      <c r="AY97" s="150"/>
+      <c r="AZ97" s="151"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -19946,68 +20420,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="167" t="s">
+      <c r="E99" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="168"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="168"/>
-      <c r="I99" s="168"/>
-      <c r="J99" s="168"/>
-      <c r="K99" s="169"/>
-      <c r="L99" s="170" t="s">
+      <c r="F99" s="200"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="200"/>
+      <c r="I99" s="200"/>
+      <c r="J99" s="200"/>
+      <c r="K99" s="201"/>
+      <c r="L99" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="171"/>
-      <c r="N99" s="172"/>
-      <c r="O99" s="164" t="s">
+      <c r="M99" s="153"/>
+      <c r="N99" s="154"/>
+      <c r="O99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="165"/>
-      <c r="Q99" s="165"/>
-      <c r="R99" s="165"/>
-      <c r="S99" s="165"/>
-      <c r="T99" s="166"/>
-      <c r="U99" s="164" t="s">
+      <c r="P99" s="197"/>
+      <c r="Q99" s="197"/>
+      <c r="R99" s="197"/>
+      <c r="S99" s="197"/>
+      <c r="T99" s="198"/>
+      <c r="U99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="165"/>
-      <c r="W99" s="165"/>
-      <c r="X99" s="165"/>
-      <c r="Y99" s="165"/>
-      <c r="Z99" s="165"/>
-      <c r="AA99" s="165"/>
-      <c r="AB99" s="166"/>
-      <c r="AC99" s="164" t="s">
+      <c r="V99" s="197"/>
+      <c r="W99" s="197"/>
+      <c r="X99" s="197"/>
+      <c r="Y99" s="197"/>
+      <c r="Z99" s="197"/>
+      <c r="AA99" s="197"/>
+      <c r="AB99" s="198"/>
+      <c r="AC99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="165"/>
-      <c r="AE99" s="165"/>
-      <c r="AF99" s="165"/>
-      <c r="AG99" s="165"/>
-      <c r="AH99" s="165"/>
-      <c r="AI99" s="165"/>
-      <c r="AJ99" s="166"/>
-      <c r="AK99" s="164" t="s">
+      <c r="AD99" s="197"/>
+      <c r="AE99" s="197"/>
+      <c r="AF99" s="197"/>
+      <c r="AG99" s="197"/>
+      <c r="AH99" s="197"/>
+      <c r="AI99" s="197"/>
+      <c r="AJ99" s="198"/>
+      <c r="AK99" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="165"/>
-      <c r="AM99" s="165"/>
-      <c r="AN99" s="165"/>
-      <c r="AO99" s="165"/>
-      <c r="AP99" s="165"/>
-      <c r="AQ99" s="165"/>
-      <c r="AR99" s="166"/>
-      <c r="AS99" s="164" t="s">
+      <c r="AL99" s="197"/>
+      <c r="AM99" s="197"/>
+      <c r="AN99" s="197"/>
+      <c r="AO99" s="197"/>
+      <c r="AP99" s="197"/>
+      <c r="AQ99" s="197"/>
+      <c r="AR99" s="198"/>
+      <c r="AS99" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="165"/>
-      <c r="AU99" s="165"/>
-      <c r="AV99" s="165"/>
-      <c r="AW99" s="165"/>
-      <c r="AX99" s="165"/>
-      <c r="AY99" s="165"/>
-      <c r="AZ99" s="166"/>
+      <c r="AT99" s="197"/>
+      <c r="AU99" s="197"/>
+      <c r="AV99" s="197"/>
+      <c r="AW99" s="197"/>
+      <c r="AX99" s="197"/>
+      <c r="AY99" s="197"/>
+      <c r="AZ99" s="198"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -20149,68 +20623,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="140" t="s">
+      <c r="E102" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="141"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="141"/>
-      <c r="I102" s="141"/>
-      <c r="J102" s="141"/>
-      <c r="K102" s="142"/>
-      <c r="L102" s="140" t="s">
+      <c r="F102" s="147"/>
+      <c r="G102" s="147"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="147"/>
+      <c r="K102" s="167"/>
+      <c r="L102" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="141"/>
-      <c r="N102" s="142"/>
-      <c r="O102" s="140" t="s">
+      <c r="M102" s="147"/>
+      <c r="N102" s="167"/>
+      <c r="O102" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="141"/>
-      <c r="Q102" s="141"/>
-      <c r="R102" s="142"/>
-      <c r="S102" s="140" t="s">
+      <c r="P102" s="147"/>
+      <c r="Q102" s="147"/>
+      <c r="R102" s="167"/>
+      <c r="S102" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="141"/>
-      <c r="U102" s="141"/>
-      <c r="V102" s="141"/>
-      <c r="W102" s="141"/>
-      <c r="X102" s="141"/>
-      <c r="Y102" s="141"/>
-      <c r="Z102" s="141"/>
-      <c r="AA102" s="141"/>
-      <c r="AB102" s="141"/>
-      <c r="AC102" s="141"/>
-      <c r="AD102" s="142"/>
-      <c r="AE102" s="140" t="s">
+      <c r="T102" s="147"/>
+      <c r="U102" s="147"/>
+      <c r="V102" s="147"/>
+      <c r="W102" s="147"/>
+      <c r="X102" s="147"/>
+      <c r="Y102" s="147"/>
+      <c r="Z102" s="147"/>
+      <c r="AA102" s="147"/>
+      <c r="AB102" s="147"/>
+      <c r="AC102" s="147"/>
+      <c r="AD102" s="167"/>
+      <c r="AE102" s="146" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="141"/>
-      <c r="AG102" s="141"/>
-      <c r="AH102" s="141"/>
-      <c r="AI102" s="141"/>
-      <c r="AJ102" s="141"/>
-      <c r="AK102" s="141"/>
-      <c r="AL102" s="141"/>
-      <c r="AM102" s="141"/>
-      <c r="AN102" s="141"/>
-      <c r="AO102" s="141"/>
-      <c r="AP102" s="142"/>
-      <c r="AQ102" s="140" t="s">
+      <c r="AF102" s="147"/>
+      <c r="AG102" s="147"/>
+      <c r="AH102" s="147"/>
+      <c r="AI102" s="147"/>
+      <c r="AJ102" s="147"/>
+      <c r="AK102" s="147"/>
+      <c r="AL102" s="147"/>
+      <c r="AM102" s="147"/>
+      <c r="AN102" s="147"/>
+      <c r="AO102" s="147"/>
+      <c r="AP102" s="167"/>
+      <c r="AQ102" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="142"/>
-      <c r="AS102" s="140" t="s">
+      <c r="AR102" s="167"/>
+      <c r="AS102" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="141"/>
-      <c r="AU102" s="141"/>
-      <c r="AV102" s="141"/>
-      <c r="AW102" s="141"/>
-      <c r="AX102" s="141"/>
-      <c r="AY102" s="141"/>
-      <c r="AZ102" s="142"/>
+      <c r="AT102" s="147"/>
+      <c r="AU102" s="147"/>
+      <c r="AV102" s="147"/>
+      <c r="AW102" s="147"/>
+      <c r="AX102" s="147"/>
+      <c r="AY102" s="147"/>
+      <c r="AZ102" s="167"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -20313,68 +20787,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="200" t="s">
+      <c r="E104" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="202"/>
-      <c r="G104" s="202"/>
-      <c r="H104" s="202"/>
-      <c r="I104" s="202"/>
-      <c r="J104" s="202"/>
-      <c r="K104" s="201"/>
-      <c r="L104" s="200" t="s">
+      <c r="F104" s="150"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="150"/>
+      <c r="I104" s="150"/>
+      <c r="J104" s="150"/>
+      <c r="K104" s="151"/>
+      <c r="L104" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="202"/>
-      <c r="N104" s="201"/>
-      <c r="O104" s="200" t="s">
+      <c r="M104" s="150"/>
+      <c r="N104" s="151"/>
+      <c r="O104" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="202"/>
-      <c r="Q104" s="202"/>
-      <c r="R104" s="201"/>
-      <c r="S104" s="200" t="s">
+      <c r="P104" s="150"/>
+      <c r="Q104" s="150"/>
+      <c r="R104" s="151"/>
+      <c r="S104" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="202"/>
-      <c r="U104" s="202"/>
-      <c r="V104" s="202"/>
-      <c r="W104" s="202"/>
-      <c r="X104" s="202"/>
-      <c r="Y104" s="202"/>
-      <c r="Z104" s="202"/>
-      <c r="AA104" s="202"/>
-      <c r="AB104" s="202"/>
-      <c r="AC104" s="202"/>
-      <c r="AD104" s="201"/>
-      <c r="AE104" s="200" t="s">
+      <c r="T104" s="150"/>
+      <c r="U104" s="150"/>
+      <c r="V104" s="150"/>
+      <c r="W104" s="150"/>
+      <c r="X104" s="150"/>
+      <c r="Y104" s="150"/>
+      <c r="Z104" s="150"/>
+      <c r="AA104" s="150"/>
+      <c r="AB104" s="150"/>
+      <c r="AC104" s="150"/>
+      <c r="AD104" s="151"/>
+      <c r="AE104" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="202"/>
-      <c r="AG104" s="202"/>
-      <c r="AH104" s="202"/>
-      <c r="AI104" s="202"/>
-      <c r="AJ104" s="202"/>
-      <c r="AK104" s="202"/>
-      <c r="AL104" s="202"/>
-      <c r="AM104" s="202"/>
-      <c r="AN104" s="202"/>
-      <c r="AO104" s="202"/>
-      <c r="AP104" s="201"/>
-      <c r="AQ104" s="200" t="s">
+      <c r="AF104" s="150"/>
+      <c r="AG104" s="150"/>
+      <c r="AH104" s="150"/>
+      <c r="AI104" s="150"/>
+      <c r="AJ104" s="150"/>
+      <c r="AK104" s="150"/>
+      <c r="AL104" s="150"/>
+      <c r="AM104" s="150"/>
+      <c r="AN104" s="150"/>
+      <c r="AO104" s="150"/>
+      <c r="AP104" s="151"/>
+      <c r="AQ104" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="201"/>
-      <c r="AS104" s="200" t="s">
+      <c r="AR104" s="151"/>
+      <c r="AS104" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="202"/>
-      <c r="AU104" s="202"/>
-      <c r="AV104" s="202"/>
-      <c r="AW104" s="202"/>
-      <c r="AX104" s="202"/>
-      <c r="AY104" s="202"/>
-      <c r="AZ104" s="201"/>
+      <c r="AT104" s="150"/>
+      <c r="AU104" s="150"/>
+      <c r="AV104" s="150"/>
+      <c r="AW104" s="150"/>
+      <c r="AX104" s="150"/>
+      <c r="AY104" s="150"/>
+      <c r="AZ104" s="151"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -20460,11 +20934,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="170" t="s">
+      <c r="L106" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="171"/>
-      <c r="N106" s="172"/>
+      <c r="M106" s="153"/>
+      <c r="N106" s="154"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -20503,16 +20977,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="136" t="s">
+      <c r="AS106" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="137"/>
-      <c r="AU106" s="137"/>
-      <c r="AV106" s="137"/>
-      <c r="AW106" s="137"/>
-      <c r="AX106" s="137"/>
-      <c r="AY106" s="137"/>
-      <c r="AZ106" s="138"/>
+      <c r="AT106" s="206"/>
+      <c r="AU106" s="206"/>
+      <c r="AV106" s="206"/>
+      <c r="AW106" s="206"/>
+      <c r="AX106" s="206"/>
+      <c r="AY106" s="206"/>
+      <c r="AZ106" s="207"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -20578,16 +21052,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="136" t="s">
+      <c r="AS107" s="205" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="137"/>
-      <c r="AU107" s="137"/>
-      <c r="AV107" s="137"/>
-      <c r="AW107" s="137"/>
-      <c r="AX107" s="137"/>
-      <c r="AY107" s="137"/>
-      <c r="AZ107" s="138"/>
+      <c r="AT107" s="206"/>
+      <c r="AU107" s="206"/>
+      <c r="AV107" s="206"/>
+      <c r="AW107" s="206"/>
+      <c r="AX107" s="206"/>
+      <c r="AY107" s="206"/>
+      <c r="AZ107" s="207"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -20655,16 +21129,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="136" t="s">
+      <c r="AS108" s="205" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="137"/>
-      <c r="AU108" s="137"/>
-      <c r="AV108" s="137"/>
-      <c r="AW108" s="137"/>
-      <c r="AX108" s="137"/>
-      <c r="AY108" s="137"/>
-      <c r="AZ108" s="138"/>
+      <c r="AT108" s="206"/>
+      <c r="AU108" s="206"/>
+      <c r="AV108" s="206"/>
+      <c r="AW108" s="206"/>
+      <c r="AX108" s="206"/>
+      <c r="AY108" s="206"/>
+      <c r="AZ108" s="207"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -20728,16 +21202,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="136" t="s">
+      <c r="AS109" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="137"/>
-      <c r="AU109" s="137"/>
-      <c r="AV109" s="137"/>
-      <c r="AW109" s="137"/>
-      <c r="AX109" s="137"/>
-      <c r="AY109" s="137"/>
-      <c r="AZ109" s="138"/>
+      <c r="AT109" s="206"/>
+      <c r="AU109" s="206"/>
+      <c r="AV109" s="206"/>
+      <c r="AW109" s="206"/>
+      <c r="AX109" s="206"/>
+      <c r="AY109" s="206"/>
+      <c r="AZ109" s="207"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -20893,12 +21367,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="161" t="s">
+      <c r="O112" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="162"/>
-      <c r="Q112" s="162"/>
-      <c r="R112" s="163"/>
+      <c r="P112" s="194"/>
+      <c r="Q112" s="194"/>
+      <c r="R112" s="195"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -20923,20 +21397,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="156" t="s">
+      <c r="AQ112" s="188" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="157"/>
-      <c r="AS112" s="158" t="s">
+      <c r="AR112" s="189"/>
+      <c r="AS112" s="190" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="159"/>
-      <c r="AU112" s="159"/>
-      <c r="AV112" s="159"/>
-      <c r="AW112" s="159"/>
-      <c r="AX112" s="159"/>
-      <c r="AY112" s="159"/>
-      <c r="AZ112" s="160"/>
+      <c r="AT112" s="191"/>
+      <c r="AU112" s="191"/>
+      <c r="AV112" s="191"/>
+      <c r="AW112" s="191"/>
+      <c r="AX112" s="191"/>
+      <c r="AY112" s="191"/>
+      <c r="AZ112" s="192"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -22137,20 +22611,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="156" t="s">
+      <c r="AQ130" s="188" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="157"/>
-      <c r="AS130" s="158" t="s">
+      <c r="AR130" s="189"/>
+      <c r="AS130" s="190" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="159"/>
-      <c r="AU130" s="159"/>
-      <c r="AV130" s="159"/>
-      <c r="AW130" s="159"/>
-      <c r="AX130" s="159"/>
-      <c r="AY130" s="159"/>
-      <c r="AZ130" s="160"/>
+      <c r="AT130" s="191"/>
+      <c r="AU130" s="191"/>
+      <c r="AV130" s="191"/>
+      <c r="AW130" s="191"/>
+      <c r="AX130" s="191"/>
+      <c r="AY130" s="191"/>
+      <c r="AZ130" s="192"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -22204,16 +22678,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="164" t="s">
+      <c r="AS131" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="165"/>
-      <c r="AU131" s="165"/>
-      <c r="AV131" s="165"/>
-      <c r="AW131" s="165"/>
-      <c r="AX131" s="165"/>
-      <c r="AY131" s="165"/>
-      <c r="AZ131" s="166"/>
+      <c r="AT131" s="197"/>
+      <c r="AU131" s="197"/>
+      <c r="AV131" s="197"/>
+      <c r="AW131" s="197"/>
+      <c r="AX131" s="197"/>
+      <c r="AY131" s="197"/>
+      <c r="AZ131" s="198"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -22326,20 +22800,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="156" t="s">
+      <c r="AQ133" s="188" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="157"/>
-      <c r="AS133" s="158" t="s">
+      <c r="AR133" s="189"/>
+      <c r="AS133" s="190" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="159"/>
-      <c r="AU133" s="159"/>
-      <c r="AV133" s="159"/>
-      <c r="AW133" s="159"/>
-      <c r="AX133" s="159"/>
-      <c r="AY133" s="159"/>
-      <c r="AZ133" s="160"/>
+      <c r="AT133" s="191"/>
+      <c r="AU133" s="191"/>
+      <c r="AV133" s="191"/>
+      <c r="AW133" s="191"/>
+      <c r="AX133" s="191"/>
+      <c r="AY133" s="191"/>
+      <c r="AZ133" s="192"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -24962,6 +25436,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -24986,193 +25647,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25191,12 +25665,2040 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2D6B8E-7243-49A9-8304-65DDD3EA8828}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>469</v>
+      </c>
+      <c r="K3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" s="212" t="s">
+        <v>566</v>
+      </c>
+      <c r="M3" s="214" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L4" s="212" t="s">
+        <v>561</v>
+      </c>
+      <c r="M4" s="214" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L5" s="212" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" s="214" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L6" s="212" t="s">
+        <v>563</v>
+      </c>
+      <c r="M6" s="214" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L7" s="212" t="s">
+        <v>564</v>
+      </c>
+      <c r="M7" s="214" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L8" s="212" t="s">
+        <v>565</v>
+      </c>
+      <c r="M8" s="214" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L9" s="213" t="s">
+        <v>553</v>
+      </c>
+      <c r="M9" s="214" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L10" s="213" t="s">
+        <v>553</v>
+      </c>
+      <c r="M10" s="214" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="212"/>
+      <c r="M11" s="214"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="226" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="227">
+        <v>1</v>
+      </c>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227" t="s">
+        <v>486</v>
+      </c>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" s="228"/>
+      <c r="L12" s="227" t="s">
+        <v>491</v>
+      </c>
+      <c r="M12" s="229"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="215"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216" t="s">
+        <v>462</v>
+      </c>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216" t="s">
+        <v>488</v>
+      </c>
+      <c r="G13" s="216" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="219"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="215"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="216" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="219"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="215"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="219"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="215"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="216" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="219"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" s="215"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="F17" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="219"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="215"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216" t="s">
+        <v>479</v>
+      </c>
+      <c r="G18" s="216" t="s">
+        <v>463</v>
+      </c>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="219"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="215"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G19" s="216"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="219"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="215"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216" t="s">
+        <v>458</v>
+      </c>
+      <c r="F20" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G20" s="216"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="219"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="215"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="219"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="220"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="222"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="224"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="211"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="226" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="227">
+        <v>2</v>
+      </c>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="K24" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="L24" s="227" t="s">
+        <v>550</v>
+      </c>
+      <c r="M24" s="229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="215"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="216" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="219"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="215"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="216" t="s">
+        <v>481</v>
+      </c>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="219"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="215"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216" t="s">
+        <v>462</v>
+      </c>
+      <c r="F27" s="216" t="s">
+        <v>482</v>
+      </c>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="219"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="215"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="216" t="s">
+        <v>477</v>
+      </c>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="219"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="215"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216" t="s">
+        <v>476</v>
+      </c>
+      <c r="F29" s="216" t="s">
+        <v>477</v>
+      </c>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="219"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="215"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="219"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="215"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216" t="s">
+        <v>474</v>
+      </c>
+      <c r="F31" s="216" t="s">
+        <v>478</v>
+      </c>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="219"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="219"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="215"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="F33" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="219"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="220"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="222"/>
+      <c r="K34" s="222"/>
+      <c r="L34" s="223"/>
+      <c r="M34" s="224"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="212"/>
+      <c r="M35" s="211"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="226" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="227">
+        <v>3</v>
+      </c>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227" t="s">
+        <v>486</v>
+      </c>
+      <c r="G36" s="227"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="227"/>
+      <c r="J36" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="K36" s="228"/>
+      <c r="L36" s="227" t="s">
+        <v>551</v>
+      </c>
+      <c r="M36" s="229"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37" s="215"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216" t="s">
+        <v>472</v>
+      </c>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="217"/>
+      <c r="K37" s="217"/>
+      <c r="L37" s="218"/>
+      <c r="M37" s="219"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38" s="215"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216" t="s">
+        <v>460</v>
+      </c>
+      <c r="F38" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" s="216" t="s">
+        <v>463</v>
+      </c>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="217"/>
+      <c r="K38" s="217"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="219"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39" s="215"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216" t="s">
+        <v>461</v>
+      </c>
+      <c r="F39" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G39" s="216" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="217"/>
+      <c r="K39" s="217"/>
+      <c r="L39" s="218"/>
+      <c r="M39" s="219"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40" s="215"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="F40" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="219"/>
+    </row>
+    <row r="41" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="220"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="222"/>
+      <c r="K41" s="222"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="224"/>
+    </row>
+    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="211"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B43" s="226" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43" s="227">
+        <v>4</v>
+      </c>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227" t="s">
+        <v>548</v>
+      </c>
+      <c r="G43" s="227"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="K43" s="228"/>
+      <c r="L43" s="227" t="s">
+        <v>552</v>
+      </c>
+      <c r="M43" s="229"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B44" s="215"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216" t="s">
+        <v>492</v>
+      </c>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="217"/>
+      <c r="K44" s="217"/>
+      <c r="L44" s="218"/>
+      <c r="M44" s="219"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B45" s="215"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216" t="s">
+        <v>493</v>
+      </c>
+      <c r="F45" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="217"/>
+      <c r="K45" s="217"/>
+      <c r="L45" s="218"/>
+      <c r="M45" s="219"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="215"/>
+      <c r="C46" s="216"/>
+      <c r="D46" s="216"/>
+      <c r="E46" s="216" t="s">
+        <v>494</v>
+      </c>
+      <c r="F46" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G46" s="216"/>
+      <c r="H46" s="216"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="217"/>
+      <c r="L46" s="218"/>
+      <c r="M46" s="219"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47" s="215"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216" t="s">
+        <v>495</v>
+      </c>
+      <c r="F47" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="217"/>
+      <c r="K47" s="217"/>
+      <c r="L47" s="218"/>
+      <c r="M47" s="219"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B48" s="215"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216" t="s">
+        <v>496</v>
+      </c>
+      <c r="F48" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="217"/>
+      <c r="K48" s="217"/>
+      <c r="L48" s="218"/>
+      <c r="M48" s="219"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B49" s="215"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="216"/>
+      <c r="E49" s="216" t="s">
+        <v>497</v>
+      </c>
+      <c r="F49" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G49" s="216"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="217"/>
+      <c r="K49" s="217"/>
+      <c r="L49" s="218"/>
+      <c r="M49" s="219"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50" s="215"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216" t="s">
+        <v>498</v>
+      </c>
+      <c r="F50" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="217"/>
+      <c r="K50" s="217"/>
+      <c r="L50" s="218"/>
+      <c r="M50" s="219"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B51" s="215"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="216"/>
+      <c r="E51" s="216" t="s">
+        <v>499</v>
+      </c>
+      <c r="F51" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G51" s="216"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="217"/>
+      <c r="L51" s="218"/>
+      <c r="M51" s="219"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B52" s="215"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="216"/>
+      <c r="E52" s="216" t="s">
+        <v>500</v>
+      </c>
+      <c r="F52" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G52" s="216"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="216"/>
+      <c r="J52" s="217"/>
+      <c r="K52" s="217"/>
+      <c r="L52" s="218"/>
+      <c r="M52" s="219"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="215"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216" t="s">
+        <v>501</v>
+      </c>
+      <c r="F53" s="216" t="s">
+        <v>549</v>
+      </c>
+      <c r="G53" s="216"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="217"/>
+      <c r="K53" s="217"/>
+      <c r="L53" s="218"/>
+      <c r="M53" s="219"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B54" s="215"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="216" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="217"/>
+      <c r="K54" s="217"/>
+      <c r="L54" s="218"/>
+      <c r="M54" s="219"/>
+    </row>
+    <row r="55" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="220"/>
+      <c r="C55" s="221"/>
+      <c r="D55" s="221"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="222"/>
+      <c r="L55" s="223"/>
+      <c r="M55" s="224"/>
+    </row>
+    <row r="56" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J56" s="210"/>
+      <c r="K56" s="210"/>
+      <c r="L56" s="212"/>
+      <c r="M56" s="211"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B57" s="226" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" s="227">
+        <v>5</v>
+      </c>
+      <c r="D57" s="227"/>
+      <c r="E57" s="227"/>
+      <c r="F57" s="227" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" s="227"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="227"/>
+      <c r="J57" s="227"/>
+      <c r="K57" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="L57" s="230" t="s">
+        <v>553</v>
+      </c>
+      <c r="M57" s="229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B58" s="215"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216" t="s">
+        <v>503</v>
+      </c>
+      <c r="E58" s="216"/>
+      <c r="F58" s="216" t="s">
+        <v>513</v>
+      </c>
+      <c r="G58" s="216"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="216"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="218"/>
+      <c r="M58" s="219"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B59" s="215"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="216" t="s">
+        <v>506</v>
+      </c>
+      <c r="F59" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" s="216"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="216"/>
+      <c r="J59" s="216"/>
+      <c r="K59" s="216"/>
+      <c r="L59" s="218"/>
+      <c r="M59" s="219"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B60" s="215"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="216"/>
+      <c r="E60" s="216" t="s">
+        <v>507</v>
+      </c>
+      <c r="F60" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" s="216"/>
+      <c r="H60" s="216"/>
+      <c r="I60" s="216"/>
+      <c r="J60" s="216"/>
+      <c r="K60" s="216"/>
+      <c r="L60" s="218"/>
+      <c r="M60" s="219"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B61" s="215"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216" t="s">
+        <v>509</v>
+      </c>
+      <c r="F61" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" s="216"/>
+      <c r="H61" s="216"/>
+      <c r="I61" s="216"/>
+      <c r="J61" s="217"/>
+      <c r="K61" s="217"/>
+      <c r="L61" s="218"/>
+      <c r="M61" s="219"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B62" s="215"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216" t="s">
+        <v>510</v>
+      </c>
+      <c r="F62" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" s="216"/>
+      <c r="H62" s="216"/>
+      <c r="I62" s="216"/>
+      <c r="J62" s="216"/>
+      <c r="K62" s="216"/>
+      <c r="L62" s="218"/>
+      <c r="M62" s="219"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B63" s="215"/>
+      <c r="C63" s="216"/>
+      <c r="D63" s="216"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="216"/>
+      <c r="H63" s="216"/>
+      <c r="I63" s="216"/>
+      <c r="J63" s="216"/>
+      <c r="K63" s="216"/>
+      <c r="L63" s="218"/>
+      <c r="M63" s="219"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B64" s="215"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="216" t="s">
+        <v>504</v>
+      </c>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216" t="s">
+        <v>513</v>
+      </c>
+      <c r="G64" s="216"/>
+      <c r="H64" s="216"/>
+      <c r="I64" s="216"/>
+      <c r="J64" s="216"/>
+      <c r="K64" s="216"/>
+      <c r="L64" s="218"/>
+      <c r="M64" s="219"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B65" s="215"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="216" t="s">
+        <v>506</v>
+      </c>
+      <c r="F65" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G65" s="216"/>
+      <c r="H65" s="216"/>
+      <c r="I65" s="216"/>
+      <c r="J65" s="216"/>
+      <c r="K65" s="216"/>
+      <c r="L65" s="218"/>
+      <c r="M65" s="219"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B66" s="215"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216" t="s">
+        <v>507</v>
+      </c>
+      <c r="F66" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G66" s="216"/>
+      <c r="H66" s="216"/>
+      <c r="I66" s="216"/>
+      <c r="J66" s="216"/>
+      <c r="K66" s="216"/>
+      <c r="L66" s="218"/>
+      <c r="M66" s="219"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B67" s="215"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216" t="s">
+        <v>509</v>
+      </c>
+      <c r="F67" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" s="216"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="216"/>
+      <c r="J67" s="217"/>
+      <c r="K67" s="217"/>
+      <c r="L67" s="218"/>
+      <c r="M67" s="219"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B68" s="215"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="216"/>
+      <c r="E68" s="216" t="s">
+        <v>510</v>
+      </c>
+      <c r="F68" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G68" s="216"/>
+      <c r="H68" s="216"/>
+      <c r="I68" s="216"/>
+      <c r="J68" s="216"/>
+      <c r="K68" s="216"/>
+      <c r="L68" s="218"/>
+      <c r="M68" s="219"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B69" s="215"/>
+      <c r="C69" s="216"/>
+      <c r="D69" s="216"/>
+      <c r="E69" s="216"/>
+      <c r="F69" s="216"/>
+      <c r="G69" s="216"/>
+      <c r="H69" s="216"/>
+      <c r="I69" s="216"/>
+      <c r="J69" s="216"/>
+      <c r="K69" s="216"/>
+      <c r="L69" s="218"/>
+      <c r="M69" s="219"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B70" s="215"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="216" t="s">
+        <v>505</v>
+      </c>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216" t="s">
+        <v>546</v>
+      </c>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
+      <c r="I70" s="216"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="216"/>
+      <c r="L70" s="218"/>
+      <c r="M70" s="219"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B71" s="215"/>
+      <c r="C71" s="216"/>
+      <c r="D71" s="216"/>
+      <c r="E71" s="216" t="s">
+        <v>542</v>
+      </c>
+      <c r="F71" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="216"/>
+      <c r="H71" s="216"/>
+      <c r="I71" s="216"/>
+      <c r="J71" s="216"/>
+      <c r="K71" s="216"/>
+      <c r="L71" s="218"/>
+      <c r="M71" s="219"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B72" s="215"/>
+      <c r="C72" s="216"/>
+      <c r="D72" s="216"/>
+      <c r="E72" s="216" t="s">
+        <v>543</v>
+      </c>
+      <c r="F72" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G72" s="216"/>
+      <c r="H72" s="216"/>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="218"/>
+      <c r="M72" s="219"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B73" s="215"/>
+      <c r="C73" s="216"/>
+      <c r="D73" s="216"/>
+      <c r="E73" s="216" t="s">
+        <v>544</v>
+      </c>
+      <c r="F73" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G73" s="216"/>
+      <c r="H73" s="216"/>
+      <c r="I73" s="216"/>
+      <c r="J73" s="216"/>
+      <c r="K73" s="216"/>
+      <c r="L73" s="218"/>
+      <c r="M73" s="219"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B74" s="215"/>
+      <c r="C74" s="216"/>
+      <c r="D74" s="216"/>
+      <c r="E74" s="216" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G74" s="216"/>
+      <c r="H74" s="216"/>
+      <c r="I74" s="216"/>
+      <c r="J74" s="216"/>
+      <c r="K74" s="216"/>
+      <c r="L74" s="218"/>
+      <c r="M74" s="219"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B75" s="215"/>
+      <c r="C75" s="216"/>
+      <c r="D75" s="216"/>
+      <c r="E75" s="216" t="s">
+        <v>545</v>
+      </c>
+      <c r="F75" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G75" s="216"/>
+      <c r="H75" s="216"/>
+      <c r="I75" s="216"/>
+      <c r="J75" s="216"/>
+      <c r="K75" s="216"/>
+      <c r="L75" s="218"/>
+      <c r="M75" s="219"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B76" s="215"/>
+      <c r="C76" s="216"/>
+      <c r="D76" s="216"/>
+      <c r="E76" s="216" t="s">
+        <v>545</v>
+      </c>
+      <c r="F76" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G76" s="216"/>
+      <c r="H76" s="216"/>
+      <c r="I76" s="216"/>
+      <c r="J76" s="216"/>
+      <c r="K76" s="216"/>
+      <c r="L76" s="218"/>
+      <c r="M76" s="219"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B77" s="215"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216" t="s">
+        <v>545</v>
+      </c>
+      <c r="F77" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="216"/>
+      <c r="J77" s="216"/>
+      <c r="K77" s="216"/>
+      <c r="L77" s="218"/>
+      <c r="M77" s="219"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B78" s="215"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="216"/>
+      <c r="E78" s="216" t="s">
+        <v>545</v>
+      </c>
+      <c r="F78" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G78" s="216"/>
+      <c r="H78" s="216"/>
+      <c r="I78" s="216"/>
+      <c r="J78" s="216"/>
+      <c r="K78" s="216"/>
+      <c r="L78" s="218"/>
+      <c r="M78" s="219"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B79" s="215"/>
+      <c r="C79" s="216"/>
+      <c r="D79" s="216"/>
+      <c r="E79" s="216"/>
+      <c r="F79" s="216"/>
+      <c r="G79" s="216"/>
+      <c r="H79" s="216"/>
+      <c r="I79" s="216"/>
+      <c r="J79" s="216"/>
+      <c r="K79" s="216"/>
+      <c r="L79" s="218"/>
+      <c r="M79" s="219"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B80" s="215"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="216" t="s">
+        <v>511</v>
+      </c>
+      <c r="E80" s="216"/>
+      <c r="F80" s="216" t="s">
+        <v>513</v>
+      </c>
+      <c r="G80" s="216"/>
+      <c r="H80" s="216"/>
+      <c r="I80" s="216"/>
+      <c r="J80" s="216"/>
+      <c r="K80" s="216"/>
+      <c r="L80" s="218"/>
+      <c r="M80" s="219"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B81" s="215"/>
+      <c r="C81" s="216"/>
+      <c r="D81" s="216"/>
+      <c r="E81" s="216" t="s">
+        <v>506</v>
+      </c>
+      <c r="F81" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="216"/>
+      <c r="H81" s="216"/>
+      <c r="I81" s="216"/>
+      <c r="J81" s="216"/>
+      <c r="K81" s="216"/>
+      <c r="L81" s="218"/>
+      <c r="M81" s="219"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B82" s="215"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="216"/>
+      <c r="E82" s="216" t="s">
+        <v>507</v>
+      </c>
+      <c r="F82" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G82" s="216"/>
+      <c r="H82" s="216"/>
+      <c r="I82" s="216"/>
+      <c r="J82" s="216"/>
+      <c r="K82" s="216"/>
+      <c r="L82" s="218"/>
+      <c r="M82" s="219"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B83" s="215"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
+      <c r="E83" s="216" t="s">
+        <v>509</v>
+      </c>
+      <c r="F83" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G83" s="216"/>
+      <c r="H83" s="216"/>
+      <c r="I83" s="216"/>
+      <c r="J83" s="217"/>
+      <c r="K83" s="217"/>
+      <c r="L83" s="218"/>
+      <c r="M83" s="219"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B84" s="215"/>
+      <c r="C84" s="216"/>
+      <c r="D84" s="216"/>
+      <c r="E84" s="216" t="s">
+        <v>510</v>
+      </c>
+      <c r="F84" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G84" s="216"/>
+      <c r="H84" s="216"/>
+      <c r="I84" s="216"/>
+      <c r="J84" s="216"/>
+      <c r="K84" s="216"/>
+      <c r="L84" s="218"/>
+      <c r="M84" s="219"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B85" s="215"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="216"/>
+      <c r="E85" s="216"/>
+      <c r="F85" s="216"/>
+      <c r="G85" s="216"/>
+      <c r="H85" s="216"/>
+      <c r="I85" s="216"/>
+      <c r="J85" s="216"/>
+      <c r="K85" s="216"/>
+      <c r="L85" s="218"/>
+      <c r="M85" s="219"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B86" s="215"/>
+      <c r="C86" s="216"/>
+      <c r="D86" s="216" t="s">
+        <v>512</v>
+      </c>
+      <c r="E86" s="216"/>
+      <c r="F86" s="216" t="s">
+        <v>513</v>
+      </c>
+      <c r="G86" s="216"/>
+      <c r="H86" s="216"/>
+      <c r="I86" s="216"/>
+      <c r="J86" s="216"/>
+      <c r="K86" s="216"/>
+      <c r="L86" s="218"/>
+      <c r="M86" s="219"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B87" s="215"/>
+      <c r="C87" s="216"/>
+      <c r="D87" s="216"/>
+      <c r="E87" s="216" t="s">
+        <v>506</v>
+      </c>
+      <c r="F87" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G87" s="216"/>
+      <c r="H87" s="216"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="216"/>
+      <c r="K87" s="216"/>
+      <c r="L87" s="218"/>
+      <c r="M87" s="219"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B88" s="215"/>
+      <c r="C88" s="216"/>
+      <c r="D88" s="216"/>
+      <c r="E88" s="216" t="s">
+        <v>507</v>
+      </c>
+      <c r="F88" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G88" s="216"/>
+      <c r="H88" s="216"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
+      <c r="K88" s="216"/>
+      <c r="L88" s="218"/>
+      <c r="M88" s="219"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B89" s="215"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="216"/>
+      <c r="E89" s="216" t="s">
+        <v>509</v>
+      </c>
+      <c r="F89" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G89" s="216"/>
+      <c r="H89" s="216"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="217"/>
+      <c r="K89" s="217"/>
+      <c r="L89" s="218"/>
+      <c r="M89" s="219"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B90" s="215"/>
+      <c r="C90" s="216"/>
+      <c r="D90" s="216"/>
+      <c r="E90" s="216" t="s">
+        <v>510</v>
+      </c>
+      <c r="F90" s="216" t="s">
+        <v>484</v>
+      </c>
+      <c r="G90" s="216"/>
+      <c r="H90" s="216"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
+      <c r="K90" s="216"/>
+      <c r="L90" s="218"/>
+      <c r="M90" s="219"/>
+    </row>
+    <row r="91" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="220"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="221"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="221"/>
+      <c r="G91" s="221"/>
+      <c r="H91" s="221"/>
+      <c r="I91" s="221"/>
+      <c r="J91" s="221"/>
+      <c r="K91" s="221"/>
+      <c r="L91" s="223"/>
+      <c r="M91" s="224"/>
+    </row>
+    <row r="92" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L92" s="212"/>
+      <c r="M92" s="211"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B93" s="226" t="s">
+        <v>508</v>
+      </c>
+      <c r="C93" s="227">
+        <v>6</v>
+      </c>
+      <c r="D93" s="227"/>
+      <c r="E93" s="227"/>
+      <c r="F93" s="227" t="s">
+        <v>541</v>
+      </c>
+      <c r="G93" s="227"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="227"/>
+      <c r="J93" s="227"/>
+      <c r="K93" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="L93" s="230" t="s">
+        <v>553</v>
+      </c>
+      <c r="M93" s="229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B94" s="215"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="216" t="s">
+        <v>514</v>
+      </c>
+      <c r="E94" s="216"/>
+      <c r="F94" s="216" t="s">
+        <v>486</v>
+      </c>
+      <c r="G94" s="216"/>
+      <c r="H94" s="216"/>
+      <c r="I94" s="216"/>
+      <c r="J94" s="216"/>
+      <c r="K94" s="216"/>
+      <c r="L94" s="218"/>
+      <c r="M94" s="219"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B95" s="215"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="216" t="s">
+        <v>515</v>
+      </c>
+      <c r="F95" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G95" s="216"/>
+      <c r="H95" s="216"/>
+      <c r="I95" s="216"/>
+      <c r="J95" s="216"/>
+      <c r="K95" s="216"/>
+      <c r="L95" s="218"/>
+      <c r="M95" s="219"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B96" s="215"/>
+      <c r="C96" s="216"/>
+      <c r="D96" s="216"/>
+      <c r="E96" s="216" t="s">
+        <v>516</v>
+      </c>
+      <c r="F96" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96" s="216"/>
+      <c r="H96" s="216"/>
+      <c r="I96" s="216"/>
+      <c r="J96" s="216"/>
+      <c r="K96" s="216"/>
+      <c r="L96" s="218"/>
+      <c r="M96" s="219"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B97" s="215"/>
+      <c r="C97" s="216"/>
+      <c r="D97" s="216"/>
+      <c r="E97" s="216" t="s">
+        <v>530</v>
+      </c>
+      <c r="F97" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97" s="216"/>
+      <c r="H97" s="216"/>
+      <c r="I97" s="216"/>
+      <c r="J97" s="216"/>
+      <c r="K97" s="216"/>
+      <c r="L97" s="218"/>
+      <c r="M97" s="219"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B98" s="215"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="216"/>
+      <c r="G98" s="216"/>
+      <c r="H98" s="216"/>
+      <c r="I98" s="216"/>
+      <c r="J98" s="216"/>
+      <c r="K98" s="216"/>
+      <c r="L98" s="218"/>
+      <c r="M98" s="219"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B99" s="215"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216" t="s">
+        <v>533</v>
+      </c>
+      <c r="E99" s="216"/>
+      <c r="F99" s="216" t="s">
+        <v>540</v>
+      </c>
+      <c r="G99" s="216"/>
+      <c r="H99" s="216"/>
+      <c r="I99" s="216"/>
+      <c r="J99" s="216"/>
+      <c r="K99" s="216"/>
+      <c r="L99" s="218"/>
+      <c r="M99" s="219"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B100" s="215"/>
+      <c r="C100" s="216"/>
+      <c r="D100" s="216"/>
+      <c r="E100" s="216" t="s">
+        <v>534</v>
+      </c>
+      <c r="F100" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G100" s="216"/>
+      <c r="H100" s="216"/>
+      <c r="I100" s="216"/>
+      <c r="J100" s="216"/>
+      <c r="K100" s="216"/>
+      <c r="L100" s="218"/>
+      <c r="M100" s="219"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B101" s="215"/>
+      <c r="C101" s="216"/>
+      <c r="D101" s="216"/>
+      <c r="E101" s="216" t="s">
+        <v>535</v>
+      </c>
+      <c r="F101" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" s="216"/>
+      <c r="H101" s="216"/>
+      <c r="I101" s="216"/>
+      <c r="J101" s="216"/>
+      <c r="K101" s="216"/>
+      <c r="L101" s="218"/>
+      <c r="M101" s="219"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B102" s="215"/>
+      <c r="C102" s="216"/>
+      <c r="D102" s="216"/>
+      <c r="E102" s="216" t="s">
+        <v>536</v>
+      </c>
+      <c r="F102" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G102" s="216"/>
+      <c r="H102" s="216"/>
+      <c r="I102" s="216"/>
+      <c r="J102" s="216"/>
+      <c r="K102" s="216"/>
+      <c r="L102" s="218"/>
+      <c r="M102" s="219"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B103" s="215"/>
+      <c r="C103" s="216"/>
+      <c r="D103" s="216"/>
+      <c r="E103" s="216" t="s">
+        <v>537</v>
+      </c>
+      <c r="F103" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G103" s="216"/>
+      <c r="H103" s="216"/>
+      <c r="I103" s="216"/>
+      <c r="J103" s="216"/>
+      <c r="K103" s="216"/>
+      <c r="L103" s="218"/>
+      <c r="M103" s="219"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B104" s="215"/>
+      <c r="C104" s="216"/>
+      <c r="D104" s="216"/>
+      <c r="E104" s="216" t="s">
+        <v>538</v>
+      </c>
+      <c r="F104" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G104" s="216"/>
+      <c r="H104" s="216"/>
+      <c r="I104" s="216"/>
+      <c r="J104" s="216"/>
+      <c r="K104" s="216"/>
+      <c r="L104" s="218"/>
+      <c r="M104" s="219"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B105" s="215"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="216"/>
+      <c r="E105" s="216" t="s">
+        <v>539</v>
+      </c>
+      <c r="F105" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G105" s="216"/>
+      <c r="H105" s="216"/>
+      <c r="I105" s="216"/>
+      <c r="J105" s="216"/>
+      <c r="K105" s="216"/>
+      <c r="L105" s="218"/>
+      <c r="M105" s="219"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B106" s="215"/>
+      <c r="C106" s="216"/>
+      <c r="D106" s="216"/>
+      <c r="E106" s="216"/>
+      <c r="F106" s="216"/>
+      <c r="G106" s="216"/>
+      <c r="H106" s="216"/>
+      <c r="I106" s="216"/>
+      <c r="J106" s="216"/>
+      <c r="K106" s="216"/>
+      <c r="L106" s="218"/>
+      <c r="M106" s="219"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B107" s="215"/>
+      <c r="C107" s="216"/>
+      <c r="D107" s="216" t="s">
+        <v>517</v>
+      </c>
+      <c r="E107" s="216"/>
+      <c r="F107" s="216" t="s">
+        <v>528</v>
+      </c>
+      <c r="G107" s="216"/>
+      <c r="H107" s="216"/>
+      <c r="I107" s="216"/>
+      <c r="J107" s="216"/>
+      <c r="K107" s="216"/>
+      <c r="L107" s="218"/>
+      <c r="M107" s="219"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B108" s="215"/>
+      <c r="C108" s="216"/>
+      <c r="D108" s="216"/>
+      <c r="E108" s="216" t="s">
+        <v>518</v>
+      </c>
+      <c r="F108" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108" s="216"/>
+      <c r="H108" s="216"/>
+      <c r="I108" s="216"/>
+      <c r="J108" s="216"/>
+      <c r="K108" s="216"/>
+      <c r="L108" s="218"/>
+      <c r="M108" s="219"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B109" s="215"/>
+      <c r="C109" s="216"/>
+      <c r="D109" s="216"/>
+      <c r="E109" s="216" t="s">
+        <v>519</v>
+      </c>
+      <c r="F109" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G109" s="216"/>
+      <c r="H109" s="216"/>
+      <c r="I109" s="216"/>
+      <c r="J109" s="216"/>
+      <c r="K109" s="216"/>
+      <c r="L109" s="218"/>
+      <c r="M109" s="219"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B110" s="215"/>
+      <c r="C110" s="216"/>
+      <c r="D110" s="216"/>
+      <c r="E110" s="216" t="s">
+        <v>529</v>
+      </c>
+      <c r="F110" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G110" s="216"/>
+      <c r="H110" s="216"/>
+      <c r="I110" s="216"/>
+      <c r="J110" s="216"/>
+      <c r="K110" s="216"/>
+      <c r="L110" s="218"/>
+      <c r="M110" s="219"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B111" s="215"/>
+      <c r="C111" s="216"/>
+      <c r="D111" s="216"/>
+      <c r="E111" s="216" t="s">
+        <v>520</v>
+      </c>
+      <c r="F111" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" s="216"/>
+      <c r="H111" s="216"/>
+      <c r="I111" s="216"/>
+      <c r="J111" s="216"/>
+      <c r="K111" s="216"/>
+      <c r="L111" s="218"/>
+      <c r="M111" s="219"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B112" s="215"/>
+      <c r="C112" s="216"/>
+      <c r="D112" s="216"/>
+      <c r="E112" s="216" t="s">
+        <v>521</v>
+      </c>
+      <c r="F112" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G112" s="216"/>
+      <c r="H112" s="216"/>
+      <c r="I112" s="216"/>
+      <c r="J112" s="216"/>
+      <c r="K112" s="216"/>
+      <c r="L112" s="218"/>
+      <c r="M112" s="219"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B113" s="215"/>
+      <c r="C113" s="216"/>
+      <c r="D113" s="216"/>
+      <c r="E113" s="216" t="s">
+        <v>527</v>
+      </c>
+      <c r="F113" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G113" s="216"/>
+      <c r="H113" s="216"/>
+      <c r="I113" s="216"/>
+      <c r="J113" s="216"/>
+      <c r="K113" s="216"/>
+      <c r="L113" s="218"/>
+      <c r="M113" s="219"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B114" s="215"/>
+      <c r="C114" s="216"/>
+      <c r="D114" s="216"/>
+      <c r="E114" s="216" t="s">
+        <v>522</v>
+      </c>
+      <c r="F114" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" s="216"/>
+      <c r="H114" s="216"/>
+      <c r="I114" s="216"/>
+      <c r="J114" s="216"/>
+      <c r="K114" s="216"/>
+      <c r="L114" s="218"/>
+      <c r="M114" s="219"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B115" s="215"/>
+      <c r="C115" s="216"/>
+      <c r="D115" s="216"/>
+      <c r="E115" s="216" t="s">
+        <v>523</v>
+      </c>
+      <c r="F115" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G115" s="216"/>
+      <c r="H115" s="216"/>
+      <c r="I115" s="216"/>
+      <c r="J115" s="216"/>
+      <c r="K115" s="216"/>
+      <c r="L115" s="218"/>
+      <c r="M115" s="219"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B116" s="215"/>
+      <c r="C116" s="216"/>
+      <c r="D116" s="216"/>
+      <c r="E116" s="216" t="s">
+        <v>531</v>
+      </c>
+      <c r="F116" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G116" s="216"/>
+      <c r="H116" s="216"/>
+      <c r="I116" s="216"/>
+      <c r="J116" s="216"/>
+      <c r="K116" s="216"/>
+      <c r="L116" s="218"/>
+      <c r="M116" s="219"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B117" s="215"/>
+      <c r="C117" s="216"/>
+      <c r="D117" s="216"/>
+      <c r="E117" s="216" t="s">
+        <v>524</v>
+      </c>
+      <c r="F117" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G117" s="216"/>
+      <c r="H117" s="216"/>
+      <c r="I117" s="216"/>
+      <c r="J117" s="216"/>
+      <c r="K117" s="216"/>
+      <c r="L117" s="218"/>
+      <c r="M117" s="219"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B118" s="215"/>
+      <c r="C118" s="216"/>
+      <c r="D118" s="216"/>
+      <c r="E118" s="216" t="s">
+        <v>525</v>
+      </c>
+      <c r="F118" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G118" s="216"/>
+      <c r="H118" s="216"/>
+      <c r="I118" s="216"/>
+      <c r="J118" s="216"/>
+      <c r="K118" s="216"/>
+      <c r="L118" s="218"/>
+      <c r="M118" s="219"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B119" s="215"/>
+      <c r="C119" s="216"/>
+      <c r="D119" s="216"/>
+      <c r="E119" s="216" t="s">
+        <v>532</v>
+      </c>
+      <c r="F119" s="216" t="s">
+        <v>485</v>
+      </c>
+      <c r="G119" s="216"/>
+      <c r="H119" s="216"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="216"/>
+      <c r="K119" s="216"/>
+      <c r="L119" s="218"/>
+      <c r="M119" s="219"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B120" s="215"/>
+      <c r="C120" s="216"/>
+      <c r="D120" s="216"/>
+      <c r="E120" s="216" t="s">
+        <v>526</v>
+      </c>
+      <c r="F120" s="216" t="s">
+        <v>480</v>
+      </c>
+      <c r="G120" s="216"/>
+      <c r="H120" s="216"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="216"/>
+      <c r="K120" s="216"/>
+      <c r="L120" s="218"/>
+      <c r="M120" s="219"/>
+    </row>
+    <row r="121" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="220"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="221"/>
+      <c r="I121" s="221"/>
+      <c r="J121" s="221"/>
+      <c r="K121" s="221"/>
+      <c r="L121" s="223"/>
+      <c r="M121" s="225"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79CDDB-A596-4EEE-B447-13F381E2887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEF71B-82C4-487A-8AB9-CB749460E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="570">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1264,16 +1264,7 @@
     <t>0x7F Master</t>
   </si>
   <si>
-    <t>CS_FLASH</t>
-  </si>
-  <si>
     <t>SPI 1Mbps</t>
-  </si>
-  <si>
-    <t>Enable SPI ext. FLASH</t>
-  </si>
-  <si>
-    <t>Enable SPI Humidity/Temp/Pressure</t>
   </si>
   <si>
     <t>Single A/D</t>
@@ -1786,6 +1777,18 @@
   </si>
   <si>
     <t>ERR_UCELL</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>CS_TEMP</t>
+  </si>
+  <si>
+    <t>Enable SPI Temp</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2735,10 +2738,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2808,16 +2807,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2826,38 +2843,41 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2866,6 +2886,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2910,15 +3005,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2928,107 +3014,20 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10412,12 +10411,12 @@
   <sheetData>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -10434,8 +10433,8 @@
   </sheetPr>
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10461,14 +10460,14 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N1" s="5"/>
       <c r="AA1" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -10531,14 +10530,14 @@
         <v>54</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AD3" s="3" t="str">
         <f>Q3</f>
         <v>CPU Port</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -10567,7 +10566,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K4" s="89" t="s">
         <v>388</v>
@@ -10597,7 +10596,7 @@
         <v>62</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V4" s="96"/>
       <c r="Y4" s="95" t="s">
@@ -10620,7 +10619,7 @@
         <v>PC04</v>
       </c>
       <c r="AE4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -10649,7 +10648,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K5" s="89" t="s">
         <v>388</v>
@@ -10679,7 +10678,7 @@
         <v>62</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V5" s="96"/>
       <c r="Y5" s="95" t="s">
@@ -10702,7 +10701,7 @@
         <v>PC05</v>
       </c>
       <c r="AE5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -10729,7 +10728,7 @@
         <v>62</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K6" s="89"/>
       <c r="M6" s="9" t="s">
@@ -10755,7 +10754,7 @@
         <v>62</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V6" s="96" t="s">
         <v>390</v>
@@ -10783,7 +10782,7 @@
         <v>PB02</v>
       </c>
       <c r="AE6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -10847,27 +10846,11 @@
       <c r="U8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA8" s="9" t="str">
-        <f>M8</f>
-        <v>DEBUG DOUT</v>
-      </c>
-      <c r="AB8" s="9">
-        <f>N8</f>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="9" t="str">
-        <f>O8</f>
-        <v>H9</v>
-      </c>
-      <c r="AD8" s="9" t="str">
-        <f>Q8</f>
-        <v>PB01</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>62</v>
+      <c r="V8" s="96" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y8" s="98" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -10960,7 +10943,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K10" s="90" t="s">
         <v>387</v>
@@ -10988,7 +10971,7 @@
         <v>62</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="W10" s="99" t="s">
         <v>391</v>
@@ -11026,7 +11009,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K12" s="89" t="s">
         <v>388</v>
@@ -11056,7 +11039,7 @@
         <v>62</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Y12" s="95" t="s">
         <v>389</v>
@@ -11078,7 +11061,7 @@
         <v>PA01</v>
       </c>
       <c r="AE12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -11107,7 +11090,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K13" s="89" t="s">
         <v>388</v>
@@ -11137,7 +11120,7 @@
         <v>62</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Y13" s="95" t="s">
         <v>389</v>
@@ -11159,7 +11142,7 @@
         <v>PA02</v>
       </c>
       <c r="AE13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -11188,7 +11171,7 @@
         <v>62</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K14" s="89" t="s">
         <v>388</v>
@@ -11218,7 +11201,7 @@
         <v>62</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Y14" s="95" t="s">
         <v>389</v>
@@ -11240,7 +11223,7 @@
         <v>PA03</v>
       </c>
       <c r="AE14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -11272,7 +11255,7 @@
         <v>62</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K16" s="89" t="s">
         <v>388</v>
@@ -11302,7 +11285,7 @@
         <v>62</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Y16" s="95" t="s">
         <v>389</v>
@@ -11324,7 +11307,7 @@
         <v>PB00</v>
       </c>
       <c r="AE16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -11363,13 +11346,13 @@
         <v>120</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>379</v>
@@ -11380,7 +11363,9 @@
       <c r="T17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="U17" s="9"/>
+      <c r="U17" s="9" t="s">
+        <v>569</v>
+      </c>
       <c r="Y17" s="95" t="s">
         <v>389</v>
       </c>
@@ -11394,14 +11379,14 @@
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>H7</v>
       </c>
       <c r="AD17" t="str">
         <f t="shared" si="11"/>
-        <v>PA04</v>
+        <v>PB00</v>
       </c>
       <c r="AE17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -11488,63 +11473,63 @@
         <v>PA00</v>
       </c>
       <c r="AE19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="125">
         <v>1</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="128" t="s">
+      <c r="E20" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="126" t="s">
+      <c r="F20" s="124" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="128" t="s">
+      <c r="H20" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="126" t="s">
+      <c r="I20" s="124" t="s">
         <v>119</v>
       </c>
       <c r="K20" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M20" s="128" t="s">
+      <c r="M20" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="129">
+      <c r="N20" s="127">
         <v>1</v>
       </c>
-      <c r="O20" s="128" t="s">
+      <c r="O20" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="128" t="s">
+      <c r="P20" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="128" t="s">
+      <c r="Q20" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128" t="s">
+      <c r="R20" s="126"/>
+      <c r="S20" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="128" t="s">
+      <c r="T20" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="U20" s="128" t="s">
+      <c r="U20" s="126" t="s">
         <v>119</v>
       </c>
       <c r="V20" s="96"/>
@@ -11773,13 +11758,13 @@
       </c>
       <c r="U24" s="91"/>
       <c r="V24" s="96" t="s">
-        <v>390</v>
+        <v>566</v>
       </c>
       <c r="W24" s="99" t="s">
         <v>391</v>
       </c>
       <c r="X24" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y24" s="95" t="s">
         <v>389</v>
@@ -11801,66 +11786,66 @@
         <v>PB04</v>
       </c>
       <c r="AE24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="124" t="s">
         <v>379</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="124"/>
       <c r="K26" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="124" t="s">
         <v>379</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="T26" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="U26" s="9"/>
+      <c r="U26" s="124"/>
       <c r="V26" s="96" t="s">
         <v>390</v>
       </c>
@@ -11872,57 +11857,57 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="124" t="s">
         <v>379</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="124"/>
       <c r="K27" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M27" s="91" t="s">
+      <c r="M27" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="N27" s="92" t="s">
+      <c r="N27" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="91" t="s">
+      <c r="O27" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="91" t="s">
+      <c r="P27" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="Q27" s="91" t="s">
+      <c r="Q27" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91" t="s">
+      <c r="R27" s="126"/>
+      <c r="S27" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="T27" s="91" t="s">
+      <c r="T27" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="U27" s="91"/>
+      <c r="U27" s="126"/>
       <c r="W27" s="99" t="s">
         <v>391</v>
       </c>
@@ -11931,59 +11916,59 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="124" t="s">
         <v>379</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="124" t="s">
         <v>146</v>
       </c>
       <c r="K28" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M28" s="91" t="s">
+      <c r="M28" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="N28" s="92" t="s">
+      <c r="N28" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="91" t="s">
+      <c r="P28" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="Q28" s="91" t="s">
+      <c r="Q28" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91" t="s">
+      <c r="R28" s="126"/>
+      <c r="S28" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="91" t="s">
+      <c r="T28" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="U28" s="91" t="s">
+      <c r="U28" s="126" t="s">
         <v>146</v>
       </c>
       <c r="W28" s="99" t="s">
@@ -12022,7 +12007,7 @@
         <v>62</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K30" s="89" t="s">
         <v>388</v>
@@ -12052,7 +12037,7 @@
         <v>62</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y30" s="95" t="s">
         <v>389</v>
@@ -12074,7 +12059,7 @@
         <v>PC00</v>
       </c>
       <c r="AE30" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -12085,7 +12070,7 @@
         <v>101</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>111</v>
@@ -12103,7 +12088,7 @@
         <v>62</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K31" s="89" t="s">
         <v>388</v>
@@ -12115,7 +12100,7 @@
         <v>101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>111</v>
@@ -12133,7 +12118,7 @@
         <v>62</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y31" s="95" t="s">
         <v>389</v>
@@ -12155,7 +12140,7 @@
         <v>PC01</v>
       </c>
       <c r="AE31" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -12184,7 +12169,7 @@
         <v>62</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K32" s="89" t="s">
         <v>388</v>
@@ -12214,7 +12199,7 @@
         <v>62</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y32" s="95" t="s">
         <v>389</v>
@@ -12236,62 +12221,62 @@
         <v>PC02</v>
       </c>
       <c r="AE32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="125" t="s">
-        <v>403</v>
-      </c>
-      <c r="C33" s="124" t="s">
+      <c r="B33" s="123" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="124" t="s">
-        <v>417</v>
-      </c>
-      <c r="E33" s="124" t="s">
+      <c r="D33" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="E33" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124" t="s">
+      <c r="F33" s="122"/>
+      <c r="G33" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="124" t="s">
+      <c r="H33" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="124" t="s">
-        <v>405</v>
+      <c r="I33" s="122" t="s">
+        <v>568</v>
       </c>
       <c r="K33" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="M33" s="118" t="s">
+      <c r="M33" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="119" t="s">
-        <v>403</v>
-      </c>
-      <c r="O33" s="118" t="s">
+      <c r="N33" s="123" t="s">
+        <v>567</v>
+      </c>
+      <c r="O33" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="118" t="s">
+      <c r="P33" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="Q33" s="118" t="s">
+      <c r="Q33" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118" t="s">
+      <c r="R33" s="122"/>
+      <c r="S33" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="T33" s="118" t="s">
+      <c r="T33" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="118" t="s">
-        <v>405</v>
+      <c r="U33" s="122" t="s">
+        <v>568</v>
       </c>
       <c r="V33" s="96"/>
       <c r="Y33" s="98" t="s">
@@ -12303,7 +12288,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>121</v>
@@ -12324,7 +12309,7 @@
         <v>62</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="K34" s="89" t="s">
         <v>388</v>
@@ -12333,7 +12318,7 @@
         <v>103</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>121</v>
@@ -12354,7 +12339,7 @@
         <v>62</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="V34" s="96"/>
       <c r="W34" s="96"/>
@@ -12367,7 +12352,7 @@
       </c>
       <c r="AB34" t="str">
         <f t="shared" ref="AB34" si="25">N34</f>
-        <v>CS_ADC</v>
+        <v>CS_DAC</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" ref="AC34" si="26">O34</f>
@@ -12378,7 +12363,7 @@
         <v>PC03</v>
       </c>
       <c r="AE34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -12400,7 +12385,7 @@
       <c r="E36" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="120" t="s">
+      <c r="F36" s="118" t="s">
         <v>379</v>
       </c>
       <c r="G36" s="93" t="s">
@@ -12447,7 +12432,7 @@
         <v>391</v>
       </c>
       <c r="Y36" s="98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -12510,7 +12495,7 @@
       </c>
       <c r="V37" s="96"/>
       <c r="Y37" s="98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -12573,131 +12558,131 @@
       </c>
       <c r="V38" s="96"/>
       <c r="Y38" s="98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="B40" s="122" t="s">
+      <c r="A40" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="121" t="s">
+      <c r="E40" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="121" t="s">
+      <c r="F40" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="121" t="s">
+      <c r="G40" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="H40" s="121" t="s">
+      <c r="H40" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="I40" s="121" t="s">
-        <v>422</v>
+      <c r="I40" s="119" t="s">
+        <v>419</v>
       </c>
       <c r="K40" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M40" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="N40" s="122" t="s">
+      <c r="M40" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="N40" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="O40" s="121" t="s">
+      <c r="O40" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="121" t="s">
+      <c r="P40" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="121" t="s">
+      <c r="Q40" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="R40" s="121" t="s">
+      <c r="R40" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="S40" s="121" t="s">
+      <c r="S40" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="T40" s="121" t="s">
+      <c r="T40" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="U40" s="121" t="s">
-        <v>422</v>
+      <c r="U40" s="119" t="s">
+        <v>419</v>
       </c>
       <c r="Y40" s="95" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="B41" s="122" t="s">
+      <c r="A41" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="121" t="s">
+      <c r="E41" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="121" t="s">
+      <c r="F41" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="G41" s="121" t="s">
+      <c r="G41" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="H41" s="121" t="s">
+      <c r="H41" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="I41" s="121" t="s">
-        <v>422</v>
+      <c r="I41" s="119" t="s">
+        <v>419</v>
       </c>
       <c r="K41" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="M41" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="N41" s="122" t="s">
+      <c r="M41" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="N41" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="O41" s="121" t="s">
+      <c r="O41" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="P41" s="121" t="s">
+      <c r="P41" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="Q41" s="121" t="s">
+      <c r="Q41" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="R41" s="121" t="s">
+      <c r="R41" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="S41" s="121" t="s">
+      <c r="S41" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="T41" s="121" t="s">
+      <c r="T41" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="U41" s="121" t="s">
-        <v>422</v>
+      <c r="U41" s="119" t="s">
+        <v>419</v>
       </c>
       <c r="Y41" s="95" t="s">
         <v>389</v>
@@ -12705,14 +12690,14 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B43" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B43" s="121"/>
       <c r="C43" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>64</v>
@@ -12725,20 +12710,20 @@
         <v>62</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K43" s="90" t="s">
         <v>387</v>
       </c>
       <c r="N43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B44" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B44" s="121"/>
       <c r="C44" s="14" t="s">
         <v>46</v>
       </c>
@@ -12757,14 +12742,14 @@
       </c>
       <c r="I44" s="14"/>
       <c r="N44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B45" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B45" s="121"/>
       <c r="C45" s="14" t="s">
         <v>46</v>
       </c>
@@ -12785,9 +12770,9 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B46" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B46" s="121"/>
       <c r="C46" s="14" t="s">
         <v>94</v>
       </c>
@@ -12808,9 +12793,9 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B47" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B47" s="121"/>
       <c r="C47" s="14" t="s">
         <v>95</v>
       </c>
@@ -12834,9 +12819,9 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B48" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B48" s="121"/>
       <c r="C48" s="14" t="s">
         <v>121</v>
       </c>
@@ -12859,9 +12844,9 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B49" s="121"/>
       <c r="C49" s="14" t="s">
         <v>46</v>
       </c>
@@ -12898,7 +12883,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12920,10 +12905,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J1" s="5"/>
     </row>
@@ -12963,16 +12948,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C4" s="97" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" s="132"/>
+        <v>430</v>
+      </c>
+      <c r="G4" s="130"/>
       <c r="I4" s="9" t="s">
         <v>59</v>
       </c>
@@ -12986,17 +12971,17 @@
         <v>379</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N4" s="96"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
-      <c r="B5" s="130"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="96"/>
       <c r="D5" s="87"/>
       <c r="E5" s="87"/>
-      <c r="G5" s="132"/>
+      <c r="G5" s="130"/>
       <c r="I5" s="9" t="s">
         <v>59</v>
       </c>
@@ -13010,17 +12995,17 @@
         <v>379</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N5" s="96"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="87"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
-      <c r="G6" s="132"/>
+      <c r="G6" s="130"/>
       <c r="I6" s="9" t="s">
         <v>59</v>
       </c>
@@ -13034,25 +13019,25 @@
         <v>379</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N6" s="96"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="87"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="87"/>
       <c r="E7" s="87"/>
-      <c r="G7" s="132"/>
+      <c r="G7" s="130"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K7" s="97"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N7" s="96"/>
     </row>
@@ -13073,9 +13058,9 @@
         <v>379</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" s="132"/>
+        <v>439</v>
+      </c>
+      <c r="G9" s="130"/>
       <c r="I9" s="9" t="s">
         <v>67</v>
       </c>
@@ -13089,7 +13074,7 @@
         <v>379</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -13106,15 +13091,15 @@
         <v>379</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G10" s="132"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
+        <v>440</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
       <c r="M10" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N10" s="96"/>
     </row>
@@ -13135,9 +13120,9 @@
         <v>379</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G12" s="132"/>
+        <v>405</v>
+      </c>
+      <c r="G12" s="130"/>
       <c r="I12" s="9" t="s">
         <v>131</v>
       </c>
@@ -13151,7 +13136,7 @@
         <v>379</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -13168,9 +13153,9 @@
         <v>379</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G13" s="132"/>
+        <v>405</v>
+      </c>
+      <c r="G13" s="130"/>
       <c r="I13" s="9" t="s">
         <v>131</v>
       </c>
@@ -13184,7 +13169,7 @@
         <v>379</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -13201,9 +13186,9 @@
         <v>379</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="132"/>
+        <v>441</v>
+      </c>
+      <c r="G14" s="130"/>
       <c r="I14" s="9" t="s">
         <v>131</v>
       </c>
@@ -13217,7 +13202,7 @@
         <v>379</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -13225,13 +13210,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="123"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="G16" s="132"/>
+        <v>435</v>
+      </c>
+      <c r="G16" s="130"/>
       <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
@@ -13251,13 +13236,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="123"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="132"/>
+        <v>436</v>
+      </c>
+      <c r="G18" s="130"/>
       <c r="I18" s="9" t="s">
         <v>114</v>
       </c>
@@ -13293,7 +13278,7 @@
       <c r="E20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="132"/>
+      <c r="G20" s="130"/>
       <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
@@ -13326,7 +13311,7 @@
       <c r="E21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="132"/>
+      <c r="G21" s="130"/>
       <c r="I21" s="9" t="s">
         <v>82</v>
       </c>
@@ -13360,9 +13345,9 @@
         <v>379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="132"/>
+        <v>403</v>
+      </c>
+      <c r="G23" s="130"/>
       <c r="I23" s="7" t="s">
         <v>99</v>
       </c>
@@ -13376,7 +13361,7 @@
         <v>379</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -13393,9 +13378,9 @@
         <v>379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G24" s="132"/>
+        <v>403</v>
+      </c>
+      <c r="G24" s="130"/>
       <c r="I24" s="7" t="s">
         <v>99</v>
       </c>
@@ -13409,7 +13394,7 @@
         <v>379</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -13426,9 +13411,9 @@
         <v>379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G25" s="132"/>
+        <v>403</v>
+      </c>
+      <c r="G25" s="130"/>
       <c r="I25" s="7" t="s">
         <v>99</v>
       </c>
@@ -13442,55 +13427,55 @@
         <v>379</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="125" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" s="124" t="s">
+      <c r="B26" s="123" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="124" t="s">
-        <v>434</v>
-      </c>
-      <c r="G26" s="132"/>
-      <c r="I26" s="124" t="s">
+      <c r="E26" s="122" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="I26" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="125" t="s">
-        <v>423</v>
-      </c>
-      <c r="K26" s="124" t="s">
+      <c r="J26" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="124" t="s">
+      <c r="L26" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="M26" s="124" t="s">
-        <v>429</v>
+      <c r="M26" s="122" t="s">
+        <v>426</v>
       </c>
       <c r="N26" s="96"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="87"/>
-      <c r="B27" s="130"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="87"/>
       <c r="D27" s="87"/>
       <c r="E27" s="87"/>
-      <c r="G27" s="132"/>
+      <c r="G27" s="130"/>
       <c r="I27" s="7" t="s">
         <v>103</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>122</v>
@@ -13499,7 +13484,7 @@
         <v>379</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="N27" s="96"/>
     </row>
@@ -13513,22 +13498,22 @@
       <c r="B29" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="120" t="s">
+      <c r="C29" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="118" t="s">
         <v>379</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="135" t="s">
-        <v>441</v>
+      <c r="G29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="133" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -13538,20 +13523,20 @@
       <c r="B30" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="118" t="s">
         <v>379</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="132"/>
+      <c r="G30" s="130"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
       <c r="M30" s="14"/>
       <c r="N30" s="96"/>
     </row>
@@ -13562,20 +13547,20 @@
       <c r="B31" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="118" t="s">
         <v>379</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="130"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
       <c r="M31" s="14"/>
       <c r="N31" s="96"/>
     </row>
@@ -13583,96 +13568,96 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="B33" s="122" t="s">
+      <c r="A33" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="G33" s="132"/>
-      <c r="I33" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="J33" s="122" t="s">
+      <c r="E33" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33" s="130"/>
+      <c r="I33" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="J33" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="121" t="s">
+      <c r="K33" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="121" t="s">
+      <c r="L33" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="M33" s="121" t="s">
-        <v>422</v>
+      <c r="M33" s="119" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" s="122" t="s">
+      <c r="A34" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="C34" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="121" t="s">
+      <c r="D34" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="G34" s="132"/>
-      <c r="I34" s="121" t="s">
-        <v>415</v>
-      </c>
-      <c r="J34" s="122" t="s">
+      <c r="E34" s="119" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="130"/>
+      <c r="I34" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="J34" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="121" t="s">
+      <c r="K34" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="121" t="s">
+      <c r="L34" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="M34" s="121" t="s">
-        <v>422</v>
+      <c r="M34" s="119" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="J37" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B39" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B39" s="121"/>
       <c r="C39" s="14" t="s">
         <v>122</v>
       </c>
@@ -13683,9 +13668,9 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B40" s="123"/>
+        <v>413</v>
+      </c>
+      <c r="B40" s="121"/>
       <c r="C40" s="14" t="s">
         <v>80</v>
       </c>
@@ -13847,21 +13832,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -13969,45 +13954,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="218" t="s">
+      <c r="E5" s="183" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="209" t="s">
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="187" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="226"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="209" t="s">
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="211" t="s">
+      <c r="Q5" s="188"/>
+      <c r="R5" s="191" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="209" t="s">
+      <c r="S5" s="192"/>
+      <c r="T5" s="192"/>
+      <c r="U5" s="192"/>
+      <c r="V5" s="192"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="187" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="218" t="s">
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="183" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="219"/>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="219"/>
-      <c r="AE5" s="220"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -14042,45 +14027,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="224" t="s">
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="174" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="224"/>
-      <c r="P6" s="224" t="s">
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="224"/>
-      <c r="R6" s="225" t="s">
+      <c r="Q6" s="174"/>
+      <c r="R6" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="225"/>
-      <c r="T6" s="225"/>
-      <c r="U6" s="225"/>
-      <c r="V6" s="225"/>
-      <c r="W6" s="225"/>
-      <c r="X6" s="225" t="s">
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225" t="s">
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="225"/>
-      <c r="AB6" s="225"/>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -14121,29 +14106,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="217" t="s">
+      <c r="K7" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="217"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="217" t="s">
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="217"/>
-      <c r="R7" s="217" t="s">
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="217"/>
-      <c r="T7" s="217"/>
-      <c r="U7" s="217"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="217"/>
-      <c r="X7" s="217" t="s">
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="217"/>
+      <c r="Y7" s="189"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -14576,10 +14561,10 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="164" t="s">
+      <c r="E14" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="165"/>
+      <c r="F14" s="228"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -14604,10 +14589,10 @@
       <c r="AB14" s="108"/>
       <c r="AC14" s="108"/>
       <c r="AD14" s="108"/>
-      <c r="AE14" s="164" t="s">
+      <c r="AE14" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="165"/>
+      <c r="AF14" s="228"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -14650,67 +14635,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="166" t="s">
+      <c r="H15" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168" t="s">
+      <c r="I15" s="161"/>
+      <c r="J15" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="169"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="228"/>
-      <c r="O15" s="228"/>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="228"/>
-      <c r="R15" s="228"/>
-      <c r="S15" s="228"/>
-      <c r="T15" s="228"/>
-      <c r="U15" s="228"/>
-      <c r="V15" s="228"/>
-      <c r="W15" s="228"/>
-      <c r="X15" s="228"/>
-      <c r="Y15" s="228"/>
-      <c r="Z15" s="228"/>
-      <c r="AA15" s="228"/>
-      <c r="AB15" s="228"/>
-      <c r="AC15" s="228"/>
-      <c r="AD15" s="228"/>
-      <c r="AE15" s="228"/>
-      <c r="AF15" s="229"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="157"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="166" t="s">
+      <c r="AH15" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="168" t="s">
+      <c r="AI15" s="161"/>
+      <c r="AJ15" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="227"/>
-      <c r="AM15" s="228"/>
-      <c r="AN15" s="228"/>
-      <c r="AO15" s="228"/>
-      <c r="AP15" s="228"/>
-      <c r="AQ15" s="228"/>
-      <c r="AR15" s="228"/>
-      <c r="AS15" s="228"/>
-      <c r="AT15" s="228"/>
-      <c r="AU15" s="228"/>
-      <c r="AV15" s="228"/>
-      <c r="AW15" s="228"/>
-      <c r="AX15" s="228"/>
-      <c r="AY15" s="228"/>
-      <c r="AZ15" s="228"/>
-      <c r="BA15" s="228"/>
-      <c r="BB15" s="228"/>
-      <c r="BC15" s="228"/>
-      <c r="BD15" s="228"/>
-      <c r="BE15" s="228"/>
-      <c r="BF15" s="228"/>
+      <c r="AK15" s="159"/>
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
+      <c r="AQ15" s="156"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="156"/>
+      <c r="AT15" s="156"/>
+      <c r="AU15" s="156"/>
+      <c r="AV15" s="156"/>
+      <c r="AW15" s="156"/>
+      <c r="AX15" s="156"/>
+      <c r="AY15" s="156"/>
+      <c r="AZ15" s="156"/>
+      <c r="BA15" s="156"/>
+      <c r="BB15" s="156"/>
+      <c r="BC15" s="156"/>
+      <c r="BD15" s="156"/>
+      <c r="BE15" s="156"/>
+      <c r="BF15" s="156"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -14731,33 +14716,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="166" t="s">
+      <c r="J16" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="167"/>
-      <c r="L16" s="168" t="s">
+      <c r="K16" s="161"/>
+      <c r="L16" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="169"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="228"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="228"/>
-      <c r="R16" s="228"/>
-      <c r="S16" s="228"/>
-      <c r="T16" s="228"/>
-      <c r="U16" s="228"/>
-      <c r="V16" s="228"/>
-      <c r="W16" s="228"/>
-      <c r="X16" s="228"/>
-      <c r="Y16" s="228"/>
-      <c r="Z16" s="228"/>
-      <c r="AA16" s="228"/>
-      <c r="AB16" s="228"/>
-      <c r="AC16" s="228"/>
-      <c r="AD16" s="228"/>
-      <c r="AE16" s="228"/>
-      <c r="AF16" s="229"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="157"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -14765,33 +14750,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="166" t="s">
+      <c r="AJ16" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="167"/>
-      <c r="AL16" s="168" t="s">
+      <c r="AK16" s="161"/>
+      <c r="AL16" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="169"/>
-      <c r="AN16" s="227"/>
-      <c r="AO16" s="228"/>
-      <c r="AP16" s="228"/>
-      <c r="AQ16" s="228"/>
-      <c r="AR16" s="228"/>
-      <c r="AS16" s="228"/>
-      <c r="AT16" s="228"/>
-      <c r="AU16" s="228"/>
-      <c r="AV16" s="228"/>
-      <c r="AW16" s="228"/>
-      <c r="AX16" s="228"/>
-      <c r="AY16" s="228"/>
-      <c r="AZ16" s="228"/>
-      <c r="BA16" s="228"/>
-      <c r="BB16" s="228"/>
-      <c r="BC16" s="228"/>
-      <c r="BD16" s="228"/>
-      <c r="BE16" s="228"/>
-      <c r="BF16" s="228"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="155"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
+      <c r="AQ16" s="156"/>
+      <c r="AR16" s="156"/>
+      <c r="AS16" s="156"/>
+      <c r="AT16" s="156"/>
+      <c r="AU16" s="156"/>
+      <c r="AV16" s="156"/>
+      <c r="AW16" s="156"/>
+      <c r="AX16" s="156"/>
+      <c r="AY16" s="156"/>
+      <c r="AZ16" s="156"/>
+      <c r="BA16" s="156"/>
+      <c r="BB16" s="156"/>
+      <c r="BC16" s="156"/>
+      <c r="BD16" s="156"/>
+      <c r="BE16" s="156"/>
+      <c r="BF16" s="156"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -14814,31 +14799,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="166" t="s">
+      <c r="L17" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="167"/>
-      <c r="N17" s="168" t="s">
+      <c r="M17" s="161"/>
+      <c r="N17" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="169"/>
-      <c r="P17" s="227"/>
-      <c r="Q17" s="228"/>
-      <c r="R17" s="228"/>
-      <c r="S17" s="228"/>
-      <c r="T17" s="228"/>
-      <c r="U17" s="228"/>
-      <c r="V17" s="228"/>
-      <c r="W17" s="228"/>
-      <c r="X17" s="228"/>
-      <c r="Y17" s="228"/>
-      <c r="Z17" s="228"/>
-      <c r="AA17" s="228"/>
-      <c r="AB17" s="228"/>
-      <c r="AC17" s="228"/>
-      <c r="AD17" s="228"/>
-      <c r="AE17" s="228"/>
-      <c r="AF17" s="229"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="157"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -14848,31 +14833,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="166" t="s">
+      <c r="AL17" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="167"/>
-      <c r="AN17" s="168" t="s">
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="169"/>
-      <c r="AP17" s="227"/>
-      <c r="AQ17" s="228"/>
-      <c r="AR17" s="228"/>
-      <c r="AS17" s="228"/>
-      <c r="AT17" s="228"/>
-      <c r="AU17" s="228"/>
-      <c r="AV17" s="228"/>
-      <c r="AW17" s="228"/>
-      <c r="AX17" s="228"/>
-      <c r="AY17" s="228"/>
-      <c r="AZ17" s="228"/>
-      <c r="BA17" s="228"/>
-      <c r="BB17" s="228"/>
-      <c r="BC17" s="228"/>
-      <c r="BD17" s="228"/>
-      <c r="BE17" s="228"/>
-      <c r="BF17" s="228"/>
+      <c r="AO17" s="159"/>
+      <c r="AP17" s="155"/>
+      <c r="AQ17" s="156"/>
+      <c r="AR17" s="156"/>
+      <c r="AS17" s="156"/>
+      <c r="AT17" s="156"/>
+      <c r="AU17" s="156"/>
+      <c r="AV17" s="156"/>
+      <c r="AW17" s="156"/>
+      <c r="AX17" s="156"/>
+      <c r="AY17" s="156"/>
+      <c r="AZ17" s="156"/>
+      <c r="BA17" s="156"/>
+      <c r="BB17" s="156"/>
+      <c r="BC17" s="156"/>
+      <c r="BD17" s="156"/>
+      <c r="BE17" s="156"/>
+      <c r="BF17" s="156"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -14897,27 +14882,27 @@
       <c r="K18" s="111"/>
       <c r="L18" s="111"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="164" t="s">
+      <c r="N18" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="173"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="228"/>
-      <c r="R18" s="228"/>
-      <c r="S18" s="228"/>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="228"/>
-      <c r="W18" s="228"/>
-      <c r="X18" s="228"/>
-      <c r="Y18" s="228"/>
-      <c r="Z18" s="228"/>
-      <c r="AA18" s="228"/>
-      <c r="AB18" s="228"/>
-      <c r="AC18" s="228"/>
-      <c r="AD18" s="228"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="229"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="157"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -14929,27 +14914,27 @@
       <c r="AK18" s="111"/>
       <c r="AL18" s="111"/>
       <c r="AM18" s="110"/>
-      <c r="AN18" s="164" t="s">
+      <c r="AN18" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="173"/>
-      <c r="AP18" s="227"/>
-      <c r="AQ18" s="228"/>
-      <c r="AR18" s="228"/>
-      <c r="AS18" s="228"/>
-      <c r="AT18" s="228"/>
-      <c r="AU18" s="228"/>
-      <c r="AV18" s="228"/>
-      <c r="AW18" s="228"/>
-      <c r="AX18" s="228"/>
-      <c r="AY18" s="228"/>
-      <c r="AZ18" s="228"/>
-      <c r="BA18" s="228"/>
-      <c r="BB18" s="228"/>
-      <c r="BC18" s="228"/>
-      <c r="BD18" s="228"/>
-      <c r="BE18" s="228"/>
-      <c r="BF18" s="228"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="155"/>
+      <c r="AQ18" s="156"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="156"/>
+      <c r="AT18" s="156"/>
+      <c r="AU18" s="156"/>
+      <c r="AV18" s="156"/>
+      <c r="AW18" s="156"/>
+      <c r="AX18" s="156"/>
+      <c r="AY18" s="156"/>
+      <c r="AZ18" s="156"/>
+      <c r="BA18" s="156"/>
+      <c r="BB18" s="156"/>
+      <c r="BC18" s="156"/>
+      <c r="BD18" s="156"/>
+      <c r="BE18" s="156"/>
+      <c r="BF18" s="156"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -15175,23 +15160,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="166" t="s">
+      <c r="T22" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="167"/>
-      <c r="V22" s="168" t="s">
+      <c r="U22" s="161"/>
+      <c r="V22" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="169"/>
-      <c r="X22" s="227"/>
-      <c r="Y22" s="228"/>
-      <c r="Z22" s="228"/>
-      <c r="AA22" s="228"/>
-      <c r="AB22" s="228"/>
-      <c r="AC22" s="228"/>
-      <c r="AD22" s="228"/>
-      <c r="AE22" s="228"/>
-      <c r="AF22" s="229"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="157"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -15209,23 +15194,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="166" t="s">
+      <c r="AT22" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="167"/>
-      <c r="AV22" s="168" t="s">
+      <c r="AU22" s="161"/>
+      <c r="AV22" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="169"/>
-      <c r="AX22" s="227"/>
-      <c r="AY22" s="228"/>
-      <c r="AZ22" s="228"/>
-      <c r="BA22" s="228"/>
-      <c r="BB22" s="228"/>
-      <c r="BC22" s="228"/>
-      <c r="BD22" s="228"/>
-      <c r="BE22" s="228"/>
-      <c r="BF22" s="228"/>
+      <c r="AW22" s="159"/>
+      <c r="AX22" s="155"/>
+      <c r="AY22" s="156"/>
+      <c r="AZ22" s="156"/>
+      <c r="BA22" s="156"/>
+      <c r="BB22" s="156"/>
+      <c r="BC22" s="156"/>
+      <c r="BD22" s="156"/>
+      <c r="BE22" s="156"/>
+      <c r="BF22" s="156"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -15258,21 +15243,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="166" t="s">
+      <c r="V23" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="167"/>
-      <c r="X23" s="168" t="s">
+      <c r="W23" s="161"/>
+      <c r="X23" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="228"/>
-      <c r="AB23" s="228"/>
-      <c r="AC23" s="228"/>
-      <c r="AD23" s="228"/>
-      <c r="AE23" s="228"/>
-      <c r="AF23" s="229"/>
+      <c r="Y23" s="159"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="157"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -15292,21 +15277,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="166" t="s">
+      <c r="AV23" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="167"/>
-      <c r="AX23" s="168" t="s">
+      <c r="AW23" s="161"/>
+      <c r="AX23" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="169"/>
-      <c r="AZ23" s="227"/>
-      <c r="BA23" s="228"/>
-      <c r="BB23" s="228"/>
-      <c r="BC23" s="228"/>
-      <c r="BD23" s="228"/>
-      <c r="BE23" s="228"/>
-      <c r="BF23" s="228"/>
+      <c r="AY23" s="159"/>
+      <c r="AZ23" s="155"/>
+      <c r="BA23" s="156"/>
+      <c r="BB23" s="156"/>
+      <c r="BC23" s="156"/>
+      <c r="BD23" s="156"/>
+      <c r="BE23" s="156"/>
+      <c r="BF23" s="156"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -15341,19 +15326,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="166" t="s">
+      <c r="X24" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="167"/>
-      <c r="Z24" s="168" t="s">
+      <c r="Y24" s="161"/>
+      <c r="Z24" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="169"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="228"/>
-      <c r="AD24" s="228"/>
-      <c r="AE24" s="228"/>
-      <c r="AF24" s="229"/>
+      <c r="AA24" s="159"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="157"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -15375,19 +15360,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="166" t="s">
+      <c r="AX24" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="167"/>
-      <c r="AZ24" s="168" t="s">
+      <c r="AY24" s="161"/>
+      <c r="AZ24" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="169"/>
-      <c r="BB24" s="227"/>
-      <c r="BC24" s="228"/>
-      <c r="BD24" s="228"/>
-      <c r="BE24" s="228"/>
-      <c r="BF24" s="228"/>
+      <c r="BA24" s="159"/>
+      <c r="BB24" s="155"/>
+      <c r="BC24" s="156"/>
+      <c r="BD24" s="156"/>
+      <c r="BE24" s="156"/>
+      <c r="BF24" s="156"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -15424,17 +15409,17 @@
       <c r="W25" s="111"/>
       <c r="X25" s="111"/>
       <c r="Y25" s="110"/>
-      <c r="Z25" s="164" t="s">
+      <c r="Z25" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="168" t="s">
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="169"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="228"/>
-      <c r="AF25" s="229"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="157"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -15458,17 +15443,17 @@
       <c r="AW25" s="111"/>
       <c r="AX25" s="111"/>
       <c r="AY25" s="110"/>
-      <c r="AZ25" s="164" t="s">
+      <c r="AZ25" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="173"/>
-      <c r="BB25" s="168" t="s">
+      <c r="BA25" s="163"/>
+      <c r="BB25" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="169"/>
-      <c r="BD25" s="227"/>
-      <c r="BE25" s="228"/>
-      <c r="BF25" s="228"/>
+      <c r="BC25" s="159"/>
+      <c r="BD25" s="155"/>
+      <c r="BE25" s="156"/>
+      <c r="BF25" s="156"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -15726,29 +15711,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="170" t="s">
+      <c r="E30" s="205" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="171"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="170" t="s">
+      <c r="H30" s="205" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="171"/>
-      <c r="J30" s="170" t="s">
+      <c r="I30" s="206"/>
+      <c r="J30" s="205" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="171"/>
-      <c r="L30" s="170" t="s">
+      <c r="K30" s="206"/>
+      <c r="L30" s="205" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="171"/>
-      <c r="N30" s="170" t="s">
+      <c r="M30" s="206"/>
+      <c r="N30" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="171"/>
+      <c r="O30" s="206"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -15757,50 +15742,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="170" t="s">
+      <c r="T30" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="171"/>
-      <c r="V30" s="170" t="s">
+      <c r="U30" s="206"/>
+      <c r="V30" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="171"/>
-      <c r="X30" s="170" t="s">
+      <c r="W30" s="206"/>
+      <c r="X30" s="205" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="170" t="s">
+      <c r="Y30" s="206"/>
+      <c r="Z30" s="205" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="174" t="s">
+      <c r="AA30" s="206"/>
+      <c r="AB30" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="175"/>
-      <c r="AD30" s="176"/>
-      <c r="AE30" s="170" t="s">
+      <c r="AC30" s="180"/>
+      <c r="AD30" s="181"/>
+      <c r="AE30" s="205" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="171"/>
+      <c r="AF30" s="206"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="170" t="s">
+      <c r="AH30" s="205" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="171"/>
-      <c r="AJ30" s="170" t="s">
+      <c r="AI30" s="206"/>
+      <c r="AJ30" s="205" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="171"/>
-      <c r="AL30" s="170" t="s">
+      <c r="AK30" s="206"/>
+      <c r="AL30" s="205" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="171"/>
-      <c r="AN30" s="170" t="s">
+      <c r="AM30" s="206"/>
+      <c r="AN30" s="205" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="171"/>
+      <c r="AO30" s="206"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -15809,27 +15794,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="170" t="s">
+      <c r="AT30" s="205" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="171"/>
-      <c r="AV30" s="170" t="s">
+      <c r="AU30" s="206"/>
+      <c r="AV30" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="171"/>
-      <c r="AX30" s="170" t="s">
+      <c r="AW30" s="206"/>
+      <c r="AX30" s="205" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="171"/>
-      <c r="AZ30" s="170" t="s">
+      <c r="AY30" s="206"/>
+      <c r="AZ30" s="205" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="171"/>
-      <c r="BB30" s="174" t="s">
+      <c r="BA30" s="206"/>
+      <c r="BB30" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="175"/>
-      <c r="BD30" s="176"/>
+      <c r="BC30" s="180"/>
+      <c r="BD30" s="181"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -15841,10 +15826,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="172" t="s">
+      <c r="E31" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="172"/>
+      <c r="F31" s="182"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15871,10 +15856,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="172" t="s">
+      <c r="AE31" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="172"/>
+      <c r="AF31" s="182"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15984,75 +15969,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="200" t="s">
+      <c r="H33" s="202" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="201"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="201"/>
-      <c r="O33" s="201"/>
-      <c r="P33" s="201"/>
-      <c r="Q33" s="201"/>
-      <c r="R33" s="201"/>
-      <c r="S33" s="202"/>
-      <c r="T33" s="170" t="s">
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="171"/>
-      <c r="V33" s="174" t="s">
+      <c r="U33" s="206"/>
+      <c r="V33" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="176"/>
-      <c r="X33" s="200" t="s">
+      <c r="W33" s="181"/>
+      <c r="X33" s="202" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="201"/>
-      <c r="Z33" s="201"/>
-      <c r="AA33" s="201"/>
-      <c r="AB33" s="201"/>
-      <c r="AC33" s="201"/>
-      <c r="AD33" s="201"/>
-      <c r="AE33" s="202"/>
+      <c r="Y33" s="203"/>
+      <c r="Z33" s="203"/>
+      <c r="AA33" s="203"/>
+      <c r="AB33" s="203"/>
+      <c r="AC33" s="203"/>
+      <c r="AD33" s="203"/>
+      <c r="AE33" s="204"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="200" t="s">
+      <c r="AH33" s="202" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="201"/>
-      <c r="AJ33" s="201"/>
-      <c r="AK33" s="201"/>
-      <c r="AL33" s="201"/>
-      <c r="AM33" s="201"/>
-      <c r="AN33" s="201"/>
-      <c r="AO33" s="201"/>
-      <c r="AP33" s="201"/>
-      <c r="AQ33" s="201"/>
-      <c r="AR33" s="201"/>
-      <c r="AS33" s="202"/>
-      <c r="AT33" s="170" t="s">
+      <c r="AI33" s="203"/>
+      <c r="AJ33" s="203"/>
+      <c r="AK33" s="203"/>
+      <c r="AL33" s="203"/>
+      <c r="AM33" s="203"/>
+      <c r="AN33" s="203"/>
+      <c r="AO33" s="203"/>
+      <c r="AP33" s="203"/>
+      <c r="AQ33" s="203"/>
+      <c r="AR33" s="203"/>
+      <c r="AS33" s="204"/>
+      <c r="AT33" s="205" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="171"/>
-      <c r="AV33" s="174" t="s">
+      <c r="AU33" s="206"/>
+      <c r="AV33" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="176"/>
-      <c r="AX33" s="200" t="s">
+      <c r="AW33" s="181"/>
+      <c r="AX33" s="202" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="201"/>
-      <c r="AZ33" s="201"/>
-      <c r="BA33" s="201"/>
-      <c r="BB33" s="201"/>
-      <c r="BC33" s="201"/>
-      <c r="BD33" s="202"/>
+      <c r="AY33" s="203"/>
+      <c r="AZ33" s="203"/>
+      <c r="BA33" s="203"/>
+      <c r="BB33" s="203"/>
+      <c r="BC33" s="203"/>
+      <c r="BD33" s="204"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -16064,10 +16049,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="172" t="s">
+      <c r="E34" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="172"/>
+      <c r="F34" s="182"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -16083,10 +16068,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="172" t="s">
+      <c r="T34" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="172"/>
+      <c r="U34" s="182"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -16115,10 +16100,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="172" t="s">
+      <c r="AT34" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="172"/>
+      <c r="AU34" s="182"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -16389,33 +16374,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="203" t="s">
+      <c r="E39" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="204"/>
-      <c r="G39" s="205" t="s">
+      <c r="F39" s="198"/>
+      <c r="G39" s="200" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="206"/>
+      <c r="H39" s="201"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="J39" s="164" t="s">
+      <c r="J39" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="173"/>
-      <c r="L39" s="164" t="s">
+      <c r="K39" s="163"/>
+      <c r="L39" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="173"/>
-      <c r="N39" s="164" t="s">
+      <c r="M39" s="163"/>
+      <c r="N39" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="173"/>
-      <c r="P39" s="164" t="s">
+      <c r="O39" s="163"/>
+      <c r="P39" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="173"/>
+      <c r="Q39" s="163"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -16424,50 +16409,50 @@
         <v>239</v>
       </c>
       <c r="U39" s="103"/>
-      <c r="V39" s="164" t="s">
+      <c r="V39" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="173"/>
-      <c r="X39" s="164" t="s">
+      <c r="W39" s="163"/>
+      <c r="X39" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="173"/>
-      <c r="Z39" s="164" t="s">
+      <c r="Y39" s="163"/>
+      <c r="Z39" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="173"/>
-      <c r="AB39" s="164" t="s">
+      <c r="AA39" s="163"/>
+      <c r="AB39" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="173"/>
-      <c r="AD39" s="168" t="s">
+      <c r="AC39" s="163"/>
+      <c r="AD39" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="208"/>
-      <c r="AF39" s="169"/>
-      <c r="AG39" s="164" t="s">
+      <c r="AE39" s="199"/>
+      <c r="AF39" s="159"/>
+      <c r="AG39" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="173"/>
+      <c r="AH39" s="163"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="AJ39" s="164" t="s">
+      <c r="AJ39" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="173"/>
-      <c r="AL39" s="164" t="s">
+      <c r="AK39" s="163"/>
+      <c r="AL39" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="173"/>
-      <c r="AN39" s="164" t="s">
+      <c r="AM39" s="163"/>
+      <c r="AN39" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="173"/>
-      <c r="AP39" s="164" t="s">
+      <c r="AO39" s="163"/>
+      <c r="AP39" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="173"/>
+      <c r="AQ39" s="163"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -16496,14 +16481,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="207" t="s">
+      <c r="E40" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207" t="s">
+      <c r="F40" s="175"/>
+      <c r="G40" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="207"/>
+      <c r="H40" s="175"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -16530,10 +16515,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="207" t="s">
+      <c r="AG40" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="207"/>
+      <c r="AH40" s="175"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -16569,27 +16554,27 @@
         <v>327</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="164" t="s">
+      <c r="E41" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="173"/>
+      <c r="F41" s="163"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="164" t="s">
+      <c r="H41" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="173"/>
-      <c r="J41" s="164" t="s">
+      <c r="I41" s="163"/>
+      <c r="J41" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="173"/>
-      <c r="L41" s="203"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="205" t="s">
+      <c r="K41" s="163"/>
+      <c r="L41" s="197"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="200" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="206"/>
+      <c r="O41" s="201"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -16598,50 +16583,50 @@
         <v>239</v>
       </c>
       <c r="S41" s="103"/>
-      <c r="T41" s="164" t="s">
+      <c r="T41" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="173"/>
-      <c r="V41" s="164" t="s">
+      <c r="U41" s="163"/>
+      <c r="V41" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="173"/>
-      <c r="X41" s="164" t="s">
+      <c r="W41" s="163"/>
+      <c r="X41" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="173"/>
-      <c r="Z41" s="164" t="s">
+      <c r="Y41" s="163"/>
+      <c r="Z41" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="173"/>
-      <c r="AB41" s="168" t="s">
+      <c r="AA41" s="163"/>
+      <c r="AB41" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="208"/>
-      <c r="AD41" s="169"/>
-      <c r="AE41" s="164" t="s">
+      <c r="AC41" s="199"/>
+      <c r="AD41" s="159"/>
+      <c r="AE41" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="173"/>
+      <c r="AF41" s="163"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="AH41" s="164" t="s">
+      <c r="AH41" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="173"/>
-      <c r="AJ41" s="164" t="s">
+      <c r="AI41" s="163"/>
+      <c r="AJ41" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="173"/>
-      <c r="AL41" s="164" t="s">
+      <c r="AK41" s="163"/>
+      <c r="AL41" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="173"/>
-      <c r="AN41" s="164" t="s">
+      <c r="AM41" s="163"/>
+      <c r="AN41" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="173"/>
+      <c r="AO41" s="163"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -16650,27 +16635,27 @@
         <v>239</v>
       </c>
       <c r="AS41" s="103"/>
-      <c r="AT41" s="164" t="s">
+      <c r="AT41" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="173"/>
-      <c r="AV41" s="164" t="s">
+      <c r="AU41" s="163"/>
+      <c r="AV41" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="173"/>
-      <c r="AX41" s="164" t="s">
+      <c r="AW41" s="163"/>
+      <c r="AX41" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="173"/>
-      <c r="AZ41" s="164" t="s">
+      <c r="AY41" s="163"/>
+      <c r="AZ41" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="173"/>
-      <c r="BB41" s="168" t="s">
+      <c r="BA41" s="163"/>
+      <c r="BB41" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="208"/>
-      <c r="BD41" s="169"/>
+      <c r="BC41" s="199"/>
+      <c r="BD41" s="159"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -16682,10 +16667,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="207" t="s">
+      <c r="E42" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="207"/>
+      <c r="F42" s="175"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16712,10 +16697,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="207" t="s">
+      <c r="AE42" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="207"/>
+      <c r="AF42" s="175"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16825,75 +16810,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="214" t="s">
+      <c r="H44" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="215"/>
-      <c r="J44" s="215"/>
-      <c r="K44" s="215"/>
-      <c r="L44" s="215"/>
-      <c r="M44" s="215"/>
-      <c r="N44" s="215"/>
-      <c r="O44" s="215"/>
-      <c r="P44" s="215"/>
-      <c r="Q44" s="215"/>
-      <c r="R44" s="215"/>
-      <c r="S44" s="216"/>
-      <c r="T44" s="203" t="s">
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="195"/>
+      <c r="P44" s="195"/>
+      <c r="Q44" s="195"/>
+      <c r="R44" s="195"/>
+      <c r="S44" s="196"/>
+      <c r="T44" s="197" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="204"/>
-      <c r="V44" s="168" t="s">
+      <c r="U44" s="198"/>
+      <c r="V44" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="169"/>
-      <c r="X44" s="214" t="s">
+      <c r="W44" s="159"/>
+      <c r="X44" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="215"/>
-      <c r="Z44" s="215"/>
-      <c r="AA44" s="215"/>
-      <c r="AB44" s="215"/>
-      <c r="AC44" s="215"/>
-      <c r="AD44" s="215"/>
-      <c r="AE44" s="216"/>
+      <c r="Y44" s="195"/>
+      <c r="Z44" s="195"/>
+      <c r="AA44" s="195"/>
+      <c r="AB44" s="195"/>
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="195"/>
+      <c r="AE44" s="196"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="214" t="s">
+      <c r="AH44" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="215"/>
-      <c r="AJ44" s="215"/>
-      <c r="AK44" s="215"/>
-      <c r="AL44" s="215"/>
-      <c r="AM44" s="215"/>
-      <c r="AN44" s="215"/>
-      <c r="AO44" s="215"/>
-      <c r="AP44" s="215"/>
-      <c r="AQ44" s="215"/>
-      <c r="AR44" s="215"/>
-      <c r="AS44" s="216"/>
-      <c r="AT44" s="164" t="s">
+      <c r="AI44" s="195"/>
+      <c r="AJ44" s="195"/>
+      <c r="AK44" s="195"/>
+      <c r="AL44" s="195"/>
+      <c r="AM44" s="195"/>
+      <c r="AN44" s="195"/>
+      <c r="AO44" s="195"/>
+      <c r="AP44" s="195"/>
+      <c r="AQ44" s="195"/>
+      <c r="AR44" s="195"/>
+      <c r="AS44" s="196"/>
+      <c r="AT44" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="173"/>
-      <c r="AV44" s="168" t="s">
+      <c r="AU44" s="163"/>
+      <c r="AV44" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="169"/>
-      <c r="AX44" s="214" t="s">
+      <c r="AW44" s="159"/>
+      <c r="AX44" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="215"/>
-      <c r="AZ44" s="215"/>
-      <c r="BA44" s="215"/>
-      <c r="BB44" s="215"/>
-      <c r="BC44" s="215"/>
-      <c r="BD44" s="216"/>
+      <c r="AY44" s="195"/>
+      <c r="AZ44" s="195"/>
+      <c r="BA44" s="195"/>
+      <c r="BB44" s="195"/>
+      <c r="BC44" s="195"/>
+      <c r="BD44" s="196"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -16905,10 +16890,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="207" t="s">
+      <c r="E45" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="207"/>
+      <c r="F45" s="175"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -16924,10 +16909,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="207" t="s">
+      <c r="T45" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="207"/>
+      <c r="U45" s="175"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -16956,10 +16941,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="207" t="s">
+      <c r="AT45" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="207"/>
+      <c r="AU45" s="175"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -16988,70 +16973,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="214" t="s">
+      <c r="G46" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="215"/>
-      <c r="N46" s="215"/>
-      <c r="O46" s="215"/>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="215"/>
-      <c r="R46" s="215"/>
-      <c r="S46" s="215"/>
-      <c r="T46" s="215"/>
-      <c r="U46" s="215"/>
-      <c r="V46" s="215"/>
-      <c r="W46" s="215"/>
-      <c r="X46" s="215"/>
-      <c r="Y46" s="215"/>
-      <c r="Z46" s="215"/>
-      <c r="AA46" s="215"/>
-      <c r="AB46" s="215"/>
-      <c r="AC46" s="215"/>
-      <c r="AD46" s="215"/>
-      <c r="AE46" s="216"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="195"/>
+      <c r="O46" s="195"/>
+      <c r="P46" s="195"/>
+      <c r="Q46" s="195"/>
+      <c r="R46" s="195"/>
+      <c r="S46" s="195"/>
+      <c r="T46" s="195"/>
+      <c r="U46" s="195"/>
+      <c r="V46" s="195"/>
+      <c r="W46" s="195"/>
+      <c r="X46" s="195"/>
+      <c r="Y46" s="195"/>
+      <c r="Z46" s="195"/>
+      <c r="AA46" s="195"/>
+      <c r="AB46" s="195"/>
+      <c r="AC46" s="195"/>
+      <c r="AD46" s="195"/>
+      <c r="AE46" s="196"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="214" t="s">
+      <c r="AH46" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="215"/>
-      <c r="AJ46" s="215"/>
-      <c r="AK46" s="215"/>
-      <c r="AL46" s="215"/>
-      <c r="AM46" s="215"/>
-      <c r="AN46" s="215"/>
-      <c r="AO46" s="215"/>
-      <c r="AP46" s="215"/>
-      <c r="AQ46" s="215"/>
-      <c r="AR46" s="215"/>
-      <c r="AS46" s="216"/>
-      <c r="AT46" s="164" t="s">
+      <c r="AI46" s="195"/>
+      <c r="AJ46" s="195"/>
+      <c r="AK46" s="195"/>
+      <c r="AL46" s="195"/>
+      <c r="AM46" s="195"/>
+      <c r="AN46" s="195"/>
+      <c r="AO46" s="195"/>
+      <c r="AP46" s="195"/>
+      <c r="AQ46" s="195"/>
+      <c r="AR46" s="195"/>
+      <c r="AS46" s="196"/>
+      <c r="AT46" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="173"/>
-      <c r="AV46" s="168" t="s">
+      <c r="AU46" s="163"/>
+      <c r="AV46" s="158" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="169"/>
-      <c r="AX46" s="214" t="s">
+      <c r="AW46" s="159"/>
+      <c r="AX46" s="194" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="215"/>
-      <c r="AZ46" s="215"/>
-      <c r="BA46" s="215"/>
-      <c r="BB46" s="215"/>
-      <c r="BC46" s="215"/>
-      <c r="BD46" s="216"/>
+      <c r="AY46" s="195"/>
+      <c r="AZ46" s="195"/>
+      <c r="BA46" s="195"/>
+      <c r="BB46" s="195"/>
+      <c r="BC46" s="195"/>
+      <c r="BD46" s="196"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -17108,10 +17093,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="207" t="s">
+      <c r="AT47" s="175" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="207"/>
+      <c r="AU47" s="175"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -17502,20 +17487,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="161" t="s">
+      <c r="E54" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="161" t="s">
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="186"/>
+      <c r="L54" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="162"/>
-      <c r="N54" s="230"/>
+      <c r="M54" s="166"/>
+      <c r="N54" s="167"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -17636,20 +17621,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="168" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="223"/>
-      <c r="G56" s="223"/>
-      <c r="H56" s="223"/>
-      <c r="I56" s="223"/>
-      <c r="J56" s="223"/>
-      <c r="K56" s="222"/>
-      <c r="L56" s="221" t="s">
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="223"/>
-      <c r="N56" s="222"/>
+      <c r="M56" s="169"/>
+      <c r="N56" s="170"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -20121,68 +20106,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="161" t="s">
+      <c r="E95" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="162"/>
-      <c r="G95" s="162"/>
-      <c r="H95" s="162"/>
-      <c r="I95" s="162"/>
-      <c r="J95" s="162"/>
-      <c r="K95" s="163"/>
-      <c r="L95" s="161" t="s">
+      <c r="F95" s="166"/>
+      <c r="G95" s="166"/>
+      <c r="H95" s="166"/>
+      <c r="I95" s="166"/>
+      <c r="J95" s="166"/>
+      <c r="K95" s="186"/>
+      <c r="L95" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="162"/>
-      <c r="N95" s="163"/>
-      <c r="O95" s="197" t="s">
+      <c r="M95" s="166"/>
+      <c r="N95" s="186"/>
+      <c r="O95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="198"/>
-      <c r="Q95" s="198"/>
-      <c r="R95" s="198"/>
-      <c r="S95" s="198"/>
-      <c r="T95" s="199"/>
-      <c r="U95" s="197" t="s">
+      <c r="P95" s="177"/>
+      <c r="Q95" s="177"/>
+      <c r="R95" s="177"/>
+      <c r="S95" s="177"/>
+      <c r="T95" s="178"/>
+      <c r="U95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="198"/>
-      <c r="W95" s="198"/>
-      <c r="X95" s="198"/>
-      <c r="Y95" s="198"/>
-      <c r="Z95" s="198"/>
-      <c r="AA95" s="198"/>
-      <c r="AB95" s="199"/>
-      <c r="AC95" s="197" t="s">
+      <c r="V95" s="177"/>
+      <c r="W95" s="177"/>
+      <c r="X95" s="177"/>
+      <c r="Y95" s="177"/>
+      <c r="Z95" s="177"/>
+      <c r="AA95" s="177"/>
+      <c r="AB95" s="178"/>
+      <c r="AC95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="198"/>
-      <c r="AE95" s="198"/>
-      <c r="AF95" s="198"/>
-      <c r="AG95" s="198"/>
-      <c r="AH95" s="198"/>
-      <c r="AI95" s="198"/>
-      <c r="AJ95" s="199"/>
-      <c r="AK95" s="197" t="s">
+      <c r="AD95" s="177"/>
+      <c r="AE95" s="177"/>
+      <c r="AF95" s="177"/>
+      <c r="AG95" s="177"/>
+      <c r="AH95" s="177"/>
+      <c r="AI95" s="177"/>
+      <c r="AJ95" s="178"/>
+      <c r="AK95" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="198"/>
-      <c r="AM95" s="198"/>
-      <c r="AN95" s="198"/>
-      <c r="AO95" s="198"/>
-      <c r="AP95" s="198"/>
-      <c r="AQ95" s="198"/>
-      <c r="AR95" s="199"/>
-      <c r="AS95" s="194" t="s">
+      <c r="AL95" s="177"/>
+      <c r="AM95" s="177"/>
+      <c r="AN95" s="177"/>
+      <c r="AO95" s="177"/>
+      <c r="AP95" s="177"/>
+      <c r="AQ95" s="177"/>
+      <c r="AR95" s="178"/>
+      <c r="AS95" s="221" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="195"/>
-      <c r="AU95" s="195"/>
-      <c r="AV95" s="195"/>
-      <c r="AW95" s="195"/>
-      <c r="AX95" s="195"/>
-      <c r="AY95" s="195"/>
-      <c r="AZ95" s="196"/>
+      <c r="AT95" s="222"/>
+      <c r="AU95" s="222"/>
+      <c r="AV95" s="222"/>
+      <c r="AW95" s="222"/>
+      <c r="AX95" s="222"/>
+      <c r="AY95" s="222"/>
+      <c r="AZ95" s="223"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -20287,68 +20272,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="221" t="s">
+      <c r="E97" s="168" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="223"/>
-      <c r="G97" s="223"/>
-      <c r="H97" s="223"/>
-      <c r="I97" s="223"/>
-      <c r="J97" s="223"/>
-      <c r="K97" s="222"/>
-      <c r="L97" s="221" t="s">
+      <c r="F97" s="169"/>
+      <c r="G97" s="169"/>
+      <c r="H97" s="169"/>
+      <c r="I97" s="169"/>
+      <c r="J97" s="169"/>
+      <c r="K97" s="170"/>
+      <c r="L97" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="223"/>
-      <c r="N97" s="223"/>
-      <c r="O97" s="221" t="s">
+      <c r="M97" s="169"/>
+      <c r="N97" s="169"/>
+      <c r="O97" s="168" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="223"/>
-      <c r="Q97" s="223"/>
-      <c r="R97" s="223"/>
-      <c r="S97" s="223"/>
-      <c r="T97" s="222"/>
-      <c r="U97" s="221" t="s">
+      <c r="P97" s="169"/>
+      <c r="Q97" s="169"/>
+      <c r="R97" s="169"/>
+      <c r="S97" s="169"/>
+      <c r="T97" s="170"/>
+      <c r="U97" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="223"/>
-      <c r="W97" s="223"/>
-      <c r="X97" s="223"/>
-      <c r="Y97" s="223"/>
-      <c r="Z97" s="223"/>
-      <c r="AA97" s="223"/>
-      <c r="AB97" s="222"/>
-      <c r="AC97" s="221" t="s">
+      <c r="V97" s="169"/>
+      <c r="W97" s="169"/>
+      <c r="X97" s="169"/>
+      <c r="Y97" s="169"/>
+      <c r="Z97" s="169"/>
+      <c r="AA97" s="169"/>
+      <c r="AB97" s="170"/>
+      <c r="AC97" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="223"/>
-      <c r="AE97" s="223"/>
-      <c r="AF97" s="223"/>
-      <c r="AG97" s="223"/>
-      <c r="AH97" s="223"/>
-      <c r="AI97" s="223"/>
-      <c r="AJ97" s="222"/>
-      <c r="AK97" s="221" t="s">
+      <c r="AD97" s="169"/>
+      <c r="AE97" s="169"/>
+      <c r="AF97" s="169"/>
+      <c r="AG97" s="169"/>
+      <c r="AH97" s="169"/>
+      <c r="AI97" s="169"/>
+      <c r="AJ97" s="170"/>
+      <c r="AK97" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="223"/>
-      <c r="AM97" s="223"/>
-      <c r="AN97" s="223"/>
-      <c r="AO97" s="223"/>
-      <c r="AP97" s="223"/>
-      <c r="AQ97" s="223"/>
-      <c r="AR97" s="222"/>
-      <c r="AS97" s="223" t="s">
+      <c r="AL97" s="169"/>
+      <c r="AM97" s="169"/>
+      <c r="AN97" s="169"/>
+      <c r="AO97" s="169"/>
+      <c r="AP97" s="169"/>
+      <c r="AQ97" s="169"/>
+      <c r="AR97" s="170"/>
+      <c r="AS97" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="223"/>
-      <c r="AU97" s="223"/>
-      <c r="AV97" s="223"/>
-      <c r="AW97" s="223"/>
-      <c r="AX97" s="223"/>
-      <c r="AY97" s="223"/>
-      <c r="AZ97" s="222"/>
+      <c r="AT97" s="169"/>
+      <c r="AU97" s="169"/>
+      <c r="AV97" s="169"/>
+      <c r="AW97" s="169"/>
+      <c r="AX97" s="169"/>
+      <c r="AY97" s="169"/>
+      <c r="AZ97" s="170"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -20423,68 +20408,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="188" t="s">
+      <c r="E99" s="218" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="189"/>
-      <c r="G99" s="189"/>
-      <c r="H99" s="189"/>
-      <c r="I99" s="189"/>
-      <c r="J99" s="189"/>
-      <c r="K99" s="190"/>
-      <c r="L99" s="191" t="s">
+      <c r="F99" s="219"/>
+      <c r="G99" s="219"/>
+      <c r="H99" s="219"/>
+      <c r="I99" s="219"/>
+      <c r="J99" s="219"/>
+      <c r="K99" s="220"/>
+      <c r="L99" s="171" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="192"/>
-      <c r="N99" s="193"/>
-      <c r="O99" s="185" t="s">
+      <c r="M99" s="172"/>
+      <c r="N99" s="173"/>
+      <c r="O99" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="186"/>
-      <c r="Q99" s="186"/>
-      <c r="R99" s="186"/>
-      <c r="S99" s="186"/>
-      <c r="T99" s="187"/>
-      <c r="U99" s="185" t="s">
+      <c r="P99" s="216"/>
+      <c r="Q99" s="216"/>
+      <c r="R99" s="216"/>
+      <c r="S99" s="216"/>
+      <c r="T99" s="217"/>
+      <c r="U99" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="186"/>
-      <c r="W99" s="186"/>
-      <c r="X99" s="186"/>
-      <c r="Y99" s="186"/>
-      <c r="Z99" s="186"/>
-      <c r="AA99" s="186"/>
-      <c r="AB99" s="187"/>
-      <c r="AC99" s="185" t="s">
+      <c r="V99" s="216"/>
+      <c r="W99" s="216"/>
+      <c r="X99" s="216"/>
+      <c r="Y99" s="216"/>
+      <c r="Z99" s="216"/>
+      <c r="AA99" s="216"/>
+      <c r="AB99" s="217"/>
+      <c r="AC99" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="186"/>
-      <c r="AE99" s="186"/>
-      <c r="AF99" s="186"/>
-      <c r="AG99" s="186"/>
-      <c r="AH99" s="186"/>
-      <c r="AI99" s="186"/>
-      <c r="AJ99" s="187"/>
-      <c r="AK99" s="185" t="s">
+      <c r="AD99" s="216"/>
+      <c r="AE99" s="216"/>
+      <c r="AF99" s="216"/>
+      <c r="AG99" s="216"/>
+      <c r="AH99" s="216"/>
+      <c r="AI99" s="216"/>
+      <c r="AJ99" s="217"/>
+      <c r="AK99" s="215" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="186"/>
-      <c r="AM99" s="186"/>
-      <c r="AN99" s="186"/>
-      <c r="AO99" s="186"/>
-      <c r="AP99" s="186"/>
-      <c r="AQ99" s="186"/>
-      <c r="AR99" s="187"/>
-      <c r="AS99" s="185" t="s">
+      <c r="AL99" s="216"/>
+      <c r="AM99" s="216"/>
+      <c r="AN99" s="216"/>
+      <c r="AO99" s="216"/>
+      <c r="AP99" s="216"/>
+      <c r="AQ99" s="216"/>
+      <c r="AR99" s="217"/>
+      <c r="AS99" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="186"/>
-      <c r="AU99" s="186"/>
-      <c r="AV99" s="186"/>
-      <c r="AW99" s="186"/>
-      <c r="AX99" s="186"/>
-      <c r="AY99" s="186"/>
-      <c r="AZ99" s="187"/>
+      <c r="AT99" s="216"/>
+      <c r="AU99" s="216"/>
+      <c r="AV99" s="216"/>
+      <c r="AW99" s="216"/>
+      <c r="AX99" s="216"/>
+      <c r="AY99" s="216"/>
+      <c r="AZ99" s="217"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -20626,68 +20611,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="161" t="s">
+      <c r="E102" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="162"/>
-      <c r="G102" s="162"/>
-      <c r="H102" s="162"/>
-      <c r="I102" s="162"/>
-      <c r="J102" s="162"/>
-      <c r="K102" s="163"/>
-      <c r="L102" s="161" t="s">
+      <c r="F102" s="166"/>
+      <c r="G102" s="166"/>
+      <c r="H102" s="166"/>
+      <c r="I102" s="166"/>
+      <c r="J102" s="166"/>
+      <c r="K102" s="186"/>
+      <c r="L102" s="165" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="162"/>
-      <c r="N102" s="163"/>
-      <c r="O102" s="161" t="s">
+      <c r="M102" s="166"/>
+      <c r="N102" s="186"/>
+      <c r="O102" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="162"/>
-      <c r="Q102" s="162"/>
-      <c r="R102" s="163"/>
-      <c r="S102" s="161" t="s">
+      <c r="P102" s="166"/>
+      <c r="Q102" s="166"/>
+      <c r="R102" s="186"/>
+      <c r="S102" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="162"/>
-      <c r="U102" s="162"/>
-      <c r="V102" s="162"/>
-      <c r="W102" s="162"/>
-      <c r="X102" s="162"/>
-      <c r="Y102" s="162"/>
-      <c r="Z102" s="162"/>
-      <c r="AA102" s="162"/>
-      <c r="AB102" s="162"/>
-      <c r="AC102" s="162"/>
-      <c r="AD102" s="163"/>
-      <c r="AE102" s="161" t="s">
+      <c r="T102" s="166"/>
+      <c r="U102" s="166"/>
+      <c r="V102" s="166"/>
+      <c r="W102" s="166"/>
+      <c r="X102" s="166"/>
+      <c r="Y102" s="166"/>
+      <c r="Z102" s="166"/>
+      <c r="AA102" s="166"/>
+      <c r="AB102" s="166"/>
+      <c r="AC102" s="166"/>
+      <c r="AD102" s="186"/>
+      <c r="AE102" s="165" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="162"/>
-      <c r="AG102" s="162"/>
-      <c r="AH102" s="162"/>
-      <c r="AI102" s="162"/>
-      <c r="AJ102" s="162"/>
-      <c r="AK102" s="162"/>
-      <c r="AL102" s="162"/>
-      <c r="AM102" s="162"/>
-      <c r="AN102" s="162"/>
-      <c r="AO102" s="162"/>
-      <c r="AP102" s="163"/>
-      <c r="AQ102" s="161" t="s">
+      <c r="AF102" s="166"/>
+      <c r="AG102" s="166"/>
+      <c r="AH102" s="166"/>
+      <c r="AI102" s="166"/>
+      <c r="AJ102" s="166"/>
+      <c r="AK102" s="166"/>
+      <c r="AL102" s="166"/>
+      <c r="AM102" s="166"/>
+      <c r="AN102" s="166"/>
+      <c r="AO102" s="166"/>
+      <c r="AP102" s="186"/>
+      <c r="AQ102" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="163"/>
-      <c r="AS102" s="161" t="s">
+      <c r="AR102" s="186"/>
+      <c r="AS102" s="165" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="162"/>
-      <c r="AU102" s="162"/>
-      <c r="AV102" s="162"/>
-      <c r="AW102" s="162"/>
-      <c r="AX102" s="162"/>
-      <c r="AY102" s="162"/>
-      <c r="AZ102" s="163"/>
+      <c r="AT102" s="166"/>
+      <c r="AU102" s="166"/>
+      <c r="AV102" s="166"/>
+      <c r="AW102" s="166"/>
+      <c r="AX102" s="166"/>
+      <c r="AY102" s="166"/>
+      <c r="AZ102" s="186"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -20790,68 +20775,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="221" t="s">
+      <c r="E104" s="168" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="223"/>
-      <c r="G104" s="223"/>
-      <c r="H104" s="223"/>
-      <c r="I104" s="223"/>
-      <c r="J104" s="223"/>
-      <c r="K104" s="222"/>
-      <c r="L104" s="221" t="s">
+      <c r="F104" s="169"/>
+      <c r="G104" s="169"/>
+      <c r="H104" s="169"/>
+      <c r="I104" s="169"/>
+      <c r="J104" s="169"/>
+      <c r="K104" s="170"/>
+      <c r="L104" s="168" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="223"/>
-      <c r="N104" s="222"/>
-      <c r="O104" s="221" t="s">
+      <c r="M104" s="169"/>
+      <c r="N104" s="170"/>
+      <c r="O104" s="168" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="223"/>
-      <c r="Q104" s="223"/>
-      <c r="R104" s="222"/>
-      <c r="S104" s="221" t="s">
+      <c r="P104" s="169"/>
+      <c r="Q104" s="169"/>
+      <c r="R104" s="170"/>
+      <c r="S104" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="223"/>
-      <c r="U104" s="223"/>
-      <c r="V104" s="223"/>
-      <c r="W104" s="223"/>
-      <c r="X104" s="223"/>
-      <c r="Y104" s="223"/>
-      <c r="Z104" s="223"/>
-      <c r="AA104" s="223"/>
-      <c r="AB104" s="223"/>
-      <c r="AC104" s="223"/>
-      <c r="AD104" s="222"/>
-      <c r="AE104" s="221" t="s">
+      <c r="T104" s="169"/>
+      <c r="U104" s="169"/>
+      <c r="V104" s="169"/>
+      <c r="W104" s="169"/>
+      <c r="X104" s="169"/>
+      <c r="Y104" s="169"/>
+      <c r="Z104" s="169"/>
+      <c r="AA104" s="169"/>
+      <c r="AB104" s="169"/>
+      <c r="AC104" s="169"/>
+      <c r="AD104" s="170"/>
+      <c r="AE104" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="223"/>
-      <c r="AG104" s="223"/>
-      <c r="AH104" s="223"/>
-      <c r="AI104" s="223"/>
-      <c r="AJ104" s="223"/>
-      <c r="AK104" s="223"/>
-      <c r="AL104" s="223"/>
-      <c r="AM104" s="223"/>
-      <c r="AN104" s="223"/>
-      <c r="AO104" s="223"/>
-      <c r="AP104" s="222"/>
-      <c r="AQ104" s="221" t="s">
+      <c r="AF104" s="169"/>
+      <c r="AG104" s="169"/>
+      <c r="AH104" s="169"/>
+      <c r="AI104" s="169"/>
+      <c r="AJ104" s="169"/>
+      <c r="AK104" s="169"/>
+      <c r="AL104" s="169"/>
+      <c r="AM104" s="169"/>
+      <c r="AN104" s="169"/>
+      <c r="AO104" s="169"/>
+      <c r="AP104" s="170"/>
+      <c r="AQ104" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="222"/>
-      <c r="AS104" s="221" t="s">
+      <c r="AR104" s="170"/>
+      <c r="AS104" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="223"/>
-      <c r="AU104" s="223"/>
-      <c r="AV104" s="223"/>
-      <c r="AW104" s="223"/>
-      <c r="AX104" s="223"/>
-      <c r="AY104" s="223"/>
-      <c r="AZ104" s="222"/>
+      <c r="AT104" s="169"/>
+      <c r="AU104" s="169"/>
+      <c r="AV104" s="169"/>
+      <c r="AW104" s="169"/>
+      <c r="AX104" s="169"/>
+      <c r="AY104" s="169"/>
+      <c r="AZ104" s="170"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -20937,11 +20922,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="191" t="s">
+      <c r="L106" s="171" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="192"/>
-      <c r="N106" s="193"/>
+      <c r="M106" s="172"/>
+      <c r="N106" s="173"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -20980,16 +20965,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="157" t="s">
+      <c r="AS106" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="158"/>
-      <c r="AU106" s="158"/>
-      <c r="AV106" s="158"/>
-      <c r="AW106" s="158"/>
-      <c r="AX106" s="158"/>
-      <c r="AY106" s="158"/>
-      <c r="AZ106" s="159"/>
+      <c r="AT106" s="225"/>
+      <c r="AU106" s="225"/>
+      <c r="AV106" s="225"/>
+      <c r="AW106" s="225"/>
+      <c r="AX106" s="225"/>
+      <c r="AY106" s="225"/>
+      <c r="AZ106" s="226"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -21055,16 +21040,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="157" t="s">
+      <c r="AS107" s="224" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="158"/>
-      <c r="AU107" s="158"/>
-      <c r="AV107" s="158"/>
-      <c r="AW107" s="158"/>
-      <c r="AX107" s="158"/>
-      <c r="AY107" s="158"/>
-      <c r="AZ107" s="159"/>
+      <c r="AT107" s="225"/>
+      <c r="AU107" s="225"/>
+      <c r="AV107" s="225"/>
+      <c r="AW107" s="225"/>
+      <c r="AX107" s="225"/>
+      <c r="AY107" s="225"/>
+      <c r="AZ107" s="226"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -21132,16 +21117,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="157" t="s">
+      <c r="AS108" s="224" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="158"/>
-      <c r="AU108" s="158"/>
-      <c r="AV108" s="158"/>
-      <c r="AW108" s="158"/>
-      <c r="AX108" s="158"/>
-      <c r="AY108" s="158"/>
-      <c r="AZ108" s="159"/>
+      <c r="AT108" s="225"/>
+      <c r="AU108" s="225"/>
+      <c r="AV108" s="225"/>
+      <c r="AW108" s="225"/>
+      <c r="AX108" s="225"/>
+      <c r="AY108" s="225"/>
+      <c r="AZ108" s="226"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -21205,16 +21190,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="157" t="s">
+      <c r="AS109" s="224" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="158"/>
-      <c r="AU109" s="158"/>
-      <c r="AV109" s="158"/>
-      <c r="AW109" s="158"/>
-      <c r="AX109" s="158"/>
-      <c r="AY109" s="158"/>
-      <c r="AZ109" s="159"/>
+      <c r="AT109" s="225"/>
+      <c r="AU109" s="225"/>
+      <c r="AV109" s="225"/>
+      <c r="AW109" s="225"/>
+      <c r="AX109" s="225"/>
+      <c r="AY109" s="225"/>
+      <c r="AZ109" s="226"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -21370,12 +21355,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="182" t="s">
+      <c r="O112" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="183"/>
-      <c r="Q112" s="183"/>
-      <c r="R112" s="184"/>
+      <c r="P112" s="213"/>
+      <c r="Q112" s="213"/>
+      <c r="R112" s="214"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -21400,20 +21385,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="177" t="s">
+      <c r="AQ112" s="207" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="178"/>
-      <c r="AS112" s="179" t="s">
+      <c r="AR112" s="208"/>
+      <c r="AS112" s="209" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="180"/>
-      <c r="AU112" s="180"/>
-      <c r="AV112" s="180"/>
-      <c r="AW112" s="180"/>
-      <c r="AX112" s="180"/>
-      <c r="AY112" s="180"/>
-      <c r="AZ112" s="181"/>
+      <c r="AT112" s="210"/>
+      <c r="AU112" s="210"/>
+      <c r="AV112" s="210"/>
+      <c r="AW112" s="210"/>
+      <c r="AX112" s="210"/>
+      <c r="AY112" s="210"/>
+      <c r="AZ112" s="211"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -22614,20 +22599,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="177" t="s">
+      <c r="AQ130" s="207" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="178"/>
-      <c r="AS130" s="179" t="s">
+      <c r="AR130" s="208"/>
+      <c r="AS130" s="209" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="180"/>
-      <c r="AU130" s="180"/>
-      <c r="AV130" s="180"/>
-      <c r="AW130" s="180"/>
-      <c r="AX130" s="180"/>
-      <c r="AY130" s="180"/>
-      <c r="AZ130" s="181"/>
+      <c r="AT130" s="210"/>
+      <c r="AU130" s="210"/>
+      <c r="AV130" s="210"/>
+      <c r="AW130" s="210"/>
+      <c r="AX130" s="210"/>
+      <c r="AY130" s="210"/>
+      <c r="AZ130" s="211"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -22681,16 +22666,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="185" t="s">
+      <c r="AS131" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="186"/>
-      <c r="AU131" s="186"/>
-      <c r="AV131" s="186"/>
-      <c r="AW131" s="186"/>
-      <c r="AX131" s="186"/>
-      <c r="AY131" s="186"/>
-      <c r="AZ131" s="187"/>
+      <c r="AT131" s="216"/>
+      <c r="AU131" s="216"/>
+      <c r="AV131" s="216"/>
+      <c r="AW131" s="216"/>
+      <c r="AX131" s="216"/>
+      <c r="AY131" s="216"/>
+      <c r="AZ131" s="217"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -22803,20 +22788,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="177" t="s">
+      <c r="AQ133" s="207" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="178"/>
-      <c r="AS133" s="179" t="s">
+      <c r="AR133" s="208"/>
+      <c r="AS133" s="209" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="180"/>
-      <c r="AU133" s="180"/>
-      <c r="AV133" s="180"/>
-      <c r="AW133" s="180"/>
-      <c r="AX133" s="180"/>
-      <c r="AY133" s="180"/>
-      <c r="AZ133" s="181"/>
+      <c r="AT133" s="210"/>
+      <c r="AU133" s="210"/>
+      <c r="AV133" s="210"/>
+      <c r="AW133" s="210"/>
+      <c r="AX133" s="210"/>
+      <c r="AY133" s="210"/>
+      <c r="AZ133" s="211"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -25439,6 +25424,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AS109:AZ109"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="S102:AD102"/>
+    <mergeCell ref="AQ102:AR102"/>
+    <mergeCell ref="AS102:AZ102"/>
+    <mergeCell ref="AE102:AP102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AS106:AZ106"/>
+    <mergeCell ref="AS107:AZ107"/>
+    <mergeCell ref="AS108:AZ108"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AZ23:BF23"/>
     <mergeCell ref="BB24:BF24"/>
     <mergeCell ref="BD25:BF25"/>
@@ -25463,193 +25635,6 @@
     <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AV23:AW23"/>
     <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="AS109:AZ109"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="S102:AD102"/>
-    <mergeCell ref="AQ102:AR102"/>
-    <mergeCell ref="AS102:AZ102"/>
-    <mergeCell ref="AE102:AP102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AS106:AZ106"/>
-    <mergeCell ref="AS107:AZ107"/>
-    <mergeCell ref="AS108:AZ108"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25670,7 +25655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2D6B8E-7243-49A9-8304-65DDD3EA8828}">
   <dimension ref="B3:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -25686,19 +25671,19 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" t="s">
         <v>464</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>465</v>
-      </c>
-      <c r="D3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F3" t="s">
-        <v>468</v>
       </c>
       <c r="G3" t="s">
         <v>58</v>
@@ -25710,1995 +25695,1995 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3" t="s">
+        <v>487</v>
+      </c>
+      <c r="L3" s="136" t="s">
+        <v>563</v>
+      </c>
+      <c r="M3" s="138" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="136" t="s">
+        <v>558</v>
+      </c>
+      <c r="M4" s="138" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="136" t="s">
+        <v>559</v>
+      </c>
+      <c r="M5" s="138" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="136" t="s">
+        <v>560</v>
+      </c>
+      <c r="M6" s="138" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="136" t="s">
+        <v>561</v>
+      </c>
+      <c r="M7" s="138" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="136" t="s">
+        <v>562</v>
+      </c>
+      <c r="M8" s="138" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="137" t="s">
+        <v>550</v>
+      </c>
+      <c r="M9" s="138" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="137" t="s">
+        <v>550</v>
+      </c>
+      <c r="M10" s="138" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="136"/>
+      <c r="M11" s="138"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="150" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="151">
+        <v>1</v>
+      </c>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151" t="s">
+        <v>483</v>
+      </c>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" s="152"/>
+      <c r="L12" s="151" t="s">
+        <v>488</v>
+      </c>
+      <c r="M12" s="153"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140" t="s">
+        <v>485</v>
+      </c>
+      <c r="G13" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="143"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="139"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="143"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="143"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="139"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140" t="s">
+        <v>455</v>
+      </c>
+      <c r="F16" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="143"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="139"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="143"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140" t="s">
+        <v>476</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="143"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="143"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="139"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="143"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="135"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="150" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="151">
+        <v>2</v>
+      </c>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="K24" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="L24" s="151" t="s">
+        <v>547</v>
+      </c>
+      <c r="M24" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="143"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140" t="s">
+        <v>470</v>
+      </c>
+      <c r="F26" s="140" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="143"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27" s="140" t="s">
+        <v>479</v>
+      </c>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="140" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="143"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="140" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="143"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="143"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140" t="s">
+        <v>471</v>
+      </c>
+      <c r="F31" s="140" t="s">
+        <v>475</v>
+      </c>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="143"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140" t="s">
+        <v>472</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="143"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="F33" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="143"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="148"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="135"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="151">
+        <v>3</v>
+      </c>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151" t="s">
+        <v>483</v>
+      </c>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="K36" s="152"/>
+      <c r="L36" s="151" t="s">
+        <v>548</v>
+      </c>
+      <c r="M36" s="153"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="139"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140" t="s">
         <v>469</v>
       </c>
-      <c r="K3" t="s">
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="143"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140" t="s">
+        <v>457</v>
+      </c>
+      <c r="F38" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="143"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140" t="s">
+        <v>458</v>
+      </c>
+      <c r="F39" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G39" s="140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="143"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="139"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="F40" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="143"/>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="135"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="150" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="151">
+        <v>4</v>
+      </c>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151" t="s">
+        <v>545</v>
+      </c>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="K43" s="152"/>
+      <c r="L43" s="151" t="s">
+        <v>549</v>
+      </c>
+      <c r="M43" s="153"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="139"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="143"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="139"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140" t="s">
         <v>490</v>
       </c>
-      <c r="L3" s="138" t="s">
-        <v>566</v>
-      </c>
-      <c r="M3" s="140" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L4" s="138" t="s">
-        <v>561</v>
-      </c>
-      <c r="M4" s="140" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L5" s="138" t="s">
-        <v>562</v>
-      </c>
-      <c r="M5" s="140" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L6" s="138" t="s">
-        <v>563</v>
-      </c>
-      <c r="M6" s="140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="138" t="s">
-        <v>564</v>
-      </c>
-      <c r="M7" s="140" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="138" t="s">
+      <c r="F45" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="143"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140" t="s">
+        <v>491</v>
+      </c>
+      <c r="F46" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="143"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140" t="s">
+        <v>492</v>
+      </c>
+      <c r="F47" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="143"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="139"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140" t="s">
+        <v>493</v>
+      </c>
+      <c r="F48" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="143"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140" t="s">
+        <v>494</v>
+      </c>
+      <c r="F49" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="141"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="143"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140" t="s">
+        <v>495</v>
+      </c>
+      <c r="F50" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="142"/>
+      <c r="M50" s="143"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="139"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140" t="s">
+        <v>496</v>
+      </c>
+      <c r="F51" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="143"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="139"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140" t="s">
+        <v>497</v>
+      </c>
+      <c r="F52" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="143"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="139"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140" t="s">
+        <v>498</v>
+      </c>
+      <c r="F53" s="140" t="s">
+        <v>546</v>
+      </c>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="141"/>
+      <c r="K53" s="141"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="143"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140" t="s">
+        <v>480</v>
+      </c>
+      <c r="F54" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="141"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="143"/>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="147"/>
+      <c r="M55" s="148"/>
+    </row>
+    <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="135"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="150" t="s">
+        <v>499</v>
+      </c>
+      <c r="C57" s="151">
+        <v>5</v>
+      </c>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151" t="s">
+        <v>544</v>
+      </c>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="152" t="s">
+        <v>394</v>
+      </c>
+      <c r="L57" s="154" t="s">
+        <v>550</v>
+      </c>
+      <c r="M57" s="153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="139"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140" t="s">
+        <v>500</v>
+      </c>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="143"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="139"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="F59" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="143"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140" t="s">
+        <v>504</v>
+      </c>
+      <c r="F60" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="143"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140" t="s">
+        <v>506</v>
+      </c>
+      <c r="F61" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="142"/>
+      <c r="M61" s="143"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="F62" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="142"/>
+      <c r="M62" s="143"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="139"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="142"/>
+      <c r="M63" s="143"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140" t="s">
+        <v>501</v>
+      </c>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="142"/>
+      <c r="M64" s="143"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="139"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="F65" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="142"/>
+      <c r="M65" s="143"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="139"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140" t="s">
+        <v>504</v>
+      </c>
+      <c r="F66" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="142"/>
+      <c r="M66" s="143"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="139"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140" t="s">
+        <v>506</v>
+      </c>
+      <c r="F67" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="141"/>
+      <c r="K67" s="141"/>
+      <c r="L67" s="142"/>
+      <c r="M67" s="143"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="139"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="F68" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="142"/>
+      <c r="M68" s="143"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="139"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="140"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="143"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="139"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140" t="s">
+        <v>502</v>
+      </c>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="142"/>
+      <c r="M70" s="143"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="139"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140" t="s">
+        <v>539</v>
+      </c>
+      <c r="F71" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" s="140"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="140"/>
+      <c r="L71" s="142"/>
+      <c r="M71" s="143"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="139"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140" t="s">
+        <v>540</v>
+      </c>
+      <c r="F72" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="142"/>
+      <c r="M72" s="143"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="139"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140" t="s">
+        <v>541</v>
+      </c>
+      <c r="F73" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="142"/>
+      <c r="M73" s="143"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="139"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="143"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="139"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140" t="s">
         <v>565</v>
       </c>
-      <c r="M8" s="140" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L9" s="139" t="s">
-        <v>553</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L10" s="139" t="s">
-        <v>553</v>
-      </c>
-      <c r="M10" s="140" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="138"/>
-      <c r="M11" s="140"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="152" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" s="153">
-        <v>1</v>
-      </c>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153" t="s">
-        <v>486</v>
-      </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154" t="s">
+      <c r="F75" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="142"/>
+      <c r="M75" s="143"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="139"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140" t="s">
+        <v>542</v>
+      </c>
+      <c r="F76" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="142"/>
+      <c r="M76" s="143"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="139"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="142"/>
+      <c r="M77" s="143"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="139"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140" t="s">
+        <v>542</v>
+      </c>
+      <c r="F78" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" s="140"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="142"/>
+      <c r="M78" s="143"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="139"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="142"/>
+      <c r="M79" s="143"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="139"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140" t="s">
+        <v>508</v>
+      </c>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="142"/>
+      <c r="M80" s="143"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="139"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="F81" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="142"/>
+      <c r="M81" s="143"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="139"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140" t="s">
+        <v>504</v>
+      </c>
+      <c r="F82" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="142"/>
+      <c r="M82" s="143"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="139"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140" t="s">
+        <v>506</v>
+      </c>
+      <c r="F83" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="141"/>
+      <c r="K83" s="141"/>
+      <c r="L83" s="142"/>
+      <c r="M83" s="143"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="139"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="F84" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="140"/>
+      <c r="K84" s="140"/>
+      <c r="L84" s="142"/>
+      <c r="M84" s="143"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="139"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="142"/>
+      <c r="M85" s="143"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="139"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140" t="s">
+        <v>509</v>
+      </c>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="140"/>
+      <c r="K86" s="140"/>
+      <c r="L86" s="142"/>
+      <c r="M86" s="143"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="139"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" s="140" t="s">
+        <v>477</v>
+      </c>
+      <c r="G87" s="140"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="140"/>
+      <c r="J87" s="140"/>
+      <c r="K87" s="140"/>
+      <c r="L87" s="142"/>
+      <c r="M87" s="143"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="139"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140" t="s">
+        <v>504</v>
+      </c>
+      <c r="F88" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
+      <c r="J88" s="140"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="142"/>
+      <c r="M88" s="143"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="139"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140" t="s">
+        <v>506</v>
+      </c>
+      <c r="F89" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G89" s="140"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="140"/>
+      <c r="J89" s="141"/>
+      <c r="K89" s="141"/>
+      <c r="L89" s="142"/>
+      <c r="M89" s="143"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="139"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="F90" s="140" t="s">
+        <v>481</v>
+      </c>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="140"/>
+      <c r="L90" s="142"/>
+      <c r="M90" s="143"/>
+    </row>
+    <row r="91" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="144"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="145"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="145"/>
+      <c r="G91" s="145"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="145"/>
+      <c r="J91" s="145"/>
+      <c r="K91" s="145"/>
+      <c r="L91" s="147"/>
+      <c r="M91" s="148"/>
+    </row>
+    <row r="92" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L92" s="136"/>
+      <c r="M92" s="135"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="150" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" s="151">
+        <v>6</v>
+      </c>
+      <c r="D93" s="151"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="151" t="s">
+        <v>538</v>
+      </c>
+      <c r="G93" s="151"/>
+      <c r="H93" s="151"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="151"/>
+      <c r="K93" s="152" t="s">
         <v>394</v>
       </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="153" t="s">
-        <v>491</v>
-      </c>
-      <c r="M12" s="155"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142" t="s">
-        <v>462</v>
-      </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142" t="s">
-        <v>488</v>
-      </c>
-      <c r="G13" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="141"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142" t="s">
-        <v>456</v>
-      </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142" t="s">
-        <v>479</v>
-      </c>
-      <c r="G14" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142" t="s">
-        <v>457</v>
-      </c>
-      <c r="F15" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142" t="s">
-        <v>458</v>
-      </c>
-      <c r="F16" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="145"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142" t="s">
+      <c r="L93" s="154" t="s">
+        <v>550</v>
+      </c>
+      <c r="M93" s="153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="139"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140" t="s">
+        <v>511</v>
+      </c>
+      <c r="E94" s="140"/>
+      <c r="F94" s="140" t="s">
         <v>483</v>
       </c>
-      <c r="F17" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142" t="s">
-        <v>459</v>
-      </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142" t="s">
-        <v>479</v>
-      </c>
-      <c r="G18" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142" t="s">
-        <v>457</v>
-      </c>
-      <c r="F19" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142" t="s">
-        <v>458</v>
-      </c>
-      <c r="F20" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142" t="s">
-        <v>483</v>
-      </c>
-      <c r="F21" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="145"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="150"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="137"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="152" t="s">
-        <v>470</v>
-      </c>
-      <c r="C24" s="153">
-        <v>2</v>
-      </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153" t="s">
-        <v>487</v>
-      </c>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="K24" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="L24" s="153" t="s">
-        <v>550</v>
-      </c>
-      <c r="M24" s="155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142" t="s">
-        <v>471</v>
-      </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142" t="s">
-        <v>473</v>
-      </c>
-      <c r="F26" s="142" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142" t="s">
-        <v>462</v>
-      </c>
-      <c r="F27" s="142" t="s">
+      <c r="G94" s="140"/>
+      <c r="H94" s="140"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="140"/>
+      <c r="K94" s="140"/>
+      <c r="L94" s="142"/>
+      <c r="M94" s="143"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="139"/>
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140" t="s">
+        <v>512</v>
+      </c>
+      <c r="F95" s="140" t="s">
         <v>482</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="142" t="s">
+      <c r="G95" s="140"/>
+      <c r="H95" s="140"/>
+      <c r="I95" s="140"/>
+      <c r="J95" s="140"/>
+      <c r="K95" s="140"/>
+      <c r="L95" s="142"/>
+      <c r="M95" s="143"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="139"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140" t="s">
+        <v>513</v>
+      </c>
+      <c r="F96" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G96" s="140"/>
+      <c r="H96" s="140"/>
+      <c r="I96" s="140"/>
+      <c r="J96" s="140"/>
+      <c r="K96" s="140"/>
+      <c r="L96" s="142"/>
+      <c r="M96" s="143"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="139"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140" t="s">
+        <v>527</v>
+      </c>
+      <c r="F97" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97" s="140"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="140"/>
+      <c r="J97" s="140"/>
+      <c r="K97" s="140"/>
+      <c r="L97" s="142"/>
+      <c r="M97" s="143"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="139"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="140"/>
+      <c r="J98" s="140"/>
+      <c r="K98" s="140"/>
+      <c r="L98" s="142"/>
+      <c r="M98" s="143"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="139"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="140" t="s">
+        <v>530</v>
+      </c>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140" t="s">
+        <v>537</v>
+      </c>
+      <c r="G99" s="140"/>
+      <c r="H99" s="140"/>
+      <c r="I99" s="140"/>
+      <c r="J99" s="140"/>
+      <c r="K99" s="140"/>
+      <c r="L99" s="142"/>
+      <c r="M99" s="143"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="139"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140" t="s">
+        <v>531</v>
+      </c>
+      <c r="F100" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G100" s="140"/>
+      <c r="H100" s="140"/>
+      <c r="I100" s="140"/>
+      <c r="J100" s="140"/>
+      <c r="K100" s="140"/>
+      <c r="L100" s="142"/>
+      <c r="M100" s="143"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="139"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140" t="s">
+        <v>532</v>
+      </c>
+      <c r="F101" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G101" s="140"/>
+      <c r="H101" s="140"/>
+      <c r="I101" s="140"/>
+      <c r="J101" s="140"/>
+      <c r="K101" s="140"/>
+      <c r="L101" s="142"/>
+      <c r="M101" s="143"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="139"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140" t="s">
+        <v>533</v>
+      </c>
+      <c r="F102" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G102" s="140"/>
+      <c r="H102" s="140"/>
+      <c r="I102" s="140"/>
+      <c r="J102" s="140"/>
+      <c r="K102" s="140"/>
+      <c r="L102" s="142"/>
+      <c r="M102" s="143"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="139"/>
+      <c r="C103" s="140"/>
+      <c r="D103" s="140"/>
+      <c r="E103" s="140" t="s">
+        <v>534</v>
+      </c>
+      <c r="F103" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G103" s="140"/>
+      <c r="H103" s="140"/>
+      <c r="I103" s="140"/>
+      <c r="J103" s="140"/>
+      <c r="K103" s="140"/>
+      <c r="L103" s="142"/>
+      <c r="M103" s="143"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="139"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="140" t="s">
+        <v>535</v>
+      </c>
+      <c r="F104" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G104" s="140"/>
+      <c r="H104" s="140"/>
+      <c r="I104" s="140"/>
+      <c r="J104" s="140"/>
+      <c r="K104" s="140"/>
+      <c r="L104" s="142"/>
+      <c r="M104" s="143"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="139"/>
+      <c r="C105" s="140"/>
+      <c r="D105" s="140"/>
+      <c r="E105" s="140" t="s">
+        <v>536</v>
+      </c>
+      <c r="F105" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G105" s="140"/>
+      <c r="H105" s="140"/>
+      <c r="I105" s="140"/>
+      <c r="J105" s="140"/>
+      <c r="K105" s="140"/>
+      <c r="L105" s="142"/>
+      <c r="M105" s="143"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="139"/>
+      <c r="C106" s="140"/>
+      <c r="D106" s="140"/>
+      <c r="E106" s="140"/>
+      <c r="F106" s="140"/>
+      <c r="G106" s="140"/>
+      <c r="H106" s="140"/>
+      <c r="I106" s="140"/>
+      <c r="J106" s="140"/>
+      <c r="K106" s="140"/>
+      <c r="L106" s="142"/>
+      <c r="M106" s="143"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="139"/>
+      <c r="C107" s="140"/>
+      <c r="D107" s="140" t="s">
+        <v>514</v>
+      </c>
+      <c r="E107" s="140"/>
+      <c r="F107" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="G107" s="140"/>
+      <c r="H107" s="140"/>
+      <c r="I107" s="140"/>
+      <c r="J107" s="140"/>
+      <c r="K107" s="140"/>
+      <c r="L107" s="142"/>
+      <c r="M107" s="143"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="139"/>
+      <c r="C108" s="140"/>
+      <c r="D108" s="140"/>
+      <c r="E108" s="140" t="s">
+        <v>515</v>
+      </c>
+      <c r="F108" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G108" s="140"/>
+      <c r="H108" s="140"/>
+      <c r="I108" s="140"/>
+      <c r="J108" s="140"/>
+      <c r="K108" s="140"/>
+      <c r="L108" s="142"/>
+      <c r="M108" s="143"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="139"/>
+      <c r="C109" s="140"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="140" t="s">
+        <v>516</v>
+      </c>
+      <c r="F109" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G109" s="140"/>
+      <c r="H109" s="140"/>
+      <c r="I109" s="140"/>
+      <c r="J109" s="140"/>
+      <c r="K109" s="140"/>
+      <c r="L109" s="142"/>
+      <c r="M109" s="143"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="139"/>
+      <c r="C110" s="140"/>
+      <c r="D110" s="140"/>
+      <c r="E110" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="F110" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G110" s="140"/>
+      <c r="H110" s="140"/>
+      <c r="I110" s="140"/>
+      <c r="J110" s="140"/>
+      <c r="K110" s="140"/>
+      <c r="L110" s="142"/>
+      <c r="M110" s="143"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="139"/>
+      <c r="C111" s="140"/>
+      <c r="D111" s="140"/>
+      <c r="E111" s="140" t="s">
+        <v>517</v>
+      </c>
+      <c r="F111" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G111" s="140"/>
+      <c r="H111" s="140"/>
+      <c r="I111" s="140"/>
+      <c r="J111" s="140"/>
+      <c r="K111" s="140"/>
+      <c r="L111" s="142"/>
+      <c r="M111" s="143"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="139"/>
+      <c r="C112" s="140"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="140" t="s">
+        <v>518</v>
+      </c>
+      <c r="F112" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G112" s="140"/>
+      <c r="H112" s="140"/>
+      <c r="I112" s="140"/>
+      <c r="J112" s="140"/>
+      <c r="K112" s="140"/>
+      <c r="L112" s="142"/>
+      <c r="M112" s="143"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="139"/>
+      <c r="C113" s="140"/>
+      <c r="D113" s="140"/>
+      <c r="E113" s="140" t="s">
+        <v>524</v>
+      </c>
+      <c r="F113" s="140" t="s">
         <v>477</v>
       </c>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="145"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142" t="s">
-        <v>476</v>
-      </c>
-      <c r="F29" s="142" t="s">
+      <c r="G113" s="140"/>
+      <c r="H113" s="140"/>
+      <c r="I113" s="140"/>
+      <c r="J113" s="140"/>
+      <c r="K113" s="140"/>
+      <c r="L113" s="142"/>
+      <c r="M113" s="143"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="139"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140" t="s">
+        <v>519</v>
+      </c>
+      <c r="F114" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G114" s="140"/>
+      <c r="H114" s="140"/>
+      <c r="I114" s="140"/>
+      <c r="J114" s="140"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="142"/>
+      <c r="M114" s="143"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="139"/>
+      <c r="C115" s="140"/>
+      <c r="D115" s="140"/>
+      <c r="E115" s="140" t="s">
+        <v>520</v>
+      </c>
+      <c r="F115" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G115" s="140"/>
+      <c r="H115" s="140"/>
+      <c r="I115" s="140"/>
+      <c r="J115" s="140"/>
+      <c r="K115" s="140"/>
+      <c r="L115" s="142"/>
+      <c r="M115" s="143"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="139"/>
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140" t="s">
+        <v>528</v>
+      </c>
+      <c r="F116" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G116" s="140"/>
+      <c r="H116" s="140"/>
+      <c r="I116" s="140"/>
+      <c r="J116" s="140"/>
+      <c r="K116" s="140"/>
+      <c r="L116" s="142"/>
+      <c r="M116" s="143"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="139"/>
+      <c r="C117" s="140"/>
+      <c r="D117" s="140"/>
+      <c r="E117" s="140" t="s">
+        <v>521</v>
+      </c>
+      <c r="F117" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G117" s="140"/>
+      <c r="H117" s="140"/>
+      <c r="I117" s="140"/>
+      <c r="J117" s="140"/>
+      <c r="K117" s="140"/>
+      <c r="L117" s="142"/>
+      <c r="M117" s="143"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="139"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="140" t="s">
+        <v>522</v>
+      </c>
+      <c r="F118" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G118" s="140"/>
+      <c r="H118" s="140"/>
+      <c r="I118" s="140"/>
+      <c r="J118" s="140"/>
+      <c r="K118" s="140"/>
+      <c r="L118" s="142"/>
+      <c r="M118" s="143"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="139"/>
+      <c r="C119" s="140"/>
+      <c r="D119" s="140"/>
+      <c r="E119" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="F119" s="140" t="s">
+        <v>482</v>
+      </c>
+      <c r="G119" s="140"/>
+      <c r="H119" s="140"/>
+      <c r="I119" s="140"/>
+      <c r="J119" s="140"/>
+      <c r="K119" s="140"/>
+      <c r="L119" s="142"/>
+      <c r="M119" s="143"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="139"/>
+      <c r="C120" s="140"/>
+      <c r="D120" s="140"/>
+      <c r="E120" s="140" t="s">
+        <v>523</v>
+      </c>
+      <c r="F120" s="140" t="s">
         <v>477</v>
       </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="145"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="145"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142" t="s">
-        <v>474</v>
-      </c>
-      <c r="F31" s="142" t="s">
-        <v>478</v>
-      </c>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="145"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142" t="s">
-        <v>475</v>
-      </c>
-      <c r="F32" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="145"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142" t="s">
-        <v>483</v>
-      </c>
-      <c r="F33" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="145"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="150"/>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="138"/>
-      <c r="M35" s="137"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="152" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="153">
-        <v>3</v>
-      </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153" t="s">
-        <v>486</v>
-      </c>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="K36" s="154"/>
-      <c r="L36" s="153" t="s">
-        <v>551</v>
-      </c>
-      <c r="M36" s="155"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142" t="s">
-        <v>472</v>
-      </c>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="145"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="141"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142" t="s">
-        <v>460</v>
-      </c>
-      <c r="F38" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G38" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="145"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142" t="s">
-        <v>461</v>
-      </c>
-      <c r="F39" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G39" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="145"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142" t="s">
-        <v>483</v>
-      </c>
-      <c r="F40" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="145"/>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="146"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="150"/>
-    </row>
-    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="137"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="152" t="s">
-        <v>489</v>
-      </c>
-      <c r="C43" s="153">
-        <v>4</v>
-      </c>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153" t="s">
-        <v>548</v>
-      </c>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="K43" s="154"/>
-      <c r="L43" s="153" t="s">
-        <v>552</v>
-      </c>
-      <c r="M43" s="155"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="141"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142" t="s">
-        <v>492</v>
-      </c>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="145"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="141"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142" t="s">
-        <v>493</v>
-      </c>
-      <c r="F45" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="145"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142" t="s">
-        <v>494</v>
-      </c>
-      <c r="F46" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="145"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="141"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142" t="s">
-        <v>495</v>
-      </c>
-      <c r="F47" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="143"/>
-      <c r="K47" s="143"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="145"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="141"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142" t="s">
-        <v>496</v>
-      </c>
-      <c r="F48" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="143"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="145"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="141"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142" t="s">
-        <v>497</v>
-      </c>
-      <c r="F49" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="145"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142" t="s">
-        <v>498</v>
-      </c>
-      <c r="F50" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="143"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="145"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="141"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142" t="s">
-        <v>499</v>
-      </c>
-      <c r="F51" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="145"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="141"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142" t="s">
-        <v>500</v>
-      </c>
-      <c r="F52" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="145"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="141"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142" t="s">
-        <v>501</v>
-      </c>
-      <c r="F53" s="142" t="s">
-        <v>549</v>
-      </c>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="145"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="141"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142" t="s">
-        <v>483</v>
-      </c>
-      <c r="F54" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="143"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="145"/>
-    </row>
-    <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="146"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="148"/>
-      <c r="K55" s="148"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="150"/>
-    </row>
-    <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="137"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="152" t="s">
-        <v>502</v>
-      </c>
-      <c r="C57" s="153">
-        <v>5</v>
-      </c>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153" t="s">
-        <v>547</v>
-      </c>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="L57" s="156" t="s">
-        <v>553</v>
-      </c>
-      <c r="M57" s="155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142" t="s">
-        <v>503</v>
-      </c>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="142"/>
-      <c r="L58" s="144"/>
-      <c r="M58" s="145"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142" t="s">
-        <v>506</v>
-      </c>
-      <c r="F59" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142"/>
-      <c r="L59" s="144"/>
-      <c r="M59" s="145"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="141"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142" t="s">
-        <v>507</v>
-      </c>
-      <c r="F60" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="145"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="141"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142" t="s">
-        <v>509</v>
-      </c>
-      <c r="F61" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="145"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="F62" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="142"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="145"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="141"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="142"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="145"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="141"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="142" t="s">
-        <v>504</v>
-      </c>
-      <c r="E64" s="142"/>
-      <c r="F64" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="G64" s="142"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="142"/>
-      <c r="K64" s="142"/>
-      <c r="L64" s="144"/>
-      <c r="M64" s="145"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="141"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142" t="s">
-        <v>506</v>
-      </c>
-      <c r="F65" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="142"/>
-      <c r="K65" s="142"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="145"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="141"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142" t="s">
-        <v>507</v>
-      </c>
-      <c r="F66" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="144"/>
-      <c r="M66" s="145"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="141"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142" t="s">
-        <v>509</v>
-      </c>
-      <c r="F67" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G67" s="142"/>
-      <c r="H67" s="142"/>
-      <c r="I67" s="142"/>
-      <c r="J67" s="143"/>
-      <c r="K67" s="143"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="145"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="141"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="F68" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G68" s="142"/>
-      <c r="H68" s="142"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="142"/>
-      <c r="K68" s="142"/>
-      <c r="L68" s="144"/>
-      <c r="M68" s="145"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="141"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="142"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="142"/>
-      <c r="K69" s="142"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="145"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="141"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="142" t="s">
-        <v>505</v>
-      </c>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142" t="s">
-        <v>546</v>
-      </c>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="142"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="144"/>
-      <c r="M70" s="145"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="141"/>
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142" t="s">
-        <v>542</v>
-      </c>
-      <c r="F71" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="142"/>
-      <c r="K71" s="142"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="145"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="141"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="142" t="s">
-        <v>543</v>
-      </c>
-      <c r="F72" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="142"/>
-      <c r="K72" s="142"/>
-      <c r="L72" s="144"/>
-      <c r="M72" s="145"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="141"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142" t="s">
-        <v>544</v>
-      </c>
-      <c r="F73" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="142"/>
-      <c r="L73" s="144"/>
-      <c r="M73" s="145"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="141"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="145"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="141"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142" t="s">
-        <v>568</v>
-      </c>
-      <c r="F75" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142"/>
-      <c r="K75" s="142"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="145"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="141"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="142" t="s">
-        <v>545</v>
-      </c>
-      <c r="F76" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G76" s="142"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="142"/>
-      <c r="K76" s="142"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="145"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="141"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142" t="s">
-        <v>545</v>
-      </c>
-      <c r="F77" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G77" s="142"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="142"/>
-      <c r="L77" s="144"/>
-      <c r="M77" s="145"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="141"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142" t="s">
-        <v>545</v>
-      </c>
-      <c r="F78" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="142"/>
-      <c r="L78" s="144"/>
-      <c r="M78" s="145"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="141"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="142"/>
-      <c r="K79" s="142"/>
-      <c r="L79" s="144"/>
-      <c r="M79" s="145"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="141"/>
-      <c r="C80" s="142"/>
-      <c r="D80" s="142" t="s">
-        <v>511</v>
-      </c>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="G80" s="142"/>
-      <c r="H80" s="142"/>
-      <c r="I80" s="142"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="142"/>
-      <c r="L80" s="144"/>
-      <c r="M80" s="145"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="141"/>
-      <c r="C81" s="142"/>
-      <c r="D81" s="142"/>
-      <c r="E81" s="142" t="s">
-        <v>506</v>
-      </c>
-      <c r="F81" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G81" s="142"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="142"/>
-      <c r="J81" s="142"/>
-      <c r="K81" s="142"/>
-      <c r="L81" s="144"/>
-      <c r="M81" s="145"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="141"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142" t="s">
-        <v>507</v>
-      </c>
-      <c r="F82" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G82" s="142"/>
-      <c r="H82" s="142"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="142"/>
-      <c r="K82" s="142"/>
-      <c r="L82" s="144"/>
-      <c r="M82" s="145"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="141"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142" t="s">
-        <v>509</v>
-      </c>
-      <c r="F83" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G83" s="142"/>
-      <c r="H83" s="142"/>
-      <c r="I83" s="142"/>
-      <c r="J83" s="143"/>
-      <c r="K83" s="143"/>
-      <c r="L83" s="144"/>
-      <c r="M83" s="145"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="141"/>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="F84" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G84" s="142"/>
-      <c r="H84" s="142"/>
-      <c r="I84" s="142"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="142"/>
-      <c r="L84" s="144"/>
-      <c r="M84" s="145"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="141"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="142"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="142"/>
-      <c r="K85" s="142"/>
-      <c r="L85" s="144"/>
-      <c r="M85" s="145"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="141"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142" t="s">
-        <v>513</v>
-      </c>
-      <c r="G86" s="142"/>
-      <c r="H86" s="142"/>
-      <c r="I86" s="142"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="142"/>
-      <c r="L86" s="144"/>
-      <c r="M86" s="145"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="141"/>
-      <c r="C87" s="142"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="142" t="s">
-        <v>506</v>
-      </c>
-      <c r="F87" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G87" s="142"/>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
-      <c r="L87" s="144"/>
-      <c r="M87" s="145"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="141"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142" t="s">
-        <v>507</v>
-      </c>
-      <c r="F88" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="142"/>
-      <c r="L88" s="144"/>
-      <c r="M88" s="145"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="141"/>
-      <c r="C89" s="142"/>
-      <c r="D89" s="142"/>
-      <c r="E89" s="142" t="s">
-        <v>509</v>
-      </c>
-      <c r="F89" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G89" s="142"/>
-      <c r="H89" s="142"/>
-      <c r="I89" s="142"/>
-      <c r="J89" s="143"/>
-      <c r="K89" s="143"/>
-      <c r="L89" s="144"/>
-      <c r="M89" s="145"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="141"/>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
-      <c r="E90" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="F90" s="142" t="s">
-        <v>484</v>
-      </c>
-      <c r="G90" s="142"/>
-      <c r="H90" s="142"/>
-      <c r="I90" s="142"/>
-      <c r="J90" s="142"/>
-      <c r="K90" s="142"/>
-      <c r="L90" s="144"/>
-      <c r="M90" s="145"/>
-    </row>
-    <row r="91" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="146"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="147"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="147"/>
-      <c r="L91" s="149"/>
-      <c r="M91" s="150"/>
-    </row>
-    <row r="92" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L92" s="138"/>
-      <c r="M92" s="137"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="152" t="s">
-        <v>508</v>
-      </c>
-      <c r="C93" s="153">
-        <v>6</v>
-      </c>
-      <c r="D93" s="153"/>
-      <c r="E93" s="153"/>
-      <c r="F93" s="153" t="s">
-        <v>541</v>
-      </c>
-      <c r="G93" s="153"/>
-      <c r="H93" s="153"/>
-      <c r="I93" s="153"/>
-      <c r="J93" s="153"/>
-      <c r="K93" s="154" t="s">
-        <v>394</v>
-      </c>
-      <c r="L93" s="156" t="s">
-        <v>553</v>
-      </c>
-      <c r="M93" s="155">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="141"/>
-      <c r="C94" s="142"/>
-      <c r="D94" s="142" t="s">
-        <v>514</v>
-      </c>
-      <c r="E94" s="142"/>
-      <c r="F94" s="142" t="s">
-        <v>486</v>
-      </c>
-      <c r="G94" s="142"/>
-      <c r="H94" s="142"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="142"/>
-      <c r="K94" s="142"/>
-      <c r="L94" s="144"/>
-      <c r="M94" s="145"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="141"/>
-      <c r="C95" s="142"/>
-      <c r="D95" s="142"/>
-      <c r="E95" s="142" t="s">
-        <v>515</v>
-      </c>
-      <c r="F95" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G95" s="142"/>
-      <c r="H95" s="142"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="142"/>
-      <c r="K95" s="142"/>
-      <c r="L95" s="144"/>
-      <c r="M95" s="145"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="141"/>
-      <c r="C96" s="142"/>
-      <c r="D96" s="142"/>
-      <c r="E96" s="142" t="s">
-        <v>516</v>
-      </c>
-      <c r="F96" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G96" s="142"/>
-      <c r="H96" s="142"/>
-      <c r="I96" s="142"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="142"/>
-      <c r="L96" s="144"/>
-      <c r="M96" s="145"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="141"/>
-      <c r="C97" s="142"/>
-      <c r="D97" s="142"/>
-      <c r="E97" s="142" t="s">
-        <v>530</v>
-      </c>
-      <c r="F97" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G97" s="142"/>
-      <c r="H97" s="142"/>
-      <c r="I97" s="142"/>
-      <c r="J97" s="142"/>
-      <c r="K97" s="142"/>
-      <c r="L97" s="144"/>
-      <c r="M97" s="145"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="141"/>
-      <c r="C98" s="142"/>
-      <c r="D98" s="142"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="142"/>
-      <c r="H98" s="142"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="142"/>
-      <c r="K98" s="142"/>
-      <c r="L98" s="144"/>
-      <c r="M98" s="145"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="141"/>
-      <c r="C99" s="142"/>
-      <c r="D99" s="142" t="s">
-        <v>533</v>
-      </c>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142" t="s">
-        <v>540</v>
-      </c>
-      <c r="G99" s="142"/>
-      <c r="H99" s="142"/>
-      <c r="I99" s="142"/>
-      <c r="J99" s="142"/>
-      <c r="K99" s="142"/>
-      <c r="L99" s="144"/>
-      <c r="M99" s="145"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="141"/>
-      <c r="C100" s="142"/>
-      <c r="D100" s="142"/>
-      <c r="E100" s="142" t="s">
-        <v>534</v>
-      </c>
-      <c r="F100" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G100" s="142"/>
-      <c r="H100" s="142"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="142"/>
-      <c r="K100" s="142"/>
-      <c r="L100" s="144"/>
-      <c r="M100" s="145"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="141"/>
-      <c r="C101" s="142"/>
-      <c r="D101" s="142"/>
-      <c r="E101" s="142" t="s">
-        <v>535</v>
-      </c>
-      <c r="F101" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G101" s="142"/>
-      <c r="H101" s="142"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="142"/>
-      <c r="K101" s="142"/>
-      <c r="L101" s="144"/>
-      <c r="M101" s="145"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="141"/>
-      <c r="C102" s="142"/>
-      <c r="D102" s="142"/>
-      <c r="E102" s="142" t="s">
-        <v>536</v>
-      </c>
-      <c r="F102" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G102" s="142"/>
-      <c r="H102" s="142"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="142"/>
-      <c r="K102" s="142"/>
-      <c r="L102" s="144"/>
-      <c r="M102" s="145"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="141"/>
-      <c r="C103" s="142"/>
-      <c r="D103" s="142"/>
-      <c r="E103" s="142" t="s">
-        <v>537</v>
-      </c>
-      <c r="F103" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G103" s="142"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="142"/>
-      <c r="K103" s="142"/>
-      <c r="L103" s="144"/>
-      <c r="M103" s="145"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="141"/>
-      <c r="C104" s="142"/>
-      <c r="D104" s="142"/>
-      <c r="E104" s="142" t="s">
-        <v>538</v>
-      </c>
-      <c r="F104" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G104" s="142"/>
-      <c r="H104" s="142"/>
-      <c r="I104" s="142"/>
-      <c r="J104" s="142"/>
-      <c r="K104" s="142"/>
-      <c r="L104" s="144"/>
-      <c r="M104" s="145"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="141"/>
-      <c r="C105" s="142"/>
-      <c r="D105" s="142"/>
-      <c r="E105" s="142" t="s">
-        <v>539</v>
-      </c>
-      <c r="F105" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G105" s="142"/>
-      <c r="H105" s="142"/>
-      <c r="I105" s="142"/>
-      <c r="J105" s="142"/>
-      <c r="K105" s="142"/>
-      <c r="L105" s="144"/>
-      <c r="M105" s="145"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="141"/>
-      <c r="C106" s="142"/>
-      <c r="D106" s="142"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="142"/>
-      <c r="H106" s="142"/>
-      <c r="I106" s="142"/>
-      <c r="J106" s="142"/>
-      <c r="K106" s="142"/>
-      <c r="L106" s="144"/>
-      <c r="M106" s="145"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="141"/>
-      <c r="C107" s="142"/>
-      <c r="D107" s="142" t="s">
-        <v>517</v>
-      </c>
-      <c r="E107" s="142"/>
-      <c r="F107" s="142" t="s">
-        <v>528</v>
-      </c>
-      <c r="G107" s="142"/>
-      <c r="H107" s="142"/>
-      <c r="I107" s="142"/>
-      <c r="J107" s="142"/>
-      <c r="K107" s="142"/>
-      <c r="L107" s="144"/>
-      <c r="M107" s="145"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="141"/>
-      <c r="C108" s="142"/>
-      <c r="D108" s="142"/>
-      <c r="E108" s="142" t="s">
-        <v>518</v>
-      </c>
-      <c r="F108" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G108" s="142"/>
-      <c r="H108" s="142"/>
-      <c r="I108" s="142"/>
-      <c r="J108" s="142"/>
-      <c r="K108" s="142"/>
-      <c r="L108" s="144"/>
-      <c r="M108" s="145"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="141"/>
-      <c r="C109" s="142"/>
-      <c r="D109" s="142"/>
-      <c r="E109" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="F109" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G109" s="142"/>
-      <c r="H109" s="142"/>
-      <c r="I109" s="142"/>
-      <c r="J109" s="142"/>
-      <c r="K109" s="142"/>
-      <c r="L109" s="144"/>
-      <c r="M109" s="145"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="141"/>
-      <c r="C110" s="142"/>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142" t="s">
-        <v>529</v>
-      </c>
-      <c r="F110" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G110" s="142"/>
-      <c r="H110" s="142"/>
-      <c r="I110" s="142"/>
-      <c r="J110" s="142"/>
-      <c r="K110" s="142"/>
-      <c r="L110" s="144"/>
-      <c r="M110" s="145"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="141"/>
-      <c r="C111" s="142"/>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142" t="s">
-        <v>520</v>
-      </c>
-      <c r="F111" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G111" s="142"/>
-      <c r="H111" s="142"/>
-      <c r="I111" s="142"/>
-      <c r="J111" s="142"/>
-      <c r="K111" s="142"/>
-      <c r="L111" s="144"/>
-      <c r="M111" s="145"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="141"/>
-      <c r="C112" s="142"/>
-      <c r="D112" s="142"/>
-      <c r="E112" s="142" t="s">
-        <v>521</v>
-      </c>
-      <c r="F112" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G112" s="142"/>
-      <c r="H112" s="142"/>
-      <c r="I112" s="142"/>
-      <c r="J112" s="142"/>
-      <c r="K112" s="142"/>
-      <c r="L112" s="144"/>
-      <c r="M112" s="145"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="141"/>
-      <c r="C113" s="142"/>
-      <c r="D113" s="142"/>
-      <c r="E113" s="142" t="s">
-        <v>527</v>
-      </c>
-      <c r="F113" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G113" s="142"/>
-      <c r="H113" s="142"/>
-      <c r="I113" s="142"/>
-      <c r="J113" s="142"/>
-      <c r="K113" s="142"/>
-      <c r="L113" s="144"/>
-      <c r="M113" s="145"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="141"/>
-      <c r="C114" s="142"/>
-      <c r="D114" s="142"/>
-      <c r="E114" s="142" t="s">
-        <v>522</v>
-      </c>
-      <c r="F114" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G114" s="142"/>
-      <c r="H114" s="142"/>
-      <c r="I114" s="142"/>
-      <c r="J114" s="142"/>
-      <c r="K114" s="142"/>
-      <c r="L114" s="144"/>
-      <c r="M114" s="145"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="141"/>
-      <c r="C115" s="142"/>
-      <c r="D115" s="142"/>
-      <c r="E115" s="142" t="s">
-        <v>523</v>
-      </c>
-      <c r="F115" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G115" s="142"/>
-      <c r="H115" s="142"/>
-      <c r="I115" s="142"/>
-      <c r="J115" s="142"/>
-      <c r="K115" s="142"/>
-      <c r="L115" s="144"/>
-      <c r="M115" s="145"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="141"/>
-      <c r="C116" s="142"/>
-      <c r="D116" s="142"/>
-      <c r="E116" s="142" t="s">
-        <v>531</v>
-      </c>
-      <c r="F116" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G116" s="142"/>
-      <c r="H116" s="142"/>
-      <c r="I116" s="142"/>
-      <c r="J116" s="142"/>
-      <c r="K116" s="142"/>
-      <c r="L116" s="144"/>
-      <c r="M116" s="145"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="141"/>
-      <c r="C117" s="142"/>
-      <c r="D117" s="142"/>
-      <c r="E117" s="142" t="s">
-        <v>524</v>
-      </c>
-      <c r="F117" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G117" s="142"/>
-      <c r="H117" s="142"/>
-      <c r="I117" s="142"/>
-      <c r="J117" s="142"/>
-      <c r="K117" s="142"/>
-      <c r="L117" s="144"/>
-      <c r="M117" s="145"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="141"/>
-      <c r="C118" s="142"/>
-      <c r="D118" s="142"/>
-      <c r="E118" s="142" t="s">
-        <v>525</v>
-      </c>
-      <c r="F118" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G118" s="142"/>
-      <c r="H118" s="142"/>
-      <c r="I118" s="142"/>
-      <c r="J118" s="142"/>
-      <c r="K118" s="142"/>
-      <c r="L118" s="144"/>
-      <c r="M118" s="145"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="141"/>
-      <c r="C119" s="142"/>
-      <c r="D119" s="142"/>
-      <c r="E119" s="142" t="s">
-        <v>532</v>
-      </c>
-      <c r="F119" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="G119" s="142"/>
-      <c r="H119" s="142"/>
-      <c r="I119" s="142"/>
-      <c r="J119" s="142"/>
-      <c r="K119" s="142"/>
-      <c r="L119" s="144"/>
-      <c r="M119" s="145"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="141"/>
-      <c r="C120" s="142"/>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142" t="s">
-        <v>526</v>
-      </c>
-      <c r="F120" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="G120" s="142"/>
-      <c r="H120" s="142"/>
-      <c r="I120" s="142"/>
-      <c r="J120" s="142"/>
-      <c r="K120" s="142"/>
-      <c r="L120" s="144"/>
-      <c r="M120" s="145"/>
+      <c r="G120" s="140"/>
+      <c r="H120" s="140"/>
+      <c r="I120" s="140"/>
+      <c r="J120" s="140"/>
+      <c r="K120" s="140"/>
+      <c r="L120" s="142"/>
+      <c r="M120" s="143"/>
     </row>
     <row r="121" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="146"/>
-      <c r="C121" s="147"/>
-      <c r="D121" s="147"/>
-      <c r="E121" s="147"/>
-      <c r="F121" s="147"/>
-      <c r="G121" s="147"/>
-      <c r="H121" s="147"/>
-      <c r="I121" s="147"/>
-      <c r="J121" s="147"/>
-      <c r="K121" s="147"/>
-      <c r="L121" s="149"/>
-      <c r="M121" s="151"/>
+      <c r="B121" s="144"/>
+      <c r="C121" s="145"/>
+      <c r="D121" s="145"/>
+      <c r="E121" s="145"/>
+      <c r="F121" s="145"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="145"/>
+      <c r="I121" s="145"/>
+      <c r="J121" s="145"/>
+      <c r="K121" s="145"/>
+      <c r="L121" s="147"/>
+      <c r="M121" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27737,7 +27722,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -27932,7 +27917,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEF71B-82C4-487A-8AB9-CB749460E08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632732B-8B13-4003-A04A-6CEF3D6D365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="578">
   <si>
     <t>Timing Slot EFR32x</t>
   </si>
@@ -1789,6 +1789,30 @@
   </si>
   <si>
     <t>Not implemented</t>
+  </si>
+  <si>
+    <t>PTI?</t>
+  </si>
+  <si>
+    <t>MOSI, SPI 1.6 Mbps (max 19 Mbps)</t>
+  </si>
+  <si>
+    <t>CS, SPI 1.6 Mbps (max 19 Mbps)</t>
+  </si>
+  <si>
+    <t>SCLK, SPI 1.6 Mbps (max 19 Mbps)</t>
+  </si>
+  <si>
+    <t>SPI 1Mbps?</t>
+  </si>
+  <si>
+    <t>SPI mode Master</t>
+  </si>
+  <si>
+    <t>SPI mode Slave</t>
+  </si>
+  <si>
+    <t>To be analyzed in replacement of SPI/PTI</t>
   </si>
 </sst>
 </file>
@@ -2807,13 +2831,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,62 +2870,17 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2886,81 +2889,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3005,6 +2933,15 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3014,20 +2951,107 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3056,7 +3080,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
@@ -3079,10 +3103,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4584700" y="1197350"/>
-          <a:ext cx="5683249" cy="2971800"/>
-          <a:chOff x="4584700" y="1114426"/>
-          <a:chExt cx="5683249" cy="2876550"/>
+          <a:off x="4591050" y="1197350"/>
+          <a:ext cx="5676899" cy="2971800"/>
+          <a:chOff x="4591050" y="1114426"/>
+          <a:chExt cx="5676899" cy="2876550"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3231,78 +3255,7 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>SPI 1 MBPS</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Flèche : double flèche horizontale 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FF078F-BA90-4101-9DDA-D644F9F31CFF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4584700" y="1936750"/>
-            <a:ext cx="2247900" cy="400050"/>
-          </a:xfrm>
-          <a:prstGeom prst="leftRightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent2"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="0" scaled="1"/>
-          </a:gradFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
-                <a:ln w="0"/>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                    <a:schemeClr val="dk1">
-                      <a:alpha val="40000"/>
-                    </a:schemeClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>PTI or DIRECT MODE</a:t>
+              <a:t>SPI + PTI 1.6 MBPS</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6160,13 +6113,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>369794</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -6183,10 +6136,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11029950" y="12103847"/>
-          <a:ext cx="4997450" cy="6730999"/>
-          <a:chOff x="12179300" y="11607800"/>
-          <a:chExt cx="4997450" cy="6508749"/>
+          <a:off x="11037794" y="12103847"/>
+          <a:ext cx="4941794" cy="6730999"/>
+          <a:chOff x="12187144" y="11607800"/>
+          <a:chExt cx="4941794" cy="6508749"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -6998,7 +6951,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="16021050" y="13633450"/>
-            <a:ext cx="1155700" cy="12700"/>
+            <a:ext cx="1096682" cy="10050"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7085,9 +7038,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16014700" y="13109376"/>
-            <a:ext cx="1155700" cy="12700"/>
+          <a:xfrm flipV="1">
+            <a:off x="16014700" y="13101707"/>
+            <a:ext cx="1114238" cy="7669"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7525,8 +7478,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="12198350" y="12338050"/>
-            <a:ext cx="1130300" cy="19050"/>
+            <a:off x="12187144" y="12354031"/>
+            <a:ext cx="1141506" cy="3068"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7562,9 +7515,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="12179300" y="13716000"/>
-            <a:ext cx="1149350" cy="12700"/>
+          <a:xfrm flipH="1">
+            <a:off x="12209556" y="13728700"/>
+            <a:ext cx="1119094" cy="12323"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7651,9 +7604,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12192000" y="14027150"/>
-            <a:ext cx="1155700" cy="12700"/>
+          <a:xfrm flipV="1">
+            <a:off x="12366438" y="14039850"/>
+            <a:ext cx="981262" cy="4577"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7740,9 +7693,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="12198350" y="12687300"/>
-            <a:ext cx="1130300" cy="19050"/>
+          <a:xfrm flipH="1">
+            <a:off x="12209556" y="12706350"/>
+            <a:ext cx="1119094" cy="5265"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -7780,9 +7733,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="12204700" y="13017500"/>
-            <a:ext cx="1146175" cy="28575"/>
+          <a:xfrm flipH="1">
+            <a:off x="12243174" y="13046075"/>
+            <a:ext cx="1107701" cy="1451"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8155,13 +8108,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>180776</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9326</xdr:rowOff>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8175,9 +8128,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9175750" y="13071276"/>
-          <a:ext cx="1155700" cy="12700"/>
+        <a:xfrm flipV="1">
+          <a:off x="9175750" y="13603941"/>
+          <a:ext cx="1055221" cy="1482"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8393,7 +8346,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>SPI 1 MBPS</a:t>
+            <a:t>SPI 1.6 Mbps</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8403,13 +8356,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>617818</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>681318</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -8426,8 +8379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8204200" y="14008100"/>
-          <a:ext cx="825500" cy="457200"/>
+          <a:off x="8237818" y="14580347"/>
+          <a:ext cx="825500" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8485,88 +8438,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>505759</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>296545</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="Flèche : double flèche verticale 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6C686E-9DED-4EC7-99FF-3405EBC09A0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7410450" y="14516100"/>
-          <a:ext cx="506095" cy="2844800"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>PTI or DIRECT_MODE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>569259</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
@@ -8583,8 +8461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7251700" y="14014450"/>
-          <a:ext cx="825500" cy="457200"/>
+          <a:off x="7363759" y="14343529"/>
+          <a:ext cx="825500" cy="713068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8611,14 +8489,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-CH" sz="800"/>
-            <a:t>DFRAME</a:t>
+            <a:t>CS (DFRAME)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-CH" sz="800"/>
-            <a:t>DOUT</a:t>
+            <a:t>MOSI (DOUT)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8635,9 +8513,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>358588</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -8658,8 +8536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5721350" y="12192000"/>
-          <a:ext cx="1130300" cy="19050"/>
+          <a:off x="5692588" y="12718676"/>
+          <a:ext cx="1159062" cy="1121"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8691,9 +8569,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -8714,8 +8592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5702300" y="13569950"/>
-          <a:ext cx="1149350" cy="12700"/>
+          <a:off x="5815853" y="14130618"/>
+          <a:ext cx="1035797" cy="5229"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8808,15 +8686,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>504265</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8830,9 +8708,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="13881100"/>
-          <a:ext cx="1155700" cy="12700"/>
+        <a:xfrm flipV="1">
+          <a:off x="5838265" y="14459697"/>
+          <a:ext cx="1032435" cy="7097"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8925,9 +8803,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>369794</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -8948,8 +8826,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5721350" y="12541250"/>
-          <a:ext cx="1130300" cy="19050"/>
+          <a:off x="5703794" y="13066059"/>
+          <a:ext cx="1147856" cy="15688"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8981,9 +8859,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -9004,8 +8882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5727700" y="12871450"/>
-          <a:ext cx="1146175" cy="28575"/>
+          <a:off x="5737412" y="13424647"/>
+          <a:ext cx="1136463" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9341,6 +9219,577 @@
           <a:r>
             <a:rPr lang="fr-CH" sz="800"/>
             <a:t>SW</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35112</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>759012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flèche : double flèche horizontale 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426F5279-4A05-43B6-B337-14EAC6C946EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4607112" y="2306732"/>
+          <a:ext cx="2247900" cy="413297"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>DIRECT MODE?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85891</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D4318B-2425-451F-B68F-2301D5BF01D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311588" y="2039471"/>
+          <a:ext cx="870303" cy="273594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>OR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661146</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="ZoneTexte 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69DDFA3-5ECD-4A53-80FC-F7C05D65A989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5995146" y="18003369"/>
+          <a:ext cx="2095501" cy="818029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>DATA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> from Slaves</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>MASTER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> transceiver = SPI Master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t>MASTER = SPI Slave</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t>MOSI only</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>667871</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477372</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ZoneTexte 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED71CF0-6968-41CA-BB1B-D743FB291C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8287871" y="18003369"/>
+          <a:ext cx="2095501" cy="818029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>DATA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t>  for Master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t>MASTER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t> transceiver = SPI Slave</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t>MASTER = SPI Master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" baseline="0"/>
+            <a:t>MOSI/MISO for status ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Flèche : bas 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D732572-3B83-EC78-A47A-2D4DECC37046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7563971" y="15127942"/>
+          <a:ext cx="448235" cy="2913529"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PTI SPI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1.6 Mbps</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CH" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494889</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Flèche : double flèche verticale 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E56750-BA84-4905-B6CF-6DB883E836FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846794" y="15116735"/>
+          <a:ext cx="506095" cy="2946400"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>DIRECT MODE (option to replace SPI)?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10403,8 +10852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1CD0F8-0454-4366-B423-07A83CAECE92}">
   <dimension ref="A2:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,7 +10882,7 @@
   </sheetPr>
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -12880,10 +13329,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13333,62 +13782,39 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="130"/>
-      <c r="I23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>403</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>574</v>
       </c>
       <c r="G24" s="130"/>
       <c r="I24" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>379</v>
@@ -13402,26 +13828,26 @@
         <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>403</v>
+        <v>574</v>
       </c>
       <c r="G25" s="130"/>
       <c r="I25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>379</v>
@@ -13431,253 +13857,312 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="I26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B27" s="123" t="s">
         <v>432</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D27" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E27" s="122" t="s">
         <v>431</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="I26" s="122" t="s">
+      <c r="G27" s="130"/>
+      <c r="I27" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="123" t="s">
+      <c r="J27" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="K26" s="122" t="s">
+      <c r="K27" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="122" t="s">
+      <c r="L27" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="M26" s="122" t="s">
+      <c r="M27" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="N26" s="96"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="G27" s="130"/>
-      <c r="I27" s="7" t="s">
+      <c r="N27" s="96"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="G28" s="130"/>
+      <c r="I28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="N27" s="96"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J28" s="5"/>
+      <c r="N28" s="96"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="118" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="A29" s="87"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
       <c r="G29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="133" t="s">
-        <v>438</v>
-      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="96"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="118" t="s">
-        <v>379</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="130"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="96"/>
+      <c r="A30" s="122" t="s">
+        <v>575</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="118" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D31" s="118" t="s">
         <v>379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>573</v>
       </c>
       <c r="G31" s="130"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="121"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
       <c r="K31" s="131"/>
       <c r="L31" s="131"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="96"/>
+      <c r="M31" s="133" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+      <c r="A32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G32" s="130"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="96"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G33" s="130"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="96"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="119" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B35" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C35" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D35" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E35" s="119" t="s">
         <v>419</v>
       </c>
-      <c r="G33" s="130"/>
-      <c r="I33" s="119" t="s">
+      <c r="G35" s="130"/>
+      <c r="I35" s="119" t="s">
         <v>412</v>
       </c>
-      <c r="J33" s="120" t="s">
+      <c r="J35" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="119" t="s">
+      <c r="K35" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="119" t="s">
+      <c r="L35" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="M33" s="119" t="s">
+      <c r="M35" s="119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="119" t="s">
         <v>412</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B36" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C36" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D36" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E36" s="119" t="s">
         <v>419</v>
       </c>
-      <c r="G34" s="130"/>
-      <c r="I34" s="119" t="s">
+      <c r="G36" s="130"/>
+      <c r="I36" s="119" t="s">
         <v>412</v>
       </c>
-      <c r="J34" s="120" t="s">
+      <c r="J36" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="119" t="s">
+      <c r="K36" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="119" t="s">
+      <c r="L36" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="M34" s="119" t="s">
+      <c r="M36" s="119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>425</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>427</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I38" t="s">
         <v>425</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-      <c r="J37" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>570</v>
+      </c>
+      <c r="E39" t="s">
+        <v>577</v>
+      </c>
+      <c r="J39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B39" s="121"/>
-      <c r="C39" s="14" t="s">
+      <c r="B41" s="121"/>
+      <c r="C41" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B40" s="121"/>
-      <c r="C40" s="14" t="s">
+      <c r="B42" s="121"/>
+      <c r="C42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13832,21 +14317,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -13954,45 +14439,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="216" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="187" t="s">
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="207" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="187" t="s">
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="207" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="191" t="s">
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209" t="s">
         <v>269</v>
       </c>
-      <c r="S5" s="192"/>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192"/>
-      <c r="V5" s="192"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="187" t="s">
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
+      <c r="U5" s="210"/>
+      <c r="V5" s="210"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="183" t="s">
+      <c r="Y5" s="208"/>
+      <c r="Z5" s="216" t="s">
         <v>339</v>
       </c>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="218"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -14027,45 +14512,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="223" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="174" t="s">
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="222" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174" t="s">
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222" t="s">
         <v>338</v>
       </c>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="164" t="s">
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164" t="s">
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="U6" s="223"/>
+      <c r="V6" s="223"/>
+      <c r="W6" s="223"/>
+      <c r="X6" s="223" t="s">
         <v>338</v>
       </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164" t="s">
+      <c r="Y6" s="223"/>
+      <c r="Z6" s="223" t="s">
         <v>395</v>
       </c>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
+      <c r="AA6" s="223"/>
+      <c r="AB6" s="223"/>
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="223"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -14106,29 +14591,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="189" t="s">
+      <c r="K7" s="215" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189" t="s">
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189" t="s">
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189" t="s">
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+      <c r="X7" s="215" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="189"/>
+      <c r="Y7" s="215"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -14564,7 +15049,7 @@
       <c r="E14" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="228"/>
+      <c r="F14" s="163"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -14592,7 +15077,7 @@
       <c r="AE14" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AF14" s="228"/>
+      <c r="AF14" s="163"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
       <c r="AI14" s="104"/>
@@ -14635,67 +15120,67 @@
       <c r="G15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H15" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="161"/>
-      <c r="J15" s="158" t="s">
+      <c r="I15" s="165"/>
+      <c r="J15" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="157"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="226"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="226"/>
+      <c r="U15" s="226"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="226"/>
+      <c r="X15" s="226"/>
+      <c r="Y15" s="226"/>
+      <c r="Z15" s="226"/>
+      <c r="AA15" s="226"/>
+      <c r="AB15" s="226"/>
+      <c r="AC15" s="226"/>
+      <c r="AD15" s="226"/>
+      <c r="AE15" s="226"/>
+      <c r="AF15" s="227"/>
       <c r="AG15" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="AH15" s="160" t="s">
+      <c r="AH15" s="164" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="161"/>
-      <c r="AJ15" s="158" t="s">
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AK15" s="159"/>
-      <c r="AL15" s="155"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="156"/>
-      <c r="AQ15" s="156"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="156"/>
-      <c r="AT15" s="156"/>
-      <c r="AU15" s="156"/>
-      <c r="AV15" s="156"/>
-      <c r="AW15" s="156"/>
-      <c r="AX15" s="156"/>
-      <c r="AY15" s="156"/>
-      <c r="AZ15" s="156"/>
-      <c r="BA15" s="156"/>
-      <c r="BB15" s="156"/>
-      <c r="BC15" s="156"/>
-      <c r="BD15" s="156"/>
-      <c r="BE15" s="156"/>
-      <c r="BF15" s="156"/>
+      <c r="AK15" s="167"/>
+      <c r="AL15" s="225"/>
+      <c r="AM15" s="226"/>
+      <c r="AN15" s="226"/>
+      <c r="AO15" s="226"/>
+      <c r="AP15" s="226"/>
+      <c r="AQ15" s="226"/>
+      <c r="AR15" s="226"/>
+      <c r="AS15" s="226"/>
+      <c r="AT15" s="226"/>
+      <c r="AU15" s="226"/>
+      <c r="AV15" s="226"/>
+      <c r="AW15" s="226"/>
+      <c r="AX15" s="226"/>
+      <c r="AY15" s="226"/>
+      <c r="AZ15" s="226"/>
+      <c r="BA15" s="226"/>
+      <c r="BB15" s="226"/>
+      <c r="BC15" s="226"/>
+      <c r="BD15" s="226"/>
+      <c r="BE15" s="226"/>
+      <c r="BF15" s="226"/>
       <c r="BG15" s="103"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -14716,33 +15201,33 @@
         <v>287</v>
       </c>
       <c r="I16" s="110"/>
-      <c r="J16" s="160" t="s">
+      <c r="J16" s="164" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="161"/>
-      <c r="L16" s="158" t="s">
+      <c r="K16" s="165"/>
+      <c r="L16" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="M16" s="159"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="157"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="226"/>
+      <c r="Q16" s="226"/>
+      <c r="R16" s="226"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="226"/>
+      <c r="U16" s="226"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="226"/>
+      <c r="X16" s="226"/>
+      <c r="Y16" s="226"/>
+      <c r="Z16" s="226"/>
+      <c r="AA16" s="226"/>
+      <c r="AB16" s="226"/>
+      <c r="AC16" s="226"/>
+      <c r="AD16" s="226"/>
+      <c r="AE16" s="226"/>
+      <c r="AF16" s="227"/>
       <c r="AG16" s="106" t="s">
         <v>274</v>
       </c>
@@ -14750,33 +15235,33 @@
         <v>287</v>
       </c>
       <c r="AI16" s="110"/>
-      <c r="AJ16" s="160" t="s">
+      <c r="AJ16" s="164" t="s">
         <v>280</v>
       </c>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="158" t="s">
+      <c r="AK16" s="165"/>
+      <c r="AL16" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="155"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="156"/>
-      <c r="AQ16" s="156"/>
-      <c r="AR16" s="156"/>
-      <c r="AS16" s="156"/>
-      <c r="AT16" s="156"/>
-      <c r="AU16" s="156"/>
-      <c r="AV16" s="156"/>
-      <c r="AW16" s="156"/>
-      <c r="AX16" s="156"/>
-      <c r="AY16" s="156"/>
-      <c r="AZ16" s="156"/>
-      <c r="BA16" s="156"/>
-      <c r="BB16" s="156"/>
-      <c r="BC16" s="156"/>
-      <c r="BD16" s="156"/>
-      <c r="BE16" s="156"/>
-      <c r="BF16" s="156"/>
+      <c r="AM16" s="167"/>
+      <c r="AN16" s="225"/>
+      <c r="AO16" s="226"/>
+      <c r="AP16" s="226"/>
+      <c r="AQ16" s="226"/>
+      <c r="AR16" s="226"/>
+      <c r="AS16" s="226"/>
+      <c r="AT16" s="226"/>
+      <c r="AU16" s="226"/>
+      <c r="AV16" s="226"/>
+      <c r="AW16" s="226"/>
+      <c r="AX16" s="226"/>
+      <c r="AY16" s="226"/>
+      <c r="AZ16" s="226"/>
+      <c r="BA16" s="226"/>
+      <c r="BB16" s="226"/>
+      <c r="BC16" s="226"/>
+      <c r="BD16" s="226"/>
+      <c r="BE16" s="226"/>
+      <c r="BF16" s="226"/>
       <c r="BG16" s="103"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -14799,31 +15284,31 @@
       <c r="I17" s="111"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="160" t="s">
+      <c r="L17" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="M17" s="161"/>
-      <c r="N17" s="158" t="s">
+      <c r="M17" s="165"/>
+      <c r="N17" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="O17" s="159"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="157"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="226"/>
+      <c r="AC17" s="226"/>
+      <c r="AD17" s="226"/>
+      <c r="AE17" s="226"/>
+      <c r="AF17" s="227"/>
       <c r="AG17" s="106" t="s">
         <v>274</v>
       </c>
@@ -14833,31 +15318,31 @@
       <c r="AI17" s="111"/>
       <c r="AJ17" s="111"/>
       <c r="AK17" s="110"/>
-      <c r="AL17" s="160" t="s">
+      <c r="AL17" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="158" t="s">
+      <c r="AM17" s="165"/>
+      <c r="AN17" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AO17" s="159"/>
-      <c r="AP17" s="155"/>
-      <c r="AQ17" s="156"/>
-      <c r="AR17" s="156"/>
-      <c r="AS17" s="156"/>
-      <c r="AT17" s="156"/>
-      <c r="AU17" s="156"/>
-      <c r="AV17" s="156"/>
-      <c r="AW17" s="156"/>
-      <c r="AX17" s="156"/>
-      <c r="AY17" s="156"/>
-      <c r="AZ17" s="156"/>
-      <c r="BA17" s="156"/>
-      <c r="BB17" s="156"/>
-      <c r="BC17" s="156"/>
-      <c r="BD17" s="156"/>
-      <c r="BE17" s="156"/>
-      <c r="BF17" s="156"/>
+      <c r="AO17" s="167"/>
+      <c r="AP17" s="225"/>
+      <c r="AQ17" s="226"/>
+      <c r="AR17" s="226"/>
+      <c r="AS17" s="226"/>
+      <c r="AT17" s="226"/>
+      <c r="AU17" s="226"/>
+      <c r="AV17" s="226"/>
+      <c r="AW17" s="226"/>
+      <c r="AX17" s="226"/>
+      <c r="AY17" s="226"/>
+      <c r="AZ17" s="226"/>
+      <c r="BA17" s="226"/>
+      <c r="BB17" s="226"/>
+      <c r="BC17" s="226"/>
+      <c r="BD17" s="226"/>
+      <c r="BE17" s="226"/>
+      <c r="BF17" s="226"/>
       <c r="BG17" s="103"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -14885,24 +15370,24 @@
       <c r="N18" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="163"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="157"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="226"/>
+      <c r="AB18" s="226"/>
+      <c r="AC18" s="226"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="226"/>
+      <c r="AF18" s="227"/>
       <c r="AG18" s="106" t="s">
         <v>274</v>
       </c>
@@ -14917,24 +15402,24 @@
       <c r="AN18" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="155"/>
-      <c r="AQ18" s="156"/>
-      <c r="AR18" s="156"/>
-      <c r="AS18" s="156"/>
-      <c r="AT18" s="156"/>
-      <c r="AU18" s="156"/>
-      <c r="AV18" s="156"/>
-      <c r="AW18" s="156"/>
-      <c r="AX18" s="156"/>
-      <c r="AY18" s="156"/>
-      <c r="AZ18" s="156"/>
-      <c r="BA18" s="156"/>
-      <c r="BB18" s="156"/>
-      <c r="BC18" s="156"/>
-      <c r="BD18" s="156"/>
-      <c r="BE18" s="156"/>
-      <c r="BF18" s="156"/>
+      <c r="AO18" s="171"/>
+      <c r="AP18" s="225"/>
+      <c r="AQ18" s="226"/>
+      <c r="AR18" s="226"/>
+      <c r="AS18" s="226"/>
+      <c r="AT18" s="226"/>
+      <c r="AU18" s="226"/>
+      <c r="AV18" s="226"/>
+      <c r="AW18" s="226"/>
+      <c r="AX18" s="226"/>
+      <c r="AY18" s="226"/>
+      <c r="AZ18" s="226"/>
+      <c r="BA18" s="226"/>
+      <c r="BB18" s="226"/>
+      <c r="BC18" s="226"/>
+      <c r="BD18" s="226"/>
+      <c r="BE18" s="226"/>
+      <c r="BF18" s="226"/>
       <c r="BG18" s="103"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -15160,23 +15645,23 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="111"/>
       <c r="S22" s="110"/>
-      <c r="T22" s="160" t="s">
+      <c r="T22" s="164" t="s">
         <v>283</v>
       </c>
-      <c r="U22" s="161"/>
-      <c r="V22" s="158" t="s">
+      <c r="U22" s="165"/>
+      <c r="V22" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="W22" s="159"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="157"/>
+      <c r="W22" s="167"/>
+      <c r="X22" s="225"/>
+      <c r="Y22" s="226"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="226"/>
+      <c r="AC22" s="226"/>
+      <c r="AD22" s="226"/>
+      <c r="AE22" s="226"/>
+      <c r="AF22" s="227"/>
       <c r="AG22" s="106" t="s">
         <v>274</v>
       </c>
@@ -15194,23 +15679,23 @@
       <c r="AQ22" s="111"/>
       <c r="AR22" s="111"/>
       <c r="AS22" s="110"/>
-      <c r="AT22" s="160" t="s">
+      <c r="AT22" s="164" t="s">
         <v>283</v>
       </c>
-      <c r="AU22" s="161"/>
-      <c r="AV22" s="158" t="s">
+      <c r="AU22" s="165"/>
+      <c r="AV22" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AW22" s="159"/>
-      <c r="AX22" s="155"/>
-      <c r="AY22" s="156"/>
-      <c r="AZ22" s="156"/>
-      <c r="BA22" s="156"/>
-      <c r="BB22" s="156"/>
-      <c r="BC22" s="156"/>
-      <c r="BD22" s="156"/>
-      <c r="BE22" s="156"/>
-      <c r="BF22" s="156"/>
+      <c r="AW22" s="167"/>
+      <c r="AX22" s="225"/>
+      <c r="AY22" s="226"/>
+      <c r="AZ22" s="226"/>
+      <c r="BA22" s="226"/>
+      <c r="BB22" s="226"/>
+      <c r="BC22" s="226"/>
+      <c r="BD22" s="226"/>
+      <c r="BE22" s="226"/>
+      <c r="BF22" s="226"/>
       <c r="BG22" s="103"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -15243,21 +15728,21 @@
       <c r="S23" s="111"/>
       <c r="T23" s="111"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="160" t="s">
+      <c r="V23" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="W23" s="161"/>
-      <c r="X23" s="158" t="s">
+      <c r="W23" s="165"/>
+      <c r="X23" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="Y23" s="159"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="157"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="225"/>
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="226"/>
+      <c r="AC23" s="226"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="226"/>
+      <c r="AF23" s="227"/>
       <c r="AG23" s="106" t="s">
         <v>274</v>
       </c>
@@ -15277,21 +15762,21 @@
       <c r="AS23" s="111"/>
       <c r="AT23" s="111"/>
       <c r="AU23" s="110"/>
-      <c r="AV23" s="160" t="s">
+      <c r="AV23" s="164" t="s">
         <v>284</v>
       </c>
-      <c r="AW23" s="161"/>
-      <c r="AX23" s="158" t="s">
+      <c r="AW23" s="165"/>
+      <c r="AX23" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AY23" s="159"/>
-      <c r="AZ23" s="155"/>
-      <c r="BA23" s="156"/>
-      <c r="BB23" s="156"/>
-      <c r="BC23" s="156"/>
-      <c r="BD23" s="156"/>
-      <c r="BE23" s="156"/>
-      <c r="BF23" s="156"/>
+      <c r="AY23" s="167"/>
+      <c r="AZ23" s="225"/>
+      <c r="BA23" s="226"/>
+      <c r="BB23" s="226"/>
+      <c r="BC23" s="226"/>
+      <c r="BD23" s="226"/>
+      <c r="BE23" s="226"/>
+      <c r="BF23" s="226"/>
       <c r="BG23" s="103"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -15326,19 +15811,19 @@
       <c r="U24" s="111"/>
       <c r="V24" s="111"/>
       <c r="W24" s="110"/>
-      <c r="X24" s="160" t="s">
+      <c r="X24" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="158" t="s">
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AA24" s="159"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="157"/>
+      <c r="AA24" s="167"/>
+      <c r="AB24" s="225"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="226"/>
+      <c r="AF24" s="227"/>
       <c r="AG24" s="106" t="s">
         <v>274</v>
       </c>
@@ -15360,19 +15845,19 @@
       <c r="AU24" s="111"/>
       <c r="AV24" s="111"/>
       <c r="AW24" s="110"/>
-      <c r="AX24" s="160" t="s">
+      <c r="AX24" s="164" t="s">
         <v>285</v>
       </c>
-      <c r="AY24" s="161"/>
-      <c r="AZ24" s="158" t="s">
+      <c r="AY24" s="165"/>
+      <c r="AZ24" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="BA24" s="159"/>
-      <c r="BB24" s="155"/>
-      <c r="BC24" s="156"/>
-      <c r="BD24" s="156"/>
-      <c r="BE24" s="156"/>
-      <c r="BF24" s="156"/>
+      <c r="BA24" s="167"/>
+      <c r="BB24" s="225"/>
+      <c r="BC24" s="226"/>
+      <c r="BD24" s="226"/>
+      <c r="BE24" s="226"/>
+      <c r="BF24" s="226"/>
       <c r="BG24" s="103"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -15412,14 +15897,14 @@
       <c r="Z25" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="158" t="s">
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AC25" s="159"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="157"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="225"/>
+      <c r="AE25" s="226"/>
+      <c r="AF25" s="227"/>
       <c r="AG25" s="106" t="s">
         <v>274</v>
       </c>
@@ -15446,14 +15931,14 @@
       <c r="AZ25" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="BA25" s="163"/>
-      <c r="BB25" s="158" t="s">
+      <c r="BA25" s="171"/>
+      <c r="BB25" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="BC25" s="159"/>
-      <c r="BD25" s="155"/>
-      <c r="BE25" s="156"/>
-      <c r="BF25" s="156"/>
+      <c r="BC25" s="167"/>
+      <c r="BD25" s="225"/>
+      <c r="BE25" s="226"/>
+      <c r="BF25" s="226"/>
       <c r="BG25" s="103"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -15711,29 +16196,29 @@
         <v>318</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="205" t="s">
+      <c r="E30" s="168" t="s">
         <v>273</v>
       </c>
-      <c r="F30" s="206"/>
+      <c r="F30" s="169"/>
       <c r="G30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="205" t="s">
+      <c r="H30" s="168" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="206"/>
-      <c r="J30" s="205" t="s">
+      <c r="I30" s="169"/>
+      <c r="J30" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="206"/>
-      <c r="L30" s="205" t="s">
+      <c r="K30" s="169"/>
+      <c r="L30" s="168" t="s">
         <v>281</v>
       </c>
-      <c r="M30" s="206"/>
-      <c r="N30" s="205" t="s">
+      <c r="M30" s="169"/>
+      <c r="N30" s="168" t="s">
         <v>282</v>
       </c>
-      <c r="O30" s="206"/>
+      <c r="O30" s="169"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>239</v>
@@ -15742,50 +16227,50 @@
         <v>239</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="205" t="s">
+      <c r="T30" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="206"/>
-      <c r="V30" s="205" t="s">
+      <c r="U30" s="169"/>
+      <c r="V30" s="168" t="s">
         <v>284</v>
       </c>
-      <c r="W30" s="206"/>
-      <c r="X30" s="205" t="s">
+      <c r="W30" s="169"/>
+      <c r="X30" s="168" t="s">
         <v>285</v>
       </c>
-      <c r="Y30" s="206"/>
-      <c r="Z30" s="205" t="s">
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="AA30" s="206"/>
-      <c r="AB30" s="179" t="s">
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="172" t="s">
         <v>297</v>
       </c>
-      <c r="AC30" s="180"/>
-      <c r="AD30" s="181"/>
-      <c r="AE30" s="205" t="s">
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="168" t="s">
         <v>273</v>
       </c>
-      <c r="AF30" s="206"/>
+      <c r="AF30" s="169"/>
       <c r="AG30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AH30" s="205" t="s">
+      <c r="AH30" s="168" t="s">
         <v>279</v>
       </c>
-      <c r="AI30" s="206"/>
-      <c r="AJ30" s="205" t="s">
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="AK30" s="206"/>
-      <c r="AL30" s="205" t="s">
+      <c r="AK30" s="169"/>
+      <c r="AL30" s="168" t="s">
         <v>281</v>
       </c>
-      <c r="AM30" s="206"/>
-      <c r="AN30" s="205" t="s">
+      <c r="AM30" s="169"/>
+      <c r="AN30" s="168" t="s">
         <v>282</v>
       </c>
-      <c r="AO30" s="206"/>
+      <c r="AO30" s="169"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>239</v>
@@ -15794,27 +16279,27 @@
         <v>239</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="205" t="s">
+      <c r="AT30" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="AU30" s="206"/>
-      <c r="AV30" s="205" t="s">
+      <c r="AU30" s="169"/>
+      <c r="AV30" s="168" t="s">
         <v>284</v>
       </c>
-      <c r="AW30" s="206"/>
-      <c r="AX30" s="205" t="s">
+      <c r="AW30" s="169"/>
+      <c r="AX30" s="168" t="s">
         <v>285</v>
       </c>
-      <c r="AY30" s="206"/>
-      <c r="AZ30" s="205" t="s">
+      <c r="AY30" s="169"/>
+      <c r="AZ30" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="BA30" s="206"/>
-      <c r="BB30" s="179" t="s">
+      <c r="BA30" s="169"/>
+      <c r="BB30" s="172" t="s">
         <v>297</v>
       </c>
-      <c r="BC30" s="180"/>
-      <c r="BD30" s="181"/>
+      <c r="BC30" s="173"/>
+      <c r="BD30" s="174"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -15826,10 +16311,10 @@
         <v>317</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="182" t="s">
+      <c r="E31" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="182"/>
+      <c r="F31" s="170"/>
       <c r="G31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15856,10 +16341,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="182" t="s">
+      <c r="AE31" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="AF31" s="182"/>
+      <c r="AF31" s="170"/>
       <c r="AG31" s="22" t="s">
         <v>324</v>
       </c>
@@ -15969,75 +16454,75 @@
       <c r="G33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="202" t="s">
+      <c r="H33" s="198" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="203"/>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="203"/>
-      <c r="R33" s="203"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="205" t="s">
+      <c r="I33" s="199"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="199"/>
+      <c r="N33" s="199"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="199"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="206"/>
-      <c r="V33" s="179" t="s">
+      <c r="U33" s="169"/>
+      <c r="V33" s="172" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="181"/>
-      <c r="X33" s="202" t="s">
+      <c r="W33" s="174"/>
+      <c r="X33" s="198" t="s">
         <v>319</v>
       </c>
-      <c r="Y33" s="203"/>
-      <c r="Z33" s="203"/>
-      <c r="AA33" s="203"/>
-      <c r="AB33" s="203"/>
-      <c r="AC33" s="203"/>
-      <c r="AD33" s="203"/>
-      <c r="AE33" s="204"/>
+      <c r="Y33" s="199"/>
+      <c r="Z33" s="199"/>
+      <c r="AA33" s="199"/>
+      <c r="AB33" s="199"/>
+      <c r="AC33" s="199"/>
+      <c r="AD33" s="199"/>
+      <c r="AE33" s="200"/>
       <c r="AF33" s="24" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="AH33" s="202" t="s">
+      <c r="AH33" s="198" t="s">
         <v>319</v>
       </c>
-      <c r="AI33" s="203"/>
-      <c r="AJ33" s="203"/>
-      <c r="AK33" s="203"/>
-      <c r="AL33" s="203"/>
-      <c r="AM33" s="203"/>
-      <c r="AN33" s="203"/>
-      <c r="AO33" s="203"/>
-      <c r="AP33" s="203"/>
-      <c r="AQ33" s="203"/>
-      <c r="AR33" s="203"/>
-      <c r="AS33" s="204"/>
-      <c r="AT33" s="205" t="s">
+      <c r="AI33" s="199"/>
+      <c r="AJ33" s="199"/>
+      <c r="AK33" s="199"/>
+      <c r="AL33" s="199"/>
+      <c r="AM33" s="199"/>
+      <c r="AN33" s="199"/>
+      <c r="AO33" s="199"/>
+      <c r="AP33" s="199"/>
+      <c r="AQ33" s="199"/>
+      <c r="AR33" s="199"/>
+      <c r="AS33" s="200"/>
+      <c r="AT33" s="168" t="s">
         <v>275</v>
       </c>
-      <c r="AU33" s="206"/>
-      <c r="AV33" s="179" t="s">
+      <c r="AU33" s="169"/>
+      <c r="AV33" s="172" t="s">
         <v>297</v>
       </c>
-      <c r="AW33" s="181"/>
-      <c r="AX33" s="202" t="s">
+      <c r="AW33" s="174"/>
+      <c r="AX33" s="198" t="s">
         <v>319</v>
       </c>
-      <c r="AY33" s="203"/>
-      <c r="AZ33" s="203"/>
-      <c r="BA33" s="203"/>
-      <c r="BB33" s="203"/>
-      <c r="BC33" s="203"/>
-      <c r="BD33" s="204"/>
+      <c r="AY33" s="199"/>
+      <c r="AZ33" s="199"/>
+      <c r="BA33" s="199"/>
+      <c r="BB33" s="199"/>
+      <c r="BC33" s="199"/>
+      <c r="BD33" s="200"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -16049,10 +16534,10 @@
         <v>317</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="170" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="182"/>
+      <c r="F34" s="170"/>
       <c r="G34" s="22" t="s">
         <v>321</v>
       </c>
@@ -16068,10 +16553,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="182" t="s">
+      <c r="T34" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="U34" s="182"/>
+      <c r="U34" s="170"/>
       <c r="V34" s="22" t="s">
         <v>325</v>
       </c>
@@ -16100,10 +16585,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="182" t="s">
+      <c r="AT34" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="AU34" s="182"/>
+      <c r="AU34" s="170"/>
       <c r="AV34" s="22" t="s">
         <v>320</v>
       </c>
@@ -16374,33 +16859,33 @@
         <v>326</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="197" t="s">
+      <c r="E39" s="201" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="198"/>
-      <c r="G39" s="200" t="s">
+      <c r="F39" s="202"/>
+      <c r="G39" s="203" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="201"/>
+      <c r="H39" s="204"/>
       <c r="I39" s="100" t="s">
         <v>319</v>
       </c>
       <c r="J39" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="K39" s="163"/>
+      <c r="K39" s="171"/>
       <c r="L39" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="M39" s="163"/>
+      <c r="M39" s="171"/>
       <c r="N39" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="O39" s="163"/>
+      <c r="O39" s="171"/>
       <c r="P39" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="Q39" s="163"/>
+      <c r="Q39" s="171"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103" t="s">
         <v>239</v>
@@ -16412,47 +16897,47 @@
       <c r="V39" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="W39" s="163"/>
+      <c r="W39" s="171"/>
       <c r="X39" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="Y39" s="163"/>
+      <c r="Y39" s="171"/>
       <c r="Z39" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="AA39" s="163"/>
+      <c r="AA39" s="171"/>
       <c r="AB39" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AC39" s="163"/>
-      <c r="AD39" s="158" t="s">
+      <c r="AC39" s="171"/>
+      <c r="AD39" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AE39" s="199"/>
-      <c r="AF39" s="159"/>
+      <c r="AE39" s="206"/>
+      <c r="AF39" s="167"/>
       <c r="AG39" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AH39" s="163"/>
+      <c r="AH39" s="171"/>
       <c r="AI39" s="112" t="s">
         <v>319</v>
       </c>
       <c r="AJ39" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AK39" s="163"/>
+      <c r="AK39" s="171"/>
       <c r="AL39" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="AM39" s="163"/>
+      <c r="AM39" s="171"/>
       <c r="AN39" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="AO39" s="163"/>
+      <c r="AO39" s="171"/>
       <c r="AP39" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AQ39" s="163"/>
+      <c r="AQ39" s="171"/>
       <c r="AR39" s="103"/>
       <c r="AS39" s="103" t="s">
         <v>239</v>
@@ -16481,14 +16966,14 @@
         <v>351</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175" t="s">
+      <c r="F40" s="205"/>
+      <c r="G40" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="H40" s="175"/>
+      <c r="H40" s="205"/>
       <c r="I40" s="113" t="s">
         <v>324</v>
       </c>
@@ -16515,10 +17000,10 @@
       <c r="AD40" s="103"/>
       <c r="AE40" s="103"/>
       <c r="AF40" s="103"/>
-      <c r="AG40" s="175" t="s">
+      <c r="AG40" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="AH40" s="175"/>
+      <c r="AH40" s="205"/>
       <c r="AI40" s="113" t="s">
         <v>328</v>
       </c>
@@ -16557,24 +17042,24 @@
       <c r="E41" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="F41" s="163"/>
+      <c r="F41" s="171"/>
       <c r="G41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="H41" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="I41" s="163"/>
+      <c r="I41" s="171"/>
       <c r="J41" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="K41" s="163"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="198"/>
-      <c r="N41" s="200" t="s">
+      <c r="K41" s="171"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="202"/>
+      <c r="N41" s="203" t="s">
         <v>282</v>
       </c>
-      <c r="O41" s="201"/>
+      <c r="O41" s="204"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="103" t="s">
         <v>239</v>
@@ -16586,47 +17071,47 @@
       <c r="T41" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="U41" s="163"/>
+      <c r="U41" s="171"/>
       <c r="V41" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="W41" s="163"/>
+      <c r="W41" s="171"/>
       <c r="X41" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="Y41" s="163"/>
+      <c r="Y41" s="171"/>
       <c r="Z41" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="AA41" s="163"/>
-      <c r="AB41" s="158" t="s">
+      <c r="AA41" s="171"/>
+      <c r="AB41" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AC41" s="199"/>
-      <c r="AD41" s="159"/>
+      <c r="AC41" s="206"/>
+      <c r="AD41" s="167"/>
       <c r="AE41" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="AF41" s="163"/>
+      <c r="AF41" s="171"/>
       <c r="AG41" s="100" t="s">
         <v>319</v>
       </c>
       <c r="AH41" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="AI41" s="163"/>
+      <c r="AI41" s="171"/>
       <c r="AJ41" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="AK41" s="163"/>
+      <c r="AK41" s="171"/>
       <c r="AL41" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="AM41" s="163"/>
+      <c r="AM41" s="171"/>
       <c r="AN41" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="AO41" s="163"/>
+      <c r="AO41" s="171"/>
       <c r="AP41" s="103"/>
       <c r="AQ41" s="103" t="s">
         <v>239</v>
@@ -16638,24 +17123,24 @@
       <c r="AT41" s="162" t="s">
         <v>283</v>
       </c>
-      <c r="AU41" s="163"/>
+      <c r="AU41" s="171"/>
       <c r="AV41" s="162" t="s">
         <v>284</v>
       </c>
-      <c r="AW41" s="163"/>
+      <c r="AW41" s="171"/>
       <c r="AX41" s="162" t="s">
         <v>285</v>
       </c>
-      <c r="AY41" s="163"/>
+      <c r="AY41" s="171"/>
       <c r="AZ41" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="BA41" s="163"/>
-      <c r="BB41" s="158" t="s">
+      <c r="BA41" s="171"/>
+      <c r="BB41" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="BC41" s="199"/>
-      <c r="BD41" s="159"/>
+      <c r="BC41" s="206"/>
+      <c r="BD41" s="167"/>
       <c r="BE41" s="103"/>
       <c r="BF41" s="103"/>
       <c r="BG41" s="103"/>
@@ -16667,10 +17152,10 @@
         <v>352</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="175" t="s">
+      <c r="E42" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="175"/>
+      <c r="F42" s="205"/>
       <c r="G42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16697,10 +17182,10 @@
       <c r="AB42" s="103"/>
       <c r="AC42" s="103"/>
       <c r="AD42" s="103"/>
-      <c r="AE42" s="175" t="s">
+      <c r="AE42" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="AF42" s="175"/>
+      <c r="AF42" s="205"/>
       <c r="AG42" s="113" t="s">
         <v>324</v>
       </c>
@@ -16810,75 +17295,75 @@
       <c r="G44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="H44" s="194" t="s">
+      <c r="H44" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="195"/>
-      <c r="O44" s="195"/>
-      <c r="P44" s="195"/>
-      <c r="Q44" s="195"/>
-      <c r="R44" s="195"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="197" t="s">
+      <c r="I44" s="213"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="213"/>
+      <c r="L44" s="213"/>
+      <c r="M44" s="213"/>
+      <c r="N44" s="213"/>
+      <c r="O44" s="213"/>
+      <c r="P44" s="213"/>
+      <c r="Q44" s="213"/>
+      <c r="R44" s="213"/>
+      <c r="S44" s="214"/>
+      <c r="T44" s="201" t="s">
         <v>275</v>
       </c>
-      <c r="U44" s="198"/>
-      <c r="V44" s="158" t="s">
+      <c r="U44" s="202"/>
+      <c r="V44" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="W44" s="159"/>
-      <c r="X44" s="194" t="s">
+      <c r="W44" s="167"/>
+      <c r="X44" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="Y44" s="195"/>
-      <c r="Z44" s="195"/>
-      <c r="AA44" s="195"/>
-      <c r="AB44" s="195"/>
-      <c r="AC44" s="195"/>
-      <c r="AD44" s="195"/>
-      <c r="AE44" s="196"/>
+      <c r="Y44" s="213"/>
+      <c r="Z44" s="213"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="213"/>
+      <c r="AC44" s="213"/>
+      <c r="AD44" s="213"/>
+      <c r="AE44" s="214"/>
       <c r="AF44" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH44" s="194" t="s">
+      <c r="AH44" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="AI44" s="195"/>
-      <c r="AJ44" s="195"/>
-      <c r="AK44" s="195"/>
-      <c r="AL44" s="195"/>
-      <c r="AM44" s="195"/>
-      <c r="AN44" s="195"/>
-      <c r="AO44" s="195"/>
-      <c r="AP44" s="195"/>
-      <c r="AQ44" s="195"/>
-      <c r="AR44" s="195"/>
-      <c r="AS44" s="196"/>
+      <c r="AI44" s="213"/>
+      <c r="AJ44" s="213"/>
+      <c r="AK44" s="213"/>
+      <c r="AL44" s="213"/>
+      <c r="AM44" s="213"/>
+      <c r="AN44" s="213"/>
+      <c r="AO44" s="213"/>
+      <c r="AP44" s="213"/>
+      <c r="AQ44" s="213"/>
+      <c r="AR44" s="213"/>
+      <c r="AS44" s="214"/>
       <c r="AT44" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="AU44" s="163"/>
-      <c r="AV44" s="158" t="s">
+      <c r="AU44" s="171"/>
+      <c r="AV44" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AW44" s="159"/>
-      <c r="AX44" s="194" t="s">
+      <c r="AW44" s="167"/>
+      <c r="AX44" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="AY44" s="195"/>
-      <c r="AZ44" s="195"/>
-      <c r="BA44" s="195"/>
-      <c r="BB44" s="195"/>
-      <c r="BC44" s="195"/>
-      <c r="BD44" s="196"/>
+      <c r="AY44" s="213"/>
+      <c r="AZ44" s="213"/>
+      <c r="BA44" s="213"/>
+      <c r="BB44" s="213"/>
+      <c r="BC44" s="213"/>
+      <c r="BD44" s="214"/>
       <c r="BE44" s="103"/>
       <c r="BF44" s="103"/>
       <c r="BG44" s="103"/>
@@ -16890,10 +17375,10 @@
         <v>352</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="175" t="s">
+      <c r="E45" s="205" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="175"/>
+      <c r="F45" s="205"/>
       <c r="G45" s="113" t="s">
         <v>321</v>
       </c>
@@ -16909,10 +17394,10 @@
       <c r="Q45" s="116"/>
       <c r="R45" s="116"/>
       <c r="S45" s="103"/>
-      <c r="T45" s="175" t="s">
+      <c r="T45" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="U45" s="175"/>
+      <c r="U45" s="205"/>
       <c r="V45" s="113" t="s">
         <v>325</v>
       </c>
@@ -16941,10 +17426,10 @@
       <c r="AQ45" s="116"/>
       <c r="AR45" s="116"/>
       <c r="AS45" s="103"/>
-      <c r="AT45" s="175" t="s">
+      <c r="AT45" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="AU45" s="175"/>
+      <c r="AU45" s="205"/>
       <c r="AV45" s="113" t="s">
         <v>320</v>
       </c>
@@ -16973,70 +17458,70 @@
       <c r="F46" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="194" t="s">
+      <c r="G46" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="195"/>
-      <c r="O46" s="195"/>
-      <c r="P46" s="195"/>
-      <c r="Q46" s="195"/>
-      <c r="R46" s="195"/>
-      <c r="S46" s="195"/>
-      <c r="T46" s="195"/>
-      <c r="U46" s="195"/>
-      <c r="V46" s="195"/>
-      <c r="W46" s="195"/>
-      <c r="X46" s="195"/>
-      <c r="Y46" s="195"/>
-      <c r="Z46" s="195"/>
-      <c r="AA46" s="195"/>
-      <c r="AB46" s="195"/>
-      <c r="AC46" s="195"/>
-      <c r="AD46" s="195"/>
-      <c r="AE46" s="196"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="213"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="213"/>
+      <c r="Q46" s="213"/>
+      <c r="R46" s="213"/>
+      <c r="S46" s="213"/>
+      <c r="T46" s="213"/>
+      <c r="U46" s="213"/>
+      <c r="V46" s="213"/>
+      <c r="W46" s="213"/>
+      <c r="X46" s="213"/>
+      <c r="Y46" s="213"/>
+      <c r="Z46" s="213"/>
+      <c r="AA46" s="213"/>
+      <c r="AB46" s="213"/>
+      <c r="AC46" s="213"/>
+      <c r="AD46" s="213"/>
+      <c r="AE46" s="214"/>
       <c r="AF46" s="115" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="AH46" s="194" t="s">
+      <c r="AH46" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="AI46" s="195"/>
-      <c r="AJ46" s="195"/>
-      <c r="AK46" s="195"/>
-      <c r="AL46" s="195"/>
-      <c r="AM46" s="195"/>
-      <c r="AN46" s="195"/>
-      <c r="AO46" s="195"/>
-      <c r="AP46" s="195"/>
-      <c r="AQ46" s="195"/>
-      <c r="AR46" s="195"/>
-      <c r="AS46" s="196"/>
+      <c r="AI46" s="213"/>
+      <c r="AJ46" s="213"/>
+      <c r="AK46" s="213"/>
+      <c r="AL46" s="213"/>
+      <c r="AM46" s="213"/>
+      <c r="AN46" s="213"/>
+      <c r="AO46" s="213"/>
+      <c r="AP46" s="213"/>
+      <c r="AQ46" s="213"/>
+      <c r="AR46" s="213"/>
+      <c r="AS46" s="214"/>
       <c r="AT46" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="AU46" s="163"/>
-      <c r="AV46" s="158" t="s">
+      <c r="AU46" s="171"/>
+      <c r="AV46" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="AW46" s="159"/>
-      <c r="AX46" s="194" t="s">
+      <c r="AW46" s="167"/>
+      <c r="AX46" s="212" t="s">
         <v>319</v>
       </c>
-      <c r="AY46" s="195"/>
-      <c r="AZ46" s="195"/>
-      <c r="BA46" s="195"/>
-      <c r="BB46" s="195"/>
-      <c r="BC46" s="195"/>
-      <c r="BD46" s="196"/>
+      <c r="AY46" s="213"/>
+      <c r="AZ46" s="213"/>
+      <c r="BA46" s="213"/>
+      <c r="BB46" s="213"/>
+      <c r="BC46" s="213"/>
+      <c r="BD46" s="214"/>
       <c r="BE46" s="103"/>
       <c r="BF46" s="103"/>
       <c r="BG46" s="103"/>
@@ -17093,10 +17578,10 @@
       <c r="AQ47" s="116"/>
       <c r="AR47" s="116"/>
       <c r="AS47" s="103"/>
-      <c r="AT47" s="175" t="s">
+      <c r="AT47" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="AU47" s="175"/>
+      <c r="AU47" s="205"/>
       <c r="AV47" s="113" t="s">
         <v>320</v>
       </c>
@@ -17487,20 +17972,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="165" t="s">
+      <c r="E54" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="166"/>
-      <c r="G54" s="166"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="165" t="s">
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="166"/>
-      <c r="N54" s="167"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="228"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -17621,20 +18106,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="168" t="s">
+      <c r="E56" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="168" t="s">
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="221"/>
+      <c r="J56" s="221"/>
+      <c r="K56" s="220"/>
+      <c r="L56" s="219" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="169"/>
-      <c r="N56" s="170"/>
+      <c r="M56" s="221"/>
+      <c r="N56" s="220"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -20106,68 +20591,68 @@
         <v>364</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="165" t="s">
+      <c r="E95" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="166"/>
-      <c r="G95" s="166"/>
-      <c r="H95" s="166"/>
-      <c r="I95" s="166"/>
-      <c r="J95" s="166"/>
-      <c r="K95" s="186"/>
-      <c r="L95" s="165" t="s">
+      <c r="F95" s="160"/>
+      <c r="G95" s="160"/>
+      <c r="H95" s="160"/>
+      <c r="I95" s="160"/>
+      <c r="J95" s="160"/>
+      <c r="K95" s="161"/>
+      <c r="L95" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="166"/>
-      <c r="N95" s="186"/>
-      <c r="O95" s="176" t="s">
+      <c r="M95" s="160"/>
+      <c r="N95" s="161"/>
+      <c r="O95" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="P95" s="177"/>
-      <c r="Q95" s="177"/>
-      <c r="R95" s="177"/>
-      <c r="S95" s="177"/>
-      <c r="T95" s="178"/>
-      <c r="U95" s="176" t="s">
+      <c r="P95" s="196"/>
+      <c r="Q95" s="196"/>
+      <c r="R95" s="196"/>
+      <c r="S95" s="196"/>
+      <c r="T95" s="197"/>
+      <c r="U95" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="V95" s="177"/>
-      <c r="W95" s="177"/>
-      <c r="X95" s="177"/>
-      <c r="Y95" s="177"/>
-      <c r="Z95" s="177"/>
-      <c r="AA95" s="177"/>
-      <c r="AB95" s="178"/>
-      <c r="AC95" s="176" t="s">
+      <c r="V95" s="196"/>
+      <c r="W95" s="196"/>
+      <c r="X95" s="196"/>
+      <c r="Y95" s="196"/>
+      <c r="Z95" s="196"/>
+      <c r="AA95" s="196"/>
+      <c r="AB95" s="197"/>
+      <c r="AC95" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="AD95" s="177"/>
-      <c r="AE95" s="177"/>
-      <c r="AF95" s="177"/>
-      <c r="AG95" s="177"/>
-      <c r="AH95" s="177"/>
-      <c r="AI95" s="177"/>
-      <c r="AJ95" s="178"/>
-      <c r="AK95" s="176" t="s">
+      <c r="AD95" s="196"/>
+      <c r="AE95" s="196"/>
+      <c r="AF95" s="196"/>
+      <c r="AG95" s="196"/>
+      <c r="AH95" s="196"/>
+      <c r="AI95" s="196"/>
+      <c r="AJ95" s="197"/>
+      <c r="AK95" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="AL95" s="177"/>
-      <c r="AM95" s="177"/>
-      <c r="AN95" s="177"/>
-      <c r="AO95" s="177"/>
-      <c r="AP95" s="177"/>
-      <c r="AQ95" s="177"/>
-      <c r="AR95" s="178"/>
-      <c r="AS95" s="221" t="s">
+      <c r="AL95" s="196"/>
+      <c r="AM95" s="196"/>
+      <c r="AN95" s="196"/>
+      <c r="AO95" s="196"/>
+      <c r="AP95" s="196"/>
+      <c r="AQ95" s="196"/>
+      <c r="AR95" s="197"/>
+      <c r="AS95" s="192" t="s">
         <v>356</v>
       </c>
-      <c r="AT95" s="222"/>
-      <c r="AU95" s="222"/>
-      <c r="AV95" s="222"/>
-      <c r="AW95" s="222"/>
-      <c r="AX95" s="222"/>
-      <c r="AY95" s="222"/>
-      <c r="AZ95" s="223"/>
+      <c r="AT95" s="193"/>
+      <c r="AU95" s="193"/>
+      <c r="AV95" s="193"/>
+      <c r="AW95" s="193"/>
+      <c r="AX95" s="193"/>
+      <c r="AY95" s="193"/>
+      <c r="AZ95" s="194"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -20272,68 +20757,68 @@
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="168" t="s">
+      <c r="E97" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="169"/>
-      <c r="G97" s="169"/>
-      <c r="H97" s="169"/>
-      <c r="I97" s="169"/>
-      <c r="J97" s="169"/>
-      <c r="K97" s="170"/>
-      <c r="L97" s="168" t="s">
+      <c r="F97" s="221"/>
+      <c r="G97" s="221"/>
+      <c r="H97" s="221"/>
+      <c r="I97" s="221"/>
+      <c r="J97" s="221"/>
+      <c r="K97" s="220"/>
+      <c r="L97" s="219" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="169"/>
-      <c r="N97" s="169"/>
-      <c r="O97" s="168" t="s">
+      <c r="M97" s="221"/>
+      <c r="N97" s="221"/>
+      <c r="O97" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="P97" s="169"/>
-      <c r="Q97" s="169"/>
-      <c r="R97" s="169"/>
-      <c r="S97" s="169"/>
-      <c r="T97" s="170"/>
-      <c r="U97" s="168" t="s">
+      <c r="P97" s="221"/>
+      <c r="Q97" s="221"/>
+      <c r="R97" s="221"/>
+      <c r="S97" s="221"/>
+      <c r="T97" s="220"/>
+      <c r="U97" s="219" t="s">
         <v>229</v>
       </c>
-      <c r="V97" s="169"/>
-      <c r="W97" s="169"/>
-      <c r="X97" s="169"/>
-      <c r="Y97" s="169"/>
-      <c r="Z97" s="169"/>
-      <c r="AA97" s="169"/>
-      <c r="AB97" s="170"/>
-      <c r="AC97" s="168" t="s">
+      <c r="V97" s="221"/>
+      <c r="W97" s="221"/>
+      <c r="X97" s="221"/>
+      <c r="Y97" s="221"/>
+      <c r="Z97" s="221"/>
+      <c r="AA97" s="221"/>
+      <c r="AB97" s="220"/>
+      <c r="AC97" s="219" t="s">
         <v>229</v>
       </c>
-      <c r="AD97" s="169"/>
-      <c r="AE97" s="169"/>
-      <c r="AF97" s="169"/>
-      <c r="AG97" s="169"/>
-      <c r="AH97" s="169"/>
-      <c r="AI97" s="169"/>
-      <c r="AJ97" s="170"/>
-      <c r="AK97" s="168" t="s">
+      <c r="AD97" s="221"/>
+      <c r="AE97" s="221"/>
+      <c r="AF97" s="221"/>
+      <c r="AG97" s="221"/>
+      <c r="AH97" s="221"/>
+      <c r="AI97" s="221"/>
+      <c r="AJ97" s="220"/>
+      <c r="AK97" s="219" t="s">
         <v>229</v>
       </c>
-      <c r="AL97" s="169"/>
-      <c r="AM97" s="169"/>
-      <c r="AN97" s="169"/>
-      <c r="AO97" s="169"/>
-      <c r="AP97" s="169"/>
-      <c r="AQ97" s="169"/>
-      <c r="AR97" s="170"/>
-      <c r="AS97" s="169" t="s">
+      <c r="AL97" s="221"/>
+      <c r="AM97" s="221"/>
+      <c r="AN97" s="221"/>
+      <c r="AO97" s="221"/>
+      <c r="AP97" s="221"/>
+      <c r="AQ97" s="221"/>
+      <c r="AR97" s="220"/>
+      <c r="AS97" s="221" t="s">
         <v>229</v>
       </c>
-      <c r="AT97" s="169"/>
-      <c r="AU97" s="169"/>
-      <c r="AV97" s="169"/>
-      <c r="AW97" s="169"/>
-      <c r="AX97" s="169"/>
-      <c r="AY97" s="169"/>
-      <c r="AZ97" s="170"/>
+      <c r="AT97" s="221"/>
+      <c r="AU97" s="221"/>
+      <c r="AV97" s="221"/>
+      <c r="AW97" s="221"/>
+      <c r="AX97" s="221"/>
+      <c r="AY97" s="221"/>
+      <c r="AZ97" s="220"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -20408,68 +20893,68 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="218" t="s">
+      <c r="E99" s="186" t="s">
         <v>402</v>
       </c>
-      <c r="F99" s="219"/>
-      <c r="G99" s="219"/>
-      <c r="H99" s="219"/>
-      <c r="I99" s="219"/>
-      <c r="J99" s="219"/>
-      <c r="K99" s="220"/>
-      <c r="L99" s="171" t="s">
+      <c r="F99" s="187"/>
+      <c r="G99" s="187"/>
+      <c r="H99" s="187"/>
+      <c r="I99" s="187"/>
+      <c r="J99" s="187"/>
+      <c r="K99" s="188"/>
+      <c r="L99" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="M99" s="172"/>
-      <c r="N99" s="173"/>
-      <c r="O99" s="215" t="s">
+      <c r="M99" s="190"/>
+      <c r="N99" s="191"/>
+      <c r="O99" s="183" t="s">
         <v>235</v>
       </c>
-      <c r="P99" s="216"/>
-      <c r="Q99" s="216"/>
-      <c r="R99" s="216"/>
-      <c r="S99" s="216"/>
-      <c r="T99" s="217"/>
-      <c r="U99" s="215" t="s">
+      <c r="P99" s="184"/>
+      <c r="Q99" s="184"/>
+      <c r="R99" s="184"/>
+      <c r="S99" s="184"/>
+      <c r="T99" s="185"/>
+      <c r="U99" s="183" t="s">
         <v>235</v>
       </c>
-      <c r="V99" s="216"/>
-      <c r="W99" s="216"/>
-      <c r="X99" s="216"/>
-      <c r="Y99" s="216"/>
-      <c r="Z99" s="216"/>
-      <c r="AA99" s="216"/>
-      <c r="AB99" s="217"/>
-      <c r="AC99" s="215" t="s">
+      <c r="V99" s="184"/>
+      <c r="W99" s="184"/>
+      <c r="X99" s="184"/>
+      <c r="Y99" s="184"/>
+      <c r="Z99" s="184"/>
+      <c r="AA99" s="184"/>
+      <c r="AB99" s="185"/>
+      <c r="AC99" s="183" t="s">
         <v>235</v>
       </c>
-      <c r="AD99" s="216"/>
-      <c r="AE99" s="216"/>
-      <c r="AF99" s="216"/>
-      <c r="AG99" s="216"/>
-      <c r="AH99" s="216"/>
-      <c r="AI99" s="216"/>
-      <c r="AJ99" s="217"/>
-      <c r="AK99" s="215" t="s">
+      <c r="AD99" s="184"/>
+      <c r="AE99" s="184"/>
+      <c r="AF99" s="184"/>
+      <c r="AG99" s="184"/>
+      <c r="AH99" s="184"/>
+      <c r="AI99" s="184"/>
+      <c r="AJ99" s="185"/>
+      <c r="AK99" s="183" t="s">
         <v>235</v>
       </c>
-      <c r="AL99" s="216"/>
-      <c r="AM99" s="216"/>
-      <c r="AN99" s="216"/>
-      <c r="AO99" s="216"/>
-      <c r="AP99" s="216"/>
-      <c r="AQ99" s="216"/>
-      <c r="AR99" s="217"/>
-      <c r="AS99" s="215" t="s">
+      <c r="AL99" s="184"/>
+      <c r="AM99" s="184"/>
+      <c r="AN99" s="184"/>
+      <c r="AO99" s="184"/>
+      <c r="AP99" s="184"/>
+      <c r="AQ99" s="184"/>
+      <c r="AR99" s="185"/>
+      <c r="AS99" s="183" t="s">
         <v>301</v>
       </c>
-      <c r="AT99" s="216"/>
-      <c r="AU99" s="216"/>
-      <c r="AV99" s="216"/>
-      <c r="AW99" s="216"/>
-      <c r="AX99" s="216"/>
-      <c r="AY99" s="216"/>
-      <c r="AZ99" s="217"/>
+      <c r="AT99" s="184"/>
+      <c r="AU99" s="184"/>
+      <c r="AV99" s="184"/>
+      <c r="AW99" s="184"/>
+      <c r="AX99" s="184"/>
+      <c r="AY99" s="184"/>
+      <c r="AZ99" s="185"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -20611,68 +21096,68 @@
         <v>367</v>
       </c>
       <c r="D102" s="42"/>
-      <c r="E102" s="165" t="s">
+      <c r="E102" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="F102" s="166"/>
-      <c r="G102" s="166"/>
-      <c r="H102" s="166"/>
-      <c r="I102" s="166"/>
-      <c r="J102" s="166"/>
-      <c r="K102" s="186"/>
-      <c r="L102" s="165" t="s">
+      <c r="F102" s="160"/>
+      <c r="G102" s="160"/>
+      <c r="H102" s="160"/>
+      <c r="I102" s="160"/>
+      <c r="J102" s="160"/>
+      <c r="K102" s="161"/>
+      <c r="L102" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="M102" s="166"/>
-      <c r="N102" s="186"/>
-      <c r="O102" s="165" t="s">
+      <c r="M102" s="160"/>
+      <c r="N102" s="161"/>
+      <c r="O102" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="P102" s="166"/>
-      <c r="Q102" s="166"/>
-      <c r="R102" s="186"/>
-      <c r="S102" s="165" t="s">
+      <c r="P102" s="160"/>
+      <c r="Q102" s="160"/>
+      <c r="R102" s="161"/>
+      <c r="S102" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="T102" s="166"/>
-      <c r="U102" s="166"/>
-      <c r="V102" s="166"/>
-      <c r="W102" s="166"/>
-      <c r="X102" s="166"/>
-      <c r="Y102" s="166"/>
-      <c r="Z102" s="166"/>
-      <c r="AA102" s="166"/>
-      <c r="AB102" s="166"/>
-      <c r="AC102" s="166"/>
-      <c r="AD102" s="186"/>
-      <c r="AE102" s="165" t="s">
+      <c r="T102" s="160"/>
+      <c r="U102" s="160"/>
+      <c r="V102" s="160"/>
+      <c r="W102" s="160"/>
+      <c r="X102" s="160"/>
+      <c r="Y102" s="160"/>
+      <c r="Z102" s="160"/>
+      <c r="AA102" s="160"/>
+      <c r="AB102" s="160"/>
+      <c r="AC102" s="160"/>
+      <c r="AD102" s="161"/>
+      <c r="AE102" s="159" t="s">
         <v>307</v>
       </c>
-      <c r="AF102" s="166"/>
-      <c r="AG102" s="166"/>
-      <c r="AH102" s="166"/>
-      <c r="AI102" s="166"/>
-      <c r="AJ102" s="166"/>
-      <c r="AK102" s="166"/>
-      <c r="AL102" s="166"/>
-      <c r="AM102" s="166"/>
-      <c r="AN102" s="166"/>
-      <c r="AO102" s="166"/>
-      <c r="AP102" s="186"/>
-      <c r="AQ102" s="165" t="s">
+      <c r="AF102" s="160"/>
+      <c r="AG102" s="160"/>
+      <c r="AH102" s="160"/>
+      <c r="AI102" s="160"/>
+      <c r="AJ102" s="160"/>
+      <c r="AK102" s="160"/>
+      <c r="AL102" s="160"/>
+      <c r="AM102" s="160"/>
+      <c r="AN102" s="160"/>
+      <c r="AO102" s="160"/>
+      <c r="AP102" s="161"/>
+      <c r="AQ102" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="AR102" s="186"/>
-      <c r="AS102" s="165" t="s">
+      <c r="AR102" s="161"/>
+      <c r="AS102" s="159" t="s">
         <v>234</v>
       </c>
-      <c r="AT102" s="166"/>
-      <c r="AU102" s="166"/>
-      <c r="AV102" s="166"/>
-      <c r="AW102" s="166"/>
-      <c r="AX102" s="166"/>
-      <c r="AY102" s="166"/>
-      <c r="AZ102" s="186"/>
+      <c r="AT102" s="160"/>
+      <c r="AU102" s="160"/>
+      <c r="AV102" s="160"/>
+      <c r="AW102" s="160"/>
+      <c r="AX102" s="160"/>
+      <c r="AY102" s="160"/>
+      <c r="AZ102" s="161"/>
       <c r="BA102" s="42"/>
       <c r="BB102" s="42"/>
       <c r="BC102" s="42"/>
@@ -20775,68 +21260,68 @@
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="168" t="s">
+      <c r="E104" s="219" t="s">
         <v>225</v>
       </c>
-      <c r="F104" s="169"/>
-      <c r="G104" s="169"/>
-      <c r="H104" s="169"/>
-      <c r="I104" s="169"/>
-      <c r="J104" s="169"/>
-      <c r="K104" s="170"/>
-      <c r="L104" s="168" t="s">
+      <c r="F104" s="221"/>
+      <c r="G104" s="221"/>
+      <c r="H104" s="221"/>
+      <c r="I104" s="221"/>
+      <c r="J104" s="221"/>
+      <c r="K104" s="220"/>
+      <c r="L104" s="219" t="s">
         <v>226</v>
       </c>
-      <c r="M104" s="169"/>
-      <c r="N104" s="170"/>
-      <c r="O104" s="168" t="s">
+      <c r="M104" s="221"/>
+      <c r="N104" s="220"/>
+      <c r="O104" s="219" t="s">
         <v>227</v>
       </c>
-      <c r="P104" s="169"/>
-      <c r="Q104" s="169"/>
-      <c r="R104" s="170"/>
-      <c r="S104" s="168" t="s">
+      <c r="P104" s="221"/>
+      <c r="Q104" s="221"/>
+      <c r="R104" s="220"/>
+      <c r="S104" s="219" t="s">
         <v>228</v>
       </c>
-      <c r="T104" s="169"/>
-      <c r="U104" s="169"/>
-      <c r="V104" s="169"/>
-      <c r="W104" s="169"/>
-      <c r="X104" s="169"/>
-      <c r="Y104" s="169"/>
-      <c r="Z104" s="169"/>
-      <c r="AA104" s="169"/>
-      <c r="AB104" s="169"/>
-      <c r="AC104" s="169"/>
-      <c r="AD104" s="170"/>
-      <c r="AE104" s="168" t="s">
+      <c r="T104" s="221"/>
+      <c r="U104" s="221"/>
+      <c r="V104" s="221"/>
+      <c r="W104" s="221"/>
+      <c r="X104" s="221"/>
+      <c r="Y104" s="221"/>
+      <c r="Z104" s="221"/>
+      <c r="AA104" s="221"/>
+      <c r="AB104" s="221"/>
+      <c r="AC104" s="221"/>
+      <c r="AD104" s="220"/>
+      <c r="AE104" s="219" t="s">
         <v>228</v>
       </c>
-      <c r="AF104" s="169"/>
-      <c r="AG104" s="169"/>
-      <c r="AH104" s="169"/>
-      <c r="AI104" s="169"/>
-      <c r="AJ104" s="169"/>
-      <c r="AK104" s="169"/>
-      <c r="AL104" s="169"/>
-      <c r="AM104" s="169"/>
-      <c r="AN104" s="169"/>
-      <c r="AO104" s="169"/>
-      <c r="AP104" s="170"/>
-      <c r="AQ104" s="168" t="s">
+      <c r="AF104" s="221"/>
+      <c r="AG104" s="221"/>
+      <c r="AH104" s="221"/>
+      <c r="AI104" s="221"/>
+      <c r="AJ104" s="221"/>
+      <c r="AK104" s="221"/>
+      <c r="AL104" s="221"/>
+      <c r="AM104" s="221"/>
+      <c r="AN104" s="221"/>
+      <c r="AO104" s="221"/>
+      <c r="AP104" s="220"/>
+      <c r="AQ104" s="219" t="s">
         <v>230</v>
       </c>
-      <c r="AR104" s="170"/>
-      <c r="AS104" s="168" t="s">
+      <c r="AR104" s="220"/>
+      <c r="AS104" s="219" t="s">
         <v>229</v>
       </c>
-      <c r="AT104" s="169"/>
-      <c r="AU104" s="169"/>
-      <c r="AV104" s="169"/>
-      <c r="AW104" s="169"/>
-      <c r="AX104" s="169"/>
-      <c r="AY104" s="169"/>
-      <c r="AZ104" s="170"/>
+      <c r="AT104" s="221"/>
+      <c r="AU104" s="221"/>
+      <c r="AV104" s="221"/>
+      <c r="AW104" s="221"/>
+      <c r="AX104" s="221"/>
+      <c r="AY104" s="221"/>
+      <c r="AZ104" s="220"/>
       <c r="BA104" s="42"/>
       <c r="BB104" s="42"/>
       <c r="BC104" s="42"/>
@@ -20922,11 +21407,11 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
       <c r="K106" s="77"/>
-      <c r="L106" s="171" t="s">
+      <c r="L106" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="172"/>
-      <c r="N106" s="173"/>
+      <c r="M106" s="190"/>
+      <c r="N106" s="191"/>
       <c r="O106" s="53"/>
       <c r="P106" s="50"/>
       <c r="Q106" s="50"/>
@@ -20965,16 +21450,16 @@
       <c r="AR106" s="51">
         <v>0</v>
       </c>
-      <c r="AS106" s="224" t="s">
+      <c r="AS106" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="AT106" s="225"/>
-      <c r="AU106" s="225"/>
-      <c r="AV106" s="225"/>
-      <c r="AW106" s="225"/>
-      <c r="AX106" s="225"/>
-      <c r="AY106" s="225"/>
-      <c r="AZ106" s="226"/>
+      <c r="AT106" s="156"/>
+      <c r="AU106" s="156"/>
+      <c r="AV106" s="156"/>
+      <c r="AW106" s="156"/>
+      <c r="AX106" s="156"/>
+      <c r="AY106" s="156"/>
+      <c r="AZ106" s="157"/>
       <c r="BA106" s="50" t="s">
         <v>316</v>
       </c>
@@ -21040,16 +21525,16 @@
       <c r="AR107" s="51">
         <v>1</v>
       </c>
-      <c r="AS107" s="224" t="s">
+      <c r="AS107" s="155" t="s">
         <v>354</v>
       </c>
-      <c r="AT107" s="225"/>
-      <c r="AU107" s="225"/>
-      <c r="AV107" s="225"/>
-      <c r="AW107" s="225"/>
-      <c r="AX107" s="225"/>
-      <c r="AY107" s="225"/>
-      <c r="AZ107" s="226"/>
+      <c r="AT107" s="156"/>
+      <c r="AU107" s="156"/>
+      <c r="AV107" s="156"/>
+      <c r="AW107" s="156"/>
+      <c r="AX107" s="156"/>
+      <c r="AY107" s="156"/>
+      <c r="AZ107" s="157"/>
       <c r="BA107" s="50" t="s">
         <v>298</v>
       </c>
@@ -21117,16 +21602,16 @@
       <c r="AR108" s="51">
         <v>0</v>
       </c>
-      <c r="AS108" s="224" t="s">
+      <c r="AS108" s="155" t="s">
         <v>353</v>
       </c>
-      <c r="AT108" s="225"/>
-      <c r="AU108" s="225"/>
-      <c r="AV108" s="225"/>
-      <c r="AW108" s="225"/>
-      <c r="AX108" s="225"/>
-      <c r="AY108" s="225"/>
-      <c r="AZ108" s="226"/>
+      <c r="AT108" s="156"/>
+      <c r="AU108" s="156"/>
+      <c r="AV108" s="156"/>
+      <c r="AW108" s="156"/>
+      <c r="AX108" s="156"/>
+      <c r="AY108" s="156"/>
+      <c r="AZ108" s="157"/>
       <c r="BA108" s="50" t="s">
         <v>265</v>
       </c>
@@ -21190,16 +21675,16 @@
       <c r="AR109" s="51">
         <v>1</v>
       </c>
-      <c r="AS109" s="224" t="s">
+      <c r="AS109" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="AT109" s="225"/>
-      <c r="AU109" s="225"/>
-      <c r="AV109" s="225"/>
-      <c r="AW109" s="225"/>
-      <c r="AX109" s="225"/>
-      <c r="AY109" s="225"/>
-      <c r="AZ109" s="226"/>
+      <c r="AT109" s="156"/>
+      <c r="AU109" s="156"/>
+      <c r="AV109" s="156"/>
+      <c r="AW109" s="156"/>
+      <c r="AX109" s="156"/>
+      <c r="AY109" s="156"/>
+      <c r="AZ109" s="157"/>
       <c r="BA109" s="50" t="s">
         <v>260</v>
       </c>
@@ -21355,12 +21840,12 @@
       <c r="L112" s="49"/>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
-      <c r="O112" s="212" t="s">
+      <c r="O112" s="180" t="s">
         <v>232</v>
       </c>
-      <c r="P112" s="213"/>
-      <c r="Q112" s="213"/>
-      <c r="R112" s="214"/>
+      <c r="P112" s="181"/>
+      <c r="Q112" s="181"/>
+      <c r="R112" s="182"/>
       <c r="S112" s="50"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
@@ -21385,20 +21870,20 @@
       <c r="AN112" s="50"/>
       <c r="AO112" s="50"/>
       <c r="AP112" s="50"/>
-      <c r="AQ112" s="207" t="s">
+      <c r="AQ112" s="175" t="s">
         <v>302</v>
       </c>
-      <c r="AR112" s="208"/>
-      <c r="AS112" s="209" t="s">
+      <c r="AR112" s="176"/>
+      <c r="AS112" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="AT112" s="210"/>
-      <c r="AU112" s="210"/>
-      <c r="AV112" s="210"/>
-      <c r="AW112" s="210"/>
-      <c r="AX112" s="210"/>
-      <c r="AY112" s="210"/>
-      <c r="AZ112" s="211"/>
+      <c r="AT112" s="178"/>
+      <c r="AU112" s="178"/>
+      <c r="AV112" s="178"/>
+      <c r="AW112" s="178"/>
+      <c r="AX112" s="178"/>
+      <c r="AY112" s="178"/>
+      <c r="AZ112" s="179"/>
       <c r="BA112" s="42"/>
       <c r="BB112" s="42"/>
       <c r="BC112" s="42"/>
@@ -22599,20 +23084,20 @@
       <c r="AN130" s="42"/>
       <c r="AO130" s="42"/>
       <c r="AP130" s="42"/>
-      <c r="AQ130" s="207" t="s">
+      <c r="AQ130" s="175" t="s">
         <v>304</v>
       </c>
-      <c r="AR130" s="208"/>
-      <c r="AS130" s="209" t="s">
+      <c r="AR130" s="176"/>
+      <c r="AS130" s="177" t="s">
         <v>355</v>
       </c>
-      <c r="AT130" s="210"/>
-      <c r="AU130" s="210"/>
-      <c r="AV130" s="210"/>
-      <c r="AW130" s="210"/>
-      <c r="AX130" s="210"/>
-      <c r="AY130" s="210"/>
-      <c r="AZ130" s="211"/>
+      <c r="AT130" s="178"/>
+      <c r="AU130" s="178"/>
+      <c r="AV130" s="178"/>
+      <c r="AW130" s="178"/>
+      <c r="AX130" s="178"/>
+      <c r="AY130" s="178"/>
+      <c r="AZ130" s="179"/>
       <c r="BA130" s="42"/>
       <c r="BB130" s="42"/>
       <c r="BC130" s="42"/>
@@ -22666,16 +23151,16 @@
       <c r="AP131" s="42"/>
       <c r="AQ131" s="42"/>
       <c r="AR131" s="42"/>
-      <c r="AS131" s="215" t="s">
+      <c r="AS131" s="183" t="s">
         <v>301</v>
       </c>
-      <c r="AT131" s="216"/>
-      <c r="AU131" s="216"/>
-      <c r="AV131" s="216"/>
-      <c r="AW131" s="216"/>
-      <c r="AX131" s="216"/>
-      <c r="AY131" s="216"/>
-      <c r="AZ131" s="217"/>
+      <c r="AT131" s="184"/>
+      <c r="AU131" s="184"/>
+      <c r="AV131" s="184"/>
+      <c r="AW131" s="184"/>
+      <c r="AX131" s="184"/>
+      <c r="AY131" s="184"/>
+      <c r="AZ131" s="185"/>
       <c r="BA131" s="42"/>
       <c r="BB131" s="42"/>
       <c r="BC131" s="42"/>
@@ -22788,20 +23273,20 @@
       <c r="AN133" s="42"/>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
-      <c r="AQ133" s="207" t="s">
+      <c r="AQ133" s="175" t="s">
         <v>303</v>
       </c>
-      <c r="AR133" s="208"/>
-      <c r="AS133" s="209" t="s">
+      <c r="AR133" s="176"/>
+      <c r="AS133" s="177" t="s">
         <v>305</v>
       </c>
-      <c r="AT133" s="210"/>
-      <c r="AU133" s="210"/>
-      <c r="AV133" s="210"/>
-      <c r="AW133" s="210"/>
-      <c r="AX133" s="210"/>
-      <c r="AY133" s="210"/>
-      <c r="AZ133" s="211"/>
+      <c r="AT133" s="178"/>
+      <c r="AU133" s="178"/>
+      <c r="AV133" s="178"/>
+      <c r="AW133" s="178"/>
+      <c r="AX133" s="178"/>
+      <c r="AY133" s="178"/>
+      <c r="AZ133" s="179"/>
       <c r="BA133" s="42"/>
       <c r="BB133" s="42"/>
       <c r="BC133" s="42"/>
@@ -25424,6 +25909,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="U95:AB95"/>
+    <mergeCell ref="O95:T95"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AQ104:AR104"/>
+    <mergeCell ref="AS104:AZ104"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="AS97:AZ97"/>
+    <mergeCell ref="AK97:AR97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="S104:AD104"/>
+    <mergeCell ref="AE104:AP104"/>
+    <mergeCell ref="AC97:AJ97"/>
+    <mergeCell ref="U97:AB97"/>
+    <mergeCell ref="O97:T97"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AQ112:AR112"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AQ133:AR133"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AS112:AZ112"/>
+    <mergeCell ref="O112:R112"/>
+    <mergeCell ref="AS130:AZ130"/>
+    <mergeCell ref="AS131:AZ131"/>
+    <mergeCell ref="AS133:AZ133"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="U99:AB99"/>
+    <mergeCell ref="AC99:AJ99"/>
+    <mergeCell ref="AK99:AR99"/>
+    <mergeCell ref="AS99:AZ99"/>
+    <mergeCell ref="O99:T99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AS95:AZ95"/>
+    <mergeCell ref="AK95:AR95"/>
+    <mergeCell ref="AC95:AJ95"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
     <mergeCell ref="AS109:AZ109"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="S102:AD102"/>
@@ -25448,193 +26120,6 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AQ112:AR112"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AQ133:AR133"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="AS112:AZ112"/>
-    <mergeCell ref="O112:R112"/>
-    <mergeCell ref="AS130:AZ130"/>
-    <mergeCell ref="AS131:AZ131"/>
-    <mergeCell ref="AS133:AZ133"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="U99:AB99"/>
-    <mergeCell ref="AC99:AJ99"/>
-    <mergeCell ref="AK99:AR99"/>
-    <mergeCell ref="AS99:AZ99"/>
-    <mergeCell ref="O99:T99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AS95:AZ95"/>
-    <mergeCell ref="AK95:AR95"/>
-    <mergeCell ref="AC95:AJ95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AQ104:AR104"/>
-    <mergeCell ref="AS104:AZ104"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="AS97:AZ97"/>
-    <mergeCell ref="AK97:AR97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="S104:AD104"/>
-    <mergeCell ref="AE104:AP104"/>
-    <mergeCell ref="AC97:AJ97"/>
-    <mergeCell ref="U97:AB97"/>
-    <mergeCell ref="O97:T97"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="U95:AB95"/>
-    <mergeCell ref="O95:T95"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Doc/Slot_EFR32x (version 1).xlsx
+++ b/Doc/Slot_EFR32x (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiLabs\Eval\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B4AB7-A28D-410D-B440-369330BE4ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7569C-917B-46C8-9FC2-E92B65336CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{FAB646C4-5574-4E39-84B4-67E265388564}"/>
   </bookViews>
@@ -1923,28 +1923,28 @@
     <t>RSSI / LQI</t>
   </si>
   <si>
-    <t>RSSI (MSB) &amp; LQI (LSB) / Non signed 8 bits (0-255/0xFF)</t>
-  </si>
-  <si>
-    <t>RSSI: 1 bit = 0.1 dBm / Offset = xx / [-xx… 20 dBm ] / OOR = [0xFFF]</t>
-  </si>
-  <si>
-    <t>LQI: 1 bit = N/A / Offset = 0 / [0… 255] / OOR = N/A</t>
-  </si>
-  <si>
     <t>CH=0x07</t>
   </si>
   <si>
     <t>TX_ERR / RX_ERR</t>
   </si>
   <si>
-    <t>TX_ERR rate (MSB) &amp; RX_ERR rate (LSB) / Non signed 8 bits (0-255/0xFF)</t>
-  </si>
-  <si>
-    <t>TX_ERR: 1 bit = 0.5% / Offset = 0% / [0 … 100%] / OOR = N/A</t>
-  </si>
-  <si>
-    <t>RX_ERR: 1 bit = 0.5% / Offset = 0% / [0 … 100%] / OOR = N/A</t>
+    <t>RSSI: 1 bit = 0.4 dBm / Offset = xx / [-xx… 20 dBm ] / OOR = N/A</t>
+  </si>
+  <si>
+    <t>TX_ERR rate (MSB) &amp; RX_ERR rate (LSB) / Non signed 6 bits (0-64/0x3F)</t>
+  </si>
+  <si>
+    <t>RSSI (MSB) &amp; LQI (LSB) / Non signed 6 bits (0-63/0x3F)</t>
+  </si>
+  <si>
+    <t>LQI: 1 bit = N/A / Offset = 0 / [0… 63] / OOR = N/A</t>
+  </si>
+  <si>
+    <t>TX_ERR: 1 bit = 0.01% / Offset = 0% / [0 … 0.62%] / OOR = [0x3F]</t>
+  </si>
+  <si>
+    <t>RX_ERR: 1 bit = 0.01% / Offset = 0% / [0 … 0.62%] / OOR = [0x3F]</t>
   </si>
 </sst>
 </file>
@@ -3029,35 +3029,42 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3065,7 +3072,16 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3077,19 +3093,49 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3101,31 +3147,55 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3146,108 +3216,38 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14375,8 +14375,8 @@
   </sheetPr>
   <dimension ref="A1:BG205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="AO168" sqref="AO168"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="AO162" sqref="AO162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14515,21 +14515,21 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
@@ -14637,45 +14637,45 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="223" t="s">
         <v>323</v>
       </c>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="178" t="s">
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="214" t="s">
         <v>261</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="178" t="s">
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="214" t="s">
         <v>268</v>
       </c>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="182" t="s">
+      <c r="Q5" s="215"/>
+      <c r="R5" s="216" t="s">
         <v>262</v>
       </c>
-      <c r="S5" s="183"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="178" t="s">
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="218"/>
+      <c r="X5" s="214" t="s">
         <v>263</v>
       </c>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="174" t="s">
+      <c r="Y5" s="215"/>
+      <c r="Z5" s="223" t="s">
         <v>322</v>
       </c>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="176"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="225"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
@@ -14710,45 +14710,45 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="168" t="s">
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168" t="s">
+      <c r="L6" s="226"/>
+      <c r="M6" s="226"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="226" t="s">
         <v>321</v>
       </c>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="158" t="s">
+      <c r="Q6" s="226"/>
+      <c r="R6" s="227" t="s">
         <v>264</v>
       </c>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158" t="s">
+      <c r="S6" s="227"/>
+      <c r="T6" s="227"/>
+      <c r="U6" s="227"/>
+      <c r="V6" s="227"/>
+      <c r="W6" s="227"/>
+      <c r="X6" s="227" t="s">
         <v>321</v>
       </c>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158" t="s">
+      <c r="Y6" s="227"/>
+      <c r="Z6" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
+      <c r="AA6" s="227"/>
+      <c r="AB6" s="227"/>
+      <c r="AC6" s="227"/>
+      <c r="AD6" s="227"/>
+      <c r="AE6" s="227"/>
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
@@ -14789,29 +14789,29 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="180" t="s">
+      <c r="K7" s="222" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180" t="s">
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222" t="s">
         <v>320</v>
       </c>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180" t="s">
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180" t="s">
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222" t="s">
         <v>320</v>
       </c>
-      <c r="Y7" s="180"/>
+      <c r="Y7" s="222"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -15244,10 +15244,10 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="210"/>
+      <c r="F14" s="187"/>
       <c r="G14" s="97"/>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
@@ -15272,10 +15272,10 @@
       <c r="AB14" s="101"/>
       <c r="AC14" s="101"/>
       <c r="AD14" s="101"/>
-      <c r="AE14" s="156" t="s">
+      <c r="AE14" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="AF14" s="210"/>
+      <c r="AF14" s="187"/>
       <c r="AG14" s="97"/>
       <c r="AH14" s="97"/>
       <c r="AI14" s="97"/>
@@ -15318,67 +15318,67 @@
       <c r="G15" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="188" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="155"/>
-      <c r="J15" s="152" t="s">
+      <c r="I15" s="189"/>
+      <c r="J15" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-      <c r="AB15" s="150"/>
-      <c r="AC15" s="150"/>
-      <c r="AD15" s="150"/>
-      <c r="AE15" s="150"/>
-      <c r="AF15" s="151"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="229"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
+      <c r="Q15" s="230"/>
+      <c r="R15" s="230"/>
+      <c r="S15" s="230"/>
+      <c r="T15" s="230"/>
+      <c r="U15" s="230"/>
+      <c r="V15" s="230"/>
+      <c r="W15" s="230"/>
+      <c r="X15" s="230"/>
+      <c r="Y15" s="230"/>
+      <c r="Z15" s="230"/>
+      <c r="AA15" s="230"/>
+      <c r="AB15" s="230"/>
+      <c r="AC15" s="230"/>
+      <c r="AD15" s="230"/>
+      <c r="AE15" s="230"/>
+      <c r="AF15" s="231"/>
       <c r="AG15" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="AH15" s="154" t="s">
+      <c r="AH15" s="188" t="s">
         <v>271</v>
       </c>
-      <c r="AI15" s="155"/>
-      <c r="AJ15" s="152" t="s">
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="150"/>
-      <c r="AO15" s="150"/>
-      <c r="AP15" s="150"/>
-      <c r="AQ15" s="150"/>
-      <c r="AR15" s="150"/>
-      <c r="AS15" s="150"/>
-      <c r="AT15" s="150"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="150"/>
-      <c r="AW15" s="150"/>
-      <c r="AX15" s="150"/>
-      <c r="AY15" s="150"/>
-      <c r="AZ15" s="150"/>
-      <c r="BA15" s="150"/>
-      <c r="BB15" s="150"/>
-      <c r="BC15" s="150"/>
-      <c r="BD15" s="150"/>
-      <c r="BE15" s="150"/>
-      <c r="BF15" s="150"/>
+      <c r="AK15" s="191"/>
+      <c r="AL15" s="229"/>
+      <c r="AM15" s="230"/>
+      <c r="AN15" s="230"/>
+      <c r="AO15" s="230"/>
+      <c r="AP15" s="230"/>
+      <c r="AQ15" s="230"/>
+      <c r="AR15" s="230"/>
+      <c r="AS15" s="230"/>
+      <c r="AT15" s="230"/>
+      <c r="AU15" s="230"/>
+      <c r="AV15" s="230"/>
+      <c r="AW15" s="230"/>
+      <c r="AX15" s="230"/>
+      <c r="AY15" s="230"/>
+      <c r="AZ15" s="230"/>
+      <c r="BA15" s="230"/>
+      <c r="BB15" s="230"/>
+      <c r="BC15" s="230"/>
+      <c r="BD15" s="230"/>
+      <c r="BE15" s="230"/>
+      <c r="BF15" s="230"/>
       <c r="BG15" s="96"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -15399,33 +15399,33 @@
         <v>279</v>
       </c>
       <c r="I16" s="103"/>
-      <c r="J16" s="154" t="s">
+      <c r="J16" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="K16" s="155"/>
-      <c r="L16" s="152" t="s">
+      <c r="K16" s="189"/>
+      <c r="L16" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="M16" s="153"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="151"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="229"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="230"/>
+      <c r="R16" s="230"/>
+      <c r="S16" s="230"/>
+      <c r="T16" s="230"/>
+      <c r="U16" s="230"/>
+      <c r="V16" s="230"/>
+      <c r="W16" s="230"/>
+      <c r="X16" s="230"/>
+      <c r="Y16" s="230"/>
+      <c r="Z16" s="230"/>
+      <c r="AA16" s="230"/>
+      <c r="AB16" s="230"/>
+      <c r="AC16" s="230"/>
+      <c r="AD16" s="230"/>
+      <c r="AE16" s="230"/>
+      <c r="AF16" s="231"/>
       <c r="AG16" s="99" t="s">
         <v>266</v>
       </c>
@@ -15433,33 +15433,33 @@
         <v>279</v>
       </c>
       <c r="AI16" s="103"/>
-      <c r="AJ16" s="154" t="s">
+      <c r="AJ16" s="188" t="s">
         <v>272</v>
       </c>
-      <c r="AK16" s="155"/>
-      <c r="AL16" s="152" t="s">
+      <c r="AK16" s="189"/>
+      <c r="AL16" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="149"/>
-      <c r="AO16" s="150"/>
-      <c r="AP16" s="150"/>
-      <c r="AQ16" s="150"/>
-      <c r="AR16" s="150"/>
-      <c r="AS16" s="150"/>
-      <c r="AT16" s="150"/>
-      <c r="AU16" s="150"/>
-      <c r="AV16" s="150"/>
-      <c r="AW16" s="150"/>
-      <c r="AX16" s="150"/>
-      <c r="AY16" s="150"/>
-      <c r="AZ16" s="150"/>
-      <c r="BA16" s="150"/>
-      <c r="BB16" s="150"/>
-      <c r="BC16" s="150"/>
-      <c r="BD16" s="150"/>
-      <c r="BE16" s="150"/>
-      <c r="BF16" s="150"/>
+      <c r="AM16" s="191"/>
+      <c r="AN16" s="229"/>
+      <c r="AO16" s="230"/>
+      <c r="AP16" s="230"/>
+      <c r="AQ16" s="230"/>
+      <c r="AR16" s="230"/>
+      <c r="AS16" s="230"/>
+      <c r="AT16" s="230"/>
+      <c r="AU16" s="230"/>
+      <c r="AV16" s="230"/>
+      <c r="AW16" s="230"/>
+      <c r="AX16" s="230"/>
+      <c r="AY16" s="230"/>
+      <c r="AZ16" s="230"/>
+      <c r="BA16" s="230"/>
+      <c r="BB16" s="230"/>
+      <c r="BC16" s="230"/>
+      <c r="BD16" s="230"/>
+      <c r="BE16" s="230"/>
+      <c r="BF16" s="230"/>
       <c r="BG16" s="96"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -15482,31 +15482,31 @@
       <c r="I17" s="104"/>
       <c r="J17" s="104"/>
       <c r="K17" s="103"/>
-      <c r="L17" s="154" t="s">
+      <c r="L17" s="188" t="s">
         <v>273</v>
       </c>
-      <c r="M17" s="155"/>
-      <c r="N17" s="152" t="s">
+      <c r="M17" s="189"/>
+      <c r="N17" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="O17" s="153"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="150"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="150"/>
-      <c r="X17" s="150"/>
-      <c r="Y17" s="150"/>
-      <c r="Z17" s="150"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="150"/>
-      <c r="AC17" s="150"/>
-      <c r="AD17" s="150"/>
-      <c r="AE17" s="150"/>
-      <c r="AF17" s="151"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="230"/>
+      <c r="R17" s="230"/>
+      <c r="S17" s="230"/>
+      <c r="T17" s="230"/>
+      <c r="U17" s="230"/>
+      <c r="V17" s="230"/>
+      <c r="W17" s="230"/>
+      <c r="X17" s="230"/>
+      <c r="Y17" s="230"/>
+      <c r="Z17" s="230"/>
+      <c r="AA17" s="230"/>
+      <c r="AB17" s="230"/>
+      <c r="AC17" s="230"/>
+      <c r="AD17" s="230"/>
+      <c r="AE17" s="230"/>
+      <c r="AF17" s="231"/>
       <c r="AG17" s="99" t="s">
         <v>266</v>
       </c>
@@ -15516,31 +15516,31 @@
       <c r="AI17" s="104"/>
       <c r="AJ17" s="104"/>
       <c r="AK17" s="103"/>
-      <c r="AL17" s="154" t="s">
+      <c r="AL17" s="188" t="s">
         <v>273</v>
       </c>
-      <c r="AM17" s="155"/>
-      <c r="AN17" s="152" t="s">
+      <c r="AM17" s="189"/>
+      <c r="AN17" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="149"/>
-      <c r="AQ17" s="150"/>
-      <c r="AR17" s="150"/>
-      <c r="AS17" s="150"/>
-      <c r="AT17" s="150"/>
-      <c r="AU17" s="150"/>
-      <c r="AV17" s="150"/>
-      <c r="AW17" s="150"/>
-      <c r="AX17" s="150"/>
-      <c r="AY17" s="150"/>
-      <c r="AZ17" s="150"/>
-      <c r="BA17" s="150"/>
-      <c r="BB17" s="150"/>
-      <c r="BC17" s="150"/>
-      <c r="BD17" s="150"/>
-      <c r="BE17" s="150"/>
-      <c r="BF17" s="150"/>
+      <c r="AO17" s="191"/>
+      <c r="AP17" s="229"/>
+      <c r="AQ17" s="230"/>
+      <c r="AR17" s="230"/>
+      <c r="AS17" s="230"/>
+      <c r="AT17" s="230"/>
+      <c r="AU17" s="230"/>
+      <c r="AV17" s="230"/>
+      <c r="AW17" s="230"/>
+      <c r="AX17" s="230"/>
+      <c r="AY17" s="230"/>
+      <c r="AZ17" s="230"/>
+      <c r="BA17" s="230"/>
+      <c r="BB17" s="230"/>
+      <c r="BC17" s="230"/>
+      <c r="BD17" s="230"/>
+      <c r="BE17" s="230"/>
+      <c r="BF17" s="230"/>
       <c r="BG17" s="96"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -15565,27 +15565,27 @@
       <c r="K18" s="104"/>
       <c r="L18" s="104"/>
       <c r="M18" s="103"/>
-      <c r="N18" s="156" t="s">
+      <c r="N18" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="O18" s="157"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="150"/>
-      <c r="AA18" s="150"/>
-      <c r="AB18" s="150"/>
-      <c r="AC18" s="150"/>
-      <c r="AD18" s="150"/>
-      <c r="AE18" s="150"/>
-      <c r="AF18" s="151"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="229"/>
+      <c r="Q18" s="230"/>
+      <c r="R18" s="230"/>
+      <c r="S18" s="230"/>
+      <c r="T18" s="230"/>
+      <c r="U18" s="230"/>
+      <c r="V18" s="230"/>
+      <c r="W18" s="230"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="230"/>
+      <c r="Z18" s="230"/>
+      <c r="AA18" s="230"/>
+      <c r="AB18" s="230"/>
+      <c r="AC18" s="230"/>
+      <c r="AD18" s="230"/>
+      <c r="AE18" s="230"/>
+      <c r="AF18" s="231"/>
       <c r="AG18" s="99" t="s">
         <v>266</v>
       </c>
@@ -15597,27 +15597,27 @@
       <c r="AK18" s="104"/>
       <c r="AL18" s="104"/>
       <c r="AM18" s="103"/>
-      <c r="AN18" s="156" t="s">
+      <c r="AN18" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="AO18" s="157"/>
-      <c r="AP18" s="149"/>
-      <c r="AQ18" s="150"/>
-      <c r="AR18" s="150"/>
-      <c r="AS18" s="150"/>
-      <c r="AT18" s="150"/>
-      <c r="AU18" s="150"/>
-      <c r="AV18" s="150"/>
-      <c r="AW18" s="150"/>
-      <c r="AX18" s="150"/>
-      <c r="AY18" s="150"/>
-      <c r="AZ18" s="150"/>
-      <c r="BA18" s="150"/>
-      <c r="BB18" s="150"/>
-      <c r="BC18" s="150"/>
-      <c r="BD18" s="150"/>
-      <c r="BE18" s="150"/>
-      <c r="BF18" s="150"/>
+      <c r="AO18" s="195"/>
+      <c r="AP18" s="229"/>
+      <c r="AQ18" s="230"/>
+      <c r="AR18" s="230"/>
+      <c r="AS18" s="230"/>
+      <c r="AT18" s="230"/>
+      <c r="AU18" s="230"/>
+      <c r="AV18" s="230"/>
+      <c r="AW18" s="230"/>
+      <c r="AX18" s="230"/>
+      <c r="AY18" s="230"/>
+      <c r="AZ18" s="230"/>
+      <c r="BA18" s="230"/>
+      <c r="BB18" s="230"/>
+      <c r="BC18" s="230"/>
+      <c r="BD18" s="230"/>
+      <c r="BE18" s="230"/>
+      <c r="BF18" s="230"/>
       <c r="BG18" s="96"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -15843,23 +15843,23 @@
       <c r="Q22" s="104"/>
       <c r="R22" s="104"/>
       <c r="S22" s="103"/>
-      <c r="T22" s="154" t="s">
+      <c r="T22" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="U22" s="155"/>
-      <c r="V22" s="152" t="s">
+      <c r="U22" s="189"/>
+      <c r="V22" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="W22" s="153"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="150"/>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="150"/>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="150"/>
-      <c r="AD22" s="150"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="151"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="229"/>
+      <c r="Y22" s="230"/>
+      <c r="Z22" s="230"/>
+      <c r="AA22" s="230"/>
+      <c r="AB22" s="230"/>
+      <c r="AC22" s="230"/>
+      <c r="AD22" s="230"/>
+      <c r="AE22" s="230"/>
+      <c r="AF22" s="231"/>
       <c r="AG22" s="99" t="s">
         <v>266</v>
       </c>
@@ -15877,23 +15877,23 @@
       <c r="AQ22" s="104"/>
       <c r="AR22" s="104"/>
       <c r="AS22" s="103"/>
-      <c r="AT22" s="154" t="s">
+      <c r="AT22" s="188" t="s">
         <v>275</v>
       </c>
-      <c r="AU22" s="155"/>
-      <c r="AV22" s="152" t="s">
+      <c r="AU22" s="189"/>
+      <c r="AV22" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AW22" s="153"/>
-      <c r="AX22" s="149"/>
-      <c r="AY22" s="150"/>
-      <c r="AZ22" s="150"/>
-      <c r="BA22" s="150"/>
-      <c r="BB22" s="150"/>
-      <c r="BC22" s="150"/>
-      <c r="BD22" s="150"/>
-      <c r="BE22" s="150"/>
-      <c r="BF22" s="150"/>
+      <c r="AW22" s="191"/>
+      <c r="AX22" s="229"/>
+      <c r="AY22" s="230"/>
+      <c r="AZ22" s="230"/>
+      <c r="BA22" s="230"/>
+      <c r="BB22" s="230"/>
+      <c r="BC22" s="230"/>
+      <c r="BD22" s="230"/>
+      <c r="BE22" s="230"/>
+      <c r="BF22" s="230"/>
       <c r="BG22" s="96"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -15926,21 +15926,21 @@
       <c r="S23" s="104"/>
       <c r="T23" s="104"/>
       <c r="U23" s="103"/>
-      <c r="V23" s="154" t="s">
+      <c r="V23" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="W23" s="155"/>
-      <c r="X23" s="152" t="s">
+      <c r="W23" s="189"/>
+      <c r="X23" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="150"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="151"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="229"/>
+      <c r="AA23" s="230"/>
+      <c r="AB23" s="230"/>
+      <c r="AC23" s="230"/>
+      <c r="AD23" s="230"/>
+      <c r="AE23" s="230"/>
+      <c r="AF23" s="231"/>
       <c r="AG23" s="99" t="s">
         <v>266</v>
       </c>
@@ -15960,21 +15960,21 @@
       <c r="AS23" s="104"/>
       <c r="AT23" s="104"/>
       <c r="AU23" s="103"/>
-      <c r="AV23" s="154" t="s">
+      <c r="AV23" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="AW23" s="155"/>
-      <c r="AX23" s="152" t="s">
+      <c r="AW23" s="189"/>
+      <c r="AX23" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="149"/>
-      <c r="BA23" s="150"/>
-      <c r="BB23" s="150"/>
-      <c r="BC23" s="150"/>
-      <c r="BD23" s="150"/>
-      <c r="BE23" s="150"/>
-      <c r="BF23" s="150"/>
+      <c r="AY23" s="191"/>
+      <c r="AZ23" s="229"/>
+      <c r="BA23" s="230"/>
+      <c r="BB23" s="230"/>
+      <c r="BC23" s="230"/>
+      <c r="BD23" s="230"/>
+      <c r="BE23" s="230"/>
+      <c r="BF23" s="230"/>
       <c r="BG23" s="96"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -16009,19 +16009,19 @@
       <c r="U24" s="104"/>
       <c r="V24" s="104"/>
       <c r="W24" s="103"/>
-      <c r="X24" s="154" t="s">
+      <c r="X24" s="188" t="s">
         <v>277</v>
       </c>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="152" t="s">
+      <c r="Y24" s="189"/>
+      <c r="Z24" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="150"/>
-      <c r="AD24" s="150"/>
-      <c r="AE24" s="150"/>
-      <c r="AF24" s="151"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="229"/>
+      <c r="AC24" s="230"/>
+      <c r="AD24" s="230"/>
+      <c r="AE24" s="230"/>
+      <c r="AF24" s="231"/>
       <c r="AG24" s="99" t="s">
         <v>266</v>
       </c>
@@ -16043,19 +16043,19 @@
       <c r="AU24" s="104"/>
       <c r="AV24" s="104"/>
       <c r="AW24" s="103"/>
-      <c r="AX24" s="154" t="s">
+      <c r="AX24" s="188" t="s">
         <v>277</v>
       </c>
-      <c r="AY24" s="155"/>
-      <c r="AZ24" s="152" t="s">
+      <c r="AY24" s="189"/>
+      <c r="AZ24" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="BA24" s="153"/>
-      <c r="BB24" s="149"/>
-      <c r="BC24" s="150"/>
-      <c r="BD24" s="150"/>
-      <c r="BE24" s="150"/>
-      <c r="BF24" s="150"/>
+      <c r="BA24" s="191"/>
+      <c r="BB24" s="229"/>
+      <c r="BC24" s="230"/>
+      <c r="BD24" s="230"/>
+      <c r="BE24" s="230"/>
+      <c r="BF24" s="230"/>
       <c r="BG24" s="96"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -16092,17 +16092,17 @@
       <c r="W25" s="104"/>
       <c r="X25" s="104"/>
       <c r="Y25" s="103"/>
-      <c r="Z25" s="156" t="s">
+      <c r="Z25" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="152" t="s">
+      <c r="AA25" s="195"/>
+      <c r="AB25" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="150"/>
-      <c r="AF25" s="151"/>
+      <c r="AC25" s="191"/>
+      <c r="AD25" s="229"/>
+      <c r="AE25" s="230"/>
+      <c r="AF25" s="231"/>
       <c r="AG25" s="99" t="s">
         <v>266</v>
       </c>
@@ -16126,17 +16126,17 @@
       <c r="AW25" s="104"/>
       <c r="AX25" s="104"/>
       <c r="AY25" s="103"/>
-      <c r="AZ25" s="156" t="s">
+      <c r="AZ25" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="152" t="s">
+      <c r="BA25" s="195"/>
+      <c r="BB25" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="BC25" s="153"/>
-      <c r="BD25" s="149"/>
-      <c r="BE25" s="150"/>
-      <c r="BF25" s="150"/>
+      <c r="BC25" s="191"/>
+      <c r="BD25" s="229"/>
+      <c r="BE25" s="230"/>
+      <c r="BF25" s="230"/>
       <c r="BG25" s="96"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -16394,29 +16394,29 @@
         <v>301</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="196" t="s">
+      <c r="E30" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="197"/>
+      <c r="F30" s="193"/>
       <c r="G30" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="H30" s="196" t="s">
+      <c r="H30" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="197"/>
-      <c r="J30" s="196" t="s">
+      <c r="I30" s="193"/>
+      <c r="J30" s="192" t="s">
         <v>272</v>
       </c>
-      <c r="K30" s="197"/>
-      <c r="L30" s="196" t="s">
+      <c r="K30" s="193"/>
+      <c r="L30" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="M30" s="197"/>
-      <c r="N30" s="196" t="s">
+      <c r="M30" s="193"/>
+      <c r="N30" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="O30" s="197"/>
+      <c r="O30" s="193"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7" t="s">
         <v>234</v>
@@ -16425,50 +16425,50 @@
         <v>234</v>
       </c>
       <c r="S30" s="7"/>
-      <c r="T30" s="196" t="s">
+      <c r="T30" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="U30" s="197"/>
-      <c r="V30" s="196" t="s">
+      <c r="U30" s="193"/>
+      <c r="V30" s="192" t="s">
         <v>276</v>
       </c>
-      <c r="W30" s="197"/>
-      <c r="X30" s="196" t="s">
+      <c r="W30" s="193"/>
+      <c r="X30" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="Y30" s="197"/>
-      <c r="Z30" s="196" t="s">
+      <c r="Y30" s="193"/>
+      <c r="Z30" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="AA30" s="197"/>
-      <c r="AB30" s="170" t="s">
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="196" t="s">
         <v>289</v>
       </c>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="172"/>
-      <c r="AE30" s="196" t="s">
+      <c r="AC30" s="197"/>
+      <c r="AD30" s="198"/>
+      <c r="AE30" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="AF30" s="197"/>
+      <c r="AF30" s="193"/>
       <c r="AG30" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="AH30" s="196" t="s">
+      <c r="AH30" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="AI30" s="197"/>
-      <c r="AJ30" s="196" t="s">
+      <c r="AI30" s="193"/>
+      <c r="AJ30" s="192" t="s">
         <v>272</v>
       </c>
-      <c r="AK30" s="197"/>
-      <c r="AL30" s="196" t="s">
+      <c r="AK30" s="193"/>
+      <c r="AL30" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="AM30" s="197"/>
-      <c r="AN30" s="196" t="s">
+      <c r="AM30" s="193"/>
+      <c r="AN30" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="AO30" s="197"/>
+      <c r="AO30" s="193"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7" t="s">
         <v>234</v>
@@ -16477,27 +16477,27 @@
         <v>234</v>
       </c>
       <c r="AS30" s="7"/>
-      <c r="AT30" s="196" t="s">
+      <c r="AT30" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="AU30" s="197"/>
-      <c r="AV30" s="196" t="s">
+      <c r="AU30" s="193"/>
+      <c r="AV30" s="192" t="s">
         <v>276</v>
       </c>
-      <c r="AW30" s="197"/>
-      <c r="AX30" s="196" t="s">
+      <c r="AW30" s="193"/>
+      <c r="AX30" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="AY30" s="197"/>
-      <c r="AZ30" s="196" t="s">
+      <c r="AY30" s="193"/>
+      <c r="AZ30" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="BA30" s="197"/>
-      <c r="BB30" s="170" t="s">
+      <c r="BA30" s="193"/>
+      <c r="BB30" s="196" t="s">
         <v>289</v>
       </c>
-      <c r="BC30" s="171"/>
-      <c r="BD30" s="172"/>
+      <c r="BC30" s="197"/>
+      <c r="BD30" s="198"/>
       <c r="BE30" s="7"/>
       <c r="BF30" s="7"/>
       <c r="BG30" s="7"/>
@@ -16509,10 +16509,10 @@
         <v>300</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="173" t="s">
+      <c r="E31" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="173"/>
+      <c r="F31" s="194"/>
       <c r="G31" s="22" t="s">
         <v>307</v>
       </c>
@@ -16539,10 +16539,10 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="173" t="s">
+      <c r="AE31" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="AF31" s="173"/>
+      <c r="AF31" s="194"/>
       <c r="AG31" s="22" t="s">
         <v>307</v>
       </c>
@@ -16652,75 +16652,75 @@
       <c r="G33" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="H33" s="193" t="s">
+      <c r="H33" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="194"/>
-      <c r="P33" s="194"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="196" t="s">
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
+      <c r="N33" s="206"/>
+      <c r="O33" s="206"/>
+      <c r="P33" s="206"/>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
+      <c r="S33" s="207"/>
+      <c r="T33" s="192" t="s">
         <v>267</v>
       </c>
-      <c r="U33" s="197"/>
-      <c r="V33" s="170" t="s">
+      <c r="U33" s="193"/>
+      <c r="V33" s="196" t="s">
         <v>289</v>
       </c>
-      <c r="W33" s="172"/>
-      <c r="X33" s="193" t="s">
+      <c r="W33" s="198"/>
+      <c r="X33" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="Y33" s="194"/>
-      <c r="Z33" s="194"/>
-      <c r="AA33" s="194"/>
-      <c r="AB33" s="194"/>
-      <c r="AC33" s="194"/>
-      <c r="AD33" s="194"/>
-      <c r="AE33" s="195"/>
+      <c r="Y33" s="206"/>
+      <c r="Z33" s="206"/>
+      <c r="AA33" s="206"/>
+      <c r="AB33" s="206"/>
+      <c r="AC33" s="206"/>
+      <c r="AD33" s="206"/>
+      <c r="AE33" s="207"/>
       <c r="AF33" s="24" t="s">
         <v>265</v>
       </c>
       <c r="AG33" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="AH33" s="193" t="s">
+      <c r="AH33" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="AI33" s="194"/>
-      <c r="AJ33" s="194"/>
-      <c r="AK33" s="194"/>
-      <c r="AL33" s="194"/>
-      <c r="AM33" s="194"/>
-      <c r="AN33" s="194"/>
-      <c r="AO33" s="194"/>
-      <c r="AP33" s="194"/>
-      <c r="AQ33" s="194"/>
-      <c r="AR33" s="194"/>
-      <c r="AS33" s="195"/>
-      <c r="AT33" s="196" t="s">
+      <c r="AI33" s="206"/>
+      <c r="AJ33" s="206"/>
+      <c r="AK33" s="206"/>
+      <c r="AL33" s="206"/>
+      <c r="AM33" s="206"/>
+      <c r="AN33" s="206"/>
+      <c r="AO33" s="206"/>
+      <c r="AP33" s="206"/>
+      <c r="AQ33" s="206"/>
+      <c r="AR33" s="206"/>
+      <c r="AS33" s="207"/>
+      <c r="AT33" s="192" t="s">
         <v>267</v>
       </c>
-      <c r="AU33" s="197"/>
-      <c r="AV33" s="170" t="s">
+      <c r="AU33" s="193"/>
+      <c r="AV33" s="196" t="s">
         <v>289</v>
       </c>
-      <c r="AW33" s="172"/>
-      <c r="AX33" s="193" t="s">
+      <c r="AW33" s="198"/>
+      <c r="AX33" s="205" t="s">
         <v>302</v>
       </c>
-      <c r="AY33" s="194"/>
-      <c r="AZ33" s="194"/>
-      <c r="BA33" s="194"/>
-      <c r="BB33" s="194"/>
-      <c r="BC33" s="194"/>
-      <c r="BD33" s="195"/>
+      <c r="AY33" s="206"/>
+      <c r="AZ33" s="206"/>
+      <c r="BA33" s="206"/>
+      <c r="BB33" s="206"/>
+      <c r="BC33" s="206"/>
+      <c r="BD33" s="207"/>
       <c r="BE33" s="7"/>
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
@@ -16732,10 +16732,10 @@
         <v>300</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="173" t="s">
+      <c r="E34" s="194" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="173"/>
+      <c r="F34" s="194"/>
       <c r="G34" s="22" t="s">
         <v>304</v>
       </c>
@@ -16751,10 +16751,10 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="173" t="s">
+      <c r="T34" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="U34" s="173"/>
+      <c r="U34" s="194"/>
       <c r="V34" s="22" t="s">
         <v>308</v>
       </c>
@@ -16783,10 +16783,10 @@
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="7"/>
-      <c r="AT34" s="173" t="s">
+      <c r="AT34" s="194" t="s">
         <v>306</v>
       </c>
-      <c r="AU34" s="173"/>
+      <c r="AU34" s="194"/>
       <c r="AV34" s="22" t="s">
         <v>303</v>
       </c>
@@ -17057,33 +17057,33 @@
         <v>309</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="188" t="s">
+      <c r="E39" s="208" t="s">
         <v>265</v>
       </c>
-      <c r="F39" s="189"/>
-      <c r="G39" s="191" t="s">
+      <c r="F39" s="209"/>
+      <c r="G39" s="210" t="s">
         <v>265</v>
       </c>
-      <c r="H39" s="192"/>
+      <c r="H39" s="211"/>
       <c r="I39" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="J39" s="156" t="s">
+      <c r="J39" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="K39" s="157"/>
-      <c r="L39" s="156" t="s">
+      <c r="K39" s="195"/>
+      <c r="L39" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="M39" s="157"/>
-      <c r="N39" s="156" t="s">
+      <c r="M39" s="195"/>
+      <c r="N39" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="O39" s="157"/>
-      <c r="P39" s="156" t="s">
+      <c r="O39" s="195"/>
+      <c r="P39" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="Q39" s="157"/>
+      <c r="Q39" s="195"/>
       <c r="R39" s="96"/>
       <c r="S39" s="96" t="s">
         <v>234</v>
@@ -17092,50 +17092,50 @@
         <v>234</v>
       </c>
       <c r="U39" s="96"/>
-      <c r="V39" s="156" t="s">
+      <c r="V39" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="W39" s="157"/>
-      <c r="X39" s="156" t="s">
+      <c r="W39" s="195"/>
+      <c r="X39" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="Y39" s="157"/>
-      <c r="Z39" s="156" t="s">
+      <c r="Y39" s="195"/>
+      <c r="Z39" s="186" t="s">
         <v>277</v>
       </c>
-      <c r="AA39" s="157"/>
-      <c r="AB39" s="156" t="s">
+      <c r="AA39" s="195"/>
+      <c r="AB39" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="AC39" s="157"/>
-      <c r="AD39" s="152" t="s">
+      <c r="AC39" s="195"/>
+      <c r="AD39" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AE39" s="190"/>
-      <c r="AF39" s="153"/>
-      <c r="AG39" s="156" t="s">
+      <c r="AE39" s="213"/>
+      <c r="AF39" s="191"/>
+      <c r="AG39" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="AH39" s="157"/>
+      <c r="AH39" s="195"/>
       <c r="AI39" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="AJ39" s="156" t="s">
+      <c r="AJ39" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="AK39" s="157"/>
-      <c r="AL39" s="156" t="s">
+      <c r="AK39" s="195"/>
+      <c r="AL39" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="AM39" s="157"/>
-      <c r="AN39" s="156" t="s">
+      <c r="AM39" s="195"/>
+      <c r="AN39" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="AO39" s="157"/>
-      <c r="AP39" s="156" t="s">
+      <c r="AO39" s="195"/>
+      <c r="AP39" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="AQ39" s="157"/>
+      <c r="AQ39" s="195"/>
       <c r="AR39" s="96"/>
       <c r="AS39" s="96" t="s">
         <v>234</v>
@@ -17164,14 +17164,14 @@
         <v>334</v>
       </c>
       <c r="D40" s="26"/>
-      <c r="E40" s="169" t="s">
+      <c r="E40" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169" t="s">
+      <c r="F40" s="212"/>
+      <c r="G40" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="H40" s="169"/>
+      <c r="H40" s="212"/>
       <c r="I40" s="106" t="s">
         <v>307</v>
       </c>
@@ -17198,10 +17198,10 @@
       <c r="AD40" s="96"/>
       <c r="AE40" s="96"/>
       <c r="AF40" s="96"/>
-      <c r="AG40" s="169" t="s">
+      <c r="AG40" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="AH40" s="169"/>
+      <c r="AH40" s="212"/>
       <c r="AI40" s="106" t="s">
         <v>311</v>
       </c>
@@ -17237,27 +17237,27 @@
         <v>310</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="156" t="s">
+      <c r="E41" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="F41" s="157"/>
+      <c r="F41" s="195"/>
       <c r="G41" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="H41" s="156" t="s">
+      <c r="H41" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="157"/>
-      <c r="J41" s="156" t="s">
+      <c r="I41" s="195"/>
+      <c r="J41" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="K41" s="157"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="191" t="s">
+      <c r="K41" s="195"/>
+      <c r="L41" s="208"/>
+      <c r="M41" s="209"/>
+      <c r="N41" s="210" t="s">
         <v>274</v>
       </c>
-      <c r="O41" s="192"/>
+      <c r="O41" s="211"/>
       <c r="P41" s="96"/>
       <c r="Q41" s="96" t="s">
         <v>234</v>
@@ -17266,50 +17266,50 @@
         <v>234</v>
       </c>
       <c r="S41" s="96"/>
-      <c r="T41" s="156" t="s">
+      <c r="T41" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="U41" s="157"/>
-      <c r="V41" s="156" t="s">
+      <c r="U41" s="195"/>
+      <c r="V41" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="156" t="s">
+      <c r="W41" s="195"/>
+      <c r="X41" s="186" t="s">
         <v>277</v>
       </c>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="156" t="s">
+      <c r="Y41" s="195"/>
+      <c r="Z41" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="AA41" s="157"/>
-      <c r="AB41" s="152" t="s">
+      <c r="AA41" s="195"/>
+      <c r="AB41" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AC41" s="190"/>
-      <c r="AD41" s="153"/>
-      <c r="AE41" s="156" t="s">
+      <c r="AC41" s="213"/>
+      <c r="AD41" s="191"/>
+      <c r="AE41" s="186" t="s">
         <v>265</v>
       </c>
-      <c r="AF41" s="157"/>
+      <c r="AF41" s="195"/>
       <c r="AG41" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="AH41" s="156" t="s">
+      <c r="AH41" s="186" t="s">
         <v>271</v>
       </c>
-      <c r="AI41" s="157"/>
-      <c r="AJ41" s="156" t="s">
+      <c r="AI41" s="195"/>
+      <c r="AJ41" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="AK41" s="157"/>
-      <c r="AL41" s="156" t="s">
+      <c r="AK41" s="195"/>
+      <c r="AL41" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="AM41" s="157"/>
-      <c r="AN41" s="156" t="s">
+      <c r="AM41" s="195"/>
+      <c r="AN41" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="AO41" s="157"/>
+      <c r="AO41" s="195"/>
       <c r="AP41" s="96"/>
       <c r="AQ41" s="96" t="s">
         <v>234</v>
@@ -17318,27 +17318,27 @@
         <v>234</v>
       </c>
       <c r="AS41" s="96"/>
-      <c r="AT41" s="156" t="s">
+      <c r="AT41" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="AU41" s="157"/>
-      <c r="AV41" s="156" t="s">
+      <c r="AU41" s="195"/>
+      <c r="AV41" s="186" t="s">
         <v>276</v>
       </c>
-      <c r="AW41" s="157"/>
-      <c r="AX41" s="156" t="s">
+      <c r="AW41" s="195"/>
+      <c r="AX41" s="186" t="s">
         <v>277</v>
       </c>
-      <c r="AY41" s="157"/>
-      <c r="AZ41" s="156" t="s">
+      <c r="AY41" s="195"/>
+      <c r="AZ41" s="186" t="s">
         <v>278</v>
       </c>
-      <c r="BA41" s="157"/>
-      <c r="BB41" s="152" t="s">
+      <c r="BA41" s="195"/>
+      <c r="BB41" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="BC41" s="190"/>
-      <c r="BD41" s="153"/>
+      <c r="BC41" s="213"/>
+      <c r="BD41" s="191"/>
       <c r="BE41" s="96"/>
       <c r="BF41" s="96"/>
       <c r="BG41" s="96"/>
@@ -17350,10 +17350,10 @@
         <v>335</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="169" t="s">
+      <c r="E42" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="F42" s="169"/>
+      <c r="F42" s="212"/>
       <c r="G42" s="106" t="s">
         <v>307</v>
       </c>
@@ -17380,10 +17380,10 @@
       <c r="AB42" s="96"/>
       <c r="AC42" s="96"/>
       <c r="AD42" s="96"/>
-      <c r="AE42" s="169" t="s">
+      <c r="AE42" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="AF42" s="169"/>
+      <c r="AF42" s="212"/>
       <c r="AG42" s="106" t="s">
         <v>307</v>
       </c>
@@ -17493,75 +17493,75 @@
       <c r="G44" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="185" t="s">
+      <c r="H44" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="186"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="186"/>
-      <c r="Q44" s="186"/>
-      <c r="R44" s="186"/>
-      <c r="S44" s="187"/>
-      <c r="T44" s="188" t="s">
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
+      <c r="K44" s="220"/>
+      <c r="L44" s="220"/>
+      <c r="M44" s="220"/>
+      <c r="N44" s="220"/>
+      <c r="O44" s="220"/>
+      <c r="P44" s="220"/>
+      <c r="Q44" s="220"/>
+      <c r="R44" s="220"/>
+      <c r="S44" s="221"/>
+      <c r="T44" s="208" t="s">
         <v>267</v>
       </c>
-      <c r="U44" s="189"/>
-      <c r="V44" s="152" t="s">
+      <c r="U44" s="209"/>
+      <c r="V44" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="W44" s="153"/>
-      <c r="X44" s="185" t="s">
+      <c r="W44" s="191"/>
+      <c r="X44" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" s="186"/>
-      <c r="Z44" s="186"/>
-      <c r="AA44" s="186"/>
-      <c r="AB44" s="186"/>
-      <c r="AC44" s="186"/>
-      <c r="AD44" s="186"/>
-      <c r="AE44" s="187"/>
+      <c r="Y44" s="220"/>
+      <c r="Z44" s="220"/>
+      <c r="AA44" s="220"/>
+      <c r="AB44" s="220"/>
+      <c r="AC44" s="220"/>
+      <c r="AD44" s="220"/>
+      <c r="AE44" s="221"/>
       <c r="AF44" s="108" t="s">
         <v>265</v>
       </c>
       <c r="AG44" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="AH44" s="185" t="s">
+      <c r="AH44" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="AI44" s="186"/>
-      <c r="AJ44" s="186"/>
-      <c r="AK44" s="186"/>
-      <c r="AL44" s="186"/>
-      <c r="AM44" s="186"/>
-      <c r="AN44" s="186"/>
-      <c r="AO44" s="186"/>
-      <c r="AP44" s="186"/>
-      <c r="AQ44" s="186"/>
-      <c r="AR44" s="186"/>
-      <c r="AS44" s="187"/>
-      <c r="AT44" s="156" t="s">
+      <c r="AI44" s="220"/>
+      <c r="AJ44" s="220"/>
+      <c r="AK44" s="220"/>
+      <c r="AL44" s="220"/>
+      <c r="AM44" s="220"/>
+      <c r="AN44" s="220"/>
+      <c r="AO44" s="220"/>
+      <c r="AP44" s="220"/>
+      <c r="AQ44" s="220"/>
+      <c r="AR44" s="220"/>
+      <c r="AS44" s="221"/>
+      <c r="AT44" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="AU44" s="157"/>
-      <c r="AV44" s="152" t="s">
+      <c r="AU44" s="195"/>
+      <c r="AV44" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AW44" s="153"/>
-      <c r="AX44" s="185" t="s">
+      <c r="AW44" s="191"/>
+      <c r="AX44" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="AY44" s="186"/>
-      <c r="AZ44" s="186"/>
-      <c r="BA44" s="186"/>
-      <c r="BB44" s="186"/>
-      <c r="BC44" s="186"/>
-      <c r="BD44" s="187"/>
+      <c r="AY44" s="220"/>
+      <c r="AZ44" s="220"/>
+      <c r="BA44" s="220"/>
+      <c r="BB44" s="220"/>
+      <c r="BC44" s="220"/>
+      <c r="BD44" s="221"/>
       <c r="BE44" s="96"/>
       <c r="BF44" s="96"/>
       <c r="BG44" s="96"/>
@@ -17573,10 +17573,10 @@
         <v>335</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="169" t="s">
+      <c r="E45" s="212" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="169"/>
+      <c r="F45" s="212"/>
       <c r="G45" s="106" t="s">
         <v>304</v>
       </c>
@@ -17592,10 +17592,10 @@
       <c r="Q45" s="109"/>
       <c r="R45" s="109"/>
       <c r="S45" s="96"/>
-      <c r="T45" s="169" t="s">
+      <c r="T45" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="U45" s="169"/>
+      <c r="U45" s="212"/>
       <c r="V45" s="106" t="s">
         <v>308</v>
       </c>
@@ -17624,10 +17624,10 @@
       <c r="AQ45" s="109"/>
       <c r="AR45" s="109"/>
       <c r="AS45" s="96"/>
-      <c r="AT45" s="169" t="s">
+      <c r="AT45" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="AU45" s="169"/>
+      <c r="AU45" s="212"/>
       <c r="AV45" s="106" t="s">
         <v>303</v>
       </c>
@@ -17656,70 +17656,70 @@
       <c r="F46" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="185" t="s">
+      <c r="G46" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="186"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="186"/>
-      <c r="N46" s="186"/>
-      <c r="O46" s="186"/>
-      <c r="P46" s="186"/>
-      <c r="Q46" s="186"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="186"/>
-      <c r="T46" s="186"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="186"/>
-      <c r="W46" s="186"/>
-      <c r="X46" s="186"/>
-      <c r="Y46" s="186"/>
-      <c r="Z46" s="186"/>
-      <c r="AA46" s="186"/>
-      <c r="AB46" s="186"/>
-      <c r="AC46" s="186"/>
-      <c r="AD46" s="186"/>
-      <c r="AE46" s="187"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="220"/>
+      <c r="M46" s="220"/>
+      <c r="N46" s="220"/>
+      <c r="O46" s="220"/>
+      <c r="P46" s="220"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="220"/>
+      <c r="W46" s="220"/>
+      <c r="X46" s="220"/>
+      <c r="Y46" s="220"/>
+      <c r="Z46" s="220"/>
+      <c r="AA46" s="220"/>
+      <c r="AB46" s="220"/>
+      <c r="AC46" s="220"/>
+      <c r="AD46" s="220"/>
+      <c r="AE46" s="221"/>
       <c r="AF46" s="108" t="s">
         <v>265</v>
       </c>
       <c r="AG46" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="AH46" s="185" t="s">
+      <c r="AH46" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="AI46" s="186"/>
-      <c r="AJ46" s="186"/>
-      <c r="AK46" s="186"/>
-      <c r="AL46" s="186"/>
-      <c r="AM46" s="186"/>
-      <c r="AN46" s="186"/>
-      <c r="AO46" s="186"/>
-      <c r="AP46" s="186"/>
-      <c r="AQ46" s="186"/>
-      <c r="AR46" s="186"/>
-      <c r="AS46" s="187"/>
-      <c r="AT46" s="156" t="s">
+      <c r="AI46" s="220"/>
+      <c r="AJ46" s="220"/>
+      <c r="AK46" s="220"/>
+      <c r="AL46" s="220"/>
+      <c r="AM46" s="220"/>
+      <c r="AN46" s="220"/>
+      <c r="AO46" s="220"/>
+      <c r="AP46" s="220"/>
+      <c r="AQ46" s="220"/>
+      <c r="AR46" s="220"/>
+      <c r="AS46" s="221"/>
+      <c r="AT46" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="AU46" s="157"/>
-      <c r="AV46" s="152" t="s">
+      <c r="AU46" s="195"/>
+      <c r="AV46" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="AW46" s="153"/>
-      <c r="AX46" s="185" t="s">
+      <c r="AW46" s="191"/>
+      <c r="AX46" s="219" t="s">
         <v>302</v>
       </c>
-      <c r="AY46" s="186"/>
-      <c r="AZ46" s="186"/>
-      <c r="BA46" s="186"/>
-      <c r="BB46" s="186"/>
-      <c r="BC46" s="186"/>
-      <c r="BD46" s="187"/>
+      <c r="AY46" s="220"/>
+      <c r="AZ46" s="220"/>
+      <c r="BA46" s="220"/>
+      <c r="BB46" s="220"/>
+      <c r="BC46" s="220"/>
+      <c r="BD46" s="221"/>
       <c r="BE46" s="96"/>
       <c r="BF46" s="96"/>
       <c r="BG46" s="96"/>
@@ -17776,10 +17776,10 @@
       <c r="AQ47" s="109"/>
       <c r="AR47" s="109"/>
       <c r="AS47" s="96"/>
-      <c r="AT47" s="169" t="s">
+      <c r="AT47" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="AU47" s="169"/>
+      <c r="AU47" s="212"/>
       <c r="AV47" s="106" t="s">
         <v>303</v>
       </c>
@@ -18170,20 +18170,20 @@
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="159" t="s">
+      <c r="E54" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="159" t="s">
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="174"/>
+      <c r="L54" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="M54" s="160"/>
-      <c r="N54" s="161"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="232"/>
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
       <c r="Q54" s="42"/>
@@ -18304,20 +18304,20 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="42"/>
-      <c r="E56" s="162" t="s">
+      <c r="E56" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="162" t="s">
+      <c r="F56" s="179"/>
+      <c r="G56" s="179"/>
+      <c r="H56" s="179"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="179"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="M56" s="163"/>
-      <c r="N56" s="164"/>
+      <c r="M56" s="179"/>
+      <c r="N56" s="180"/>
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -20789,66 +20789,66 @@
         <v>344</v>
       </c>
       <c r="D95" s="42"/>
-      <c r="E95" s="159" t="s">
+      <c r="E95" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="160"/>
-      <c r="G95" s="160"/>
-      <c r="H95" s="160"/>
-      <c r="I95" s="160"/>
-      <c r="J95" s="160"/>
-      <c r="K95" s="177"/>
-      <c r="L95" s="159" t="s">
+      <c r="F95" s="173"/>
+      <c r="G95" s="173"/>
+      <c r="H95" s="173"/>
+      <c r="I95" s="173"/>
+      <c r="J95" s="173"/>
+      <c r="K95" s="174"/>
+      <c r="L95" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="160"/>
-      <c r="N95" s="177"/>
-      <c r="O95" s="159" t="s">
+      <c r="M95" s="173"/>
+      <c r="N95" s="174"/>
+      <c r="O95" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="P95" s="160"/>
-      <c r="Q95" s="160"/>
-      <c r="R95" s="160"/>
-      <c r="S95" s="160"/>
-      <c r="T95" s="160"/>
-      <c r="U95" s="160"/>
-      <c r="V95" s="160"/>
-      <c r="W95" s="160"/>
-      <c r="X95" s="160"/>
-      <c r="Y95" s="160"/>
-      <c r="Z95" s="177"/>
-      <c r="AA95" s="159" t="s">
+      <c r="P95" s="173"/>
+      <c r="Q95" s="173"/>
+      <c r="R95" s="173"/>
+      <c r="S95" s="173"/>
+      <c r="T95" s="173"/>
+      <c r="U95" s="173"/>
+      <c r="V95" s="173"/>
+      <c r="W95" s="173"/>
+      <c r="X95" s="173"/>
+      <c r="Y95" s="173"/>
+      <c r="Z95" s="174"/>
+      <c r="AA95" s="172" t="s">
         <v>571</v>
       </c>
-      <c r="AB95" s="160"/>
-      <c r="AC95" s="160"/>
-      <c r="AD95" s="160"/>
-      <c r="AE95" s="160"/>
-      <c r="AF95" s="160"/>
-      <c r="AG95" s="160"/>
-      <c r="AH95" s="177"/>
-      <c r="AI95" s="159" t="s">
+      <c r="AB95" s="173"/>
+      <c r="AC95" s="173"/>
+      <c r="AD95" s="173"/>
+      <c r="AE95" s="173"/>
+      <c r="AF95" s="173"/>
+      <c r="AG95" s="173"/>
+      <c r="AH95" s="174"/>
+      <c r="AI95" s="172" t="s">
         <v>572</v>
       </c>
-      <c r="AJ95" s="160"/>
-      <c r="AK95" s="160"/>
-      <c r="AL95" s="160"/>
-      <c r="AM95" s="160"/>
-      <c r="AN95" s="160"/>
-      <c r="AO95" s="160"/>
-      <c r="AP95" s="160"/>
-      <c r="AQ95" s="160"/>
-      <c r="AR95" s="160"/>
-      <c r="AS95" s="160"/>
-      <c r="AT95" s="177"/>
-      <c r="AU95" s="203" t="s">
+      <c r="AJ95" s="173"/>
+      <c r="AK95" s="173"/>
+      <c r="AL95" s="173"/>
+      <c r="AM95" s="173"/>
+      <c r="AN95" s="173"/>
+      <c r="AO95" s="173"/>
+      <c r="AP95" s="173"/>
+      <c r="AQ95" s="173"/>
+      <c r="AR95" s="173"/>
+      <c r="AS95" s="173"/>
+      <c r="AT95" s="174"/>
+      <c r="AU95" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="AV95" s="204"/>
-      <c r="AW95" s="204"/>
-      <c r="AX95" s="204"/>
-      <c r="AY95" s="204"/>
-      <c r="AZ95" s="205"/>
+      <c r="AV95" s="176"/>
+      <c r="AW95" s="176"/>
+      <c r="AX95" s="176"/>
+      <c r="AY95" s="176"/>
+      <c r="AZ95" s="177"/>
       <c r="BA95" s="42"/>
       <c r="BB95" s="42"/>
       <c r="BC95" s="42"/>
@@ -20953,66 +20953,66 @@
       </c>
       <c r="C97" s="42"/>
       <c r="D97" s="42"/>
-      <c r="E97" s="162" t="s">
+      <c r="E97" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="163"/>
-      <c r="G97" s="163"/>
-      <c r="H97" s="163"/>
-      <c r="I97" s="163"/>
-      <c r="J97" s="163"/>
-      <c r="K97" s="164"/>
-      <c r="L97" s="162" t="s">
+      <c r="F97" s="179"/>
+      <c r="G97" s="179"/>
+      <c r="H97" s="179"/>
+      <c r="I97" s="179"/>
+      <c r="J97" s="179"/>
+      <c r="K97" s="180"/>
+      <c r="L97" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="163"/>
-      <c r="N97" s="163"/>
-      <c r="O97" s="162" t="s">
+      <c r="M97" s="179"/>
+      <c r="N97" s="179"/>
+      <c r="O97" s="178" t="s">
         <v>559</v>
       </c>
-      <c r="P97" s="163"/>
-      <c r="Q97" s="163"/>
-      <c r="R97" s="163"/>
-      <c r="S97" s="163"/>
-      <c r="T97" s="163"/>
-      <c r="U97" s="163"/>
-      <c r="V97" s="163"/>
-      <c r="W97" s="163"/>
-      <c r="X97" s="163"/>
-      <c r="Y97" s="163"/>
-      <c r="Z97" s="164"/>
-      <c r="AA97" s="162" t="s">
+      <c r="P97" s="179"/>
+      <c r="Q97" s="179"/>
+      <c r="R97" s="179"/>
+      <c r="S97" s="179"/>
+      <c r="T97" s="179"/>
+      <c r="U97" s="179"/>
+      <c r="V97" s="179"/>
+      <c r="W97" s="179"/>
+      <c r="X97" s="179"/>
+      <c r="Y97" s="179"/>
+      <c r="Z97" s="180"/>
+      <c r="AA97" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="AB97" s="163"/>
-      <c r="AC97" s="163"/>
-      <c r="AD97" s="163"/>
-      <c r="AE97" s="163"/>
-      <c r="AF97" s="163"/>
-      <c r="AG97" s="163"/>
-      <c r="AH97" s="164"/>
-      <c r="AI97" s="162" t="s">
+      <c r="AB97" s="179"/>
+      <c r="AC97" s="179"/>
+      <c r="AD97" s="179"/>
+      <c r="AE97" s="179"/>
+      <c r="AF97" s="179"/>
+      <c r="AG97" s="179"/>
+      <c r="AH97" s="180"/>
+      <c r="AI97" s="178" t="s">
         <v>559</v>
       </c>
-      <c r="AJ97" s="163"/>
-      <c r="AK97" s="163"/>
-      <c r="AL97" s="163"/>
-      <c r="AM97" s="163"/>
-      <c r="AN97" s="163"/>
-      <c r="AO97" s="163"/>
-      <c r="AP97" s="163"/>
-      <c r="AQ97" s="163"/>
-      <c r="AR97" s="163"/>
-      <c r="AS97" s="163"/>
-      <c r="AT97" s="164"/>
-      <c r="AU97" s="213" t="s">
+      <c r="AJ97" s="179"/>
+      <c r="AK97" s="179"/>
+      <c r="AL97" s="179"/>
+      <c r="AM97" s="179"/>
+      <c r="AN97" s="179"/>
+      <c r="AO97" s="179"/>
+      <c r="AP97" s="179"/>
+      <c r="AQ97" s="179"/>
+      <c r="AR97" s="179"/>
+      <c r="AS97" s="179"/>
+      <c r="AT97" s="180"/>
+      <c r="AU97" s="151" t="s">
         <v>573</v>
       </c>
-      <c r="AV97" s="214"/>
-      <c r="AW97" s="214"/>
-      <c r="AX97" s="214"/>
-      <c r="AY97" s="214"/>
-      <c r="AZ97" s="215"/>
+      <c r="AV97" s="152"/>
+      <c r="AW97" s="152"/>
+      <c r="AX97" s="152"/>
+      <c r="AY97" s="152"/>
+      <c r="AZ97" s="153"/>
       <c r="BA97" s="42"/>
       <c r="BB97" s="42"/>
       <c r="BC97" s="42"/>
@@ -21022,10 +21022,10 @@
       <c r="BG97" s="42"/>
     </row>
     <row r="98" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A98" s="229">
+      <c r="A98" s="166">
         <v>255</v>
       </c>
-      <c r="B98" s="231">
+      <c r="B98" s="168">
         <v>20</v>
       </c>
       <c r="C98" s="42"/>
@@ -21091,20 +21091,20 @@
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
       <c r="D99" s="42"/>
-      <c r="E99" s="200" t="s">
+      <c r="E99" s="199" t="s">
         <v>589</v>
       </c>
-      <c r="F99" s="201"/>
-      <c r="G99" s="201"/>
-      <c r="H99" s="201"/>
-      <c r="I99" s="201"/>
-      <c r="J99" s="201"/>
-      <c r="K99" s="202"/>
-      <c r="L99" s="165" t="s">
+      <c r="F99" s="200"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="200"/>
+      <c r="I99" s="200"/>
+      <c r="J99" s="200"/>
+      <c r="K99" s="201"/>
+      <c r="L99" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="M99" s="166"/>
-      <c r="N99" s="167"/>
+      <c r="M99" s="203"/>
+      <c r="N99" s="204"/>
       <c r="O99" s="67" t="s">
         <v>574</v>
       </c>
@@ -21143,14 +21143,14 @@
       <c r="AR99" s="68"/>
       <c r="AS99" s="68"/>
       <c r="AT99" s="69"/>
-      <c r="AU99" s="228" t="s">
+      <c r="AU99" s="165" t="s">
         <v>583</v>
       </c>
-      <c r="AV99" s="219"/>
-      <c r="AW99" s="219"/>
-      <c r="AX99" s="219"/>
-      <c r="AY99" s="219"/>
-      <c r="AZ99" s="220"/>
+      <c r="AV99" s="156"/>
+      <c r="AW99" s="156"/>
+      <c r="AX99" s="156"/>
+      <c r="AY99" s="156"/>
+      <c r="AZ99" s="157"/>
       <c r="BA99" s="42"/>
       <c r="BB99" s="42"/>
       <c r="BC99" s="42"/>
@@ -21560,68 +21560,68 @@
         <v>347</v>
       </c>
       <c r="D106" s="42"/>
-      <c r="E106" s="159" t="s">
+      <c r="E106" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="F106" s="160"/>
-      <c r="G106" s="160"/>
-      <c r="H106" s="160"/>
-      <c r="I106" s="160"/>
-      <c r="J106" s="160"/>
-      <c r="K106" s="177"/>
-      <c r="L106" s="159" t="s">
+      <c r="F106" s="173"/>
+      <c r="G106" s="173"/>
+      <c r="H106" s="173"/>
+      <c r="I106" s="173"/>
+      <c r="J106" s="173"/>
+      <c r="K106" s="174"/>
+      <c r="L106" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="M106" s="160"/>
-      <c r="N106" s="177"/>
-      <c r="O106" s="159" t="s">
+      <c r="M106" s="173"/>
+      <c r="N106" s="174"/>
+      <c r="O106" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="P106" s="160"/>
-      <c r="Q106" s="160"/>
-      <c r="R106" s="159" t="s">
+      <c r="P106" s="173"/>
+      <c r="Q106" s="173"/>
+      <c r="R106" s="172" t="s">
         <v>297</v>
       </c>
-      <c r="S106" s="160"/>
-      <c r="T106" s="160"/>
-      <c r="U106" s="160"/>
-      <c r="V106" s="160"/>
-      <c r="W106" s="160"/>
-      <c r="X106" s="160"/>
-      <c r="Y106" s="160"/>
-      <c r="Z106" s="160"/>
-      <c r="AA106" s="160"/>
-      <c r="AB106" s="160"/>
-      <c r="AC106" s="177"/>
-      <c r="AD106" s="159" t="s">
+      <c r="S106" s="173"/>
+      <c r="T106" s="173"/>
+      <c r="U106" s="173"/>
+      <c r="V106" s="173"/>
+      <c r="W106" s="173"/>
+      <c r="X106" s="173"/>
+      <c r="Y106" s="173"/>
+      <c r="Z106" s="173"/>
+      <c r="AA106" s="173"/>
+      <c r="AB106" s="173"/>
+      <c r="AC106" s="174"/>
+      <c r="AD106" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="AE106" s="160"/>
-      <c r="AF106" s="160"/>
-      <c r="AG106" s="160"/>
-      <c r="AH106" s="160"/>
-      <c r="AI106" s="160"/>
-      <c r="AJ106" s="160"/>
-      <c r="AK106" s="177"/>
-      <c r="AL106" s="159" t="s">
+      <c r="AE106" s="173"/>
+      <c r="AF106" s="173"/>
+      <c r="AG106" s="173"/>
+      <c r="AH106" s="173"/>
+      <c r="AI106" s="173"/>
+      <c r="AJ106" s="173"/>
+      <c r="AK106" s="174"/>
+      <c r="AL106" s="172" t="s">
         <v>224</v>
       </c>
-      <c r="AM106" s="160"/>
-      <c r="AN106" s="177"/>
-      <c r="AO106" s="159" t="s">
+      <c r="AM106" s="173"/>
+      <c r="AN106" s="174"/>
+      <c r="AO106" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="AP106" s="160"/>
-      <c r="AQ106" s="160"/>
-      <c r="AR106" s="160"/>
-      <c r="AS106" s="160"/>
-      <c r="AT106" s="160"/>
-      <c r="AU106" s="160"/>
-      <c r="AV106" s="160"/>
-      <c r="AW106" s="160"/>
-      <c r="AX106" s="160"/>
-      <c r="AY106" s="160"/>
-      <c r="AZ106" s="177"/>
+      <c r="AP106" s="173"/>
+      <c r="AQ106" s="173"/>
+      <c r="AR106" s="173"/>
+      <c r="AS106" s="173"/>
+      <c r="AT106" s="173"/>
+      <c r="AU106" s="173"/>
+      <c r="AV106" s="173"/>
+      <c r="AW106" s="173"/>
+      <c r="AX106" s="173"/>
+      <c r="AY106" s="173"/>
+      <c r="AZ106" s="174"/>
       <c r="BA106" s="42"/>
       <c r="BB106" s="42"/>
       <c r="BC106" s="42"/>
@@ -21728,68 +21728,68 @@
       </c>
       <c r="C108" s="50"/>
       <c r="D108" s="42"/>
-      <c r="E108" s="162" t="s">
+      <c r="E108" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
-      <c r="I108" s="163"/>
-      <c r="J108" s="163"/>
-      <c r="K108" s="164"/>
-      <c r="L108" s="162" t="s">
+      <c r="F108" s="179"/>
+      <c r="G108" s="179"/>
+      <c r="H108" s="179"/>
+      <c r="I108" s="179"/>
+      <c r="J108" s="179"/>
+      <c r="K108" s="180"/>
+      <c r="L108" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="M108" s="163"/>
-      <c r="N108" s="164"/>
-      <c r="O108" s="162" t="s">
+      <c r="M108" s="179"/>
+      <c r="N108" s="180"/>
+      <c r="O108" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="P108" s="163"/>
-      <c r="Q108" s="163"/>
-      <c r="R108" s="162" t="s">
+      <c r="P108" s="179"/>
+      <c r="Q108" s="179"/>
+      <c r="R108" s="178" t="s">
         <v>559</v>
       </c>
-      <c r="S108" s="163"/>
-      <c r="T108" s="163"/>
-      <c r="U108" s="163"/>
-      <c r="V108" s="163"/>
-      <c r="W108" s="163"/>
-      <c r="X108" s="163"/>
-      <c r="Y108" s="163"/>
-      <c r="Z108" s="163"/>
-      <c r="AA108" s="163"/>
-      <c r="AB108" s="163"/>
-      <c r="AC108" s="164"/>
-      <c r="AD108" s="162" t="s">
+      <c r="S108" s="179"/>
+      <c r="T108" s="179"/>
+      <c r="U108" s="179"/>
+      <c r="V108" s="179"/>
+      <c r="W108" s="179"/>
+      <c r="X108" s="179"/>
+      <c r="Y108" s="179"/>
+      <c r="Z108" s="179"/>
+      <c r="AA108" s="179"/>
+      <c r="AB108" s="179"/>
+      <c r="AC108" s="180"/>
+      <c r="AD108" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="AE108" s="163"/>
-      <c r="AF108" s="163"/>
-      <c r="AG108" s="163"/>
-      <c r="AH108" s="163"/>
-      <c r="AI108" s="163"/>
-      <c r="AJ108" s="163"/>
-      <c r="AK108" s="164"/>
-      <c r="AL108" s="162" t="s">
+      <c r="AE108" s="179"/>
+      <c r="AF108" s="179"/>
+      <c r="AG108" s="179"/>
+      <c r="AH108" s="179"/>
+      <c r="AI108" s="179"/>
+      <c r="AJ108" s="179"/>
+      <c r="AK108" s="180"/>
+      <c r="AL108" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="AM108" s="163"/>
-      <c r="AN108" s="164"/>
-      <c r="AO108" s="162" t="s">
+      <c r="AM108" s="179"/>
+      <c r="AN108" s="180"/>
+      <c r="AO108" s="178" t="s">
         <v>559</v>
       </c>
-      <c r="AP108" s="163"/>
-      <c r="AQ108" s="163"/>
-      <c r="AR108" s="163"/>
-      <c r="AS108" s="163"/>
-      <c r="AT108" s="163"/>
-      <c r="AU108" s="163"/>
-      <c r="AV108" s="163"/>
-      <c r="AW108" s="163"/>
-      <c r="AX108" s="163"/>
-      <c r="AY108" s="163"/>
-      <c r="AZ108" s="164"/>
+      <c r="AP108" s="179"/>
+      <c r="AQ108" s="179"/>
+      <c r="AR108" s="179"/>
+      <c r="AS108" s="179"/>
+      <c r="AT108" s="179"/>
+      <c r="AU108" s="179"/>
+      <c r="AV108" s="179"/>
+      <c r="AW108" s="179"/>
+      <c r="AX108" s="179"/>
+      <c r="AY108" s="179"/>
+      <c r="AZ108" s="180"/>
       <c r="BA108" s="42"/>
       <c r="BB108" s="42"/>
       <c r="BC108" s="42"/>
@@ -21799,10 +21799,10 @@
       <c r="BG108" s="42"/>
     </row>
     <row r="109" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A109" s="229">
+      <c r="A109" s="166">
         <v>1</v>
       </c>
-      <c r="B109" s="231">
+      <c r="B109" s="168">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C109" s="50"/>
@@ -21867,7 +21867,7 @@
       <c r="A110" s="42">
         <v>2</v>
       </c>
-      <c r="B110" s="231">
+      <c r="B110" s="168">
         <v>0.31</v>
       </c>
       <c r="C110" s="50"/>
@@ -21883,11 +21883,11 @@
       <c r="I110" s="73"/>
       <c r="J110" s="73"/>
       <c r="K110" s="74"/>
-      <c r="L110" s="165" t="s">
+      <c r="L110" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="M110" s="166"/>
-      <c r="N110" s="167"/>
+      <c r="M110" s="203"/>
+      <c r="N110" s="204"/>
       <c r="O110" s="53"/>
       <c r="P110" s="50"/>
       <c r="Q110" s="50"/>
@@ -21924,20 +21924,20 @@
       <c r="AN110" s="51">
         <v>0</v>
       </c>
-      <c r="AO110" s="206" t="s">
+      <c r="AO110" s="181" t="s">
         <v>227</v>
       </c>
-      <c r="AP110" s="207"/>
-      <c r="AQ110" s="207"/>
-      <c r="AR110" s="207"/>
-      <c r="AS110" s="207"/>
-      <c r="AT110" s="207"/>
-      <c r="AU110" s="207"/>
-      <c r="AV110" s="207"/>
-      <c r="AW110" s="207"/>
-      <c r="AX110" s="207"/>
-      <c r="AY110" s="207"/>
-      <c r="AZ110" s="208"/>
+      <c r="AP110" s="182"/>
+      <c r="AQ110" s="182"/>
+      <c r="AR110" s="182"/>
+      <c r="AS110" s="182"/>
+      <c r="AT110" s="182"/>
+      <c r="AU110" s="182"/>
+      <c r="AV110" s="182"/>
+      <c r="AW110" s="182"/>
+      <c r="AX110" s="182"/>
+      <c r="AY110" s="182"/>
+      <c r="AZ110" s="183"/>
       <c r="BA110" s="50" t="s">
         <v>299</v>
       </c>
@@ -21952,7 +21952,7 @@
       <c r="A111" s="42">
         <v>3</v>
       </c>
-      <c r="B111" s="231">
+      <c r="B111" s="168">
         <f>(B110+0.2)</f>
         <v>0.51</v>
       </c>
@@ -22006,20 +22006,20 @@
       <c r="AN111" s="51">
         <v>1</v>
       </c>
-      <c r="AO111" s="206" t="s">
+      <c r="AO111" s="181" t="s">
         <v>337</v>
       </c>
-      <c r="AP111" s="207"/>
-      <c r="AQ111" s="207"/>
-      <c r="AR111" s="207"/>
-      <c r="AS111" s="207"/>
-      <c r="AT111" s="207"/>
-      <c r="AU111" s="207"/>
-      <c r="AV111" s="207"/>
-      <c r="AW111" s="207"/>
-      <c r="AX111" s="207"/>
-      <c r="AY111" s="207"/>
-      <c r="AZ111" s="208"/>
+      <c r="AP111" s="182"/>
+      <c r="AQ111" s="182"/>
+      <c r="AR111" s="182"/>
+      <c r="AS111" s="182"/>
+      <c r="AT111" s="182"/>
+      <c r="AU111" s="182"/>
+      <c r="AV111" s="182"/>
+      <c r="AW111" s="182"/>
+      <c r="AX111" s="182"/>
+      <c r="AY111" s="182"/>
+      <c r="AZ111" s="183"/>
       <c r="BA111" s="50" t="s">
         <v>290</v>
       </c>
@@ -22034,7 +22034,7 @@
       <c r="A112" s="42">
         <v>4</v>
       </c>
-      <c r="B112" s="231">
+      <c r="B112" s="168">
         <f>(B111+0.2)</f>
         <v>0.71</v>
       </c>
@@ -22090,20 +22090,20 @@
       <c r="AN112" s="51">
         <v>0</v>
       </c>
-      <c r="AO112" s="206" t="s">
+      <c r="AO112" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="AP112" s="207"/>
-      <c r="AQ112" s="207"/>
-      <c r="AR112" s="207"/>
-      <c r="AS112" s="207"/>
-      <c r="AT112" s="207"/>
-      <c r="AU112" s="207"/>
-      <c r="AV112" s="207"/>
-      <c r="AW112" s="207"/>
-      <c r="AX112" s="207"/>
-      <c r="AY112" s="207"/>
-      <c r="AZ112" s="208"/>
+      <c r="AP112" s="182"/>
+      <c r="AQ112" s="182"/>
+      <c r="AR112" s="182"/>
+      <c r="AS112" s="182"/>
+      <c r="AT112" s="182"/>
+      <c r="AU112" s="182"/>
+      <c r="AV112" s="182"/>
+      <c r="AW112" s="182"/>
+      <c r="AX112" s="182"/>
+      <c r="AY112" s="182"/>
+      <c r="AZ112" s="183"/>
       <c r="BA112" s="50" t="s">
         <v>258</v>
       </c>
@@ -22118,7 +22118,7 @@
       <c r="A113" s="42">
         <v>5</v>
       </c>
-      <c r="B113" s="231">
+      <c r="B113" s="168">
         <f>(B112+0.2)</f>
         <v>0.90999999999999992</v>
       </c>
@@ -22170,20 +22170,20 @@
       <c r="AN113" s="51">
         <v>1</v>
       </c>
-      <c r="AO113" s="206" t="s">
+      <c r="AO113" s="181" t="s">
         <v>599</v>
       </c>
-      <c r="AP113" s="207"/>
-      <c r="AQ113" s="207"/>
-      <c r="AR113" s="207"/>
-      <c r="AS113" s="207"/>
-      <c r="AT113" s="207"/>
-      <c r="AU113" s="207"/>
-      <c r="AV113" s="207"/>
-      <c r="AW113" s="207"/>
-      <c r="AX113" s="207"/>
-      <c r="AY113" s="207"/>
-      <c r="AZ113" s="208"/>
+      <c r="AP113" s="182"/>
+      <c r="AQ113" s="182"/>
+      <c r="AR113" s="182"/>
+      <c r="AS113" s="182"/>
+      <c r="AT113" s="182"/>
+      <c r="AU113" s="182"/>
+      <c r="AV113" s="182"/>
+      <c r="AW113" s="182"/>
+      <c r="AX113" s="182"/>
+      <c r="AY113" s="182"/>
+      <c r="AZ113" s="183"/>
       <c r="BA113" s="50" t="s">
         <v>590</v>
       </c>
@@ -22196,10 +22196,10 @@
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="C114" s="230"/>
+      <c r="C114" s="167"/>
       <c r="D114" s="42"/>
       <c r="E114" s="49"/>
       <c r="F114" s="50"/>
@@ -22247,20 +22247,20 @@
       <c r="AN114" s="51">
         <v>0</v>
       </c>
-      <c r="AO114" s="206" t="s">
+      <c r="AO114" s="181" t="s">
         <v>600</v>
       </c>
-      <c r="AP114" s="207"/>
-      <c r="AQ114" s="207"/>
-      <c r="AR114" s="207"/>
-      <c r="AS114" s="207"/>
-      <c r="AT114" s="207"/>
-      <c r="AU114" s="207"/>
-      <c r="AV114" s="207"/>
-      <c r="AW114" s="207"/>
-      <c r="AX114" s="207"/>
-      <c r="AY114" s="207"/>
-      <c r="AZ114" s="208"/>
+      <c r="AP114" s="182"/>
+      <c r="AQ114" s="182"/>
+      <c r="AR114" s="182"/>
+      <c r="AS114" s="182"/>
+      <c r="AT114" s="182"/>
+      <c r="AU114" s="182"/>
+      <c r="AV114" s="182"/>
+      <c r="AW114" s="182"/>
+      <c r="AX114" s="182"/>
+      <c r="AY114" s="182"/>
+      <c r="AZ114" s="183"/>
       <c r="BA114" s="50" t="s">
         <v>591</v>
       </c>
@@ -22273,10 +22273,10 @@
     </row>
     <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
-      <c r="B115" s="232" t="s">
+      <c r="B115" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="230"/>
+      <c r="C115" s="167"/>
       <c r="D115" s="42"/>
       <c r="E115" s="49"/>
       <c r="F115" s="50"/>
@@ -22288,29 +22288,29 @@
       <c r="L115" s="52"/>
       <c r="M115" s="53"/>
       <c r="N115" s="53"/>
-      <c r="O115" s="216"/>
-      <c r="P115" s="216"/>
-      <c r="Q115" s="216"/>
-      <c r="R115" s="216"/>
+      <c r="O115" s="154"/>
+      <c r="P115" s="154"/>
+      <c r="Q115" s="154"/>
+      <c r="R115" s="154"/>
       <c r="S115" s="50"/>
       <c r="T115" s="50"/>
       <c r="U115" s="50"/>
-      <c r="V115" s="216"/>
-      <c r="W115" s="216"/>
-      <c r="X115" s="216"/>
-      <c r="Y115" s="216"/>
-      <c r="Z115" s="216"/>
-      <c r="AA115" s="216"/>
-      <c r="AB115" s="216"/>
-      <c r="AC115" s="216"/>
-      <c r="AD115" s="216"/>
-      <c r="AE115" s="216"/>
-      <c r="AF115" s="216"/>
-      <c r="AG115" s="216"/>
-      <c r="AH115" s="216"/>
-      <c r="AI115" s="216"/>
-      <c r="AJ115" s="216"/>
-      <c r="AK115" s="216"/>
+      <c r="V115" s="154"/>
+      <c r="W115" s="154"/>
+      <c r="X115" s="154"/>
+      <c r="Y115" s="154"/>
+      <c r="Z115" s="154"/>
+      <c r="AA115" s="154"/>
+      <c r="AB115" s="154"/>
+      <c r="AC115" s="154"/>
+      <c r="AD115" s="154"/>
+      <c r="AE115" s="154"/>
+      <c r="AF115" s="154"/>
+      <c r="AG115" s="154"/>
+      <c r="AH115" s="154"/>
+      <c r="AI115" s="154"/>
+      <c r="AJ115" s="154"/>
+      <c r="AK115" s="154"/>
       <c r="AL115" s="51">
         <v>1</v>
       </c>
@@ -22320,20 +22320,20 @@
       <c r="AN115" s="51">
         <v>1</v>
       </c>
-      <c r="AO115" s="206" t="s">
+      <c r="AO115" s="181" t="s">
         <v>601</v>
       </c>
-      <c r="AP115" s="207"/>
-      <c r="AQ115" s="207"/>
-      <c r="AR115" s="207"/>
-      <c r="AS115" s="207"/>
-      <c r="AT115" s="207"/>
-      <c r="AU115" s="207"/>
-      <c r="AV115" s="207"/>
-      <c r="AW115" s="207"/>
-      <c r="AX115" s="207"/>
-      <c r="AY115" s="207"/>
-      <c r="AZ115" s="208"/>
+      <c r="AP115" s="182"/>
+      <c r="AQ115" s="182"/>
+      <c r="AR115" s="182"/>
+      <c r="AS115" s="182"/>
+      <c r="AT115" s="182"/>
+      <c r="AU115" s="182"/>
+      <c r="AV115" s="182"/>
+      <c r="AW115" s="182"/>
+      <c r="AX115" s="182"/>
+      <c r="AY115" s="182"/>
+      <c r="AZ115" s="183"/>
       <c r="BA115" s="50" t="s">
         <v>592</v>
       </c>
@@ -22348,7 +22348,7 @@
       <c r="A116" s="42">
         <v>97</v>
       </c>
-      <c r="B116" s="231">
+      <c r="B116" s="168">
         <f>((97-2)*0.2+0.31)</f>
         <v>19.309999999999999</v>
       </c>
@@ -22375,22 +22375,22 @@
       <c r="S116" s="50"/>
       <c r="T116" s="50"/>
       <c r="U116" s="50"/>
-      <c r="V116" s="216"/>
-      <c r="W116" s="216"/>
-      <c r="X116" s="216"/>
-      <c r="Y116" s="216"/>
-      <c r="Z116" s="216"/>
-      <c r="AA116" s="216"/>
-      <c r="AB116" s="216"/>
-      <c r="AC116" s="216"/>
-      <c r="AD116" s="216"/>
-      <c r="AE116" s="216"/>
-      <c r="AF116" s="216"/>
-      <c r="AG116" s="216"/>
-      <c r="AH116" s="216"/>
-      <c r="AI116" s="216"/>
-      <c r="AJ116" s="216"/>
-      <c r="AK116" s="216"/>
+      <c r="V116" s="154"/>
+      <c r="W116" s="154"/>
+      <c r="X116" s="154"/>
+      <c r="Y116" s="154"/>
+      <c r="Z116" s="154"/>
+      <c r="AA116" s="154"/>
+      <c r="AB116" s="154"/>
+      <c r="AC116" s="154"/>
+      <c r="AD116" s="154"/>
+      <c r="AE116" s="154"/>
+      <c r="AF116" s="154"/>
+      <c r="AG116" s="154"/>
+      <c r="AH116" s="154"/>
+      <c r="AI116" s="154"/>
+      <c r="AJ116" s="154"/>
+      <c r="AK116" s="154"/>
       <c r="AL116" s="51">
         <v>1</v>
       </c>
@@ -22400,20 +22400,20 @@
       <c r="AN116" s="51">
         <v>0</v>
       </c>
-      <c r="AO116" s="206" t="s">
+      <c r="AO116" s="181" t="s">
         <v>602</v>
       </c>
-      <c r="AP116" s="207"/>
-      <c r="AQ116" s="207"/>
-      <c r="AR116" s="207"/>
-      <c r="AS116" s="207"/>
-      <c r="AT116" s="207"/>
-      <c r="AU116" s="207"/>
-      <c r="AV116" s="207"/>
-      <c r="AW116" s="207"/>
-      <c r="AX116" s="207"/>
-      <c r="AY116" s="207"/>
-      <c r="AZ116" s="208"/>
+      <c r="AP116" s="182"/>
+      <c r="AQ116" s="182"/>
+      <c r="AR116" s="182"/>
+      <c r="AS116" s="182"/>
+      <c r="AT116" s="182"/>
+      <c r="AU116" s="182"/>
+      <c r="AV116" s="182"/>
+      <c r="AW116" s="182"/>
+      <c r="AX116" s="182"/>
+      <c r="AY116" s="182"/>
+      <c r="AZ116" s="183"/>
       <c r="BA116" s="50" t="s">
         <v>593</v>
       </c>
@@ -22428,7 +22428,7 @@
       <c r="A117" s="42">
         <v>98</v>
       </c>
-      <c r="B117" s="231">
+      <c r="B117" s="168">
         <f>(B116+0.2)</f>
         <v>19.509999999999998</v>
       </c>
@@ -22444,31 +22444,31 @@
       <c r="L117" s="52"/>
       <c r="M117" s="53"/>
       <c r="N117" s="53"/>
-      <c r="O117" s="203" t="s">
+      <c r="O117" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="P117" s="204"/>
-      <c r="Q117" s="205"/>
+      <c r="P117" s="176"/>
+      <c r="Q117" s="177"/>
       <c r="R117" s="50"/>
       <c r="S117" s="50"/>
       <c r="T117" s="50"/>
       <c r="U117" s="50"/>
-      <c r="V117" s="216"/>
-      <c r="W117" s="216"/>
-      <c r="X117" s="216"/>
-      <c r="Y117" s="216"/>
-      <c r="Z117" s="216"/>
-      <c r="AA117" s="216"/>
-      <c r="AB117" s="216"/>
-      <c r="AC117" s="216"/>
-      <c r="AD117" s="216"/>
-      <c r="AE117" s="216"/>
-      <c r="AF117" s="216"/>
-      <c r="AG117" s="216"/>
-      <c r="AH117" s="216"/>
-      <c r="AI117" s="216"/>
-      <c r="AJ117" s="216"/>
-      <c r="AK117" s="216"/>
+      <c r="V117" s="154"/>
+      <c r="W117" s="154"/>
+      <c r="X117" s="154"/>
+      <c r="Y117" s="154"/>
+      <c r="Z117" s="154"/>
+      <c r="AA117" s="154"/>
+      <c r="AB117" s="154"/>
+      <c r="AC117" s="154"/>
+      <c r="AD117" s="154"/>
+      <c r="AE117" s="154"/>
+      <c r="AF117" s="154"/>
+      <c r="AG117" s="154"/>
+      <c r="AH117" s="154"/>
+      <c r="AI117" s="154"/>
+      <c r="AJ117" s="154"/>
+      <c r="AK117" s="154"/>
       <c r="AL117" s="51">
         <v>1</v>
       </c>
@@ -22478,20 +22478,20 @@
       <c r="AN117" s="51">
         <v>1</v>
       </c>
-      <c r="AO117" s="206" t="s">
+      <c r="AO117" s="181" t="s">
         <v>564</v>
       </c>
-      <c r="AP117" s="207"/>
-      <c r="AQ117" s="207"/>
-      <c r="AR117" s="207"/>
-      <c r="AS117" s="207"/>
-      <c r="AT117" s="207"/>
-      <c r="AU117" s="207"/>
-      <c r="AV117" s="207"/>
-      <c r="AW117" s="207"/>
-      <c r="AX117" s="207"/>
-      <c r="AY117" s="207"/>
-      <c r="AZ117" s="208"/>
+      <c r="AP117" s="182"/>
+      <c r="AQ117" s="182"/>
+      <c r="AR117" s="182"/>
+      <c r="AS117" s="182"/>
+      <c r="AT117" s="182"/>
+      <c r="AU117" s="182"/>
+      <c r="AV117" s="182"/>
+      <c r="AW117" s="182"/>
+      <c r="AX117" s="182"/>
+      <c r="AY117" s="182"/>
+      <c r="AZ117" s="183"/>
       <c r="BA117" s="50" t="s">
         <v>594</v>
       </c>
@@ -22506,7 +22506,7 @@
       <c r="A118" s="42">
         <v>99</v>
       </c>
-      <c r="B118" s="231">
+      <c r="B118" s="168">
         <f>(B117+0.2)</f>
         <v>19.709999999999997</v>
       </c>
@@ -22522,9 +22522,9 @@
       <c r="L118" s="49"/>
       <c r="M118" s="50"/>
       <c r="N118" s="50"/>
-      <c r="O118" s="211"/>
-      <c r="P118" s="211"/>
-      <c r="Q118" s="212">
+      <c r="O118" s="149"/>
+      <c r="P118" s="149"/>
+      <c r="Q118" s="150">
         <v>1</v>
       </c>
       <c r="R118" s="67" t="s">
@@ -22576,7 +22576,7 @@
       <c r="A119" s="42">
         <v>100</v>
       </c>
-      <c r="B119" s="231">
+      <c r="B119" s="168">
         <f>(B118+0.2)</f>
         <v>19.909999999999997</v>
       </c>
@@ -22689,24 +22689,24 @@
       <c r="AJ120" s="50"/>
       <c r="AK120" s="50"/>
       <c r="AL120" s="50"/>
-      <c r="AM120" s="217" t="s">
+      <c r="AM120" s="184" t="s">
         <v>293</v>
       </c>
-      <c r="AN120" s="217"/>
-      <c r="AO120" s="159" t="s">
+      <c r="AN120" s="184"/>
+      <c r="AO120" s="172" t="s">
         <v>291</v>
       </c>
-      <c r="AP120" s="160"/>
-      <c r="AQ120" s="160"/>
-      <c r="AR120" s="160"/>
-      <c r="AS120" s="160"/>
-      <c r="AT120" s="160"/>
-      <c r="AU120" s="160"/>
-      <c r="AV120" s="160"/>
-      <c r="AW120" s="160"/>
-      <c r="AX120" s="160"/>
-      <c r="AY120" s="160"/>
-      <c r="AZ120" s="177"/>
+      <c r="AP120" s="173"/>
+      <c r="AQ120" s="173"/>
+      <c r="AR120" s="173"/>
+      <c r="AS120" s="173"/>
+      <c r="AT120" s="173"/>
+      <c r="AU120" s="173"/>
+      <c r="AV120" s="173"/>
+      <c r="AW120" s="173"/>
+      <c r="AX120" s="173"/>
+      <c r="AY120" s="173"/>
+      <c r="AZ120" s="174"/>
       <c r="BA120" s="42"/>
       <c r="BB120" s="42"/>
       <c r="BC120" s="42"/>
@@ -22756,18 +22756,18 @@
       <c r="AL121" s="42"/>
       <c r="AM121" s="42"/>
       <c r="AN121" s="42"/>
-      <c r="AO121" s="211"/>
-      <c r="AP121" s="211"/>
-      <c r="AQ121" s="211"/>
-      <c r="AR121" s="211"/>
-      <c r="AS121" s="211"/>
-      <c r="AT121" s="211"/>
-      <c r="AU121" s="211"/>
-      <c r="AV121" s="211"/>
-      <c r="AW121" s="211"/>
-      <c r="AX121" s="211"/>
-      <c r="AY121" s="211"/>
-      <c r="AZ121" s="212">
+      <c r="AO121" s="149"/>
+      <c r="AP121" s="149"/>
+      <c r="AQ121" s="149"/>
+      <c r="AR121" s="149"/>
+      <c r="AS121" s="149"/>
+      <c r="AT121" s="149"/>
+      <c r="AU121" s="149"/>
+      <c r="AV121" s="149"/>
+      <c r="AW121" s="149"/>
+      <c r="AX121" s="149"/>
+      <c r="AY121" s="149"/>
+      <c r="AZ121" s="150">
         <v>1</v>
       </c>
       <c r="BA121" s="78" t="s">
@@ -23619,7 +23619,7 @@
       <c r="AN134" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="AO134" s="218">
+      <c r="AO134" s="155">
         <v>0</v>
       </c>
       <c r="AP134" s="77">
@@ -23629,7 +23629,7 @@
         <v>1</v>
       </c>
       <c r="AR134" s="77"/>
-      <c r="AS134" s="218"/>
+      <c r="AS134" s="155"/>
       <c r="AT134" s="77"/>
       <c r="AU134" s="77"/>
       <c r="AV134" s="77"/>
@@ -24021,24 +24021,24 @@
       <c r="AJ140" s="42"/>
       <c r="AK140" s="42"/>
       <c r="AL140" s="42"/>
-      <c r="AM140" s="198" t="s">
+      <c r="AM140" s="170" t="s">
         <v>295</v>
       </c>
-      <c r="AN140" s="199"/>
-      <c r="AO140" s="159" t="s">
+      <c r="AN140" s="171"/>
+      <c r="AO140" s="172" t="s">
         <v>338</v>
       </c>
-      <c r="AP140" s="160"/>
-      <c r="AQ140" s="160"/>
-      <c r="AR140" s="160"/>
-      <c r="AS140" s="160"/>
-      <c r="AT140" s="160"/>
-      <c r="AU140" s="160"/>
-      <c r="AV140" s="160"/>
-      <c r="AW140" s="160"/>
-      <c r="AX140" s="160"/>
-      <c r="AY140" s="160"/>
-      <c r="AZ140" s="177"/>
+      <c r="AP140" s="173"/>
+      <c r="AQ140" s="173"/>
+      <c r="AR140" s="173"/>
+      <c r="AS140" s="173"/>
+      <c r="AT140" s="173"/>
+      <c r="AU140" s="173"/>
+      <c r="AV140" s="173"/>
+      <c r="AW140" s="173"/>
+      <c r="AX140" s="173"/>
+      <c r="AY140" s="173"/>
+      <c r="AZ140" s="174"/>
       <c r="BA140" s="42"/>
       <c r="BB140" s="42"/>
       <c r="BC140" s="42"/>
@@ -24088,20 +24088,20 @@
       <c r="AL141" s="42"/>
       <c r="AM141" s="42"/>
       <c r="AN141" s="42"/>
-      <c r="AO141" s="225" t="s">
+      <c r="AO141" s="162" t="s">
         <v>584</v>
       </c>
-      <c r="AP141" s="226"/>
-      <c r="AQ141" s="226"/>
-      <c r="AR141" s="226"/>
-      <c r="AS141" s="226"/>
-      <c r="AT141" s="226"/>
-      <c r="AU141" s="226"/>
-      <c r="AV141" s="226"/>
-      <c r="AW141" s="226"/>
-      <c r="AX141" s="226"/>
-      <c r="AY141" s="226"/>
-      <c r="AZ141" s="227"/>
+      <c r="AP141" s="163"/>
+      <c r="AQ141" s="163"/>
+      <c r="AR141" s="163"/>
+      <c r="AS141" s="163"/>
+      <c r="AT141" s="163"/>
+      <c r="AU141" s="163"/>
+      <c r="AV141" s="163"/>
+      <c r="AW141" s="163"/>
+      <c r="AX141" s="163"/>
+      <c r="AY141" s="163"/>
+      <c r="AZ141" s="164"/>
       <c r="BA141" s="42"/>
       <c r="BB141" s="42"/>
       <c r="BC141" s="42"/>
@@ -24210,24 +24210,24 @@
       <c r="AJ143" s="42"/>
       <c r="AK143" s="42"/>
       <c r="AL143" s="42"/>
-      <c r="AM143" s="198" t="s">
+      <c r="AM143" s="170" t="s">
         <v>294</v>
       </c>
-      <c r="AN143" s="199"/>
-      <c r="AO143" s="159" t="s">
+      <c r="AN143" s="171"/>
+      <c r="AO143" s="172" t="s">
         <v>296</v>
       </c>
-      <c r="AP143" s="160"/>
-      <c r="AQ143" s="160"/>
-      <c r="AR143" s="160"/>
-      <c r="AS143" s="160"/>
-      <c r="AT143" s="160"/>
-      <c r="AU143" s="160"/>
-      <c r="AV143" s="160"/>
-      <c r="AW143" s="160"/>
-      <c r="AX143" s="160"/>
-      <c r="AY143" s="160"/>
-      <c r="AZ143" s="177"/>
+      <c r="AP143" s="173"/>
+      <c r="AQ143" s="173"/>
+      <c r="AR143" s="173"/>
+      <c r="AS143" s="173"/>
+      <c r="AT143" s="173"/>
+      <c r="AU143" s="173"/>
+      <c r="AV143" s="173"/>
+      <c r="AW143" s="173"/>
+      <c r="AX143" s="173"/>
+      <c r="AY143" s="173"/>
+      <c r="AZ143" s="174"/>
       <c r="BA143" s="42"/>
       <c r="BB143" s="42"/>
       <c r="BC143" s="42"/>
@@ -24277,20 +24277,20 @@
       <c r="AL144" s="42"/>
       <c r="AM144" s="42"/>
       <c r="AN144" s="42"/>
-      <c r="AO144" s="222" t="s">
+      <c r="AO144" s="159" t="s">
         <v>603</v>
       </c>
-      <c r="AP144" s="221"/>
-      <c r="AQ144" s="221"/>
-      <c r="AR144" s="221"/>
-      <c r="AS144" s="223"/>
-      <c r="AT144" s="221"/>
-      <c r="AU144" s="221"/>
-      <c r="AV144" s="221"/>
-      <c r="AW144" s="221"/>
-      <c r="AX144" s="221"/>
-      <c r="AY144" s="221"/>
-      <c r="AZ144" s="224"/>
+      <c r="AP144" s="158"/>
+      <c r="AQ144" s="158"/>
+      <c r="AR144" s="158"/>
+      <c r="AS144" s="160"/>
+      <c r="AT144" s="158"/>
+      <c r="AU144" s="158"/>
+      <c r="AV144" s="158"/>
+      <c r="AW144" s="158"/>
+      <c r="AX144" s="158"/>
+      <c r="AY144" s="158"/>
+      <c r="AZ144" s="161"/>
       <c r="BA144" s="42"/>
       <c r="BB144" s="42"/>
       <c r="BC144" s="42"/>
@@ -24462,24 +24462,24 @@
       <c r="AJ147" s="42"/>
       <c r="AK147" s="42"/>
       <c r="AL147" s="42"/>
-      <c r="AM147" s="198" t="s">
+      <c r="AM147" s="170" t="s">
         <v>605</v>
       </c>
-      <c r="AN147" s="199"/>
-      <c r="AO147" s="159" t="s">
+      <c r="AN147" s="171"/>
+      <c r="AO147" s="172" t="s">
         <v>590</v>
       </c>
-      <c r="AP147" s="160"/>
-      <c r="AQ147" s="160"/>
-      <c r="AR147" s="160"/>
-      <c r="AS147" s="160"/>
-      <c r="AT147" s="160"/>
-      <c r="AU147" s="160"/>
-      <c r="AV147" s="160"/>
-      <c r="AW147" s="160"/>
-      <c r="AX147" s="160"/>
-      <c r="AY147" s="160"/>
-      <c r="AZ147" s="177"/>
+      <c r="AP147" s="173"/>
+      <c r="AQ147" s="173"/>
+      <c r="AR147" s="173"/>
+      <c r="AS147" s="173"/>
+      <c r="AT147" s="173"/>
+      <c r="AU147" s="173"/>
+      <c r="AV147" s="173"/>
+      <c r="AW147" s="173"/>
+      <c r="AX147" s="173"/>
+      <c r="AY147" s="173"/>
+      <c r="AZ147" s="174"/>
       <c r="BA147" s="42"/>
       <c r="BB147" s="42"/>
       <c r="BC147" s="42"/>
@@ -24529,20 +24529,20 @@
       <c r="AL148" s="42"/>
       <c r="AM148" s="42"/>
       <c r="AN148" s="42"/>
-      <c r="AO148" s="222" t="s">
+      <c r="AO148" s="159" t="s">
         <v>606</v>
       </c>
-      <c r="AP148" s="221"/>
-      <c r="AQ148" s="221"/>
-      <c r="AR148" s="221"/>
-      <c r="AS148" s="223"/>
-      <c r="AT148" s="221"/>
-      <c r="AU148" s="221"/>
-      <c r="AV148" s="221"/>
-      <c r="AW148" s="221"/>
-      <c r="AX148" s="221"/>
-      <c r="AY148" s="221"/>
-      <c r="AZ148" s="224"/>
+      <c r="AP148" s="158"/>
+      <c r="AQ148" s="158"/>
+      <c r="AR148" s="158"/>
+      <c r="AS148" s="160"/>
+      <c r="AT148" s="158"/>
+      <c r="AU148" s="158"/>
+      <c r="AV148" s="158"/>
+      <c r="AW148" s="158"/>
+      <c r="AX148" s="158"/>
+      <c r="AY148" s="158"/>
+      <c r="AZ148" s="161"/>
       <c r="BA148" s="42"/>
       <c r="BB148" s="42"/>
       <c r="BC148" s="42"/>
@@ -24714,24 +24714,24 @@
       <c r="AJ151" s="42"/>
       <c r="AK151" s="42"/>
       <c r="AL151" s="42"/>
-      <c r="AM151" s="198" t="s">
+      <c r="AM151" s="170" t="s">
         <v>608</v>
       </c>
-      <c r="AN151" s="199"/>
-      <c r="AO151" s="159" t="s">
+      <c r="AN151" s="171"/>
+      <c r="AO151" s="172" t="s">
         <v>591</v>
       </c>
-      <c r="AP151" s="160"/>
-      <c r="AQ151" s="160"/>
-      <c r="AR151" s="160"/>
-      <c r="AS151" s="160"/>
-      <c r="AT151" s="160"/>
-      <c r="AU151" s="160"/>
-      <c r="AV151" s="160"/>
-      <c r="AW151" s="160"/>
-      <c r="AX151" s="160"/>
-      <c r="AY151" s="160"/>
-      <c r="AZ151" s="177"/>
+      <c r="AP151" s="173"/>
+      <c r="AQ151" s="173"/>
+      <c r="AR151" s="173"/>
+      <c r="AS151" s="173"/>
+      <c r="AT151" s="173"/>
+      <c r="AU151" s="173"/>
+      <c r="AV151" s="173"/>
+      <c r="AW151" s="173"/>
+      <c r="AX151" s="173"/>
+      <c r="AY151" s="173"/>
+      <c r="AZ151" s="174"/>
       <c r="BA151" s="42"/>
       <c r="BB151" s="42"/>
       <c r="BC151" s="42"/>
@@ -24781,20 +24781,20 @@
       <c r="AL152" s="42"/>
       <c r="AM152" s="42"/>
       <c r="AN152" s="42"/>
-      <c r="AO152" s="222" t="s">
+      <c r="AO152" s="159" t="s">
         <v>609</v>
       </c>
-      <c r="AP152" s="221"/>
-      <c r="AQ152" s="221"/>
-      <c r="AR152" s="221"/>
-      <c r="AS152" s="223"/>
-      <c r="AT152" s="221"/>
-      <c r="AU152" s="221"/>
-      <c r="AV152" s="221"/>
-      <c r="AW152" s="221"/>
-      <c r="AX152" s="221"/>
-      <c r="AY152" s="221"/>
-      <c r="AZ152" s="224"/>
+      <c r="AP152" s="158"/>
+      <c r="AQ152" s="158"/>
+      <c r="AR152" s="158"/>
+      <c r="AS152" s="160"/>
+      <c r="AT152" s="158"/>
+      <c r="AU152" s="158"/>
+      <c r="AV152" s="158"/>
+      <c r="AW152" s="158"/>
+      <c r="AX152" s="158"/>
+      <c r="AY152" s="158"/>
+      <c r="AZ152" s="161"/>
       <c r="BA152" s="42"/>
       <c r="BB152" s="42"/>
       <c r="BC152" s="42"/>
@@ -24966,24 +24966,24 @@
       <c r="AJ155" s="42"/>
       <c r="AK155" s="42"/>
       <c r="AL155" s="42"/>
-      <c r="AM155" s="198" t="s">
+      <c r="AM155" s="170" t="s">
         <v>610</v>
       </c>
-      <c r="AN155" s="199"/>
-      <c r="AO155" s="159" t="s">
+      <c r="AN155" s="171"/>
+      <c r="AO155" s="172" t="s">
         <v>592</v>
       </c>
-      <c r="AP155" s="160"/>
-      <c r="AQ155" s="160"/>
-      <c r="AR155" s="160"/>
-      <c r="AS155" s="160"/>
-      <c r="AT155" s="160"/>
-      <c r="AU155" s="160"/>
-      <c r="AV155" s="160"/>
-      <c r="AW155" s="160"/>
-      <c r="AX155" s="160"/>
-      <c r="AY155" s="160"/>
-      <c r="AZ155" s="177"/>
+      <c r="AP155" s="173"/>
+      <c r="AQ155" s="173"/>
+      <c r="AR155" s="173"/>
+      <c r="AS155" s="173"/>
+      <c r="AT155" s="173"/>
+      <c r="AU155" s="173"/>
+      <c r="AV155" s="173"/>
+      <c r="AW155" s="173"/>
+      <c r="AX155" s="173"/>
+      <c r="AY155" s="173"/>
+      <c r="AZ155" s="174"/>
       <c r="BA155" s="42"/>
       <c r="BB155" s="42"/>
       <c r="BC155" s="42"/>
@@ -25033,20 +25033,20 @@
       <c r="AL156" s="42"/>
       <c r="AM156" s="42"/>
       <c r="AN156" s="42"/>
-      <c r="AO156" s="222" t="s">
+      <c r="AO156" s="159" t="s">
         <v>611</v>
       </c>
-      <c r="AP156" s="221"/>
-      <c r="AQ156" s="221"/>
-      <c r="AR156" s="221"/>
-      <c r="AS156" s="223"/>
-      <c r="AT156" s="221"/>
-      <c r="AU156" s="221"/>
-      <c r="AV156" s="221"/>
-      <c r="AW156" s="221"/>
-      <c r="AX156" s="221"/>
-      <c r="AY156" s="221"/>
-      <c r="AZ156" s="224"/>
+      <c r="AP156" s="158"/>
+      <c r="AQ156" s="158"/>
+      <c r="AR156" s="158"/>
+      <c r="AS156" s="160"/>
+      <c r="AT156" s="158"/>
+      <c r="AU156" s="158"/>
+      <c r="AV156" s="158"/>
+      <c r="AW156" s="158"/>
+      <c r="AX156" s="158"/>
+      <c r="AY156" s="158"/>
+      <c r="AZ156" s="161"/>
       <c r="BA156" s="42"/>
       <c r="BB156" s="42"/>
       <c r="BC156" s="42"/>
@@ -25218,24 +25218,24 @@
       <c r="AJ159" s="42"/>
       <c r="AK159" s="42"/>
       <c r="AL159" s="42"/>
-      <c r="AM159" s="198" t="s">
+      <c r="AM159" s="170" t="s">
         <v>612</v>
       </c>
-      <c r="AN159" s="199"/>
-      <c r="AO159" s="159" t="s">
+      <c r="AN159" s="171"/>
+      <c r="AO159" s="172" t="s">
         <v>613</v>
       </c>
-      <c r="AP159" s="160"/>
-      <c r="AQ159" s="160"/>
-      <c r="AR159" s="160"/>
-      <c r="AS159" s="160"/>
-      <c r="AT159" s="160"/>
-      <c r="AU159" s="160"/>
-      <c r="AV159" s="160"/>
-      <c r="AW159" s="160"/>
-      <c r="AX159" s="160"/>
-      <c r="AY159" s="160"/>
-      <c r="AZ159" s="177"/>
+      <c r="AP159" s="173"/>
+      <c r="AQ159" s="173"/>
+      <c r="AR159" s="173"/>
+      <c r="AS159" s="173"/>
+      <c r="AT159" s="173"/>
+      <c r="AU159" s="173"/>
+      <c r="AV159" s="173"/>
+      <c r="AW159" s="173"/>
+      <c r="AX159" s="173"/>
+      <c r="AY159" s="173"/>
+      <c r="AZ159" s="174"/>
       <c r="BA159" s="42"/>
       <c r="BB159" s="42"/>
       <c r="BC159" s="42"/>
@@ -25285,20 +25285,20 @@
       <c r="AL160" s="42"/>
       <c r="AM160" s="42"/>
       <c r="AN160" s="42"/>
-      <c r="AO160" s="222" t="s">
-        <v>614</v>
-      </c>
-      <c r="AP160" s="221"/>
-      <c r="AQ160" s="221"/>
-      <c r="AR160" s="221"/>
-      <c r="AS160" s="223"/>
-      <c r="AT160" s="221"/>
-      <c r="AU160" s="221"/>
-      <c r="AV160" s="221"/>
-      <c r="AW160" s="221"/>
-      <c r="AX160" s="221"/>
-      <c r="AY160" s="221"/>
-      <c r="AZ160" s="224"/>
+      <c r="AO160" s="159" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP160" s="158"/>
+      <c r="AQ160" s="158"/>
+      <c r="AR160" s="158"/>
+      <c r="AS160" s="160"/>
+      <c r="AT160" s="158"/>
+      <c r="AU160" s="158"/>
+      <c r="AV160" s="158"/>
+      <c r="AW160" s="158"/>
+      <c r="AX160" s="158"/>
+      <c r="AY160" s="158"/>
+      <c r="AZ160" s="161"/>
       <c r="BA160" s="42"/>
       <c r="BB160" s="42"/>
       <c r="BC160" s="42"/>
@@ -25349,7 +25349,7 @@
       <c r="AM161" s="42"/>
       <c r="AN161" s="42"/>
       <c r="AO161" s="67" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP161" s="70"/>
       <c r="AQ161" s="70"/>
@@ -25412,7 +25412,7 @@
       <c r="AM162" s="42"/>
       <c r="AN162" s="42"/>
       <c r="AO162" s="67" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AP162" s="70"/>
       <c r="AQ162" s="70"/>
@@ -25533,24 +25533,24 @@
       <c r="AJ164" s="42"/>
       <c r="AK164" s="42"/>
       <c r="AL164" s="42"/>
-      <c r="AM164" s="198" t="s">
-        <v>617</v>
-      </c>
-      <c r="AN164" s="199"/>
-      <c r="AO164" s="159" t="s">
-        <v>618</v>
-      </c>
-      <c r="AP164" s="160"/>
-      <c r="AQ164" s="160"/>
-      <c r="AR164" s="160"/>
-      <c r="AS164" s="160"/>
-      <c r="AT164" s="160"/>
-      <c r="AU164" s="160"/>
-      <c r="AV164" s="160"/>
-      <c r="AW164" s="160"/>
-      <c r="AX164" s="160"/>
-      <c r="AY164" s="160"/>
-      <c r="AZ164" s="177"/>
+      <c r="AM164" s="170" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN164" s="171"/>
+      <c r="AO164" s="172" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP164" s="173"/>
+      <c r="AQ164" s="173"/>
+      <c r="AR164" s="173"/>
+      <c r="AS164" s="173"/>
+      <c r="AT164" s="173"/>
+      <c r="AU164" s="173"/>
+      <c r="AV164" s="173"/>
+      <c r="AW164" s="173"/>
+      <c r="AX164" s="173"/>
+      <c r="AY164" s="173"/>
+      <c r="AZ164" s="174"/>
       <c r="BA164" s="42"/>
       <c r="BB164" s="42"/>
       <c r="BC164" s="42"/>
@@ -25600,20 +25600,20 @@
       <c r="AL165" s="42"/>
       <c r="AM165" s="42"/>
       <c r="AN165" s="42"/>
-      <c r="AO165" s="222" t="s">
-        <v>619</v>
-      </c>
-      <c r="AP165" s="221"/>
-      <c r="AQ165" s="221"/>
-      <c r="AR165" s="221"/>
-      <c r="AS165" s="223"/>
-      <c r="AT165" s="221"/>
-      <c r="AU165" s="221"/>
-      <c r="AV165" s="221"/>
-      <c r="AW165" s="221"/>
-      <c r="AX165" s="221"/>
-      <c r="AY165" s="221"/>
-      <c r="AZ165" s="224"/>
+      <c r="AO165" s="159" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP165" s="158"/>
+      <c r="AQ165" s="158"/>
+      <c r="AR165" s="158"/>
+      <c r="AS165" s="160"/>
+      <c r="AT165" s="158"/>
+      <c r="AU165" s="158"/>
+      <c r="AV165" s="158"/>
+      <c r="AW165" s="158"/>
+      <c r="AX165" s="158"/>
+      <c r="AY165" s="158"/>
+      <c r="AZ165" s="161"/>
       <c r="BA165" s="42"/>
       <c r="BB165" s="42"/>
       <c r="BC165" s="42"/>
@@ -28110,16 +28110,188 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="AM147:AN147"/>
-    <mergeCell ref="AO147:AZ147"/>
-    <mergeCell ref="AM151:AN151"/>
-    <mergeCell ref="AO151:AZ151"/>
-    <mergeCell ref="AM155:AN155"/>
-    <mergeCell ref="AO155:AZ155"/>
-    <mergeCell ref="AM159:AN159"/>
-    <mergeCell ref="AO159:AZ159"/>
-    <mergeCell ref="AM164:AN164"/>
-    <mergeCell ref="AO164:AZ164"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="N16:AF16"/>
+    <mergeCell ref="P17:AF17"/>
+    <mergeCell ref="P18:AF18"/>
+    <mergeCell ref="E108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="AX41:AY41"/>
+    <mergeCell ref="AZ41:BA41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="E97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="AZ23:BF23"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="AL15:BF15"/>
+    <mergeCell ref="AN16:BF16"/>
+    <mergeCell ref="AP17:BF17"/>
+    <mergeCell ref="AP18:BF18"/>
+    <mergeCell ref="AX22:BF22"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AX46:BD46"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="G46:AE46"/>
+    <mergeCell ref="AH46:AS46"/>
+    <mergeCell ref="AT46:AU46"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="AH44:AS44"/>
+    <mergeCell ref="AT44:AU44"/>
+    <mergeCell ref="AV44:AW44"/>
+    <mergeCell ref="AX44:BD44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="AT45:AU45"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="AT41:AU41"/>
+    <mergeCell ref="AV41:AW41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP39:AQ39"/>
+    <mergeCell ref="AJ39:AK39"/>
+    <mergeCell ref="AL39:AM39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AJ41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AN41:AO41"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="E95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="AX33:BD33"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="AH33:AS33"/>
+    <mergeCell ref="AN39:AO39"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="R108:AC108"/>
+    <mergeCell ref="AL108:AN108"/>
+    <mergeCell ref="AL106:AN106"/>
+    <mergeCell ref="AD106:AK106"/>
+    <mergeCell ref="AD108:AK108"/>
+    <mergeCell ref="R106:AC106"/>
+    <mergeCell ref="AM120:AN120"/>
+    <mergeCell ref="AO120:AZ120"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E106:K106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AV46:AW46"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="AM140:AN140"/>
     <mergeCell ref="AM143:AN143"/>
     <mergeCell ref="AO140:AZ140"/>
@@ -28144,188 +28316,16 @@
     <mergeCell ref="AO115:AZ115"/>
     <mergeCell ref="O106:Q106"/>
     <mergeCell ref="O108:Q108"/>
-    <mergeCell ref="R108:AC108"/>
-    <mergeCell ref="AL108:AN108"/>
-    <mergeCell ref="AL106:AN106"/>
-    <mergeCell ref="AD106:AK106"/>
-    <mergeCell ref="AD108:AK108"/>
-    <mergeCell ref="R106:AC106"/>
-    <mergeCell ref="AM120:AN120"/>
-    <mergeCell ref="AO120:AZ120"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E106:K106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AV46:AW46"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AK30"/>
-    <mergeCell ref="AL30:AM30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="E95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="AX33:BD33"/>
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="AH33:AS33"/>
-    <mergeCell ref="AN39:AO39"/>
-    <mergeCell ref="AP39:AQ39"/>
-    <mergeCell ref="AJ39:AK39"/>
-    <mergeCell ref="AL39:AM39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AJ41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AN41:AO41"/>
-    <mergeCell ref="AT41:AU41"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="AX46:BD46"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="G46:AE46"/>
-    <mergeCell ref="AH46:AS46"/>
-    <mergeCell ref="AT46:AU46"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="AH44:AS44"/>
-    <mergeCell ref="AT44:AU44"/>
-    <mergeCell ref="AV44:AW44"/>
-    <mergeCell ref="AX44:BD44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="AT45:AU45"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="AX41:AY41"/>
-    <mergeCell ref="AZ41:BA41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="E97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="E108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AZ23:BF23"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="N16:AF16"/>
-    <mergeCell ref="P17:AF17"/>
-    <mergeCell ref="P18:AF18"/>
-    <mergeCell ref="AL15:BF15"/>
-    <mergeCell ref="AN16:BF16"/>
-    <mergeCell ref="AP17:BF17"/>
-    <mergeCell ref="AP18:BF18"/>
-    <mergeCell ref="AX22:BF22"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AM147:AN147"/>
+    <mergeCell ref="AO147:AZ147"/>
+    <mergeCell ref="AM151:AN151"/>
+    <mergeCell ref="AO151:AZ151"/>
+    <mergeCell ref="AM155:AN155"/>
+    <mergeCell ref="AO155:AZ155"/>
+    <mergeCell ref="AM159:AN159"/>
+    <mergeCell ref="AO159:AZ159"/>
+    <mergeCell ref="AM164:AN164"/>
+    <mergeCell ref="AO164:AZ164"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
